--- a/sources/case/ApprovalTypes.xlsx
+++ b/sources/case/ApprovalTypes.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7560"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7560" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Base" sheetId="1" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="66" uniqueCount="57">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="125" uniqueCount="59">
   <si>
     <t>API</t>
   </si>
@@ -58,84 +58,12 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>uuid</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>name</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>form_id</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>form_name</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>description</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>status</t>
   </si>
   <si>
-    <t>tenant_id</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>00b19169-fc38-4e51-a99f-98f31ccaa46d</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>active</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>icon_url</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>category</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>notice_type</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>no</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>duplicate_type</t>
   </si>
   <si>
-    <t>has_approval</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>y</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>sub_category</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>notice_type</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>duplicate_type</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>process_list</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>cc_list</t>
   </si>
   <si>
@@ -147,45 +75,9 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>duplicate</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>[]</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>95de83f6-0f75-11e7-8ff3-00163e007053</t>
   </si>
   <si>
-    <t>请假</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>leave_request</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>attendance</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>duplicate</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>approvals</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>[{"uuid":"95defc56-0f75-11e7-8ff3-00163e007053","approvers":[{"uuid":"95df24ba-0f75-11e7-8ff3-00163e007053","type":"reporting_to","value":"1"},{"uuid":"","type":"login_user_department_manager","value":""},{"uuid":"","type":"department_manager","value":"c8e22cfe-0f75-11e7-9aa4-00163e007053"},{"uuid":"","type":"employee","value":"7e254521-b2e4-11e7-93d8-5254001aba5d"}],"target_type":"tenant","target_value":"\"00b19169-fc38-4e51-a99f-98f31ccaa46d\""}]</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>["95defc56-0f75-11e7-8ff3-00163e007053"]</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>types_2</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -193,45 +85,11 @@
     <t>many_times</t>
   </si>
   <si>
-    <t>[{"employee_id":"b8a23753-0f75-11e7-9aa4-00163e007053"}]</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>95d72f09-0f75-11e7-8ff3-00163e007053</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>调整</t>
-  </si>
-  <si>
-    <t>employee_adjust</t>
-  </si>
-  <si>
-    <t>00b19169-fc38-4e51-a99f-98f31ccaa46d</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>hr</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>["95d79cad-0f75-11e7-8ff3-00163e007053"]</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>type_id</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>/automation/v1/approval/types/{type_id}/op/all</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>95d72f09-0f75-11e7-8ff3-00163e007053</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>[{"uuid":"95d79cad-0f75-11e7-8ff3-00163e007053","approvers":[{"uuid":"95d8921a-0f75-11e7-8ff3-00163e007053","type":"login_user_department_manager","value":""},{"uuid":"","type":"reporting_to","value":"1"},{"uuid":"","type":"department_manager","value":"d495a1cc-0f75-11e7-9aa4-00163e007053"},{"uuid":"","type":"employee","value":"b8a23753-0f75-11e7-9aa4-00163e007053"}],"target_type":"tenant","target_value":"\"00b19169-fc38-4e51-a99f-98f31ccaa46d\""},{"uuid":"04ebe5e7-b25e-11e7-b116-5254001aba5d","approvers":[{"uuid":"","type":"login_user_department_manager","value":""}],"target_type":"sponsor","target_value":"{\"department\":[\"d495a1cc-0f75-11e7-9aa4-00163e007053\"]}"},{"uuid":"04ecab18-b25e-11e7-b116-5254001aba5d","approvers":[{"uuid":"","type":"reporting_to","value":"2"}],"target_type":"duration","target_value":"{\"symbol\":\"==\",\"unit\":\"d\",\"number\":\"3\"}"},{"uuid":"04ed65c5-b25e-11e7-b116-5254001aba5d","approvers":[{"uuid":"","type":"department_manager","value":"c8e22cfe-0f75-11e7-9aa4-00163e007053"}],"target_type":"money","target_value":"{\"symbol\":\"==\",\"unit\":\"元\",\"number\":\"2000\"}"},{"uuid":"04ee1082-b25e-11e7-b116-5254001aba5d","approvers":[{"uuid":"","type":"employee","value":"b8a23753-0f75-11e7-9aa4-00163e007053"}],"target_type":"sponsor","target_value":"{\"employee\":[\"b8a23753-0f75-11e7-9aa4-00163e007053\"]}"}]</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
@@ -264,12 +122,128 @@
     </r>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
+  <si>
+    <t>types_2</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>95de83f6-0f75-11e7-8ff3-00163e007053</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>process_list</t>
+  </si>
+  <si>
+    <t>sub_category</t>
+  </si>
+  <si>
+    <t>notice_type</t>
+  </si>
+  <si>
+    <t>duplicate</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>[]</t>
+  </si>
+  <si>
+    <t>tenant_id</t>
+  </si>
+  <si>
+    <t>icon_url</t>
+  </si>
+  <si>
+    <t>form_id</t>
+  </si>
+  <si>
+    <t>description</t>
+  </si>
+  <si>
+    <t>uuid</t>
+  </si>
+  <si>
+    <t>created_by</t>
+  </si>
+  <si>
+    <t>has_approval</t>
+  </si>
+  <si>
+    <t>approvals</t>
+  </si>
+  <si>
+    <t>name</t>
+  </si>
+  <si>
+    <t>category</t>
+  </si>
+  <si>
+    <t>form_name</t>
+  </si>
+  <si>
+    <t>00b19169-fc38-4e51-a99f-98f31ccaa46d</t>
+  </si>
+  <si>
+    <t>5ceb080b-0e25-11e7-b0e5-00163e007053</t>
+  </si>
+  <si>
+    <t>y</t>
+  </si>
+  <si>
+    <t>请假</t>
+  </si>
+  <si>
+    <t>attendance</t>
+  </si>
+  <si>
+    <t>leave_request</t>
+  </si>
+  <si>
+    <t>active</t>
+  </si>
+  <si>
+    <t>approval_start</t>
+  </si>
+  <si>
+    <t>["95defc56-0f75-11e7-8ff3-00163e007053","3d5ee058-b3b3-11e7-aa53-5254001aba5d","3d60d30d-b3b3-11e7-aa53-5254001aba5d","3d61ad97-b3b3-11e7-aa53-5254001aba5d"]</t>
+  </si>
+  <si>
+    <t>types_3</t>
+  </si>
+  <si>
+    <t>approval_end</t>
+  </si>
+  <si>
+    <t>types_4</t>
+  </si>
+  <si>
+    <t>continuous_multiple_times</t>
+  </si>
+  <si>
+    <t>[{"target_value":"{}","target_type":"","approvers":[{"type":"login_user_department_manager","uuid":"248b166c-470d-4516-9c40-3b119d0c4bad","value":""},{"type":"reporting_to","uuid":"7a68be4e-122c-4802-93e4-6d8d640deb65","value":"1"},{"type":"employee","uuid":"dc77da53-128a-461f-9a31-12b60210e07f","value":"7e2870af-b2e4-11e7-93d8-5254001aba5d"}],"uuid":"95defc56-0f75-11e7-8ff3-00163e007053"},{"target_value":"{\"department\":[\"d495a1cc-0f75-11e7-9aa4-00163e007053\"],\"employee\":[\"7e26644b-b2e4-11e7-93d8-5254001aba5d\"]}","target_type":"sponsor","approvers":[{"type":"reporting_to","uuid":"","value":"1"},{"type":"login_user_department_manager","uuid":"","value":""},{"type":"department_manager","uuid":"","value":"9bc4b814-b2e4-11e7-93d8-5254001aba5d"},{"type":"employee","uuid":"","value":"7e2870af-b2e4-11e7-93d8-5254001aba5d"}],"uuid":"3d5ee058-b3b3-11e7-aa53-5254001aba5d"},{"target_value":"{\"symbol\":\"&lt;=\",\"unit\":\"d\",\"number\":\"2\"}","target_type":"duration","approvers":[{"type":"department_manager","uuid":"3d619823-b3b3-11e7-aa53-5254001aba5d","value":"9bc4b814-b2e4-11e7-93d8-5254001aba5d"}],"uuid":"3d60d30d-b3b3-11e7-aa53-5254001aba5d"},{"target_value":"{\"symbol\":\"&gt;=\",\"unit\":\"d\",\"number\":\"3\"}","target_type":"duration","approvers":[{"type":"department_manager","uuid":"3d625cc9-b3b3-11e7-aa53-5254001aba5d","value":"d495a1cc-0f75-11e7-9aa4-00163e007053"},{"type":"department_manager","uuid":"3d627286-b3b3-11e7-aa53-5254001aba5d","value":"9bc4b814-b2e4-11e7-93d8-5254001aba5d"},{"type":"employee","uuid":"3d628934-b3b3-11e7-aa53-5254001aba5d","value":"7e33d0c3-b2e4-11e7-93d8-5254001aba5d"},{"type":"employee","uuid":"3d629e51-b3b3-11e7-aa53-5254001aba5d","value":"7e2870af-b2e4-11e7-93d8-5254001aba5d"}],"uuid":"3d61ad97-b3b3-11e7-aa53-5254001aba5d"}]</t>
+  </si>
+  <si>
+    <t>[{"employee_id":"b8a23753-0f75-11e7-9aa4-00163e007053"}]</t>
+  </si>
+  <si>
+    <t>[{"employee_id":"b8a23753-0f75-11e7-9aa4-00163e007053"},{"employee_id":"7e2bb13d-b2e4-11e7-93d8-5254001aba5d"}]</t>
+  </si>
+  <si>
+    <t>[{"target_value":"{}","target_type":"","approvers":[{"type":"login_user_department_manager","uuid":"248b166c-470d-4516-9c40-3b119d0c4bad","value":""},{"type":"reporting_to","uuid":"7a68be4e-122c-4802-93e4-6d8d640deb65","value":"1"},{"type":"employee","uuid":"dc77da53-128a-461f-9a31-12b60210e07f","value":"7e2870af-b2e4-11e7-93d8-5254001aba5d"}],"uuid":"95defc56-0f75-11e7-8ff3-00163e007053"},{"target_value":"{\"department\":[\"d495a1cc-0f75-11e7-9aa4-00163e007053\"],\"employee\":[\"7e26644b-b2e4-11e7-93d8-5254001aba5d\"]}","target_type":"sponsor","approvers":[{"type":"login_user_department_manager","uuid":"d9749704-d084-4433-8382-2cd03d31be59","value":""}],"uuid":"3d5ee058-b3b3-11e7-aa53-5254001aba5d"},{"target_value":"{\"symbol\":\"&gt;\",\"unit\":\"d\",\"number\":\"2\"}","target_type":"duration","approvers":[{"type":"department_manager","uuid":"3d619823-b3b3-11e7-aa53-5254001aba5d","value":"9bc4b814-b2e4-11e7-93d8-5254001aba5d"}],"uuid":"3d60d30d-b3b3-11e7-aa53-5254001aba5d"},{"target_value":"{\"symbol\":\"==\",\"unit\":\"d\",\"number\":\"2\"}","target_type":"duration","approvers":[{"type":"department_manager","uuid":"3d625cc9-b3b3-11e7-aa53-5254001aba5d","value":"d495a1cc-0f75-11e7-9aa4-00163e007053"},{"type":"department_manager","uuid":"3d627286-b3b3-11e7-aa53-5254001aba5d","value":"9bc4b814-b2e4-11e7-93d8-5254001aba5d"},{"type":"employee","uuid":"3d628934-b3b3-11e7-aa53-5254001aba5d","value":"7e33d0c3-b2e4-11e7-93d8-5254001aba5d"},{"type":"employee","uuid":"3d629e51-b3b3-11e7-aa53-5254001aba5d","value":"7e2870af-b2e4-11e7-93d8-5254001aba5d"}],"uuid":"3d61ad97-b3b3-11e7-aa53-5254001aba5d"}]</t>
+  </si>
+  <si>
+    <t>[{"target_value":"{}","target_type":"","approvers":[{"type":"login_user_department_manager","uuid":"248b166c-470d-4516-9c40-3b119d0c4bad","value":""},{"type":"reporting_to","uuid":"7a68be4e-122c-4802-93e4-6d8d640deb65","value":"1"},{"type":"employee","uuid":"dc77da53-128a-461f-9a31-12b60210e07f","value":"7e2870af-b2e4-11e7-93d8-5254001aba5d"}],"uuid":"95defc56-0f75-11e7-8ff3-00163e007053"},{"target_value":"{\"department\":[\"d495a1cc-0f75-11e7-9aa4-00163e007053\"],\"employee\":[\"7e26644b-b2e4-11e7-93d8-5254001aba5d\"]}","target_type":"sponsor","approvers":[{"type":"department_manager","uuid":"","value":"c8e22cfe-0f75-11e7-9aa4-00163e007053"}],"uuid":"3d5ee058-b3b3-11e7-aa53-5254001aba5d"},{"target_value":"{\"symbol\":\"==\",\"unit\":\"d\",\"number\":\"2\"}","target_type":"duration","approvers":[{"type":"department_manager","uuid":"3d619823-b3b3-11e7-aa53-5254001aba5d","value":"9bc4b814-b2e4-11e7-93d8-5254001aba5d"}],"uuid":"3d60d30d-b3b3-11e7-aa53-5254001aba5d"},{"target_value":"{\"symbol\":\"&gt;=\",\"unit\":\"d\",\"number\":\"3\"}","target_type":"duration","approvers":[{"type":"department_manager","uuid":"3d625cc9-b3b3-11e7-aa53-5254001aba5d","value":"d495a1cc-0f75-11e7-9aa4-00163e007053"},{"type":"department_manager","uuid":"3d627286-b3b3-11e7-aa53-5254001aba5d","value":"9bc4b814-b2e4-11e7-93d8-5254001aba5d"},{"type":"employee","uuid":"3d628934-b3b3-11e7-aa53-5254001aba5d","value":"7e33d0c3-b2e4-11e7-93d8-5254001aba5d"},{"type":"employee","uuid":"3d629e51-b3b3-11e7-aa53-5254001aba5d","value":"7e2870af-b2e4-11e7-93d8-5254001aba5d"}],"uuid":"3d61ad97-b3b3-11e7-aa53-5254001aba5d"}]</t>
+  </si>
+  <si>
+    <t>[{"target_value":"{}","target_type":"","approvers":[{"type":"login_user_department_manager","uuid":"248b166c-470d-4516-9c40-3b119d0c4bad","value":""},{"type":"reporting_to","uuid":"7a68be4e-122c-4802-93e4-6d8d640deb65","value":"1"},{"type":"employee","uuid":"dc77da53-128a-461f-9a31-12b60210e07f","value":"7e2870af-b2e4-11e7-93d8-5254001aba5d"}],"uuid":"95defc56-0f75-11e7-8ff3-00163e007053"},{"target_value":"{\"department\":[\"d495a1cc-0f75-11e7-9aa4-00163e007053\"],\"employee\":[\"7e26644b-b2e4-11e7-93d8-5254001aba5d\"]}","target_type":"sponsor","approvers":[{"type":"department_manager","uuid":"","value":"9bc4b814-b2e4-11e7-93d8-5254001aba5d"},{"type":"employee","uuid":"","value":"7e254521-b2e4-11e7-93d8-5254001aba5d"}],"uuid":"3d5ee058-b3b3-11e7-aa53-5254001aba5d"},{"target_value":"{\"symbol\":\"&gt;\",\"unit\":\"d\",\"number\":\"2\"}","target_type":"duration","approvers":[{"type":"department_manager","uuid":"3d619823-b3b3-11e7-aa53-5254001aba5d","value":"9bc4b814-b2e4-11e7-93d8-5254001aba5d"}],"uuid":"3d60d30d-b3b3-11e7-aa53-5254001aba5d"},{"target_value":"{\"symbol\":\"==\",\"unit\":\"d\",\"number\":\"2\"}","target_type":"duration","approvers":[{"type":"department_manager","uuid":"3d625cc9-b3b3-11e7-aa53-5254001aba5d","value":"d495a1cc-0f75-11e7-9aa4-00163e007053"},{"type":"department_manager","uuid":"3d627286-b3b3-11e7-aa53-5254001aba5d","value":"9bc4b814-b2e4-11e7-93d8-5254001aba5d"},{"type":"employee","uuid":"3d628934-b3b3-11e7-aa53-5254001aba5d","value":"7e33d0c3-b2e4-11e7-93d8-5254001aba5d"},{"type":"employee","uuid":"3d629e51-b3b3-11e7-aa53-5254001aba5d","value":"7e2870af-b2e4-11e7-93d8-5254001aba5d"}],"uuid":"3d61ad97-b3b3-11e7-aa53-5254001aba5d"}]</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -307,12 +281,6 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <sz val="12"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -339,7 +307,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -349,14 +317,20 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -641,8 +615,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D9" sqref="D9"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D8" sqref="D8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -673,8 +647,8 @@
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A2" s="5" t="s">
-        <v>56</v>
+      <c r="A2" s="4" t="s">
+        <v>20</v>
       </c>
       <c r="B2" s="1" t="s">
         <v>7</v>
@@ -682,8 +656,8 @@
       <c r="C2" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="D2" s="4" t="s">
-        <v>52</v>
+      <c r="D2" s="3" t="s">
+        <v>18</v>
       </c>
       <c r="E2" s="1" t="s">
         <v>5</v>
@@ -697,21 +671,20 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G3"/>
+  <dimension ref="A1:G5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F3" sqref="F3"/>
+      <selection activeCell="E11" sqref="E11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="7.125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="38.375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="11" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="13.75" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="24.125" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="12.625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="10.625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="57" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="56.125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="13.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.2">
@@ -719,62 +692,114 @@
         <v>6</v>
       </c>
       <c r="B1" t="s">
-        <v>51</v>
-      </c>
-      <c r="C1" t="s">
-        <v>26</v>
-      </c>
-      <c r="D1" t="s">
-        <v>27</v>
-      </c>
-      <c r="E1" t="s">
+        <v>17</v>
+      </c>
+      <c r="C1" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="D1" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="E1" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="F1" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="G1" s="5" t="s">
         <v>25</v>
-      </c>
-      <c r="F1" t="s">
-        <v>28</v>
-      </c>
-      <c r="G1" t="s">
-        <v>29</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>30</v>
+        <v>12</v>
       </c>
       <c r="B2" t="s">
-        <v>55</v>
+        <v>19</v>
       </c>
       <c r="C2" t="s">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="D2" t="s">
-        <v>32</v>
+        <v>57</v>
+      </c>
+      <c r="E2" t="s">
+        <v>27</v>
       </c>
       <c r="F2" t="s">
-        <v>40</v>
+        <v>28</v>
       </c>
       <c r="G2" t="s">
-        <v>33</v>
+        <v>50</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>42</v>
+        <v>21</v>
       </c>
       <c r="B3" t="s">
+        <v>22</v>
+      </c>
+      <c r="C3" t="s">
+        <v>16</v>
+      </c>
+      <c r="D3" t="s">
         <v>53</v>
       </c>
-      <c r="C3" t="s">
-        <v>21</v>
-      </c>
-      <c r="D3" t="s">
-        <v>43</v>
+      <c r="E3" t="s">
+        <v>27</v>
       </c>
       <c r="F3" t="s">
         <v>54</v>
       </c>
       <c r="G3" t="s">
-        <v>44</v>
+        <v>47</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
+        <v>49</v>
+      </c>
+      <c r="B4" t="s">
+        <v>22</v>
+      </c>
+      <c r="C4" s="7" t="s">
+        <v>52</v>
+      </c>
+      <c r="D4" s="7" t="s">
+        <v>58</v>
+      </c>
+      <c r="E4" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="F4" s="7" t="s">
+        <v>55</v>
+      </c>
+      <c r="G4" s="7" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
+        <v>51</v>
+      </c>
+      <c r="B5" t="s">
+        <v>14</v>
+      </c>
+      <c r="C5" t="s">
+        <v>52</v>
+      </c>
+      <c r="D5" t="s">
+        <v>56</v>
+      </c>
+      <c r="E5" t="s">
+        <v>27</v>
+      </c>
+      <c r="F5" t="s">
+        <v>55</v>
+      </c>
+      <c r="G5" t="s">
+        <v>47</v>
       </c>
     </row>
   </sheetData>
@@ -785,146 +810,276 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:O3"/>
+  <dimension ref="A1:P5"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="N3" sqref="N3"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E12" sqref="E12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="7.125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="37.125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="6.125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="7.625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="15.875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="38.75" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="12.625" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="10.5" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="40.75" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="6.25" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="38.75" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="7.625" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="8.75" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="11" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="13.75" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="12.5" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="12.625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="38.375" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="40.75" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="13.5" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="24.125" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="40.75" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="6.125" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="10.875" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="12.875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>6</v>
       </c>
       <c r="B1" t="s">
+        <v>29</v>
+      </c>
+      <c r="C1" t="s">
+        <v>30</v>
+      </c>
+      <c r="D1" t="s">
+        <v>24</v>
+      </c>
+      <c r="E1" t="s">
+        <v>31</v>
+      </c>
+      <c r="F1" t="s">
+        <v>32</v>
+      </c>
+      <c r="G1" t="s">
+        <v>33</v>
+      </c>
+      <c r="H1" t="s">
+        <v>34</v>
+      </c>
+      <c r="I1" t="s">
+        <v>25</v>
+      </c>
+      <c r="J1" t="s">
+        <v>10</v>
+      </c>
+      <c r="K1" t="s">
+        <v>35</v>
+      </c>
+      <c r="L1" t="s">
+        <v>36</v>
+      </c>
+      <c r="M1" t="s">
+        <v>37</v>
+      </c>
+      <c r="N1" t="s">
+        <v>38</v>
+      </c>
+      <c r="O1" t="s">
+        <v>39</v>
+      </c>
+      <c r="P1" t="s">
         <v>9</v>
       </c>
-      <c r="C1" t="s">
-        <v>10</v>
-      </c>
-      <c r="D1" t="s">
-        <v>11</v>
-      </c>
-      <c r="E1" t="s">
-        <v>12</v>
-      </c>
-      <c r="F1" t="s">
+    </row>
+    <row r="2" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
         <v>13</v>
       </c>
-      <c r="G1" t="s">
-        <v>39</v>
-      </c>
-      <c r="H1" t="s">
+      <c r="B2" s="6" t="s">
+        <v>40</v>
+      </c>
+      <c r="C2" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="D2" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="E2" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="F2" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="G2" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="I1" t="s">
+      <c r="H2" s="6" t="s">
+        <v>41</v>
+      </c>
+      <c r="I2" s="6" t="s">
+        <v>50</v>
+      </c>
+      <c r="J2" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="K2" s="6" t="s">
+        <v>42</v>
+      </c>
+      <c r="L2" s="6" t="s">
+        <v>48</v>
+      </c>
+      <c r="M2" s="6" t="s">
+        <v>43</v>
+      </c>
+      <c r="N2" s="6" t="s">
+        <v>44</v>
+      </c>
+      <c r="O2" s="6" t="s">
+        <v>45</v>
+      </c>
+      <c r="P2" s="6" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="3" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
         <v>15</v>
       </c>
-      <c r="J1" t="s">
-        <v>18</v>
-      </c>
-      <c r="K1" t="s">
-        <v>19</v>
-      </c>
-      <c r="L1" t="s">
-        <v>20</v>
-      </c>
-      <c r="M1" t="s">
-        <v>22</v>
-      </c>
-      <c r="N1" t="s">
-        <v>23</v>
-      </c>
-      <c r="O1" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="2" spans="1:15" ht="15.75" x14ac:dyDescent="0.2">
-      <c r="A2" t="s">
-        <v>31</v>
-      </c>
-      <c r="B2" s="3" t="s">
-        <v>34</v>
-      </c>
-      <c r="C2" t="s">
-        <v>35</v>
-      </c>
-      <c r="E2" t="s">
-        <v>36</v>
-      </c>
-      <c r="G2" t="s">
+      <c r="B3" t="s">
+        <v>40</v>
+      </c>
+      <c r="C3" t="s">
+        <v>27</v>
+      </c>
+      <c r="D3" t="s">
+        <v>27</v>
+      </c>
+      <c r="E3" t="s">
+        <v>27</v>
+      </c>
+      <c r="F3" t="s">
+        <v>27</v>
+      </c>
+      <c r="G3" t="s">
+        <v>14</v>
+      </c>
+      <c r="H3" t="s">
         <v>41</v>
       </c>
-      <c r="H2" t="s">
-        <v>17</v>
-      </c>
-      <c r="I2" t="s">
+      <c r="I3" t="s">
+        <v>47</v>
+      </c>
+      <c r="J3" t="s">
         <v>16</v>
       </c>
-      <c r="K2" t="s">
-        <v>37</v>
-      </c>
-      <c r="L2" t="s">
-        <v>21</v>
-      </c>
-      <c r="M2" t="s">
-        <v>38</v>
-      </c>
-      <c r="N2" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="3" spans="1:15" ht="15.75" x14ac:dyDescent="0.2">
-      <c r="A3" t="s">
+      <c r="K3" t="s">
         <v>42</v>
       </c>
-      <c r="B3" s="3" t="s">
-        <v>45</v>
-      </c>
-      <c r="C3" t="s">
-        <v>46</v>
-      </c>
-      <c r="E3" t="s">
-        <v>47</v>
-      </c>
-      <c r="G3" t="s">
-        <v>50</v>
-      </c>
-      <c r="H3" t="s">
-        <v>17</v>
-      </c>
-      <c r="I3" t="s">
+      <c r="L3" t="s">
         <v>48</v>
-      </c>
-      <c r="K3" t="s">
-        <v>49</v>
-      </c>
-      <c r="L3" t="s">
-        <v>21</v>
       </c>
       <c r="M3" t="s">
         <v>43</v>
       </c>
       <c r="N3" t="s">
-        <v>24</v>
+        <v>44</v>
+      </c>
+      <c r="O3" t="s">
+        <v>45</v>
+      </c>
+      <c r="P3" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="4" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
+        <v>49</v>
+      </c>
+      <c r="B4" t="s">
+        <v>40</v>
+      </c>
+      <c r="C4" t="s">
+        <v>27</v>
+      </c>
+      <c r="D4" t="s">
+        <v>27</v>
+      </c>
+      <c r="E4" t="s">
+        <v>27</v>
+      </c>
+      <c r="F4" t="s">
+        <v>27</v>
+      </c>
+      <c r="G4" t="s">
+        <v>14</v>
+      </c>
+      <c r="H4" t="s">
+        <v>41</v>
+      </c>
+      <c r="I4" t="s">
+        <v>47</v>
+      </c>
+      <c r="J4" t="s">
+        <v>52</v>
+      </c>
+      <c r="K4" t="s">
+        <v>42</v>
+      </c>
+      <c r="L4" t="s">
+        <v>48</v>
+      </c>
+      <c r="M4" t="s">
+        <v>43</v>
+      </c>
+      <c r="N4" t="s">
+        <v>44</v>
+      </c>
+      <c r="O4" t="s">
+        <v>45</v>
+      </c>
+      <c r="P4" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="5" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
+        <v>51</v>
+      </c>
+      <c r="B5" t="s">
+        <v>40</v>
+      </c>
+      <c r="C5" t="s">
+        <v>27</v>
+      </c>
+      <c r="D5" t="s">
+        <v>27</v>
+      </c>
+      <c r="E5" t="s">
+        <v>27</v>
+      </c>
+      <c r="F5" t="s">
+        <v>27</v>
+      </c>
+      <c r="G5" t="s">
+        <v>14</v>
+      </c>
+      <c r="H5" t="s">
+        <v>41</v>
+      </c>
+      <c r="I5" t="s">
+        <v>47</v>
+      </c>
+      <c r="J5" t="s">
+        <v>52</v>
+      </c>
+      <c r="K5" t="s">
+        <v>42</v>
+      </c>
+      <c r="L5" t="s">
+        <v>48</v>
+      </c>
+      <c r="M5" t="s">
+        <v>43</v>
+      </c>
+      <c r="N5" t="s">
+        <v>44</v>
+      </c>
+      <c r="O5" t="s">
+        <v>45</v>
+      </c>
+      <c r="P5" t="s">
+        <v>46</v>
       </c>
     </row>
   </sheetData>

--- a/sources/case/ApprovalTypes.xlsx
+++ b/sources/case/ApprovalTypes.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7560" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7560"/>
   </bookViews>
   <sheets>
     <sheet name="Base" sheetId="1" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="125" uniqueCount="59">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="150" uniqueCount="70">
   <si>
     <t>API</t>
   </si>
@@ -95,6 +95,147 @@
   <si>
     <t>95de83f6-0f75-11e7-8ff3-00163e007053</t>
     <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>types_2</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>95de83f6-0f75-11e7-8ff3-00163e007053</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>process_list</t>
+  </si>
+  <si>
+    <t>sub_category</t>
+  </si>
+  <si>
+    <t>notice_type</t>
+  </si>
+  <si>
+    <t>duplicate</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>[]</t>
+  </si>
+  <si>
+    <t>tenant_id</t>
+  </si>
+  <si>
+    <t>icon_url</t>
+  </si>
+  <si>
+    <t>form_id</t>
+  </si>
+  <si>
+    <t>description</t>
+  </si>
+  <si>
+    <t>uuid</t>
+  </si>
+  <si>
+    <t>created_by</t>
+  </si>
+  <si>
+    <t>has_approval</t>
+  </si>
+  <si>
+    <t>approvals</t>
+  </si>
+  <si>
+    <t>name</t>
+  </si>
+  <si>
+    <t>category</t>
+  </si>
+  <si>
+    <t>form_name</t>
+  </si>
+  <si>
+    <t>00b19169-fc38-4e51-a99f-98f31ccaa46d</t>
+  </si>
+  <si>
+    <t>5ceb080b-0e25-11e7-b0e5-00163e007053</t>
+  </si>
+  <si>
+    <t>y</t>
+  </si>
+  <si>
+    <t>请假</t>
+  </si>
+  <si>
+    <t>attendance</t>
+  </si>
+  <si>
+    <t>leave_request</t>
+  </si>
+  <si>
+    <t>active</t>
+  </si>
+  <si>
+    <t>approval_start</t>
+  </si>
+  <si>
+    <t>["95defc56-0f75-11e7-8ff3-00163e007053","3d5ee058-b3b3-11e7-aa53-5254001aba5d","3d60d30d-b3b3-11e7-aa53-5254001aba5d","3d61ad97-b3b3-11e7-aa53-5254001aba5d"]</t>
+  </si>
+  <si>
+    <t>types_3</t>
+  </si>
+  <si>
+    <t>approval_end</t>
+  </si>
+  <si>
+    <t>types_4</t>
+  </si>
+  <si>
+    <t>continuous_multiple_times</t>
+  </si>
+  <si>
+    <t>[{"target_value":"{}","target_type":"","approvers":[{"type":"login_user_department_manager","uuid":"248b166c-470d-4516-9c40-3b119d0c4bad","value":""},{"type":"reporting_to","uuid":"7a68be4e-122c-4802-93e4-6d8d640deb65","value":"1"},{"type":"employee","uuid":"dc77da53-128a-461f-9a31-12b60210e07f","value":"7e2870af-b2e4-11e7-93d8-5254001aba5d"}],"uuid":"95defc56-0f75-11e7-8ff3-00163e007053"},{"target_value":"{\"department\":[\"d495a1cc-0f75-11e7-9aa4-00163e007053\"],\"employee\":[\"7e26644b-b2e4-11e7-93d8-5254001aba5d\"]}","target_type":"sponsor","approvers":[{"type":"reporting_to","uuid":"","value":"1"},{"type":"login_user_department_manager","uuid":"","value":""},{"type":"department_manager","uuid":"","value":"9bc4b814-b2e4-11e7-93d8-5254001aba5d"},{"type":"employee","uuid":"","value":"7e2870af-b2e4-11e7-93d8-5254001aba5d"}],"uuid":"3d5ee058-b3b3-11e7-aa53-5254001aba5d"},{"target_value":"{\"symbol\":\"&lt;=\",\"unit\":\"d\",\"number\":\"2\"}","target_type":"duration","approvers":[{"type":"department_manager","uuid":"3d619823-b3b3-11e7-aa53-5254001aba5d","value":"9bc4b814-b2e4-11e7-93d8-5254001aba5d"}],"uuid":"3d60d30d-b3b3-11e7-aa53-5254001aba5d"},{"target_value":"{\"symbol\":\"&gt;=\",\"unit\":\"d\",\"number\":\"3\"}","target_type":"duration","approvers":[{"type":"department_manager","uuid":"3d625cc9-b3b3-11e7-aa53-5254001aba5d","value":"d495a1cc-0f75-11e7-9aa4-00163e007053"},{"type":"department_manager","uuid":"3d627286-b3b3-11e7-aa53-5254001aba5d","value":"9bc4b814-b2e4-11e7-93d8-5254001aba5d"},{"type":"employee","uuid":"3d628934-b3b3-11e7-aa53-5254001aba5d","value":"7e33d0c3-b2e4-11e7-93d8-5254001aba5d"},{"type":"employee","uuid":"3d629e51-b3b3-11e7-aa53-5254001aba5d","value":"7e2870af-b2e4-11e7-93d8-5254001aba5d"}],"uuid":"3d61ad97-b3b3-11e7-aa53-5254001aba5d"}]</t>
+  </si>
+  <si>
+    <t>[{"employee_id":"b8a23753-0f75-11e7-9aa4-00163e007053"}]</t>
+  </si>
+  <si>
+    <t>[{"employee_id":"b8a23753-0f75-11e7-9aa4-00163e007053"},{"employee_id":"7e2bb13d-b2e4-11e7-93d8-5254001aba5d"}]</t>
+  </si>
+  <si>
+    <t>[{"target_value":"{}","target_type":"","approvers":[{"type":"login_user_department_manager","uuid":"248b166c-470d-4516-9c40-3b119d0c4bad","value":""},{"type":"reporting_to","uuid":"7a68be4e-122c-4802-93e4-6d8d640deb65","value":"1"},{"type":"employee","uuid":"dc77da53-128a-461f-9a31-12b60210e07f","value":"7e2870af-b2e4-11e7-93d8-5254001aba5d"}],"uuid":"95defc56-0f75-11e7-8ff3-00163e007053"},{"target_value":"{\"department\":[\"d495a1cc-0f75-11e7-9aa4-00163e007053\"],\"employee\":[\"7e26644b-b2e4-11e7-93d8-5254001aba5d\"]}","target_type":"sponsor","approvers":[{"type":"login_user_department_manager","uuid":"d9749704-d084-4433-8382-2cd03d31be59","value":""}],"uuid":"3d5ee058-b3b3-11e7-aa53-5254001aba5d"},{"target_value":"{\"symbol\":\"&gt;\",\"unit\":\"d\",\"number\":\"2\"}","target_type":"duration","approvers":[{"type":"department_manager","uuid":"3d619823-b3b3-11e7-aa53-5254001aba5d","value":"9bc4b814-b2e4-11e7-93d8-5254001aba5d"}],"uuid":"3d60d30d-b3b3-11e7-aa53-5254001aba5d"},{"target_value":"{\"symbol\":\"==\",\"unit\":\"d\",\"number\":\"2\"}","target_type":"duration","approvers":[{"type":"department_manager","uuid":"3d625cc9-b3b3-11e7-aa53-5254001aba5d","value":"d495a1cc-0f75-11e7-9aa4-00163e007053"},{"type":"department_manager","uuid":"3d627286-b3b3-11e7-aa53-5254001aba5d","value":"9bc4b814-b2e4-11e7-93d8-5254001aba5d"},{"type":"employee","uuid":"3d628934-b3b3-11e7-aa53-5254001aba5d","value":"7e33d0c3-b2e4-11e7-93d8-5254001aba5d"},{"type":"employee","uuid":"3d629e51-b3b3-11e7-aa53-5254001aba5d","value":"7e2870af-b2e4-11e7-93d8-5254001aba5d"}],"uuid":"3d61ad97-b3b3-11e7-aa53-5254001aba5d"}]</t>
+  </si>
+  <si>
+    <t>[{"target_value":"{}","target_type":"","approvers":[{"type":"login_user_department_manager","uuid":"248b166c-470d-4516-9c40-3b119d0c4bad","value":""},{"type":"reporting_to","uuid":"7a68be4e-122c-4802-93e4-6d8d640deb65","value":"1"},{"type":"employee","uuid":"dc77da53-128a-461f-9a31-12b60210e07f","value":"7e2870af-b2e4-11e7-93d8-5254001aba5d"}],"uuid":"95defc56-0f75-11e7-8ff3-00163e007053"},{"target_value":"{\"department\":[\"d495a1cc-0f75-11e7-9aa4-00163e007053\"],\"employee\":[\"7e26644b-b2e4-11e7-93d8-5254001aba5d\"]}","target_type":"sponsor","approvers":[{"type":"department_manager","uuid":"","value":"c8e22cfe-0f75-11e7-9aa4-00163e007053"}],"uuid":"3d5ee058-b3b3-11e7-aa53-5254001aba5d"},{"target_value":"{\"symbol\":\"==\",\"unit\":\"d\",\"number\":\"2\"}","target_type":"duration","approvers":[{"type":"department_manager","uuid":"3d619823-b3b3-11e7-aa53-5254001aba5d","value":"9bc4b814-b2e4-11e7-93d8-5254001aba5d"}],"uuid":"3d60d30d-b3b3-11e7-aa53-5254001aba5d"},{"target_value":"{\"symbol\":\"&gt;=\",\"unit\":\"d\",\"number\":\"3\"}","target_type":"duration","approvers":[{"type":"department_manager","uuid":"3d625cc9-b3b3-11e7-aa53-5254001aba5d","value":"d495a1cc-0f75-11e7-9aa4-00163e007053"},{"type":"department_manager","uuid":"3d627286-b3b3-11e7-aa53-5254001aba5d","value":"9bc4b814-b2e4-11e7-93d8-5254001aba5d"},{"type":"employee","uuid":"3d628934-b3b3-11e7-aa53-5254001aba5d","value":"7e33d0c3-b2e4-11e7-93d8-5254001aba5d"},{"type":"employee","uuid":"3d629e51-b3b3-11e7-aa53-5254001aba5d","value":"7e2870af-b2e4-11e7-93d8-5254001aba5d"}],"uuid":"3d61ad97-b3b3-11e7-aa53-5254001aba5d"}]</t>
+  </si>
+  <si>
+    <t>[{"target_value":"{}","target_type":"","approvers":[{"type":"login_user_department_manager","uuid":"248b166c-470d-4516-9c40-3b119d0c4bad","value":""},{"type":"reporting_to","uuid":"7a68be4e-122c-4802-93e4-6d8d640deb65","value":"1"},{"type":"employee","uuid":"dc77da53-128a-461f-9a31-12b60210e07f","value":"7e2870af-b2e4-11e7-93d8-5254001aba5d"}],"uuid":"95defc56-0f75-11e7-8ff3-00163e007053"},{"target_value":"{\"department\":[\"d495a1cc-0f75-11e7-9aa4-00163e007053\"],\"employee\":[\"7e26644b-b2e4-11e7-93d8-5254001aba5d\"]}","target_type":"sponsor","approvers":[{"type":"department_manager","uuid":"","value":"9bc4b814-b2e4-11e7-93d8-5254001aba5d"},{"type":"employee","uuid":"","value":"7e254521-b2e4-11e7-93d8-5254001aba5d"}],"uuid":"3d5ee058-b3b3-11e7-aa53-5254001aba5d"},{"target_value":"{\"symbol\":\"&gt;\",\"unit\":\"d\",\"number\":\"2\"}","target_type":"duration","approvers":[{"type":"department_manager","uuid":"3d619823-b3b3-11e7-aa53-5254001aba5d","value":"9bc4b814-b2e4-11e7-93d8-5254001aba5d"}],"uuid":"3d60d30d-b3b3-11e7-aa53-5254001aba5d"},{"target_value":"{\"symbol\":\"==\",\"unit\":\"d\",\"number\":\"2\"}","target_type":"duration","approvers":[{"type":"department_manager","uuid":"3d625cc9-b3b3-11e7-aa53-5254001aba5d","value":"d495a1cc-0f75-11e7-9aa4-00163e007053"},{"type":"department_manager","uuid":"3d627286-b3b3-11e7-aa53-5254001aba5d","value":"9bc4b814-b2e4-11e7-93d8-5254001aba5d"},{"type":"employee","uuid":"3d628934-b3b3-11e7-aa53-5254001aba5d","value":"7e33d0c3-b2e4-11e7-93d8-5254001aba5d"},{"type":"employee","uuid":"3d629e51-b3b3-11e7-aa53-5254001aba5d","value":"7e2870af-b2e4-11e7-93d8-5254001aba5d"}],"uuid":"3d61ad97-b3b3-11e7-aa53-5254001aba5d"}]</t>
+  </si>
+  <si>
+    <t>[{"target_value":"{}","target_type":"","approvers":[{"type":"reporting_to","uuid":"","value":"1"},{"type":"reporting_to","uuid":"","value":"2"},{"type":"reporting_to","uuid":"","value":"3"},{"type":"reporting_to","uuid":"","value":"4"},{"type":"login_user_department_manager","uuid":"","value":""},{"type":"department_manager","uuid":"","value":"c592a9d8-b4bb-11e7-83f4-5254001aba5d"},{"type":"employee","uuid":"","value":"b8a23753-0f75-11e7-9aa4-00163e007053"}],"uuid":"95d79cad-0f75-11e7-8ff3-00163e007053"}]</t>
+  </si>
+  <si>
+    <t>95d72f09-0f75-11e7-8ff3-00163e007053</t>
+  </si>
+  <si>
+    <t>["95d79cad-0f75-11e7-8ff3-00163e007053"]</t>
+  </si>
+  <si>
+    <t>调整</t>
+  </si>
+  <si>
+    <t>hr</t>
+  </si>
+  <si>
+    <t>employee_adjust</t>
+  </si>
+  <si>
+    <t>95d72f09-0f75-11e7-8ff3-00163e007053</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>types_5</t>
   </si>
   <si>
     <r>
@@ -123,120 +264,28 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>types_2</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>95de83f6-0f75-11e7-8ff3-00163e007053</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>process_list</t>
-  </si>
-  <si>
-    <t>sub_category</t>
-  </si>
-  <si>
-    <t>notice_type</t>
-  </si>
-  <si>
-    <t>duplicate</t>
-  </si>
-  <si>
-    <t/>
-  </si>
-  <si>
-    <t>[]</t>
-  </si>
-  <si>
-    <t>tenant_id</t>
-  </si>
-  <si>
-    <t>icon_url</t>
-  </si>
-  <si>
-    <t>form_id</t>
-  </si>
-  <si>
-    <t>description</t>
-  </si>
-  <si>
-    <t>uuid</t>
-  </si>
-  <si>
-    <t>created_by</t>
-  </si>
-  <si>
-    <t>has_approval</t>
-  </si>
-  <si>
-    <t>approvals</t>
-  </si>
-  <si>
-    <t>name</t>
-  </si>
-  <si>
-    <t>category</t>
-  </si>
-  <si>
-    <t>form_name</t>
-  </si>
-  <si>
-    <t>00b19169-fc38-4e51-a99f-98f31ccaa46d</t>
-  </si>
-  <si>
-    <t>5ceb080b-0e25-11e7-b0e5-00163e007053</t>
-  </si>
-  <si>
-    <t>y</t>
-  </si>
-  <si>
-    <t>请假</t>
-  </si>
-  <si>
-    <t>attendance</t>
-  </si>
-  <si>
-    <t>leave_request</t>
-  </si>
-  <si>
-    <t>active</t>
-  </si>
-  <si>
-    <t>approval_start</t>
-  </si>
-  <si>
-    <t>["95defc56-0f75-11e7-8ff3-00163e007053","3d5ee058-b3b3-11e7-aa53-5254001aba5d","3d60d30d-b3b3-11e7-aa53-5254001aba5d","3d61ad97-b3b3-11e7-aa53-5254001aba5d"]</t>
-  </si>
-  <si>
-    <t>types_3</t>
-  </si>
-  <si>
-    <t>approval_end</t>
-  </si>
-  <si>
-    <t>types_4</t>
-  </si>
-  <si>
-    <t>continuous_multiple_times</t>
-  </si>
-  <si>
-    <t>[{"target_value":"{}","target_type":"","approvers":[{"type":"login_user_department_manager","uuid":"248b166c-470d-4516-9c40-3b119d0c4bad","value":""},{"type":"reporting_to","uuid":"7a68be4e-122c-4802-93e4-6d8d640deb65","value":"1"},{"type":"employee","uuid":"dc77da53-128a-461f-9a31-12b60210e07f","value":"7e2870af-b2e4-11e7-93d8-5254001aba5d"}],"uuid":"95defc56-0f75-11e7-8ff3-00163e007053"},{"target_value":"{\"department\":[\"d495a1cc-0f75-11e7-9aa4-00163e007053\"],\"employee\":[\"7e26644b-b2e4-11e7-93d8-5254001aba5d\"]}","target_type":"sponsor","approvers":[{"type":"reporting_to","uuid":"","value":"1"},{"type":"login_user_department_manager","uuid":"","value":""},{"type":"department_manager","uuid":"","value":"9bc4b814-b2e4-11e7-93d8-5254001aba5d"},{"type":"employee","uuid":"","value":"7e2870af-b2e4-11e7-93d8-5254001aba5d"}],"uuid":"3d5ee058-b3b3-11e7-aa53-5254001aba5d"},{"target_value":"{\"symbol\":\"&lt;=\",\"unit\":\"d\",\"number\":\"2\"}","target_type":"duration","approvers":[{"type":"department_manager","uuid":"3d619823-b3b3-11e7-aa53-5254001aba5d","value":"9bc4b814-b2e4-11e7-93d8-5254001aba5d"}],"uuid":"3d60d30d-b3b3-11e7-aa53-5254001aba5d"},{"target_value":"{\"symbol\":\"&gt;=\",\"unit\":\"d\",\"number\":\"3\"}","target_type":"duration","approvers":[{"type":"department_manager","uuid":"3d625cc9-b3b3-11e7-aa53-5254001aba5d","value":"d495a1cc-0f75-11e7-9aa4-00163e007053"},{"type":"department_manager","uuid":"3d627286-b3b3-11e7-aa53-5254001aba5d","value":"9bc4b814-b2e4-11e7-93d8-5254001aba5d"},{"type":"employee","uuid":"3d628934-b3b3-11e7-aa53-5254001aba5d","value":"7e33d0c3-b2e4-11e7-93d8-5254001aba5d"},{"type":"employee","uuid":"3d629e51-b3b3-11e7-aa53-5254001aba5d","value":"7e2870af-b2e4-11e7-93d8-5254001aba5d"}],"uuid":"3d61ad97-b3b3-11e7-aa53-5254001aba5d"}]</t>
-  </si>
-  <si>
-    <t>[{"employee_id":"b8a23753-0f75-11e7-9aa4-00163e007053"}]</t>
-  </si>
-  <si>
-    <t>[{"employee_id":"b8a23753-0f75-11e7-9aa4-00163e007053"},{"employee_id":"7e2bb13d-b2e4-11e7-93d8-5254001aba5d"}]</t>
-  </si>
-  <si>
-    <t>[{"target_value":"{}","target_type":"","approvers":[{"type":"login_user_department_manager","uuid":"248b166c-470d-4516-9c40-3b119d0c4bad","value":""},{"type":"reporting_to","uuid":"7a68be4e-122c-4802-93e4-6d8d640deb65","value":"1"},{"type":"employee","uuid":"dc77da53-128a-461f-9a31-12b60210e07f","value":"7e2870af-b2e4-11e7-93d8-5254001aba5d"}],"uuid":"95defc56-0f75-11e7-8ff3-00163e007053"},{"target_value":"{\"department\":[\"d495a1cc-0f75-11e7-9aa4-00163e007053\"],\"employee\":[\"7e26644b-b2e4-11e7-93d8-5254001aba5d\"]}","target_type":"sponsor","approvers":[{"type":"login_user_department_manager","uuid":"d9749704-d084-4433-8382-2cd03d31be59","value":""}],"uuid":"3d5ee058-b3b3-11e7-aa53-5254001aba5d"},{"target_value":"{\"symbol\":\"&gt;\",\"unit\":\"d\",\"number\":\"2\"}","target_type":"duration","approvers":[{"type":"department_manager","uuid":"3d619823-b3b3-11e7-aa53-5254001aba5d","value":"9bc4b814-b2e4-11e7-93d8-5254001aba5d"}],"uuid":"3d60d30d-b3b3-11e7-aa53-5254001aba5d"},{"target_value":"{\"symbol\":\"==\",\"unit\":\"d\",\"number\":\"2\"}","target_type":"duration","approvers":[{"type":"department_manager","uuid":"3d625cc9-b3b3-11e7-aa53-5254001aba5d","value":"d495a1cc-0f75-11e7-9aa4-00163e007053"},{"type":"department_manager","uuid":"3d627286-b3b3-11e7-aa53-5254001aba5d","value":"9bc4b814-b2e4-11e7-93d8-5254001aba5d"},{"type":"employee","uuid":"3d628934-b3b3-11e7-aa53-5254001aba5d","value":"7e33d0c3-b2e4-11e7-93d8-5254001aba5d"},{"type":"employee","uuid":"3d629e51-b3b3-11e7-aa53-5254001aba5d","value":"7e2870af-b2e4-11e7-93d8-5254001aba5d"}],"uuid":"3d61ad97-b3b3-11e7-aa53-5254001aba5d"}]</t>
-  </si>
-  <si>
-    <t>[{"target_value":"{}","target_type":"","approvers":[{"type":"login_user_department_manager","uuid":"248b166c-470d-4516-9c40-3b119d0c4bad","value":""},{"type":"reporting_to","uuid":"7a68be4e-122c-4802-93e4-6d8d640deb65","value":"1"},{"type":"employee","uuid":"dc77da53-128a-461f-9a31-12b60210e07f","value":"7e2870af-b2e4-11e7-93d8-5254001aba5d"}],"uuid":"95defc56-0f75-11e7-8ff3-00163e007053"},{"target_value":"{\"department\":[\"d495a1cc-0f75-11e7-9aa4-00163e007053\"],\"employee\":[\"7e26644b-b2e4-11e7-93d8-5254001aba5d\"]}","target_type":"sponsor","approvers":[{"type":"department_manager","uuid":"","value":"c8e22cfe-0f75-11e7-9aa4-00163e007053"}],"uuid":"3d5ee058-b3b3-11e7-aa53-5254001aba5d"},{"target_value":"{\"symbol\":\"==\",\"unit\":\"d\",\"number\":\"2\"}","target_type":"duration","approvers":[{"type":"department_manager","uuid":"3d619823-b3b3-11e7-aa53-5254001aba5d","value":"9bc4b814-b2e4-11e7-93d8-5254001aba5d"}],"uuid":"3d60d30d-b3b3-11e7-aa53-5254001aba5d"},{"target_value":"{\"symbol\":\"&gt;=\",\"unit\":\"d\",\"number\":\"3\"}","target_type":"duration","approvers":[{"type":"department_manager","uuid":"3d625cc9-b3b3-11e7-aa53-5254001aba5d","value":"d495a1cc-0f75-11e7-9aa4-00163e007053"},{"type":"department_manager","uuid":"3d627286-b3b3-11e7-aa53-5254001aba5d","value":"9bc4b814-b2e4-11e7-93d8-5254001aba5d"},{"type":"employee","uuid":"3d628934-b3b3-11e7-aa53-5254001aba5d","value":"7e33d0c3-b2e4-11e7-93d8-5254001aba5d"},{"type":"employee","uuid":"3d629e51-b3b3-11e7-aa53-5254001aba5d","value":"7e2870af-b2e4-11e7-93d8-5254001aba5d"}],"uuid":"3d61ad97-b3b3-11e7-aa53-5254001aba5d"}]</t>
-  </si>
-  <si>
-    <t>[{"target_value":"{}","target_type":"","approvers":[{"type":"login_user_department_manager","uuid":"248b166c-470d-4516-9c40-3b119d0c4bad","value":""},{"type":"reporting_to","uuid":"7a68be4e-122c-4802-93e4-6d8d640deb65","value":"1"},{"type":"employee","uuid":"dc77da53-128a-461f-9a31-12b60210e07f","value":"7e2870af-b2e4-11e7-93d8-5254001aba5d"}],"uuid":"95defc56-0f75-11e7-8ff3-00163e007053"},{"target_value":"{\"department\":[\"d495a1cc-0f75-11e7-9aa4-00163e007053\"],\"employee\":[\"7e26644b-b2e4-11e7-93d8-5254001aba5d\"]}","target_type":"sponsor","approvers":[{"type":"department_manager","uuid":"","value":"9bc4b814-b2e4-11e7-93d8-5254001aba5d"},{"type":"employee","uuid":"","value":"7e254521-b2e4-11e7-93d8-5254001aba5d"}],"uuid":"3d5ee058-b3b3-11e7-aa53-5254001aba5d"},{"target_value":"{\"symbol\":\"&gt;\",\"unit\":\"d\",\"number\":\"2\"}","target_type":"duration","approvers":[{"type":"department_manager","uuid":"3d619823-b3b3-11e7-aa53-5254001aba5d","value":"9bc4b814-b2e4-11e7-93d8-5254001aba5d"}],"uuid":"3d60d30d-b3b3-11e7-aa53-5254001aba5d"},{"target_value":"{\"symbol\":\"==\",\"unit\":\"d\",\"number\":\"2\"}","target_type":"duration","approvers":[{"type":"department_manager","uuid":"3d625cc9-b3b3-11e7-aa53-5254001aba5d","value":"d495a1cc-0f75-11e7-9aa4-00163e007053"},{"type":"department_manager","uuid":"3d627286-b3b3-11e7-aa53-5254001aba5d","value":"9bc4b814-b2e4-11e7-93d8-5254001aba5d"},{"type":"employee","uuid":"3d628934-b3b3-11e7-aa53-5254001aba5d","value":"7e33d0c3-b2e4-11e7-93d8-5254001aba5d"},{"type":"employee","uuid":"3d629e51-b3b3-11e7-aa53-5254001aba5d","value":"7e2870af-b2e4-11e7-93d8-5254001aba5d"}],"uuid":"3d61ad97-b3b3-11e7-aa53-5254001aba5d"}]</t>
+    <t>types_5</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>Base</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color indexed="8"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Path</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://console.t.upvi.com/bapi</t>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -613,10 +662,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E2"/>
+  <dimension ref="A1:F2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D8" sqref="D8"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F11" sqref="F11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -624,12 +673,13 @@
     <col min="1" max="1" width="13.875" style="2" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="10.625" style="2" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="8" style="2" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="74.25" style="2" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="15" style="2" bestFit="1" customWidth="1"/>
-    <col min="6" max="16384" width="9" style="2"/>
+    <col min="4" max="4" width="27.875" style="2" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="44" style="2" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="15" style="2" bestFit="1" customWidth="1"/>
+    <col min="7" max="16384" width="9" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -639,16 +689,19 @@
       <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="D1" s="4" t="s">
+        <v>68</v>
+      </c>
+      <c r="E1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="F1" s="1" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A2" s="4" t="s">
-        <v>20</v>
+        <v>66</v>
       </c>
       <c r="B2" s="1" t="s">
         <v>7</v>
@@ -656,10 +709,13 @@
       <c r="C2" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="D2" s="3" t="s">
+      <c r="D2" t="s">
+        <v>69</v>
+      </c>
+      <c r="E2" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="E2" s="1" t="s">
+      <c r="F2" s="1" t="s">
         <v>5</v>
       </c>
     </row>
@@ -671,10 +727,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G5"/>
+  <dimension ref="A1:G6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E11" sqref="E11"/>
+      <selection activeCell="E21" sqref="E21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -698,16 +754,16 @@
         <v>10</v>
       </c>
       <c r="D1" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="E1" s="5" t="s">
         <v>23</v>
-      </c>
-      <c r="E1" s="5" t="s">
-        <v>24</v>
       </c>
       <c r="F1" s="5" t="s">
         <v>11</v>
       </c>
       <c r="G1" s="5" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.2">
@@ -718,88 +774,111 @@
         <v>19</v>
       </c>
       <c r="C2" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D2" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="E2" t="s">
+        <v>26</v>
+      </c>
+      <c r="F2" t="s">
         <v>27</v>
       </c>
-      <c r="F2" t="s">
-        <v>28</v>
-      </c>
       <c r="G2" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
+        <v>20</v>
+      </c>
+      <c r="B3" t="s">
         <v>21</v>
-      </c>
-      <c r="B3" t="s">
-        <v>22</v>
       </c>
       <c r="C3" t="s">
         <v>16</v>
       </c>
       <c r="D3" t="s">
+        <v>52</v>
+      </c>
+      <c r="E3" t="s">
+        <v>26</v>
+      </c>
+      <c r="F3" t="s">
         <v>53</v>
       </c>
-      <c r="E3" t="s">
-        <v>27</v>
-      </c>
-      <c r="F3" t="s">
-        <v>54</v>
-      </c>
       <c r="G3" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B4" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C4" s="7" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="D4" s="7" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B5" t="s">
         <v>14</v>
       </c>
       <c r="C5" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="D5" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="E5" t="s">
+        <v>26</v>
+      </c>
+      <c r="F5" t="s">
+        <v>54</v>
+      </c>
+      <c r="G5" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A6" t="s">
+        <v>67</v>
+      </c>
+      <c r="B6" t="s">
+        <v>64</v>
+      </c>
+      <c r="C6" t="s">
+        <v>25</v>
+      </c>
+      <c r="D6" t="s">
+        <v>58</v>
+      </c>
+      <c r="E6" t="s">
+        <v>26</v>
+      </c>
+      <c r="F6" t="s">
         <v>27</v>
       </c>
-      <c r="F5" t="s">
-        <v>55</v>
-      </c>
-      <c r="G5" t="s">
-        <v>47</v>
+      <c r="G6" t="s">
+        <v>46</v>
       </c>
     </row>
   </sheetData>
@@ -810,10 +889,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:P5"/>
+  <dimension ref="A1:P6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E12" sqref="E12"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F17" sqref="F17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -837,46 +916,46 @@
         <v>6</v>
       </c>
       <c r="B1" t="s">
+        <v>28</v>
+      </c>
+      <c r="C1" t="s">
         <v>29</v>
       </c>
-      <c r="C1" t="s">
+      <c r="D1" t="s">
+        <v>23</v>
+      </c>
+      <c r="E1" t="s">
         <v>30</v>
       </c>
-      <c r="D1" t="s">
+      <c r="F1" t="s">
+        <v>31</v>
+      </c>
+      <c r="G1" t="s">
+        <v>32</v>
+      </c>
+      <c r="H1" t="s">
+        <v>33</v>
+      </c>
+      <c r="I1" t="s">
         <v>24</v>
-      </c>
-      <c r="E1" t="s">
-        <v>31</v>
-      </c>
-      <c r="F1" t="s">
-        <v>32</v>
-      </c>
-      <c r="G1" t="s">
-        <v>33</v>
-      </c>
-      <c r="H1" t="s">
-        <v>34</v>
-      </c>
-      <c r="I1" t="s">
-        <v>25</v>
       </c>
       <c r="J1" t="s">
         <v>10</v>
       </c>
       <c r="K1" t="s">
+        <v>34</v>
+      </c>
+      <c r="L1" t="s">
         <v>35</v>
       </c>
-      <c r="L1" t="s">
+      <c r="M1" t="s">
         <v>36</v>
       </c>
-      <c r="M1" t="s">
+      <c r="N1" t="s">
         <v>37</v>
       </c>
-      <c r="N1" t="s">
+      <c r="O1" t="s">
         <v>38</v>
-      </c>
-      <c r="O1" t="s">
-        <v>39</v>
       </c>
       <c r="P1" t="s">
         <v>9</v>
@@ -887,49 +966,49 @@
         <v>13</v>
       </c>
       <c r="B2" s="6" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C2" s="6" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D2" s="6" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="E2" s="6" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="F2" s="6" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="G2" s="6" t="s">
         <v>14</v>
       </c>
       <c r="H2" s="6" t="s">
+        <v>40</v>
+      </c>
+      <c r="I2" s="6" t="s">
+        <v>49</v>
+      </c>
+      <c r="J2" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="K2" s="6" t="s">
         <v>41</v>
       </c>
-      <c r="I2" s="6" t="s">
-        <v>50</v>
-      </c>
-      <c r="J2" s="6" t="s">
-        <v>26</v>
-      </c>
-      <c r="K2" s="6" t="s">
+      <c r="L2" s="6" t="s">
+        <v>47</v>
+      </c>
+      <c r="M2" s="6" t="s">
         <v>42</v>
       </c>
-      <c r="L2" s="6" t="s">
-        <v>48</v>
-      </c>
-      <c r="M2" s="6" t="s">
+      <c r="N2" s="6" t="s">
         <v>43</v>
       </c>
-      <c r="N2" s="6" t="s">
+      <c r="O2" s="6" t="s">
         <v>44</v>
       </c>
-      <c r="O2" s="6" t="s">
+      <c r="P2" s="6" t="s">
         <v>45</v>
-      </c>
-      <c r="P2" s="6" t="s">
-        <v>46</v>
       </c>
     </row>
     <row r="3" spans="1:16" x14ac:dyDescent="0.2">
@@ -937,149 +1016,199 @@
         <v>15</v>
       </c>
       <c r="B3" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C3" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D3" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="E3" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="F3" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="G3" t="s">
         <v>14</v>
       </c>
       <c r="H3" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="I3" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="J3" t="s">
         <v>16</v>
       </c>
       <c r="K3" t="s">
+        <v>41</v>
+      </c>
+      <c r="L3" t="s">
+        <v>47</v>
+      </c>
+      <c r="M3" t="s">
         <v>42</v>
       </c>
-      <c r="L3" t="s">
-        <v>48</v>
-      </c>
-      <c r="M3" t="s">
+      <c r="N3" t="s">
         <v>43</v>
       </c>
-      <c r="N3" t="s">
+      <c r="O3" t="s">
         <v>44</v>
       </c>
-      <c r="O3" t="s">
+      <c r="P3" t="s">
         <v>45</v>
-      </c>
-      <c r="P3" t="s">
-        <v>46</v>
       </c>
     </row>
     <row r="4" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B4" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C4" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D4" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="E4" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="F4" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="G4" t="s">
         <v>14</v>
       </c>
       <c r="H4" t="s">
+        <v>40</v>
+      </c>
+      <c r="I4" t="s">
+        <v>46</v>
+      </c>
+      <c r="J4" t="s">
+        <v>51</v>
+      </c>
+      <c r="K4" t="s">
         <v>41</v>
       </c>
-      <c r="I4" t="s">
+      <c r="L4" t="s">
         <v>47</v>
       </c>
-      <c r="J4" t="s">
-        <v>52</v>
-      </c>
-      <c r="K4" t="s">
+      <c r="M4" t="s">
         <v>42</v>
       </c>
-      <c r="L4" t="s">
-        <v>48</v>
-      </c>
-      <c r="M4" t="s">
+      <c r="N4" t="s">
         <v>43</v>
       </c>
-      <c r="N4" t="s">
+      <c r="O4" t="s">
         <v>44</v>
       </c>
-      <c r="O4" t="s">
+      <c r="P4" t="s">
         <v>45</v>
-      </c>
-      <c r="P4" t="s">
-        <v>46</v>
       </c>
     </row>
     <row r="5" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B5" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C5" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D5" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="E5" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="F5" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="G5" t="s">
         <v>14</v>
       </c>
       <c r="H5" t="s">
+        <v>40</v>
+      </c>
+      <c r="I5" t="s">
+        <v>46</v>
+      </c>
+      <c r="J5" t="s">
+        <v>51</v>
+      </c>
+      <c r="K5" t="s">
         <v>41</v>
       </c>
-      <c r="I5" t="s">
+      <c r="L5" t="s">
         <v>47</v>
       </c>
-      <c r="J5" t="s">
-        <v>52</v>
-      </c>
-      <c r="K5" t="s">
+      <c r="M5" t="s">
         <v>42</v>
       </c>
-      <c r="L5" t="s">
-        <v>48</v>
-      </c>
-      <c r="M5" t="s">
+      <c r="N5" t="s">
         <v>43</v>
       </c>
-      <c r="N5" t="s">
+      <c r="O5" t="s">
         <v>44</v>
       </c>
-      <c r="O5" t="s">
+      <c r="P5" t="s">
         <v>45</v>
       </c>
-      <c r="P5" t="s">
+    </row>
+    <row r="6" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A6" t="s">
+        <v>65</v>
+      </c>
+      <c r="B6" t="s">
+        <v>39</v>
+      </c>
+      <c r="C6" t="s">
+        <v>26</v>
+      </c>
+      <c r="D6" t="s">
+        <v>26</v>
+      </c>
+      <c r="E6" t="s">
+        <v>26</v>
+      </c>
+      <c r="F6" t="s">
+        <v>26</v>
+      </c>
+      <c r="G6" t="s">
+        <v>59</v>
+      </c>
+      <c r="H6" t="s">
+        <v>40</v>
+      </c>
+      <c r="I6" t="s">
         <v>46</v>
+      </c>
+      <c r="J6" t="s">
+        <v>25</v>
+      </c>
+      <c r="K6" t="s">
+        <v>41</v>
+      </c>
+      <c r="L6" t="s">
+        <v>60</v>
+      </c>
+      <c r="M6" t="s">
+        <v>61</v>
+      </c>
+      <c r="N6" t="s">
+        <v>62</v>
+      </c>
+      <c r="O6" t="s">
+        <v>63</v>
+      </c>
+      <c r="P6" t="s">
+        <v>45</v>
       </c>
     </row>
   </sheetData>

--- a/sources/case/ApprovalTypes.xlsx
+++ b/sources/case/ApprovalTypes.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7560"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7560" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Base" sheetId="1" r:id="rId1"/>
@@ -195,27 +195,12 @@
     <t>continuous_multiple_times</t>
   </si>
   <si>
-    <t>[{"target_value":"{}","target_type":"","approvers":[{"type":"login_user_department_manager","uuid":"248b166c-470d-4516-9c40-3b119d0c4bad","value":""},{"type":"reporting_to","uuid":"7a68be4e-122c-4802-93e4-6d8d640deb65","value":"1"},{"type":"employee","uuid":"dc77da53-128a-461f-9a31-12b60210e07f","value":"7e2870af-b2e4-11e7-93d8-5254001aba5d"}],"uuid":"95defc56-0f75-11e7-8ff3-00163e007053"},{"target_value":"{\"department\":[\"d495a1cc-0f75-11e7-9aa4-00163e007053\"],\"employee\":[\"7e26644b-b2e4-11e7-93d8-5254001aba5d\"]}","target_type":"sponsor","approvers":[{"type":"reporting_to","uuid":"","value":"1"},{"type":"login_user_department_manager","uuid":"","value":""},{"type":"department_manager","uuid":"","value":"9bc4b814-b2e4-11e7-93d8-5254001aba5d"},{"type":"employee","uuid":"","value":"7e2870af-b2e4-11e7-93d8-5254001aba5d"}],"uuid":"3d5ee058-b3b3-11e7-aa53-5254001aba5d"},{"target_value":"{\"symbol\":\"&lt;=\",\"unit\":\"d\",\"number\":\"2\"}","target_type":"duration","approvers":[{"type":"department_manager","uuid":"3d619823-b3b3-11e7-aa53-5254001aba5d","value":"9bc4b814-b2e4-11e7-93d8-5254001aba5d"}],"uuid":"3d60d30d-b3b3-11e7-aa53-5254001aba5d"},{"target_value":"{\"symbol\":\"&gt;=\",\"unit\":\"d\",\"number\":\"3\"}","target_type":"duration","approvers":[{"type":"department_manager","uuid":"3d625cc9-b3b3-11e7-aa53-5254001aba5d","value":"d495a1cc-0f75-11e7-9aa4-00163e007053"},{"type":"department_manager","uuid":"3d627286-b3b3-11e7-aa53-5254001aba5d","value":"9bc4b814-b2e4-11e7-93d8-5254001aba5d"},{"type":"employee","uuid":"3d628934-b3b3-11e7-aa53-5254001aba5d","value":"7e33d0c3-b2e4-11e7-93d8-5254001aba5d"},{"type":"employee","uuid":"3d629e51-b3b3-11e7-aa53-5254001aba5d","value":"7e2870af-b2e4-11e7-93d8-5254001aba5d"}],"uuid":"3d61ad97-b3b3-11e7-aa53-5254001aba5d"}]</t>
-  </si>
-  <si>
     <t>[{"employee_id":"b8a23753-0f75-11e7-9aa4-00163e007053"}]</t>
   </si>
   <si>
     <t>[{"employee_id":"b8a23753-0f75-11e7-9aa4-00163e007053"},{"employee_id":"7e2bb13d-b2e4-11e7-93d8-5254001aba5d"}]</t>
   </si>
   <si>
-    <t>[{"target_value":"{}","target_type":"","approvers":[{"type":"login_user_department_manager","uuid":"248b166c-470d-4516-9c40-3b119d0c4bad","value":""},{"type":"reporting_to","uuid":"7a68be4e-122c-4802-93e4-6d8d640deb65","value":"1"},{"type":"employee","uuid":"dc77da53-128a-461f-9a31-12b60210e07f","value":"7e2870af-b2e4-11e7-93d8-5254001aba5d"}],"uuid":"95defc56-0f75-11e7-8ff3-00163e007053"},{"target_value":"{\"department\":[\"d495a1cc-0f75-11e7-9aa4-00163e007053\"],\"employee\":[\"7e26644b-b2e4-11e7-93d8-5254001aba5d\"]}","target_type":"sponsor","approvers":[{"type":"login_user_department_manager","uuid":"d9749704-d084-4433-8382-2cd03d31be59","value":""}],"uuid":"3d5ee058-b3b3-11e7-aa53-5254001aba5d"},{"target_value":"{\"symbol\":\"&gt;\",\"unit\":\"d\",\"number\":\"2\"}","target_type":"duration","approvers":[{"type":"department_manager","uuid":"3d619823-b3b3-11e7-aa53-5254001aba5d","value":"9bc4b814-b2e4-11e7-93d8-5254001aba5d"}],"uuid":"3d60d30d-b3b3-11e7-aa53-5254001aba5d"},{"target_value":"{\"symbol\":\"==\",\"unit\":\"d\",\"number\":\"2\"}","target_type":"duration","approvers":[{"type":"department_manager","uuid":"3d625cc9-b3b3-11e7-aa53-5254001aba5d","value":"d495a1cc-0f75-11e7-9aa4-00163e007053"},{"type":"department_manager","uuid":"3d627286-b3b3-11e7-aa53-5254001aba5d","value":"9bc4b814-b2e4-11e7-93d8-5254001aba5d"},{"type":"employee","uuid":"3d628934-b3b3-11e7-aa53-5254001aba5d","value":"7e33d0c3-b2e4-11e7-93d8-5254001aba5d"},{"type":"employee","uuid":"3d629e51-b3b3-11e7-aa53-5254001aba5d","value":"7e2870af-b2e4-11e7-93d8-5254001aba5d"}],"uuid":"3d61ad97-b3b3-11e7-aa53-5254001aba5d"}]</t>
-  </si>
-  <si>
-    <t>[{"target_value":"{}","target_type":"","approvers":[{"type":"login_user_department_manager","uuid":"248b166c-470d-4516-9c40-3b119d0c4bad","value":""},{"type":"reporting_to","uuid":"7a68be4e-122c-4802-93e4-6d8d640deb65","value":"1"},{"type":"employee","uuid":"dc77da53-128a-461f-9a31-12b60210e07f","value":"7e2870af-b2e4-11e7-93d8-5254001aba5d"}],"uuid":"95defc56-0f75-11e7-8ff3-00163e007053"},{"target_value":"{\"department\":[\"d495a1cc-0f75-11e7-9aa4-00163e007053\"],\"employee\":[\"7e26644b-b2e4-11e7-93d8-5254001aba5d\"]}","target_type":"sponsor","approvers":[{"type":"department_manager","uuid":"","value":"c8e22cfe-0f75-11e7-9aa4-00163e007053"}],"uuid":"3d5ee058-b3b3-11e7-aa53-5254001aba5d"},{"target_value":"{\"symbol\":\"==\",\"unit\":\"d\",\"number\":\"2\"}","target_type":"duration","approvers":[{"type":"department_manager","uuid":"3d619823-b3b3-11e7-aa53-5254001aba5d","value":"9bc4b814-b2e4-11e7-93d8-5254001aba5d"}],"uuid":"3d60d30d-b3b3-11e7-aa53-5254001aba5d"},{"target_value":"{\"symbol\":\"&gt;=\",\"unit\":\"d\",\"number\":\"3\"}","target_type":"duration","approvers":[{"type":"department_manager","uuid":"3d625cc9-b3b3-11e7-aa53-5254001aba5d","value":"d495a1cc-0f75-11e7-9aa4-00163e007053"},{"type":"department_manager","uuid":"3d627286-b3b3-11e7-aa53-5254001aba5d","value":"9bc4b814-b2e4-11e7-93d8-5254001aba5d"},{"type":"employee","uuid":"3d628934-b3b3-11e7-aa53-5254001aba5d","value":"7e33d0c3-b2e4-11e7-93d8-5254001aba5d"},{"type":"employee","uuid":"3d629e51-b3b3-11e7-aa53-5254001aba5d","value":"7e2870af-b2e4-11e7-93d8-5254001aba5d"}],"uuid":"3d61ad97-b3b3-11e7-aa53-5254001aba5d"}]</t>
-  </si>
-  <si>
-    <t>[{"target_value":"{}","target_type":"","approvers":[{"type":"login_user_department_manager","uuid":"248b166c-470d-4516-9c40-3b119d0c4bad","value":""},{"type":"reporting_to","uuid":"7a68be4e-122c-4802-93e4-6d8d640deb65","value":"1"},{"type":"employee","uuid":"dc77da53-128a-461f-9a31-12b60210e07f","value":"7e2870af-b2e4-11e7-93d8-5254001aba5d"}],"uuid":"95defc56-0f75-11e7-8ff3-00163e007053"},{"target_value":"{\"department\":[\"d495a1cc-0f75-11e7-9aa4-00163e007053\"],\"employee\":[\"7e26644b-b2e4-11e7-93d8-5254001aba5d\"]}","target_type":"sponsor","approvers":[{"type":"department_manager","uuid":"","value":"9bc4b814-b2e4-11e7-93d8-5254001aba5d"},{"type":"employee","uuid":"","value":"7e254521-b2e4-11e7-93d8-5254001aba5d"}],"uuid":"3d5ee058-b3b3-11e7-aa53-5254001aba5d"},{"target_value":"{\"symbol\":\"&gt;\",\"unit\":\"d\",\"number\":\"2\"}","target_type":"duration","approvers":[{"type":"department_manager","uuid":"3d619823-b3b3-11e7-aa53-5254001aba5d","value":"9bc4b814-b2e4-11e7-93d8-5254001aba5d"}],"uuid":"3d60d30d-b3b3-11e7-aa53-5254001aba5d"},{"target_value":"{\"symbol\":\"==\",\"unit\":\"d\",\"number\":\"2\"}","target_type":"duration","approvers":[{"type":"department_manager","uuid":"3d625cc9-b3b3-11e7-aa53-5254001aba5d","value":"d495a1cc-0f75-11e7-9aa4-00163e007053"},{"type":"department_manager","uuid":"3d627286-b3b3-11e7-aa53-5254001aba5d","value":"9bc4b814-b2e4-11e7-93d8-5254001aba5d"},{"type":"employee","uuid":"3d628934-b3b3-11e7-aa53-5254001aba5d","value":"7e33d0c3-b2e4-11e7-93d8-5254001aba5d"},{"type":"employee","uuid":"3d629e51-b3b3-11e7-aa53-5254001aba5d","value":"7e2870af-b2e4-11e7-93d8-5254001aba5d"}],"uuid":"3d61ad97-b3b3-11e7-aa53-5254001aba5d"}]</t>
-  </si>
-  <si>
-    <t>[{"target_value":"{}","target_type":"","approvers":[{"type":"reporting_to","uuid":"","value":"1"},{"type":"reporting_to","uuid":"","value":"2"},{"type":"reporting_to","uuid":"","value":"3"},{"type":"reporting_to","uuid":"","value":"4"},{"type":"login_user_department_manager","uuid":"","value":""},{"type":"department_manager","uuid":"","value":"c592a9d8-b4bb-11e7-83f4-5254001aba5d"},{"type":"employee","uuid":"","value":"b8a23753-0f75-11e7-9aa4-00163e007053"}],"uuid":"95d79cad-0f75-11e7-8ff3-00163e007053"}]</t>
-  </si>
-  <si>
     <t>95d72f09-0f75-11e7-8ff3-00163e007053</t>
   </si>
   <si>
@@ -236,6 +221,30 @@
   </si>
   <si>
     <t>types_5</t>
+  </si>
+  <si>
+    <t>types_5</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>Base</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color indexed="8"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Path</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://console.t.upvi.com/bapi</t>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -264,27 +273,23 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>types_5</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>Base</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color indexed="8"/>
-        <rFont val="等线"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Path</t>
-    </r>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>http://console.t.upvi.com/bapi</t>
+    <t>[{"target_value":"s{}","target_type":"","approvers":[{"type":"login_user_department_manager","uuid":"248b166c-470d-4516-9c40-3b119d0c4bad","value":""},{"type":"reporting_to","uuid":"7a68be4e-122c-4802-93e4-6d8d640deb65","value":"1"},{"type":"employee","uuid":"dc77da53-128a-461f-9a31-12b60210e07f","value":"7e2870af-b2e4-11e7-93d8-5254001aba5d"}],"uuid":"95defc56-0f75-11e7-8ff3-00163e007053"},{"target_value":"{\"department\":[\"d495a1cc-0f75-11e7-9aa4-00163e007053\"],\"employee\":[\"7e26644b-b2e4-11e7-93d8-5254001aba5d\"]}","target_type":"sponsor","approvers":[{"type":"department_manager","uuid":"","value":"c8e22cfe-0f75-11e7-9aa4-00163e007053"}],"uuid":"3d5ee058-b3b3-11e7-aa53-5254001aba5d"},{"target_value":"{\"symbol\":\"==\",\"unit\":\"d\",\"number\":\"2\"}","target_type":"duration","approvers":[{"type":"department_manager","uuid":"3d619823-b3b3-11e7-aa53-5254001aba5d","value":"9bc4b814-b2e4-11e7-93d8-5254001aba5d"}],"uuid":"3d60d30d-b3b3-11e7-aa53-5254001aba5d"},{"target_value":"{\"symbol\":\"&gt;=\",\"unit\":\"d\",\"number\":\"3\"}","target_type":"duration","approvers":[{"type":"department_manager","uuid":"3d625cc9-b3b3-11e7-aa53-5254001aba5d","value":"d495a1cc-0f75-11e7-9aa4-00163e007053"},{"type":"department_manager","uuid":"3d627286-b3b3-11e7-aa53-5254001aba5d","value":"9bc4b814-b2e4-11e7-93d8-5254001aba5d"},{"type":"employee","uuid":"3d628934-b3b3-11e7-aa53-5254001aba5d","value":"7e33d0c3-b2e4-11e7-93d8-5254001aba5d"},{"type":"employee","uuid":"3d629e51-b3b3-11e7-aa53-5254001aba5d","value":"7e2870af-b2e4-11e7-93d8-5254001aba5d"}],"uuid":"3d61ad97-b3b3-11e7-aa53-5254001aba5d"}]</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>[{"target_value":"s{}","target_type":"","approvers":[{"type":"login_user_department_manager","uuid":"248b166c-470d-4516-9c40-3b119d0c4bad","value":""},{"type":"reporting_to","uuid":"7a68be4e-122c-4802-93e4-6d8d640deb65","value":"1"},{"type":"employee","uuid":"dc77da53-128a-461f-9a31-12b60210e07f","value":"7e2870af-b2e4-11e7-93d8-5254001aba5d"}],"uuid":"95defc56-0f75-11e7-8ff3-00163e007053"},{"target_value":"{\"department\":[\"d495a1cc-0f75-11e7-9aa4-00163e007053\"],\"employee\":[\"7e26644b-b2e4-11e7-93d8-5254001aba5d\"]}","target_type":"sponsor","approvers":[{"type":"reporting_to","uuid":"","value":"1"},{"type":"login_user_department_manager","uuid":"","value":""},{"type":"department_manager","uuid":"","value":"9bc4b814-b2e4-11e7-93d8-5254001aba5d"},{"type":"employee","uuid":"","value":"7e2870af-b2e4-11e7-93d8-5254001aba5d"}],"uuid":"3d5ee058-b3b3-11e7-aa53-5254001aba5d"},{"target_value":"{\"symbol\":\"&lt;=\",\"unit\":\"d\",\"number\":\"2\"}","target_type":"duration","approvers":[{"type":"department_manager","uuid":"3d619823-b3b3-11e7-aa53-5254001aba5d","value":"9bc4b814-b2e4-11e7-93d8-5254001aba5d"}],"uuid":"3d60d30d-b3b3-11e7-aa53-5254001aba5d"},{"target_value":"{\"symbol\":\"&gt;=\",\"unit\":\"d\",\"number\":\"3\"}","target_type":"duration","approvers":[{"type":"department_manager","uuid":"3d625cc9-b3b3-11e7-aa53-5254001aba5d","value":"d495a1cc-0f75-11e7-9aa4-00163e007053"},{"type":"department_manager","uuid":"3d627286-b3b3-11e7-aa53-5254001aba5d","value":"9bc4b814-b2e4-11e7-93d8-5254001aba5d"},{"type":"employee","uuid":"3d628934-b3b3-11e7-aa53-5254001aba5d","value":"7e33d0c3-b2e4-11e7-93d8-5254001aba5d"},{"type":"employee","uuid":"3d629e51-b3b3-11e7-aa53-5254001aba5d","value":"7e2870af-b2e4-11e7-93d8-5254001aba5d"}],"uuid":"3d61ad97-b3b3-11e7-aa53-5254001aba5d"}]</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>[{"target_value":"s{}","target_type":"","approvers":[{"type":"login_user_department_manager","uuid":"248b166c-470d-4516-9c40-3b119d0c4bad","value":""},{"type":"reporting_to","uuid":"7a68be4e-122c-4802-93e4-6d8d640deb65","value":"1"},{"type":"employee","uuid":"dc77da53-128a-461f-9a31-12b60210e07f","value":"7e2870af-b2e4-11e7-93d8-5254001aba5d"}],"uuid":"95defc56-0f75-11e7-8ff3-00163e007053"},{"target_value":"{\"department\":[\"d495a1cc-0f75-11e7-9aa4-00163e007053\"],\"employee\":[\"7e26644b-b2e4-11e7-93d8-5254001aba5d\"]}","target_type":"sponsor","approvers":[{"type":"department_manager","uuid":"","value":"9bc4b814-b2e4-11e7-93d8-5254001aba5d"},{"type":"employee","uuid":"","value":"7e254521-b2e4-11e7-93d8-5254001aba5d"}],"uuid":"3d5ee058-b3b3-11e7-aa53-5254001aba5d"},{"target_value":"{\"symbol\":\"&gt;\",\"unit\":\"d\",\"number\":\"2\"}","target_type":"duration","approvers":[{"type":"department_manager","uuid":"3d619823-b3b3-11e7-aa53-5254001aba5d","value":"9bc4b814-b2e4-11e7-93d8-5254001aba5d"}],"uuid":"3d60d30d-b3b3-11e7-aa53-5254001aba5d"},{"target_value":"{\"symbol\":\"==\",\"unit\":\"d\",\"number\":\"2\"}","target_type":"duration","approvers":[{"type":"department_manager","uuid":"3d625cc9-b3b3-11e7-aa53-5254001aba5d","value":"d495a1cc-0f75-11e7-9aa4-00163e007053"},{"type":"department_manager","uuid":"3d627286-b3b3-11e7-aa53-5254001aba5d","value":"9bc4b814-b2e4-11e7-93d8-5254001aba5d"},{"type":"employee","uuid":"3d628934-b3b3-11e7-aa53-5254001aba5d","value":"7e33d0c3-b2e4-11e7-93d8-5254001aba5d"},{"type":"employee","uuid":"3d629e51-b3b3-11e7-aa53-5254001aba5d","value":"7e2870af-b2e4-11e7-93d8-5254001aba5d"}],"uuid":"3d61ad97-b3b3-11e7-aa53-5254001aba5d"}]</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>[{"target_value":"s{}","target_type":"","approvers":[{"type":"login_user_department_manager","uuid":"248b166c-470d-4516-9c40-3b119d0c4bad","value":""},{"type":"reporting_to","uuid":"7a68be4e-122c-4802-93e4-6d8d640deb65","value":"1"},{"type":"employee","uuid":"dc77da53-128a-461f-9a31-12b60210e07f","value":"7e2870af-b2e4-11e7-93d8-5254001aba5d"}],"uuid":"95defc56-0f75-11e7-8ff3-00163e007053"},{"target_value":"{\"department\":[\"d495a1cc-0f75-11e7-9aa4-00163e007053\"],\"employee\":[\"7e26644b-b2e4-11e7-93d8-5254001aba5d\"]}","target_type":"sponsor","approvers":[{"type":"login_user_department_manager","uuid":"d9749704-d084-4433-8382-2cd03d31be59","value":""}],"uuid":"3d5ee058-b3b3-11e7-aa53-5254001aba5d"},{"target_value":"{\"symbol\":\"&gt;\",\"unit\":\"d\",\"number\":\"2\"}","target_type":"duration","approvers":[{"type":"department_manager","uuid":"3d619823-b3b3-11e7-aa53-5254001aba5d","value":"9bc4b814-b2e4-11e7-93d8-5254001aba5d"}],"uuid":"3d60d30d-b3b3-11e7-aa53-5254001aba5d"},{"target_value":"{\"symbol\":\"==\",\"unit\":\"d\",\"number\":\"2\"}","target_type":"duration","approvers":[{"type":"department_manager","uuid":"3d625cc9-b3b3-11e7-aa53-5254001aba5d","value":"d495a1cc-0f75-11e7-9aa4-00163e007053"},{"type":"department_manager","uuid":"3d627286-b3b3-11e7-aa53-5254001aba5d","value":"9bc4b814-b2e4-11e7-93d8-5254001aba5d"},{"type":"employee","uuid":"3d628934-b3b3-11e7-aa53-5254001aba5d","value":"7e33d0c3-b2e4-11e7-93d8-5254001aba5d"},{"type":"employee","uuid":"3d629e51-b3b3-11e7-aa53-5254001aba5d","value":"7e2870af-b2e4-11e7-93d8-5254001aba5d"}],"uuid":"3d61ad97-b3b3-11e7-aa53-5254001aba5d"}]</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>[{"target_value":"s{}","target_type":"","approvers":[{"type":"reporting_to","uuid":"","value":"1"},{"type":"reporting_to","uuid":"","value":"2"},{"type":"reporting_to","uuid":"","value":"3"},{"type":"reporting_to","uuid":"","value":"4"},{"type":"login_user_department_manager","uuid":"","value":""},{"type":"department_manager","uuid":"","value":"c592a9d8-b4bb-11e7-83f4-5254001aba5d"},{"type":"employee","uuid":"","value":"b8a23753-0f75-11e7-9aa4-00163e007053"}],"uuid":"95d79cad-0f75-11e7-8ff3-00163e007053"}]</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -664,8 +669,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F11" sqref="F11"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -690,7 +695,7 @@
         <v>2</v>
       </c>
       <c r="D1" s="4" t="s">
-        <v>68</v>
+        <v>62</v>
       </c>
       <c r="E1" s="1" t="s">
         <v>3</v>
@@ -701,7 +706,7 @@
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A2" s="4" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="B2" s="1" t="s">
         <v>7</v>
@@ -710,7 +715,7 @@
         <v>8</v>
       </c>
       <c r="D2" t="s">
-        <v>69</v>
+        <v>63</v>
       </c>
       <c r="E2" s="3" t="s">
         <v>18</v>
@@ -729,8 +734,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G6"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E21" sqref="E21"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -738,6 +743,7 @@
     <col min="1" max="1" width="7.125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="38.375" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="24.125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="20.625" customWidth="1"/>
     <col min="5" max="5" width="12.625" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="56.125" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="13.5" bestFit="1" customWidth="1"/>
@@ -777,7 +783,7 @@
         <v>25</v>
       </c>
       <c r="D2" t="s">
-        <v>56</v>
+        <v>65</v>
       </c>
       <c r="E2" t="s">
         <v>26</v>
@@ -800,13 +806,13 @@
         <v>16</v>
       </c>
       <c r="D3" t="s">
+        <v>66</v>
+      </c>
+      <c r="E3" t="s">
+        <v>26</v>
+      </c>
+      <c r="F3" t="s">
         <v>52</v>
-      </c>
-      <c r="E3" t="s">
-        <v>26</v>
-      </c>
-      <c r="F3" t="s">
-        <v>53</v>
       </c>
       <c r="G3" t="s">
         <v>46</v>
@@ -823,13 +829,13 @@
         <v>51</v>
       </c>
       <c r="D4" s="7" t="s">
-        <v>57</v>
+        <v>67</v>
       </c>
       <c r="E4" s="7" t="s">
         <v>26</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="G4" s="7" t="s">
         <v>46</v>
@@ -846,13 +852,13 @@
         <v>51</v>
       </c>
       <c r="D5" t="s">
-        <v>55</v>
+        <v>68</v>
       </c>
       <c r="E5" t="s">
         <v>26</v>
       </c>
       <c r="F5" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="G5" t="s">
         <v>46</v>
@@ -860,16 +866,16 @@
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>67</v>
+        <v>61</v>
       </c>
       <c r="B6" t="s">
-        <v>64</v>
+        <v>59</v>
       </c>
       <c r="C6" t="s">
         <v>25</v>
       </c>
       <c r="D6" t="s">
-        <v>58</v>
+        <v>69</v>
       </c>
       <c r="E6" t="s">
         <v>26</v>
@@ -892,7 +898,7 @@
   <dimension ref="A1:P6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F17" sqref="F17"/>
+      <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1163,7 +1169,7 @@
     </row>
     <row r="6" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>65</v>
+        <v>60</v>
       </c>
       <c r="B6" t="s">
         <v>39</v>
@@ -1181,7 +1187,7 @@
         <v>26</v>
       </c>
       <c r="G6" t="s">
-        <v>59</v>
+        <v>54</v>
       </c>
       <c r="H6" t="s">
         <v>40</v>
@@ -1196,16 +1202,16 @@
         <v>41</v>
       </c>
       <c r="L6" t="s">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="M6" t="s">
-        <v>61</v>
+        <v>56</v>
       </c>
       <c r="N6" t="s">
-        <v>62</v>
+        <v>57</v>
       </c>
       <c r="O6" t="s">
-        <v>63</v>
+        <v>58</v>
       </c>
       <c r="P6" t="s">
         <v>45</v>

--- a/sources/case/ApprovalTypes.xlsx
+++ b/sources/case/ApprovalTypes.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7560" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7560" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Base" sheetId="1" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="150" uniqueCount="70">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="150" uniqueCount="69">
   <si>
     <t>API</t>
   </si>
@@ -184,9 +184,6 @@
   </si>
   <si>
     <t>types_3</t>
-  </si>
-  <si>
-    <t>approval_end</t>
   </si>
   <si>
     <t>types_4</t>
@@ -273,10 +270,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>[{"target_value":"s{}","target_type":"","approvers":[{"type":"login_user_department_manager","uuid":"248b166c-470d-4516-9c40-3b119d0c4bad","value":""},{"type":"reporting_to","uuid":"7a68be4e-122c-4802-93e4-6d8d640deb65","value":"1"},{"type":"employee","uuid":"dc77da53-128a-461f-9a31-12b60210e07f","value":"7e2870af-b2e4-11e7-93d8-5254001aba5d"}],"uuid":"95defc56-0f75-11e7-8ff3-00163e007053"},{"target_value":"{\"department\":[\"d495a1cc-0f75-11e7-9aa4-00163e007053\"],\"employee\":[\"7e26644b-b2e4-11e7-93d8-5254001aba5d\"]}","target_type":"sponsor","approvers":[{"type":"department_manager","uuid":"","value":"c8e22cfe-0f75-11e7-9aa4-00163e007053"}],"uuid":"3d5ee058-b3b3-11e7-aa53-5254001aba5d"},{"target_value":"{\"symbol\":\"==\",\"unit\":\"d\",\"number\":\"2\"}","target_type":"duration","approvers":[{"type":"department_manager","uuid":"3d619823-b3b3-11e7-aa53-5254001aba5d","value":"9bc4b814-b2e4-11e7-93d8-5254001aba5d"}],"uuid":"3d60d30d-b3b3-11e7-aa53-5254001aba5d"},{"target_value":"{\"symbol\":\"&gt;=\",\"unit\":\"d\",\"number\":\"3\"}","target_type":"duration","approvers":[{"type":"department_manager","uuid":"3d625cc9-b3b3-11e7-aa53-5254001aba5d","value":"d495a1cc-0f75-11e7-9aa4-00163e007053"},{"type":"department_manager","uuid":"3d627286-b3b3-11e7-aa53-5254001aba5d","value":"9bc4b814-b2e4-11e7-93d8-5254001aba5d"},{"type":"employee","uuid":"3d628934-b3b3-11e7-aa53-5254001aba5d","value":"7e33d0c3-b2e4-11e7-93d8-5254001aba5d"},{"type":"employee","uuid":"3d629e51-b3b3-11e7-aa53-5254001aba5d","value":"7e2870af-b2e4-11e7-93d8-5254001aba5d"}],"uuid":"3d61ad97-b3b3-11e7-aa53-5254001aba5d"}]</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>[{"target_value":"s{}","target_type":"","approvers":[{"type":"login_user_department_manager","uuid":"248b166c-470d-4516-9c40-3b119d0c4bad","value":""},{"type":"reporting_to","uuid":"7a68be4e-122c-4802-93e4-6d8d640deb65","value":"1"},{"type":"employee","uuid":"dc77da53-128a-461f-9a31-12b60210e07f","value":"7e2870af-b2e4-11e7-93d8-5254001aba5d"}],"uuid":"95defc56-0f75-11e7-8ff3-00163e007053"},{"target_value":"{\"department\":[\"d495a1cc-0f75-11e7-9aa4-00163e007053\"],\"employee\":[\"7e26644b-b2e4-11e7-93d8-5254001aba5d\"]}","target_type":"sponsor","approvers":[{"type":"reporting_to","uuid":"","value":"1"},{"type":"login_user_department_manager","uuid":"","value":""},{"type":"department_manager","uuid":"","value":"9bc4b814-b2e4-11e7-93d8-5254001aba5d"},{"type":"employee","uuid":"","value":"7e2870af-b2e4-11e7-93d8-5254001aba5d"}],"uuid":"3d5ee058-b3b3-11e7-aa53-5254001aba5d"},{"target_value":"{\"symbol\":\"&lt;=\",\"unit\":\"d\",\"number\":\"2\"}","target_type":"duration","approvers":[{"type":"department_manager","uuid":"3d619823-b3b3-11e7-aa53-5254001aba5d","value":"9bc4b814-b2e4-11e7-93d8-5254001aba5d"}],"uuid":"3d60d30d-b3b3-11e7-aa53-5254001aba5d"},{"target_value":"{\"symbol\":\"&gt;=\",\"unit\":\"d\",\"number\":\"3\"}","target_type":"duration","approvers":[{"type":"department_manager","uuid":"3d625cc9-b3b3-11e7-aa53-5254001aba5d","value":"d495a1cc-0f75-11e7-9aa4-00163e007053"},{"type":"department_manager","uuid":"3d627286-b3b3-11e7-aa53-5254001aba5d","value":"9bc4b814-b2e4-11e7-93d8-5254001aba5d"},{"type":"employee","uuid":"3d628934-b3b3-11e7-aa53-5254001aba5d","value":"7e33d0c3-b2e4-11e7-93d8-5254001aba5d"},{"type":"employee","uuid":"3d629e51-b3b3-11e7-aa53-5254001aba5d","value":"7e2870af-b2e4-11e7-93d8-5254001aba5d"}],"uuid":"3d61ad97-b3b3-11e7-aa53-5254001aba5d"}]</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -289,7 +282,11 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>[{"target_value":"s{}","target_type":"","approvers":[{"type":"reporting_to","uuid":"","value":"1"},{"type":"reporting_to","uuid":"","value":"2"},{"type":"reporting_to","uuid":"","value":"3"},{"type":"reporting_to","uuid":"","value":"4"},{"type":"login_user_department_manager","uuid":"","value":""},{"type":"department_manager","uuid":"","value":"c592a9d8-b4bb-11e7-83f4-5254001aba5d"},{"type":"employee","uuid":"","value":"b8a23753-0f75-11e7-9aa4-00163e007053"}],"uuid":"95d79cad-0f75-11e7-8ff3-00163e007053"}]</t>
+    <t>[{"target_value":"s{}","target_type":"","approvers":[{"type":"reporting_to","uuid":"04aced39-6f15-47a4-a3a8-0f531aa5c400","value":"1"},{"type":"reporting_to","uuid":"89b6652e-f536-436c-9a87-0243b86d4a50","value":"2"},{"type":"reporting_to","uuid":"22943621-1dcd-46e0-bfe6-d8c946e8a7b0","value":"3"},{"type":"reporting_to","uuid":"8cc92eea-cebb-4ab8-9bfc-e11cc0593e82","value":"4"},{"type":"login_user_department_manager","uuid":"42e5f59b-f5b3-4d15-830e-a9e969dee045","value":""},{"type":"department_manager","uuid":"","value":"${addDepartment.uuid}"},{"type":"employee","uuid":"","value":"b8a23753-0f75-11e7-9aa4-00163e007053"}],"uuid":"95d79cad-0f75-11e7-8ff3-00163e007053"}]</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>[{"uuid":"95d79cad-0f75-11e7-8ff3-00163e007053","approvers":[{"uuid":"","type":"reporting_to","value":"1"},{"uuid":"","type":"reporting_to","value":"2"},{"uuid":"","type":"reporting_to","value":"3"},{"uuid":"","type":"reporting_to","value":"4"},{"uuid":"","type":"login_user_department_manager","value":""},{"uuid":"","type":"department_manager","value":"${organization_2.uuid}"},{"uuid":"","type":"employee","value":"b8a23753-0f75-11e7-9aa4-00163e007053"}],"target_type":"","target_value":"s{}"}]</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -361,7 +358,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -376,9 +373,6 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1">
-      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1">
       <alignment vertical="center"/>
@@ -695,7 +689,7 @@
         <v>2</v>
       </c>
       <c r="D1" s="4" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="E1" s="1" t="s">
         <v>3</v>
@@ -706,7 +700,7 @@
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A2" s="4" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B2" s="1" t="s">
         <v>7</v>
@@ -715,7 +709,7 @@
         <v>8</v>
       </c>
       <c r="D2" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="E2" s="3" t="s">
         <v>18</v>
@@ -734,8 +728,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D2" sqref="D2"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E14" sqref="E14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -783,7 +777,7 @@
         <v>25</v>
       </c>
       <c r="D2" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="E2" t="s">
         <v>26</v>
@@ -792,7 +786,7 @@
         <v>27</v>
       </c>
       <c r="G2" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.2">
@@ -806,13 +800,13 @@
         <v>16</v>
       </c>
       <c r="D3" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="E3" t="s">
         <v>26</v>
       </c>
       <c r="F3" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="G3" t="s">
         <v>46</v>
@@ -825,40 +819,40 @@
       <c r="B4" t="s">
         <v>21</v>
       </c>
-      <c r="C4" s="7" t="s">
-        <v>51</v>
-      </c>
-      <c r="D4" s="7" t="s">
-        <v>67</v>
-      </c>
-      <c r="E4" s="7" t="s">
-        <v>26</v>
-      </c>
-      <c r="F4" s="7" t="s">
-        <v>53</v>
-      </c>
-      <c r="G4" s="7" t="s">
+      <c r="C4" s="6" t="s">
+        <v>50</v>
+      </c>
+      <c r="D4" s="6" t="s">
+        <v>65</v>
+      </c>
+      <c r="E4" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="F4" s="6" t="s">
+        <v>52</v>
+      </c>
+      <c r="G4" s="6" t="s">
         <v>46</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B5" t="s">
         <v>14</v>
       </c>
       <c r="C5" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D5" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="E5" t="s">
         <v>26</v>
       </c>
       <c r="F5" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="G5" t="s">
         <v>46</v>
@@ -866,16 +860,16 @@
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B6" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="C6" t="s">
         <v>25</v>
       </c>
       <c r="D6" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="E6" t="s">
         <v>26</v>
@@ -897,8 +891,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:P6"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B1" sqref="B1"/>
+    <sheetView tabSelected="1" topLeftCell="I1" workbookViewId="0">
+      <selection activeCell="O11" sqref="O11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -914,7 +908,7 @@
     <col min="12" max="12" width="40.75" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="6.125" bestFit="1" customWidth="1"/>
     <col min="14" max="14" width="10.875" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="12.875" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="15.875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:16" x14ac:dyDescent="0.2">
@@ -971,49 +965,49 @@
       <c r="A2" t="s">
         <v>13</v>
       </c>
-      <c r="B2" s="6" t="s">
+      <c r="B2" t="s">
         <v>39</v>
       </c>
-      <c r="C2" s="6" t="s">
-        <v>26</v>
-      </c>
-      <c r="D2" s="6" t="s">
-        <v>26</v>
-      </c>
-      <c r="E2" s="6" t="s">
-        <v>26</v>
-      </c>
-      <c r="F2" s="6" t="s">
-        <v>26</v>
-      </c>
-      <c r="G2" s="6" t="s">
-        <v>14</v>
-      </c>
-      <c r="H2" s="6" t="s">
+      <c r="C2" t="s">
+        <v>26</v>
+      </c>
+      <c r="D2" t="s">
+        <v>26</v>
+      </c>
+      <c r="E2" t="s">
+        <v>26</v>
+      </c>
+      <c r="F2" t="s">
+        <v>26</v>
+      </c>
+      <c r="G2" t="s">
+        <v>53</v>
+      </c>
+      <c r="H2" t="s">
         <v>40</v>
       </c>
-      <c r="I2" s="6" t="s">
-        <v>49</v>
-      </c>
-      <c r="J2" s="6" t="s">
+      <c r="I2" t="s">
+        <v>46</v>
+      </c>
+      <c r="J2" t="s">
         <v>25</v>
       </c>
-      <c r="K2" s="6" t="s">
+      <c r="K2" t="s">
         <v>41</v>
       </c>
-      <c r="L2" s="6" t="s">
-        <v>47</v>
-      </c>
-      <c r="M2" s="6" t="s">
-        <v>42</v>
-      </c>
-      <c r="N2" s="6" t="s">
-        <v>43</v>
-      </c>
-      <c r="O2" s="6" t="s">
-        <v>44</v>
-      </c>
-      <c r="P2" s="6" t="s">
+      <c r="L2" t="s">
+        <v>54</v>
+      </c>
+      <c r="M2" t="s">
+        <v>55</v>
+      </c>
+      <c r="N2" t="s">
+        <v>56</v>
+      </c>
+      <c r="O2" t="s">
+        <v>57</v>
+      </c>
+      <c r="P2" t="s">
         <v>45</v>
       </c>
     </row>
@@ -1096,7 +1090,7 @@
         <v>46</v>
       </c>
       <c r="J4" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="K4" t="s">
         <v>41</v>
@@ -1119,7 +1113,7 @@
     </row>
     <row r="5" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B5" t="s">
         <v>39</v>
@@ -1146,7 +1140,7 @@
         <v>46</v>
       </c>
       <c r="J5" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="K5" t="s">
         <v>41</v>
@@ -1169,7 +1163,7 @@
     </row>
     <row r="6" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B6" t="s">
         <v>39</v>
@@ -1187,7 +1181,7 @@
         <v>26</v>
       </c>
       <c r="G6" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="H6" t="s">
         <v>40</v>
@@ -1202,16 +1196,16 @@
         <v>41</v>
       </c>
       <c r="L6" t="s">
+        <v>54</v>
+      </c>
+      <c r="M6" t="s">
         <v>55</v>
       </c>
-      <c r="M6" t="s">
+      <c r="N6" t="s">
         <v>56</v>
       </c>
-      <c r="N6" t="s">
+      <c r="O6" t="s">
         <v>57</v>
-      </c>
-      <c r="O6" t="s">
-        <v>58</v>
       </c>
       <c r="P6" t="s">
         <v>45</v>

--- a/sources/case/ApprovalTypes.xlsx
+++ b/sources/case/ApprovalTypes.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7560" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7560" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Base" sheetId="1" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="150" uniqueCount="69">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="144" uniqueCount="66">
   <si>
     <t>API</t>
   </si>
@@ -144,9 +144,6 @@
     <t>has_approval</t>
   </si>
   <si>
-    <t>approvals</t>
-  </si>
-  <si>
     <t>name</t>
   </si>
   <si>
@@ -180,9 +177,6 @@
     <t>approval_start</t>
   </si>
   <si>
-    <t>["95defc56-0f75-11e7-8ff3-00163e007053","3d5ee058-b3b3-11e7-aa53-5254001aba5d","3d60d30d-b3b3-11e7-aa53-5254001aba5d","3d61ad97-b3b3-11e7-aa53-5254001aba5d"]</t>
-  </si>
-  <si>
     <t>types_3</t>
   </si>
   <si>
@@ -199,9 +193,6 @@
   </si>
   <si>
     <t>95d72f09-0f75-11e7-8ff3-00163e007053</t>
-  </si>
-  <si>
-    <t>["95d79cad-0f75-11e7-8ff3-00163e007053"]</t>
   </si>
   <si>
     <t>调整</t>
@@ -278,15 +269,15 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>[{"target_value":"s{}","target_type":"","approvers":[{"type":"login_user_department_manager","uuid":"248b166c-470d-4516-9c40-3b119d0c4bad","value":""},{"type":"reporting_to","uuid":"7a68be4e-122c-4802-93e4-6d8d640deb65","value":"1"},{"type":"employee","uuid":"dc77da53-128a-461f-9a31-12b60210e07f","value":"7e2870af-b2e4-11e7-93d8-5254001aba5d"}],"uuid":"95defc56-0f75-11e7-8ff3-00163e007053"},{"target_value":"{\"department\":[\"d495a1cc-0f75-11e7-9aa4-00163e007053\"],\"employee\":[\"7e26644b-b2e4-11e7-93d8-5254001aba5d\"]}","target_type":"sponsor","approvers":[{"type":"login_user_department_manager","uuid":"d9749704-d084-4433-8382-2cd03d31be59","value":""}],"uuid":"3d5ee058-b3b3-11e7-aa53-5254001aba5d"},{"target_value":"{\"symbol\":\"&gt;\",\"unit\":\"d\",\"number\":\"2\"}","target_type":"duration","approvers":[{"type":"department_manager","uuid":"3d619823-b3b3-11e7-aa53-5254001aba5d","value":"9bc4b814-b2e4-11e7-93d8-5254001aba5d"}],"uuid":"3d60d30d-b3b3-11e7-aa53-5254001aba5d"},{"target_value":"{\"symbol\":\"==\",\"unit\":\"d\",\"number\":\"2\"}","target_type":"duration","approvers":[{"type":"department_manager","uuid":"3d625cc9-b3b3-11e7-aa53-5254001aba5d","value":"d495a1cc-0f75-11e7-9aa4-00163e007053"},{"type":"department_manager","uuid":"3d627286-b3b3-11e7-aa53-5254001aba5d","value":"9bc4b814-b2e4-11e7-93d8-5254001aba5d"},{"type":"employee","uuid":"3d628934-b3b3-11e7-aa53-5254001aba5d","value":"7e33d0c3-b2e4-11e7-93d8-5254001aba5d"},{"type":"employee","uuid":"3d629e51-b3b3-11e7-aa53-5254001aba5d","value":"7e2870af-b2e4-11e7-93d8-5254001aba5d"}],"uuid":"3d61ad97-b3b3-11e7-aa53-5254001aba5d"}]</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>[{"target_value":"s{}","target_type":"","approvers":[{"type":"reporting_to","uuid":"04aced39-6f15-47a4-a3a8-0f531aa5c400","value":"1"},{"type":"reporting_to","uuid":"89b6652e-f536-436c-9a87-0243b86d4a50","value":"2"},{"type":"reporting_to","uuid":"22943621-1dcd-46e0-bfe6-d8c946e8a7b0","value":"3"},{"type":"reporting_to","uuid":"8cc92eea-cebb-4ab8-9bfc-e11cc0593e82","value":"4"},{"type":"login_user_department_manager","uuid":"42e5f59b-f5b3-4d15-830e-a9e969dee045","value":""},{"type":"department_manager","uuid":"","value":"${addDepartment.uuid}"},{"type":"employee","uuid":"","value":"b8a23753-0f75-11e7-9aa4-00163e007053"}],"uuid":"95d79cad-0f75-11e7-8ff3-00163e007053"}]</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>[{"uuid":"95d79cad-0f75-11e7-8ff3-00163e007053","approvers":[{"uuid":"","type":"reporting_to","value":"1"},{"uuid":"","type":"reporting_to","value":"2"},{"uuid":"","type":"reporting_to","value":"3"},{"uuid":"","type":"reporting_to","value":"4"},{"uuid":"","type":"login_user_department_manager","value":""},{"uuid":"","type":"department_manager","value":"${organization_2.uuid}"},{"uuid":"","type":"employee","value":"b8a23753-0f75-11e7-9aa4-00163e007053"}],"target_type":"","target_value":"s{}"}]</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>[{"uuid":"95d79cad-0f75-11e7-8ff3-00163e007053","approvers":[{"uuid":"","type":"reporting_to","value":"1"},{"uuid":"","type":"reporting_to","value":"2"},{"uuid":"","type":"reporting_to","value":"3"},{"uuid":"","type":"reporting_to","value":"4"},{"uuid":"","type":"login_user_department_manager","value":""},{"uuid":"","type":"department_manager","value":"6a74f505-b965-11e7-b707-5254001aba5d"},{"uuid":"","type":"employee","value":"b8a23753-0f75-11e7-9aa4-00163e007053"}],"target_type":"","target_value":"s{}"},{"uuid":"","approvers":[{"uuid":"","type":"login_user_department_manager","value":""},{"uuid":"","type":"employee","value":"b8a23753-0f75-11e7-9aa4-00163e007053"}],"target_type":"sponsor","target_value":"s{\"department\":[\"6a74f505-b965-11e7-b707-5254001aba5d\"],\"employee\":[]}"},{"uuid":"","approvers":[{"uuid":"","type":"reporting_to","value":"4"},{"uuid":"","type":"login_user_department_manager","value":""},{"uuid":"","type":"department_manager","value":"6a74f505-b965-11e7-b707-5254001aba5d"},{"uuid":"","type":"employee","value":"b8a23753-0f75-11e7-9aa4-00163e007053"}],"target_type":"sponsor","target_value":"s{\"department\":[],\"employee\":[\"7e2bb13d-b2e4-11e7-93d8-5254001aba5d\"]}"}]</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -664,7 +655,7 @@
   <dimension ref="A1:F2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="D21" sqref="D21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -689,7 +680,7 @@
         <v>2</v>
       </c>
       <c r="D1" s="4" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="E1" s="1" t="s">
         <v>3</v>
@@ -700,7 +691,7 @@
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A2" s="4" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="B2" s="1" t="s">
         <v>7</v>
@@ -709,7 +700,7 @@
         <v>8</v>
       </c>
       <c r="D2" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="E2" s="3" t="s">
         <v>18</v>
@@ -728,8 +719,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G6"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E14" sqref="E14"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C12" sqref="C12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -777,7 +768,7 @@
         <v>25</v>
       </c>
       <c r="D2" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="E2" t="s">
         <v>26</v>
@@ -786,7 +777,7 @@
         <v>27</v>
       </c>
       <c r="G2" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.2">
@@ -800,76 +791,76 @@
         <v>16</v>
       </c>
       <c r="D3" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="E3" t="s">
         <v>26</v>
       </c>
       <c r="F3" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="G3" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="B4" t="s">
         <v>21</v>
       </c>
       <c r="C4" s="6" t="s">
+        <v>48</v>
+      </c>
+      <c r="D4" s="6" t="s">
+        <v>62</v>
+      </c>
+      <c r="E4" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="F4" s="6" t="s">
         <v>50</v>
       </c>
-      <c r="D4" s="6" t="s">
-        <v>65</v>
-      </c>
-      <c r="E4" s="6" t="s">
-        <v>26</v>
-      </c>
-      <c r="F4" s="6" t="s">
-        <v>52</v>
-      </c>
       <c r="G4" s="6" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
+        <v>47</v>
+      </c>
+      <c r="B5" t="s">
+        <v>55</v>
+      </c>
+      <c r="C5" t="s">
+        <v>48</v>
+      </c>
+      <c r="D5" t="s">
+        <v>65</v>
+      </c>
+      <c r="E5" t="s">
+        <v>26</v>
+      </c>
+      <c r="F5" t="s">
         <v>49</v>
       </c>
-      <c r="B5" t="s">
-        <v>14</v>
-      </c>
-      <c r="C5" t="s">
-        <v>50</v>
-      </c>
-      <c r="D5" t="s">
-        <v>66</v>
-      </c>
-      <c r="E5" t="s">
-        <v>26</v>
-      </c>
-      <c r="F5" t="s">
-        <v>52</v>
-      </c>
       <c r="G5" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="B6" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="C6" t="s">
         <v>25</v>
       </c>
       <c r="D6" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="E6" t="s">
         <v>26</v>
@@ -878,7 +869,7 @@
         <v>27</v>
       </c>
       <c r="G6" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
   </sheetData>
@@ -889,10 +880,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:P6"/>
+  <dimension ref="A1:O6"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="I1" workbookViewId="0">
-      <selection activeCell="O11" sqref="O11"/>
+    <sheetView topLeftCell="H1" workbookViewId="0">
+      <selection activeCell="L12" sqref="L12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -905,13 +896,12 @@
     <col min="8" max="8" width="40.75" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="13.5" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="24.125" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="40.75" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="6.125" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="10.875" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="15.875" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="6.125" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="10.875" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="15.875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>6</v>
       </c>
@@ -955,68 +945,62 @@
         <v>37</v>
       </c>
       <c r="O1" t="s">
-        <v>38</v>
-      </c>
-      <c r="P1" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="2" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>13</v>
       </c>
       <c r="B2" t="s">
+        <v>38</v>
+      </c>
+      <c r="C2" t="s">
+        <v>26</v>
+      </c>
+      <c r="D2" t="s">
+        <v>26</v>
+      </c>
+      <c r="E2" t="s">
+        <v>26</v>
+      </c>
+      <c r="F2" t="s">
+        <v>26</v>
+      </c>
+      <c r="G2" t="s">
+        <v>51</v>
+      </c>
+      <c r="H2" t="s">
         <v>39</v>
       </c>
-      <c r="C2" t="s">
-        <v>26</v>
-      </c>
-      <c r="D2" t="s">
-        <v>26</v>
-      </c>
-      <c r="E2" t="s">
-        <v>26</v>
-      </c>
-      <c r="F2" t="s">
-        <v>26</v>
-      </c>
-      <c r="G2" t="s">
-        <v>53</v>
-      </c>
-      <c r="H2" t="s">
-        <v>40</v>
-      </c>
       <c r="I2" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="J2" t="s">
         <v>25</v>
       </c>
       <c r="K2" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="L2" t="s">
+        <v>52</v>
+      </c>
+      <c r="M2" t="s">
+        <v>53</v>
+      </c>
+      <c r="N2" t="s">
         <v>54</v>
       </c>
-      <c r="M2" t="s">
-        <v>55</v>
-      </c>
-      <c r="N2" t="s">
-        <v>56</v>
-      </c>
       <c r="O2" t="s">
-        <v>57</v>
-      </c>
-      <c r="P2" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="3" spans="1:16" x14ac:dyDescent="0.2">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="3" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>15</v>
       </c>
       <c r="B3" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C3" t="s">
         <v>26</v>
@@ -1034,19 +1018,19 @@
         <v>14</v>
       </c>
       <c r="H3" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="I3" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="J3" t="s">
         <v>16</v>
       </c>
       <c r="K3" t="s">
+        <v>40</v>
+      </c>
+      <c r="L3" t="s">
         <v>41</v>
-      </c>
-      <c r="L3" t="s">
-        <v>47</v>
       </c>
       <c r="M3" t="s">
         <v>42</v>
@@ -1057,16 +1041,13 @@
       <c r="O3" t="s">
         <v>44</v>
       </c>
-      <c r="P3" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="4" spans="1:16" x14ac:dyDescent="0.2">
+    </row>
+    <row r="4" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="B4" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C4" t="s">
         <v>26</v>
@@ -1084,19 +1065,19 @@
         <v>14</v>
       </c>
       <c r="H4" t="s">
+        <v>39</v>
+      </c>
+      <c r="I4" t="s">
+        <v>45</v>
+      </c>
+      <c r="J4" t="s">
+        <v>48</v>
+      </c>
+      <c r="K4" t="s">
         <v>40</v>
       </c>
-      <c r="I4" t="s">
-        <v>46</v>
-      </c>
-      <c r="J4" t="s">
-        <v>50</v>
-      </c>
-      <c r="K4" t="s">
+      <c r="L4" t="s">
         <v>41</v>
-      </c>
-      <c r="L4" t="s">
-        <v>47</v>
       </c>
       <c r="M4" t="s">
         <v>42</v>
@@ -1107,108 +1088,99 @@
       <c r="O4" t="s">
         <v>44</v>
       </c>
-      <c r="P4" t="s">
+    </row>
+    <row r="5" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
+        <v>47</v>
+      </c>
+      <c r="B5" t="s">
+        <v>38</v>
+      </c>
+      <c r="C5" t="s">
+        <v>26</v>
+      </c>
+      <c r="D5" t="s">
+        <v>26</v>
+      </c>
+      <c r="E5" t="s">
+        <v>26</v>
+      </c>
+      <c r="F5" t="s">
+        <v>26</v>
+      </c>
+      <c r="G5" t="s">
+        <v>51</v>
+      </c>
+      <c r="H5" t="s">
+        <v>39</v>
+      </c>
+      <c r="I5" t="s">
         <v>45</v>
       </c>
-    </row>
-    <row r="5" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A5" t="s">
-        <v>49</v>
-      </c>
-      <c r="B5" t="s">
-        <v>39</v>
-      </c>
-      <c r="C5" t="s">
-        <v>26</v>
-      </c>
-      <c r="D5" t="s">
-        <v>26</v>
-      </c>
-      <c r="E5" t="s">
-        <v>26</v>
-      </c>
-      <c r="F5" t="s">
-        <v>26</v>
-      </c>
-      <c r="G5" t="s">
-        <v>14</v>
-      </c>
-      <c r="H5" t="s">
+      <c r="J5" t="s">
+        <v>48</v>
+      </c>
+      <c r="K5" t="s">
         <v>40</v>
       </c>
-      <c r="I5" t="s">
-        <v>46</v>
-      </c>
-      <c r="J5" t="s">
-        <v>50</v>
-      </c>
-      <c r="K5" t="s">
-        <v>41</v>
-      </c>
       <c r="L5" t="s">
-        <v>47</v>
+        <v>52</v>
       </c>
       <c r="M5" t="s">
-        <v>42</v>
+        <v>53</v>
       </c>
       <c r="N5" t="s">
-        <v>43</v>
+        <v>54</v>
       </c>
       <c r="O5" t="s">
         <v>44</v>
       </c>
-      <c r="P5" t="s">
+    </row>
+    <row r="6" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A6" t="s">
+        <v>56</v>
+      </c>
+      <c r="B6" t="s">
+        <v>38</v>
+      </c>
+      <c r="C6" t="s">
+        <v>26</v>
+      </c>
+      <c r="D6" t="s">
+        <v>26</v>
+      </c>
+      <c r="E6" t="s">
+        <v>26</v>
+      </c>
+      <c r="F6" t="s">
+        <v>26</v>
+      </c>
+      <c r="G6" t="s">
+        <v>51</v>
+      </c>
+      <c r="H6" t="s">
+        <v>39</v>
+      </c>
+      <c r="I6" t="s">
         <v>45</v>
-      </c>
-    </row>
-    <row r="6" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A6" t="s">
-        <v>59</v>
-      </c>
-      <c r="B6" t="s">
-        <v>39</v>
-      </c>
-      <c r="C6" t="s">
-        <v>26</v>
-      </c>
-      <c r="D6" t="s">
-        <v>26</v>
-      </c>
-      <c r="E6" t="s">
-        <v>26</v>
-      </c>
-      <c r="F6" t="s">
-        <v>26</v>
-      </c>
-      <c r="G6" t="s">
-        <v>53</v>
-      </c>
-      <c r="H6" t="s">
-        <v>40</v>
-      </c>
-      <c r="I6" t="s">
-        <v>46</v>
       </c>
       <c r="J6" t="s">
         <v>25</v>
       </c>
       <c r="K6" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="L6" t="s">
+        <v>52</v>
+      </c>
+      <c r="M6" t="s">
+        <v>53</v>
+      </c>
+      <c r="N6" t="s">
         <v>54</v>
       </c>
-      <c r="M6" t="s">
-        <v>55</v>
-      </c>
-      <c r="N6" t="s">
-        <v>56</v>
-      </c>
       <c r="O6" t="s">
-        <v>57</v>
-      </c>
-      <c r="P6" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
   </sheetData>

--- a/sources/case/ApprovalTypes.xlsx
+++ b/sources/case/ApprovalTypes.xlsx
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="144" uniqueCount="66">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="166" uniqueCount="73">
   <si>
     <t>API</t>
   </si>
@@ -278,6 +278,34 @@
   </si>
   <si>
     <t>[{"uuid":"95d79cad-0f75-11e7-8ff3-00163e007053","approvers":[{"uuid":"","type":"reporting_to","value":"1"},{"uuid":"","type":"reporting_to","value":"2"},{"uuid":"","type":"reporting_to","value":"3"},{"uuid":"","type":"reporting_to","value":"4"},{"uuid":"","type":"login_user_department_manager","value":""},{"uuid":"","type":"department_manager","value":"6a74f505-b965-11e7-b707-5254001aba5d"},{"uuid":"","type":"employee","value":"b8a23753-0f75-11e7-9aa4-00163e007053"}],"target_type":"","target_value":"s{}"},{"uuid":"","approvers":[{"uuid":"","type":"login_user_department_manager","value":""},{"uuid":"","type":"employee","value":"b8a23753-0f75-11e7-9aa4-00163e007053"}],"target_type":"sponsor","target_value":"s{\"department\":[\"6a74f505-b965-11e7-b707-5254001aba5d\"],\"employee\":[]}"},{"uuid":"","approvers":[{"uuid":"","type":"reporting_to","value":"4"},{"uuid":"","type":"login_user_department_manager","value":""},{"uuid":"","type":"department_manager","value":"6a74f505-b965-11e7-b707-5254001aba5d"},{"uuid":"","type":"employee","value":"b8a23753-0f75-11e7-9aa4-00163e007053"}],"target_type":"sponsor","target_value":"s{\"department\":[],\"employee\":[\"7e2bb13d-b2e4-11e7-93d8-5254001aba5d\"]}"}]</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>continuous_multiple_times</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>95da3e59-0f75-11e7-8ff3-00163e007053</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>types_6</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>00b19169-fc38-4e51-a99f-98f31ccaa46d</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>types_6</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>转正</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>[{"target_value":"s{}","target_type":"","approvers":[{"type":"reporting_to","uuid":"","value":"1"},{"type":"reporting_to","uuid":"","value":"2"},{"type":"reporting_to","uuid":"","value":"3"},{"type":"reporting_to","uuid":"","value":"4"},{"type":"login_user_department_manager","uuid":"","value":""},{"type":"department_manager","uuid":"","value":"6a74f505-b965-11e7-b707-5254001aba5d"},{"type":"employee","uuid":"","value":"b8a23753-0f75-11e7-9aa4-00163e007053"}],"uuid":"01d252fa-baf2-11e7-abde-5254001aba5d"}]</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -717,10 +745,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G6"/>
+  <dimension ref="A1:G7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C12" sqref="C12"/>
+      <selection activeCell="D16" sqref="D16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -872,6 +900,29 @@
         <v>45</v>
       </c>
     </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A7" t="s">
+        <v>68</v>
+      </c>
+      <c r="B7" t="s">
+        <v>67</v>
+      </c>
+      <c r="C7" t="s">
+        <v>66</v>
+      </c>
+      <c r="D7" t="s">
+        <v>72</v>
+      </c>
+      <c r="E7" t="s">
+        <v>26</v>
+      </c>
+      <c r="F7" t="s">
+        <v>27</v>
+      </c>
+      <c r="G7" t="s">
+        <v>45</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -880,10 +931,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:O6"/>
+  <dimension ref="A1:O7"/>
   <sheetViews>
-    <sheetView topLeftCell="H1" workbookViewId="0">
-      <selection activeCell="L12" sqref="L12"/>
+    <sheetView topLeftCell="F1" workbookViewId="0">
+      <selection activeCell="L8" sqref="L8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1183,6 +1234,53 @@
         <v>44</v>
       </c>
     </row>
+    <row r="7" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A7" t="s">
+        <v>70</v>
+      </c>
+      <c r="B7" t="s">
+        <v>69</v>
+      </c>
+      <c r="C7" t="s">
+        <v>26</v>
+      </c>
+      <c r="D7" t="s">
+        <v>26</v>
+      </c>
+      <c r="E7" t="s">
+        <v>26</v>
+      </c>
+      <c r="F7" t="s">
+        <v>26</v>
+      </c>
+      <c r="G7" t="s">
+        <v>67</v>
+      </c>
+      <c r="H7" t="s">
+        <v>39</v>
+      </c>
+      <c r="I7" t="s">
+        <v>45</v>
+      </c>
+      <c r="J7" t="s">
+        <v>25</v>
+      </c>
+      <c r="K7" t="s">
+        <v>40</v>
+      </c>
+      <c r="L7" t="s">
+        <v>71</v>
+      </c>
+      <c r="M7" t="s">
+        <v>53</v>
+      </c>
+      <c r="N7" t="s">
+        <v>54</v>
+      </c>
+      <c r="O7" t="s">
+        <v>44</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/sources/case/ApprovalTypes.xlsx
+++ b/sources/case/ApprovalTypes.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7560" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7560"/>
   </bookViews>
   <sheets>
     <sheet name="Base" sheetId="1" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="166" uniqueCount="73">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="563" uniqueCount="135">
   <si>
     <t>API</t>
   </si>
@@ -67,24 +67,6 @@
     <t>cc_list</t>
   </si>
   <si>
-    <t>types_1</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>types_1</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>95de83f6-0f75-11e7-8ff3-00163e007053</t>
-  </si>
-  <si>
-    <t>types_2</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>many_times</t>
-  </si>
-  <si>
     <t>type_id</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -93,18 +75,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>95de83f6-0f75-11e7-8ff3-00163e007053</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>types_2</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>95de83f6-0f75-11e7-8ff3-00163e007053</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>process_list</t>
   </si>
   <si>
@@ -114,9 +84,6 @@
     <t>notice_type</t>
   </si>
   <si>
-    <t>duplicate</t>
-  </si>
-  <si>
     <t/>
   </si>
   <si>
@@ -162,36 +129,15 @@
     <t>y</t>
   </si>
   <si>
-    <t>请假</t>
-  </si>
-  <si>
-    <t>attendance</t>
-  </si>
-  <si>
-    <t>leave_request</t>
-  </si>
-  <si>
     <t>active</t>
   </si>
   <si>
     <t>approval_start</t>
   </si>
   <si>
-    <t>types_3</t>
-  </si>
-  <si>
-    <t>types_4</t>
-  </si>
-  <si>
     <t>continuous_multiple_times</t>
   </si>
   <si>
-    <t>[{"employee_id":"b8a23753-0f75-11e7-9aa4-00163e007053"}]</t>
-  </si>
-  <si>
-    <t>[{"employee_id":"b8a23753-0f75-11e7-9aa4-00163e007053"},{"employee_id":"7e2bb13d-b2e4-11e7-93d8-5254001aba5d"}]</t>
-  </si>
-  <si>
     <t>95d72f09-0f75-11e7-8ff3-00163e007053</t>
   </si>
   <si>
@@ -202,17 +148,6 @@
   </si>
   <si>
     <t>employee_adjust</t>
-  </si>
-  <si>
-    <t>95d72f09-0f75-11e7-8ff3-00163e007053</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>types_5</t>
-  </si>
-  <si>
-    <t>types_5</t>
-    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -261,51 +196,346 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>[{"target_value":"s{}","target_type":"","approvers":[{"type":"login_user_department_manager","uuid":"248b166c-470d-4516-9c40-3b119d0c4bad","value":""},{"type":"reporting_to","uuid":"7a68be4e-122c-4802-93e4-6d8d640deb65","value":"1"},{"type":"employee","uuid":"dc77da53-128a-461f-9a31-12b60210e07f","value":"7e2870af-b2e4-11e7-93d8-5254001aba5d"}],"uuid":"95defc56-0f75-11e7-8ff3-00163e007053"},{"target_value":"{\"department\":[\"d495a1cc-0f75-11e7-9aa4-00163e007053\"],\"employee\":[\"7e26644b-b2e4-11e7-93d8-5254001aba5d\"]}","target_type":"sponsor","approvers":[{"type":"reporting_to","uuid":"","value":"1"},{"type":"login_user_department_manager","uuid":"","value":""},{"type":"department_manager","uuid":"","value":"9bc4b814-b2e4-11e7-93d8-5254001aba5d"},{"type":"employee","uuid":"","value":"7e2870af-b2e4-11e7-93d8-5254001aba5d"}],"uuid":"3d5ee058-b3b3-11e7-aa53-5254001aba5d"},{"target_value":"{\"symbol\":\"&lt;=\",\"unit\":\"d\",\"number\":\"2\"}","target_type":"duration","approvers":[{"type":"department_manager","uuid":"3d619823-b3b3-11e7-aa53-5254001aba5d","value":"9bc4b814-b2e4-11e7-93d8-5254001aba5d"}],"uuid":"3d60d30d-b3b3-11e7-aa53-5254001aba5d"},{"target_value":"{\"symbol\":\"&gt;=\",\"unit\":\"d\",\"number\":\"3\"}","target_type":"duration","approvers":[{"type":"department_manager","uuid":"3d625cc9-b3b3-11e7-aa53-5254001aba5d","value":"d495a1cc-0f75-11e7-9aa4-00163e007053"},{"type":"department_manager","uuid":"3d627286-b3b3-11e7-aa53-5254001aba5d","value":"9bc4b814-b2e4-11e7-93d8-5254001aba5d"},{"type":"employee","uuid":"3d628934-b3b3-11e7-aa53-5254001aba5d","value":"7e33d0c3-b2e4-11e7-93d8-5254001aba5d"},{"type":"employee","uuid":"3d629e51-b3b3-11e7-aa53-5254001aba5d","value":"7e2870af-b2e4-11e7-93d8-5254001aba5d"}],"uuid":"3d61ad97-b3b3-11e7-aa53-5254001aba5d"}]</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>[{"target_value":"s{}","target_type":"","approvers":[{"type":"login_user_department_manager","uuid":"248b166c-470d-4516-9c40-3b119d0c4bad","value":""},{"type":"reporting_to","uuid":"7a68be4e-122c-4802-93e4-6d8d640deb65","value":"1"},{"type":"employee","uuid":"dc77da53-128a-461f-9a31-12b60210e07f","value":"7e2870af-b2e4-11e7-93d8-5254001aba5d"}],"uuid":"95defc56-0f75-11e7-8ff3-00163e007053"},{"target_value":"{\"department\":[\"d495a1cc-0f75-11e7-9aa4-00163e007053\"],\"employee\":[\"7e26644b-b2e4-11e7-93d8-5254001aba5d\"]}","target_type":"sponsor","approvers":[{"type":"department_manager","uuid":"","value":"9bc4b814-b2e4-11e7-93d8-5254001aba5d"},{"type":"employee","uuid":"","value":"7e254521-b2e4-11e7-93d8-5254001aba5d"}],"uuid":"3d5ee058-b3b3-11e7-aa53-5254001aba5d"},{"target_value":"{\"symbol\":\"&gt;\",\"unit\":\"d\",\"number\":\"2\"}","target_type":"duration","approvers":[{"type":"department_manager","uuid":"3d619823-b3b3-11e7-aa53-5254001aba5d","value":"9bc4b814-b2e4-11e7-93d8-5254001aba5d"}],"uuid":"3d60d30d-b3b3-11e7-aa53-5254001aba5d"},{"target_value":"{\"symbol\":\"==\",\"unit\":\"d\",\"number\":\"2\"}","target_type":"duration","approvers":[{"type":"department_manager","uuid":"3d625cc9-b3b3-11e7-aa53-5254001aba5d","value":"d495a1cc-0f75-11e7-9aa4-00163e007053"},{"type":"department_manager","uuid":"3d627286-b3b3-11e7-aa53-5254001aba5d","value":"9bc4b814-b2e4-11e7-93d8-5254001aba5d"},{"type":"employee","uuid":"3d628934-b3b3-11e7-aa53-5254001aba5d","value":"7e33d0c3-b2e4-11e7-93d8-5254001aba5d"},{"type":"employee","uuid":"3d629e51-b3b3-11e7-aa53-5254001aba5d","value":"7e2870af-b2e4-11e7-93d8-5254001aba5d"}],"uuid":"3d61ad97-b3b3-11e7-aa53-5254001aba5d"}]</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>[{"target_value":"s{}","target_type":"","approvers":[{"type":"reporting_to","uuid":"04aced39-6f15-47a4-a3a8-0f531aa5c400","value":"1"},{"type":"reporting_to","uuid":"89b6652e-f536-436c-9a87-0243b86d4a50","value":"2"},{"type":"reporting_to","uuid":"22943621-1dcd-46e0-bfe6-d8c946e8a7b0","value":"3"},{"type":"reporting_to","uuid":"8cc92eea-cebb-4ab8-9bfc-e11cc0593e82","value":"4"},{"type":"login_user_department_manager","uuid":"42e5f59b-f5b3-4d15-830e-a9e969dee045","value":""},{"type":"department_manager","uuid":"","value":"${addDepartment.uuid}"},{"type":"employee","uuid":"","value":"b8a23753-0f75-11e7-9aa4-00163e007053"}],"uuid":"95d79cad-0f75-11e7-8ff3-00163e007053"}]</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>[{"uuid":"95d79cad-0f75-11e7-8ff3-00163e007053","approvers":[{"uuid":"","type":"reporting_to","value":"1"},{"uuid":"","type":"reporting_to","value":"2"},{"uuid":"","type":"reporting_to","value":"3"},{"uuid":"","type":"reporting_to","value":"4"},{"uuid":"","type":"login_user_department_manager","value":""},{"uuid":"","type":"department_manager","value":"${organization_2.uuid}"},{"uuid":"","type":"employee","value":"b8a23753-0f75-11e7-9aa4-00163e007053"}],"target_type":"","target_value":"s{}"}]</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>[{"uuid":"95d79cad-0f75-11e7-8ff3-00163e007053","approvers":[{"uuid":"","type":"reporting_to","value":"1"},{"uuid":"","type":"reporting_to","value":"2"},{"uuid":"","type":"reporting_to","value":"3"},{"uuid":"","type":"reporting_to","value":"4"},{"uuid":"","type":"login_user_department_manager","value":""},{"uuid":"","type":"department_manager","value":"6a74f505-b965-11e7-b707-5254001aba5d"},{"uuid":"","type":"employee","value":"b8a23753-0f75-11e7-9aa4-00163e007053"}],"target_type":"","target_value":"s{}"},{"uuid":"","approvers":[{"uuid":"","type":"login_user_department_manager","value":""},{"uuid":"","type":"employee","value":"b8a23753-0f75-11e7-9aa4-00163e007053"}],"target_type":"sponsor","target_value":"s{\"department\":[\"6a74f505-b965-11e7-b707-5254001aba5d\"],\"employee\":[]}"},{"uuid":"","approvers":[{"uuid":"","type":"reporting_to","value":"4"},{"uuid":"","type":"login_user_department_manager","value":""},{"uuid":"","type":"department_manager","value":"6a74f505-b965-11e7-b707-5254001aba5d"},{"uuid":"","type":"employee","value":"b8a23753-0f75-11e7-9aa4-00163e007053"}],"target_type":"sponsor","target_value":"s{\"department\":[],\"employee\":[\"7e2bb13d-b2e4-11e7-93d8-5254001aba5d\"]}"}]</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>continuous_multiple_times</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>95da3e59-0f75-11e7-8ff3-00163e007053</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>types_6</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>00b19169-fc38-4e51-a99f-98f31ccaa46d</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>types_6</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>转正</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>[{"target_value":"s{}","target_type":"","approvers":[{"type":"reporting_to","uuid":"","value":"1"},{"type":"reporting_to","uuid":"","value":"2"},{"type":"reporting_to","uuid":"","value":"3"},{"type":"reporting_to","uuid":"","value":"4"},{"type":"login_user_department_manager","uuid":"","value":""},{"type":"department_manager","uuid":"","value":"6a74f505-b965-11e7-b707-5254001aba5d"},{"type":"employee","uuid":"","value":"b8a23753-0f75-11e7-9aa4-00163e007053"}],"uuid":"01d252fa-baf2-11e7-abde-5254001aba5d"}]</t>
+    <t>[{"employee_id":"b8a23753-0f75-11e7-9aa4-00163e007053"}]</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>employee_probation</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>95da3e59-0f75-11e7-8ff3-00163e007053</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>FormalType_1</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>FormalType_2</t>
+  </si>
+  <si>
+    <t>adjuctType_1</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>adjuctType_2</t>
+  </si>
+  <si>
+    <t>95d72f09-0f75-11e7-8ff3-00163e007053</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>95d72f09-0f75-11e7-8ff3-00163e007053</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>[{"uuid":"7642fbdf-bd26-11e7-a179-5254001aba5d","approvers":[{"uuid":"","type":"reporting_to","value":"1"},{"uuid":"","type":"reporting_to","value":"2"},{"uuid":"","type":"reporting_to","value":"3"},{"uuid":"","type":"reporting_to","value":"4"},{"uuid":"","type":"login_user_department_manager","value":""},{"uuid":"","type":"department_manager","value":"${organization_2.uuid}"},{"uuid":"","type":"employee","value":"b8a23753-0f75-11e7-9aa4-00163e007053"}],"target_type":"","target_value":"s{}"}]</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>[{"employee_id":"b8a23753-0f75-11e7-9aa4-00163e007053"}]</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>many_times</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>duplicate</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>[{"uuid":"01d252fa-baf2-11e7-abde-5254001aba5d","approvers":[{"uuid":"","type":"reporting_to","value":"1"},{"uuid":"","type":"reporting_to","value":"2"},{"uuid":"","type":"reporting_to","value":"3"},{"uuid":"","type":"reporting_to","value":"4"},{"uuid":"","type":"login_user_department_manager","value":""},{"uuid":"","type":"department_manager","value":"${organization_2.uuid}"},{"uuid":"","type":"employee","value":"b8a23753-0f75-11e7-9aa4-00163e007053"}],"target_type":"","target_value":"s{}"}]</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>[{"uuid":"95db250e-0f75-11e7-8ff3-00163e007053","approvers":[{"uuid":"","type":"reporting_to","value":"1"},{"uuid":"","type":"reporting_to","value":"2"},{"uuid":"","type":"reporting_to","value":"3"},{"uuid":"","type":"reporting_to","value":"4"},{"uuid":"","type":"login_user_department_manager","value":""},{"uuid":"","type":"department_manager","value":"${organization_2.uuid}"},{"uuid":"","type":"employee","value":"b8a23753-0f75-11e7-9aa4-00163e007053"}],"target_type":"","target_value":"s{}"}]</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>95dab58f-0f75-11e7-8ff3-00163e007053</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>employee_probation</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>离职</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>employee_offboard</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>resign</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>dismiss</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>dismiss</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Offboard_dismiss1</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Offboard_dismiss2</t>
+  </si>
+  <si>
+    <t>resign</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Offboard_resign1</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Offboard_resign2</t>
+  </si>
+  <si>
+    <t>离职</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>[{"uuid":"b276c863-bd48-11e7-a179-5254001aba5d","approvers":[{"uuid":"","type":"reporting_to","value":"1"},{"uuid":"","type":"reporting_to","value":"2"},{"uuid":"","type":"reporting_to","value":"3"},{"uuid":"","type":"reporting_to","value":"4"},{"uuid":"","type":"login_user_department_manager","value":""},{"uuid":"","type":"department_manager","value":"${organization_2.uuid}"},{"uuid":"","type":"employee","value":"b8a23753-0f75-11e7-9aa4-00163e007053"}],"target_type":"","target_value":"s{}"}]</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>95d99661-0f75-11e7-8ff3-00163e007053</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Offer_1</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Offer_2</t>
+  </si>
+  <si>
+    <t>Offer</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>95d99661-0f75-11e7-8ff3-00163e007053</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>95de83f6-0f75-11e7-8ff3-00163e007053</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Leave_1</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>请假</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>leave_request</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>employee_offer</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Leave_2</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Leave_3</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>95e34c38-0f75-11e7-8ff3-00163e007053</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>resign_1</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>resign_2</t>
+  </si>
+  <si>
+    <t>补卡</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>补卡</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>resign_request</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>resign_request</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>95e2aaad-0f75-11e7-8ff3-00163e007053</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>out_1</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>out_2</t>
+  </si>
+  <si>
+    <t>外出</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>out_request</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>95e02d79-0f75-11e7-8ff3-00163e007053</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>overtime_request</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>加班</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>overtime_1</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>overtime_2</t>
+  </si>
+  <si>
+    <t>95e2231d-0f75-11e7-8ff3-00163e007053</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>trip_1</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>trip_2</t>
+  </si>
+  <si>
+    <t>trip_request</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>出差</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>attendance</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>[{"uuid":"01d252fa-baf2-11e7-abde-5254001aba5d","approvers":[{"uuid":"","type":"reporting_to","value":"1"},{"uuid":"","type":"reporting_to","value":"2"},{"uuid":"","type":"reporting_to","value":"3"},{"uuid":"","type":"reporting_to","value":"4"},{"uuid":"","type":"login_user_department_manager","value":""},{"uuid":"","type":"department_manager","value":"${organization_2.uuid}"},{"uuid":"","type":"employee","value":"b8a23753-0f75-11e7-9aa4-00163e007053"}],"target_type":"","target_value":"s{}"},{"uuid":"","approvers":[{"uuid":"","type":"login_user_department_manager","value":""},{"uuid":"","type":"department_manager","value":"${organization_2.uuid}"},{"uuid":"","type":"employee","value":"b8a23753-0f75-11e7-9aa4-00163e007053"}],"target_type":"sponsor","target_value":"s{\"department\":[\"696434ed-b965-11e7-b707-5254001aba5d\"],\"employee\":[]}"}]</t>
+  </si>
+  <si>
+    <t>[{"target_value":"s{}","target_type":"","approvers":[{"type":"reporting_to","uuid":"","value":"1"},{"type":"reporting_to","uuid":"","value":"2"},{"type":"reporting_to","uuid":"","value":"3"},{"type":"reporting_to","uuid":"","value":"4"},{"type":"login_user_department_manager","uuid":"","value":""},{"type":"department_manager","uuid":"","value":"${organization_2.uuid}"},{"type":"employee","uuid":"","value":"b8a23753-0f75-11e7-9aa4-00163e007053"}],"uuid":"95db250e-0f75-11e7-8ff3-00163e007053"},{"target_value":"s{\"department\":[\"696434ed-b965-11e7-b707-5254001aba5d\"],\"employee\":[]}","target_type":"sponsor","approvers":[{"type":"login_user_department_manager","uuid":"","value":""},{"type":"department_manager","uuid":"","value":"${organization_2.uuid}"},{"type":"employee","uuid":"","value":"b8a23753-0f75-11e7-9aa4-00163e007053"}],"uuid":""}]</t>
+  </si>
+  <si>
+    <t>[{"target_value":"s{}","target_type":"","approvers":[{"type":"reporting_to","uuid":"","value":"1"},{"type":"reporting_to","uuid":"","value":"2"},{"type":"reporting_to","uuid":"","value":"3"},{"type":"reporting_to","uuid":"","value":"4"},{"type":"login_user_department_manager","uuid":"","value":""},{"type":"department_manager","uuid":"","value":"${organization_2.uuid}"},{"type":"employee","uuid":"","value":"b8a23753-0f75-11e7-9aa4-00163e007053"}],"uuid":"b276c863-bd48-11e7-a179-5254001aba5d"},{"target_value":"s{\"department\":[\"696434ed-b965-11e7-b707-5254001aba5d\"],\"employee\":[]}","target_type":"sponsor","approvers":[{"type":"login_user_department_manager","uuid":"","value":""},{"type":"department_manager","uuid":"","value":"${organization_2.uuid}"},{"type":"employee","uuid":"","value":"b8a23753-0f75-11e7-9aa4-00163e007053"}],"uuid":""}]</t>
+  </si>
+  <si>
+    <t>[{"target_value":"s{}","target_type":"","approvers":[{"type":"reporting_to","uuid":"","value":"1"},{"type":"reporting_to","uuid":"","value":"2"},{"type":"reporting_to","uuid":"","value":"3"},{"type":"reporting_to","uuid":"","value":"4"},{"type":"login_user_department_manager","uuid":"","value":""},{"type":"department_manager","uuid":"","value":"${organization_2.uuid}"},{"type":"employee","uuid":"","value":"b8a23753-0f75-11e7-9aa4-00163e007053"}],"uuid":"95d9b755-0f75-11e7-8ff3-00163e007053"}]</t>
+  </si>
+  <si>
+    <t>[{"target_value":"s{}","target_type":"","approvers":[{"type":"reporting_to","uuid":"","value":"1"},{"type":"reporting_to","uuid":"","value":"2"},{"type":"reporting_to","uuid":"","value":"3"},{"type":"reporting_to","uuid":"","value":"4"},{"type":"login_user_department_manager","uuid":"","value":""},{"type":"department_manager","uuid":"","value":"${organization_2.uuid}"},{"type":"employee","uuid":"","value":"b8a23753-0f75-11e7-9aa4-00163e007053"}],"uuid":"95d9b755-0f75-11e7-8ff3-00163e007053"},{"target_value":"s{\"department\":[\"696434ed-b965-11e7-b707-5254001aba5d\"],\"employee\":[]}","target_type":"sponsor","approvers":[{"type":"login_user_department_manager","uuid":"","value":""},{"type":"department_manager","uuid":"","value":"${organization_2.uuid}"},{"type":"employee","uuid":"","value":"b8a23753-0f75-11e7-9aa4-00163e007053"}],"uuid":""}]</t>
+  </si>
+  <si>
+    <t>[{"target_value":"s{}","target_type":"","approvers":[{"type":"reporting_to","uuid":"","value":"1"},{"type":"reporting_to","uuid":"","value":"2"},{"type":"reporting_to","uuid":"","value":"3"},{"type":"reporting_to","uuid":"","value":"4"},{"type":"login_user_department_manager","uuid":"","value":""},{"type":"department_manager","uuid":"","value":"${organization_2.uuid}"},{"type":"employee","uuid":"","value":"b8a23753-0f75-11e7-9aa4-00163e007053"}],"uuid":"5389429f-b9f7-11e7-9997-5254001aba5d"}]</t>
+  </si>
+  <si>
+    <t>[{"target_value":"s{}","target_type":"","approvers":[{"type":"reporting_to","uuid":"","value":"1"},{"type":"reporting_to","uuid":"","value":"2"},{"type":"reporting_to","uuid":"","value":"3"},{"type":"reporting_to","uuid":"","value":"4"},{"type":"login_user_department_manager","uuid":"","value":""},{"type":"department_manager","uuid":"","value":"${organization_2.uuid}"},{"type":"employee","uuid":"","value":"b8a23753-0f75-11e7-9aa4-00163e007053"}],"uuid":"5389429f-b9f7-11e7-9997-5254001aba5d"},{"target_value":"s{\"department\":[\"696434ed-b965-11e7-b707-5254001aba5d\"],\"employee\":[]}","target_type":"sponsor","approvers":[{"type":"login_user_department_manager","uuid":"","value":""},{"type":"department_manager","uuid":"","value":"${organization_2.uuid}"},{"type":"employee","uuid":"","value":"b8a23753-0f75-11e7-9aa4-00163e007053"}],"uuid":""}]</t>
+  </si>
+  <si>
+    <t>[{"target_value":"s{}","target_type":"","approvers":[{"type":"reporting_to","uuid":"","value":"1"},{"type":"reporting_to","uuid":"","value":"2"},{"type":"reporting_to","uuid":"","value":"3"},{"type":"reporting_to","uuid":"","value":"4"},{"type":"login_user_department_manager","uuid":"","value":""},{"type":"department_manager","uuid":"","value":"${organization_2.uuid}"},{"type":"employee","uuid":"","value":"b8a23753-0f75-11e7-9aa4-00163e007053"}],"uuid":"95e367b3-0f75-11e7-8ff3-00163e007053"}]</t>
+  </si>
+  <si>
+    <t>[{"target_value":"s{}","target_type":"","approvers":[{"type":"reporting_to","uuid":"","value":"1"},{"type":"reporting_to","uuid":"","value":"2"},{"type":"reporting_to","uuid":"","value":"3"},{"type":"reporting_to","uuid":"","value":"4"},{"type":"login_user_department_manager","uuid":"","value":""},{"type":"department_manager","uuid":"","value":"${organization_2.uuid}"},{"type":"employee","uuid":"","value":"b8a23753-0f75-11e7-9aa4-00163e007053"}],"uuid":"95e367b3-0f75-11e7-8ff3-00163e007053"},{"target_value":"s{\"department\":[\"696434ed-b965-11e7-b707-5254001aba5d\"],\"employee\":[]}","target_type":"sponsor","approvers":[{"type":"login_user_department_manager","uuid":"","value":""},{"type":"department_manager","uuid":"","value":"${organization_2.uuid}"},{"type":"employee","uuid":"","value":"b8a23753-0f75-11e7-9aa4-00163e007053"}],"uuid":""}]</t>
+  </si>
+  <si>
+    <t>[{"target_value":"s{}","target_type":"","approvers":[{"type":"reporting_to","uuid":"","value":"1"},{"type":"reporting_to","uuid":"","value":"2"},{"type":"reporting_to","uuid":"","value":"3"},{"type":"reporting_to","uuid":"","value":"4"},{"type":"login_user_department_manager","uuid":"","value":""},{"type":"department_manager","uuid":"","value":"${organization_2.uuid}"},{"type":"employee","uuid":"","value":"b8a23753-0f75-11e7-9aa4-00163e007053"}],"uuid":"95e2f732-0f75-11e7-8ff3-00163e007053"}]</t>
+  </si>
+  <si>
+    <t>[{"target_value":"s{}","target_type":"","approvers":[{"type":"reporting_to","uuid":"","value":"1"},{"type":"reporting_to","uuid":"","value":"2"},{"type":"reporting_to","uuid":"","value":"3"},{"type":"reporting_to","uuid":"","value":"4"},{"type":"login_user_department_manager","uuid":"","value":""},{"type":"department_manager","uuid":"","value":"${organization_2.uuid}"},{"type":"employee","uuid":"","value":"b8a23753-0f75-11e7-9aa4-00163e007053"}],"uuid":"95e2f732-0f75-11e7-8ff3-00163e007053"},{"target_value":"s{\"department\":[\"696434ed-b965-11e7-b707-5254001aba5d\"],\"employee\":[]}","target_type":"sponsor","approvers":[{"type":"login_user_department_manager","uuid":"","value":""},{"type":"department_manager","uuid":"","value":"${organization_2.uuid}"},{"type":"employee","uuid":"","value":"b8a23753-0f75-11e7-9aa4-00163e007053"}],"uuid":""}]</t>
+  </si>
+  <si>
+    <t>[{"target_value":"s{}","target_type":"","approvers":[{"type":"reporting_to","uuid":"","value":"1"},{"type":"reporting_to","uuid":"","value":"2"},{"type":"reporting_to","uuid":"","value":"3"},{"type":"reporting_to","uuid":"","value":"4"},{"type":"login_user_department_manager","uuid":"","value":""},{"type":"department_manager","uuid":"","value":"${organization_2.uuid}"},{"type":"employee","uuid":"","value":"b8a23753-0f75-11e7-9aa4-00163e007053"}],"uuid":"95e04b46-0f75-11e7-8ff3-00163e007053"}]</t>
+  </si>
+  <si>
+    <t>[{"target_value":"s{}","target_type":"","approvers":[{"type":"reporting_to","uuid":"","value":"1"},{"type":"reporting_to","uuid":"","value":"2"},{"type":"reporting_to","uuid":"","value":"3"},{"type":"reporting_to","uuid":"","value":"4"},{"type":"login_user_department_manager","uuid":"","value":""},{"type":"department_manager","uuid":"","value":"${organization_2.uuid}"},{"type":"employee","uuid":"","value":"b8a23753-0f75-11e7-9aa4-00163e007053"}],"uuid":"95e04b46-0f75-11e7-8ff3-00163e007053"},{"target_value":"s{\"department\":[\"696434ed-b965-11e7-b707-5254001aba5d\"],\"employee\":[]}","target_type":"sponsor","approvers":[{"type":"login_user_department_manager","uuid":"","value":""},{"type":"department_manager","uuid":"","value":"${organization_2.uuid}"},{"type":"employee","uuid":"","value":"b8a23753-0f75-11e7-9aa4-00163e007053"}],"uuid":""}]</t>
+  </si>
+  <si>
+    <t>[{"target_value":"s{}","target_type":"","approvers":[{"type":"reporting_to","uuid":"","value":"1"},{"type":"reporting_to","uuid":"","value":"2"},{"type":"reporting_to","uuid":"","value":"3"},{"type":"reporting_to","uuid":"","value":"4"},{"type":"login_user_department_manager","uuid":"","value":""},{"type":"department_manager","uuid":"","value":"${organization_2.uuid}"},{"type":"employee","uuid":"","value":"b8a23753-0f75-11e7-9aa4-00163e007053"}],"uuid":"95e245f4-0f75-11e7-8ff3-00163e007053"}]</t>
+  </si>
+  <si>
+    <t>[{"target_value":"s{}","target_type":"","approvers":[{"type":"reporting_to","uuid":"","value":"1"},{"type":"reporting_to","uuid":"","value":"2"},{"type":"reporting_to","uuid":"","value":"3"},{"type":"reporting_to","uuid":"","value":"4"},{"type":"login_user_department_manager","uuid":"","value":""},{"type":"department_manager","uuid":"","value":"${organization_2.uuid}"},{"type":"employee","uuid":"","value":"b8a23753-0f75-11e7-9aa4-00163e007053"}],"uuid":"95e245f4-0f75-11e7-8ff3-00163e007053"},{"target_value":"s{\"department\":[\"696434ed-b965-11e7-b707-5254001aba5d\"],\"employee\":[]}","target_type":"sponsor","approvers":[{"type":"login_user_department_manager","uuid":"","value":""},{"type":"department_manager","uuid":"","value":"${organization_2.uuid}"},{"type":"employee","uuid":"","value":"b8a23753-0f75-11e7-9aa4-00163e007053"}],"uuid":""}]</t>
+  </si>
+  <si>
+    <t>[{"uuid":"7642fbdf-bd26-11e7-a179-5254001aba5d","approvers":[{"uuid":"","type":"reporting_to","value":"1"},{"uuid":"","type":"reporting_to","value":"2"},{"uuid":"","type":"reporting_to","value":"3"},{"uuid":"","type":"reporting_to","value":"4"},{"uuid":"","type":"login_user_department_manager","value":""},{"uuid":"","type":"department_manager","value":"${organization_2.uuid}"},{"uuid":"","type":"employee","value":"b8a23753-0f75-11e7-9aa4-00163e007053"}],"target_type":"","target_value":"s{}"},{"uuid":"","approvers":[{"uuid":"","type":"login_user_department_manager","value":""},{"uuid":"","type":"employee","value":"b8a23753-0f75-11e7-9aa4-00163e007053"}],"target_type":"sponsor","target_value":"s{\"department\":[\"6a74f505-b965-11e7-b707-5254001aba5d\"],\"employee\":[]}"},{"uuid":"","approvers":[{"uuid":"","type":"reporting_to","value":"4"},{"uuid":"","type":"login_user_department_manager","value":""},{"uuid":"","type":"department_manager","value":"${organization_2.uuid}"},{"uuid":"","type":"employee","value":"b8a23753-0f75-11e7-9aa4-00163e007053"}],"target_type":"sponsor","target_value":"s{\"department\":[],\"employee\":[\"7e2bb13d-b2e4-11e7-93d8-5254001aba5d\"]}"}]</t>
+  </si>
+  <si>
+    <t>resign_3</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>out_3</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>overtime_3</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>trip_3</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>[{"target_value":"s{}","target_type":"","approvers":[{"type":"reporting_to","uuid":"","value":"1"},{"type":"reporting_to","uuid":"","value":"2"},{"type":"reporting_to","uuid":"","value":"3"},{"type":"reporting_to","uuid":"","value":"4"},{"type":"login_user_department_manager","uuid":"","value":""},{"type":"department_manager","uuid":"","value":"${organization_2.uuid}"},{"type":"employee","uuid":"","value":"b8a23753-0f75-11e7-9aa4-00163e007053"}],"uuid":"5389429f-b9f7-11e7-9997-5254001aba5d"},{"target_value":"s{\"department\":[\"696434ed-b965-11e7-b707-5254001aba5d\"],\"employee\":[]}","target_type":"sponsor","approvers":[{"type":"login_user_department_manager","uuid":"","value":""},{"type":"department_manager","uuid":"","value":"${organization_2.uuid}"},{"type":"employee","uuid":"","value":"b8a23753-0f75-11e7-9aa4-00163e007053"}],"uuid":""},{"uuid":"","approvers":[{"uuid":"","type":"login_user_department_manager","value":""}],"target_type":"duration","target_value":"s{\"symbol\":\"&lt;\",\"unit\":\"d\",\"number\":\"5\"}"},{"uuid":"","approvers":[{"uuid":"","type":"login_user_department_manager","value":""},{"uuid":"","type":"department_manager","value":"${organization_1.uuid}"}],"target_type":"duration","target_value":"s{\"symbol\":\"==\",\"unit\":\"d\",\"number\":\"5\"}"},{"uuid":"","approvers":[{"uuid":"","type":"login_user_department_manager","value":""},{"uuid":"","type":"department_manager","value":"${organization_1.uuid}"},{"uuid":"","type":"employee","value":"b8a23753-0f75-11e7-9aa4-00163e007053"}],"target_type":"duration","target_value":"s{\"symbol\":\"&gt;\",\"unit\":\"d\",\"number\":\"5\"}"}]</t>
+  </si>
+  <si>
+    <t>[{"target_value":"s{}","target_type":"","approvers":[{"type":"reporting_to","uuid":"","value":"1"},{"type":"reporting_to","uuid":"","value":"2"},{"type":"reporting_to","uuid":"","value":"3"},{"type":"reporting_to","uuid":"","value":"4"},{"type":"login_user_department_manager","uuid":"","value":""},{"type":"department_manager","uuid":"","value":"${organization_2.uuid}"},{"type":"employee","uuid":"","value":"b8a23753-0f75-11e7-9aa4-00163e007053"}],"uuid":"95e367b3-0f75-11e7-8ff3-00163e007053"},{"target_value":"s{\"department\":[\"696434ed-b965-11e7-b707-5254001aba5d\"],\"employee\":[]}","target_type":"sponsor","approvers":[{"type":"login_user_department_manager","uuid":"","value":""},{"type":"department_manager","uuid":"","value":"${organization_2.uuid}"},{"type":"employee","uuid":"","value":"b8a23753-0f75-11e7-9aa4-00163e007053"}],"uuid":""},{"uuid":"","approvers":[{"uuid":"","type":"login_user_department_manager","value":""}],"target_type":"duration","target_value":"s{\"symbol\":\"&lt;\",\"unit\":\"d\",\"number\":\"5\"}"},{"uuid":"","approvers":[{"uuid":"","type":"login_user_department_manager","value":""},{"uuid":"","type":"department_manager","value":"${organization_1.uuid}"}],"target_type":"duration","target_value":"s{\"symbol\":\"==\",\"unit\":\"d\",\"number\":\"5\"}"},{"uuid":"","approvers":[{"uuid":"","type":"login_user_department_manager","value":""},{"uuid":"","type":"department_manager","value":"${organization_1.uuid}"},{"uuid":"","type":"employee","value":"b8a23753-0f75-11e7-9aa4-00163e007053"}],"target_type":"duration","target_value":"s{\"symbol\":\"&gt;\",\"unit\":\"d\",\"number\":\"5\"}"}]</t>
+  </si>
+  <si>
+    <t>[{"target_value":"s{}","target_type":"","approvers":[{"type":"reporting_to","uuid":"","value":"1"},{"type":"reporting_to","uuid":"","value":"2"},{"type":"reporting_to","uuid":"","value":"3"},{"type":"reporting_to","uuid":"","value":"4"},{"type":"login_user_department_manager","uuid":"","value":""},{"type":"department_manager","uuid":"","value":"${organization_2.uuid}"},{"type":"employee","uuid":"","value":"b8a23753-0f75-11e7-9aa4-00163e007053"}],"uuid":"95e2f732-0f75-11e7-8ff3-00163e007053"},{"target_value":"s{\"department\":[\"696434ed-b965-11e7-b707-5254001aba5d\"],\"employee\":[]}","target_type":"sponsor","approvers":[{"type":"login_user_department_manager","uuid":"","value":""},{"type":"department_manager","uuid":"","value":"${organization_2.uuid}"},{"type":"employee","uuid":"","value":"b8a23753-0f75-11e7-9aa4-00163e007053"}],"uuid":""},{"uuid":"","approvers":[{"uuid":"","type":"login_user_department_manager","value":""}],"target_type":"duration","target_value":"s{\"symbol\":\"&lt;\",\"unit\":\"d\",\"number\":\"5\"}"},{"uuid":"","approvers":[{"uuid":"","type":"login_user_department_manager","value":""},{"uuid":"","type":"department_manager","value":"${organization_1.uuid}"}],"target_type":"duration","target_value":"s{\"symbol\":\"==\",\"unit\":\"d\",\"number\":\"5\"}"},{"uuid":"","approvers":[{"uuid":"","type":"login_user_department_manager","value":""},{"uuid":"","type":"department_manager","value":"${organization_1.uuid}"},{"uuid":"","type":"employee","value":"b8a23753-0f75-11e7-9aa4-00163e007053"}],"target_type":"duration","target_value":"s{\"symbol\":\"&gt;\",\"unit\":\"d\",\"number\":\"5\"}"}]</t>
+  </si>
+  <si>
+    <t>[{"target_value":"s{}","target_type":"","approvers":[{"type":"reporting_to","uuid":"","value":"1"},{"type":"reporting_to","uuid":"","value":"2"},{"type":"reporting_to","uuid":"","value":"3"},{"type":"reporting_to","uuid":"","value":"4"},{"type":"login_user_department_manager","uuid":"","value":""},{"type":"department_manager","uuid":"","value":"${organization_2.uuid}"},{"type":"employee","uuid":"","value":"b8a23753-0f75-11e7-9aa4-00163e007053"}],"uuid":"95e04b46-0f75-11e7-8ff3-00163e007053"},{"target_value":"s{\"department\":[\"696434ed-b965-11e7-b707-5254001aba5d\"],\"employee\":[]}","target_type":"sponsor","approvers":[{"type":"login_user_department_manager","uuid":"","value":""},{"type":"department_manager","uuid":"","value":"${organization_2.uuid}"},{"type":"employee","uuid":"","value":"b8a23753-0f75-11e7-9aa4-00163e007053"}],"uuid":""},{"uuid":"","approvers":[{"uuid":"","type":"login_user_department_manager","value":""}],"target_type":"duration","target_value":"s{\"symbol\":\"&lt;\",\"unit\":\"d\",\"number\":\"5\"}"},{"uuid":"","approvers":[{"uuid":"","type":"login_user_department_manager","value":""},{"uuid":"","type":"department_manager","value":"${organization_1.uuid}"}],"target_type":"duration","target_value":"s{\"symbol\":\"==\",\"unit\":\"d\",\"number\":\"5\"}"},{"uuid":"","approvers":[{"uuid":"","type":"login_user_department_manager","value":""},{"uuid":"","type":"department_manager","value":"${organization_1.uuid}"},{"uuid":"","type":"employee","value":"b8a23753-0f75-11e7-9aa4-00163e007053"}],"target_type":"duration","target_value":"s{\"symbol\":\"&gt;\",\"unit\":\"d\",\"number\":\"5\"}"}]</t>
+  </si>
+  <si>
+    <t>[{"target_value":"s{}","target_type":"","approvers":[{"type":"reporting_to","uuid":"","value":"1"},{"type":"reporting_to","uuid":"","value":"2"},{"type":"reporting_to","uuid":"","value":"3"},{"type":"reporting_to","uuid":"","value":"4"},{"type":"login_user_department_manager","uuid":"","value":""},{"type":"department_manager","uuid":"","value":"${organization_2.uuid}"},{"type":"employee","uuid":"","value":"b8a23753-0f75-11e7-9aa4-00163e007053"}],"uuid":"95e245f4-0f75-11e7-8ff3-00163e007053"},{"target_value":"s{\"department\":[\"696434ed-b965-11e7-b707-5254001aba5d\"],\"employee\":[]}","target_type":"sponsor","approvers":[{"type":"login_user_department_manager","uuid":"","value":""},{"type":"department_manager","uuid":"","value":"${organization_2.uuid}"},{"type":"employee","uuid":"","value":"b8a23753-0f75-11e7-9aa4-00163e007053"}],"uuid":""},{"uuid":"","approvers":[{"uuid":"","type":"login_user_department_manager","value":""}],"target_type":"duration","target_value":"s{\"symbol\":\"&lt;=\",\"unit\":\"d\",\"number\":\"4\"}"},{"uuid":"","approvers":[{"uuid":"","type":"login_user_department_manager","value":""},{"uuid":"","type":"department_manager","value":"${organization_1.uuid}"}],"target_type":"duration","target_value":"s{\"symbol\":\"==\",\"unit\":\"d\",\"number\":\"5\"}"},{"uuid":"","approvers":[{"uuid":"","type":"login_user_department_manager","value":""},{"uuid":"","type":"department_manager","value":"${organization_1.uuid}"},{"uuid":"","type":"employee","value":"b8a23753-0f75-11e7-9aa4-00163e007053"}],"target_type":"duration","target_value":"s{\"symbol\":\"&gt;=\",\"unit\":\"d\",\"number\":\"6\"}"}]</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>n</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -377,7 +607,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -392,9 +622,6 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1">
-      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1">
       <alignment vertical="center"/>
@@ -682,8 +909,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D21" sqref="D21"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D23" sqref="D23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -708,7 +935,7 @@
         <v>2</v>
       </c>
       <c r="D1" s="4" t="s">
-        <v>58</v>
+        <v>39</v>
       </c>
       <c r="E1" s="1" t="s">
         <v>3</v>
@@ -719,7 +946,7 @@
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A2" s="4" t="s">
-        <v>60</v>
+        <v>41</v>
       </c>
       <c r="B2" s="1" t="s">
         <v>7</v>
@@ -728,10 +955,10 @@
         <v>8</v>
       </c>
       <c r="D2" t="s">
-        <v>59</v>
+        <v>40</v>
       </c>
       <c r="E2" s="3" t="s">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="F2" s="1" t="s">
         <v>5</v>
@@ -745,20 +972,20 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G7"/>
+  <dimension ref="A1:G26"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D16" sqref="D16"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="7.125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="38.375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="17.125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="39" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="24.125" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="20.625" customWidth="1"/>
     <col min="5" max="5" width="12.625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="56.125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="57" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="13.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -767,179 +994,554 @@
         <v>6</v>
       </c>
       <c r="B1" t="s">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="C1" s="5" t="s">
         <v>10</v>
       </c>
       <c r="D1" s="5" t="s">
-        <v>22</v>
+        <v>14</v>
       </c>
       <c r="E1" s="5" t="s">
-        <v>23</v>
+        <v>15</v>
       </c>
       <c r="F1" s="5" t="s">
         <v>11</v>
       </c>
       <c r="G1" s="5" t="s">
-        <v>24</v>
+        <v>16</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>12</v>
+        <v>50</v>
       </c>
       <c r="B2" t="s">
-        <v>19</v>
+        <v>53</v>
       </c>
       <c r="C2" t="s">
-        <v>25</v>
+        <v>57</v>
       </c>
       <c r="D2" t="s">
-        <v>63</v>
-      </c>
-      <c r="E2" t="s">
-        <v>26</v>
+        <v>54</v>
       </c>
       <c r="F2" t="s">
-        <v>27</v>
+        <v>18</v>
       </c>
       <c r="G2" t="s">
-        <v>45</v>
+        <v>33</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>20</v>
+        <v>51</v>
       </c>
       <c r="B3" t="s">
-        <v>21</v>
+        <v>52</v>
       </c>
       <c r="C3" t="s">
-        <v>16</v>
+        <v>34</v>
       </c>
       <c r="D3" t="s">
-        <v>61</v>
-      </c>
-      <c r="E3" t="s">
-        <v>26</v>
+        <v>124</v>
       </c>
       <c r="F3" t="s">
-        <v>49</v>
+        <v>55</v>
       </c>
       <c r="G3" t="s">
-        <v>45</v>
+        <v>33</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="B4" t="s">
-        <v>21</v>
-      </c>
-      <c r="C4" s="6" t="s">
-        <v>48</v>
-      </c>
-      <c r="D4" s="6" t="s">
-        <v>62</v>
-      </c>
-      <c r="E4" s="6" t="s">
-        <v>26</v>
-      </c>
-      <c r="F4" s="6" t="s">
-        <v>50</v>
-      </c>
-      <c r="G4" s="6" t="s">
-        <v>45</v>
+        <v>47</v>
+      </c>
+      <c r="C4" t="s">
+        <v>57</v>
+      </c>
+      <c r="D4" t="s">
+        <v>58</v>
+      </c>
+      <c r="F4" t="s">
+        <v>18</v>
+      </c>
+      <c r="G4" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
+        <v>49</v>
+      </c>
+      <c r="B5" t="s">
         <v>47</v>
       </c>
-      <c r="B5" t="s">
-        <v>55</v>
-      </c>
       <c r="C5" t="s">
-        <v>48</v>
+        <v>56</v>
       </c>
       <c r="D5" t="s">
-        <v>65</v>
-      </c>
-      <c r="E5" t="s">
-        <v>26</v>
+        <v>109</v>
       </c>
       <c r="F5" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="G5" t="s">
-        <v>45</v>
+        <v>33</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
+        <v>70</v>
+      </c>
+      <c r="B6" t="s">
+        <v>60</v>
+      </c>
+      <c r="C6" t="s">
         <v>57</v>
       </c>
-      <c r="B6" t="s">
-        <v>55</v>
-      </c>
-      <c r="C6" t="s">
-        <v>25</v>
-      </c>
       <c r="D6" t="s">
-        <v>64</v>
+        <v>59</v>
       </c>
       <c r="E6" t="s">
-        <v>26</v>
+        <v>69</v>
       </c>
       <c r="F6" t="s">
-        <v>27</v>
+        <v>18</v>
       </c>
       <c r="G6" t="s">
-        <v>45</v>
+        <v>33</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
+        <v>71</v>
+      </c>
+      <c r="B7" t="s">
+        <v>60</v>
+      </c>
+      <c r="C7" t="s">
+        <v>56</v>
+      </c>
+      <c r="D7" t="s">
+        <v>110</v>
+      </c>
+      <c r="E7" t="s">
+        <v>64</v>
+      </c>
+      <c r="F7" t="s">
+        <v>45</v>
+      </c>
+      <c r="G7" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A8" t="s">
+        <v>67</v>
+      </c>
+      <c r="B8" t="s">
+        <v>60</v>
+      </c>
+      <c r="C8" t="s">
+        <v>57</v>
+      </c>
+      <c r="D8" t="s">
+        <v>73</v>
+      </c>
+      <c r="E8" t="s">
+        <v>66</v>
+      </c>
+      <c r="F8" t="s">
+        <v>18</v>
+      </c>
+      <c r="G8" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A9" t="s">
         <v>68</v>
       </c>
-      <c r="B7" t="s">
-        <v>67</v>
-      </c>
-      <c r="C7" t="s">
-        <v>66</v>
-      </c>
-      <c r="D7" t="s">
-        <v>72</v>
-      </c>
-      <c r="E7" t="s">
-        <v>26</v>
-      </c>
-      <c r="F7" t="s">
-        <v>27</v>
-      </c>
-      <c r="G7" t="s">
+      <c r="B9" t="s">
+        <v>60</v>
+      </c>
+      <c r="C9" t="s">
+        <v>56</v>
+      </c>
+      <c r="D9" t="s">
+        <v>111</v>
+      </c>
+      <c r="E9" t="s">
+        <v>65</v>
+      </c>
+      <c r="F9" t="s">
         <v>45</v>
+      </c>
+      <c r="G9" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A10" t="s">
+        <v>75</v>
+      </c>
+      <c r="B10" t="s">
+        <v>78</v>
+      </c>
+      <c r="C10" t="s">
+        <v>57</v>
+      </c>
+      <c r="D10" t="s">
+        <v>112</v>
+      </c>
+      <c r="F10" t="s">
+        <v>18</v>
+      </c>
+      <c r="G10" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A11" t="s">
+        <v>76</v>
+      </c>
+      <c r="B11" t="s">
+        <v>74</v>
+      </c>
+      <c r="C11" t="s">
+        <v>56</v>
+      </c>
+      <c r="D11" t="s">
+        <v>113</v>
+      </c>
+      <c r="F11" t="s">
+        <v>45</v>
+      </c>
+      <c r="G11" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A12" t="s">
+        <v>80</v>
+      </c>
+      <c r="B12" t="s">
+        <v>79</v>
+      </c>
+      <c r="C12" t="s">
+        <v>57</v>
+      </c>
+      <c r="D12" t="s">
+        <v>114</v>
+      </c>
+      <c r="F12" t="s">
+        <v>18</v>
+      </c>
+      <c r="G12" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A13" t="s">
+        <v>84</v>
+      </c>
+      <c r="B13" t="s">
+        <v>79</v>
+      </c>
+      <c r="C13" t="s">
+        <v>56</v>
+      </c>
+      <c r="D13" t="s">
+        <v>115</v>
+      </c>
+      <c r="F13" t="s">
+        <v>45</v>
+      </c>
+      <c r="G13" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A14" t="s">
+        <v>85</v>
+      </c>
+      <c r="B14" t="s">
+        <v>79</v>
+      </c>
+      <c r="C14" t="s">
+        <v>56</v>
+      </c>
+      <c r="D14" t="s">
+        <v>129</v>
+      </c>
+      <c r="F14" t="s">
+        <v>45</v>
+      </c>
+      <c r="G14" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A15" t="s">
+        <v>87</v>
+      </c>
+      <c r="B15" t="s">
+        <v>86</v>
+      </c>
+      <c r="C15" t="s">
+        <v>57</v>
+      </c>
+      <c r="D15" t="s">
+        <v>116</v>
+      </c>
+      <c r="F15" t="s">
+        <v>18</v>
+      </c>
+      <c r="G15" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A16" t="s">
+        <v>88</v>
+      </c>
+      <c r="B16" t="s">
+        <v>86</v>
+      </c>
+      <c r="C16" t="s">
+        <v>56</v>
+      </c>
+      <c r="D16" t="s">
+        <v>117</v>
+      </c>
+      <c r="F16" t="s">
+        <v>45</v>
+      </c>
+      <c r="G16" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A17" t="s">
+        <v>125</v>
+      </c>
+      <c r="B17" t="s">
+        <v>86</v>
+      </c>
+      <c r="C17" t="s">
+        <v>56</v>
+      </c>
+      <c r="D17" t="s">
+        <v>130</v>
+      </c>
+      <c r="F17" t="s">
+        <v>45</v>
+      </c>
+      <c r="G17" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A18" t="s">
+        <v>94</v>
+      </c>
+      <c r="B18" t="s">
+        <v>93</v>
+      </c>
+      <c r="C18" t="s">
+        <v>57</v>
+      </c>
+      <c r="D18" t="s">
+        <v>118</v>
+      </c>
+      <c r="F18" t="s">
+        <v>18</v>
+      </c>
+      <c r="G18" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A19" t="s">
+        <v>95</v>
+      </c>
+      <c r="B19" t="s">
+        <v>93</v>
+      </c>
+      <c r="C19" t="s">
+        <v>56</v>
+      </c>
+      <c r="D19" t="s">
+        <v>119</v>
+      </c>
+      <c r="F19" t="s">
+        <v>45</v>
+      </c>
+      <c r="G19" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A20" t="s">
+        <v>126</v>
+      </c>
+      <c r="B20" t="s">
+        <v>93</v>
+      </c>
+      <c r="C20" t="s">
+        <v>56</v>
+      </c>
+      <c r="D20" t="s">
+        <v>131</v>
+      </c>
+      <c r="F20" t="s">
+        <v>45</v>
+      </c>
+      <c r="G20" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A21" t="s">
+        <v>101</v>
+      </c>
+      <c r="B21" t="s">
+        <v>98</v>
+      </c>
+      <c r="C21" t="s">
+        <v>57</v>
+      </c>
+      <c r="D21" t="s">
+        <v>120</v>
+      </c>
+      <c r="F21" t="s">
+        <v>18</v>
+      </c>
+      <c r="G21" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A22" t="s">
+        <v>102</v>
+      </c>
+      <c r="B22" t="s">
+        <v>98</v>
+      </c>
+      <c r="C22" t="s">
+        <v>56</v>
+      </c>
+      <c r="D22" t="s">
+        <v>121</v>
+      </c>
+      <c r="F22" t="s">
+        <v>45</v>
+      </c>
+      <c r="G22" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A23" t="s">
+        <v>127</v>
+      </c>
+      <c r="B23" t="s">
+        <v>98</v>
+      </c>
+      <c r="C23" t="s">
+        <v>56</v>
+      </c>
+      <c r="D23" t="s">
+        <v>132</v>
+      </c>
+      <c r="F23" t="s">
+        <v>45</v>
+      </c>
+      <c r="G23" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A24" t="s">
+        <v>104</v>
+      </c>
+      <c r="B24" t="s">
+        <v>103</v>
+      </c>
+      <c r="C24" t="s">
+        <v>57</v>
+      </c>
+      <c r="D24" t="s">
+        <v>122</v>
+      </c>
+      <c r="F24" t="s">
+        <v>18</v>
+      </c>
+      <c r="G24" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A25" t="s">
+        <v>105</v>
+      </c>
+      <c r="B25" t="s">
+        <v>103</v>
+      </c>
+      <c r="C25" t="s">
+        <v>56</v>
+      </c>
+      <c r="D25" t="s">
+        <v>123</v>
+      </c>
+      <c r="F25" t="s">
+        <v>45</v>
+      </c>
+      <c r="G25" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A26" t="s">
+        <v>128</v>
+      </c>
+      <c r="B26" t="s">
+        <v>103</v>
+      </c>
+      <c r="C26" t="s">
+        <v>56</v>
+      </c>
+      <c r="D26" t="s">
+        <v>133</v>
+      </c>
+      <c r="F26" t="s">
+        <v>45</v>
+      </c>
+      <c r="G26" t="s">
+        <v>33</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:O7"/>
+  <dimension ref="A1:O26"/>
   <sheetViews>
-    <sheetView topLeftCell="F1" workbookViewId="0">
-      <selection activeCell="L8" sqref="L8"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="K25" sqref="K25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="7.125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="17.125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="38.75" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="12.625" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="10.5" bestFit="1" customWidth="1"/>
@@ -947,9 +1549,10 @@
     <col min="8" max="8" width="40.75" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="13.5" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="24.125" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="12.5" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="6.125" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="10.875" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="15.875" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="19.375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:15" x14ac:dyDescent="0.2">
@@ -957,43 +1560,43 @@
         <v>6</v>
       </c>
       <c r="B1" t="s">
-        <v>28</v>
+        <v>19</v>
       </c>
       <c r="C1" t="s">
-        <v>29</v>
+        <v>20</v>
       </c>
       <c r="D1" t="s">
+        <v>15</v>
+      </c>
+      <c r="E1" t="s">
+        <v>21</v>
+      </c>
+      <c r="F1" t="s">
+        <v>22</v>
+      </c>
+      <c r="G1" t="s">
         <v>23</v>
       </c>
-      <c r="E1" t="s">
-        <v>30</v>
-      </c>
-      <c r="F1" t="s">
-        <v>31</v>
-      </c>
-      <c r="G1" t="s">
-        <v>32</v>
-      </c>
       <c r="H1" t="s">
-        <v>33</v>
+        <v>24</v>
       </c>
       <c r="I1" t="s">
-        <v>24</v>
+        <v>16</v>
       </c>
       <c r="J1" t="s">
         <v>10</v>
       </c>
       <c r="K1" t="s">
-        <v>34</v>
+        <v>25</v>
       </c>
       <c r="L1" t="s">
-        <v>35</v>
+        <v>26</v>
       </c>
       <c r="M1" t="s">
-        <v>36</v>
+        <v>27</v>
       </c>
       <c r="N1" t="s">
-        <v>37</v>
+        <v>28</v>
       </c>
       <c r="O1" t="s">
         <v>9</v>
@@ -1001,284 +1604,1177 @@
     </row>
     <row r="2" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>13</v>
+        <v>50</v>
       </c>
       <c r="B2" t="s">
+        <v>29</v>
+      </c>
+      <c r="C2" t="s">
+        <v>17</v>
+      </c>
+      <c r="D2" t="s">
+        <v>17</v>
+      </c>
+      <c r="E2" t="s">
+        <v>17</v>
+      </c>
+      <c r="F2" t="s">
+        <v>17</v>
+      </c>
+      <c r="G2" t="s">
+        <v>35</v>
+      </c>
+      <c r="H2" t="s">
+        <v>30</v>
+      </c>
+      <c r="I2" t="s">
+        <v>33</v>
+      </c>
+      <c r="J2" t="s">
+        <v>57</v>
+      </c>
+      <c r="K2" t="s">
+        <v>31</v>
+      </c>
+      <c r="L2" t="s">
+        <v>36</v>
+      </c>
+      <c r="M2" t="s">
+        <v>37</v>
+      </c>
+      <c r="N2" t="s">
         <v>38</v>
       </c>
-      <c r="C2" t="s">
-        <v>26</v>
-      </c>
-      <c r="D2" t="s">
-        <v>26</v>
-      </c>
-      <c r="E2" t="s">
-        <v>26</v>
-      </c>
-      <c r="F2" t="s">
-        <v>26</v>
-      </c>
-      <c r="G2" t="s">
-        <v>51</v>
-      </c>
-      <c r="H2" t="s">
-        <v>39</v>
-      </c>
-      <c r="I2" t="s">
-        <v>45</v>
-      </c>
-      <c r="J2" t="s">
-        <v>25</v>
-      </c>
-      <c r="K2" t="s">
-        <v>40</v>
-      </c>
-      <c r="L2" t="s">
-        <v>52</v>
-      </c>
-      <c r="M2" t="s">
-        <v>53</v>
-      </c>
-      <c r="N2" t="s">
-        <v>54</v>
-      </c>
       <c r="O2" t="s">
-        <v>44</v>
+        <v>32</v>
       </c>
     </row>
     <row r="3" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>15</v>
+        <v>51</v>
       </c>
       <c r="B3" t="s">
+        <v>29</v>
+      </c>
+      <c r="C3" t="s">
+        <v>17</v>
+      </c>
+      <c r="D3" t="s">
+        <v>17</v>
+      </c>
+      <c r="E3" t="s">
+        <v>17</v>
+      </c>
+      <c r="F3" t="s">
+        <v>17</v>
+      </c>
+      <c r="G3" t="s">
+        <v>35</v>
+      </c>
+      <c r="H3" t="s">
+        <v>30</v>
+      </c>
+      <c r="I3" t="s">
+        <v>33</v>
+      </c>
+      <c r="J3" t="s">
+        <v>34</v>
+      </c>
+      <c r="K3" t="s">
+        <v>31</v>
+      </c>
+      <c r="L3" t="s">
+        <v>36</v>
+      </c>
+      <c r="M3" t="s">
+        <v>37</v>
+      </c>
+      <c r="N3" t="s">
         <v>38</v>
       </c>
-      <c r="C3" t="s">
-        <v>26</v>
-      </c>
-      <c r="D3" t="s">
-        <v>26</v>
-      </c>
-      <c r="E3" t="s">
-        <v>26</v>
-      </c>
-      <c r="F3" t="s">
-        <v>26</v>
-      </c>
-      <c r="G3" t="s">
-        <v>14</v>
-      </c>
-      <c r="H3" t="s">
-        <v>39</v>
-      </c>
-      <c r="I3" t="s">
-        <v>45</v>
-      </c>
-      <c r="J3" t="s">
-        <v>16</v>
-      </c>
-      <c r="K3" t="s">
-        <v>40</v>
-      </c>
-      <c r="L3" t="s">
-        <v>41</v>
-      </c>
-      <c r="M3" t="s">
-        <v>42</v>
-      </c>
-      <c r="N3" t="s">
-        <v>43</v>
-      </c>
       <c r="O3" t="s">
-        <v>44</v>
+        <v>32</v>
       </c>
     </row>
     <row r="4" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
+        <v>48</v>
+      </c>
+      <c r="B4" t="s">
+        <v>43</v>
+      </c>
+      <c r="C4" t="s">
+        <v>17</v>
+      </c>
+      <c r="D4" t="s">
+        <v>17</v>
+      </c>
+      <c r="E4" t="s">
+        <v>17</v>
+      </c>
+      <c r="F4" t="s">
+        <v>17</v>
+      </c>
+      <c r="G4" t="s">
+        <v>42</v>
+      </c>
+      <c r="H4" t="s">
+        <v>30</v>
+      </c>
+      <c r="I4" t="s">
+        <v>33</v>
+      </c>
+      <c r="J4" t="s">
+        <v>57</v>
+      </c>
+      <c r="K4" t="s">
+        <v>31</v>
+      </c>
+      <c r="L4" t="s">
+        <v>44</v>
+      </c>
+      <c r="M4" t="s">
+        <v>37</v>
+      </c>
+      <c r="N4" t="s">
         <v>46</v>
       </c>
-      <c r="B4" t="s">
-        <v>38</v>
-      </c>
-      <c r="C4" t="s">
-        <v>26</v>
-      </c>
-      <c r="D4" t="s">
-        <v>26</v>
-      </c>
-      <c r="E4" t="s">
-        <v>26</v>
-      </c>
-      <c r="F4" t="s">
-        <v>26</v>
-      </c>
-      <c r="G4" t="s">
-        <v>14</v>
-      </c>
-      <c r="H4" t="s">
-        <v>39</v>
-      </c>
-      <c r="I4" t="s">
-        <v>45</v>
-      </c>
-      <c r="J4" t="s">
-        <v>48</v>
-      </c>
-      <c r="K4" t="s">
-        <v>40</v>
-      </c>
-      <c r="L4" t="s">
-        <v>41</v>
-      </c>
-      <c r="M4" t="s">
-        <v>42</v>
-      </c>
-      <c r="N4" t="s">
-        <v>43</v>
-      </c>
       <c r="O4" t="s">
-        <v>44</v>
+        <v>32</v>
       </c>
     </row>
     <row r="5" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="B5" t="s">
-        <v>38</v>
+        <v>43</v>
       </c>
       <c r="C5" t="s">
-        <v>26</v>
+        <v>17</v>
       </c>
       <c r="D5" t="s">
-        <v>26</v>
+        <v>17</v>
       </c>
       <c r="E5" t="s">
-        <v>26</v>
+        <v>17</v>
       </c>
       <c r="F5" t="s">
-        <v>26</v>
+        <v>17</v>
       </c>
       <c r="G5" t="s">
-        <v>51</v>
+        <v>42</v>
       </c>
       <c r="H5" t="s">
-        <v>39</v>
+        <v>30</v>
       </c>
       <c r="I5" t="s">
-        <v>45</v>
+        <v>33</v>
       </c>
       <c r="J5" t="s">
-        <v>48</v>
+        <v>56</v>
       </c>
       <c r="K5" t="s">
-        <v>40</v>
+        <v>31</v>
       </c>
       <c r="L5" t="s">
-        <v>52</v>
+        <v>44</v>
       </c>
       <c r="M5" t="s">
-        <v>53</v>
+        <v>37</v>
       </c>
       <c r="N5" t="s">
-        <v>54</v>
+        <v>61</v>
       </c>
       <c r="O5" t="s">
-        <v>44</v>
+        <v>32</v>
       </c>
     </row>
     <row r="6" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>56</v>
+        <v>70</v>
       </c>
       <c r="B6" t="s">
-        <v>38</v>
+        <v>43</v>
       </c>
       <c r="C6" t="s">
-        <v>26</v>
+        <v>17</v>
       </c>
       <c r="D6" t="s">
-        <v>26</v>
+        <v>17</v>
       </c>
       <c r="E6" t="s">
-        <v>26</v>
+        <v>17</v>
       </c>
       <c r="F6" t="s">
-        <v>26</v>
+        <v>17</v>
       </c>
       <c r="G6" t="s">
-        <v>51</v>
+        <v>60</v>
       </c>
       <c r="H6" t="s">
-        <v>39</v>
+        <v>30</v>
       </c>
       <c r="I6" t="s">
-        <v>45</v>
+        <v>33</v>
       </c>
       <c r="J6" t="s">
-        <v>25</v>
+        <v>57</v>
       </c>
       <c r="K6" t="s">
-        <v>40</v>
+        <v>31</v>
       </c>
       <c r="L6" t="s">
-        <v>52</v>
+        <v>62</v>
       </c>
       <c r="M6" t="s">
-        <v>53</v>
+        <v>37</v>
       </c>
       <c r="N6" t="s">
-        <v>54</v>
+        <v>63</v>
       </c>
       <c r="O6" t="s">
-        <v>44</v>
+        <v>32</v>
       </c>
     </row>
     <row r="7" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="B7" t="s">
-        <v>69</v>
+        <v>43</v>
       </c>
       <c r="C7" t="s">
-        <v>26</v>
+        <v>17</v>
       </c>
       <c r="D7" t="s">
-        <v>26</v>
+        <v>17</v>
       </c>
       <c r="E7" t="s">
-        <v>26</v>
+        <v>17</v>
       </c>
       <c r="F7" t="s">
-        <v>26</v>
+        <v>17</v>
       </c>
       <c r="G7" t="s">
+        <v>60</v>
+      </c>
+      <c r="H7" t="s">
+        <v>30</v>
+      </c>
+      <c r="I7" t="s">
+        <v>33</v>
+      </c>
+      <c r="J7" t="s">
+        <v>56</v>
+      </c>
+      <c r="K7" t="s">
+        <v>31</v>
+      </c>
+      <c r="L7" t="s">
+        <v>62</v>
+      </c>
+      <c r="M7" t="s">
+        <v>37</v>
+      </c>
+      <c r="N7" t="s">
+        <v>63</v>
+      </c>
+      <c r="O7" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="8" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A8" t="s">
         <v>67</v>
       </c>
-      <c r="H7" t="s">
-        <v>39</v>
-      </c>
-      <c r="I7" t="s">
-        <v>45</v>
-      </c>
-      <c r="J7" t="s">
-        <v>25</v>
-      </c>
-      <c r="K7" t="s">
-        <v>40</v>
-      </c>
-      <c r="L7" t="s">
-        <v>71</v>
-      </c>
-      <c r="M7" t="s">
-        <v>53</v>
-      </c>
-      <c r="N7" t="s">
-        <v>54</v>
-      </c>
-      <c r="O7" t="s">
-        <v>44</v>
+      <c r="B8" t="s">
+        <v>43</v>
+      </c>
+      <c r="C8" t="s">
+        <v>17</v>
+      </c>
+      <c r="D8" t="s">
+        <v>17</v>
+      </c>
+      <c r="E8" t="s">
+        <v>17</v>
+      </c>
+      <c r="F8" t="s">
+        <v>17</v>
+      </c>
+      <c r="G8" t="s">
+        <v>60</v>
+      </c>
+      <c r="H8" t="s">
+        <v>30</v>
+      </c>
+      <c r="I8" t="s">
+        <v>33</v>
+      </c>
+      <c r="J8" t="s">
+        <v>57</v>
+      </c>
+      <c r="K8" t="s">
+        <v>31</v>
+      </c>
+      <c r="L8" t="s">
+        <v>62</v>
+      </c>
+      <c r="M8" t="s">
+        <v>37</v>
+      </c>
+      <c r="N8" t="s">
+        <v>63</v>
+      </c>
+      <c r="O8" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="9" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A9" t="s">
+        <v>68</v>
+      </c>
+      <c r="B9" t="s">
+        <v>43</v>
+      </c>
+      <c r="C9" t="s">
+        <v>17</v>
+      </c>
+      <c r="D9" t="s">
+        <v>17</v>
+      </c>
+      <c r="E9" t="s">
+        <v>17</v>
+      </c>
+      <c r="F9" t="s">
+        <v>17</v>
+      </c>
+      <c r="G9" t="s">
+        <v>60</v>
+      </c>
+      <c r="H9" t="s">
+        <v>30</v>
+      </c>
+      <c r="I9" t="s">
+        <v>33</v>
+      </c>
+      <c r="J9" t="s">
+        <v>56</v>
+      </c>
+      <c r="K9" t="s">
+        <v>31</v>
+      </c>
+      <c r="L9" t="s">
+        <v>72</v>
+      </c>
+      <c r="M9" t="s">
+        <v>37</v>
+      </c>
+      <c r="N9" t="s">
+        <v>63</v>
+      </c>
+      <c r="O9" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="10" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A10" t="s">
+        <v>75</v>
+      </c>
+      <c r="B10" t="s">
+        <v>43</v>
+      </c>
+      <c r="C10" t="s">
+        <v>17</v>
+      </c>
+      <c r="D10" t="s">
+        <v>17</v>
+      </c>
+      <c r="E10" t="s">
+        <v>17</v>
+      </c>
+      <c r="F10" t="s">
+        <v>17</v>
+      </c>
+      <c r="G10" t="s">
+        <v>78</v>
+      </c>
+      <c r="H10" t="s">
+        <v>30</v>
+      </c>
+      <c r="I10" t="s">
+        <v>33</v>
+      </c>
+      <c r="J10" t="s">
+        <v>57</v>
+      </c>
+      <c r="K10" t="s">
+        <v>31</v>
+      </c>
+      <c r="L10" t="s">
+        <v>77</v>
+      </c>
+      <c r="M10" t="s">
+        <v>37</v>
+      </c>
+      <c r="N10" t="s">
+        <v>83</v>
+      </c>
+      <c r="O10" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="11" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A11" t="s">
+        <v>76</v>
+      </c>
+      <c r="B11" t="s">
+        <v>43</v>
+      </c>
+      <c r="C11" t="s">
+        <v>17</v>
+      </c>
+      <c r="D11" t="s">
+        <v>17</v>
+      </c>
+      <c r="E11" t="s">
+        <v>17</v>
+      </c>
+      <c r="F11" t="s">
+        <v>17</v>
+      </c>
+      <c r="G11" t="s">
+        <v>74</v>
+      </c>
+      <c r="H11" t="s">
+        <v>30</v>
+      </c>
+      <c r="I11" t="s">
+        <v>33</v>
+      </c>
+      <c r="J11" t="s">
+        <v>56</v>
+      </c>
+      <c r="K11" t="s">
+        <v>31</v>
+      </c>
+      <c r="L11" t="s">
+        <v>77</v>
+      </c>
+      <c r="M11" t="s">
+        <v>37</v>
+      </c>
+      <c r="N11" t="s">
+        <v>83</v>
+      </c>
+      <c r="O11" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="12" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A12" t="s">
+        <v>80</v>
+      </c>
+      <c r="B12" t="s">
+        <v>43</v>
+      </c>
+      <c r="C12" t="s">
+        <v>17</v>
+      </c>
+      <c r="D12" t="s">
+        <v>17</v>
+      </c>
+      <c r="E12" t="s">
+        <v>17</v>
+      </c>
+      <c r="F12" t="s">
+        <v>17</v>
+      </c>
+      <c r="G12" t="s">
+        <v>79</v>
+      </c>
+      <c r="H12" t="s">
+        <v>30</v>
+      </c>
+      <c r="I12" t="s">
+        <v>33</v>
+      </c>
+      <c r="J12" t="s">
+        <v>57</v>
+      </c>
+      <c r="K12" t="s">
+        <v>31</v>
+      </c>
+      <c r="L12" t="s">
+        <v>81</v>
+      </c>
+      <c r="M12" t="s">
+        <v>108</v>
+      </c>
+      <c r="N12" t="s">
+        <v>82</v>
+      </c>
+      <c r="O12" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="13" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A13" t="s">
+        <v>84</v>
+      </c>
+      <c r="B13" t="s">
+        <v>43</v>
+      </c>
+      <c r="C13" t="s">
+        <v>17</v>
+      </c>
+      <c r="D13" t="s">
+        <v>17</v>
+      </c>
+      <c r="E13" t="s">
+        <v>17</v>
+      </c>
+      <c r="F13" t="s">
+        <v>17</v>
+      </c>
+      <c r="G13" t="s">
+        <v>79</v>
+      </c>
+      <c r="H13" t="s">
+        <v>30</v>
+      </c>
+      <c r="I13" t="s">
+        <v>33</v>
+      </c>
+      <c r="J13" t="s">
+        <v>56</v>
+      </c>
+      <c r="K13" t="s">
+        <v>31</v>
+      </c>
+      <c r="L13" t="s">
+        <v>81</v>
+      </c>
+      <c r="M13" t="s">
+        <v>108</v>
+      </c>
+      <c r="N13" t="s">
+        <v>82</v>
+      </c>
+      <c r="O13" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="14" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A14" t="s">
+        <v>85</v>
+      </c>
+      <c r="B14" t="s">
+        <v>43</v>
+      </c>
+      <c r="C14" t="s">
+        <v>17</v>
+      </c>
+      <c r="D14" t="s">
+        <v>17</v>
+      </c>
+      <c r="E14" t="s">
+        <v>17</v>
+      </c>
+      <c r="F14" t="s">
+        <v>17</v>
+      </c>
+      <c r="G14" t="s">
+        <v>79</v>
+      </c>
+      <c r="H14" t="s">
+        <v>30</v>
+      </c>
+      <c r="I14" t="s">
+        <v>33</v>
+      </c>
+      <c r="J14" t="s">
+        <v>56</v>
+      </c>
+      <c r="K14" t="s">
+        <v>31</v>
+      </c>
+      <c r="L14" t="s">
+        <v>81</v>
+      </c>
+      <c r="M14" t="s">
+        <v>108</v>
+      </c>
+      <c r="N14" t="s">
+        <v>82</v>
+      </c>
+      <c r="O14" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="15" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A15" t="s">
+        <v>87</v>
+      </c>
+      <c r="B15" t="s">
+        <v>43</v>
+      </c>
+      <c r="C15" t="s">
+        <v>17</v>
+      </c>
+      <c r="D15" t="s">
+        <v>17</v>
+      </c>
+      <c r="E15" t="s">
+        <v>17</v>
+      </c>
+      <c r="F15" t="s">
+        <v>17</v>
+      </c>
+      <c r="G15" t="s">
+        <v>86</v>
+      </c>
+      <c r="H15" t="s">
+        <v>30</v>
+      </c>
+      <c r="I15" t="s">
+        <v>33</v>
+      </c>
+      <c r="J15" t="s">
+        <v>57</v>
+      </c>
+      <c r="K15" t="s">
+        <v>31</v>
+      </c>
+      <c r="L15" t="s">
+        <v>89</v>
+      </c>
+      <c r="M15" t="s">
+        <v>108</v>
+      </c>
+      <c r="N15" t="s">
+        <v>91</v>
+      </c>
+      <c r="O15" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="16" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A16" t="s">
+        <v>88</v>
+      </c>
+      <c r="B16" t="s">
+        <v>43</v>
+      </c>
+      <c r="C16" t="s">
+        <v>17</v>
+      </c>
+      <c r="D16" t="s">
+        <v>17</v>
+      </c>
+      <c r="E16" t="s">
+        <v>17</v>
+      </c>
+      <c r="F16" t="s">
+        <v>17</v>
+      </c>
+      <c r="G16" t="s">
+        <v>86</v>
+      </c>
+      <c r="H16" t="s">
+        <v>30</v>
+      </c>
+      <c r="I16" t="s">
+        <v>33</v>
+      </c>
+      <c r="J16" t="s">
+        <v>56</v>
+      </c>
+      <c r="K16" t="s">
+        <v>31</v>
+      </c>
+      <c r="L16" t="s">
+        <v>90</v>
+      </c>
+      <c r="M16" t="s">
+        <v>108</v>
+      </c>
+      <c r="N16" t="s">
+        <v>92</v>
+      </c>
+      <c r="O16" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="17" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A17" t="s">
+        <v>125</v>
+      </c>
+      <c r="B17" t="s">
+        <v>43</v>
+      </c>
+      <c r="C17" t="s">
+        <v>17</v>
+      </c>
+      <c r="D17" t="s">
+        <v>17</v>
+      </c>
+      <c r="E17" t="s">
+        <v>17</v>
+      </c>
+      <c r="F17" t="s">
+        <v>17</v>
+      </c>
+      <c r="G17" t="s">
+        <v>86</v>
+      </c>
+      <c r="H17" t="s">
+        <v>30</v>
+      </c>
+      <c r="I17" t="s">
+        <v>33</v>
+      </c>
+      <c r="J17" t="s">
+        <v>56</v>
+      </c>
+      <c r="K17" t="s">
+        <v>31</v>
+      </c>
+      <c r="L17" t="s">
+        <v>90</v>
+      </c>
+      <c r="M17" t="s">
+        <v>108</v>
+      </c>
+      <c r="N17" t="s">
+        <v>92</v>
+      </c>
+      <c r="O17" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="18" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A18" t="s">
+        <v>94</v>
+      </c>
+      <c r="B18" t="s">
+        <v>43</v>
+      </c>
+      <c r="C18" t="s">
+        <v>17</v>
+      </c>
+      <c r="D18" t="s">
+        <v>17</v>
+      </c>
+      <c r="E18" t="s">
+        <v>17</v>
+      </c>
+      <c r="F18" t="s">
+        <v>17</v>
+      </c>
+      <c r="G18" t="s">
+        <v>93</v>
+      </c>
+      <c r="H18" t="s">
+        <v>30</v>
+      </c>
+      <c r="I18" t="s">
+        <v>33</v>
+      </c>
+      <c r="J18" t="s">
+        <v>57</v>
+      </c>
+      <c r="K18" t="s">
+        <v>31</v>
+      </c>
+      <c r="L18" t="s">
+        <v>96</v>
+      </c>
+      <c r="M18" t="s">
+        <v>108</v>
+      </c>
+      <c r="N18" t="s">
+        <v>97</v>
+      </c>
+      <c r="O18" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="19" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A19" t="s">
+        <v>95</v>
+      </c>
+      <c r="B19" t="s">
+        <v>43</v>
+      </c>
+      <c r="C19" t="s">
+        <v>17</v>
+      </c>
+      <c r="D19" t="s">
+        <v>17</v>
+      </c>
+      <c r="E19" t="s">
+        <v>17</v>
+      </c>
+      <c r="F19" t="s">
+        <v>17</v>
+      </c>
+      <c r="G19" t="s">
+        <v>93</v>
+      </c>
+      <c r="H19" t="s">
+        <v>30</v>
+      </c>
+      <c r="I19" t="s">
+        <v>33</v>
+      </c>
+      <c r="J19" t="s">
+        <v>56</v>
+      </c>
+      <c r="K19" t="s">
+        <v>31</v>
+      </c>
+      <c r="L19" t="s">
+        <v>96</v>
+      </c>
+      <c r="M19" t="s">
+        <v>108</v>
+      </c>
+      <c r="N19" t="s">
+        <v>97</v>
+      </c>
+      <c r="O19" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="20" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A20" t="s">
+        <v>126</v>
+      </c>
+      <c r="B20" t="s">
+        <v>43</v>
+      </c>
+      <c r="C20" t="s">
+        <v>17</v>
+      </c>
+      <c r="D20" t="s">
+        <v>17</v>
+      </c>
+      <c r="E20" t="s">
+        <v>17</v>
+      </c>
+      <c r="F20" t="s">
+        <v>17</v>
+      </c>
+      <c r="G20" t="s">
+        <v>93</v>
+      </c>
+      <c r="H20" t="s">
+        <v>30</v>
+      </c>
+      <c r="I20" t="s">
+        <v>33</v>
+      </c>
+      <c r="J20" t="s">
+        <v>56</v>
+      </c>
+      <c r="K20" t="s">
+        <v>31</v>
+      </c>
+      <c r="L20" t="s">
+        <v>96</v>
+      </c>
+      <c r="M20" t="s">
+        <v>108</v>
+      </c>
+      <c r="N20" t="s">
+        <v>97</v>
+      </c>
+      <c r="O20" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="21" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A21" t="s">
+        <v>101</v>
+      </c>
+      <c r="B21" t="s">
+        <v>43</v>
+      </c>
+      <c r="C21" t="s">
+        <v>17</v>
+      </c>
+      <c r="D21" t="s">
+        <v>17</v>
+      </c>
+      <c r="E21" t="s">
+        <v>17</v>
+      </c>
+      <c r="F21" t="s">
+        <v>17</v>
+      </c>
+      <c r="G21" t="s">
+        <v>98</v>
+      </c>
+      <c r="H21" t="s">
+        <v>30</v>
+      </c>
+      <c r="I21" t="s">
+        <v>33</v>
+      </c>
+      <c r="J21" t="s">
+        <v>57</v>
+      </c>
+      <c r="K21" t="s">
+        <v>31</v>
+      </c>
+      <c r="L21" t="s">
+        <v>100</v>
+      </c>
+      <c r="M21" t="s">
+        <v>108</v>
+      </c>
+      <c r="N21" t="s">
+        <v>99</v>
+      </c>
+      <c r="O21" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="22" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A22" t="s">
+        <v>102</v>
+      </c>
+      <c r="B22" t="s">
+        <v>43</v>
+      </c>
+      <c r="C22" t="s">
+        <v>17</v>
+      </c>
+      <c r="D22" t="s">
+        <v>17</v>
+      </c>
+      <c r="E22" t="s">
+        <v>17</v>
+      </c>
+      <c r="F22" t="s">
+        <v>17</v>
+      </c>
+      <c r="G22" t="s">
+        <v>98</v>
+      </c>
+      <c r="H22" t="s">
+        <v>30</v>
+      </c>
+      <c r="I22" t="s">
+        <v>33</v>
+      </c>
+      <c r="J22" t="s">
+        <v>56</v>
+      </c>
+      <c r="K22" t="s">
+        <v>31</v>
+      </c>
+      <c r="L22" t="s">
+        <v>100</v>
+      </c>
+      <c r="M22" t="s">
+        <v>108</v>
+      </c>
+      <c r="N22" t="s">
+        <v>99</v>
+      </c>
+      <c r="O22" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="23" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A23" t="s">
+        <v>127</v>
+      </c>
+      <c r="B23" t="s">
+        <v>43</v>
+      </c>
+      <c r="C23" t="s">
+        <v>17</v>
+      </c>
+      <c r="D23" t="s">
+        <v>17</v>
+      </c>
+      <c r="E23" t="s">
+        <v>17</v>
+      </c>
+      <c r="F23" t="s">
+        <v>17</v>
+      </c>
+      <c r="G23" t="s">
+        <v>98</v>
+      </c>
+      <c r="H23" t="s">
+        <v>30</v>
+      </c>
+      <c r="I23" t="s">
+        <v>33</v>
+      </c>
+      <c r="J23" t="s">
+        <v>56</v>
+      </c>
+      <c r="K23" t="s">
+        <v>31</v>
+      </c>
+      <c r="L23" t="s">
+        <v>100</v>
+      </c>
+      <c r="M23" t="s">
+        <v>108</v>
+      </c>
+      <c r="N23" t="s">
+        <v>99</v>
+      </c>
+      <c r="O23" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="24" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A24" t="s">
+        <v>104</v>
+      </c>
+      <c r="B24" t="s">
+        <v>43</v>
+      </c>
+      <c r="C24" t="s">
+        <v>17</v>
+      </c>
+      <c r="D24" t="s">
+        <v>17</v>
+      </c>
+      <c r="E24" t="s">
+        <v>17</v>
+      </c>
+      <c r="F24" t="s">
+        <v>17</v>
+      </c>
+      <c r="G24" t="s">
+        <v>103</v>
+      </c>
+      <c r="H24" t="s">
+        <v>30</v>
+      </c>
+      <c r="I24" t="s">
+        <v>33</v>
+      </c>
+      <c r="J24" t="s">
+        <v>57</v>
+      </c>
+      <c r="K24" t="s">
+        <v>134</v>
+      </c>
+      <c r="L24" t="s">
+        <v>107</v>
+      </c>
+      <c r="M24" t="s">
+        <v>108</v>
+      </c>
+      <c r="N24" t="s">
+        <v>106</v>
+      </c>
+      <c r="O24" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="25" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A25" t="s">
+        <v>105</v>
+      </c>
+      <c r="B25" t="s">
+        <v>43</v>
+      </c>
+      <c r="C25" t="s">
+        <v>17</v>
+      </c>
+      <c r="D25" t="s">
+        <v>17</v>
+      </c>
+      <c r="E25" t="s">
+        <v>17</v>
+      </c>
+      <c r="F25" t="s">
+        <v>17</v>
+      </c>
+      <c r="G25" t="s">
+        <v>103</v>
+      </c>
+      <c r="H25" t="s">
+        <v>30</v>
+      </c>
+      <c r="I25" t="s">
+        <v>33</v>
+      </c>
+      <c r="J25" t="s">
+        <v>56</v>
+      </c>
+      <c r="K25" t="s">
+        <v>31</v>
+      </c>
+      <c r="L25" t="s">
+        <v>107</v>
+      </c>
+      <c r="M25" t="s">
+        <v>108</v>
+      </c>
+      <c r="N25" t="s">
+        <v>106</v>
+      </c>
+      <c r="O25" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="26" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A26" t="s">
+        <v>128</v>
+      </c>
+      <c r="B26" t="s">
+        <v>43</v>
+      </c>
+      <c r="C26" t="s">
+        <v>17</v>
+      </c>
+      <c r="D26" t="s">
+        <v>17</v>
+      </c>
+      <c r="E26" t="s">
+        <v>17</v>
+      </c>
+      <c r="F26" t="s">
+        <v>17</v>
+      </c>
+      <c r="G26" t="s">
+        <v>103</v>
+      </c>
+      <c r="H26" t="s">
+        <v>30</v>
+      </c>
+      <c r="I26" t="s">
+        <v>33</v>
+      </c>
+      <c r="J26" t="s">
+        <v>56</v>
+      </c>
+      <c r="K26" t="s">
+        <v>31</v>
+      </c>
+      <c r="L26" t="s">
+        <v>107</v>
+      </c>
+      <c r="M26" t="s">
+        <v>108</v>
+      </c>
+      <c r="N26" t="s">
+        <v>106</v>
+      </c>
+      <c r="O26" t="s">
+        <v>32</v>
       </c>
     </row>
   </sheetData>

--- a/sources/case/ApprovalTypes.xlsx
+++ b/sources/case/ApprovalTypes.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7560"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7560" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Base" sheetId="1" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="563" uniqueCount="135">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="563" uniqueCount="134">
   <si>
     <t>API</t>
   </si>
@@ -208,334 +208,326 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
+    <t>employee_probation</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>95da3e59-0f75-11e7-8ff3-00163e007053</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>FormalType_1</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>FormalType_2</t>
+  </si>
+  <si>
+    <t>adjuctType_1</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>adjuctType_2</t>
+  </si>
+  <si>
+    <t>95d72f09-0f75-11e7-8ff3-00163e007053</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>95d72f09-0f75-11e7-8ff3-00163e007053</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>many_times</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>duplicate</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>95dab58f-0f75-11e7-8ff3-00163e007053</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>employee_probation</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>离职</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>employee_offboard</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>resign</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>dismiss</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>dismiss</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Offboard_dismiss1</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Offboard_dismiss2</t>
+  </si>
+  <si>
+    <t>resign</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Offboard_resign1</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Offboard_resign2</t>
+  </si>
+  <si>
+    <t>离职</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>95d99661-0f75-11e7-8ff3-00163e007053</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Offer_1</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Offer_2</t>
+  </si>
+  <si>
+    <t>Offer</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>95d99661-0f75-11e7-8ff3-00163e007053</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>95de83f6-0f75-11e7-8ff3-00163e007053</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Leave_1</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>请假</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>leave_request</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>employee_offer</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Leave_2</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Leave_3</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>95e34c38-0f75-11e7-8ff3-00163e007053</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>resign_1</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>resign_2</t>
+  </si>
+  <si>
+    <t>补卡</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>补卡</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>resign_request</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>resign_request</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>95e2aaad-0f75-11e7-8ff3-00163e007053</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>out_1</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>out_2</t>
+  </si>
+  <si>
+    <t>外出</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>out_request</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>95e02d79-0f75-11e7-8ff3-00163e007053</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>overtime_request</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>加班</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>overtime_1</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>overtime_2</t>
+  </si>
+  <si>
+    <t>95e2231d-0f75-11e7-8ff3-00163e007053</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>trip_1</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>trip_2</t>
+  </si>
+  <si>
+    <t>trip_request</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>出差</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>attendance</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>resign_3</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>out_3</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>overtime_3</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>trip_3</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>n</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>[{"uuid":"7642fbdf-bd26-11e7-a179-5254001aba5d","approvers":[{"uuid":"","type":"reporting_to","value":"1"},{"uuid":"","type":"reporting_to","value":"2"},{"uuid":"","type":"reporting_to","value":"3"},{"uuid":"","type":"reporting_to","value":"4"},{"uuid":"","type":"login_user_department_manager","value":""},{"uuid":"","type":"department_manager","value":"${organization_2.uuid}"},{"uuid":"","type":"employee","value":"7e254521-b2e4-11e7-93d8-5254001aba5d"}],"target_type":"","target_value":"s{}"}]</t>
+  </si>
+  <si>
+    <t>[{"uuid":"7642fbdf-bd26-11e7-a179-5254001aba5d","approvers":[{"uuid":"","type":"reporting_to","value":"1"},{"uuid":"","type":"reporting_to","value":"2"},{"uuid":"","type":"reporting_to","value":"3"},{"uuid":"","type":"reporting_to","value":"4"},{"uuid":"","type":"login_user_department_manager","value":""},{"uuid":"","type":"department_manager","value":"${organization_2.uuid}"},{"uuid":"","type":"employee","value":"7e254521-b2e4-11e7-93d8-5254001aba5d"}],"target_type":"","target_value":"s{}"},{"uuid":"","approvers":[{"uuid":"","type":"login_user_department_manager","value":""},{"uuid":"","type":"employee","value":"7e254521-b2e4-11e7-93d8-5254001aba5d"}],"target_type":"sponsor","target_value":"s{\"department\":[\"6a74f505-b965-11e7-b707-5254001aba5d\"],\"employee\":[]}"},{"uuid":"","approvers":[{"uuid":"","type":"reporting_to","value":"4"},{"uuid":"","type":"login_user_department_manager","value":""},{"uuid":"","type":"department_manager","value":"${organization_2.uuid}"},{"uuid":"","type":"employee","value":"7e254521-b2e4-11e7-93d8-5254001aba5d"}],"target_type":"sponsor","target_value":"s{\"department\":[],\"employee\":[\"7e2bb13d-b2e4-11e7-93d8-5254001aba5d\"]}"}]</t>
+  </si>
+  <si>
+    <t>[{"uuid":"95db250e-0f75-11e7-8ff3-00163e007053","approvers":[{"uuid":"","type":"reporting_to","value":"1"},{"uuid":"","type":"reporting_to","value":"2"},{"uuid":"","type":"reporting_to","value":"3"},{"uuid":"","type":"reporting_to","value":"4"},{"uuid":"","type":"login_user_department_manager","value":""},{"uuid":"","type":"department_manager","value":"${organization_2.uuid}"},{"uuid":"","type":"employee","value":"7e254521-b2e4-11e7-93d8-5254001aba5d"}],"target_type":"","target_value":"s{}"}]</t>
+  </si>
+  <si>
+    <t>[{"target_value":"s{}","target_type":"","approvers":[{"type":"reporting_to","uuid":"","value":"1"},{"type":"reporting_to","uuid":"","value":"2"},{"type":"reporting_to","uuid":"","value":"3"},{"type":"reporting_to","uuid":"","value":"4"},{"type":"login_user_department_manager","uuid":"","value":""},{"type":"department_manager","uuid":"","value":"${organization_2.uuid}"},{"type":"employee","uuid":"","value":"7e254521-b2e4-11e7-93d8-5254001aba5d"}],"uuid":"95db250e-0f75-11e7-8ff3-00163e007053"},{"target_value":"s{\"department\":[\"696434ed-b965-11e7-b707-5254001aba5d\"],\"employee\":[]}","target_type":"sponsor","approvers":[{"type":"login_user_department_manager","uuid":"","value":""},{"type":"department_manager","uuid":"","value":"${organization_2.uuid}"},{"type":"employee","uuid":"","value":"7e254521-b2e4-11e7-93d8-5254001aba5d"}],"uuid":""}]</t>
+  </si>
+  <si>
+    <t>[{"uuid":"b276c863-bd48-11e7-a179-5254001aba5d","approvers":[{"uuid":"","type":"reporting_to","value":"1"},{"uuid":"","type":"reporting_to","value":"2"},{"uuid":"","type":"reporting_to","value":"3"},{"uuid":"","type":"reporting_to","value":"4"},{"uuid":"","type":"login_user_department_manager","value":""},{"uuid":"","type":"department_manager","value":"${organization_2.uuid}"},{"uuid":"","type":"employee","value":"7e254521-b2e4-11e7-93d8-5254001aba5d"}],"target_type":"","target_value":"s{}"}]</t>
+  </si>
+  <si>
+    <t>[{"target_value":"s{}","target_type":"","approvers":[{"type":"reporting_to","uuid":"","value":"1"},{"type":"reporting_to","uuid":"","value":"2"},{"type":"reporting_to","uuid":"","value":"3"},{"type":"reporting_to","uuid":"","value":"4"},{"type":"login_user_department_manager","uuid":"","value":""},{"type":"department_manager","uuid":"","value":"${organization_2.uuid}"},{"type":"employee","uuid":"","value":"7e254521-b2e4-11e7-93d8-5254001aba5d"}],"uuid":"b276c863-bd48-11e7-a179-5254001aba5d"},{"target_value":"s{\"department\":[\"696434ed-b965-11e7-b707-5254001aba5d\"],\"employee\":[]}","target_type":"sponsor","approvers":[{"type":"login_user_department_manager","uuid":"","value":""},{"type":"department_manager","uuid":"","value":"${organization_2.uuid}"},{"type":"employee","uuid":"","value":"7e254521-b2e4-11e7-93d8-5254001aba5d"}],"uuid":""}]</t>
+  </si>
+  <si>
+    <t>[{"target_value":"s{}","target_type":"","approvers":[{"type":"reporting_to","uuid":"","value":"1"},{"type":"reporting_to","uuid":"","value":"2"},{"type":"reporting_to","uuid":"","value":"3"},{"type":"reporting_to","uuid":"","value":"4"},{"type":"login_user_department_manager","uuid":"","value":""},{"type":"department_manager","uuid":"","value":"${organization_2.uuid}"},{"type":"employee","uuid":"","value":"7e254521-b2e4-11e7-93d8-5254001aba5d"}],"uuid":"95d9b755-0f75-11e7-8ff3-00163e007053"}]</t>
+  </si>
+  <si>
+    <t>[{"target_value":"s{}","target_type":"","approvers":[{"type":"reporting_to","uuid":"","value":"1"},{"type":"reporting_to","uuid":"","value":"2"},{"type":"reporting_to","uuid":"","value":"3"},{"type":"reporting_to","uuid":"","value":"4"},{"type":"login_user_department_manager","uuid":"","value":""},{"type":"department_manager","uuid":"","value":"${organization_2.uuid}"},{"type":"employee","uuid":"","value":"7e254521-b2e4-11e7-93d8-5254001aba5d"}],"uuid":"95d9b755-0f75-11e7-8ff3-00163e007053"},{"target_value":"s{\"department\":[\"696434ed-b965-11e7-b707-5254001aba5d\"],\"employee\":[]}","target_type":"sponsor","approvers":[{"type":"login_user_department_manager","uuid":"","value":""},{"type":"department_manager","uuid":"","value":"${organization_2.uuid}"},{"type":"employee","uuid":"","value":"7e254521-b2e4-11e7-93d8-5254001aba5d"}],"uuid":""}]</t>
+  </si>
+  <si>
+    <t>[{"target_value":"s{}","target_type":"","approvers":[{"type":"reporting_to","uuid":"","value":"1"},{"type":"reporting_to","uuid":"","value":"2"},{"type":"reporting_to","uuid":"","value":"3"},{"type":"reporting_to","uuid":"","value":"4"},{"type":"login_user_department_manager","uuid":"","value":""},{"type":"department_manager","uuid":"","value":"${organization_2.uuid}"},{"type":"employee","uuid":"","value":"7e254521-b2e4-11e7-93d8-5254001aba5d"}],"uuid":"5389429f-b9f7-11e7-9997-5254001aba5d"}]</t>
+  </si>
+  <si>
+    <t>[{"target_value":"s{}","target_type":"","approvers":[{"type":"reporting_to","uuid":"","value":"1"},{"type":"reporting_to","uuid":"","value":"2"},{"type":"reporting_to","uuid":"","value":"3"},{"type":"reporting_to","uuid":"","value":"4"},{"type":"login_user_department_manager","uuid":"","value":""},{"type":"department_manager","uuid":"","value":"${organization_2.uuid}"},{"type":"employee","uuid":"","value":"7e254521-b2e4-11e7-93d8-5254001aba5d"}],"uuid":"5389429f-b9f7-11e7-9997-5254001aba5d"},{"target_value":"s{\"department\":[\"696434ed-b965-11e7-b707-5254001aba5d\"],\"employee\":[]}","target_type":"sponsor","approvers":[{"type":"login_user_department_manager","uuid":"","value":""},{"type":"department_manager","uuid":"","value":"${organization_2.uuid}"},{"type":"employee","uuid":"","value":"7e254521-b2e4-11e7-93d8-5254001aba5d"}],"uuid":""}]</t>
+  </si>
+  <si>
+    <t>[{"target_value":"s{}","target_type":"","approvers":[{"type":"reporting_to","uuid":"","value":"1"},{"type":"reporting_to","uuid":"","value":"2"},{"type":"reporting_to","uuid":"","value":"3"},{"type":"reporting_to","uuid":"","value":"4"},{"type":"login_user_department_manager","uuid":"","value":""},{"type":"department_manager","uuid":"","value":"${organization_2.uuid}"},{"type":"employee","uuid":"","value":"7e254521-b2e4-11e7-93d8-5254001aba5d"}],"uuid":"5389429f-b9f7-11e7-9997-5254001aba5d"},{"target_value":"s{\"department\":[\"696434ed-b965-11e7-b707-5254001aba5d\"],\"employee\":[]}","target_type":"sponsor","approvers":[{"type":"login_user_department_manager","uuid":"","value":""},{"type":"department_manager","uuid":"","value":"${organization_2.uuid}"},{"type":"employee","uuid":"","value":"7e254521-b2e4-11e7-93d8-5254001aba5d"}],"uuid":""},{"uuid":"","approvers":[{"uuid":"","type":"login_user_department_manager","value":""}],"target_type":"duration","target_value":"s{\"symbol\":\"&lt;\",\"unit\":\"d\",\"number\":\"5\"}"},{"uuid":"","approvers":[{"uuid":"","type":"login_user_department_manager","value":""},{"uuid":"","type":"department_manager","value":"${organization_1.uuid}"}],"target_type":"duration","target_value":"s{\"symbol\":\"==\",\"unit\":\"d\",\"number\":\"5\"}"},{"uuid":"","approvers":[{"uuid":"","type":"login_user_department_manager","value":""},{"uuid":"","type":"department_manager","value":"${organization_1.uuid}"},{"uuid":"","type":"employee","value":"7e254521-b2e4-11e7-93d8-5254001aba5d"}],"target_type":"duration","target_value":"s{\"symbol\":\"&gt;\",\"unit\":\"d\",\"number\":\"5\"}"}]</t>
+  </si>
+  <si>
+    <t>[{"target_value":"s{}","target_type":"","approvers":[{"type":"reporting_to","uuid":"","value":"1"},{"type":"reporting_to","uuid":"","value":"2"},{"type":"reporting_to","uuid":"","value":"3"},{"type":"reporting_to","uuid":"","value":"4"},{"type":"login_user_department_manager","uuid":"","value":""},{"type":"department_manager","uuid":"","value":"${organization_2.uuid}"},{"type":"employee","uuid":"","value":"7e254521-b2e4-11e7-93d8-5254001aba5d"}],"uuid":"95e367b3-0f75-11e7-8ff3-00163e007053"}]</t>
+  </si>
+  <si>
+    <t>[{"target_value":"s{}","target_type":"","approvers":[{"type":"reporting_to","uuid":"","value":"1"},{"type":"reporting_to","uuid":"","value":"2"},{"type":"reporting_to","uuid":"","value":"3"},{"type":"reporting_to","uuid":"","value":"4"},{"type":"login_user_department_manager","uuid":"","value":""},{"type":"department_manager","uuid":"","value":"${organization_2.uuid}"},{"type":"employee","uuid":"","value":"7e254521-b2e4-11e7-93d8-5254001aba5d"}],"uuid":"95e367b3-0f75-11e7-8ff3-00163e007053"},{"target_value":"s{\"department\":[\"696434ed-b965-11e7-b707-5254001aba5d\"],\"employee\":[]}","target_type":"sponsor","approvers":[{"type":"login_user_department_manager","uuid":"","value":""},{"type":"department_manager","uuid":"","value":"${organization_2.uuid}"},{"type":"employee","uuid":"","value":"7e254521-b2e4-11e7-93d8-5254001aba5d"}],"uuid":""}]</t>
+  </si>
+  <si>
+    <t>[{"target_value":"s{}","target_type":"","approvers":[{"type":"reporting_to","uuid":"","value":"1"},{"type":"reporting_to","uuid":"","value":"2"},{"type":"reporting_to","uuid":"","value":"3"},{"type":"reporting_to","uuid":"","value":"4"},{"type":"login_user_department_manager","uuid":"","value":""},{"type":"department_manager","uuid":"","value":"${organization_2.uuid}"},{"type":"employee","uuid":"","value":"7e254521-b2e4-11e7-93d8-5254001aba5d"}],"uuid":"95e367b3-0f75-11e7-8ff3-00163e007053"},{"target_value":"s{\"department\":[\"696434ed-b965-11e7-b707-5254001aba5d\"],\"employee\":[]}","target_type":"sponsor","approvers":[{"type":"login_user_department_manager","uuid":"","value":""},{"type":"department_manager","uuid":"","value":"${organization_2.uuid}"},{"type":"employee","uuid":"","value":"7e254521-b2e4-11e7-93d8-5254001aba5d"}],"uuid":""},{"uuid":"","approvers":[{"uuid":"","type":"login_user_department_manager","value":""}],"target_type":"duration","target_value":"s{\"symbol\":\"&lt;\",\"unit\":\"d\",\"number\":\"5\"}"},{"uuid":"","approvers":[{"uuid":"","type":"login_user_department_manager","value":""},{"uuid":"","type":"department_manager","value":"${organization_1.uuid}"}],"target_type":"duration","target_value":"s{\"symbol\":\"==\",\"unit\":\"d\",\"number\":\"5\"}"},{"uuid":"","approvers":[{"uuid":"","type":"login_user_department_manager","value":""},{"uuid":"","type":"department_manager","value":"${organization_1.uuid}"},{"uuid":"","type":"employee","value":"7e254521-b2e4-11e7-93d8-5254001aba5d"}],"target_type":"duration","target_value":"s{\"symbol\":\"&gt;\",\"unit\":\"d\",\"number\":\"5\"}"}]</t>
+  </si>
+  <si>
+    <t>[{"target_value":"s{}","target_type":"","approvers":[{"type":"reporting_to","uuid":"","value":"1"},{"type":"reporting_to","uuid":"","value":"2"},{"type":"reporting_to","uuid":"","value":"3"},{"type":"reporting_to","uuid":"","value":"4"},{"type":"login_user_department_manager","uuid":"","value":""},{"type":"department_manager","uuid":"","value":"${organization_2.uuid}"},{"type":"employee","uuid":"","value":"7e254521-b2e4-11e7-93d8-5254001aba5d"}],"uuid":"95e2f732-0f75-11e7-8ff3-00163e007053"}]</t>
+  </si>
+  <si>
+    <t>[{"target_value":"s{}","target_type":"","approvers":[{"type":"reporting_to","uuid":"","value":"1"},{"type":"reporting_to","uuid":"","value":"2"},{"type":"reporting_to","uuid":"","value":"3"},{"type":"reporting_to","uuid":"","value":"4"},{"type":"login_user_department_manager","uuid":"","value":""},{"type":"department_manager","uuid":"","value":"${organization_2.uuid}"},{"type":"employee","uuid":"","value":"7e254521-b2e4-11e7-93d8-5254001aba5d"}],"uuid":"95e2f732-0f75-11e7-8ff3-00163e007053"},{"target_value":"s{\"department\":[\"696434ed-b965-11e7-b707-5254001aba5d\"],\"employee\":[]}","target_type":"sponsor","approvers":[{"type":"login_user_department_manager","uuid":"","value":""},{"type":"department_manager","uuid":"","value":"${organization_2.uuid}"},{"type":"employee","uuid":"","value":"7e254521-b2e4-11e7-93d8-5254001aba5d"}],"uuid":""}]</t>
+  </si>
+  <si>
+    <t>[{"target_value":"s{}","target_type":"","approvers":[{"type":"reporting_to","uuid":"","value":"1"},{"type":"reporting_to","uuid":"","value":"2"},{"type":"reporting_to","uuid":"","value":"3"},{"type":"reporting_to","uuid":"","value":"4"},{"type":"login_user_department_manager","uuid":"","value":""},{"type":"department_manager","uuid":"","value":"${organization_2.uuid}"},{"type":"employee","uuid":"","value":"7e254521-b2e4-11e7-93d8-5254001aba5d"}],"uuid":"95e2f732-0f75-11e7-8ff3-00163e007053"},{"target_value":"s{\"department\":[\"696434ed-b965-11e7-b707-5254001aba5d\"],\"employee\":[]}","target_type":"sponsor","approvers":[{"type":"login_user_department_manager","uuid":"","value":""},{"type":"department_manager","uuid":"","value":"${organization_2.uuid}"},{"type":"employee","uuid":"","value":"7e254521-b2e4-11e7-93d8-5254001aba5d"}],"uuid":""},{"uuid":"","approvers":[{"uuid":"","type":"login_user_department_manager","value":""}],"target_type":"duration","target_value":"s{\"symbol\":\"&lt;\",\"unit\":\"d\",\"number\":\"5\"}"},{"uuid":"","approvers":[{"uuid":"","type":"login_user_department_manager","value":""},{"uuid":"","type":"department_manager","value":"${organization_1.uuid}"}],"target_type":"duration","target_value":"s{\"symbol\":\"==\",\"unit\":\"d\",\"number\":\"5\"}"},{"uuid":"","approvers":[{"uuid":"","type":"login_user_department_manager","value":""},{"uuid":"","type":"department_manager","value":"${organization_1.uuid}"},{"uuid":"","type":"employee","value":"7e254521-b2e4-11e7-93d8-5254001aba5d"}],"target_type":"duration","target_value":"s{\"symbol\":\"&gt;\",\"unit\":\"d\",\"number\":\"5\"}"}]</t>
+  </si>
+  <si>
+    <t>[{"target_value":"s{}","target_type":"","approvers":[{"type":"reporting_to","uuid":"","value":"1"},{"type":"reporting_to","uuid":"","value":"2"},{"type":"reporting_to","uuid":"","value":"3"},{"type":"reporting_to","uuid":"","value":"4"},{"type":"login_user_department_manager","uuid":"","value":""},{"type":"department_manager","uuid":"","value":"${organization_2.uuid}"},{"type":"employee","uuid":"","value":"7e254521-b2e4-11e7-93d8-5254001aba5d"}],"uuid":"95e04b46-0f75-11e7-8ff3-00163e007053"}]</t>
+  </si>
+  <si>
+    <t>[{"target_value":"s{}","target_type":"","approvers":[{"type":"reporting_to","uuid":"","value":"1"},{"type":"reporting_to","uuid":"","value":"2"},{"type":"reporting_to","uuid":"","value":"3"},{"type":"reporting_to","uuid":"","value":"4"},{"type":"login_user_department_manager","uuid":"","value":""},{"type":"department_manager","uuid":"","value":"${organization_2.uuid}"},{"type":"employee","uuid":"","value":"7e254521-b2e4-11e7-93d8-5254001aba5d"}],"uuid":"95e04b46-0f75-11e7-8ff3-00163e007053"},{"target_value":"s{\"department\":[\"696434ed-b965-11e7-b707-5254001aba5d\"],\"employee\":[]}","target_type":"sponsor","approvers":[{"type":"login_user_department_manager","uuid":"","value":""},{"type":"department_manager","uuid":"","value":"${organization_2.uuid}"},{"type":"employee","uuid":"","value":"7e254521-b2e4-11e7-93d8-5254001aba5d"}],"uuid":""}]</t>
+  </si>
+  <si>
+    <t>[{"target_value":"s{}","target_type":"","approvers":[{"type":"reporting_to","uuid":"","value":"1"},{"type":"reporting_to","uuid":"","value":"2"},{"type":"reporting_to","uuid":"","value":"3"},{"type":"reporting_to","uuid":"","value":"4"},{"type":"login_user_department_manager","uuid":"","value":""},{"type":"department_manager","uuid":"","value":"${organization_2.uuid}"},{"type":"employee","uuid":"","value":"7e254521-b2e4-11e7-93d8-5254001aba5d"}],"uuid":"95e04b46-0f75-11e7-8ff3-00163e007053"},{"target_value":"s{\"department\":[\"696434ed-b965-11e7-b707-5254001aba5d\"],\"employee\":[]}","target_type":"sponsor","approvers":[{"type":"login_user_department_manager","uuid":"","value":""},{"type":"department_manager","uuid":"","value":"${organization_2.uuid}"},{"type":"employee","uuid":"","value":"7e254521-b2e4-11e7-93d8-5254001aba5d"}],"uuid":""},{"uuid":"","approvers":[{"uuid":"","type":"login_user_department_manager","value":""}],"target_type":"duration","target_value":"s{\"symbol\":\"&lt;\",\"unit\":\"d\",\"number\":\"5\"}"},{"uuid":"","approvers":[{"uuid":"","type":"login_user_department_manager","value":""},{"uuid":"","type":"department_manager","value":"${organization_1.uuid}"}],"target_type":"duration","target_value":"s{\"symbol\":\"==\",\"unit\":\"d\",\"number\":\"5\"}"},{"uuid":"","approvers":[{"uuid":"","type":"login_user_department_manager","value":""},{"uuid":"","type":"department_manager","value":"${organization_1.uuid}"},{"uuid":"","type":"employee","value":"7e254521-b2e4-11e7-93d8-5254001aba5d"}],"target_type":"duration","target_value":"s{\"symbol\":\"&gt;\",\"unit\":\"d\",\"number\":\"5\"}"}]</t>
+  </si>
+  <si>
+    <t>[{"target_value":"s{}","target_type":"","approvers":[{"type":"reporting_to","uuid":"","value":"1"},{"type":"reporting_to","uuid":"","value":"2"},{"type":"reporting_to","uuid":"","value":"3"},{"type":"reporting_to","uuid":"","value":"4"},{"type":"login_user_department_manager","uuid":"","value":""},{"type":"department_manager","uuid":"","value":"${organization_2.uuid}"},{"type":"employee","uuid":"","value":"7e254521-b2e4-11e7-93d8-5254001aba5d"}],"uuid":"95e245f4-0f75-11e7-8ff3-00163e007053"}]</t>
+  </si>
+  <si>
+    <t>[{"target_value":"s{}","target_type":"","approvers":[{"type":"reporting_to","uuid":"","value":"1"},{"type":"reporting_to","uuid":"","value":"2"},{"type":"reporting_to","uuid":"","value":"3"},{"type":"reporting_to","uuid":"","value":"4"},{"type":"login_user_department_manager","uuid":"","value":""},{"type":"department_manager","uuid":"","value":"${organization_2.uuid}"},{"type":"employee","uuid":"","value":"7e254521-b2e4-11e7-93d8-5254001aba5d"}],"uuid":"95e245f4-0f75-11e7-8ff3-00163e007053"},{"target_value":"s{\"department\":[\"696434ed-b965-11e7-b707-5254001aba5d\"],\"employee\":[]}","target_type":"sponsor","approvers":[{"type":"login_user_department_manager","uuid":"","value":""},{"type":"department_manager","uuid":"","value":"${organization_2.uuid}"},{"type":"employee","uuid":"","value":"7e254521-b2e4-11e7-93d8-5254001aba5d"}],"uuid":""}]</t>
+  </si>
+  <si>
+    <t>[{"target_value":"s{}","target_type":"","approvers":[{"type":"reporting_to","uuid":"","value":"1"},{"type":"reporting_to","uuid":"","value":"2"},{"type":"reporting_to","uuid":"","value":"3"},{"type":"reporting_to","uuid":"","value":"4"},{"type":"login_user_department_manager","uuid":"","value":""},{"type":"department_manager","uuid":"","value":"${organization_2.uuid}"},{"type":"employee","uuid":"","value":"7e254521-b2e4-11e7-93d8-5254001aba5d"}],"uuid":"95e245f4-0f75-11e7-8ff3-00163e007053"},{"target_value":"s{\"department\":[\"696434ed-b965-11e7-b707-5254001aba5d\"],\"employee\":[]}","target_type":"sponsor","approvers":[{"type":"login_user_department_manager","uuid":"","value":""},{"type":"department_manager","uuid":"","value":"${organization_2.uuid}"},{"type":"employee","uuid":"","value":"7e254521-b2e4-11e7-93d8-5254001aba5d"}],"uuid":""},{"uuid":"","approvers":[{"uuid":"","type":"login_user_department_manager","value":""}],"target_type":"duration","target_value":"s{\"symbol\":\"&lt;=\",\"unit\":\"d\",\"number\":\"4\"}"},{"uuid":"","approvers":[{"uuid":"","type":"login_user_department_manager","value":""},{"uuid":"","type":"department_manager","value":"${organization_1.uuid}"}],"target_type":"duration","target_value":"s{\"symbol\":\"==\",\"unit\":\"d\",\"number\":\"5\"}"},{"uuid":"","approvers":[{"uuid":"","type":"login_user_department_manager","value":""},{"uuid":"","type":"department_manager","value":"${organization_1.uuid}"},{"uuid":"","type":"employee","value":"7e254521-b2e4-11e7-93d8-5254001aba5d"}],"target_type":"duration","target_value":"s{\"symbol\":\"&gt;=\",\"unit\":\"d\",\"number\":\"6\"}"}]</t>
+  </si>
+  <si>
     <t>[{"employee_id":"b8a23753-0f75-11e7-9aa4-00163e007053"}]</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>employee_probation</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>95da3e59-0f75-11e7-8ff3-00163e007053</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>FormalType_1</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>FormalType_2</t>
-  </si>
-  <si>
-    <t>adjuctType_1</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>adjuctType_2</t>
-  </si>
-  <si>
-    <t>95d72f09-0f75-11e7-8ff3-00163e007053</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>95d72f09-0f75-11e7-8ff3-00163e007053</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>[{"uuid":"7642fbdf-bd26-11e7-a179-5254001aba5d","approvers":[{"uuid":"","type":"reporting_to","value":"1"},{"uuid":"","type":"reporting_to","value":"2"},{"uuid":"","type":"reporting_to","value":"3"},{"uuid":"","type":"reporting_to","value":"4"},{"uuid":"","type":"login_user_department_manager","value":""},{"uuid":"","type":"department_manager","value":"${organization_2.uuid}"},{"uuid":"","type":"employee","value":"b8a23753-0f75-11e7-9aa4-00163e007053"}],"target_type":"","target_value":"s{}"}]</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>[{"employee_id":"b8a23753-0f75-11e7-9aa4-00163e007053"}]</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>many_times</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>duplicate</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>[{"uuid":"01d252fa-baf2-11e7-abde-5254001aba5d","approvers":[{"uuid":"","type":"reporting_to","value":"1"},{"uuid":"","type":"reporting_to","value":"2"},{"uuid":"","type":"reporting_to","value":"3"},{"uuid":"","type":"reporting_to","value":"4"},{"uuid":"","type":"login_user_department_manager","value":""},{"uuid":"","type":"department_manager","value":"${organization_2.uuid}"},{"uuid":"","type":"employee","value":"b8a23753-0f75-11e7-9aa4-00163e007053"}],"target_type":"","target_value":"s{}"}]</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>[{"uuid":"95db250e-0f75-11e7-8ff3-00163e007053","approvers":[{"uuid":"","type":"reporting_to","value":"1"},{"uuid":"","type":"reporting_to","value":"2"},{"uuid":"","type":"reporting_to","value":"3"},{"uuid":"","type":"reporting_to","value":"4"},{"uuid":"","type":"login_user_department_manager","value":""},{"uuid":"","type":"department_manager","value":"${organization_2.uuid}"},{"uuid":"","type":"employee","value":"b8a23753-0f75-11e7-9aa4-00163e007053"}],"target_type":"","target_value":"s{}"}]</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>95dab58f-0f75-11e7-8ff3-00163e007053</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>employee_probation</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>离职</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>employee_offboard</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>resign</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>dismiss</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>dismiss</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>Offboard_dismiss1</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>Offboard_dismiss2</t>
-  </si>
-  <si>
-    <t>resign</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>Offboard_resign1</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>Offboard_resign2</t>
-  </si>
-  <si>
-    <t>离职</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>[{"uuid":"b276c863-bd48-11e7-a179-5254001aba5d","approvers":[{"uuid":"","type":"reporting_to","value":"1"},{"uuid":"","type":"reporting_to","value":"2"},{"uuid":"","type":"reporting_to","value":"3"},{"uuid":"","type":"reporting_to","value":"4"},{"uuid":"","type":"login_user_department_manager","value":""},{"uuid":"","type":"department_manager","value":"${organization_2.uuid}"},{"uuid":"","type":"employee","value":"b8a23753-0f75-11e7-9aa4-00163e007053"}],"target_type":"","target_value":"s{}"}]</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>95d99661-0f75-11e7-8ff3-00163e007053</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>Offer_1</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>Offer_2</t>
-  </si>
-  <si>
-    <t>Offer</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>95d99661-0f75-11e7-8ff3-00163e007053</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>95de83f6-0f75-11e7-8ff3-00163e007053</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>Leave_1</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>请假</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>leave_request</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>employee_offer</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>Leave_2</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>Leave_3</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>95e34c38-0f75-11e7-8ff3-00163e007053</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>resign_1</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>resign_2</t>
-  </si>
-  <si>
-    <t>补卡</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>补卡</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>resign_request</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>resign_request</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>95e2aaad-0f75-11e7-8ff3-00163e007053</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>out_1</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>out_2</t>
-  </si>
-  <si>
-    <t>外出</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>out_request</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>95e02d79-0f75-11e7-8ff3-00163e007053</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>overtime_request</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>加班</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>overtime_1</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>overtime_2</t>
-  </si>
-  <si>
-    <t>95e2231d-0f75-11e7-8ff3-00163e007053</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>trip_1</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>trip_2</t>
-  </si>
-  <si>
-    <t>trip_request</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>出差</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>attendance</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>[{"uuid":"01d252fa-baf2-11e7-abde-5254001aba5d","approvers":[{"uuid":"","type":"reporting_to","value":"1"},{"uuid":"","type":"reporting_to","value":"2"},{"uuid":"","type":"reporting_to","value":"3"},{"uuid":"","type":"reporting_to","value":"4"},{"uuid":"","type":"login_user_department_manager","value":""},{"uuid":"","type":"department_manager","value":"${organization_2.uuid}"},{"uuid":"","type":"employee","value":"b8a23753-0f75-11e7-9aa4-00163e007053"}],"target_type":"","target_value":"s{}"},{"uuid":"","approvers":[{"uuid":"","type":"login_user_department_manager","value":""},{"uuid":"","type":"department_manager","value":"${organization_2.uuid}"},{"uuid":"","type":"employee","value":"b8a23753-0f75-11e7-9aa4-00163e007053"}],"target_type":"sponsor","target_value":"s{\"department\":[\"696434ed-b965-11e7-b707-5254001aba5d\"],\"employee\":[]}"}]</t>
-  </si>
-  <si>
-    <t>[{"target_value":"s{}","target_type":"","approvers":[{"type":"reporting_to","uuid":"","value":"1"},{"type":"reporting_to","uuid":"","value":"2"},{"type":"reporting_to","uuid":"","value":"3"},{"type":"reporting_to","uuid":"","value":"4"},{"type":"login_user_department_manager","uuid":"","value":""},{"type":"department_manager","uuid":"","value":"${organization_2.uuid}"},{"type":"employee","uuid":"","value":"b8a23753-0f75-11e7-9aa4-00163e007053"}],"uuid":"95db250e-0f75-11e7-8ff3-00163e007053"},{"target_value":"s{\"department\":[\"696434ed-b965-11e7-b707-5254001aba5d\"],\"employee\":[]}","target_type":"sponsor","approvers":[{"type":"login_user_department_manager","uuid":"","value":""},{"type":"department_manager","uuid":"","value":"${organization_2.uuid}"},{"type":"employee","uuid":"","value":"b8a23753-0f75-11e7-9aa4-00163e007053"}],"uuid":""}]</t>
-  </si>
-  <si>
-    <t>[{"target_value":"s{}","target_type":"","approvers":[{"type":"reporting_to","uuid":"","value":"1"},{"type":"reporting_to","uuid":"","value":"2"},{"type":"reporting_to","uuid":"","value":"3"},{"type":"reporting_to","uuid":"","value":"4"},{"type":"login_user_department_manager","uuid":"","value":""},{"type":"department_manager","uuid":"","value":"${organization_2.uuid}"},{"type":"employee","uuid":"","value":"b8a23753-0f75-11e7-9aa4-00163e007053"}],"uuid":"b276c863-bd48-11e7-a179-5254001aba5d"},{"target_value":"s{\"department\":[\"696434ed-b965-11e7-b707-5254001aba5d\"],\"employee\":[]}","target_type":"sponsor","approvers":[{"type":"login_user_department_manager","uuid":"","value":""},{"type":"department_manager","uuid":"","value":"${organization_2.uuid}"},{"type":"employee","uuid":"","value":"b8a23753-0f75-11e7-9aa4-00163e007053"}],"uuid":""}]</t>
-  </si>
-  <si>
-    <t>[{"target_value":"s{}","target_type":"","approvers":[{"type":"reporting_to","uuid":"","value":"1"},{"type":"reporting_to","uuid":"","value":"2"},{"type":"reporting_to","uuid":"","value":"3"},{"type":"reporting_to","uuid":"","value":"4"},{"type":"login_user_department_manager","uuid":"","value":""},{"type":"department_manager","uuid":"","value":"${organization_2.uuid}"},{"type":"employee","uuid":"","value":"b8a23753-0f75-11e7-9aa4-00163e007053"}],"uuid":"95d9b755-0f75-11e7-8ff3-00163e007053"}]</t>
-  </si>
-  <si>
-    <t>[{"target_value":"s{}","target_type":"","approvers":[{"type":"reporting_to","uuid":"","value":"1"},{"type":"reporting_to","uuid":"","value":"2"},{"type":"reporting_to","uuid":"","value":"3"},{"type":"reporting_to","uuid":"","value":"4"},{"type":"login_user_department_manager","uuid":"","value":""},{"type":"department_manager","uuid":"","value":"${organization_2.uuid}"},{"type":"employee","uuid":"","value":"b8a23753-0f75-11e7-9aa4-00163e007053"}],"uuid":"95d9b755-0f75-11e7-8ff3-00163e007053"},{"target_value":"s{\"department\":[\"696434ed-b965-11e7-b707-5254001aba5d\"],\"employee\":[]}","target_type":"sponsor","approvers":[{"type":"login_user_department_manager","uuid":"","value":""},{"type":"department_manager","uuid":"","value":"${organization_2.uuid}"},{"type":"employee","uuid":"","value":"b8a23753-0f75-11e7-9aa4-00163e007053"}],"uuid":""}]</t>
-  </si>
-  <si>
-    <t>[{"target_value":"s{}","target_type":"","approvers":[{"type":"reporting_to","uuid":"","value":"1"},{"type":"reporting_to","uuid":"","value":"2"},{"type":"reporting_to","uuid":"","value":"3"},{"type":"reporting_to","uuid":"","value":"4"},{"type":"login_user_department_manager","uuid":"","value":""},{"type":"department_manager","uuid":"","value":"${organization_2.uuid}"},{"type":"employee","uuid":"","value":"b8a23753-0f75-11e7-9aa4-00163e007053"}],"uuid":"5389429f-b9f7-11e7-9997-5254001aba5d"}]</t>
-  </si>
-  <si>
-    <t>[{"target_value":"s{}","target_type":"","approvers":[{"type":"reporting_to","uuid":"","value":"1"},{"type":"reporting_to","uuid":"","value":"2"},{"type":"reporting_to","uuid":"","value":"3"},{"type":"reporting_to","uuid":"","value":"4"},{"type":"login_user_department_manager","uuid":"","value":""},{"type":"department_manager","uuid":"","value":"${organization_2.uuid}"},{"type":"employee","uuid":"","value":"b8a23753-0f75-11e7-9aa4-00163e007053"}],"uuid":"5389429f-b9f7-11e7-9997-5254001aba5d"},{"target_value":"s{\"department\":[\"696434ed-b965-11e7-b707-5254001aba5d\"],\"employee\":[]}","target_type":"sponsor","approvers":[{"type":"login_user_department_manager","uuid":"","value":""},{"type":"department_manager","uuid":"","value":"${organization_2.uuid}"},{"type":"employee","uuid":"","value":"b8a23753-0f75-11e7-9aa4-00163e007053"}],"uuid":""}]</t>
-  </si>
-  <si>
-    <t>[{"target_value":"s{}","target_type":"","approvers":[{"type":"reporting_to","uuid":"","value":"1"},{"type":"reporting_to","uuid":"","value":"2"},{"type":"reporting_to","uuid":"","value":"3"},{"type":"reporting_to","uuid":"","value":"4"},{"type":"login_user_department_manager","uuid":"","value":""},{"type":"department_manager","uuid":"","value":"${organization_2.uuid}"},{"type":"employee","uuid":"","value":"b8a23753-0f75-11e7-9aa4-00163e007053"}],"uuid":"95e367b3-0f75-11e7-8ff3-00163e007053"}]</t>
-  </si>
-  <si>
-    <t>[{"target_value":"s{}","target_type":"","approvers":[{"type":"reporting_to","uuid":"","value":"1"},{"type":"reporting_to","uuid":"","value":"2"},{"type":"reporting_to","uuid":"","value":"3"},{"type":"reporting_to","uuid":"","value":"4"},{"type":"login_user_department_manager","uuid":"","value":""},{"type":"department_manager","uuid":"","value":"${organization_2.uuid}"},{"type":"employee","uuid":"","value":"b8a23753-0f75-11e7-9aa4-00163e007053"}],"uuid":"95e367b3-0f75-11e7-8ff3-00163e007053"},{"target_value":"s{\"department\":[\"696434ed-b965-11e7-b707-5254001aba5d\"],\"employee\":[]}","target_type":"sponsor","approvers":[{"type":"login_user_department_manager","uuid":"","value":""},{"type":"department_manager","uuid":"","value":"${organization_2.uuid}"},{"type":"employee","uuid":"","value":"b8a23753-0f75-11e7-9aa4-00163e007053"}],"uuid":""}]</t>
-  </si>
-  <si>
-    <t>[{"target_value":"s{}","target_type":"","approvers":[{"type":"reporting_to","uuid":"","value":"1"},{"type":"reporting_to","uuid":"","value":"2"},{"type":"reporting_to","uuid":"","value":"3"},{"type":"reporting_to","uuid":"","value":"4"},{"type":"login_user_department_manager","uuid":"","value":""},{"type":"department_manager","uuid":"","value":"${organization_2.uuid}"},{"type":"employee","uuid":"","value":"b8a23753-0f75-11e7-9aa4-00163e007053"}],"uuid":"95e2f732-0f75-11e7-8ff3-00163e007053"}]</t>
-  </si>
-  <si>
-    <t>[{"target_value":"s{}","target_type":"","approvers":[{"type":"reporting_to","uuid":"","value":"1"},{"type":"reporting_to","uuid":"","value":"2"},{"type":"reporting_to","uuid":"","value":"3"},{"type":"reporting_to","uuid":"","value":"4"},{"type":"login_user_department_manager","uuid":"","value":""},{"type":"department_manager","uuid":"","value":"${organization_2.uuid}"},{"type":"employee","uuid":"","value":"b8a23753-0f75-11e7-9aa4-00163e007053"}],"uuid":"95e2f732-0f75-11e7-8ff3-00163e007053"},{"target_value":"s{\"department\":[\"696434ed-b965-11e7-b707-5254001aba5d\"],\"employee\":[]}","target_type":"sponsor","approvers":[{"type":"login_user_department_manager","uuid":"","value":""},{"type":"department_manager","uuid":"","value":"${organization_2.uuid}"},{"type":"employee","uuid":"","value":"b8a23753-0f75-11e7-9aa4-00163e007053"}],"uuid":""}]</t>
-  </si>
-  <si>
-    <t>[{"target_value":"s{}","target_type":"","approvers":[{"type":"reporting_to","uuid":"","value":"1"},{"type":"reporting_to","uuid":"","value":"2"},{"type":"reporting_to","uuid":"","value":"3"},{"type":"reporting_to","uuid":"","value":"4"},{"type":"login_user_department_manager","uuid":"","value":""},{"type":"department_manager","uuid":"","value":"${organization_2.uuid}"},{"type":"employee","uuid":"","value":"b8a23753-0f75-11e7-9aa4-00163e007053"}],"uuid":"95e04b46-0f75-11e7-8ff3-00163e007053"}]</t>
-  </si>
-  <si>
-    <t>[{"target_value":"s{}","target_type":"","approvers":[{"type":"reporting_to","uuid":"","value":"1"},{"type":"reporting_to","uuid":"","value":"2"},{"type":"reporting_to","uuid":"","value":"3"},{"type":"reporting_to","uuid":"","value":"4"},{"type":"login_user_department_manager","uuid":"","value":""},{"type":"department_manager","uuid":"","value":"${organization_2.uuid}"},{"type":"employee","uuid":"","value":"b8a23753-0f75-11e7-9aa4-00163e007053"}],"uuid":"95e04b46-0f75-11e7-8ff3-00163e007053"},{"target_value":"s{\"department\":[\"696434ed-b965-11e7-b707-5254001aba5d\"],\"employee\":[]}","target_type":"sponsor","approvers":[{"type":"login_user_department_manager","uuid":"","value":""},{"type":"department_manager","uuid":"","value":"${organization_2.uuid}"},{"type":"employee","uuid":"","value":"b8a23753-0f75-11e7-9aa4-00163e007053"}],"uuid":""}]</t>
-  </si>
-  <si>
-    <t>[{"target_value":"s{}","target_type":"","approvers":[{"type":"reporting_to","uuid":"","value":"1"},{"type":"reporting_to","uuid":"","value":"2"},{"type":"reporting_to","uuid":"","value":"3"},{"type":"reporting_to","uuid":"","value":"4"},{"type":"login_user_department_manager","uuid":"","value":""},{"type":"department_manager","uuid":"","value":"${organization_2.uuid}"},{"type":"employee","uuid":"","value":"b8a23753-0f75-11e7-9aa4-00163e007053"}],"uuid":"95e245f4-0f75-11e7-8ff3-00163e007053"}]</t>
-  </si>
-  <si>
-    <t>[{"target_value":"s{}","target_type":"","approvers":[{"type":"reporting_to","uuid":"","value":"1"},{"type":"reporting_to","uuid":"","value":"2"},{"type":"reporting_to","uuid":"","value":"3"},{"type":"reporting_to","uuid":"","value":"4"},{"type":"login_user_department_manager","uuid":"","value":""},{"type":"department_manager","uuid":"","value":"${organization_2.uuid}"},{"type":"employee","uuid":"","value":"b8a23753-0f75-11e7-9aa4-00163e007053"}],"uuid":"95e245f4-0f75-11e7-8ff3-00163e007053"},{"target_value":"s{\"department\":[\"696434ed-b965-11e7-b707-5254001aba5d\"],\"employee\":[]}","target_type":"sponsor","approvers":[{"type":"login_user_department_manager","uuid":"","value":""},{"type":"department_manager","uuid":"","value":"${organization_2.uuid}"},{"type":"employee","uuid":"","value":"b8a23753-0f75-11e7-9aa4-00163e007053"}],"uuid":""}]</t>
-  </si>
-  <si>
-    <t>[{"uuid":"7642fbdf-bd26-11e7-a179-5254001aba5d","approvers":[{"uuid":"","type":"reporting_to","value":"1"},{"uuid":"","type":"reporting_to","value":"2"},{"uuid":"","type":"reporting_to","value":"3"},{"uuid":"","type":"reporting_to","value":"4"},{"uuid":"","type":"login_user_department_manager","value":""},{"uuid":"","type":"department_manager","value":"${organization_2.uuid}"},{"uuid":"","type":"employee","value":"b8a23753-0f75-11e7-9aa4-00163e007053"}],"target_type":"","target_value":"s{}"},{"uuid":"","approvers":[{"uuid":"","type":"login_user_department_manager","value":""},{"uuid":"","type":"employee","value":"b8a23753-0f75-11e7-9aa4-00163e007053"}],"target_type":"sponsor","target_value":"s{\"department\":[\"6a74f505-b965-11e7-b707-5254001aba5d\"],\"employee\":[]}"},{"uuid":"","approvers":[{"uuid":"","type":"reporting_to","value":"4"},{"uuid":"","type":"login_user_department_manager","value":""},{"uuid":"","type":"department_manager","value":"${organization_2.uuid}"},{"uuid":"","type":"employee","value":"b8a23753-0f75-11e7-9aa4-00163e007053"}],"target_type":"sponsor","target_value":"s{\"department\":[],\"employee\":[\"7e2bb13d-b2e4-11e7-93d8-5254001aba5d\"]}"}]</t>
-  </si>
-  <si>
-    <t>resign_3</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>out_3</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>overtime_3</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>trip_3</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>[{"target_value":"s{}","target_type":"","approvers":[{"type":"reporting_to","uuid":"","value":"1"},{"type":"reporting_to","uuid":"","value":"2"},{"type":"reporting_to","uuid":"","value":"3"},{"type":"reporting_to","uuid":"","value":"4"},{"type":"login_user_department_manager","uuid":"","value":""},{"type":"department_manager","uuid":"","value":"${organization_2.uuid}"},{"type":"employee","uuid":"","value":"b8a23753-0f75-11e7-9aa4-00163e007053"}],"uuid":"5389429f-b9f7-11e7-9997-5254001aba5d"},{"target_value":"s{\"department\":[\"696434ed-b965-11e7-b707-5254001aba5d\"],\"employee\":[]}","target_type":"sponsor","approvers":[{"type":"login_user_department_manager","uuid":"","value":""},{"type":"department_manager","uuid":"","value":"${organization_2.uuid}"},{"type":"employee","uuid":"","value":"b8a23753-0f75-11e7-9aa4-00163e007053"}],"uuid":""},{"uuid":"","approvers":[{"uuid":"","type":"login_user_department_manager","value":""}],"target_type":"duration","target_value":"s{\"symbol\":\"&lt;\",\"unit\":\"d\",\"number\":\"5\"}"},{"uuid":"","approvers":[{"uuid":"","type":"login_user_department_manager","value":""},{"uuid":"","type":"department_manager","value":"${organization_1.uuid}"}],"target_type":"duration","target_value":"s{\"symbol\":\"==\",\"unit\":\"d\",\"number\":\"5\"}"},{"uuid":"","approvers":[{"uuid":"","type":"login_user_department_manager","value":""},{"uuid":"","type":"department_manager","value":"${organization_1.uuid}"},{"uuid":"","type":"employee","value":"b8a23753-0f75-11e7-9aa4-00163e007053"}],"target_type":"duration","target_value":"s{\"symbol\":\"&gt;\",\"unit\":\"d\",\"number\":\"5\"}"}]</t>
-  </si>
-  <si>
-    <t>[{"target_value":"s{}","target_type":"","approvers":[{"type":"reporting_to","uuid":"","value":"1"},{"type":"reporting_to","uuid":"","value":"2"},{"type":"reporting_to","uuid":"","value":"3"},{"type":"reporting_to","uuid":"","value":"4"},{"type":"login_user_department_manager","uuid":"","value":""},{"type":"department_manager","uuid":"","value":"${organization_2.uuid}"},{"type":"employee","uuid":"","value":"b8a23753-0f75-11e7-9aa4-00163e007053"}],"uuid":"95e367b3-0f75-11e7-8ff3-00163e007053"},{"target_value":"s{\"department\":[\"696434ed-b965-11e7-b707-5254001aba5d\"],\"employee\":[]}","target_type":"sponsor","approvers":[{"type":"login_user_department_manager","uuid":"","value":""},{"type":"department_manager","uuid":"","value":"${organization_2.uuid}"},{"type":"employee","uuid":"","value":"b8a23753-0f75-11e7-9aa4-00163e007053"}],"uuid":""},{"uuid":"","approvers":[{"uuid":"","type":"login_user_department_manager","value":""}],"target_type":"duration","target_value":"s{\"symbol\":\"&lt;\",\"unit\":\"d\",\"number\":\"5\"}"},{"uuid":"","approvers":[{"uuid":"","type":"login_user_department_manager","value":""},{"uuid":"","type":"department_manager","value":"${organization_1.uuid}"}],"target_type":"duration","target_value":"s{\"symbol\":\"==\",\"unit\":\"d\",\"number\":\"5\"}"},{"uuid":"","approvers":[{"uuid":"","type":"login_user_department_manager","value":""},{"uuid":"","type":"department_manager","value":"${organization_1.uuid}"},{"uuid":"","type":"employee","value":"b8a23753-0f75-11e7-9aa4-00163e007053"}],"target_type":"duration","target_value":"s{\"symbol\":\"&gt;\",\"unit\":\"d\",\"number\":\"5\"}"}]</t>
-  </si>
-  <si>
-    <t>[{"target_value":"s{}","target_type":"","approvers":[{"type":"reporting_to","uuid":"","value":"1"},{"type":"reporting_to","uuid":"","value":"2"},{"type":"reporting_to","uuid":"","value":"3"},{"type":"reporting_to","uuid":"","value":"4"},{"type":"login_user_department_manager","uuid":"","value":""},{"type":"department_manager","uuid":"","value":"${organization_2.uuid}"},{"type":"employee","uuid":"","value":"b8a23753-0f75-11e7-9aa4-00163e007053"}],"uuid":"95e2f732-0f75-11e7-8ff3-00163e007053"},{"target_value":"s{\"department\":[\"696434ed-b965-11e7-b707-5254001aba5d\"],\"employee\":[]}","target_type":"sponsor","approvers":[{"type":"login_user_department_manager","uuid":"","value":""},{"type":"department_manager","uuid":"","value":"${organization_2.uuid}"},{"type":"employee","uuid":"","value":"b8a23753-0f75-11e7-9aa4-00163e007053"}],"uuid":""},{"uuid":"","approvers":[{"uuid":"","type":"login_user_department_manager","value":""}],"target_type":"duration","target_value":"s{\"symbol\":\"&lt;\",\"unit\":\"d\",\"number\":\"5\"}"},{"uuid":"","approvers":[{"uuid":"","type":"login_user_department_manager","value":""},{"uuid":"","type":"department_manager","value":"${organization_1.uuid}"}],"target_type":"duration","target_value":"s{\"symbol\":\"==\",\"unit\":\"d\",\"number\":\"5\"}"},{"uuid":"","approvers":[{"uuid":"","type":"login_user_department_manager","value":""},{"uuid":"","type":"department_manager","value":"${organization_1.uuid}"},{"uuid":"","type":"employee","value":"b8a23753-0f75-11e7-9aa4-00163e007053"}],"target_type":"duration","target_value":"s{\"symbol\":\"&gt;\",\"unit\":\"d\",\"number\":\"5\"}"}]</t>
-  </si>
-  <si>
-    <t>[{"target_value":"s{}","target_type":"","approvers":[{"type":"reporting_to","uuid":"","value":"1"},{"type":"reporting_to","uuid":"","value":"2"},{"type":"reporting_to","uuid":"","value":"3"},{"type":"reporting_to","uuid":"","value":"4"},{"type":"login_user_department_manager","uuid":"","value":""},{"type":"department_manager","uuid":"","value":"${organization_2.uuid}"},{"type":"employee","uuid":"","value":"b8a23753-0f75-11e7-9aa4-00163e007053"}],"uuid":"95e04b46-0f75-11e7-8ff3-00163e007053"},{"target_value":"s{\"department\":[\"696434ed-b965-11e7-b707-5254001aba5d\"],\"employee\":[]}","target_type":"sponsor","approvers":[{"type":"login_user_department_manager","uuid":"","value":""},{"type":"department_manager","uuid":"","value":"${organization_2.uuid}"},{"type":"employee","uuid":"","value":"b8a23753-0f75-11e7-9aa4-00163e007053"}],"uuid":""},{"uuid":"","approvers":[{"uuid":"","type":"login_user_department_manager","value":""}],"target_type":"duration","target_value":"s{\"symbol\":\"&lt;\",\"unit\":\"d\",\"number\":\"5\"}"},{"uuid":"","approvers":[{"uuid":"","type":"login_user_department_manager","value":""},{"uuid":"","type":"department_manager","value":"${organization_1.uuid}"}],"target_type":"duration","target_value":"s{\"symbol\":\"==\",\"unit\":\"d\",\"number\":\"5\"}"},{"uuid":"","approvers":[{"uuid":"","type":"login_user_department_manager","value":""},{"uuid":"","type":"department_manager","value":"${organization_1.uuid}"},{"uuid":"","type":"employee","value":"b8a23753-0f75-11e7-9aa4-00163e007053"}],"target_type":"duration","target_value":"s{\"symbol\":\"&gt;\",\"unit\":\"d\",\"number\":\"5\"}"}]</t>
-  </si>
-  <si>
-    <t>[{"target_value":"s{}","target_type":"","approvers":[{"type":"reporting_to","uuid":"","value":"1"},{"type":"reporting_to","uuid":"","value":"2"},{"type":"reporting_to","uuid":"","value":"3"},{"type":"reporting_to","uuid":"","value":"4"},{"type":"login_user_department_manager","uuid":"","value":""},{"type":"department_manager","uuid":"","value":"${organization_2.uuid}"},{"type":"employee","uuid":"","value":"b8a23753-0f75-11e7-9aa4-00163e007053"}],"uuid":"95e245f4-0f75-11e7-8ff3-00163e007053"},{"target_value":"s{\"department\":[\"696434ed-b965-11e7-b707-5254001aba5d\"],\"employee\":[]}","target_type":"sponsor","approvers":[{"type":"login_user_department_manager","uuid":"","value":""},{"type":"department_manager","uuid":"","value":"${organization_2.uuid}"},{"type":"employee","uuid":"","value":"b8a23753-0f75-11e7-9aa4-00163e007053"}],"uuid":""},{"uuid":"","approvers":[{"uuid":"","type":"login_user_department_manager","value":""}],"target_type":"duration","target_value":"s{\"symbol\":\"&lt;=\",\"unit\":\"d\",\"number\":\"4\"}"},{"uuid":"","approvers":[{"uuid":"","type":"login_user_department_manager","value":""},{"uuid":"","type":"department_manager","value":"${organization_1.uuid}"}],"target_type":"duration","target_value":"s{\"symbol\":\"==\",\"unit\":\"d\",\"number\":\"5\"}"},{"uuid":"","approvers":[{"uuid":"","type":"login_user_department_manager","value":""},{"uuid":"","type":"department_manager","value":"${organization_1.uuid}"},{"uuid":"","type":"employee","value":"b8a23753-0f75-11e7-9aa4-00163e007053"}],"target_type":"duration","target_value":"s{\"symbol\":\"&gt;=\",\"unit\":\"d\",\"number\":\"6\"}"}]</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>n</t>
+  </si>
+  <si>
+    <t>[{"uuid":"8ad63f15-be23-11e7-afef-5254001aba5d","approvers":[{"uuid":"","type":"reporting_to","value":"1"},{"uuid":"","type":"reporting_to","value":"2"},{"uuid":"","type":"reporting_to","value":"3"},{"uuid":"","type":"reporting_to","value":"4"},{"uuid":"","type":"login_user_department_manager","value":""},{"uuid":"","type":"department_manager","value":"${organization_2.uuid}"},{"uuid":"","type":"employee","value":"7e254521-b2e4-11e7-93d8-5254001aba5d"}],"target_type":"","target_value":"s{}"}]</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>[{"uuid":"8ad63f15-be23-11e7-afef-5254001aba5d","approvers":[{"uuid":"","type":"reporting_to","value":"1"},{"uuid":"","type":"reporting_to","value":"2"},{"uuid":"","type":"reporting_to","value":"3"},{"uuid":"","type":"reporting_to","value":"4"},{"uuid":"","type":"login_user_department_manager","value":""},{"uuid":"","type":"department_manager","value":"${organization_2.uuid}"},{"uuid":"","type":"employee","value":"7e254521-b2e4-11e7-93d8-5254001aba5d"}],"target_type":"","target_value":"s{}"},{"uuid":"","approvers":[{"uuid":"","type":"login_user_department_manager","value":""},{"uuid":"","type":"department_manager","value":"${organization_2.uuid}"},{"uuid":"","type":"employee","value":"7e254521-b2e4-11e7-93d8-5254001aba5d"}],"target_type":"sponsor","target_value":"s{\"department\":[\"696434ed-b965-11e7-b707-5254001aba5d\"],\"employee\":[]}"}]</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -909,7 +901,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D23" sqref="D23"/>
     </sheetView>
   </sheetViews>
@@ -974,7 +966,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G26"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
@@ -1014,16 +1006,16 @@
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B2" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C2" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="D2" t="s">
-        <v>54</v>
+        <v>108</v>
       </c>
       <c r="F2" t="s">
         <v>18</v>
@@ -1034,19 +1026,19 @@
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
+        <v>50</v>
+      </c>
+      <c r="B3" t="s">
         <v>51</v>
-      </c>
-      <c r="B3" t="s">
-        <v>52</v>
       </c>
       <c r="C3" t="s">
         <v>34</v>
       </c>
       <c r="D3" t="s">
-        <v>124</v>
+        <v>109</v>
       </c>
       <c r="F3" t="s">
-        <v>55</v>
+        <v>131</v>
       </c>
       <c r="G3" t="s">
         <v>33</v>
@@ -1054,16 +1046,16 @@
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B4" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C4" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="D4" t="s">
-        <v>58</v>
+        <v>132</v>
       </c>
       <c r="F4" t="s">
         <v>18</v>
@@ -1074,19 +1066,19 @@
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B5" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C5" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="D5" t="s">
-        <v>109</v>
+        <v>133</v>
       </c>
       <c r="F5" t="s">
-        <v>45</v>
+        <v>131</v>
       </c>
       <c r="G5" t="s">
         <v>33</v>
@@ -1094,19 +1086,19 @@
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>70</v>
+        <v>65</v>
       </c>
       <c r="B6" t="s">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="C6" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="D6" t="s">
-        <v>59</v>
+        <v>110</v>
       </c>
       <c r="E6" t="s">
-        <v>69</v>
+        <v>64</v>
       </c>
       <c r="F6" t="s">
         <v>18</v>
@@ -1117,22 +1109,22 @@
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>71</v>
+        <v>66</v>
       </c>
       <c r="B7" t="s">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="C7" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="D7" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="E7" t="s">
-        <v>64</v>
+        <v>59</v>
       </c>
       <c r="F7" t="s">
-        <v>45</v>
+        <v>131</v>
       </c>
       <c r="G7" t="s">
         <v>33</v>
@@ -1140,19 +1132,19 @@
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>67</v>
+        <v>62</v>
       </c>
       <c r="B8" t="s">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="C8" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="D8" t="s">
-        <v>73</v>
+        <v>112</v>
       </c>
       <c r="E8" t="s">
-        <v>66</v>
+        <v>61</v>
       </c>
       <c r="F8" t="s">
         <v>18</v>
@@ -1163,22 +1155,22 @@
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
-        <v>68</v>
+        <v>63</v>
       </c>
       <c r="B9" t="s">
+        <v>55</v>
+      </c>
+      <c r="C9" t="s">
+        <v>53</v>
+      </c>
+      <c r="D9" t="s">
+        <v>113</v>
+      </c>
+      <c r="E9" t="s">
         <v>60</v>
       </c>
-      <c r="C9" t="s">
-        <v>56</v>
-      </c>
-      <c r="D9" t="s">
-        <v>111</v>
-      </c>
-      <c r="E9" t="s">
-        <v>65</v>
-      </c>
       <c r="F9" t="s">
-        <v>45</v>
+        <v>131</v>
       </c>
       <c r="G9" t="s">
         <v>33</v>
@@ -1186,16 +1178,16 @@
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
-        <v>75</v>
+        <v>69</v>
       </c>
       <c r="B10" t="s">
-        <v>78</v>
+        <v>72</v>
       </c>
       <c r="C10" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="D10" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="F10" t="s">
         <v>18</v>
@@ -1206,19 +1198,19 @@
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
-        <v>76</v>
+        <v>70</v>
       </c>
       <c r="B11" t="s">
-        <v>74</v>
+        <v>68</v>
       </c>
       <c r="C11" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="D11" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="F11" t="s">
-        <v>45</v>
+        <v>131</v>
       </c>
       <c r="G11" t="s">
         <v>33</v>
@@ -1226,16 +1218,16 @@
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
-        <v>80</v>
+        <v>74</v>
       </c>
       <c r="B12" t="s">
-        <v>79</v>
+        <v>73</v>
       </c>
       <c r="C12" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="D12" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="F12" t="s">
         <v>18</v>
@@ -1246,19 +1238,19 @@
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
-        <v>84</v>
+        <v>78</v>
       </c>
       <c r="B13" t="s">
-        <v>79</v>
+        <v>73</v>
       </c>
       <c r="C13" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="D13" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="F13" t="s">
-        <v>45</v>
+        <v>131</v>
       </c>
       <c r="G13" t="s">
         <v>33</v>
@@ -1266,19 +1258,19 @@
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
-        <v>85</v>
+        <v>79</v>
       </c>
       <c r="B14" t="s">
-        <v>79</v>
+        <v>73</v>
       </c>
       <c r="C14" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="D14" t="s">
-        <v>129</v>
+        <v>118</v>
       </c>
       <c r="F14" t="s">
-        <v>45</v>
+        <v>131</v>
       </c>
       <c r="G14" t="s">
         <v>33</v>
@@ -1286,16 +1278,16 @@
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
-        <v>87</v>
+        <v>81</v>
       </c>
       <c r="B15" t="s">
-        <v>86</v>
+        <v>80</v>
       </c>
       <c r="C15" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="D15" t="s">
-        <v>116</v>
+        <v>119</v>
       </c>
       <c r="F15" t="s">
         <v>18</v>
@@ -1306,19 +1298,19 @@
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
-        <v>88</v>
+        <v>82</v>
       </c>
       <c r="B16" t="s">
-        <v>86</v>
+        <v>80</v>
       </c>
       <c r="C16" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="D16" t="s">
-        <v>117</v>
+        <v>120</v>
       </c>
       <c r="F16" t="s">
-        <v>45</v>
+        <v>131</v>
       </c>
       <c r="G16" t="s">
         <v>33</v>
@@ -1326,19 +1318,19 @@
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
-        <v>125</v>
+        <v>103</v>
       </c>
       <c r="B17" t="s">
-        <v>86</v>
+        <v>80</v>
       </c>
       <c r="C17" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="D17" t="s">
-        <v>130</v>
+        <v>121</v>
       </c>
       <c r="F17" t="s">
-        <v>45</v>
+        <v>131</v>
       </c>
       <c r="G17" t="s">
         <v>33</v>
@@ -1346,16 +1338,16 @@
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
-        <v>94</v>
+        <v>88</v>
       </c>
       <c r="B18" t="s">
-        <v>93</v>
+        <v>87</v>
       </c>
       <c r="C18" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="D18" t="s">
-        <v>118</v>
+        <v>122</v>
       </c>
       <c r="F18" t="s">
         <v>18</v>
@@ -1366,19 +1358,19 @@
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
-        <v>95</v>
+        <v>89</v>
       </c>
       <c r="B19" t="s">
-        <v>93</v>
+        <v>87</v>
       </c>
       <c r="C19" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="D19" t="s">
-        <v>119</v>
+        <v>123</v>
       </c>
       <c r="F19" t="s">
-        <v>45</v>
+        <v>131</v>
       </c>
       <c r="G19" t="s">
         <v>33</v>
@@ -1386,19 +1378,19 @@
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
-        <v>126</v>
+        <v>104</v>
       </c>
       <c r="B20" t="s">
-        <v>93</v>
+        <v>87</v>
       </c>
       <c r="C20" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="D20" t="s">
+        <v>124</v>
+      </c>
+      <c r="F20" t="s">
         <v>131</v>
-      </c>
-      <c r="F20" t="s">
-        <v>45</v>
       </c>
       <c r="G20" t="s">
         <v>33</v>
@@ -1406,16 +1398,16 @@
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
-        <v>101</v>
+        <v>95</v>
       </c>
       <c r="B21" t="s">
-        <v>98</v>
+        <v>92</v>
       </c>
       <c r="C21" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="D21" t="s">
-        <v>120</v>
+        <v>125</v>
       </c>
       <c r="F21" t="s">
         <v>18</v>
@@ -1426,19 +1418,19 @@
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
-        <v>102</v>
+        <v>96</v>
       </c>
       <c r="B22" t="s">
-        <v>98</v>
+        <v>92</v>
       </c>
       <c r="C22" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="D22" t="s">
-        <v>121</v>
+        <v>126</v>
       </c>
       <c r="F22" t="s">
-        <v>45</v>
+        <v>131</v>
       </c>
       <c r="G22" t="s">
         <v>33</v>
@@ -1446,19 +1438,19 @@
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
+        <v>105</v>
+      </c>
+      <c r="B23" t="s">
+        <v>92</v>
+      </c>
+      <c r="C23" t="s">
+        <v>53</v>
+      </c>
+      <c r="D23" t="s">
         <v>127</v>
       </c>
-      <c r="B23" t="s">
-        <v>98</v>
-      </c>
-      <c r="C23" t="s">
-        <v>56</v>
-      </c>
-      <c r="D23" t="s">
-        <v>132</v>
-      </c>
       <c r="F23" t="s">
-        <v>45</v>
+        <v>131</v>
       </c>
       <c r="G23" t="s">
         <v>33</v>
@@ -1466,16 +1458,16 @@
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
-        <v>104</v>
+        <v>98</v>
       </c>
       <c r="B24" t="s">
-        <v>103</v>
+        <v>97</v>
       </c>
       <c r="C24" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="D24" t="s">
-        <v>122</v>
+        <v>128</v>
       </c>
       <c r="F24" t="s">
         <v>18</v>
@@ -1486,19 +1478,19 @@
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
-        <v>105</v>
+        <v>99</v>
       </c>
       <c r="B25" t="s">
-        <v>103</v>
+        <v>97</v>
       </c>
       <c r="C25" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="D25" t="s">
-        <v>123</v>
+        <v>129</v>
       </c>
       <c r="F25" t="s">
-        <v>45</v>
+        <v>131</v>
       </c>
       <c r="G25" t="s">
         <v>33</v>
@@ -1506,19 +1498,19 @@
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
-        <v>128</v>
+        <v>106</v>
       </c>
       <c r="B26" t="s">
-        <v>103</v>
+        <v>97</v>
       </c>
       <c r="C26" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="D26" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
       <c r="F26" t="s">
-        <v>45</v>
+        <v>131</v>
       </c>
       <c r="G26" t="s">
         <v>33</v>
@@ -1604,7 +1596,7 @@
     </row>
     <row r="2" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B2" t="s">
         <v>29</v>
@@ -1631,7 +1623,7 @@
         <v>33</v>
       </c>
       <c r="J2" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="K2" t="s">
         <v>31</v>
@@ -1651,7 +1643,7 @@
     </row>
     <row r="3" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B3" t="s">
         <v>29</v>
@@ -1698,7 +1690,7 @@
     </row>
     <row r="4" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B4" t="s">
         <v>43</v>
@@ -1725,7 +1717,7 @@
         <v>33</v>
       </c>
       <c r="J4" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="K4" t="s">
         <v>31</v>
@@ -1737,7 +1729,7 @@
         <v>37</v>
       </c>
       <c r="N4" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="O4" t="s">
         <v>32</v>
@@ -1745,7 +1737,7 @@
     </row>
     <row r="5" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B5" t="s">
         <v>43</v>
@@ -1772,7 +1764,7 @@
         <v>33</v>
       </c>
       <c r="J5" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="K5" t="s">
         <v>31</v>
@@ -1784,7 +1776,7 @@
         <v>37</v>
       </c>
       <c r="N5" t="s">
-        <v>61</v>
+        <v>56</v>
       </c>
       <c r="O5" t="s">
         <v>32</v>
@@ -1792,7 +1784,7 @@
     </row>
     <row r="6" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>70</v>
+        <v>65</v>
       </c>
       <c r="B6" t="s">
         <v>43</v>
@@ -1810,7 +1802,7 @@
         <v>17</v>
       </c>
       <c r="G6" t="s">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="H6" t="s">
         <v>30</v>
@@ -1819,19 +1811,19 @@
         <v>33</v>
       </c>
       <c r="J6" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="K6" t="s">
         <v>31</v>
       </c>
       <c r="L6" t="s">
-        <v>62</v>
+        <v>57</v>
       </c>
       <c r="M6" t="s">
         <v>37</v>
       </c>
       <c r="N6" t="s">
-        <v>63</v>
+        <v>58</v>
       </c>
       <c r="O6" t="s">
         <v>32</v>
@@ -1839,7 +1831,7 @@
     </row>
     <row r="7" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>71</v>
+        <v>66</v>
       </c>
       <c r="B7" t="s">
         <v>43</v>
@@ -1857,7 +1849,7 @@
         <v>17</v>
       </c>
       <c r="G7" t="s">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="H7" t="s">
         <v>30</v>
@@ -1866,19 +1858,19 @@
         <v>33</v>
       </c>
       <c r="J7" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="K7" t="s">
         <v>31</v>
       </c>
       <c r="L7" t="s">
-        <v>62</v>
+        <v>57</v>
       </c>
       <c r="M7" t="s">
         <v>37</v>
       </c>
       <c r="N7" t="s">
-        <v>63</v>
+        <v>58</v>
       </c>
       <c r="O7" t="s">
         <v>32</v>
@@ -1886,7 +1878,7 @@
     </row>
     <row r="8" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>67</v>
+        <v>62</v>
       </c>
       <c r="B8" t="s">
         <v>43</v>
@@ -1904,7 +1896,7 @@
         <v>17</v>
       </c>
       <c r="G8" t="s">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="H8" t="s">
         <v>30</v>
@@ -1913,19 +1905,19 @@
         <v>33</v>
       </c>
       <c r="J8" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="K8" t="s">
         <v>31</v>
       </c>
       <c r="L8" t="s">
-        <v>62</v>
+        <v>57</v>
       </c>
       <c r="M8" t="s">
         <v>37</v>
       </c>
       <c r="N8" t="s">
-        <v>63</v>
+        <v>58</v>
       </c>
       <c r="O8" t="s">
         <v>32</v>
@@ -1933,7 +1925,7 @@
     </row>
     <row r="9" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
-        <v>68</v>
+        <v>63</v>
       </c>
       <c r="B9" t="s">
         <v>43</v>
@@ -1951,7 +1943,7 @@
         <v>17</v>
       </c>
       <c r="G9" t="s">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="H9" t="s">
         <v>30</v>
@@ -1960,19 +1952,19 @@
         <v>33</v>
       </c>
       <c r="J9" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="K9" t="s">
         <v>31</v>
       </c>
       <c r="L9" t="s">
-        <v>72</v>
+        <v>67</v>
       </c>
       <c r="M9" t="s">
         <v>37</v>
       </c>
       <c r="N9" t="s">
-        <v>63</v>
+        <v>58</v>
       </c>
       <c r="O9" t="s">
         <v>32</v>
@@ -1980,7 +1972,7 @@
     </row>
     <row r="10" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
-        <v>75</v>
+        <v>69</v>
       </c>
       <c r="B10" t="s">
         <v>43</v>
@@ -1998,7 +1990,7 @@
         <v>17</v>
       </c>
       <c r="G10" t="s">
-        <v>78</v>
+        <v>72</v>
       </c>
       <c r="H10" t="s">
         <v>30</v>
@@ -2007,19 +1999,19 @@
         <v>33</v>
       </c>
       <c r="J10" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="K10" t="s">
         <v>31</v>
       </c>
       <c r="L10" t="s">
-        <v>77</v>
+        <v>71</v>
       </c>
       <c r="M10" t="s">
         <v>37</v>
       </c>
       <c r="N10" t="s">
-        <v>83</v>
+        <v>77</v>
       </c>
       <c r="O10" t="s">
         <v>32</v>
@@ -2027,7 +2019,7 @@
     </row>
     <row r="11" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
-        <v>76</v>
+        <v>70</v>
       </c>
       <c r="B11" t="s">
         <v>43</v>
@@ -2045,7 +2037,7 @@
         <v>17</v>
       </c>
       <c r="G11" t="s">
-        <v>74</v>
+        <v>68</v>
       </c>
       <c r="H11" t="s">
         <v>30</v>
@@ -2054,19 +2046,19 @@
         <v>33</v>
       </c>
       <c r="J11" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="K11" t="s">
         <v>31</v>
       </c>
       <c r="L11" t="s">
-        <v>77</v>
+        <v>71</v>
       </c>
       <c r="M11" t="s">
         <v>37</v>
       </c>
       <c r="N11" t="s">
-        <v>83</v>
+        <v>77</v>
       </c>
       <c r="O11" t="s">
         <v>32</v>
@@ -2074,7 +2066,7 @@
     </row>
     <row r="12" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
-        <v>80</v>
+        <v>74</v>
       </c>
       <c r="B12" t="s">
         <v>43</v>
@@ -2092,7 +2084,7 @@
         <v>17</v>
       </c>
       <c r="G12" t="s">
-        <v>79</v>
+        <v>73</v>
       </c>
       <c r="H12" t="s">
         <v>30</v>
@@ -2101,19 +2093,19 @@
         <v>33</v>
       </c>
       <c r="J12" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="K12" t="s">
         <v>31</v>
       </c>
       <c r="L12" t="s">
-        <v>81</v>
+        <v>75</v>
       </c>
       <c r="M12" t="s">
-        <v>108</v>
+        <v>102</v>
       </c>
       <c r="N12" t="s">
-        <v>82</v>
+        <v>76</v>
       </c>
       <c r="O12" t="s">
         <v>32</v>
@@ -2121,7 +2113,7 @@
     </row>
     <row r="13" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
-        <v>84</v>
+        <v>78</v>
       </c>
       <c r="B13" t="s">
         <v>43</v>
@@ -2139,7 +2131,7 @@
         <v>17</v>
       </c>
       <c r="G13" t="s">
-        <v>79</v>
+        <v>73</v>
       </c>
       <c r="H13" t="s">
         <v>30</v>
@@ -2148,19 +2140,19 @@
         <v>33</v>
       </c>
       <c r="J13" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="K13" t="s">
         <v>31</v>
       </c>
       <c r="L13" t="s">
-        <v>81</v>
+        <v>75</v>
       </c>
       <c r="M13" t="s">
-        <v>108</v>
+        <v>102</v>
       </c>
       <c r="N13" t="s">
-        <v>82</v>
+        <v>76</v>
       </c>
       <c r="O13" t="s">
         <v>32</v>
@@ -2168,7 +2160,7 @@
     </row>
     <row r="14" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
-        <v>85</v>
+        <v>79</v>
       </c>
       <c r="B14" t="s">
         <v>43</v>
@@ -2186,7 +2178,7 @@
         <v>17</v>
       </c>
       <c r="G14" t="s">
-        <v>79</v>
+        <v>73</v>
       </c>
       <c r="H14" t="s">
         <v>30</v>
@@ -2195,19 +2187,19 @@
         <v>33</v>
       </c>
       <c r="J14" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="K14" t="s">
         <v>31</v>
       </c>
       <c r="L14" t="s">
-        <v>81</v>
+        <v>75</v>
       </c>
       <c r="M14" t="s">
-        <v>108</v>
+        <v>102</v>
       </c>
       <c r="N14" t="s">
-        <v>82</v>
+        <v>76</v>
       </c>
       <c r="O14" t="s">
         <v>32</v>
@@ -2215,7 +2207,7 @@
     </row>
     <row r="15" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
-        <v>87</v>
+        <v>81</v>
       </c>
       <c r="B15" t="s">
         <v>43</v>
@@ -2233,7 +2225,7 @@
         <v>17</v>
       </c>
       <c r="G15" t="s">
-        <v>86</v>
+        <v>80</v>
       </c>
       <c r="H15" t="s">
         <v>30</v>
@@ -2242,19 +2234,19 @@
         <v>33</v>
       </c>
       <c r="J15" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="K15" t="s">
         <v>31</v>
       </c>
       <c r="L15" t="s">
-        <v>89</v>
+        <v>83</v>
       </c>
       <c r="M15" t="s">
-        <v>108</v>
+        <v>102</v>
       </c>
       <c r="N15" t="s">
-        <v>91</v>
+        <v>85</v>
       </c>
       <c r="O15" t="s">
         <v>32</v>
@@ -2262,7 +2254,7 @@
     </row>
     <row r="16" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
-        <v>88</v>
+        <v>82</v>
       </c>
       <c r="B16" t="s">
         <v>43</v>
@@ -2280,7 +2272,7 @@
         <v>17</v>
       </c>
       <c r="G16" t="s">
-        <v>86</v>
+        <v>80</v>
       </c>
       <c r="H16" t="s">
         <v>30</v>
@@ -2289,19 +2281,19 @@
         <v>33</v>
       </c>
       <c r="J16" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="K16" t="s">
         <v>31</v>
       </c>
       <c r="L16" t="s">
-        <v>90</v>
+        <v>84</v>
       </c>
       <c r="M16" t="s">
-        <v>108</v>
+        <v>102</v>
       </c>
       <c r="N16" t="s">
-        <v>92</v>
+        <v>86</v>
       </c>
       <c r="O16" t="s">
         <v>32</v>
@@ -2309,7 +2301,7 @@
     </row>
     <row r="17" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
-        <v>125</v>
+        <v>103</v>
       </c>
       <c r="B17" t="s">
         <v>43</v>
@@ -2327,7 +2319,7 @@
         <v>17</v>
       </c>
       <c r="G17" t="s">
-        <v>86</v>
+        <v>80</v>
       </c>
       <c r="H17" t="s">
         <v>30</v>
@@ -2336,19 +2328,19 @@
         <v>33</v>
       </c>
       <c r="J17" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="K17" t="s">
         <v>31</v>
       </c>
       <c r="L17" t="s">
-        <v>90</v>
+        <v>84</v>
       </c>
       <c r="M17" t="s">
-        <v>108</v>
+        <v>102</v>
       </c>
       <c r="N17" t="s">
-        <v>92</v>
+        <v>86</v>
       </c>
       <c r="O17" t="s">
         <v>32</v>
@@ -2356,7 +2348,7 @@
     </row>
     <row r="18" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
-        <v>94</v>
+        <v>88</v>
       </c>
       <c r="B18" t="s">
         <v>43</v>
@@ -2374,7 +2366,7 @@
         <v>17</v>
       </c>
       <c r="G18" t="s">
-        <v>93</v>
+        <v>87</v>
       </c>
       <c r="H18" t="s">
         <v>30</v>
@@ -2383,19 +2375,19 @@
         <v>33</v>
       </c>
       <c r="J18" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="K18" t="s">
         <v>31</v>
       </c>
       <c r="L18" t="s">
-        <v>96</v>
+        <v>90</v>
       </c>
       <c r="M18" t="s">
-        <v>108</v>
+        <v>102</v>
       </c>
       <c r="N18" t="s">
-        <v>97</v>
+        <v>91</v>
       </c>
       <c r="O18" t="s">
         <v>32</v>
@@ -2403,7 +2395,7 @@
     </row>
     <row r="19" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
-        <v>95</v>
+        <v>89</v>
       </c>
       <c r="B19" t="s">
         <v>43</v>
@@ -2421,7 +2413,7 @@
         <v>17</v>
       </c>
       <c r="G19" t="s">
-        <v>93</v>
+        <v>87</v>
       </c>
       <c r="H19" t="s">
         <v>30</v>
@@ -2430,19 +2422,19 @@
         <v>33</v>
       </c>
       <c r="J19" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="K19" t="s">
         <v>31</v>
       </c>
       <c r="L19" t="s">
-        <v>96</v>
+        <v>90</v>
       </c>
       <c r="M19" t="s">
-        <v>108</v>
+        <v>102</v>
       </c>
       <c r="N19" t="s">
-        <v>97</v>
+        <v>91</v>
       </c>
       <c r="O19" t="s">
         <v>32</v>
@@ -2450,7 +2442,7 @@
     </row>
     <row r="20" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
-        <v>126</v>
+        <v>104</v>
       </c>
       <c r="B20" t="s">
         <v>43</v>
@@ -2468,7 +2460,7 @@
         <v>17</v>
       </c>
       <c r="G20" t="s">
-        <v>93</v>
+        <v>87</v>
       </c>
       <c r="H20" t="s">
         <v>30</v>
@@ -2477,19 +2469,19 @@
         <v>33</v>
       </c>
       <c r="J20" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="K20" t="s">
         <v>31</v>
       </c>
       <c r="L20" t="s">
-        <v>96</v>
+        <v>90</v>
       </c>
       <c r="M20" t="s">
-        <v>108</v>
+        <v>102</v>
       </c>
       <c r="N20" t="s">
-        <v>97</v>
+        <v>91</v>
       </c>
       <c r="O20" t="s">
         <v>32</v>
@@ -2497,7 +2489,7 @@
     </row>
     <row r="21" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
-        <v>101</v>
+        <v>95</v>
       </c>
       <c r="B21" t="s">
         <v>43</v>
@@ -2515,7 +2507,7 @@
         <v>17</v>
       </c>
       <c r="G21" t="s">
-        <v>98</v>
+        <v>92</v>
       </c>
       <c r="H21" t="s">
         <v>30</v>
@@ -2524,19 +2516,19 @@
         <v>33</v>
       </c>
       <c r="J21" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="K21" t="s">
         <v>31</v>
       </c>
       <c r="L21" t="s">
-        <v>100</v>
+        <v>94</v>
       </c>
       <c r="M21" t="s">
-        <v>108</v>
+        <v>102</v>
       </c>
       <c r="N21" t="s">
-        <v>99</v>
+        <v>93</v>
       </c>
       <c r="O21" t="s">
         <v>32</v>
@@ -2544,7 +2536,7 @@
     </row>
     <row r="22" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
-        <v>102</v>
+        <v>96</v>
       </c>
       <c r="B22" t="s">
         <v>43</v>
@@ -2562,7 +2554,7 @@
         <v>17</v>
       </c>
       <c r="G22" t="s">
-        <v>98</v>
+        <v>92</v>
       </c>
       <c r="H22" t="s">
         <v>30</v>
@@ -2571,19 +2563,19 @@
         <v>33</v>
       </c>
       <c r="J22" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="K22" t="s">
         <v>31</v>
       </c>
       <c r="L22" t="s">
-        <v>100</v>
+        <v>94</v>
       </c>
       <c r="M22" t="s">
-        <v>108</v>
+        <v>102</v>
       </c>
       <c r="N22" t="s">
-        <v>99</v>
+        <v>93</v>
       </c>
       <c r="O22" t="s">
         <v>32</v>
@@ -2591,7 +2583,7 @@
     </row>
     <row r="23" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
-        <v>127</v>
+        <v>105</v>
       </c>
       <c r="B23" t="s">
         <v>43</v>
@@ -2609,7 +2601,7 @@
         <v>17</v>
       </c>
       <c r="G23" t="s">
-        <v>98</v>
+        <v>92</v>
       </c>
       <c r="H23" t="s">
         <v>30</v>
@@ -2618,19 +2610,19 @@
         <v>33</v>
       </c>
       <c r="J23" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="K23" t="s">
         <v>31</v>
       </c>
       <c r="L23" t="s">
-        <v>100</v>
+        <v>94</v>
       </c>
       <c r="M23" t="s">
-        <v>108</v>
+        <v>102</v>
       </c>
       <c r="N23" t="s">
-        <v>99</v>
+        <v>93</v>
       </c>
       <c r="O23" t="s">
         <v>32</v>
@@ -2638,7 +2630,7 @@
     </row>
     <row r="24" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
-        <v>104</v>
+        <v>98</v>
       </c>
       <c r="B24" t="s">
         <v>43</v>
@@ -2656,7 +2648,7 @@
         <v>17</v>
       </c>
       <c r="G24" t="s">
-        <v>103</v>
+        <v>97</v>
       </c>
       <c r="H24" t="s">
         <v>30</v>
@@ -2665,19 +2657,19 @@
         <v>33</v>
       </c>
       <c r="J24" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="K24" t="s">
-        <v>134</v>
+        <v>107</v>
       </c>
       <c r="L24" t="s">
-        <v>107</v>
+        <v>101</v>
       </c>
       <c r="M24" t="s">
-        <v>108</v>
+        <v>102</v>
       </c>
       <c r="N24" t="s">
-        <v>106</v>
+        <v>100</v>
       </c>
       <c r="O24" t="s">
         <v>32</v>
@@ -2685,7 +2677,7 @@
     </row>
     <row r="25" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
-        <v>105</v>
+        <v>99</v>
       </c>
       <c r="B25" t="s">
         <v>43</v>
@@ -2703,7 +2695,7 @@
         <v>17</v>
       </c>
       <c r="G25" t="s">
-        <v>103</v>
+        <v>97</v>
       </c>
       <c r="H25" t="s">
         <v>30</v>
@@ -2712,19 +2704,19 @@
         <v>33</v>
       </c>
       <c r="J25" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="K25" t="s">
         <v>31</v>
       </c>
       <c r="L25" t="s">
-        <v>107</v>
+        <v>101</v>
       </c>
       <c r="M25" t="s">
-        <v>108</v>
+        <v>102</v>
       </c>
       <c r="N25" t="s">
-        <v>106</v>
+        <v>100</v>
       </c>
       <c r="O25" t="s">
         <v>32</v>
@@ -2732,7 +2724,7 @@
     </row>
     <row r="26" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
-        <v>128</v>
+        <v>106</v>
       </c>
       <c r="B26" t="s">
         <v>43</v>
@@ -2750,7 +2742,7 @@
         <v>17</v>
       </c>
       <c r="G26" t="s">
-        <v>103</v>
+        <v>97</v>
       </c>
       <c r="H26" t="s">
         <v>30</v>
@@ -2759,19 +2751,19 @@
         <v>33</v>
       </c>
       <c r="J26" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="K26" t="s">
         <v>31</v>
       </c>
       <c r="L26" t="s">
-        <v>107</v>
+        <v>101</v>
       </c>
       <c r="M26" t="s">
-        <v>108</v>
+        <v>102</v>
       </c>
       <c r="N26" t="s">
-        <v>106</v>
+        <v>100</v>
       </c>
       <c r="O26" t="s">
         <v>32</v>

--- a/sources/case/ApprovalTypes.xlsx
+++ b/sources/case/ApprovalTypes.xlsx
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="563" uniqueCount="134">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="563" uniqueCount="135">
   <si>
     <t>API</t>
   </si>
@@ -460,66 +460,27 @@
     <t>[{"uuid":"95db250e-0f75-11e7-8ff3-00163e007053","approvers":[{"uuid":"","type":"reporting_to","value":"1"},{"uuid":"","type":"reporting_to","value":"2"},{"uuid":"","type":"reporting_to","value":"3"},{"uuid":"","type":"reporting_to","value":"4"},{"uuid":"","type":"login_user_department_manager","value":""},{"uuid":"","type":"department_manager","value":"${organization_2.uuid}"},{"uuid":"","type":"employee","value":"7e254521-b2e4-11e7-93d8-5254001aba5d"}],"target_type":"","target_value":"s{}"}]</t>
   </si>
   <si>
-    <t>[{"target_value":"s{}","target_type":"","approvers":[{"type":"reporting_to","uuid":"","value":"1"},{"type":"reporting_to","uuid":"","value":"2"},{"type":"reporting_to","uuid":"","value":"3"},{"type":"reporting_to","uuid":"","value":"4"},{"type":"login_user_department_manager","uuid":"","value":""},{"type":"department_manager","uuid":"","value":"${organization_2.uuid}"},{"type":"employee","uuid":"","value":"7e254521-b2e4-11e7-93d8-5254001aba5d"}],"uuid":"95db250e-0f75-11e7-8ff3-00163e007053"},{"target_value":"s{\"department\":[\"696434ed-b965-11e7-b707-5254001aba5d\"],\"employee\":[]}","target_type":"sponsor","approvers":[{"type":"login_user_department_manager","uuid":"","value":""},{"type":"department_manager","uuid":"","value":"${organization_2.uuid}"},{"type":"employee","uuid":"","value":"7e254521-b2e4-11e7-93d8-5254001aba5d"}],"uuid":""}]</t>
-  </si>
-  <si>
     <t>[{"uuid":"b276c863-bd48-11e7-a179-5254001aba5d","approvers":[{"uuid":"","type":"reporting_to","value":"1"},{"uuid":"","type":"reporting_to","value":"2"},{"uuid":"","type":"reporting_to","value":"3"},{"uuid":"","type":"reporting_to","value":"4"},{"uuid":"","type":"login_user_department_manager","value":""},{"uuid":"","type":"department_manager","value":"${organization_2.uuid}"},{"uuid":"","type":"employee","value":"7e254521-b2e4-11e7-93d8-5254001aba5d"}],"target_type":"","target_value":"s{}"}]</t>
   </si>
   <si>
-    <t>[{"target_value":"s{}","target_type":"","approvers":[{"type":"reporting_to","uuid":"","value":"1"},{"type":"reporting_to","uuid":"","value":"2"},{"type":"reporting_to","uuid":"","value":"3"},{"type":"reporting_to","uuid":"","value":"4"},{"type":"login_user_department_manager","uuid":"","value":""},{"type":"department_manager","uuid":"","value":"${organization_2.uuid}"},{"type":"employee","uuid":"","value":"7e254521-b2e4-11e7-93d8-5254001aba5d"}],"uuid":"b276c863-bd48-11e7-a179-5254001aba5d"},{"target_value":"s{\"department\":[\"696434ed-b965-11e7-b707-5254001aba5d\"],\"employee\":[]}","target_type":"sponsor","approvers":[{"type":"login_user_department_manager","uuid":"","value":""},{"type":"department_manager","uuid":"","value":"${organization_2.uuid}"},{"type":"employee","uuid":"","value":"7e254521-b2e4-11e7-93d8-5254001aba5d"}],"uuid":""}]</t>
-  </si>
-  <si>
     <t>[{"target_value":"s{}","target_type":"","approvers":[{"type":"reporting_to","uuid":"","value":"1"},{"type":"reporting_to","uuid":"","value":"2"},{"type":"reporting_to","uuid":"","value":"3"},{"type":"reporting_to","uuid":"","value":"4"},{"type":"login_user_department_manager","uuid":"","value":""},{"type":"department_manager","uuid":"","value":"${organization_2.uuid}"},{"type":"employee","uuid":"","value":"7e254521-b2e4-11e7-93d8-5254001aba5d"}],"uuid":"95d9b755-0f75-11e7-8ff3-00163e007053"}]</t>
   </si>
   <si>
-    <t>[{"target_value":"s{}","target_type":"","approvers":[{"type":"reporting_to","uuid":"","value":"1"},{"type":"reporting_to","uuid":"","value":"2"},{"type":"reporting_to","uuid":"","value":"3"},{"type":"reporting_to","uuid":"","value":"4"},{"type":"login_user_department_manager","uuid":"","value":""},{"type":"department_manager","uuid":"","value":"${organization_2.uuid}"},{"type":"employee","uuid":"","value":"7e254521-b2e4-11e7-93d8-5254001aba5d"}],"uuid":"95d9b755-0f75-11e7-8ff3-00163e007053"},{"target_value":"s{\"department\":[\"696434ed-b965-11e7-b707-5254001aba5d\"],\"employee\":[]}","target_type":"sponsor","approvers":[{"type":"login_user_department_manager","uuid":"","value":""},{"type":"department_manager","uuid":"","value":"${organization_2.uuid}"},{"type":"employee","uuid":"","value":"7e254521-b2e4-11e7-93d8-5254001aba5d"}],"uuid":""}]</t>
-  </si>
-  <si>
     <t>[{"target_value":"s{}","target_type":"","approvers":[{"type":"reporting_to","uuid":"","value":"1"},{"type":"reporting_to","uuid":"","value":"2"},{"type":"reporting_to","uuid":"","value":"3"},{"type":"reporting_to","uuid":"","value":"4"},{"type":"login_user_department_manager","uuid":"","value":""},{"type":"department_manager","uuid":"","value":"${organization_2.uuid}"},{"type":"employee","uuid":"","value":"7e254521-b2e4-11e7-93d8-5254001aba5d"}],"uuid":"5389429f-b9f7-11e7-9997-5254001aba5d"}]</t>
   </si>
   <si>
-    <t>[{"target_value":"s{}","target_type":"","approvers":[{"type":"reporting_to","uuid":"","value":"1"},{"type":"reporting_to","uuid":"","value":"2"},{"type":"reporting_to","uuid":"","value":"3"},{"type":"reporting_to","uuid":"","value":"4"},{"type":"login_user_department_manager","uuid":"","value":""},{"type":"department_manager","uuid":"","value":"${organization_2.uuid}"},{"type":"employee","uuid":"","value":"7e254521-b2e4-11e7-93d8-5254001aba5d"}],"uuid":"5389429f-b9f7-11e7-9997-5254001aba5d"},{"target_value":"s{\"department\":[\"696434ed-b965-11e7-b707-5254001aba5d\"],\"employee\":[]}","target_type":"sponsor","approvers":[{"type":"login_user_department_manager","uuid":"","value":""},{"type":"department_manager","uuid":"","value":"${organization_2.uuid}"},{"type":"employee","uuid":"","value":"7e254521-b2e4-11e7-93d8-5254001aba5d"}],"uuid":""}]</t>
-  </si>
-  <si>
-    <t>[{"target_value":"s{}","target_type":"","approvers":[{"type":"reporting_to","uuid":"","value":"1"},{"type":"reporting_to","uuid":"","value":"2"},{"type":"reporting_to","uuid":"","value":"3"},{"type":"reporting_to","uuid":"","value":"4"},{"type":"login_user_department_manager","uuid":"","value":""},{"type":"department_manager","uuid":"","value":"${organization_2.uuid}"},{"type":"employee","uuid":"","value":"7e254521-b2e4-11e7-93d8-5254001aba5d"}],"uuid":"5389429f-b9f7-11e7-9997-5254001aba5d"},{"target_value":"s{\"department\":[\"696434ed-b965-11e7-b707-5254001aba5d\"],\"employee\":[]}","target_type":"sponsor","approvers":[{"type":"login_user_department_manager","uuid":"","value":""},{"type":"department_manager","uuid":"","value":"${organization_2.uuid}"},{"type":"employee","uuid":"","value":"7e254521-b2e4-11e7-93d8-5254001aba5d"}],"uuid":""},{"uuid":"","approvers":[{"uuid":"","type":"login_user_department_manager","value":""}],"target_type":"duration","target_value":"s{\"symbol\":\"&lt;\",\"unit\":\"d\",\"number\":\"5\"}"},{"uuid":"","approvers":[{"uuid":"","type":"login_user_department_manager","value":""},{"uuid":"","type":"department_manager","value":"${organization_1.uuid}"}],"target_type":"duration","target_value":"s{\"symbol\":\"==\",\"unit\":\"d\",\"number\":\"5\"}"},{"uuid":"","approvers":[{"uuid":"","type":"login_user_department_manager","value":""},{"uuid":"","type":"department_manager","value":"${organization_1.uuid}"},{"uuid":"","type":"employee","value":"7e254521-b2e4-11e7-93d8-5254001aba5d"}],"target_type":"duration","target_value":"s{\"symbol\":\"&gt;\",\"unit\":\"d\",\"number\":\"5\"}"}]</t>
-  </si>
-  <si>
     <t>[{"target_value":"s{}","target_type":"","approvers":[{"type":"reporting_to","uuid":"","value":"1"},{"type":"reporting_to","uuid":"","value":"2"},{"type":"reporting_to","uuid":"","value":"3"},{"type":"reporting_to","uuid":"","value":"4"},{"type":"login_user_department_manager","uuid":"","value":""},{"type":"department_manager","uuid":"","value":"${organization_2.uuid}"},{"type":"employee","uuid":"","value":"7e254521-b2e4-11e7-93d8-5254001aba5d"}],"uuid":"95e367b3-0f75-11e7-8ff3-00163e007053"}]</t>
   </si>
   <si>
-    <t>[{"target_value":"s{}","target_type":"","approvers":[{"type":"reporting_to","uuid":"","value":"1"},{"type":"reporting_to","uuid":"","value":"2"},{"type":"reporting_to","uuid":"","value":"3"},{"type":"reporting_to","uuid":"","value":"4"},{"type":"login_user_department_manager","uuid":"","value":""},{"type":"department_manager","uuid":"","value":"${organization_2.uuid}"},{"type":"employee","uuid":"","value":"7e254521-b2e4-11e7-93d8-5254001aba5d"}],"uuid":"95e367b3-0f75-11e7-8ff3-00163e007053"},{"target_value":"s{\"department\":[\"696434ed-b965-11e7-b707-5254001aba5d\"],\"employee\":[]}","target_type":"sponsor","approvers":[{"type":"login_user_department_manager","uuid":"","value":""},{"type":"department_manager","uuid":"","value":"${organization_2.uuid}"},{"type":"employee","uuid":"","value":"7e254521-b2e4-11e7-93d8-5254001aba5d"}],"uuid":""}]</t>
-  </si>
-  <si>
-    <t>[{"target_value":"s{}","target_type":"","approvers":[{"type":"reporting_to","uuid":"","value":"1"},{"type":"reporting_to","uuid":"","value":"2"},{"type":"reporting_to","uuid":"","value":"3"},{"type":"reporting_to","uuid":"","value":"4"},{"type":"login_user_department_manager","uuid":"","value":""},{"type":"department_manager","uuid":"","value":"${organization_2.uuid}"},{"type":"employee","uuid":"","value":"7e254521-b2e4-11e7-93d8-5254001aba5d"}],"uuid":"95e367b3-0f75-11e7-8ff3-00163e007053"},{"target_value":"s{\"department\":[\"696434ed-b965-11e7-b707-5254001aba5d\"],\"employee\":[]}","target_type":"sponsor","approvers":[{"type":"login_user_department_manager","uuid":"","value":""},{"type":"department_manager","uuid":"","value":"${organization_2.uuid}"},{"type":"employee","uuid":"","value":"7e254521-b2e4-11e7-93d8-5254001aba5d"}],"uuid":""},{"uuid":"","approvers":[{"uuid":"","type":"login_user_department_manager","value":""}],"target_type":"duration","target_value":"s{\"symbol\":\"&lt;\",\"unit\":\"d\",\"number\":\"5\"}"},{"uuid":"","approvers":[{"uuid":"","type":"login_user_department_manager","value":""},{"uuid":"","type":"department_manager","value":"${organization_1.uuid}"}],"target_type":"duration","target_value":"s{\"symbol\":\"==\",\"unit\":\"d\",\"number\":\"5\"}"},{"uuid":"","approvers":[{"uuid":"","type":"login_user_department_manager","value":""},{"uuid":"","type":"department_manager","value":"${organization_1.uuid}"},{"uuid":"","type":"employee","value":"7e254521-b2e4-11e7-93d8-5254001aba5d"}],"target_type":"duration","target_value":"s{\"symbol\":\"&gt;\",\"unit\":\"d\",\"number\":\"5\"}"}]</t>
-  </si>
-  <si>
     <t>[{"target_value":"s{}","target_type":"","approvers":[{"type":"reporting_to","uuid":"","value":"1"},{"type":"reporting_to","uuid":"","value":"2"},{"type":"reporting_to","uuid":"","value":"3"},{"type":"reporting_to","uuid":"","value":"4"},{"type":"login_user_department_manager","uuid":"","value":""},{"type":"department_manager","uuid":"","value":"${organization_2.uuid}"},{"type":"employee","uuid":"","value":"7e254521-b2e4-11e7-93d8-5254001aba5d"}],"uuid":"95e2f732-0f75-11e7-8ff3-00163e007053"}]</t>
   </si>
   <si>
-    <t>[{"target_value":"s{}","target_type":"","approvers":[{"type":"reporting_to","uuid":"","value":"1"},{"type":"reporting_to","uuid":"","value":"2"},{"type":"reporting_to","uuid":"","value":"3"},{"type":"reporting_to","uuid":"","value":"4"},{"type":"login_user_department_manager","uuid":"","value":""},{"type":"department_manager","uuid":"","value":"${organization_2.uuid}"},{"type":"employee","uuid":"","value":"7e254521-b2e4-11e7-93d8-5254001aba5d"}],"uuid":"95e2f732-0f75-11e7-8ff3-00163e007053"},{"target_value":"s{\"department\":[\"696434ed-b965-11e7-b707-5254001aba5d\"],\"employee\":[]}","target_type":"sponsor","approvers":[{"type":"login_user_department_manager","uuid":"","value":""},{"type":"department_manager","uuid":"","value":"${organization_2.uuid}"},{"type":"employee","uuid":"","value":"7e254521-b2e4-11e7-93d8-5254001aba5d"}],"uuid":""}]</t>
-  </si>
-  <si>
-    <t>[{"target_value":"s{}","target_type":"","approvers":[{"type":"reporting_to","uuid":"","value":"1"},{"type":"reporting_to","uuid":"","value":"2"},{"type":"reporting_to","uuid":"","value":"3"},{"type":"reporting_to","uuid":"","value":"4"},{"type":"login_user_department_manager","uuid":"","value":""},{"type":"department_manager","uuid":"","value":"${organization_2.uuid}"},{"type":"employee","uuid":"","value":"7e254521-b2e4-11e7-93d8-5254001aba5d"}],"uuid":"95e2f732-0f75-11e7-8ff3-00163e007053"},{"target_value":"s{\"department\":[\"696434ed-b965-11e7-b707-5254001aba5d\"],\"employee\":[]}","target_type":"sponsor","approvers":[{"type":"login_user_department_manager","uuid":"","value":""},{"type":"department_manager","uuid":"","value":"${organization_2.uuid}"},{"type":"employee","uuid":"","value":"7e254521-b2e4-11e7-93d8-5254001aba5d"}],"uuid":""},{"uuid":"","approvers":[{"uuid":"","type":"login_user_department_manager","value":""}],"target_type":"duration","target_value":"s{\"symbol\":\"&lt;\",\"unit\":\"d\",\"number\":\"5\"}"},{"uuid":"","approvers":[{"uuid":"","type":"login_user_department_manager","value":""},{"uuid":"","type":"department_manager","value":"${organization_1.uuid}"}],"target_type":"duration","target_value":"s{\"symbol\":\"==\",\"unit\":\"d\",\"number\":\"5\"}"},{"uuid":"","approvers":[{"uuid":"","type":"login_user_department_manager","value":""},{"uuid":"","type":"department_manager","value":"${organization_1.uuid}"},{"uuid":"","type":"employee","value":"7e254521-b2e4-11e7-93d8-5254001aba5d"}],"target_type":"duration","target_value":"s{\"symbol\":\"&gt;\",\"unit\":\"d\",\"number\":\"5\"}"}]</t>
-  </si>
-  <si>
     <t>[{"target_value":"s{}","target_type":"","approvers":[{"type":"reporting_to","uuid":"","value":"1"},{"type":"reporting_to","uuid":"","value":"2"},{"type":"reporting_to","uuid":"","value":"3"},{"type":"reporting_to","uuid":"","value":"4"},{"type":"login_user_department_manager","uuid":"","value":""},{"type":"department_manager","uuid":"","value":"${organization_2.uuid}"},{"type":"employee","uuid":"","value":"7e254521-b2e4-11e7-93d8-5254001aba5d"}],"uuid":"95e04b46-0f75-11e7-8ff3-00163e007053"}]</t>
   </si>
   <si>
-    <t>[{"target_value":"s{}","target_type":"","approvers":[{"type":"reporting_to","uuid":"","value":"1"},{"type":"reporting_to","uuid":"","value":"2"},{"type":"reporting_to","uuid":"","value":"3"},{"type":"reporting_to","uuid":"","value":"4"},{"type":"login_user_department_manager","uuid":"","value":""},{"type":"department_manager","uuid":"","value":"${organization_2.uuid}"},{"type":"employee","uuid":"","value":"7e254521-b2e4-11e7-93d8-5254001aba5d"}],"uuid":"95e04b46-0f75-11e7-8ff3-00163e007053"},{"target_value":"s{\"department\":[\"696434ed-b965-11e7-b707-5254001aba5d\"],\"employee\":[]}","target_type":"sponsor","approvers":[{"type":"login_user_department_manager","uuid":"","value":""},{"type":"department_manager","uuid":"","value":"${organization_2.uuid}"},{"type":"employee","uuid":"","value":"7e254521-b2e4-11e7-93d8-5254001aba5d"}],"uuid":""}]</t>
-  </si>
-  <si>
-    <t>[{"target_value":"s{}","target_type":"","approvers":[{"type":"reporting_to","uuid":"","value":"1"},{"type":"reporting_to","uuid":"","value":"2"},{"type":"reporting_to","uuid":"","value":"3"},{"type":"reporting_to","uuid":"","value":"4"},{"type":"login_user_department_manager","uuid":"","value":""},{"type":"department_manager","uuid":"","value":"${organization_2.uuid}"},{"type":"employee","uuid":"","value":"7e254521-b2e4-11e7-93d8-5254001aba5d"}],"uuid":"95e04b46-0f75-11e7-8ff3-00163e007053"},{"target_value":"s{\"department\":[\"696434ed-b965-11e7-b707-5254001aba5d\"],\"employee\":[]}","target_type":"sponsor","approvers":[{"type":"login_user_department_manager","uuid":"","value":""},{"type":"department_manager","uuid":"","value":"${organization_2.uuid}"},{"type":"employee","uuid":"","value":"7e254521-b2e4-11e7-93d8-5254001aba5d"}],"uuid":""},{"uuid":"","approvers":[{"uuid":"","type":"login_user_department_manager","value":""}],"target_type":"duration","target_value":"s{\"symbol\":\"&lt;\",\"unit\":\"d\",\"number\":\"5\"}"},{"uuid":"","approvers":[{"uuid":"","type":"login_user_department_manager","value":""},{"uuid":"","type":"department_manager","value":"${organization_1.uuid}"}],"target_type":"duration","target_value":"s{\"symbol\":\"==\",\"unit\":\"d\",\"number\":\"5\"}"},{"uuid":"","approvers":[{"uuid":"","type":"login_user_department_manager","value":""},{"uuid":"","type":"department_manager","value":"${organization_1.uuid}"},{"uuid":"","type":"employee","value":"7e254521-b2e4-11e7-93d8-5254001aba5d"}],"target_type":"duration","target_value":"s{\"symbol\":\"&gt;\",\"unit\":\"d\",\"number\":\"5\"}"}]</t>
-  </si>
-  <si>
     <t>[{"target_value":"s{}","target_type":"","approvers":[{"type":"reporting_to","uuid":"","value":"1"},{"type":"reporting_to","uuid":"","value":"2"},{"type":"reporting_to","uuid":"","value":"3"},{"type":"reporting_to","uuid":"","value":"4"},{"type":"login_user_department_manager","uuid":"","value":""},{"type":"department_manager","uuid":"","value":"${organization_2.uuid}"},{"type":"employee","uuid":"","value":"7e254521-b2e4-11e7-93d8-5254001aba5d"}],"uuid":"95e245f4-0f75-11e7-8ff3-00163e007053"}]</t>
   </si>
   <si>
-    <t>[{"target_value":"s{}","target_type":"","approvers":[{"type":"reporting_to","uuid":"","value":"1"},{"type":"reporting_to","uuid":"","value":"2"},{"type":"reporting_to","uuid":"","value":"3"},{"type":"reporting_to","uuid":"","value":"4"},{"type":"login_user_department_manager","uuid":"","value":""},{"type":"department_manager","uuid":"","value":"${organization_2.uuid}"},{"type":"employee","uuid":"","value":"7e254521-b2e4-11e7-93d8-5254001aba5d"}],"uuid":"95e245f4-0f75-11e7-8ff3-00163e007053"},{"target_value":"s{\"department\":[\"696434ed-b965-11e7-b707-5254001aba5d\"],\"employee\":[]}","target_type":"sponsor","approvers":[{"type":"login_user_department_manager","uuid":"","value":""},{"type":"department_manager","uuid":"","value":"${organization_2.uuid}"},{"type":"employee","uuid":"","value":"7e254521-b2e4-11e7-93d8-5254001aba5d"}],"uuid":""}]</t>
-  </si>
-  <si>
-    <t>[{"target_value":"s{}","target_type":"","approvers":[{"type":"reporting_to","uuid":"","value":"1"},{"type":"reporting_to","uuid":"","value":"2"},{"type":"reporting_to","uuid":"","value":"3"},{"type":"reporting_to","uuid":"","value":"4"},{"type":"login_user_department_manager","uuid":"","value":""},{"type":"department_manager","uuid":"","value":"${organization_2.uuid}"},{"type":"employee","uuid":"","value":"7e254521-b2e4-11e7-93d8-5254001aba5d"}],"uuid":"95e245f4-0f75-11e7-8ff3-00163e007053"},{"target_value":"s{\"department\":[\"696434ed-b965-11e7-b707-5254001aba5d\"],\"employee\":[]}","target_type":"sponsor","approvers":[{"type":"login_user_department_manager","uuid":"","value":""},{"type":"department_manager","uuid":"","value":"${organization_2.uuid}"},{"type":"employee","uuid":"","value":"7e254521-b2e4-11e7-93d8-5254001aba5d"}],"uuid":""},{"uuid":"","approvers":[{"uuid":"","type":"login_user_department_manager","value":""}],"target_type":"duration","target_value":"s{\"symbol\":\"&lt;=\",\"unit\":\"d\",\"number\":\"4\"}"},{"uuid":"","approvers":[{"uuid":"","type":"login_user_department_manager","value":""},{"uuid":"","type":"department_manager","value":"${organization_1.uuid}"}],"target_type":"duration","target_value":"s{\"symbol\":\"==\",\"unit\":\"d\",\"number\":\"5\"}"},{"uuid":"","approvers":[{"uuid":"","type":"login_user_department_manager","value":""},{"uuid":"","type":"department_manager","value":"${organization_1.uuid}"},{"uuid":"","type":"employee","value":"7e254521-b2e4-11e7-93d8-5254001aba5d"}],"target_type":"duration","target_value":"s{\"symbol\":\"&gt;=\",\"unit\":\"d\",\"number\":\"6\"}"}]</t>
-  </si>
-  <si>
     <t>[{"employee_id":"b8a23753-0f75-11e7-9aa4-00163e007053"}]</t>
   </si>
   <si>
@@ -527,7 +488,52 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>[{"uuid":"8ad63f15-be23-11e7-afef-5254001aba5d","approvers":[{"uuid":"","type":"reporting_to","value":"1"},{"uuid":"","type":"reporting_to","value":"2"},{"uuid":"","type":"reporting_to","value":"3"},{"uuid":"","type":"reporting_to","value":"4"},{"uuid":"","type":"login_user_department_manager","value":""},{"uuid":"","type":"department_manager","value":"${organization_2.uuid}"},{"uuid":"","type":"employee","value":"7e254521-b2e4-11e7-93d8-5254001aba5d"}],"target_type":"","target_value":"s{}"},{"uuid":"","approvers":[{"uuid":"","type":"login_user_department_manager","value":""},{"uuid":"","type":"department_manager","value":"${organization_2.uuid}"},{"uuid":"","type":"employee","value":"7e254521-b2e4-11e7-93d8-5254001aba5d"}],"target_type":"sponsor","target_value":"s{\"department\":[\"696434ed-b965-11e7-b707-5254001aba5d\"],\"employee\":[]}"}]</t>
+    <t>[{"target_value":"s{}","target_type":"","approvers":[{"type":"reporting_to","uuid":"","value":"1"},{"type":"reporting_to","uuid":"","value":"2"},{"type":"reporting_to","uuid":"","value":"3"},{"type":"reporting_to","uuid":"","value":"4"},{"type":"login_user_department_manager","uuid":"","value":""},{"type":"department_manager","uuid":"","value":"${organization_2.uuid}"},{"type":"employee","uuid":"","value":"7e254521-b2e4-11e7-93d8-5254001aba5d"}],"uuid":"95d9b755-0f75-11e7-8ff3-00163e007053"},{"target_value":"s{\"department\":[\"a62ef58e-beb4-11e7-98c2-5254001aba5d\"],\"employee\":[]}","target_type":"sponsor","approvers":[{"type":"login_user_department_manager","uuid":"","value":""},{"type":"department_manager","uuid":"","value":"${organization_2.uuid}"},{"type":"employee","uuid":"","value":"7e254521-b2e4-11e7-93d8-5254001aba5d"}],"uuid":""}]</t>
+  </si>
+  <si>
+    <t>[{"target_value":"s{}","target_type":"","approvers":[{"type":"reporting_to","uuid":"","value":"1"},{"type":"reporting_to","uuid":"","value":"2"},{"type":"reporting_to","uuid":"","value":"3"},{"type":"reporting_to","uuid":"","value":"4"},{"type":"login_user_department_manager","uuid":"","value":""},{"type":"department_manager","uuid":"","value":"${organization_2.uuid}"},{"type":"employee","uuid":"","value":"7e254521-b2e4-11e7-93d8-5254001aba5d"}],"uuid":"5389429f-b9f7-11e7-9997-5254001aba5d"},{"target_value":"s{\"department\":[\"a62ef58e-beb4-11e7-98c2-5254001aba5d\"],\"employee\":[]}","target_type":"sponsor","approvers":[{"type":"login_user_department_manager","uuid":"","value":""},{"type":"department_manager","uuid":"","value":"${organization_2.uuid}"},{"type":"employee","uuid":"","value":"7e254521-b2e4-11e7-93d8-5254001aba5d"}],"uuid":""}]</t>
+  </si>
+  <si>
+    <t>[{"target_value":"s{}","target_type":"","approvers":[{"type":"reporting_to","uuid":"","value":"1"},{"type":"reporting_to","uuid":"","value":"2"},{"type":"reporting_to","uuid":"","value":"3"},{"type":"reporting_to","uuid":"","value":"4"},{"type":"login_user_department_manager","uuid":"","value":""},{"type":"department_manager","uuid":"","value":"${organization_2.uuid}"},{"type":"employee","uuid":"","value":"7e254521-b2e4-11e7-93d8-5254001aba5d"}],"uuid":"5389429f-b9f7-11e7-9997-5254001aba5d"},{"target_value":"s{\"department\":[\"a62ef58e-beb4-11e7-98c2-5254001aba5d\"],\"employee\":[]}","target_type":"sponsor","approvers":[{"type":"login_user_department_manager","uuid":"","value":""},{"type":"department_manager","uuid":"","value":"${organization_2.uuid}"},{"type":"employee","uuid":"","value":"7e254521-b2e4-11e7-93d8-5254001aba5d"}],"uuid":""},{"uuid":"","approvers":[{"uuid":"","type":"login_user_department_manager","value":""}],"target_type":"duration","target_value":"s{\"symbol\":\"&lt;\",\"unit\":\"d\",\"number\":\"5\"}"},{"uuid":"","approvers":[{"uuid":"","type":"login_user_department_manager","value":""},{"uuid":"","type":"department_manager","value":"${organization_1.uuid}"}],"target_type":"duration","target_value":"s{\"symbol\":\"==\",\"unit\":\"d\",\"number\":\"5\"}"},{"uuid":"","approvers":[{"uuid":"","type":"login_user_department_manager","value":""},{"uuid":"","type":"department_manager","value":"${organization_1.uuid}"},{"uuid":"","type":"employee","value":"7e254521-b2e4-11e7-93d8-5254001aba5d"}],"target_type":"duration","target_value":"s{\"symbol\":\"&gt;\",\"unit\":\"d\",\"number\":\"5\"}"}]</t>
+  </si>
+  <si>
+    <t>[{"target_value":"s{}","target_type":"","approvers":[{"type":"reporting_to","uuid":"","value":"1"},{"type":"reporting_to","uuid":"","value":"2"},{"type":"reporting_to","uuid":"","value":"3"},{"type":"reporting_to","uuid":"","value":"4"},{"type":"login_user_department_manager","uuid":"","value":""},{"type":"department_manager","uuid":"","value":"${organization_2.uuid}"},{"type":"employee","uuid":"","value":"7e254521-b2e4-11e7-93d8-5254001aba5d"}],"uuid":"95e367b3-0f75-11e7-8ff3-00163e007053"},{"target_value":"s{\"department\":[\"a62ef58e-beb4-11e7-98c2-5254001aba5d\"],\"employee\":[]}","target_type":"sponsor","approvers":[{"type":"login_user_department_manager","uuid":"","value":""},{"type":"department_manager","uuid":"","value":"${organization_2.uuid}"},{"type":"employee","uuid":"","value":"7e254521-b2e4-11e7-93d8-5254001aba5d"}],"uuid":""}]</t>
+  </si>
+  <si>
+    <t>[{"target_value":"s{}","target_type":"","approvers":[{"type":"reporting_to","uuid":"","value":"1"},{"type":"reporting_to","uuid":"","value":"2"},{"type":"reporting_to","uuid":"","value":"3"},{"type":"reporting_to","uuid":"","value":"4"},{"type":"login_user_department_manager","uuid":"","value":""},{"type":"department_manager","uuid":"","value":"${organization_2.uuid}"},{"type":"employee","uuid":"","value":"7e254521-b2e4-11e7-93d8-5254001aba5d"}],"uuid":"95e367b3-0f75-11e7-8ff3-00163e007053"},{"target_value":"s{\"department\":[\"a62ef58e-beb4-11e7-98c2-5254001aba5d\"],\"employee\":[]}","target_type":"sponsor","approvers":[{"type":"login_user_department_manager","uuid":"","value":""},{"type":"department_manager","uuid":"","value":"${organization_2.uuid}"},{"type":"employee","uuid":"","value":"7e254521-b2e4-11e7-93d8-5254001aba5d"}],"uuid":""},{"uuid":"","approvers":[{"uuid":"","type":"login_user_department_manager","value":""}],"target_type":"duration","target_value":"s{\"symbol\":\"&lt;\",\"unit\":\"d\",\"number\":\"5\"}"},{"uuid":"","approvers":[{"uuid":"","type":"login_user_department_manager","value":""},{"uuid":"","type":"department_manager","value":"${organization_1.uuid}"}],"target_type":"duration","target_value":"s{\"symbol\":\"==\",\"unit\":\"d\",\"number\":\"5\"}"},{"uuid":"","approvers":[{"uuid":"","type":"login_user_department_manager","value":""},{"uuid":"","type":"department_manager","value":"${organization_1.uuid}"},{"uuid":"","type":"employee","value":"7e254521-b2e4-11e7-93d8-5254001aba5d"}],"target_type":"duration","target_value":"s{\"symbol\":\"&gt;\",\"unit\":\"d\",\"number\":\"5\"}"}]</t>
+  </si>
+  <si>
+    <t>[{"target_value":"s{}","target_type":"","approvers":[{"type":"reporting_to","uuid":"","value":"1"},{"type":"reporting_to","uuid":"","value":"2"},{"type":"reporting_to","uuid":"","value":"3"},{"type":"reporting_to","uuid":"","value":"4"},{"type":"login_user_department_manager","uuid":"","value":""},{"type":"department_manager","uuid":"","value":"${organization_2.uuid}"},{"type":"employee","uuid":"","value":"7e254521-b2e4-11e7-93d8-5254001aba5d"}],"uuid":"95e2f732-0f75-11e7-8ff3-00163e007053"},{"target_value":"s{\"department\":[\"a62ef58e-beb4-11e7-98c2-5254001aba5d\"],\"employee\":[]}","target_type":"sponsor","approvers":[{"type":"login_user_department_manager","uuid":"","value":""},{"type":"department_manager","uuid":"","value":"${organization_2.uuid}"},{"type":"employee","uuid":"","value":"7e254521-b2e4-11e7-93d8-5254001aba5d"}],"uuid":""}]</t>
+  </si>
+  <si>
+    <t>[{"target_value":"s{}","target_type":"","approvers":[{"type":"reporting_to","uuid":"","value":"1"},{"type":"reporting_to","uuid":"","value":"2"},{"type":"reporting_to","uuid":"","value":"3"},{"type":"reporting_to","uuid":"","value":"4"},{"type":"login_user_department_manager","uuid":"","value":""},{"type":"department_manager","uuid":"","value":"${organization_2.uuid}"},{"type":"employee","uuid":"","value":"7e254521-b2e4-11e7-93d8-5254001aba5d"}],"uuid":"95e2f732-0f75-11e7-8ff3-00163e007053"},{"target_value":"s{\"department\":[\"a62ef58e-beb4-11e7-98c2-5254001aba5d\"],\"employee\":[]}","target_type":"sponsor","approvers":[{"type":"login_user_department_manager","uuid":"","value":""},{"type":"department_manager","uuid":"","value":"${organization_2.uuid}"},{"type":"employee","uuid":"","value":"7e254521-b2e4-11e7-93d8-5254001aba5d"}],"uuid":""},{"uuid":"","approvers":[{"uuid":"","type":"login_user_department_manager","value":""}],"target_type":"duration","target_value":"s{\"symbol\":\"&lt;\",\"unit\":\"d\",\"number\":\"5\"}"},{"uuid":"","approvers":[{"uuid":"","type":"login_user_department_manager","value":""},{"uuid":"","type":"department_manager","value":"${organization_1.uuid}"}],"target_type":"duration","target_value":"s{\"symbol\":\"==\",\"unit\":\"d\",\"number\":\"5\"}"},{"uuid":"","approvers":[{"uuid":"","type":"login_user_department_manager","value":""},{"uuid":"","type":"department_manager","value":"${organization_1.uuid}"},{"uuid":"","type":"employee","value":"7e254521-b2e4-11e7-93d8-5254001aba5d"}],"target_type":"duration","target_value":"s{\"symbol\":\"&gt;\",\"unit\":\"d\",\"number\":\"5\"}"}]</t>
+  </si>
+  <si>
+    <t>[{"target_value":"s{}","target_type":"","approvers":[{"type":"reporting_to","uuid":"","value":"1"},{"type":"reporting_to","uuid":"","value":"2"},{"type":"reporting_to","uuid":"","value":"3"},{"type":"reporting_to","uuid":"","value":"4"},{"type":"login_user_department_manager","uuid":"","value":""},{"type":"department_manager","uuid":"","value":"${organization_2.uuid}"},{"type":"employee","uuid":"","value":"7e254521-b2e4-11e7-93d8-5254001aba5d"}],"uuid":"95e04b46-0f75-11e7-8ff3-00163e007053"},{"target_value":"s{\"department\":[\"a62ef58e-beb4-11e7-98c2-5254001aba5d\"],\"employee\":[]}","target_type":"sponsor","approvers":[{"type":"login_user_department_manager","uuid":"","value":""},{"type":"department_manager","uuid":"","value":"${organization_2.uuid}"},{"type":"employee","uuid":"","value":"7e254521-b2e4-11e7-93d8-5254001aba5d"}],"uuid":""}]</t>
+  </si>
+  <si>
+    <t>[{"target_value":"s{}","target_type":"","approvers":[{"type":"reporting_to","uuid":"","value":"1"},{"type":"reporting_to","uuid":"","value":"2"},{"type":"reporting_to","uuid":"","value":"3"},{"type":"reporting_to","uuid":"","value":"4"},{"type":"login_user_department_manager","uuid":"","value":""},{"type":"department_manager","uuid":"","value":"${organization_2.uuid}"},{"type":"employee","uuid":"","value":"7e254521-b2e4-11e7-93d8-5254001aba5d"}],"uuid":"95e04b46-0f75-11e7-8ff3-00163e007053"},{"target_value":"s{\"department\":[\"a62ef58e-beb4-11e7-98c2-5254001aba5d\"],\"employee\":[]}","target_type":"sponsor","approvers":[{"type":"login_user_department_manager","uuid":"","value":""},{"type":"department_manager","uuid":"","value":"${organization_2.uuid}"},{"type":"employee","uuid":"","value":"7e254521-b2e4-11e7-93d8-5254001aba5d"}],"uuid":""},{"uuid":"","approvers":[{"uuid":"","type":"login_user_department_manager","value":""}],"target_type":"duration","target_value":"s{\"symbol\":\"&lt;\",\"unit\":\"d\",\"number\":\"5\"}"},{"uuid":"","approvers":[{"uuid":"","type":"login_user_department_manager","value":""},{"uuid":"","type":"department_manager","value":"${organization_1.uuid}"}],"target_type":"duration","target_value":"s{\"symbol\":\"==\",\"unit\":\"d\",\"number\":\"5\"}"},{"uuid":"","approvers":[{"uuid":"","type":"login_user_department_manager","value":""},{"uuid":"","type":"department_manager","value":"${organization_1.uuid}"},{"uuid":"","type":"employee","value":"7e254521-b2e4-11e7-93d8-5254001aba5d"}],"target_type":"duration","target_value":"s{\"symbol\":\"&gt;\",\"unit\":\"d\",\"number\":\"5\"}"}]</t>
+  </si>
+  <si>
+    <t>[{"target_value":"s{}","target_type":"","approvers":[{"type":"reporting_to","uuid":"","value":"1"},{"type":"reporting_to","uuid":"","value":"2"},{"type":"reporting_to","uuid":"","value":"3"},{"type":"reporting_to","uuid":"","value":"4"},{"type":"login_user_department_manager","uuid":"","value":""},{"type":"department_manager","uuid":"","value":"${organization_2.uuid}"},{"type":"employee","uuid":"","value":"7e254521-b2e4-11e7-93d8-5254001aba5d"}],"uuid":"95e245f4-0f75-11e7-8ff3-00163e007053"},{"target_value":"s{\"department\":[\"a62ef58e-beb4-11e7-98c2-5254001aba5d\"],\"employee\":[]}","target_type":"sponsor","approvers":[{"type":"login_user_department_manager","uuid":"","value":""},{"type":"department_manager","uuid":"","value":"${organization_2.uuid}"},{"type":"employee","uuid":"","value":"7e254521-b2e4-11e7-93d8-5254001aba5d"}],"uuid":""}]</t>
+  </si>
+  <si>
+    <t>[{"target_value":"s{}","target_type":"","approvers":[{"type":"reporting_to","uuid":"","value":"1"},{"type":"reporting_to","uuid":"","value":"2"},{"type":"reporting_to","uuid":"","value":"3"},{"type":"reporting_to","uuid":"","value":"4"},{"type":"login_user_department_manager","uuid":"","value":""},{"type":"department_manager","uuid":"","value":"${organization_2.uuid}"},{"type":"employee","uuid":"","value":"7e254521-b2e4-11e7-93d8-5254001aba5d"}],"uuid":"95e245f4-0f75-11e7-8ff3-00163e007053"},{"target_value":"s{\"department\":[\"a62ef58e-beb4-11e7-98c2-5254001aba5d\"],\"employee\":[]}","target_type":"sponsor","approvers":[{"type":"login_user_department_manager","uuid":"","value":""},{"type":"department_manager","uuid":"","value":"${organization_2.uuid}"},{"type":"employee","uuid":"","value":"7e254521-b2e4-11e7-93d8-5254001aba5d"}],"uuid":""},{"uuid":"","approvers":[{"uuid":"","type":"login_user_department_manager","value":""}],"target_type":"duration","target_value":"s{\"symbol\":\"&lt;=\",\"unit\":\"d\",\"number\":\"4\"}"},{"uuid":"","approvers":[{"uuid":"","type":"login_user_department_manager","value":""},{"uuid":"","type":"department_manager","value":"${organization_1.uuid}"}],"target_type":"duration","target_value":"s{\"symbol\":\"==\",\"unit\":\"d\",\"number\":\"5\"}"},{"uuid":"","approvers":[{"uuid":"","type":"login_user_department_manager","value":""},{"uuid":"","type":"department_manager","value":"${organization_1.uuid}"},{"uuid":"","type":"employee","value":"7e254521-b2e4-11e7-93d8-5254001aba5d"}],"target_type":"duration","target_value":"s{\"symbol\":\"&gt;=\",\"unit\":\"d\",\"number\":\"6\"}"}]</t>
+  </si>
+  <si>
+    <t>[{"uuid":"8ad63f15-be23-11e7-afef-5254001aba5d","approvers":[{"uuid":"","type":"reporting_to","value":"1"},{"uuid":"","type":"reporting_to","value":"2"},{"uuid":"","type":"reporting_to","value":"3"},{"uuid":"","type":"reporting_to","value":"4"},{"uuid":"","type":"login_user_department_manager","value":""},{"uuid":"","type":"department_manager","value":"${organization_2.uuid}"},{"uuid":"","type":"employee","value":"7e254521-b2e4-11e7-93d8-5254001aba5d"}],"target_type":"","target_value":"s{}"},{"uuid":"","approvers":[{"uuid":"","type":"login_user_department_manager","value":""},{"uuid":"","type":"department_manager","value":"${organization_2.uuid}"},{"uuid":"","type":"employee","value":"7e254521-b2e4-11e7-93d8-5254001aba5d"}],"target_type":"sponsor","target_value":"s{\"department\":[\"a62ef58e-beb4-11e7-98c2-5254001aba5d\"],\"employee\":[]}"},{"uuid":"","approvers":[{"uuid":"","type":"login_user_department_manager","value":""},{"uuid":"","type":"employee","value":"7e254521-b2e4-11e7-93d8-5254001aba5d"},{"uuid":"","type":"employee","value":"b8a23753-0f75-11e7-9aa4-00163e007053"}],"target_type":"sponsor","target_value":"s{\"department\":[\"a72987b1-beb4-11e7-98c2-5254001aba5d\"],\"employee\":[]}"}]</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>[{"target_value":"s{}","target_type":"","approvers":[{"type":"reporting_to","uuid":"","value":"1"},{"type":"reporting_to","uuid":"","value":"2"},{"type":"reporting_to","uuid":"","value":"3"},{"type":"reporting_to","uuid":"","value":"4"},{"type":"login_user_department_manager","uuid":"","value":""},{"type":"department_manager","uuid":"","value":"${organization_2.uuid}"},{"type":"employee","uuid":"","value":"7e254521-b2e4-11e7-93d8-5254001aba5d"}],"uuid":"95db250e-0f75-11e7-8ff3-00163e007053"},{"target_value":"s{\"department\":[\"a62ef58e-beb4-11e7-98c2-5254001aba5d\"],\"employee\":[]}","target_type":"sponsor","approvers":[{"type":"login_user_department_manager","uuid":"","value":""},{"type":"department_manager","uuid":"","value":"${organization_2.uuid}"},{"type":"employee","uuid":"","value":"7e254521-b2e4-11e7-93d8-5254001aba5d"}],"uuid":""},{"uuid":"","approvers":[{"uuid":"","type":"login_user_department_manager","value":""},{"uuid":"","type":"employee","value":"7e254521-b2e4-11e7-93d8-5254001aba5d"},{"uuid":"","type":"employee","value":"b8a23753-0f75-11e7-9aa4-00163e007053"}],"target_type":"sponsor","target_value":"s{\"department\":[\"a72987b1-beb4-11e7-98c2-5254001aba5d\"],\"employee\":[]}"}]</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>[{"target_value":"s{}","target_type":"","approvers":[{"type":"reporting_to","uuid":"","value":"1"},{"type":"reporting_to","uuid":"","value":"2"},{"type":"reporting_to","uuid":"","value":"3"},{"type":"reporting_to","uuid":"","value":"4"},{"type":"login_user_department_manager","uuid":"","value":""},{"type":"department_manager","uuid":"","value":"${organization_2.uuid}"},{"type":"employee","uuid":"","value":"7e254521-b2e4-11e7-93d8-5254001aba5d"}],"uuid":"b276c863-bd48-11e7-a179-5254001aba5d"},{"target_value":"s{\"department\":[\"a62ef58e-beb4-11e7-98c2-5254001aba5d\"],\"employee\":[]}","target_type":"sponsor","approvers":[{"type":"login_user_department_manager","uuid":"","value":""},{"type":"department_manager","uuid":"","value":"${organization_2.uuid}"},{"type":"employee","uuid":"","value":"7e254521-b2e4-11e7-93d8-5254001aba5d"}],"uuid":""},{"uuid":"","approvers":[{"uuid":"","type":"login_user_department_manager","value":""},{"uuid":"","type":"employee","value":"7e254521-b2e4-11e7-93d8-5254001aba5d"},{"uuid":"","type":"employee","value":"b8a23753-0f75-11e7-9aa4-00163e007053"}],"target_type":"sponsor","target_value":"s{\"department\":[\"a72987b1-beb4-11e7-98c2-5254001aba5d\"],\"employee\":[]}"}]</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Offboard_resign1</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -967,7 +973,7 @@
   <dimension ref="A1:G26"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C9" sqref="C9"/>
+      <selection activeCell="C19" sqref="C19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1038,7 +1044,7 @@
         <v>109</v>
       </c>
       <c r="F3" t="s">
-        <v>131</v>
+        <v>118</v>
       </c>
       <c r="G3" t="s">
         <v>33</v>
@@ -1055,7 +1061,7 @@
         <v>54</v>
       </c>
       <c r="D4" t="s">
-        <v>132</v>
+        <v>119</v>
       </c>
       <c r="F4" t="s">
         <v>18</v>
@@ -1075,10 +1081,10 @@
         <v>53</v>
       </c>
       <c r="D5" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="F5" t="s">
-        <v>131</v>
+        <v>118</v>
       </c>
       <c r="G5" t="s">
         <v>33</v>
@@ -1086,7 +1092,7 @@
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>65</v>
+        <v>134</v>
       </c>
       <c r="B6" t="s">
         <v>55</v>
@@ -1118,13 +1124,13 @@
         <v>53</v>
       </c>
       <c r="D7" t="s">
-        <v>111</v>
+        <v>132</v>
       </c>
       <c r="E7" t="s">
         <v>59</v>
       </c>
       <c r="F7" t="s">
-        <v>131</v>
+        <v>118</v>
       </c>
       <c r="G7" t="s">
         <v>33</v>
@@ -1141,7 +1147,7 @@
         <v>54</v>
       </c>
       <c r="D8" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="E8" t="s">
         <v>61</v>
@@ -1164,13 +1170,13 @@
         <v>53</v>
       </c>
       <c r="D9" t="s">
-        <v>113</v>
+        <v>133</v>
       </c>
       <c r="E9" t="s">
         <v>60</v>
       </c>
       <c r="F9" t="s">
-        <v>131</v>
+        <v>118</v>
       </c>
       <c r="G9" t="s">
         <v>33</v>
@@ -1187,7 +1193,7 @@
         <v>54</v>
       </c>
       <c r="D10" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="F10" t="s">
         <v>18</v>
@@ -1207,10 +1213,10 @@
         <v>53</v>
       </c>
       <c r="D11" t="s">
-        <v>115</v>
+        <v>120</v>
       </c>
       <c r="F11" t="s">
-        <v>131</v>
+        <v>118</v>
       </c>
       <c r="G11" t="s">
         <v>33</v>
@@ -1227,7 +1233,7 @@
         <v>54</v>
       </c>
       <c r="D12" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
       <c r="F12" t="s">
         <v>18</v>
@@ -1247,10 +1253,10 @@
         <v>53</v>
       </c>
       <c r="D13" t="s">
-        <v>117</v>
+        <v>121</v>
       </c>
       <c r="F13" t="s">
-        <v>131</v>
+        <v>118</v>
       </c>
       <c r="G13" t="s">
         <v>33</v>
@@ -1267,10 +1273,10 @@
         <v>53</v>
       </c>
       <c r="D14" t="s">
+        <v>122</v>
+      </c>
+      <c r="F14" t="s">
         <v>118</v>
-      </c>
-      <c r="F14" t="s">
-        <v>131</v>
       </c>
       <c r="G14" t="s">
         <v>33</v>
@@ -1287,7 +1293,7 @@
         <v>54</v>
       </c>
       <c r="D15" t="s">
-        <v>119</v>
+        <v>114</v>
       </c>
       <c r="F15" t="s">
         <v>18</v>
@@ -1307,10 +1313,10 @@
         <v>53</v>
       </c>
       <c r="D16" t="s">
-        <v>120</v>
+        <v>123</v>
       </c>
       <c r="F16" t="s">
-        <v>131</v>
+        <v>118</v>
       </c>
       <c r="G16" t="s">
         <v>33</v>
@@ -1327,10 +1333,10 @@
         <v>53</v>
       </c>
       <c r="D17" t="s">
-        <v>121</v>
+        <v>124</v>
       </c>
       <c r="F17" t="s">
-        <v>131</v>
+        <v>118</v>
       </c>
       <c r="G17" t="s">
         <v>33</v>
@@ -1347,7 +1353,7 @@
         <v>54</v>
       </c>
       <c r="D18" t="s">
-        <v>122</v>
+        <v>115</v>
       </c>
       <c r="F18" t="s">
         <v>18</v>
@@ -1367,10 +1373,10 @@
         <v>53</v>
       </c>
       <c r="D19" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="F19" t="s">
-        <v>131</v>
+        <v>118</v>
       </c>
       <c r="G19" t="s">
         <v>33</v>
@@ -1387,10 +1393,10 @@
         <v>53</v>
       </c>
       <c r="D20" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="F20" t="s">
-        <v>131</v>
+        <v>118</v>
       </c>
       <c r="G20" t="s">
         <v>33</v>
@@ -1407,7 +1413,7 @@
         <v>54</v>
       </c>
       <c r="D21" t="s">
-        <v>125</v>
+        <v>116</v>
       </c>
       <c r="F21" t="s">
         <v>18</v>
@@ -1427,10 +1433,10 @@
         <v>53</v>
       </c>
       <c r="D22" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="F22" t="s">
-        <v>131</v>
+        <v>118</v>
       </c>
       <c r="G22" t="s">
         <v>33</v>
@@ -1447,10 +1453,10 @@
         <v>53</v>
       </c>
       <c r="D23" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="F23" t="s">
-        <v>131</v>
+        <v>118</v>
       </c>
       <c r="G23" t="s">
         <v>33</v>
@@ -1467,7 +1473,7 @@
         <v>54</v>
       </c>
       <c r="D24" t="s">
-        <v>128</v>
+        <v>117</v>
       </c>
       <c r="F24" t="s">
         <v>18</v>
@@ -1490,7 +1496,7 @@
         <v>129</v>
       </c>
       <c r="F25" t="s">
-        <v>131</v>
+        <v>118</v>
       </c>
       <c r="G25" t="s">
         <v>33</v>
@@ -1510,7 +1516,7 @@
         <v>130</v>
       </c>
       <c r="F26" t="s">
-        <v>131</v>
+        <v>118</v>
       </c>
       <c r="G26" t="s">
         <v>33</v>

--- a/sources/case/ApprovalTypes.xlsx
+++ b/sources/case/ApprovalTypes.xlsx
@@ -451,89 +451,91 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
+    <t>[{"uuid":"95db250e-0f75-11e7-8ff3-00163e007053","approvers":[{"uuid":"","type":"reporting_to","value":"1"},{"uuid":"","type":"reporting_to","value":"2"},{"uuid":"","type":"reporting_to","value":"3"},{"uuid":"","type":"reporting_to","value":"4"},{"uuid":"","type":"login_user_department_manager","value":""},{"uuid":"","type":"department_manager","value":"${organization_2.uuid}"},{"uuid":"","type":"employee","value":"7e254521-b2e4-11e7-93d8-5254001aba5d"}],"target_type":"","target_value":"s{}"}]</t>
+  </si>
+  <si>
+    <t>[{"uuid":"b276c863-bd48-11e7-a179-5254001aba5d","approvers":[{"uuid":"","type":"reporting_to","value":"1"},{"uuid":"","type":"reporting_to","value":"2"},{"uuid":"","type":"reporting_to","value":"3"},{"uuid":"","type":"reporting_to","value":"4"},{"uuid":"","type":"login_user_department_manager","value":""},{"uuid":"","type":"department_manager","value":"${organization_2.uuid}"},{"uuid":"","type":"employee","value":"7e254521-b2e4-11e7-93d8-5254001aba5d"}],"target_type":"","target_value":"s{}"}]</t>
+  </si>
+  <si>
+    <t>[{"target_value":"s{}","target_type":"","approvers":[{"type":"reporting_to","uuid":"","value":"1"},{"type":"reporting_to","uuid":"","value":"2"},{"type":"reporting_to","uuid":"","value":"3"},{"type":"reporting_to","uuid":"","value":"4"},{"type":"login_user_department_manager","uuid":"","value":""},{"type":"department_manager","uuid":"","value":"${organization_2.uuid}"},{"type":"employee","uuid":"","value":"7e254521-b2e4-11e7-93d8-5254001aba5d"}],"uuid":"95d9b755-0f75-11e7-8ff3-00163e007053"}]</t>
+  </si>
+  <si>
+    <t>[{"target_value":"s{}","target_type":"","approvers":[{"type":"reporting_to","uuid":"","value":"1"},{"type":"reporting_to","uuid":"","value":"2"},{"type":"reporting_to","uuid":"","value":"3"},{"type":"reporting_to","uuid":"","value":"4"},{"type":"login_user_department_manager","uuid":"","value":""},{"type":"department_manager","uuid":"","value":"${organization_2.uuid}"},{"type":"employee","uuid":"","value":"7e254521-b2e4-11e7-93d8-5254001aba5d"}],"uuid":"5389429f-b9f7-11e7-9997-5254001aba5d"}]</t>
+  </si>
+  <si>
+    <t>[{"target_value":"s{}","target_type":"","approvers":[{"type":"reporting_to","uuid":"","value":"1"},{"type":"reporting_to","uuid":"","value":"2"},{"type":"reporting_to","uuid":"","value":"3"},{"type":"reporting_to","uuid":"","value":"4"},{"type":"login_user_department_manager","uuid":"","value":""},{"type":"department_manager","uuid":"","value":"${organization_2.uuid}"},{"type":"employee","uuid":"","value":"7e254521-b2e4-11e7-93d8-5254001aba5d"}],"uuid":"95e367b3-0f75-11e7-8ff3-00163e007053"}]</t>
+  </si>
+  <si>
+    <t>[{"target_value":"s{}","target_type":"","approvers":[{"type":"reporting_to","uuid":"","value":"1"},{"type":"reporting_to","uuid":"","value":"2"},{"type":"reporting_to","uuid":"","value":"3"},{"type":"reporting_to","uuid":"","value":"4"},{"type":"login_user_department_manager","uuid":"","value":""},{"type":"department_manager","uuid":"","value":"${organization_2.uuid}"},{"type":"employee","uuid":"","value":"7e254521-b2e4-11e7-93d8-5254001aba5d"}],"uuid":"95e2f732-0f75-11e7-8ff3-00163e007053"}]</t>
+  </si>
+  <si>
+    <t>[{"target_value":"s{}","target_type":"","approvers":[{"type":"reporting_to","uuid":"","value":"1"},{"type":"reporting_to","uuid":"","value":"2"},{"type":"reporting_to","uuid":"","value":"3"},{"type":"reporting_to","uuid":"","value":"4"},{"type":"login_user_department_manager","uuid":"","value":""},{"type":"department_manager","uuid":"","value":"${organization_2.uuid}"},{"type":"employee","uuid":"","value":"7e254521-b2e4-11e7-93d8-5254001aba5d"}],"uuid":"95e04b46-0f75-11e7-8ff3-00163e007053"}]</t>
+  </si>
+  <si>
+    <t>[{"target_value":"s{}","target_type":"","approvers":[{"type":"reporting_to","uuid":"","value":"1"},{"type":"reporting_to","uuid":"","value":"2"},{"type":"reporting_to","uuid":"","value":"3"},{"type":"reporting_to","uuid":"","value":"4"},{"type":"login_user_department_manager","uuid":"","value":""},{"type":"department_manager","uuid":"","value":"${organization_2.uuid}"},{"type":"employee","uuid":"","value":"7e254521-b2e4-11e7-93d8-5254001aba5d"}],"uuid":"95e245f4-0f75-11e7-8ff3-00163e007053"}]</t>
+  </si>
+  <si>
+    <t>[{"employee_id":"b8a23753-0f75-11e7-9aa4-00163e007053"}]</t>
+  </si>
+  <si>
+    <t>[{"uuid":"8ad63f15-be23-11e7-afef-5254001aba5d","approvers":[{"uuid":"","type":"reporting_to","value":"1"},{"uuid":"","type":"reporting_to","value":"2"},{"uuid":"","type":"reporting_to","value":"3"},{"uuid":"","type":"reporting_to","value":"4"},{"uuid":"","type":"login_user_department_manager","value":""},{"uuid":"","type":"department_manager","value":"${organization_2.uuid}"},{"uuid":"","type":"employee","value":"7e254521-b2e4-11e7-93d8-5254001aba5d"}],"target_type":"","target_value":"s{}"}]</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>[{"target_value":"s{}","target_type":"","approvers":[{"type":"reporting_to","uuid":"","value":"1"},{"type":"reporting_to","uuid":"","value":"2"},{"type":"reporting_to","uuid":"","value":"3"},{"type":"reporting_to","uuid":"","value":"4"},{"type":"login_user_department_manager","uuid":"","value":""},{"type":"department_manager","uuid":"","value":"${organization_2.uuid}"},{"type":"employee","uuid":"","value":"7e254521-b2e4-11e7-93d8-5254001aba5d"}],"uuid":"95d9b755-0f75-11e7-8ff3-00163e007053"},{"target_value":"s{\"department\":[\"a62ef58e-beb4-11e7-98c2-5254001aba5d\"],\"employee\":[]}","target_type":"sponsor","approvers":[{"type":"login_user_department_manager","uuid":"","value":""},{"type":"department_manager","uuid":"","value":"${organization_2.uuid}"},{"type":"employee","uuid":"","value":"7e254521-b2e4-11e7-93d8-5254001aba5d"}],"uuid":""}]</t>
+  </si>
+  <si>
+    <t>[{"target_value":"s{}","target_type":"","approvers":[{"type":"reporting_to","uuid":"","value":"1"},{"type":"reporting_to","uuid":"","value":"2"},{"type":"reporting_to","uuid":"","value":"3"},{"type":"reporting_to","uuid":"","value":"4"},{"type":"login_user_department_manager","uuid":"","value":""},{"type":"department_manager","uuid":"","value":"${organization_2.uuid}"},{"type":"employee","uuid":"","value":"7e254521-b2e4-11e7-93d8-5254001aba5d"}],"uuid":"5389429f-b9f7-11e7-9997-5254001aba5d"},{"target_value":"s{\"department\":[\"a62ef58e-beb4-11e7-98c2-5254001aba5d\"],\"employee\":[]}","target_type":"sponsor","approvers":[{"type":"login_user_department_manager","uuid":"","value":""},{"type":"department_manager","uuid":"","value":"${organization_2.uuid}"},{"type":"employee","uuid":"","value":"7e254521-b2e4-11e7-93d8-5254001aba5d"}],"uuid":""}]</t>
+  </si>
+  <si>
+    <t>[{"target_value":"s{}","target_type":"","approvers":[{"type":"reporting_to","uuid":"","value":"1"},{"type":"reporting_to","uuid":"","value":"2"},{"type":"reporting_to","uuid":"","value":"3"},{"type":"reporting_to","uuid":"","value":"4"},{"type":"login_user_department_manager","uuid":"","value":""},{"type":"department_manager","uuid":"","value":"${organization_2.uuid}"},{"type":"employee","uuid":"","value":"7e254521-b2e4-11e7-93d8-5254001aba5d"}],"uuid":"5389429f-b9f7-11e7-9997-5254001aba5d"},{"target_value":"s{\"department\":[\"a62ef58e-beb4-11e7-98c2-5254001aba5d\"],\"employee\":[]}","target_type":"sponsor","approvers":[{"type":"login_user_department_manager","uuid":"","value":""},{"type":"department_manager","uuid":"","value":"${organization_2.uuid}"},{"type":"employee","uuid":"","value":"7e254521-b2e4-11e7-93d8-5254001aba5d"}],"uuid":""},{"uuid":"","approvers":[{"uuid":"","type":"login_user_department_manager","value":""}],"target_type":"duration","target_value":"s{\"symbol\":\"&lt;\",\"unit\":\"d\",\"number\":\"5\"}"},{"uuid":"","approvers":[{"uuid":"","type":"login_user_department_manager","value":""},{"uuid":"","type":"department_manager","value":"${organization_1.uuid}"}],"target_type":"duration","target_value":"s{\"symbol\":\"==\",\"unit\":\"d\",\"number\":\"5\"}"},{"uuid":"","approvers":[{"uuid":"","type":"login_user_department_manager","value":""},{"uuid":"","type":"department_manager","value":"${organization_1.uuid}"},{"uuid":"","type":"employee","value":"7e254521-b2e4-11e7-93d8-5254001aba5d"}],"target_type":"duration","target_value":"s{\"symbol\":\"&gt;\",\"unit\":\"d\",\"number\":\"5\"}"}]</t>
+  </si>
+  <si>
+    <t>[{"target_value":"s{}","target_type":"","approvers":[{"type":"reporting_to","uuid":"","value":"1"},{"type":"reporting_to","uuid":"","value":"2"},{"type":"reporting_to","uuid":"","value":"3"},{"type":"reporting_to","uuid":"","value":"4"},{"type":"login_user_department_manager","uuid":"","value":""},{"type":"department_manager","uuid":"","value":"${organization_2.uuid}"},{"type":"employee","uuid":"","value":"7e254521-b2e4-11e7-93d8-5254001aba5d"}],"uuid":"95e367b3-0f75-11e7-8ff3-00163e007053"},{"target_value":"s{\"department\":[\"a62ef58e-beb4-11e7-98c2-5254001aba5d\"],\"employee\":[]}","target_type":"sponsor","approvers":[{"type":"login_user_department_manager","uuid":"","value":""},{"type":"department_manager","uuid":"","value":"${organization_2.uuid}"},{"type":"employee","uuid":"","value":"7e254521-b2e4-11e7-93d8-5254001aba5d"}],"uuid":""}]</t>
+  </si>
+  <si>
+    <t>[{"target_value":"s{}","target_type":"","approvers":[{"type":"reporting_to","uuid":"","value":"1"},{"type":"reporting_to","uuid":"","value":"2"},{"type":"reporting_to","uuid":"","value":"3"},{"type":"reporting_to","uuid":"","value":"4"},{"type":"login_user_department_manager","uuid":"","value":""},{"type":"department_manager","uuid":"","value":"${organization_2.uuid}"},{"type":"employee","uuid":"","value":"7e254521-b2e4-11e7-93d8-5254001aba5d"}],"uuid":"95e367b3-0f75-11e7-8ff3-00163e007053"},{"target_value":"s{\"department\":[\"a62ef58e-beb4-11e7-98c2-5254001aba5d\"],\"employee\":[]}","target_type":"sponsor","approvers":[{"type":"login_user_department_manager","uuid":"","value":""},{"type":"department_manager","uuid":"","value":"${organization_2.uuid}"},{"type":"employee","uuid":"","value":"7e254521-b2e4-11e7-93d8-5254001aba5d"}],"uuid":""},{"uuid":"","approvers":[{"uuid":"","type":"login_user_department_manager","value":""}],"target_type":"duration","target_value":"s{\"symbol\":\"&lt;\",\"unit\":\"d\",\"number\":\"5\"}"},{"uuid":"","approvers":[{"uuid":"","type":"login_user_department_manager","value":""},{"uuid":"","type":"department_manager","value":"${organization_1.uuid}"}],"target_type":"duration","target_value":"s{\"symbol\":\"==\",\"unit\":\"d\",\"number\":\"5\"}"},{"uuid":"","approvers":[{"uuid":"","type":"login_user_department_manager","value":""},{"uuid":"","type":"department_manager","value":"${organization_1.uuid}"},{"uuid":"","type":"employee","value":"7e254521-b2e4-11e7-93d8-5254001aba5d"}],"target_type":"duration","target_value":"s{\"symbol\":\"&gt;\",\"unit\":\"d\",\"number\":\"5\"}"}]</t>
+  </si>
+  <si>
+    <t>[{"target_value":"s{}","target_type":"","approvers":[{"type":"reporting_to","uuid":"","value":"1"},{"type":"reporting_to","uuid":"","value":"2"},{"type":"reporting_to","uuid":"","value":"3"},{"type":"reporting_to","uuid":"","value":"4"},{"type":"login_user_department_manager","uuid":"","value":""},{"type":"department_manager","uuid":"","value":"${organization_2.uuid}"},{"type":"employee","uuid":"","value":"7e254521-b2e4-11e7-93d8-5254001aba5d"}],"uuid":"95e2f732-0f75-11e7-8ff3-00163e007053"},{"target_value":"s{\"department\":[\"a62ef58e-beb4-11e7-98c2-5254001aba5d\"],\"employee\":[]}","target_type":"sponsor","approvers":[{"type":"login_user_department_manager","uuid":"","value":""},{"type":"department_manager","uuid":"","value":"${organization_2.uuid}"},{"type":"employee","uuid":"","value":"7e254521-b2e4-11e7-93d8-5254001aba5d"}],"uuid":""}]</t>
+  </si>
+  <si>
+    <t>[{"target_value":"s{}","target_type":"","approvers":[{"type":"reporting_to","uuid":"","value":"1"},{"type":"reporting_to","uuid":"","value":"2"},{"type":"reporting_to","uuid":"","value":"3"},{"type":"reporting_to","uuid":"","value":"4"},{"type":"login_user_department_manager","uuid":"","value":""},{"type":"department_manager","uuid":"","value":"${organization_2.uuid}"},{"type":"employee","uuid":"","value":"7e254521-b2e4-11e7-93d8-5254001aba5d"}],"uuid":"95e2f732-0f75-11e7-8ff3-00163e007053"},{"target_value":"s{\"department\":[\"a62ef58e-beb4-11e7-98c2-5254001aba5d\"],\"employee\":[]}","target_type":"sponsor","approvers":[{"type":"login_user_department_manager","uuid":"","value":""},{"type":"department_manager","uuid":"","value":"${organization_2.uuid}"},{"type":"employee","uuid":"","value":"7e254521-b2e4-11e7-93d8-5254001aba5d"}],"uuid":""},{"uuid":"","approvers":[{"uuid":"","type":"login_user_department_manager","value":""}],"target_type":"duration","target_value":"s{\"symbol\":\"&lt;\",\"unit\":\"d\",\"number\":\"5\"}"},{"uuid":"","approvers":[{"uuid":"","type":"login_user_department_manager","value":""},{"uuid":"","type":"department_manager","value":"${organization_1.uuid}"}],"target_type":"duration","target_value":"s{\"symbol\":\"==\",\"unit\":\"d\",\"number\":\"5\"}"},{"uuid":"","approvers":[{"uuid":"","type":"login_user_department_manager","value":""},{"uuid":"","type":"department_manager","value":"${organization_1.uuid}"},{"uuid":"","type":"employee","value":"7e254521-b2e4-11e7-93d8-5254001aba5d"}],"target_type":"duration","target_value":"s{\"symbol\":\"&gt;\",\"unit\":\"d\",\"number\":\"5\"}"}]</t>
+  </si>
+  <si>
+    <t>[{"target_value":"s{}","target_type":"","approvers":[{"type":"reporting_to","uuid":"","value":"1"},{"type":"reporting_to","uuid":"","value":"2"},{"type":"reporting_to","uuid":"","value":"3"},{"type":"reporting_to","uuid":"","value":"4"},{"type":"login_user_department_manager","uuid":"","value":""},{"type":"department_manager","uuid":"","value":"${organization_2.uuid}"},{"type":"employee","uuid":"","value":"7e254521-b2e4-11e7-93d8-5254001aba5d"}],"uuid":"95e04b46-0f75-11e7-8ff3-00163e007053"},{"target_value":"s{\"department\":[\"a62ef58e-beb4-11e7-98c2-5254001aba5d\"],\"employee\":[]}","target_type":"sponsor","approvers":[{"type":"login_user_department_manager","uuid":"","value":""},{"type":"department_manager","uuid":"","value":"${organization_2.uuid}"},{"type":"employee","uuid":"","value":"7e254521-b2e4-11e7-93d8-5254001aba5d"}],"uuid":""}]</t>
+  </si>
+  <si>
+    <t>[{"target_value":"s{}","target_type":"","approvers":[{"type":"reporting_to","uuid":"","value":"1"},{"type":"reporting_to","uuid":"","value":"2"},{"type":"reporting_to","uuid":"","value":"3"},{"type":"reporting_to","uuid":"","value":"4"},{"type":"login_user_department_manager","uuid":"","value":""},{"type":"department_manager","uuid":"","value":"${organization_2.uuid}"},{"type":"employee","uuid":"","value":"7e254521-b2e4-11e7-93d8-5254001aba5d"}],"uuid":"95e04b46-0f75-11e7-8ff3-00163e007053"},{"target_value":"s{\"department\":[\"a62ef58e-beb4-11e7-98c2-5254001aba5d\"],\"employee\":[]}","target_type":"sponsor","approvers":[{"type":"login_user_department_manager","uuid":"","value":""},{"type":"department_manager","uuid":"","value":"${organization_2.uuid}"},{"type":"employee","uuid":"","value":"7e254521-b2e4-11e7-93d8-5254001aba5d"}],"uuid":""},{"uuid":"","approvers":[{"uuid":"","type":"login_user_department_manager","value":""}],"target_type":"duration","target_value":"s{\"symbol\":\"&lt;\",\"unit\":\"d\",\"number\":\"5\"}"},{"uuid":"","approvers":[{"uuid":"","type":"login_user_department_manager","value":""},{"uuid":"","type":"department_manager","value":"${organization_1.uuid}"}],"target_type":"duration","target_value":"s{\"symbol\":\"==\",\"unit\":\"d\",\"number\":\"5\"}"},{"uuid":"","approvers":[{"uuid":"","type":"login_user_department_manager","value":""},{"uuid":"","type":"department_manager","value":"${organization_1.uuid}"},{"uuid":"","type":"employee","value":"7e254521-b2e4-11e7-93d8-5254001aba5d"}],"target_type":"duration","target_value":"s{\"symbol\":\"&gt;\",\"unit\":\"d\",\"number\":\"5\"}"}]</t>
+  </si>
+  <si>
+    <t>[{"target_value":"s{}","target_type":"","approvers":[{"type":"reporting_to","uuid":"","value":"1"},{"type":"reporting_to","uuid":"","value":"2"},{"type":"reporting_to","uuid":"","value":"3"},{"type":"reporting_to","uuid":"","value":"4"},{"type":"login_user_department_manager","uuid":"","value":""},{"type":"department_manager","uuid":"","value":"${organization_2.uuid}"},{"type":"employee","uuid":"","value":"7e254521-b2e4-11e7-93d8-5254001aba5d"}],"uuid":"95e245f4-0f75-11e7-8ff3-00163e007053"},{"target_value":"s{\"department\":[\"a62ef58e-beb4-11e7-98c2-5254001aba5d\"],\"employee\":[]}","target_type":"sponsor","approvers":[{"type":"login_user_department_manager","uuid":"","value":""},{"type":"department_manager","uuid":"","value":"${organization_2.uuid}"},{"type":"employee","uuid":"","value":"7e254521-b2e4-11e7-93d8-5254001aba5d"}],"uuid":""}]</t>
+  </si>
+  <si>
+    <t>[{"target_value":"s{}","target_type":"","approvers":[{"type":"reporting_to","uuid":"","value":"1"},{"type":"reporting_to","uuid":"","value":"2"},{"type":"reporting_to","uuid":"","value":"3"},{"type":"reporting_to","uuid":"","value":"4"},{"type":"login_user_department_manager","uuid":"","value":""},{"type":"department_manager","uuid":"","value":"${organization_2.uuid}"},{"type":"employee","uuid":"","value":"7e254521-b2e4-11e7-93d8-5254001aba5d"}],"uuid":"95e245f4-0f75-11e7-8ff3-00163e007053"},{"target_value":"s{\"department\":[\"a62ef58e-beb4-11e7-98c2-5254001aba5d\"],\"employee\":[]}","target_type":"sponsor","approvers":[{"type":"login_user_department_manager","uuid":"","value":""},{"type":"department_manager","uuid":"","value":"${organization_2.uuid}"},{"type":"employee","uuid":"","value":"7e254521-b2e4-11e7-93d8-5254001aba5d"}],"uuid":""},{"uuid":"","approvers":[{"uuid":"","type":"login_user_department_manager","value":""}],"target_type":"duration","target_value":"s{\"symbol\":\"&lt;=\",\"unit\":\"d\",\"number\":\"4\"}"},{"uuid":"","approvers":[{"uuid":"","type":"login_user_department_manager","value":""},{"uuid":"","type":"department_manager","value":"${organization_1.uuid}"}],"target_type":"duration","target_value":"s{\"symbol\":\"==\",\"unit\":\"d\",\"number\":\"5\"}"},{"uuid":"","approvers":[{"uuid":"","type":"login_user_department_manager","value":""},{"uuid":"","type":"department_manager","value":"${organization_1.uuid}"},{"uuid":"","type":"employee","value":"7e254521-b2e4-11e7-93d8-5254001aba5d"}],"target_type":"duration","target_value":"s{\"symbol\":\"&gt;=\",\"unit\":\"d\",\"number\":\"6\"}"}]</t>
+  </si>
+  <si>
+    <t>[{"uuid":"8ad63f15-be23-11e7-afef-5254001aba5d","approvers":[{"uuid":"","type":"reporting_to","value":"1"},{"uuid":"","type":"reporting_to","value":"2"},{"uuid":"","type":"reporting_to","value":"3"},{"uuid":"","type":"reporting_to","value":"4"},{"uuid":"","type":"login_user_department_manager","value":""},{"uuid":"","type":"department_manager","value":"${organization_2.uuid}"},{"uuid":"","type":"employee","value":"7e254521-b2e4-11e7-93d8-5254001aba5d"}],"target_type":"","target_value":"s{}"},{"uuid":"","approvers":[{"uuid":"","type":"login_user_department_manager","value":""},{"uuid":"","type":"department_manager","value":"${organization_2.uuid}"},{"uuid":"","type":"employee","value":"7e254521-b2e4-11e7-93d8-5254001aba5d"}],"target_type":"sponsor","target_value":"s{\"department\":[\"a62ef58e-beb4-11e7-98c2-5254001aba5d\"],\"employee\":[]}"},{"uuid":"","approvers":[{"uuid":"","type":"login_user_department_manager","value":""},{"uuid":"","type":"employee","value":"7e254521-b2e4-11e7-93d8-5254001aba5d"},{"uuid":"","type":"employee","value":"b8a23753-0f75-11e7-9aa4-00163e007053"}],"target_type":"sponsor","target_value":"s{\"department\":[\"a72987b1-beb4-11e7-98c2-5254001aba5d\"],\"employee\":[]}"}]</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>[{"target_value":"s{}","target_type":"","approvers":[{"type":"reporting_to","uuid":"","value":"1"},{"type":"reporting_to","uuid":"","value":"2"},{"type":"reporting_to","uuid":"","value":"3"},{"type":"reporting_to","uuid":"","value":"4"},{"type":"login_user_department_manager","uuid":"","value":""},{"type":"department_manager","uuid":"","value":"${organization_2.uuid}"},{"type":"employee","uuid":"","value":"7e254521-b2e4-11e7-93d8-5254001aba5d"}],"uuid":"95db250e-0f75-11e7-8ff3-00163e007053"},{"target_value":"s{\"department\":[\"a62ef58e-beb4-11e7-98c2-5254001aba5d\"],\"employee\":[]}","target_type":"sponsor","approvers":[{"type":"login_user_department_manager","uuid":"","value":""},{"type":"department_manager","uuid":"","value":"${organization_2.uuid}"},{"type":"employee","uuid":"","value":"7e254521-b2e4-11e7-93d8-5254001aba5d"}],"uuid":""},{"uuid":"","approvers":[{"uuid":"","type":"login_user_department_manager","value":""},{"uuid":"","type":"employee","value":"7e254521-b2e4-11e7-93d8-5254001aba5d"},{"uuid":"","type":"employee","value":"b8a23753-0f75-11e7-9aa4-00163e007053"}],"target_type":"sponsor","target_value":"s{\"department\":[\"a72987b1-beb4-11e7-98c2-5254001aba5d\"],\"employee\":[]}"}]</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>[{"target_value":"s{}","target_type":"","approvers":[{"type":"reporting_to","uuid":"","value":"1"},{"type":"reporting_to","uuid":"","value":"2"},{"type":"reporting_to","uuid":"","value":"3"},{"type":"reporting_to","uuid":"","value":"4"},{"type":"login_user_department_manager","uuid":"","value":""},{"type":"department_manager","uuid":"","value":"${organization_2.uuid}"},{"type":"employee","uuid":"","value":"7e254521-b2e4-11e7-93d8-5254001aba5d"}],"uuid":"b276c863-bd48-11e7-a179-5254001aba5d"},{"target_value":"s{\"department\":[\"a62ef58e-beb4-11e7-98c2-5254001aba5d\"],\"employee\":[]}","target_type":"sponsor","approvers":[{"type":"login_user_department_manager","uuid":"","value":""},{"type":"department_manager","uuid":"","value":"${organization_2.uuid}"},{"type":"employee","uuid":"","value":"7e254521-b2e4-11e7-93d8-5254001aba5d"}],"uuid":""},{"uuid":"","approvers":[{"uuid":"","type":"login_user_department_manager","value":""},{"uuid":"","type":"employee","value":"7e254521-b2e4-11e7-93d8-5254001aba5d"},{"uuid":"","type":"employee","value":"b8a23753-0f75-11e7-9aa4-00163e007053"}],"target_type":"sponsor","target_value":"s{\"department\":[\"a72987b1-beb4-11e7-98c2-5254001aba5d\"],\"employee\":[]}"}]</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Offboard_resign1</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
     <t>[{"uuid":"7642fbdf-bd26-11e7-a179-5254001aba5d","approvers":[{"uuid":"","type":"reporting_to","value":"1"},{"uuid":"","type":"reporting_to","value":"2"},{"uuid":"","type":"reporting_to","value":"3"},{"uuid":"","type":"reporting_to","value":"4"},{"uuid":"","type":"login_user_department_manager","value":""},{"uuid":"","type":"department_manager","value":"${organization_2.uuid}"},{"uuid":"","type":"employee","value":"7e254521-b2e4-11e7-93d8-5254001aba5d"}],"target_type":"","target_value":"s{}"}]</t>
-  </si>
-  <si>
-    <t>[{"uuid":"7642fbdf-bd26-11e7-a179-5254001aba5d","approvers":[{"uuid":"","type":"reporting_to","value":"1"},{"uuid":"","type":"reporting_to","value":"2"},{"uuid":"","type":"reporting_to","value":"3"},{"uuid":"","type":"reporting_to","value":"4"},{"uuid":"","type":"login_user_department_manager","value":""},{"uuid":"","type":"department_manager","value":"${organization_2.uuid}"},{"uuid":"","type":"employee","value":"7e254521-b2e4-11e7-93d8-5254001aba5d"}],"target_type":"","target_value":"s{}"},{"uuid":"","approvers":[{"uuid":"","type":"login_user_department_manager","value":""},{"uuid":"","type":"employee","value":"7e254521-b2e4-11e7-93d8-5254001aba5d"}],"target_type":"sponsor","target_value":"s{\"department\":[\"6a74f505-b965-11e7-b707-5254001aba5d\"],\"employee\":[]}"},{"uuid":"","approvers":[{"uuid":"","type":"reporting_to","value":"4"},{"uuid":"","type":"login_user_department_manager","value":""},{"uuid":"","type":"department_manager","value":"${organization_2.uuid}"},{"uuid":"","type":"employee","value":"7e254521-b2e4-11e7-93d8-5254001aba5d"}],"target_type":"sponsor","target_value":"s{\"department\":[],\"employee\":[\"7e2bb13d-b2e4-11e7-93d8-5254001aba5d\"]}"}]</t>
-  </si>
-  <si>
-    <t>[{"uuid":"95db250e-0f75-11e7-8ff3-00163e007053","approvers":[{"uuid":"","type":"reporting_to","value":"1"},{"uuid":"","type":"reporting_to","value":"2"},{"uuid":"","type":"reporting_to","value":"3"},{"uuid":"","type":"reporting_to","value":"4"},{"uuid":"","type":"login_user_department_manager","value":""},{"uuid":"","type":"department_manager","value":"${organization_2.uuid}"},{"uuid":"","type":"employee","value":"7e254521-b2e4-11e7-93d8-5254001aba5d"}],"target_type":"","target_value":"s{}"}]</t>
-  </si>
-  <si>
-    <t>[{"uuid":"b276c863-bd48-11e7-a179-5254001aba5d","approvers":[{"uuid":"","type":"reporting_to","value":"1"},{"uuid":"","type":"reporting_to","value":"2"},{"uuid":"","type":"reporting_to","value":"3"},{"uuid":"","type":"reporting_to","value":"4"},{"uuid":"","type":"login_user_department_manager","value":""},{"uuid":"","type":"department_manager","value":"${organization_2.uuid}"},{"uuid":"","type":"employee","value":"7e254521-b2e4-11e7-93d8-5254001aba5d"}],"target_type":"","target_value":"s{}"}]</t>
-  </si>
-  <si>
-    <t>[{"target_value":"s{}","target_type":"","approvers":[{"type":"reporting_to","uuid":"","value":"1"},{"type":"reporting_to","uuid":"","value":"2"},{"type":"reporting_to","uuid":"","value":"3"},{"type":"reporting_to","uuid":"","value":"4"},{"type":"login_user_department_manager","uuid":"","value":""},{"type":"department_manager","uuid":"","value":"${organization_2.uuid}"},{"type":"employee","uuid":"","value":"7e254521-b2e4-11e7-93d8-5254001aba5d"}],"uuid":"95d9b755-0f75-11e7-8ff3-00163e007053"}]</t>
-  </si>
-  <si>
-    <t>[{"target_value":"s{}","target_type":"","approvers":[{"type":"reporting_to","uuid":"","value":"1"},{"type":"reporting_to","uuid":"","value":"2"},{"type":"reporting_to","uuid":"","value":"3"},{"type":"reporting_to","uuid":"","value":"4"},{"type":"login_user_department_manager","uuid":"","value":""},{"type":"department_manager","uuid":"","value":"${organization_2.uuid}"},{"type":"employee","uuid":"","value":"7e254521-b2e4-11e7-93d8-5254001aba5d"}],"uuid":"5389429f-b9f7-11e7-9997-5254001aba5d"}]</t>
-  </si>
-  <si>
-    <t>[{"target_value":"s{}","target_type":"","approvers":[{"type":"reporting_to","uuid":"","value":"1"},{"type":"reporting_to","uuid":"","value":"2"},{"type":"reporting_to","uuid":"","value":"3"},{"type":"reporting_to","uuid":"","value":"4"},{"type":"login_user_department_manager","uuid":"","value":""},{"type":"department_manager","uuid":"","value":"${organization_2.uuid}"},{"type":"employee","uuid":"","value":"7e254521-b2e4-11e7-93d8-5254001aba5d"}],"uuid":"95e367b3-0f75-11e7-8ff3-00163e007053"}]</t>
-  </si>
-  <si>
-    <t>[{"target_value":"s{}","target_type":"","approvers":[{"type":"reporting_to","uuid":"","value":"1"},{"type":"reporting_to","uuid":"","value":"2"},{"type":"reporting_to","uuid":"","value":"3"},{"type":"reporting_to","uuid":"","value":"4"},{"type":"login_user_department_manager","uuid":"","value":""},{"type":"department_manager","uuid":"","value":"${organization_2.uuid}"},{"type":"employee","uuid":"","value":"7e254521-b2e4-11e7-93d8-5254001aba5d"}],"uuid":"95e2f732-0f75-11e7-8ff3-00163e007053"}]</t>
-  </si>
-  <si>
-    <t>[{"target_value":"s{}","target_type":"","approvers":[{"type":"reporting_to","uuid":"","value":"1"},{"type":"reporting_to","uuid":"","value":"2"},{"type":"reporting_to","uuid":"","value":"3"},{"type":"reporting_to","uuid":"","value":"4"},{"type":"login_user_department_manager","uuid":"","value":""},{"type":"department_manager","uuid":"","value":"${organization_2.uuid}"},{"type":"employee","uuid":"","value":"7e254521-b2e4-11e7-93d8-5254001aba5d"}],"uuid":"95e04b46-0f75-11e7-8ff3-00163e007053"}]</t>
-  </si>
-  <si>
-    <t>[{"target_value":"s{}","target_type":"","approvers":[{"type":"reporting_to","uuid":"","value":"1"},{"type":"reporting_to","uuid":"","value":"2"},{"type":"reporting_to","uuid":"","value":"3"},{"type":"reporting_to","uuid":"","value":"4"},{"type":"login_user_department_manager","uuid":"","value":""},{"type":"department_manager","uuid":"","value":"${organization_2.uuid}"},{"type":"employee","uuid":"","value":"7e254521-b2e4-11e7-93d8-5254001aba5d"}],"uuid":"95e245f4-0f75-11e7-8ff3-00163e007053"}]</t>
-  </si>
-  <si>
-    <t>[{"employee_id":"b8a23753-0f75-11e7-9aa4-00163e007053"}]</t>
-  </si>
-  <si>
-    <t>[{"uuid":"8ad63f15-be23-11e7-afef-5254001aba5d","approvers":[{"uuid":"","type":"reporting_to","value":"1"},{"uuid":"","type":"reporting_to","value":"2"},{"uuid":"","type":"reporting_to","value":"3"},{"uuid":"","type":"reporting_to","value":"4"},{"uuid":"","type":"login_user_department_manager","value":""},{"uuid":"","type":"department_manager","value":"${organization_2.uuid}"},{"uuid":"","type":"employee","value":"7e254521-b2e4-11e7-93d8-5254001aba5d"}],"target_type":"","target_value":"s{}"}]</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>[{"target_value":"s{}","target_type":"","approvers":[{"type":"reporting_to","uuid":"","value":"1"},{"type":"reporting_to","uuid":"","value":"2"},{"type":"reporting_to","uuid":"","value":"3"},{"type":"reporting_to","uuid":"","value":"4"},{"type":"login_user_department_manager","uuid":"","value":""},{"type":"department_manager","uuid":"","value":"${organization_2.uuid}"},{"type":"employee","uuid":"","value":"7e254521-b2e4-11e7-93d8-5254001aba5d"}],"uuid":"95d9b755-0f75-11e7-8ff3-00163e007053"},{"target_value":"s{\"department\":[\"a62ef58e-beb4-11e7-98c2-5254001aba5d\"],\"employee\":[]}","target_type":"sponsor","approvers":[{"type":"login_user_department_manager","uuid":"","value":""},{"type":"department_manager","uuid":"","value":"${organization_2.uuid}"},{"type":"employee","uuid":"","value":"7e254521-b2e4-11e7-93d8-5254001aba5d"}],"uuid":""}]</t>
-  </si>
-  <si>
-    <t>[{"target_value":"s{}","target_type":"","approvers":[{"type":"reporting_to","uuid":"","value":"1"},{"type":"reporting_to","uuid":"","value":"2"},{"type":"reporting_to","uuid":"","value":"3"},{"type":"reporting_to","uuid":"","value":"4"},{"type":"login_user_department_manager","uuid":"","value":""},{"type":"department_manager","uuid":"","value":"${organization_2.uuid}"},{"type":"employee","uuid":"","value":"7e254521-b2e4-11e7-93d8-5254001aba5d"}],"uuid":"5389429f-b9f7-11e7-9997-5254001aba5d"},{"target_value":"s{\"department\":[\"a62ef58e-beb4-11e7-98c2-5254001aba5d\"],\"employee\":[]}","target_type":"sponsor","approvers":[{"type":"login_user_department_manager","uuid":"","value":""},{"type":"department_manager","uuid":"","value":"${organization_2.uuid}"},{"type":"employee","uuid":"","value":"7e254521-b2e4-11e7-93d8-5254001aba5d"}],"uuid":""}]</t>
-  </si>
-  <si>
-    <t>[{"target_value":"s{}","target_type":"","approvers":[{"type":"reporting_to","uuid":"","value":"1"},{"type":"reporting_to","uuid":"","value":"2"},{"type":"reporting_to","uuid":"","value":"3"},{"type":"reporting_to","uuid":"","value":"4"},{"type":"login_user_department_manager","uuid":"","value":""},{"type":"department_manager","uuid":"","value":"${organization_2.uuid}"},{"type":"employee","uuid":"","value":"7e254521-b2e4-11e7-93d8-5254001aba5d"}],"uuid":"5389429f-b9f7-11e7-9997-5254001aba5d"},{"target_value":"s{\"department\":[\"a62ef58e-beb4-11e7-98c2-5254001aba5d\"],\"employee\":[]}","target_type":"sponsor","approvers":[{"type":"login_user_department_manager","uuid":"","value":""},{"type":"department_manager","uuid":"","value":"${organization_2.uuid}"},{"type":"employee","uuid":"","value":"7e254521-b2e4-11e7-93d8-5254001aba5d"}],"uuid":""},{"uuid":"","approvers":[{"uuid":"","type":"login_user_department_manager","value":""}],"target_type":"duration","target_value":"s{\"symbol\":\"&lt;\",\"unit\":\"d\",\"number\":\"5\"}"},{"uuid":"","approvers":[{"uuid":"","type":"login_user_department_manager","value":""},{"uuid":"","type":"department_manager","value":"${organization_1.uuid}"}],"target_type":"duration","target_value":"s{\"symbol\":\"==\",\"unit\":\"d\",\"number\":\"5\"}"},{"uuid":"","approvers":[{"uuid":"","type":"login_user_department_manager","value":""},{"uuid":"","type":"department_manager","value":"${organization_1.uuid}"},{"uuid":"","type":"employee","value":"7e254521-b2e4-11e7-93d8-5254001aba5d"}],"target_type":"duration","target_value":"s{\"symbol\":\"&gt;\",\"unit\":\"d\",\"number\":\"5\"}"}]</t>
-  </si>
-  <si>
-    <t>[{"target_value":"s{}","target_type":"","approvers":[{"type":"reporting_to","uuid":"","value":"1"},{"type":"reporting_to","uuid":"","value":"2"},{"type":"reporting_to","uuid":"","value":"3"},{"type":"reporting_to","uuid":"","value":"4"},{"type":"login_user_department_manager","uuid":"","value":""},{"type":"department_manager","uuid":"","value":"${organization_2.uuid}"},{"type":"employee","uuid":"","value":"7e254521-b2e4-11e7-93d8-5254001aba5d"}],"uuid":"95e367b3-0f75-11e7-8ff3-00163e007053"},{"target_value":"s{\"department\":[\"a62ef58e-beb4-11e7-98c2-5254001aba5d\"],\"employee\":[]}","target_type":"sponsor","approvers":[{"type":"login_user_department_manager","uuid":"","value":""},{"type":"department_manager","uuid":"","value":"${organization_2.uuid}"},{"type":"employee","uuid":"","value":"7e254521-b2e4-11e7-93d8-5254001aba5d"}],"uuid":""}]</t>
-  </si>
-  <si>
-    <t>[{"target_value":"s{}","target_type":"","approvers":[{"type":"reporting_to","uuid":"","value":"1"},{"type":"reporting_to","uuid":"","value":"2"},{"type":"reporting_to","uuid":"","value":"3"},{"type":"reporting_to","uuid":"","value":"4"},{"type":"login_user_department_manager","uuid":"","value":""},{"type":"department_manager","uuid":"","value":"${organization_2.uuid}"},{"type":"employee","uuid":"","value":"7e254521-b2e4-11e7-93d8-5254001aba5d"}],"uuid":"95e367b3-0f75-11e7-8ff3-00163e007053"},{"target_value":"s{\"department\":[\"a62ef58e-beb4-11e7-98c2-5254001aba5d\"],\"employee\":[]}","target_type":"sponsor","approvers":[{"type":"login_user_department_manager","uuid":"","value":""},{"type":"department_manager","uuid":"","value":"${organization_2.uuid}"},{"type":"employee","uuid":"","value":"7e254521-b2e4-11e7-93d8-5254001aba5d"}],"uuid":""},{"uuid":"","approvers":[{"uuid":"","type":"login_user_department_manager","value":""}],"target_type":"duration","target_value":"s{\"symbol\":\"&lt;\",\"unit\":\"d\",\"number\":\"5\"}"},{"uuid":"","approvers":[{"uuid":"","type":"login_user_department_manager","value":""},{"uuid":"","type":"department_manager","value":"${organization_1.uuid}"}],"target_type":"duration","target_value":"s{\"symbol\":\"==\",\"unit\":\"d\",\"number\":\"5\"}"},{"uuid":"","approvers":[{"uuid":"","type":"login_user_department_manager","value":""},{"uuid":"","type":"department_manager","value":"${organization_1.uuid}"},{"uuid":"","type":"employee","value":"7e254521-b2e4-11e7-93d8-5254001aba5d"}],"target_type":"duration","target_value":"s{\"symbol\":\"&gt;\",\"unit\":\"d\",\"number\":\"5\"}"}]</t>
-  </si>
-  <si>
-    <t>[{"target_value":"s{}","target_type":"","approvers":[{"type":"reporting_to","uuid":"","value":"1"},{"type":"reporting_to","uuid":"","value":"2"},{"type":"reporting_to","uuid":"","value":"3"},{"type":"reporting_to","uuid":"","value":"4"},{"type":"login_user_department_manager","uuid":"","value":""},{"type":"department_manager","uuid":"","value":"${organization_2.uuid}"},{"type":"employee","uuid":"","value":"7e254521-b2e4-11e7-93d8-5254001aba5d"}],"uuid":"95e2f732-0f75-11e7-8ff3-00163e007053"},{"target_value":"s{\"department\":[\"a62ef58e-beb4-11e7-98c2-5254001aba5d\"],\"employee\":[]}","target_type":"sponsor","approvers":[{"type":"login_user_department_manager","uuid":"","value":""},{"type":"department_manager","uuid":"","value":"${organization_2.uuid}"},{"type":"employee","uuid":"","value":"7e254521-b2e4-11e7-93d8-5254001aba5d"}],"uuid":""}]</t>
-  </si>
-  <si>
-    <t>[{"target_value":"s{}","target_type":"","approvers":[{"type":"reporting_to","uuid":"","value":"1"},{"type":"reporting_to","uuid":"","value":"2"},{"type":"reporting_to","uuid":"","value":"3"},{"type":"reporting_to","uuid":"","value":"4"},{"type":"login_user_department_manager","uuid":"","value":""},{"type":"department_manager","uuid":"","value":"${organization_2.uuid}"},{"type":"employee","uuid":"","value":"7e254521-b2e4-11e7-93d8-5254001aba5d"}],"uuid":"95e2f732-0f75-11e7-8ff3-00163e007053"},{"target_value":"s{\"department\":[\"a62ef58e-beb4-11e7-98c2-5254001aba5d\"],\"employee\":[]}","target_type":"sponsor","approvers":[{"type":"login_user_department_manager","uuid":"","value":""},{"type":"department_manager","uuid":"","value":"${organization_2.uuid}"},{"type":"employee","uuid":"","value":"7e254521-b2e4-11e7-93d8-5254001aba5d"}],"uuid":""},{"uuid":"","approvers":[{"uuid":"","type":"login_user_department_manager","value":""}],"target_type":"duration","target_value":"s{\"symbol\":\"&lt;\",\"unit\":\"d\",\"number\":\"5\"}"},{"uuid":"","approvers":[{"uuid":"","type":"login_user_department_manager","value":""},{"uuid":"","type":"department_manager","value":"${organization_1.uuid}"}],"target_type":"duration","target_value":"s{\"symbol\":\"==\",\"unit\":\"d\",\"number\":\"5\"}"},{"uuid":"","approvers":[{"uuid":"","type":"login_user_department_manager","value":""},{"uuid":"","type":"department_manager","value":"${organization_1.uuid}"},{"uuid":"","type":"employee","value":"7e254521-b2e4-11e7-93d8-5254001aba5d"}],"target_type":"duration","target_value":"s{\"symbol\":\"&gt;\",\"unit\":\"d\",\"number\":\"5\"}"}]</t>
-  </si>
-  <si>
-    <t>[{"target_value":"s{}","target_type":"","approvers":[{"type":"reporting_to","uuid":"","value":"1"},{"type":"reporting_to","uuid":"","value":"2"},{"type":"reporting_to","uuid":"","value":"3"},{"type":"reporting_to","uuid":"","value":"4"},{"type":"login_user_department_manager","uuid":"","value":""},{"type":"department_manager","uuid":"","value":"${organization_2.uuid}"},{"type":"employee","uuid":"","value":"7e254521-b2e4-11e7-93d8-5254001aba5d"}],"uuid":"95e04b46-0f75-11e7-8ff3-00163e007053"},{"target_value":"s{\"department\":[\"a62ef58e-beb4-11e7-98c2-5254001aba5d\"],\"employee\":[]}","target_type":"sponsor","approvers":[{"type":"login_user_department_manager","uuid":"","value":""},{"type":"department_manager","uuid":"","value":"${organization_2.uuid}"},{"type":"employee","uuid":"","value":"7e254521-b2e4-11e7-93d8-5254001aba5d"}],"uuid":""}]</t>
-  </si>
-  <si>
-    <t>[{"target_value":"s{}","target_type":"","approvers":[{"type":"reporting_to","uuid":"","value":"1"},{"type":"reporting_to","uuid":"","value":"2"},{"type":"reporting_to","uuid":"","value":"3"},{"type":"reporting_to","uuid":"","value":"4"},{"type":"login_user_department_manager","uuid":"","value":""},{"type":"department_manager","uuid":"","value":"${organization_2.uuid}"},{"type":"employee","uuid":"","value":"7e254521-b2e4-11e7-93d8-5254001aba5d"}],"uuid":"95e04b46-0f75-11e7-8ff3-00163e007053"},{"target_value":"s{\"department\":[\"a62ef58e-beb4-11e7-98c2-5254001aba5d\"],\"employee\":[]}","target_type":"sponsor","approvers":[{"type":"login_user_department_manager","uuid":"","value":""},{"type":"department_manager","uuid":"","value":"${organization_2.uuid}"},{"type":"employee","uuid":"","value":"7e254521-b2e4-11e7-93d8-5254001aba5d"}],"uuid":""},{"uuid":"","approvers":[{"uuid":"","type":"login_user_department_manager","value":""}],"target_type":"duration","target_value":"s{\"symbol\":\"&lt;\",\"unit\":\"d\",\"number\":\"5\"}"},{"uuid":"","approvers":[{"uuid":"","type":"login_user_department_manager","value":""},{"uuid":"","type":"department_manager","value":"${organization_1.uuid}"}],"target_type":"duration","target_value":"s{\"symbol\":\"==\",\"unit\":\"d\",\"number\":\"5\"}"},{"uuid":"","approvers":[{"uuid":"","type":"login_user_department_manager","value":""},{"uuid":"","type":"department_manager","value":"${organization_1.uuid}"},{"uuid":"","type":"employee","value":"7e254521-b2e4-11e7-93d8-5254001aba5d"}],"target_type":"duration","target_value":"s{\"symbol\":\"&gt;\",\"unit\":\"d\",\"number\":\"5\"}"}]</t>
-  </si>
-  <si>
-    <t>[{"target_value":"s{}","target_type":"","approvers":[{"type":"reporting_to","uuid":"","value":"1"},{"type":"reporting_to","uuid":"","value":"2"},{"type":"reporting_to","uuid":"","value":"3"},{"type":"reporting_to","uuid":"","value":"4"},{"type":"login_user_department_manager","uuid":"","value":""},{"type":"department_manager","uuid":"","value":"${organization_2.uuid}"},{"type":"employee","uuid":"","value":"7e254521-b2e4-11e7-93d8-5254001aba5d"}],"uuid":"95e245f4-0f75-11e7-8ff3-00163e007053"},{"target_value":"s{\"department\":[\"a62ef58e-beb4-11e7-98c2-5254001aba5d\"],\"employee\":[]}","target_type":"sponsor","approvers":[{"type":"login_user_department_manager","uuid":"","value":""},{"type":"department_manager","uuid":"","value":"${organization_2.uuid}"},{"type":"employee","uuid":"","value":"7e254521-b2e4-11e7-93d8-5254001aba5d"}],"uuid":""}]</t>
-  </si>
-  <si>
-    <t>[{"target_value":"s{}","target_type":"","approvers":[{"type":"reporting_to","uuid":"","value":"1"},{"type":"reporting_to","uuid":"","value":"2"},{"type":"reporting_to","uuid":"","value":"3"},{"type":"reporting_to","uuid":"","value":"4"},{"type":"login_user_department_manager","uuid":"","value":""},{"type":"department_manager","uuid":"","value":"${organization_2.uuid}"},{"type":"employee","uuid":"","value":"7e254521-b2e4-11e7-93d8-5254001aba5d"}],"uuid":"95e245f4-0f75-11e7-8ff3-00163e007053"},{"target_value":"s{\"department\":[\"a62ef58e-beb4-11e7-98c2-5254001aba5d\"],\"employee\":[]}","target_type":"sponsor","approvers":[{"type":"login_user_department_manager","uuid":"","value":""},{"type":"department_manager","uuid":"","value":"${organization_2.uuid}"},{"type":"employee","uuid":"","value":"7e254521-b2e4-11e7-93d8-5254001aba5d"}],"uuid":""},{"uuid":"","approvers":[{"uuid":"","type":"login_user_department_manager","value":""}],"target_type":"duration","target_value":"s{\"symbol\":\"&lt;=\",\"unit\":\"d\",\"number\":\"4\"}"},{"uuid":"","approvers":[{"uuid":"","type":"login_user_department_manager","value":""},{"uuid":"","type":"department_manager","value":"${organization_1.uuid}"}],"target_type":"duration","target_value":"s{\"symbol\":\"==\",\"unit\":\"d\",\"number\":\"5\"}"},{"uuid":"","approvers":[{"uuid":"","type":"login_user_department_manager","value":""},{"uuid":"","type":"department_manager","value":"${organization_1.uuid}"},{"uuid":"","type":"employee","value":"7e254521-b2e4-11e7-93d8-5254001aba5d"}],"target_type":"duration","target_value":"s{\"symbol\":\"&gt;=\",\"unit\":\"d\",\"number\":\"6\"}"}]</t>
-  </si>
-  <si>
-    <t>[{"uuid":"8ad63f15-be23-11e7-afef-5254001aba5d","approvers":[{"uuid":"","type":"reporting_to","value":"1"},{"uuid":"","type":"reporting_to","value":"2"},{"uuid":"","type":"reporting_to","value":"3"},{"uuid":"","type":"reporting_to","value":"4"},{"uuid":"","type":"login_user_department_manager","value":""},{"uuid":"","type":"department_manager","value":"${organization_2.uuid}"},{"uuid":"","type":"employee","value":"7e254521-b2e4-11e7-93d8-5254001aba5d"}],"target_type":"","target_value":"s{}"},{"uuid":"","approvers":[{"uuid":"","type":"login_user_department_manager","value":""},{"uuid":"","type":"department_manager","value":"${organization_2.uuid}"},{"uuid":"","type":"employee","value":"7e254521-b2e4-11e7-93d8-5254001aba5d"}],"target_type":"sponsor","target_value":"s{\"department\":[\"a62ef58e-beb4-11e7-98c2-5254001aba5d\"],\"employee\":[]}"},{"uuid":"","approvers":[{"uuid":"","type":"login_user_department_manager","value":""},{"uuid":"","type":"employee","value":"7e254521-b2e4-11e7-93d8-5254001aba5d"},{"uuid":"","type":"employee","value":"b8a23753-0f75-11e7-9aa4-00163e007053"}],"target_type":"sponsor","target_value":"s{\"department\":[\"a72987b1-beb4-11e7-98c2-5254001aba5d\"],\"employee\":[]}"}]</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>[{"target_value":"s{}","target_type":"","approvers":[{"type":"reporting_to","uuid":"","value":"1"},{"type":"reporting_to","uuid":"","value":"2"},{"type":"reporting_to","uuid":"","value":"3"},{"type":"reporting_to","uuid":"","value":"4"},{"type":"login_user_department_manager","uuid":"","value":""},{"type":"department_manager","uuid":"","value":"${organization_2.uuid}"},{"type":"employee","uuid":"","value":"7e254521-b2e4-11e7-93d8-5254001aba5d"}],"uuid":"95db250e-0f75-11e7-8ff3-00163e007053"},{"target_value":"s{\"department\":[\"a62ef58e-beb4-11e7-98c2-5254001aba5d\"],\"employee\":[]}","target_type":"sponsor","approvers":[{"type":"login_user_department_manager","uuid":"","value":""},{"type":"department_manager","uuid":"","value":"${organization_2.uuid}"},{"type":"employee","uuid":"","value":"7e254521-b2e4-11e7-93d8-5254001aba5d"}],"uuid":""},{"uuid":"","approvers":[{"uuid":"","type":"login_user_department_manager","value":""},{"uuid":"","type":"employee","value":"7e254521-b2e4-11e7-93d8-5254001aba5d"},{"uuid":"","type":"employee","value":"b8a23753-0f75-11e7-9aa4-00163e007053"}],"target_type":"sponsor","target_value":"s{\"department\":[\"a72987b1-beb4-11e7-98c2-5254001aba5d\"],\"employee\":[]}"}]</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>[{"target_value":"s{}","target_type":"","approvers":[{"type":"reporting_to","uuid":"","value":"1"},{"type":"reporting_to","uuid":"","value":"2"},{"type":"reporting_to","uuid":"","value":"3"},{"type":"reporting_to","uuid":"","value":"4"},{"type":"login_user_department_manager","uuid":"","value":""},{"type":"department_manager","uuid":"","value":"${organization_2.uuid}"},{"type":"employee","uuid":"","value":"7e254521-b2e4-11e7-93d8-5254001aba5d"}],"uuid":"b276c863-bd48-11e7-a179-5254001aba5d"},{"target_value":"s{\"department\":[\"a62ef58e-beb4-11e7-98c2-5254001aba5d\"],\"employee\":[]}","target_type":"sponsor","approvers":[{"type":"login_user_department_manager","uuid":"","value":""},{"type":"department_manager","uuid":"","value":"${organization_2.uuid}"},{"type":"employee","uuid":"","value":"7e254521-b2e4-11e7-93d8-5254001aba5d"}],"uuid":""},{"uuid":"","approvers":[{"uuid":"","type":"login_user_department_manager","value":""},{"uuid":"","type":"employee","value":"7e254521-b2e4-11e7-93d8-5254001aba5d"},{"uuid":"","type":"employee","value":"b8a23753-0f75-11e7-9aa4-00163e007053"}],"target_type":"sponsor","target_value":"s{\"department\":[\"a72987b1-beb4-11e7-98c2-5254001aba5d\"],\"employee\":[]}"}]</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>Offboard_resign1</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>[{"uuid":"7642fbdf-bd26-11e7-a179-5254001aba5d","approvers":[{"uuid":"","type":"reporting_to","value":"1"},{"uuid":"","type":"reporting_to","value":"2"},{"uuid":"","type":"reporting_to","value":"3"},{"uuid":"","type":"reporting_to","value":"4"},{"uuid":"","type":"login_user_department_manager","value":""},{"uuid":"","type":"department_manager","value":"${organization_2.uuid}"},{"uuid":"","type":"employee","value":"7e254521-b2e4-11e7-93d8-5254001aba5d"}],"target_type":"","target_value":"s{}"},{"uuid":"","approvers":[{"uuid":"","type":"login_user_department_manager","value":""},{"uuid":"","type":"department_manager","value":"${organization_2.uuid}"},{"uuid":"","type":"employee","value":"7e254521-b2e4-11e7-93d8-5254001aba5d"}],"target_type":"sponsor","target_value":"s{\"department\":[\"a62ef58e-beb4-11e7-98c2-5254001aba5d\"],\"employee\":[]}"},{"uuid":"","approvers":[{"uuid":"","type":"login_user_department_manager","value":""},{"uuid":"","type":"employee","value":"7e254521-b2e4-11e7-93d8-5254001aba5d"},{"uuid":"","type":"employee","value":"b8a23753-0f75-11e7-9aa4-00163e007053"}],"target_type":"sponsor","target_value":"s{\"department\":[\"a72987b1-beb4-11e7-98c2-5254001aba5d\"],\"employee\":[]}"},{"uuid":"","approvers":[{"uuid":"","type":"reporting_to","value":"4"},{"uuid":"","type":"login_user_department_manager","value":""},{"uuid":"","type":"employee","value":"7e254521-b2e4-11e7-93d8-5254001aba5d"},{"uuid":"","type":"employee","value":"b8a23753-0f75-11e7-9aa4-00163e007053"}],"target_type":"sponsor","target_value":"s{\"department\":[],\"employee\":[\"b8a23753-0f75-11e7-9aa4-00163e007053\"]}"}]</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -973,7 +975,7 @@
   <dimension ref="A1:G26"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C19" sqref="C19"/>
+      <selection activeCell="B18" sqref="B18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1021,7 +1023,7 @@
         <v>54</v>
       </c>
       <c r="D2" t="s">
-        <v>108</v>
+        <v>133</v>
       </c>
       <c r="F2" t="s">
         <v>18</v>
@@ -1041,10 +1043,10 @@
         <v>34</v>
       </c>
       <c r="D3" t="s">
-        <v>109</v>
+        <v>134</v>
       </c>
       <c r="F3" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="G3" t="s">
         <v>33</v>
@@ -1061,7 +1063,7 @@
         <v>54</v>
       </c>
       <c r="D4" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="F4" t="s">
         <v>18</v>
@@ -1081,10 +1083,10 @@
         <v>53</v>
       </c>
       <c r="D5" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="F5" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="G5" t="s">
         <v>33</v>
@@ -1092,7 +1094,7 @@
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="B6" t="s">
         <v>55</v>
@@ -1101,7 +1103,7 @@
         <v>54</v>
       </c>
       <c r="D6" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="E6" t="s">
         <v>64</v>
@@ -1124,13 +1126,13 @@
         <v>53</v>
       </c>
       <c r="D7" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="E7" t="s">
         <v>59</v>
       </c>
       <c r="F7" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="G7" t="s">
         <v>33</v>
@@ -1147,7 +1149,7 @@
         <v>54</v>
       </c>
       <c r="D8" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="E8" t="s">
         <v>61</v>
@@ -1170,13 +1172,13 @@
         <v>53</v>
       </c>
       <c r="D9" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="E9" t="s">
         <v>60</v>
       </c>
       <c r="F9" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="G9" t="s">
         <v>33</v>
@@ -1193,7 +1195,7 @@
         <v>54</v>
       </c>
       <c r="D10" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="F10" t="s">
         <v>18</v>
@@ -1213,10 +1215,10 @@
         <v>53</v>
       </c>
       <c r="D11" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="F11" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="G11" t="s">
         <v>33</v>
@@ -1233,7 +1235,7 @@
         <v>54</v>
       </c>
       <c r="D12" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="F12" t="s">
         <v>18</v>
@@ -1253,10 +1255,10 @@
         <v>53</v>
       </c>
       <c r="D13" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="F13" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="G13" t="s">
         <v>33</v>
@@ -1273,10 +1275,10 @@
         <v>53</v>
       </c>
       <c r="D14" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="F14" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="G14" t="s">
         <v>33</v>
@@ -1293,7 +1295,7 @@
         <v>54</v>
       </c>
       <c r="D15" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="F15" t="s">
         <v>18</v>
@@ -1313,10 +1315,10 @@
         <v>53</v>
       </c>
       <c r="D16" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="F16" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="G16" t="s">
         <v>33</v>
@@ -1333,10 +1335,10 @@
         <v>53</v>
       </c>
       <c r="D17" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="F17" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="G17" t="s">
         <v>33</v>
@@ -1353,7 +1355,7 @@
         <v>54</v>
       </c>
       <c r="D18" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="F18" t="s">
         <v>18</v>
@@ -1373,10 +1375,10 @@
         <v>53</v>
       </c>
       <c r="D19" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="F19" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="G19" t="s">
         <v>33</v>
@@ -1393,10 +1395,10 @@
         <v>53</v>
       </c>
       <c r="D20" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="F20" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="G20" t="s">
         <v>33</v>
@@ -1413,7 +1415,7 @@
         <v>54</v>
       </c>
       <c r="D21" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="F21" t="s">
         <v>18</v>
@@ -1433,10 +1435,10 @@
         <v>53</v>
       </c>
       <c r="D22" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="F22" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="G22" t="s">
         <v>33</v>
@@ -1453,10 +1455,10 @@
         <v>53</v>
       </c>
       <c r="D23" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="F23" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="G23" t="s">
         <v>33</v>
@@ -1473,7 +1475,7 @@
         <v>54</v>
       </c>
       <c r="D24" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="F24" t="s">
         <v>18</v>
@@ -1493,10 +1495,10 @@
         <v>53</v>
       </c>
       <c r="D25" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="F25" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="G25" t="s">
         <v>33</v>
@@ -1513,10 +1515,10 @@
         <v>53</v>
       </c>
       <c r="D26" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="F26" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="G26" t="s">
         <v>33</v>

--- a/sources/case/ApprovalTypes.xlsx
+++ b/sources/case/ApprovalTypes.xlsx
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="563" uniqueCount="135">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="557" uniqueCount="135">
   <si>
     <t>API</t>
   </si>
@@ -485,30 +485,12 @@
     <t>[{"target_value":"s{}","target_type":"","approvers":[{"type":"reporting_to","uuid":"","value":"1"},{"type":"reporting_to","uuid":"","value":"2"},{"type":"reporting_to","uuid":"","value":"3"},{"type":"reporting_to","uuid":"","value":"4"},{"type":"login_user_department_manager","uuid":"","value":""},{"type":"department_manager","uuid":"","value":"${organization_2.uuid}"},{"type":"employee","uuid":"","value":"7e254521-b2e4-11e7-93d8-5254001aba5d"}],"uuid":"95d9b755-0f75-11e7-8ff3-00163e007053"},{"target_value":"s{\"department\":[\"a62ef58e-beb4-11e7-98c2-5254001aba5d\"],\"employee\":[]}","target_type":"sponsor","approvers":[{"type":"login_user_department_manager","uuid":"","value":""},{"type":"department_manager","uuid":"","value":"${organization_2.uuid}"},{"type":"employee","uuid":"","value":"7e254521-b2e4-11e7-93d8-5254001aba5d"}],"uuid":""}]</t>
   </si>
   <si>
-    <t>[{"target_value":"s{}","target_type":"","approvers":[{"type":"reporting_to","uuid":"","value":"1"},{"type":"reporting_to","uuid":"","value":"2"},{"type":"reporting_to","uuid":"","value":"3"},{"type":"reporting_to","uuid":"","value":"4"},{"type":"login_user_department_manager","uuid":"","value":""},{"type":"department_manager","uuid":"","value":"${organization_2.uuid}"},{"type":"employee","uuid":"","value":"7e254521-b2e4-11e7-93d8-5254001aba5d"}],"uuid":"5389429f-b9f7-11e7-9997-5254001aba5d"},{"target_value":"s{\"department\":[\"a62ef58e-beb4-11e7-98c2-5254001aba5d\"],\"employee\":[]}","target_type":"sponsor","approvers":[{"type":"login_user_department_manager","uuid":"","value":""},{"type":"department_manager","uuid":"","value":"${organization_2.uuid}"},{"type":"employee","uuid":"","value":"7e254521-b2e4-11e7-93d8-5254001aba5d"}],"uuid":""}]</t>
-  </si>
-  <si>
-    <t>[{"target_value":"s{}","target_type":"","approvers":[{"type":"reporting_to","uuid":"","value":"1"},{"type":"reporting_to","uuid":"","value":"2"},{"type":"reporting_to","uuid":"","value":"3"},{"type":"reporting_to","uuid":"","value":"4"},{"type":"login_user_department_manager","uuid":"","value":""},{"type":"department_manager","uuid":"","value":"${organization_2.uuid}"},{"type":"employee","uuid":"","value":"7e254521-b2e4-11e7-93d8-5254001aba5d"}],"uuid":"5389429f-b9f7-11e7-9997-5254001aba5d"},{"target_value":"s{\"department\":[\"a62ef58e-beb4-11e7-98c2-5254001aba5d\"],\"employee\":[]}","target_type":"sponsor","approvers":[{"type":"login_user_department_manager","uuid":"","value":""},{"type":"department_manager","uuid":"","value":"${organization_2.uuid}"},{"type":"employee","uuid":"","value":"7e254521-b2e4-11e7-93d8-5254001aba5d"}],"uuid":""},{"uuid":"","approvers":[{"uuid":"","type":"login_user_department_manager","value":""}],"target_type":"duration","target_value":"s{\"symbol\":\"&lt;\",\"unit\":\"d\",\"number\":\"5\"}"},{"uuid":"","approvers":[{"uuid":"","type":"login_user_department_manager","value":""},{"uuid":"","type":"department_manager","value":"${organization_1.uuid}"}],"target_type":"duration","target_value":"s{\"symbol\":\"==\",\"unit\":\"d\",\"number\":\"5\"}"},{"uuid":"","approvers":[{"uuid":"","type":"login_user_department_manager","value":""},{"uuid":"","type":"department_manager","value":"${organization_1.uuid}"},{"uuid":"","type":"employee","value":"7e254521-b2e4-11e7-93d8-5254001aba5d"}],"target_type":"duration","target_value":"s{\"symbol\":\"&gt;\",\"unit\":\"d\",\"number\":\"5\"}"}]</t>
-  </si>
-  <si>
-    <t>[{"target_value":"s{}","target_type":"","approvers":[{"type":"reporting_to","uuid":"","value":"1"},{"type":"reporting_to","uuid":"","value":"2"},{"type":"reporting_to","uuid":"","value":"3"},{"type":"reporting_to","uuid":"","value":"4"},{"type":"login_user_department_manager","uuid":"","value":""},{"type":"department_manager","uuid":"","value":"${organization_2.uuid}"},{"type":"employee","uuid":"","value":"7e254521-b2e4-11e7-93d8-5254001aba5d"}],"uuid":"95e367b3-0f75-11e7-8ff3-00163e007053"},{"target_value":"s{\"department\":[\"a62ef58e-beb4-11e7-98c2-5254001aba5d\"],\"employee\":[]}","target_type":"sponsor","approvers":[{"type":"login_user_department_manager","uuid":"","value":""},{"type":"department_manager","uuid":"","value":"${organization_2.uuid}"},{"type":"employee","uuid":"","value":"7e254521-b2e4-11e7-93d8-5254001aba5d"}],"uuid":""}]</t>
-  </si>
-  <si>
-    <t>[{"target_value":"s{}","target_type":"","approvers":[{"type":"reporting_to","uuid":"","value":"1"},{"type":"reporting_to","uuid":"","value":"2"},{"type":"reporting_to","uuid":"","value":"3"},{"type":"reporting_to","uuid":"","value":"4"},{"type":"login_user_department_manager","uuid":"","value":""},{"type":"department_manager","uuid":"","value":"${organization_2.uuid}"},{"type":"employee","uuid":"","value":"7e254521-b2e4-11e7-93d8-5254001aba5d"}],"uuid":"95e367b3-0f75-11e7-8ff3-00163e007053"},{"target_value":"s{\"department\":[\"a62ef58e-beb4-11e7-98c2-5254001aba5d\"],\"employee\":[]}","target_type":"sponsor","approvers":[{"type":"login_user_department_manager","uuid":"","value":""},{"type":"department_manager","uuid":"","value":"${organization_2.uuid}"},{"type":"employee","uuid":"","value":"7e254521-b2e4-11e7-93d8-5254001aba5d"}],"uuid":""},{"uuid":"","approvers":[{"uuid":"","type":"login_user_department_manager","value":""}],"target_type":"duration","target_value":"s{\"symbol\":\"&lt;\",\"unit\":\"d\",\"number\":\"5\"}"},{"uuid":"","approvers":[{"uuid":"","type":"login_user_department_manager","value":""},{"uuid":"","type":"department_manager","value":"${organization_1.uuid}"}],"target_type":"duration","target_value":"s{\"symbol\":\"==\",\"unit\":\"d\",\"number\":\"5\"}"},{"uuid":"","approvers":[{"uuid":"","type":"login_user_department_manager","value":""},{"uuid":"","type":"department_manager","value":"${organization_1.uuid}"},{"uuid":"","type":"employee","value":"7e254521-b2e4-11e7-93d8-5254001aba5d"}],"target_type":"duration","target_value":"s{\"symbol\":\"&gt;\",\"unit\":\"d\",\"number\":\"5\"}"}]</t>
-  </si>
-  <si>
     <t>[{"target_value":"s{}","target_type":"","approvers":[{"type":"reporting_to","uuid":"","value":"1"},{"type":"reporting_to","uuid":"","value":"2"},{"type":"reporting_to","uuid":"","value":"3"},{"type":"reporting_to","uuid":"","value":"4"},{"type":"login_user_department_manager","uuid":"","value":""},{"type":"department_manager","uuid":"","value":"${organization_2.uuid}"},{"type":"employee","uuid":"","value":"7e254521-b2e4-11e7-93d8-5254001aba5d"}],"uuid":"95e2f732-0f75-11e7-8ff3-00163e007053"},{"target_value":"s{\"department\":[\"a62ef58e-beb4-11e7-98c2-5254001aba5d\"],\"employee\":[]}","target_type":"sponsor","approvers":[{"type":"login_user_department_manager","uuid":"","value":""},{"type":"department_manager","uuid":"","value":"${organization_2.uuid}"},{"type":"employee","uuid":"","value":"7e254521-b2e4-11e7-93d8-5254001aba5d"}],"uuid":""}]</t>
   </si>
   <si>
-    <t>[{"target_value":"s{}","target_type":"","approvers":[{"type":"reporting_to","uuid":"","value":"1"},{"type":"reporting_to","uuid":"","value":"2"},{"type":"reporting_to","uuid":"","value":"3"},{"type":"reporting_to","uuid":"","value":"4"},{"type":"login_user_department_manager","uuid":"","value":""},{"type":"department_manager","uuid":"","value":"${organization_2.uuid}"},{"type":"employee","uuid":"","value":"7e254521-b2e4-11e7-93d8-5254001aba5d"}],"uuid":"95e2f732-0f75-11e7-8ff3-00163e007053"},{"target_value":"s{\"department\":[\"a62ef58e-beb4-11e7-98c2-5254001aba5d\"],\"employee\":[]}","target_type":"sponsor","approvers":[{"type":"login_user_department_manager","uuid":"","value":""},{"type":"department_manager","uuid":"","value":"${organization_2.uuid}"},{"type":"employee","uuid":"","value":"7e254521-b2e4-11e7-93d8-5254001aba5d"}],"uuid":""},{"uuid":"","approvers":[{"uuid":"","type":"login_user_department_manager","value":""}],"target_type":"duration","target_value":"s{\"symbol\":\"&lt;\",\"unit\":\"d\",\"number\":\"5\"}"},{"uuid":"","approvers":[{"uuid":"","type":"login_user_department_manager","value":""},{"uuid":"","type":"department_manager","value":"${organization_1.uuid}"}],"target_type":"duration","target_value":"s{\"symbol\":\"==\",\"unit\":\"d\",\"number\":\"5\"}"},{"uuid":"","approvers":[{"uuid":"","type":"login_user_department_manager","value":""},{"uuid":"","type":"department_manager","value":"${organization_1.uuid}"},{"uuid":"","type":"employee","value":"7e254521-b2e4-11e7-93d8-5254001aba5d"}],"target_type":"duration","target_value":"s{\"symbol\":\"&gt;\",\"unit\":\"d\",\"number\":\"5\"}"}]</t>
-  </si>
-  <si>
     <t>[{"target_value":"s{}","target_type":"","approvers":[{"type":"reporting_to","uuid":"","value":"1"},{"type":"reporting_to","uuid":"","value":"2"},{"type":"reporting_to","uuid":"","value":"3"},{"type":"reporting_to","uuid":"","value":"4"},{"type":"login_user_department_manager","uuid":"","value":""},{"type":"department_manager","uuid":"","value":"${organization_2.uuid}"},{"type":"employee","uuid":"","value":"7e254521-b2e4-11e7-93d8-5254001aba5d"}],"uuid":"95e04b46-0f75-11e7-8ff3-00163e007053"},{"target_value":"s{\"department\":[\"a62ef58e-beb4-11e7-98c2-5254001aba5d\"],\"employee\":[]}","target_type":"sponsor","approvers":[{"type":"login_user_department_manager","uuid":"","value":""},{"type":"department_manager","uuid":"","value":"${organization_2.uuid}"},{"type":"employee","uuid":"","value":"7e254521-b2e4-11e7-93d8-5254001aba5d"}],"uuid":""}]</t>
   </si>
   <si>
-    <t>[{"target_value":"s{}","target_type":"","approvers":[{"type":"reporting_to","uuid":"","value":"1"},{"type":"reporting_to","uuid":"","value":"2"},{"type":"reporting_to","uuid":"","value":"3"},{"type":"reporting_to","uuid":"","value":"4"},{"type":"login_user_department_manager","uuid":"","value":""},{"type":"department_manager","uuid":"","value":"${organization_2.uuid}"},{"type":"employee","uuid":"","value":"7e254521-b2e4-11e7-93d8-5254001aba5d"}],"uuid":"95e04b46-0f75-11e7-8ff3-00163e007053"},{"target_value":"s{\"department\":[\"a62ef58e-beb4-11e7-98c2-5254001aba5d\"],\"employee\":[]}","target_type":"sponsor","approvers":[{"type":"login_user_department_manager","uuid":"","value":""},{"type":"department_manager","uuid":"","value":"${organization_2.uuid}"},{"type":"employee","uuid":"","value":"7e254521-b2e4-11e7-93d8-5254001aba5d"}],"uuid":""},{"uuid":"","approvers":[{"uuid":"","type":"login_user_department_manager","value":""}],"target_type":"duration","target_value":"s{\"symbol\":\"&lt;\",\"unit\":\"d\",\"number\":\"5\"}"},{"uuid":"","approvers":[{"uuid":"","type":"login_user_department_manager","value":""},{"uuid":"","type":"department_manager","value":"${organization_1.uuid}"}],"target_type":"duration","target_value":"s{\"symbol\":\"==\",\"unit\":\"d\",\"number\":\"5\"}"},{"uuid":"","approvers":[{"uuid":"","type":"login_user_department_manager","value":""},{"uuid":"","type":"department_manager","value":"${organization_1.uuid}"},{"uuid":"","type":"employee","value":"7e254521-b2e4-11e7-93d8-5254001aba5d"}],"target_type":"duration","target_value":"s{\"symbol\":\"&gt;\",\"unit\":\"d\",\"number\":\"5\"}"}]</t>
-  </si>
-  <si>
     <t>[{"target_value":"s{}","target_type":"","approvers":[{"type":"reporting_to","uuid":"","value":"1"},{"type":"reporting_to","uuid":"","value":"2"},{"type":"reporting_to","uuid":"","value":"3"},{"type":"reporting_to","uuid":"","value":"4"},{"type":"login_user_department_manager","uuid":"","value":""},{"type":"department_manager","uuid":"","value":"${organization_2.uuid}"},{"type":"employee","uuid":"","value":"7e254521-b2e4-11e7-93d8-5254001aba5d"}],"uuid":"95e245f4-0f75-11e7-8ff3-00163e007053"},{"target_value":"s{\"department\":[\"a62ef58e-beb4-11e7-98c2-5254001aba5d\"],\"employee\":[]}","target_type":"sponsor","approvers":[{"type":"login_user_department_manager","uuid":"","value":""},{"type":"department_manager","uuid":"","value":"${organization_2.uuid}"},{"type":"employee","uuid":"","value":"7e254521-b2e4-11e7-93d8-5254001aba5d"}],"uuid":""}]</t>
   </si>
   <si>
@@ -536,6 +518,30 @@
   </si>
   <si>
     <t>[{"uuid":"7642fbdf-bd26-11e7-a179-5254001aba5d","approvers":[{"uuid":"","type":"reporting_to","value":"1"},{"uuid":"","type":"reporting_to","value":"2"},{"uuid":"","type":"reporting_to","value":"3"},{"uuid":"","type":"reporting_to","value":"4"},{"uuid":"","type":"login_user_department_manager","value":""},{"uuid":"","type":"department_manager","value":"${organization_2.uuid}"},{"uuid":"","type":"employee","value":"7e254521-b2e4-11e7-93d8-5254001aba5d"}],"target_type":"","target_value":"s{}"},{"uuid":"","approvers":[{"uuid":"","type":"login_user_department_manager","value":""},{"uuid":"","type":"department_manager","value":"${organization_2.uuid}"},{"uuid":"","type":"employee","value":"7e254521-b2e4-11e7-93d8-5254001aba5d"}],"target_type":"sponsor","target_value":"s{\"department\":[\"a62ef58e-beb4-11e7-98c2-5254001aba5d\"],\"employee\":[]}"},{"uuid":"","approvers":[{"uuid":"","type":"login_user_department_manager","value":""},{"uuid":"","type":"employee","value":"7e254521-b2e4-11e7-93d8-5254001aba5d"},{"uuid":"","type":"employee","value":"b8a23753-0f75-11e7-9aa4-00163e007053"}],"target_type":"sponsor","target_value":"s{\"department\":[\"a72987b1-beb4-11e7-98c2-5254001aba5d\"],\"employee\":[]}"},{"uuid":"","approvers":[{"uuid":"","type":"reporting_to","value":"4"},{"uuid":"","type":"login_user_department_manager","value":""},{"uuid":"","type":"employee","value":"7e254521-b2e4-11e7-93d8-5254001aba5d"},{"uuid":"","type":"employee","value":"b8a23753-0f75-11e7-9aa4-00163e007053"}],"target_type":"sponsor","target_value":"s{\"department\":[],\"employee\":[\"b8a23753-0f75-11e7-9aa4-00163e007053\"]}"}]</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>[{"uuid":"95e367b3-0f75-11e7-8ff3-00163e007053","approvers":[{"uuid":"","type":"reporting_to","value":"1"},{"uuid":"","type":"reporting_to","value":"2"},{"uuid":"","type":"reporting_to","value":"3"},{"uuid":"","type":"reporting_to","value":"4"},{"uuid":"","type":"login_user_department_manager","value":""},{"uuid":"","type":"department_manager","value":"${organization_2.uuid}"},{"uuid":"","type":"employee","value":"7e254521-b2e4-11e7-93d8-5254001aba5d"}],"target_type":"","target_value":"s{}"},{"uuid":"","approvers":[{"uuid":"","type":"login_user_department_manager","value":""},{"uuid":"","type":"department_manager","value":"${organization_2.uuid}"},{"uuid":"","type":"employee","value":"7e254521-b2e4-11e7-93d8-5254001aba5d"}],"target_type":"sponsor","target_value":"s{\"department\":[\"a62ef58e-beb4-11e7-98c2-5254001aba5d\"],\"employee\":[]}"},{"uuid":"","approvers":[{"uuid":"","type":"login_user_department_manager","value":""},{"uuid":"","type":"employee","value":"7e254521-b2e4-11e7-93d8-5254001aba5d"},{"uuid":"","type":"employee","value":"b8a23753-0f75-11e7-9aa4-00163e007053"}],"target_type":"sponsor","target_value":"s{\"department\":[\"a72987b1-beb4-11e7-98c2-5254001aba5d\"],\"employee\":[]}"},{"uuid":"","approvers":[{"uuid":"","type":"reporting_to","value":"4"},{"uuid":"","type":"login_user_department_manager","value":""},{"uuid":"","type":"employee","value":"7e254521-b2e4-11e7-93d8-5254001aba5d"},{"uuid":"","type":"employee","value":"b8a23753-0f75-11e7-9aa4-00163e007053"}],"target_type":"sponsor","target_value":"s{\"department\":[],\"employee\":[\"b8a23753-0f75-11e7-9aa4-00163e007053\"]}"}]</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>[{"target_value":"s{}","target_type":"","approvers":[{"type":"reporting_to","uuid":"","value":"1"},{"type":"reporting_to","uuid":"","value":"2"},{"type":"reporting_to","uuid":"","value":"3"},{"type":"reporting_to","uuid":"","value":"4"},{"type":"login_user_department_manager","uuid":"","value":""},{"type":"department_manager","uuid":"","value":"${organization_2.uuid}"},{"type":"employee","uuid":"","value":"7e254521-b2e4-11e7-93d8-5254001aba5d"}],"uuid":"95e2f732-0f75-11e7-8ff3-00163e007053"},{"target_value":"s{\"department\":[\"a62ef58e-beb4-11e7-98c2-5254001aba5d\"],\"employee\":[]}","target_type":"sponsor","approvers":[{"type":"login_user_department_manager","uuid":"","value":""},{"type":"department_manager","uuid":"","value":"${organization_2.uuid}"},{"type":"employee","uuid":"","value":"7e254521-b2e4-11e7-93d8-5254001aba5d"}],"uuid":""},{"uuid":"","approvers":[{"uuid":"","type":"login_user_department_manager","value":""}],"target_type":"duration","target_value":"s{\"symbol\":\"&lt;\",\"unit\":\"h\",\"number\":\"4\"}"},{"uuid":"","approvers":[{"uuid":"","type":"login_user_department_manager","value":""},{"uuid":"","type":"department_manager","value":"${organization_1.uuid}"}],"target_type":"duration","target_value":"s{\"symbol\":\"==\",\"unit\":\"h\",\"number\":\"4\"}"},{"uuid":"","approvers":[{"uuid":"","type":"login_user_department_manager","value":""},{"uuid":"","type":"department_manager","value":"${organization_1.uuid}"},{"uuid":"","type":"employee","value":"7e254521-b2e4-11e7-93d8-5254001aba5d"}],"target_type":"duration","target_value":"s{\"symbol\":\"&gt;\",\"unit\":\"h\",\"number\":\"4\"}"}]</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>[{"target_value":"s{}","target_type":"","approvers":[{"type":"reporting_to","uuid":"","value":"1"},{"type":"reporting_to","uuid":"","value":"2"},{"type":"reporting_to","uuid":"","value":"3"},{"type":"reporting_to","uuid":"","value":"4"},{"type":"login_user_department_manager","uuid":"","value":""},{"type":"department_manager","uuid":"","value":"${organization_2.uuid}"},{"type":"employee","uuid":"","value":"7e254521-b2e4-11e7-93d8-5254001aba5d"}],"uuid":"5389429f-b9f7-11e7-9997-5254001aba5d"},{"target_value":"s{\"department\":[\"a62ef58e-beb4-11e7-98c2-5254001aba5d\"],\"employee\":[]}","target_type":"sponsor","approvers":[{"type":"login_user_department_manager","uuid":"","value":""},{"type":"department_manager","uuid":"","value":"${organization_2.uuid}"},{"type":"employee","uuid":"","value":"7e254521-b2e4-11e7-93d8-5254001aba5d"}],"uuid":""},{"uuid":"","approvers":[{"uuid":"","type":"login_user_department_manager","value":""}],"target_type":"duration","target_value":"s{\"symbol\":\"&lt;\",\"unit\":\"m\",\"number\":\"60\"}"},{"uuid":"","approvers":[{"uuid":"","type":"login_user_department_manager","value":""},{"uuid":"","type":"department_manager","value":"${organization_1.uuid}"}],"target_type":"duration","target_value":"s{\"symbol\":\"==\",\"unit\":\"m\",\"number\":\"60\"}"},{"uuid":"","approvers":[{"uuid":"","type":"login_user_department_manager","value":""},{"uuid":"","type":"department_manager","value":"${organization_1.uuid}"},{"uuid":"","type":"employee","value":"7e254521-b2e4-11e7-93d8-5254001aba5d"}],"target_type":"duration","target_value":"s{\"symbol\":\"&gt;\",\"unit\":\"m\",\"number\":\"60\"}"},{"uuid":"","approvers":[{"uuid":"","type":"employee","value":"7e254521-b2e4-11e7-93d8-5254001aba5d"},{"uuid":"","type":"login_user_department_manager","value":""}],"target_type":"sponsor","target_value":"s{\"department\":[],\"employee\":[\"b8a23753-0f75-11e7-9aa4-00163e007053\"]}"}]</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>[{"target_value":"s{}","target_type":"","approvers":[{"type":"reporting_to","uuid":"","value":"1"},{"type":"reporting_to","uuid":"","value":"2"},{"type":"reporting_to","uuid":"","value":"3"},{"type":"reporting_to","uuid":"","value":"4"},{"type":"login_user_department_manager","uuid":"","value":""},{"type":"department_manager","uuid":"","value":"${organization_2.uuid}"},{"type":"employee","uuid":"","value":"7e254521-b2e4-11e7-93d8-5254001aba5d"}],"uuid":"5389429f-b9f7-11e7-9997-5254001aba5d"},{"target_value":"s{\"department\":[\"a62ef58e-beb4-11e7-98c2-5254001aba5d\"],\"employee\":[]}","target_type":"sponsor","approvers":[{"type":"login_user_department_manager","uuid":"","value":""},{"type":"department_manager","uuid":"","value":"${organization_2.uuid}"},{"type":"employee","uuid":"","value":"7e254521-b2e4-11e7-93d8-5254001aba5d"}],"uuid":""},{"uuid":"","approvers":[{"uuid":"","type":"employee","value":"7e254521-b2e4-11e7-93d8-5254001aba5d"},{"uuid":"","type":"login_user_department_manager","value":""}],"target_type":"sponsor","target_value":"s{\"department\":[],\"employee\":[\"b8a23753-0f75-11e7-9aa4-00163e007053\"]}"}]</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>[{"target_value":"s{}","target_type":"","approvers":[{"type":"reporting_to","uuid":"","value":"1"},{"type":"reporting_to","uuid":"","value":"2"},{"type":"reporting_to","uuid":"","value":"3"},{"type":"reporting_to","uuid":"","value":"4"},{"type":"login_user_department_manager","uuid":"","value":""},{"type":"department_manager","uuid":"","value":"${organization_2.uuid}"},{"type":"employee","uuid":"","value":"7e254521-b2e4-11e7-93d8-5254001aba5d"}],"uuid":"95e04b46-0f75-11e7-8ff3-00163e007053"},{"target_value":"s{\"department\":[\"a62ef58e-beb4-11e7-98c2-5254001aba5d\"],\"employee\":[]}","target_type":"sponsor","approvers":[{"type":"login_user_department_manager","uuid":"","value":""},{"type":"department_manager","uuid":"","value":"${organization_2.uuid}"},{"type":"employee","uuid":"","value":"7e254521-b2e4-11e7-93d8-5254001aba5d"}],"uuid":""},{"uuid":"","approvers":[{"uuid":"","type":"login_user_department_manager","value":""}],"target_type":"duration","target_value":"s{\"symbol\":\"&lt;\",\"unit\":\"m\",\"number\":\"60\"}"},{"uuid":"","approvers":[{"uuid":"","type":"login_user_department_manager","value":""},{"uuid":"","type":"department_manager","value":"${organization_1.uuid}"}],"target_type":"duration","target_value":"s{\"symbol\":\"==\",\"unit\":\"m\",\"number\":\"60\"}"},{"uuid":"","approvers":[{"uuid":"","type":"login_user_department_manager","value":""},{"uuid":"","type":"department_manager","value":"${organization_1.uuid}"}],"target_type":"duration","target_value":"s{\"symbol\":\"==\",\"unit\":\"d\",\"number\":\"5\"}"},{"uuid":"","approvers":[{"uuid":"","type":"login_user_department_manager","value":""},{"uuid":"","type":"department_manager","value":"${organization_1.uuid}"},{"uuid":"","type":"employee","value":"7e254521-b2e4-11e7-93d8-5254001aba5d"}],"target_type":"duration","target_value":"s{\"symbol\":\"&gt;\",\"unit\":\"d\",\"number\":\"5\"}"}]</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>approval_end</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -972,10 +978,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G26"/>
+  <dimension ref="A1:G25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B18" sqref="B18"/>
+      <selection activeCell="C26" sqref="C26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1023,7 +1029,7 @@
         <v>54</v>
       </c>
       <c r="D2" t="s">
-        <v>133</v>
+        <v>127</v>
       </c>
       <c r="F2" t="s">
         <v>18</v>
@@ -1043,7 +1049,7 @@
         <v>34</v>
       </c>
       <c r="D3" t="s">
-        <v>134</v>
+        <v>128</v>
       </c>
       <c r="F3" t="s">
         <v>116</v>
@@ -1083,7 +1089,7 @@
         <v>53</v>
       </c>
       <c r="D5" t="s">
-        <v>129</v>
+        <v>123</v>
       </c>
       <c r="F5" t="s">
         <v>116</v>
@@ -1094,7 +1100,7 @@
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>132</v>
+        <v>126</v>
       </c>
       <c r="B6" t="s">
         <v>55</v>
@@ -1126,7 +1132,7 @@
         <v>53</v>
       </c>
       <c r="D7" t="s">
-        <v>130</v>
+        <v>124</v>
       </c>
       <c r="E7" t="s">
         <v>59</v>
@@ -1172,7 +1178,7 @@
         <v>53</v>
       </c>
       <c r="D9" t="s">
-        <v>131</v>
+        <v>125</v>
       </c>
       <c r="E9" t="s">
         <v>60</v>
@@ -1255,7 +1261,7 @@
         <v>53</v>
       </c>
       <c r="D13" t="s">
-        <v>119</v>
+        <v>132</v>
       </c>
       <c r="F13" t="s">
         <v>116</v>
@@ -1275,7 +1281,7 @@
         <v>53</v>
       </c>
       <c r="D14" t="s">
-        <v>120</v>
+        <v>131</v>
       </c>
       <c r="F14" t="s">
         <v>116</v>
@@ -1315,7 +1321,7 @@
         <v>53</v>
       </c>
       <c r="D16" t="s">
-        <v>121</v>
+        <v>129</v>
       </c>
       <c r="F16" t="s">
         <v>116</v>
@@ -1326,19 +1332,19 @@
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
-        <v>103</v>
+        <v>88</v>
       </c>
       <c r="B17" t="s">
-        <v>80</v>
+        <v>87</v>
       </c>
       <c r="C17" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="D17" t="s">
-        <v>122</v>
+        <v>113</v>
       </c>
       <c r="F17" t="s">
-        <v>116</v>
+        <v>18</v>
       </c>
       <c r="G17" t="s">
         <v>33</v>
@@ -1346,19 +1352,19 @@
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="B18" t="s">
         <v>87</v>
       </c>
       <c r="C18" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="D18" t="s">
-        <v>113</v>
+        <v>119</v>
       </c>
       <c r="F18" t="s">
-        <v>18</v>
+        <v>116</v>
       </c>
       <c r="G18" t="s">
         <v>33</v>
@@ -1366,7 +1372,7 @@
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
-        <v>89</v>
+        <v>104</v>
       </c>
       <c r="B19" t="s">
         <v>87</v>
@@ -1375,7 +1381,7 @@
         <v>53</v>
       </c>
       <c r="D19" t="s">
-        <v>123</v>
+        <v>130</v>
       </c>
       <c r="F19" t="s">
         <v>116</v>
@@ -1386,19 +1392,19 @@
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
-        <v>104</v>
+        <v>95</v>
       </c>
       <c r="B20" t="s">
-        <v>87</v>
+        <v>92</v>
       </c>
       <c r="C20" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="D20" t="s">
-        <v>124</v>
+        <v>114</v>
       </c>
       <c r="F20" t="s">
-        <v>116</v>
+        <v>18</v>
       </c>
       <c r="G20" t="s">
         <v>33</v>
@@ -1406,27 +1412,27 @@
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="B21" t="s">
         <v>92</v>
       </c>
       <c r="C21" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="D21" t="s">
-        <v>114</v>
+        <v>120</v>
       </c>
       <c r="F21" t="s">
-        <v>18</v>
+        <v>116</v>
       </c>
       <c r="G21" t="s">
-        <v>33</v>
+        <v>134</v>
       </c>
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
-        <v>96</v>
+        <v>105</v>
       </c>
       <c r="B22" t="s">
         <v>92</v>
@@ -1435,30 +1441,30 @@
         <v>53</v>
       </c>
       <c r="D22" t="s">
-        <v>125</v>
+        <v>133</v>
       </c>
       <c r="F22" t="s">
         <v>116</v>
       </c>
       <c r="G22" t="s">
-        <v>33</v>
+        <v>134</v>
       </c>
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
-        <v>105</v>
+        <v>98</v>
       </c>
       <c r="B23" t="s">
-        <v>92</v>
+        <v>97</v>
       </c>
       <c r="C23" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="D23" t="s">
-        <v>126</v>
+        <v>115</v>
       </c>
       <c r="F23" t="s">
-        <v>116</v>
+        <v>18</v>
       </c>
       <c r="G23" t="s">
         <v>33</v>
@@ -1466,19 +1472,19 @@
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="B24" t="s">
         <v>97</v>
       </c>
       <c r="C24" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="D24" t="s">
-        <v>115</v>
+        <v>121</v>
       </c>
       <c r="F24" t="s">
-        <v>18</v>
+        <v>116</v>
       </c>
       <c r="G24" t="s">
         <v>33</v>
@@ -1486,7 +1492,7 @@
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
-        <v>99</v>
+        <v>106</v>
       </c>
       <c r="B25" t="s">
         <v>97</v>
@@ -1495,32 +1501,12 @@
         <v>53</v>
       </c>
       <c r="D25" t="s">
-        <v>127</v>
+        <v>122</v>
       </c>
       <c r="F25" t="s">
         <v>116</v>
       </c>
       <c r="G25" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A26" t="s">
-        <v>106</v>
-      </c>
-      <c r="B26" t="s">
-        <v>97</v>
-      </c>
-      <c r="C26" t="s">
-        <v>53</v>
-      </c>
-      <c r="D26" t="s">
-        <v>128</v>
-      </c>
-      <c r="F26" t="s">
-        <v>116</v>
-      </c>
-      <c r="G26" t="s">
         <v>33</v>
       </c>
     </row>

--- a/sources/case/ApprovalTypes.xlsx
+++ b/sources/case/ApprovalTypes.xlsx
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="557" uniqueCount="135">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="557" uniqueCount="134">
   <si>
     <t>API</t>
   </si>
@@ -447,10 +447,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>n</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>[{"uuid":"95db250e-0f75-11e7-8ff3-00163e007053","approvers":[{"uuid":"","type":"reporting_to","value":"1"},{"uuid":"","type":"reporting_to","value":"2"},{"uuid":"","type":"reporting_to","value":"3"},{"uuid":"","type":"reporting_to","value":"4"},{"uuid":"","type":"login_user_department_manager","value":""},{"uuid":"","type":"department_manager","value":"${organization_2.uuid}"},{"uuid":"","type":"employee","value":"7e254521-b2e4-11e7-93d8-5254001aba5d"}],"target_type":"","target_value":"s{}"}]</t>
   </si>
   <si>
@@ -472,9 +468,6 @@
     <t>[{"target_value":"s{}","target_type":"","approvers":[{"type":"reporting_to","uuid":"","value":"1"},{"type":"reporting_to","uuid":"","value":"2"},{"type":"reporting_to","uuid":"","value":"3"},{"type":"reporting_to","uuid":"","value":"4"},{"type":"login_user_department_manager","uuid":"","value":""},{"type":"department_manager","uuid":"","value":"${organization_2.uuid}"},{"type":"employee","uuid":"","value":"7e254521-b2e4-11e7-93d8-5254001aba5d"}],"uuid":"95e04b46-0f75-11e7-8ff3-00163e007053"}]</t>
   </si>
   <si>
-    <t>[{"target_value":"s{}","target_type":"","approvers":[{"type":"reporting_to","uuid":"","value":"1"},{"type":"reporting_to","uuid":"","value":"2"},{"type":"reporting_to","uuid":"","value":"3"},{"type":"reporting_to","uuid":"","value":"4"},{"type":"login_user_department_manager","uuid":"","value":""},{"type":"department_manager","uuid":"","value":"${organization_2.uuid}"},{"type":"employee","uuid":"","value":"7e254521-b2e4-11e7-93d8-5254001aba5d"}],"uuid":"95e245f4-0f75-11e7-8ff3-00163e007053"}]</t>
-  </si>
-  <si>
     <t>[{"employee_id":"b8a23753-0f75-11e7-9aa4-00163e007053"}]</t>
   </si>
   <si>
@@ -491,12 +484,6 @@
     <t>[{"target_value":"s{}","target_type":"","approvers":[{"type":"reporting_to","uuid":"","value":"1"},{"type":"reporting_to","uuid":"","value":"2"},{"type":"reporting_to","uuid":"","value":"3"},{"type":"reporting_to","uuid":"","value":"4"},{"type":"login_user_department_manager","uuid":"","value":""},{"type":"department_manager","uuid":"","value":"${organization_2.uuid}"},{"type":"employee","uuid":"","value":"7e254521-b2e4-11e7-93d8-5254001aba5d"}],"uuid":"95e04b46-0f75-11e7-8ff3-00163e007053"},{"target_value":"s{\"department\":[\"a62ef58e-beb4-11e7-98c2-5254001aba5d\"],\"employee\":[]}","target_type":"sponsor","approvers":[{"type":"login_user_department_manager","uuid":"","value":""},{"type":"department_manager","uuid":"","value":"${organization_2.uuid}"},{"type":"employee","uuid":"","value":"7e254521-b2e4-11e7-93d8-5254001aba5d"}],"uuid":""}]</t>
   </si>
   <si>
-    <t>[{"target_value":"s{}","target_type":"","approvers":[{"type":"reporting_to","uuid":"","value":"1"},{"type":"reporting_to","uuid":"","value":"2"},{"type":"reporting_to","uuid":"","value":"3"},{"type":"reporting_to","uuid":"","value":"4"},{"type":"login_user_department_manager","uuid":"","value":""},{"type":"department_manager","uuid":"","value":"${organization_2.uuid}"},{"type":"employee","uuid":"","value":"7e254521-b2e4-11e7-93d8-5254001aba5d"}],"uuid":"95e245f4-0f75-11e7-8ff3-00163e007053"},{"target_value":"s{\"department\":[\"a62ef58e-beb4-11e7-98c2-5254001aba5d\"],\"employee\":[]}","target_type":"sponsor","approvers":[{"type":"login_user_department_manager","uuid":"","value":""},{"type":"department_manager","uuid":"","value":"${organization_2.uuid}"},{"type":"employee","uuid":"","value":"7e254521-b2e4-11e7-93d8-5254001aba5d"}],"uuid":""}]</t>
-  </si>
-  <si>
-    <t>[{"target_value":"s{}","target_type":"","approvers":[{"type":"reporting_to","uuid":"","value":"1"},{"type":"reporting_to","uuid":"","value":"2"},{"type":"reporting_to","uuid":"","value":"3"},{"type":"reporting_to","uuid":"","value":"4"},{"type":"login_user_department_manager","uuid":"","value":""},{"type":"department_manager","uuid":"","value":"${organization_2.uuid}"},{"type":"employee","uuid":"","value":"7e254521-b2e4-11e7-93d8-5254001aba5d"}],"uuid":"95e245f4-0f75-11e7-8ff3-00163e007053"},{"target_value":"s{\"department\":[\"a62ef58e-beb4-11e7-98c2-5254001aba5d\"],\"employee\":[]}","target_type":"sponsor","approvers":[{"type":"login_user_department_manager","uuid":"","value":""},{"type":"department_manager","uuid":"","value":"${organization_2.uuid}"},{"type":"employee","uuid":"","value":"7e254521-b2e4-11e7-93d8-5254001aba5d"}],"uuid":""},{"uuid":"","approvers":[{"uuid":"","type":"login_user_department_manager","value":""}],"target_type":"duration","target_value":"s{\"symbol\":\"&lt;=\",\"unit\":\"d\",\"number\":\"4\"}"},{"uuid":"","approvers":[{"uuid":"","type":"login_user_department_manager","value":""},{"uuid":"","type":"department_manager","value":"${organization_1.uuid}"}],"target_type":"duration","target_value":"s{\"symbol\":\"==\",\"unit\":\"d\",\"number\":\"5\"}"},{"uuid":"","approvers":[{"uuid":"","type":"login_user_department_manager","value":""},{"uuid":"","type":"department_manager","value":"${organization_1.uuid}"},{"uuid":"","type":"employee","value":"7e254521-b2e4-11e7-93d8-5254001aba5d"}],"target_type":"duration","target_value":"s{\"symbol\":\"&gt;=\",\"unit\":\"d\",\"number\":\"6\"}"}]</t>
-  </si>
-  <si>
     <t>[{"uuid":"8ad63f15-be23-11e7-afef-5254001aba5d","approvers":[{"uuid":"","type":"reporting_to","value":"1"},{"uuid":"","type":"reporting_to","value":"2"},{"uuid":"","type":"reporting_to","value":"3"},{"uuid":"","type":"reporting_to","value":"4"},{"uuid":"","type":"login_user_department_manager","value":""},{"uuid":"","type":"department_manager","value":"${organization_2.uuid}"},{"uuid":"","type":"employee","value":"7e254521-b2e4-11e7-93d8-5254001aba5d"}],"target_type":"","target_value":"s{}"},{"uuid":"","approvers":[{"uuid":"","type":"login_user_department_manager","value":""},{"uuid":"","type":"department_manager","value":"${organization_2.uuid}"},{"uuid":"","type":"employee","value":"7e254521-b2e4-11e7-93d8-5254001aba5d"}],"target_type":"sponsor","target_value":"s{\"department\":[\"a62ef58e-beb4-11e7-98c2-5254001aba5d\"],\"employee\":[]}"},{"uuid":"","approvers":[{"uuid":"","type":"login_user_department_manager","value":""},{"uuid":"","type":"employee","value":"7e254521-b2e4-11e7-93d8-5254001aba5d"},{"uuid":"","type":"employee","value":"b8a23753-0f75-11e7-9aa4-00163e007053"}],"target_type":"sponsor","target_value":"s{\"department\":[\"a72987b1-beb4-11e7-98c2-5254001aba5d\"],\"employee\":[]}"}]</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -543,6 +530,15 @@
   <si>
     <t>approval_end</t>
     <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>[{"target_value":"s{}","target_type":"","approvers":[{"type":"reporting_to","uuid":"","value":"1"},{"type":"reporting_to","uuid":"","value":"2"},{"type":"reporting_to","uuid":"","value":"3"},{"type":"reporting_to","uuid":"","value":"4"},{"type":"login_user_department_manager","uuid":"","value":""},{"type":"department_manager","uuid":"","value":"${organization_2.uuid}"},{"type":"employee","uuid":"","value":"7e254521-b2e4-11e7-93d8-5254001aba5d"}],"uuid":"418cc2c7-c1e6-11e7-8d35-5254001aba5d"}]</t>
+  </si>
+  <si>
+    <t>[{"target_value":"s{}","target_type":"","approvers":[{"type":"reporting_to","uuid":"","value":"1"},{"type":"reporting_to","uuid":"","value":"2"},{"type":"reporting_to","uuid":"","value":"3"},{"type":"reporting_to","uuid":"","value":"4"},{"type":"login_user_department_manager","uuid":"","value":""},{"type":"department_manager","uuid":"","value":"${organization_2.uuid}"},{"type":"employee","uuid":"","value":"7e254521-b2e4-11e7-93d8-5254001aba5d"}],"uuid":"418cc2c7-c1e6-11e7-8d35-5254001aba5d"},{"target_value":"s{\"department\":[\"a62ef58e-beb4-11e7-98c2-5254001aba5d\"],\"employee\":[]}","target_type":"sponsor","approvers":[{"type":"login_user_department_manager","uuid":"","value":""},{"type":"department_manager","uuid":"","value":"${organization_2.uuid}"},{"type":"employee","uuid":"","value":"7e254521-b2e4-11e7-93d8-5254001aba5d"}],"uuid":""}]</t>
+  </si>
+  <si>
+    <t>[{"target_value":"s{}","target_type":"","approvers":[{"type":"reporting_to","uuid":"","value":"1"},{"type":"reporting_to","uuid":"","value":"2"},{"type":"reporting_to","uuid":"","value":"3"},{"type":"reporting_to","uuid":"","value":"4"},{"type":"login_user_department_manager","uuid":"","value":""},{"type":"department_manager","uuid":"","value":"${organization_2.uuid}"},{"type":"employee","uuid":"","value":"7e254521-b2e4-11e7-93d8-5254001aba5d"}],"uuid":"418cc2c7-c1e6-11e7-8d35-5254001aba5d"},{"target_value":"s{\"department\":[\"a62ef58e-beb4-11e7-98c2-5254001aba5d\"],\"employee\":[]}","target_type":"sponsor","approvers":[{"type":"login_user_department_manager","uuid":"","value":""},{"type":"department_manager","uuid":"","value":"${organization_2.uuid}"},{"type":"employee","uuid":"","value":"7e254521-b2e4-11e7-93d8-5254001aba5d"}],"uuid":""},{"uuid":"","approvers":[{"uuid":"","type":"login_user_department_manager","value":""}],"target_type":"duration","target_value":"s{\"symbol\":\"&lt;=\",\"unit\":\"d\",\"number\":\"4\"}"},{"uuid":"","approvers":[{"uuid":"","type":"login_user_department_manager","value":""},{"uuid":"","type":"department_manager","value":"${organization_1.uuid}"}],"target_type":"duration","target_value":"s{\"symbol\":\"==\",\"unit\":\"d\",\"number\":\"5\"}"},{"uuid":"","approvers":[{"uuid":"","type":"login_user_department_manager","value":""},{"uuid":"","type":"department_manager","value":"${organization_1.uuid}"},{"uuid":"","type":"employee","value":"7e254521-b2e4-11e7-93d8-5254001aba5d"}],"target_type":"duration","target_value":"s{\"symbol\":\"&gt;=\",\"unit\":\"d\",\"number\":\"6\"}"}]</t>
   </si>
 </sst>
 </file>
@@ -980,8 +976,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G25"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C26" sqref="C26"/>
+    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="F26" sqref="F26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1029,7 +1025,7 @@
         <v>54</v>
       </c>
       <c r="D2" t="s">
-        <v>127</v>
+        <v>123</v>
       </c>
       <c r="F2" t="s">
         <v>18</v>
@@ -1049,10 +1045,10 @@
         <v>34</v>
       </c>
       <c r="D3" t="s">
-        <v>128</v>
+        <v>124</v>
       </c>
       <c r="F3" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="G3" t="s">
         <v>33</v>
@@ -1069,7 +1065,7 @@
         <v>54</v>
       </c>
       <c r="D4" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="F4" t="s">
         <v>18</v>
@@ -1089,10 +1085,10 @@
         <v>53</v>
       </c>
       <c r="D5" t="s">
-        <v>123</v>
+        <v>119</v>
       </c>
       <c r="F5" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="G5" t="s">
         <v>33</v>
@@ -1100,7 +1096,7 @@
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>126</v>
+        <v>122</v>
       </c>
       <c r="B6" t="s">
         <v>55</v>
@@ -1109,7 +1105,7 @@
         <v>54</v>
       </c>
       <c r="D6" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="E6" t="s">
         <v>64</v>
@@ -1132,13 +1128,13 @@
         <v>53</v>
       </c>
       <c r="D7" t="s">
-        <v>124</v>
+        <v>120</v>
       </c>
       <c r="E7" t="s">
         <v>59</v>
       </c>
       <c r="F7" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="G7" t="s">
         <v>33</v>
@@ -1155,7 +1151,7 @@
         <v>54</v>
       </c>
       <c r="D8" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="E8" t="s">
         <v>61</v>
@@ -1178,13 +1174,13 @@
         <v>53</v>
       </c>
       <c r="D9" t="s">
-        <v>125</v>
+        <v>121</v>
       </c>
       <c r="E9" t="s">
         <v>60</v>
       </c>
       <c r="F9" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="G9" t="s">
         <v>33</v>
@@ -1201,7 +1197,7 @@
         <v>54</v>
       </c>
       <c r="D10" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="F10" t="s">
         <v>18</v>
@@ -1221,10 +1217,10 @@
         <v>53</v>
       </c>
       <c r="D11" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="F11" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="G11" t="s">
         <v>33</v>
@@ -1241,7 +1237,7 @@
         <v>54</v>
       </c>
       <c r="D12" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="F12" t="s">
         <v>18</v>
@@ -1261,10 +1257,10 @@
         <v>53</v>
       </c>
       <c r="D13" t="s">
-        <v>132</v>
+        <v>128</v>
       </c>
       <c r="F13" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="G13" t="s">
         <v>33</v>
@@ -1281,10 +1277,10 @@
         <v>53</v>
       </c>
       <c r="D14" t="s">
-        <v>131</v>
+        <v>127</v>
       </c>
       <c r="F14" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="G14" t="s">
         <v>33</v>
@@ -1301,7 +1297,7 @@
         <v>54</v>
       </c>
       <c r="D15" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="F15" t="s">
         <v>18</v>
@@ -1321,10 +1317,10 @@
         <v>53</v>
       </c>
       <c r="D16" t="s">
-        <v>129</v>
+        <v>125</v>
       </c>
       <c r="F16" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="G16" t="s">
         <v>33</v>
@@ -1341,7 +1337,7 @@
         <v>54</v>
       </c>
       <c r="D17" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="F17" t="s">
         <v>18</v>
@@ -1361,10 +1357,10 @@
         <v>53</v>
       </c>
       <c r="D18" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="F18" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="G18" t="s">
         <v>33</v>
@@ -1381,10 +1377,10 @@
         <v>53</v>
       </c>
       <c r="D19" t="s">
-        <v>130</v>
+        <v>126</v>
       </c>
       <c r="F19" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="G19" t="s">
         <v>33</v>
@@ -1401,7 +1397,7 @@
         <v>54</v>
       </c>
       <c r="D20" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="F20" t="s">
         <v>18</v>
@@ -1421,13 +1417,13 @@
         <v>53</v>
       </c>
       <c r="D21" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="F21" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="G21" t="s">
-        <v>134</v>
+        <v>130</v>
       </c>
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.2">
@@ -1441,13 +1437,13 @@
         <v>53</v>
       </c>
       <c r="D22" t="s">
-        <v>133</v>
+        <v>129</v>
       </c>
       <c r="F22" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="G22" t="s">
-        <v>134</v>
+        <v>130</v>
       </c>
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.2">
@@ -1461,7 +1457,7 @@
         <v>54</v>
       </c>
       <c r="D23" t="s">
-        <v>115</v>
+        <v>131</v>
       </c>
       <c r="F23" t="s">
         <v>18</v>
@@ -1481,13 +1477,13 @@
         <v>53</v>
       </c>
       <c r="D24" t="s">
-        <v>121</v>
+        <v>132</v>
       </c>
       <c r="F24" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="G24" t="s">
-        <v>33</v>
+        <v>130</v>
       </c>
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.2">
@@ -1501,13 +1497,13 @@
         <v>53</v>
       </c>
       <c r="D25" t="s">
-        <v>122</v>
+        <v>133</v>
       </c>
       <c r="F25" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="G25" t="s">
-        <v>33</v>
+        <v>130</v>
       </c>
     </row>
   </sheetData>
@@ -1521,8 +1517,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:O26"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="K25" sqref="K25"/>
+    <sheetView topLeftCell="G1" workbookViewId="0">
+      <selection activeCell="I24" sqref="I24:I26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -2554,7 +2550,7 @@
         <v>30</v>
       </c>
       <c r="I22" t="s">
-        <v>33</v>
+        <v>130</v>
       </c>
       <c r="J22" t="s">
         <v>53</v>
@@ -2601,7 +2597,7 @@
         <v>30</v>
       </c>
       <c r="I23" t="s">
-        <v>33</v>
+        <v>130</v>
       </c>
       <c r="J23" t="s">
         <v>53</v>
@@ -2654,7 +2650,7 @@
         <v>54</v>
       </c>
       <c r="K24" t="s">
-        <v>107</v>
+        <v>31</v>
       </c>
       <c r="L24" t="s">
         <v>101</v>
@@ -2695,7 +2691,7 @@
         <v>30</v>
       </c>
       <c r="I25" t="s">
-        <v>33</v>
+        <v>130</v>
       </c>
       <c r="J25" t="s">
         <v>53</v>
@@ -2742,7 +2738,7 @@
         <v>30</v>
       </c>
       <c r="I26" t="s">
-        <v>33</v>
+        <v>130</v>
       </c>
       <c r="J26" t="s">
         <v>53</v>

--- a/sources/case/ApprovalTypes.xlsx
+++ b/sources/case/ApprovalTypes.xlsx
@@ -475,27 +475,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>[{"target_value":"s{}","target_type":"","approvers":[{"type":"reporting_to","uuid":"","value":"1"},{"type":"reporting_to","uuid":"","value":"2"},{"type":"reporting_to","uuid":"","value":"3"},{"type":"reporting_to","uuid":"","value":"4"},{"type":"login_user_department_manager","uuid":"","value":""},{"type":"department_manager","uuid":"","value":"${organization_2.uuid}"},{"type":"employee","uuid":"","value":"7e254521-b2e4-11e7-93d8-5254001aba5d"}],"uuid":"95d9b755-0f75-11e7-8ff3-00163e007053"},{"target_value":"s{\"department\":[\"a62ef58e-beb4-11e7-98c2-5254001aba5d\"],\"employee\":[]}","target_type":"sponsor","approvers":[{"type":"login_user_department_manager","uuid":"","value":""},{"type":"department_manager","uuid":"","value":"${organization_2.uuid}"},{"type":"employee","uuid":"","value":"7e254521-b2e4-11e7-93d8-5254001aba5d"}],"uuid":""}]</t>
-  </si>
-  <si>
-    <t>[{"target_value":"s{}","target_type":"","approvers":[{"type":"reporting_to","uuid":"","value":"1"},{"type":"reporting_to","uuid":"","value":"2"},{"type":"reporting_to","uuid":"","value":"3"},{"type":"reporting_to","uuid":"","value":"4"},{"type":"login_user_department_manager","uuid":"","value":""},{"type":"department_manager","uuid":"","value":"${organization_2.uuid}"},{"type":"employee","uuid":"","value":"7e254521-b2e4-11e7-93d8-5254001aba5d"}],"uuid":"95e2f732-0f75-11e7-8ff3-00163e007053"},{"target_value":"s{\"department\":[\"a62ef58e-beb4-11e7-98c2-5254001aba5d\"],\"employee\":[]}","target_type":"sponsor","approvers":[{"type":"login_user_department_manager","uuid":"","value":""},{"type":"department_manager","uuid":"","value":"${organization_2.uuid}"},{"type":"employee","uuid":"","value":"7e254521-b2e4-11e7-93d8-5254001aba5d"}],"uuid":""}]</t>
-  </si>
-  <si>
-    <t>[{"target_value":"s{}","target_type":"","approvers":[{"type":"reporting_to","uuid":"","value":"1"},{"type":"reporting_to","uuid":"","value":"2"},{"type":"reporting_to","uuid":"","value":"3"},{"type":"reporting_to","uuid":"","value":"4"},{"type":"login_user_department_manager","uuid":"","value":""},{"type":"department_manager","uuid":"","value":"${organization_2.uuid}"},{"type":"employee","uuid":"","value":"7e254521-b2e4-11e7-93d8-5254001aba5d"}],"uuid":"95e04b46-0f75-11e7-8ff3-00163e007053"},{"target_value":"s{\"department\":[\"a62ef58e-beb4-11e7-98c2-5254001aba5d\"],\"employee\":[]}","target_type":"sponsor","approvers":[{"type":"login_user_department_manager","uuid":"","value":""},{"type":"department_manager","uuid":"","value":"${organization_2.uuid}"},{"type":"employee","uuid":"","value":"7e254521-b2e4-11e7-93d8-5254001aba5d"}],"uuid":""}]</t>
-  </si>
-  <si>
-    <t>[{"uuid":"8ad63f15-be23-11e7-afef-5254001aba5d","approvers":[{"uuid":"","type":"reporting_to","value":"1"},{"uuid":"","type":"reporting_to","value":"2"},{"uuid":"","type":"reporting_to","value":"3"},{"uuid":"","type":"reporting_to","value":"4"},{"uuid":"","type":"login_user_department_manager","value":""},{"uuid":"","type":"department_manager","value":"${organization_2.uuid}"},{"uuid":"","type":"employee","value":"7e254521-b2e4-11e7-93d8-5254001aba5d"}],"target_type":"","target_value":"s{}"},{"uuid":"","approvers":[{"uuid":"","type":"login_user_department_manager","value":""},{"uuid":"","type":"department_manager","value":"${organization_2.uuid}"},{"uuid":"","type":"employee","value":"7e254521-b2e4-11e7-93d8-5254001aba5d"}],"target_type":"sponsor","target_value":"s{\"department\":[\"a62ef58e-beb4-11e7-98c2-5254001aba5d\"],\"employee\":[]}"},{"uuid":"","approvers":[{"uuid":"","type":"login_user_department_manager","value":""},{"uuid":"","type":"employee","value":"7e254521-b2e4-11e7-93d8-5254001aba5d"},{"uuid":"","type":"employee","value":"b8a23753-0f75-11e7-9aa4-00163e007053"}],"target_type":"sponsor","target_value":"s{\"department\":[\"a72987b1-beb4-11e7-98c2-5254001aba5d\"],\"employee\":[]}"}]</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>[{"target_value":"s{}","target_type":"","approvers":[{"type":"reporting_to","uuid":"","value":"1"},{"type":"reporting_to","uuid":"","value":"2"},{"type":"reporting_to","uuid":"","value":"3"},{"type":"reporting_to","uuid":"","value":"4"},{"type":"login_user_department_manager","uuid":"","value":""},{"type":"department_manager","uuid":"","value":"${organization_2.uuid}"},{"type":"employee","uuid":"","value":"7e254521-b2e4-11e7-93d8-5254001aba5d"}],"uuid":"95db250e-0f75-11e7-8ff3-00163e007053"},{"target_value":"s{\"department\":[\"a62ef58e-beb4-11e7-98c2-5254001aba5d\"],\"employee\":[]}","target_type":"sponsor","approvers":[{"type":"login_user_department_manager","uuid":"","value":""},{"type":"department_manager","uuid":"","value":"${organization_2.uuid}"},{"type":"employee","uuid":"","value":"7e254521-b2e4-11e7-93d8-5254001aba5d"}],"uuid":""},{"uuid":"","approvers":[{"uuid":"","type":"login_user_department_manager","value":""},{"uuid":"","type":"employee","value":"7e254521-b2e4-11e7-93d8-5254001aba5d"},{"uuid":"","type":"employee","value":"b8a23753-0f75-11e7-9aa4-00163e007053"}],"target_type":"sponsor","target_value":"s{\"department\":[\"a72987b1-beb4-11e7-98c2-5254001aba5d\"],\"employee\":[]}"}]</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>[{"target_value":"s{}","target_type":"","approvers":[{"type":"reporting_to","uuid":"","value":"1"},{"type":"reporting_to","uuid":"","value":"2"},{"type":"reporting_to","uuid":"","value":"3"},{"type":"reporting_to","uuid":"","value":"4"},{"type":"login_user_department_manager","uuid":"","value":""},{"type":"department_manager","uuid":"","value":"${organization_2.uuid}"},{"type":"employee","uuid":"","value":"7e254521-b2e4-11e7-93d8-5254001aba5d"}],"uuid":"b276c863-bd48-11e7-a179-5254001aba5d"},{"target_value":"s{\"department\":[\"a62ef58e-beb4-11e7-98c2-5254001aba5d\"],\"employee\":[]}","target_type":"sponsor","approvers":[{"type":"login_user_department_manager","uuid":"","value":""},{"type":"department_manager","uuid":"","value":"${organization_2.uuid}"},{"type":"employee","uuid":"","value":"7e254521-b2e4-11e7-93d8-5254001aba5d"}],"uuid":""},{"uuid":"","approvers":[{"uuid":"","type":"login_user_department_manager","value":""},{"uuid":"","type":"employee","value":"7e254521-b2e4-11e7-93d8-5254001aba5d"},{"uuid":"","type":"employee","value":"b8a23753-0f75-11e7-9aa4-00163e007053"}],"target_type":"sponsor","target_value":"s{\"department\":[\"a72987b1-beb4-11e7-98c2-5254001aba5d\"],\"employee\":[]}"}]</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>Offboard_resign1</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -504,30 +483,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>[{"uuid":"7642fbdf-bd26-11e7-a179-5254001aba5d","approvers":[{"uuid":"","type":"reporting_to","value":"1"},{"uuid":"","type":"reporting_to","value":"2"},{"uuid":"","type":"reporting_to","value":"3"},{"uuid":"","type":"reporting_to","value":"4"},{"uuid":"","type":"login_user_department_manager","value":""},{"uuid":"","type":"department_manager","value":"${organization_2.uuid}"},{"uuid":"","type":"employee","value":"7e254521-b2e4-11e7-93d8-5254001aba5d"}],"target_type":"","target_value":"s{}"},{"uuid":"","approvers":[{"uuid":"","type":"login_user_department_manager","value":""},{"uuid":"","type":"department_manager","value":"${organization_2.uuid}"},{"uuid":"","type":"employee","value":"7e254521-b2e4-11e7-93d8-5254001aba5d"}],"target_type":"sponsor","target_value":"s{\"department\":[\"a62ef58e-beb4-11e7-98c2-5254001aba5d\"],\"employee\":[]}"},{"uuid":"","approvers":[{"uuid":"","type":"login_user_department_manager","value":""},{"uuid":"","type":"employee","value":"7e254521-b2e4-11e7-93d8-5254001aba5d"},{"uuid":"","type":"employee","value":"b8a23753-0f75-11e7-9aa4-00163e007053"}],"target_type":"sponsor","target_value":"s{\"department\":[\"a72987b1-beb4-11e7-98c2-5254001aba5d\"],\"employee\":[]}"},{"uuid":"","approvers":[{"uuid":"","type":"reporting_to","value":"4"},{"uuid":"","type":"login_user_department_manager","value":""},{"uuid":"","type":"employee","value":"7e254521-b2e4-11e7-93d8-5254001aba5d"},{"uuid":"","type":"employee","value":"b8a23753-0f75-11e7-9aa4-00163e007053"}],"target_type":"sponsor","target_value":"s{\"department\":[],\"employee\":[\"b8a23753-0f75-11e7-9aa4-00163e007053\"]}"}]</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>[{"uuid":"95e367b3-0f75-11e7-8ff3-00163e007053","approvers":[{"uuid":"","type":"reporting_to","value":"1"},{"uuid":"","type":"reporting_to","value":"2"},{"uuid":"","type":"reporting_to","value":"3"},{"uuid":"","type":"reporting_to","value":"4"},{"uuid":"","type":"login_user_department_manager","value":""},{"uuid":"","type":"department_manager","value":"${organization_2.uuid}"},{"uuid":"","type":"employee","value":"7e254521-b2e4-11e7-93d8-5254001aba5d"}],"target_type":"","target_value":"s{}"},{"uuid":"","approvers":[{"uuid":"","type":"login_user_department_manager","value":""},{"uuid":"","type":"department_manager","value":"${organization_2.uuid}"},{"uuid":"","type":"employee","value":"7e254521-b2e4-11e7-93d8-5254001aba5d"}],"target_type":"sponsor","target_value":"s{\"department\":[\"a62ef58e-beb4-11e7-98c2-5254001aba5d\"],\"employee\":[]}"},{"uuid":"","approvers":[{"uuid":"","type":"login_user_department_manager","value":""},{"uuid":"","type":"employee","value":"7e254521-b2e4-11e7-93d8-5254001aba5d"},{"uuid":"","type":"employee","value":"b8a23753-0f75-11e7-9aa4-00163e007053"}],"target_type":"sponsor","target_value":"s{\"department\":[\"a72987b1-beb4-11e7-98c2-5254001aba5d\"],\"employee\":[]}"},{"uuid":"","approvers":[{"uuid":"","type":"reporting_to","value":"4"},{"uuid":"","type":"login_user_department_manager","value":""},{"uuid":"","type":"employee","value":"7e254521-b2e4-11e7-93d8-5254001aba5d"},{"uuid":"","type":"employee","value":"b8a23753-0f75-11e7-9aa4-00163e007053"}],"target_type":"sponsor","target_value":"s{\"department\":[],\"employee\":[\"b8a23753-0f75-11e7-9aa4-00163e007053\"]}"}]</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>[{"target_value":"s{}","target_type":"","approvers":[{"type":"reporting_to","uuid":"","value":"1"},{"type":"reporting_to","uuid":"","value":"2"},{"type":"reporting_to","uuid":"","value":"3"},{"type":"reporting_to","uuid":"","value":"4"},{"type":"login_user_department_manager","uuid":"","value":""},{"type":"department_manager","uuid":"","value":"${organization_2.uuid}"},{"type":"employee","uuid":"","value":"7e254521-b2e4-11e7-93d8-5254001aba5d"}],"uuid":"95e2f732-0f75-11e7-8ff3-00163e007053"},{"target_value":"s{\"department\":[\"a62ef58e-beb4-11e7-98c2-5254001aba5d\"],\"employee\":[]}","target_type":"sponsor","approvers":[{"type":"login_user_department_manager","uuid":"","value":""},{"type":"department_manager","uuid":"","value":"${organization_2.uuid}"},{"type":"employee","uuid":"","value":"7e254521-b2e4-11e7-93d8-5254001aba5d"}],"uuid":""},{"uuid":"","approvers":[{"uuid":"","type":"login_user_department_manager","value":""}],"target_type":"duration","target_value":"s{\"symbol\":\"&lt;\",\"unit\":\"h\",\"number\":\"4\"}"},{"uuid":"","approvers":[{"uuid":"","type":"login_user_department_manager","value":""},{"uuid":"","type":"department_manager","value":"${organization_1.uuid}"}],"target_type":"duration","target_value":"s{\"symbol\":\"==\",\"unit\":\"h\",\"number\":\"4\"}"},{"uuid":"","approvers":[{"uuid":"","type":"login_user_department_manager","value":""},{"uuid":"","type":"department_manager","value":"${organization_1.uuid}"},{"uuid":"","type":"employee","value":"7e254521-b2e4-11e7-93d8-5254001aba5d"}],"target_type":"duration","target_value":"s{\"symbol\":\"&gt;\",\"unit\":\"h\",\"number\":\"4\"}"}]</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>[{"target_value":"s{}","target_type":"","approvers":[{"type":"reporting_to","uuid":"","value":"1"},{"type":"reporting_to","uuid":"","value":"2"},{"type":"reporting_to","uuid":"","value":"3"},{"type":"reporting_to","uuid":"","value":"4"},{"type":"login_user_department_manager","uuid":"","value":""},{"type":"department_manager","uuid":"","value":"${organization_2.uuid}"},{"type":"employee","uuid":"","value":"7e254521-b2e4-11e7-93d8-5254001aba5d"}],"uuid":"5389429f-b9f7-11e7-9997-5254001aba5d"},{"target_value":"s{\"department\":[\"a62ef58e-beb4-11e7-98c2-5254001aba5d\"],\"employee\":[]}","target_type":"sponsor","approvers":[{"type":"login_user_department_manager","uuid":"","value":""},{"type":"department_manager","uuid":"","value":"${organization_2.uuid}"},{"type":"employee","uuid":"","value":"7e254521-b2e4-11e7-93d8-5254001aba5d"}],"uuid":""},{"uuid":"","approvers":[{"uuid":"","type":"login_user_department_manager","value":""}],"target_type":"duration","target_value":"s{\"symbol\":\"&lt;\",\"unit\":\"m\",\"number\":\"60\"}"},{"uuid":"","approvers":[{"uuid":"","type":"login_user_department_manager","value":""},{"uuid":"","type":"department_manager","value":"${organization_1.uuid}"}],"target_type":"duration","target_value":"s{\"symbol\":\"==\",\"unit\":\"m\",\"number\":\"60\"}"},{"uuid":"","approvers":[{"uuid":"","type":"login_user_department_manager","value":""},{"uuid":"","type":"department_manager","value":"${organization_1.uuid}"},{"uuid":"","type":"employee","value":"7e254521-b2e4-11e7-93d8-5254001aba5d"}],"target_type":"duration","target_value":"s{\"symbol\":\"&gt;\",\"unit\":\"m\",\"number\":\"60\"}"},{"uuid":"","approvers":[{"uuid":"","type":"employee","value":"7e254521-b2e4-11e7-93d8-5254001aba5d"},{"uuid":"","type":"login_user_department_manager","value":""}],"target_type":"sponsor","target_value":"s{\"department\":[],\"employee\":[\"b8a23753-0f75-11e7-9aa4-00163e007053\"]}"}]</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>[{"target_value":"s{}","target_type":"","approvers":[{"type":"reporting_to","uuid":"","value":"1"},{"type":"reporting_to","uuid":"","value":"2"},{"type":"reporting_to","uuid":"","value":"3"},{"type":"reporting_to","uuid":"","value":"4"},{"type":"login_user_department_manager","uuid":"","value":""},{"type":"department_manager","uuid":"","value":"${organization_2.uuid}"},{"type":"employee","uuid":"","value":"7e254521-b2e4-11e7-93d8-5254001aba5d"}],"uuid":"5389429f-b9f7-11e7-9997-5254001aba5d"},{"target_value":"s{\"department\":[\"a62ef58e-beb4-11e7-98c2-5254001aba5d\"],\"employee\":[]}","target_type":"sponsor","approvers":[{"type":"login_user_department_manager","uuid":"","value":""},{"type":"department_manager","uuid":"","value":"${organization_2.uuid}"},{"type":"employee","uuid":"","value":"7e254521-b2e4-11e7-93d8-5254001aba5d"}],"uuid":""},{"uuid":"","approvers":[{"uuid":"","type":"employee","value":"7e254521-b2e4-11e7-93d8-5254001aba5d"},{"uuid":"","type":"login_user_department_manager","value":""}],"target_type":"sponsor","target_value":"s{\"department\":[],\"employee\":[\"b8a23753-0f75-11e7-9aa4-00163e007053\"]}"}]</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>[{"target_value":"s{}","target_type":"","approvers":[{"type":"reporting_to","uuid":"","value":"1"},{"type":"reporting_to","uuid":"","value":"2"},{"type":"reporting_to","uuid":"","value":"3"},{"type":"reporting_to","uuid":"","value":"4"},{"type":"login_user_department_manager","uuid":"","value":""},{"type":"department_manager","uuid":"","value":"${organization_2.uuid}"},{"type":"employee","uuid":"","value":"7e254521-b2e4-11e7-93d8-5254001aba5d"}],"uuid":"95e04b46-0f75-11e7-8ff3-00163e007053"},{"target_value":"s{\"department\":[\"a62ef58e-beb4-11e7-98c2-5254001aba5d\"],\"employee\":[]}","target_type":"sponsor","approvers":[{"type":"login_user_department_manager","uuid":"","value":""},{"type":"department_manager","uuid":"","value":"${organization_2.uuid}"},{"type":"employee","uuid":"","value":"7e254521-b2e4-11e7-93d8-5254001aba5d"}],"uuid":""},{"uuid":"","approvers":[{"uuid":"","type":"login_user_department_manager","value":""}],"target_type":"duration","target_value":"s{\"symbol\":\"&lt;\",\"unit\":\"m\",\"number\":\"60\"}"},{"uuid":"","approvers":[{"uuid":"","type":"login_user_department_manager","value":""},{"uuid":"","type":"department_manager","value":"${organization_1.uuid}"}],"target_type":"duration","target_value":"s{\"symbol\":\"==\",\"unit\":\"m\",\"number\":\"60\"}"},{"uuid":"","approvers":[{"uuid":"","type":"login_user_department_manager","value":""},{"uuid":"","type":"department_manager","value":"${organization_1.uuid}"}],"target_type":"duration","target_value":"s{\"symbol\":\"==\",\"unit\":\"d\",\"number\":\"5\"}"},{"uuid":"","approvers":[{"uuid":"","type":"login_user_department_manager","value":""},{"uuid":"","type":"department_manager","value":"${organization_1.uuid}"},{"uuid":"","type":"employee","value":"7e254521-b2e4-11e7-93d8-5254001aba5d"}],"target_type":"duration","target_value":"s{\"symbol\":\"&gt;\",\"unit\":\"d\",\"number\":\"5\"}"}]</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>approval_end</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -535,10 +490,46 @@
     <t>[{"target_value":"s{}","target_type":"","approvers":[{"type":"reporting_to","uuid":"","value":"1"},{"type":"reporting_to","uuid":"","value":"2"},{"type":"reporting_to","uuid":"","value":"3"},{"type":"reporting_to","uuid":"","value":"4"},{"type":"login_user_department_manager","uuid":"","value":""},{"type":"department_manager","uuid":"","value":"${organization_2.uuid}"},{"type":"employee","uuid":"","value":"7e254521-b2e4-11e7-93d8-5254001aba5d"}],"uuid":"418cc2c7-c1e6-11e7-8d35-5254001aba5d"}]</t>
   </si>
   <si>
-    <t>[{"target_value":"s{}","target_type":"","approvers":[{"type":"reporting_to","uuid":"","value":"1"},{"type":"reporting_to","uuid":"","value":"2"},{"type":"reporting_to","uuid":"","value":"3"},{"type":"reporting_to","uuid":"","value":"4"},{"type":"login_user_department_manager","uuid":"","value":""},{"type":"department_manager","uuid":"","value":"${organization_2.uuid}"},{"type":"employee","uuid":"","value":"7e254521-b2e4-11e7-93d8-5254001aba5d"}],"uuid":"418cc2c7-c1e6-11e7-8d35-5254001aba5d"},{"target_value":"s{\"department\":[\"a62ef58e-beb4-11e7-98c2-5254001aba5d\"],\"employee\":[]}","target_type":"sponsor","approvers":[{"type":"login_user_department_manager","uuid":"","value":""},{"type":"department_manager","uuid":"","value":"${organization_2.uuid}"},{"type":"employee","uuid":"","value":"7e254521-b2e4-11e7-93d8-5254001aba5d"}],"uuid":""}]</t>
-  </si>
-  <si>
-    <t>[{"target_value":"s{}","target_type":"","approvers":[{"type":"reporting_to","uuid":"","value":"1"},{"type":"reporting_to","uuid":"","value":"2"},{"type":"reporting_to","uuid":"","value":"3"},{"type":"reporting_to","uuid":"","value":"4"},{"type":"login_user_department_manager","uuid":"","value":""},{"type":"department_manager","uuid":"","value":"${organization_2.uuid}"},{"type":"employee","uuid":"","value":"7e254521-b2e4-11e7-93d8-5254001aba5d"}],"uuid":"418cc2c7-c1e6-11e7-8d35-5254001aba5d"},{"target_value":"s{\"department\":[\"a62ef58e-beb4-11e7-98c2-5254001aba5d\"],\"employee\":[]}","target_type":"sponsor","approvers":[{"type":"login_user_department_manager","uuid":"","value":""},{"type":"department_manager","uuid":"","value":"${organization_2.uuid}"},{"type":"employee","uuid":"","value":"7e254521-b2e4-11e7-93d8-5254001aba5d"}],"uuid":""},{"uuid":"","approvers":[{"uuid":"","type":"login_user_department_manager","value":""}],"target_type":"duration","target_value":"s{\"symbol\":\"&lt;=\",\"unit\":\"d\",\"number\":\"4\"}"},{"uuid":"","approvers":[{"uuid":"","type":"login_user_department_manager","value":""},{"uuid":"","type":"department_manager","value":"${organization_1.uuid}"}],"target_type":"duration","target_value":"s{\"symbol\":\"==\",\"unit\":\"d\",\"number\":\"5\"}"},{"uuid":"","approvers":[{"uuid":"","type":"login_user_department_manager","value":""},{"uuid":"","type":"department_manager","value":"${organization_1.uuid}"},{"uuid":"","type":"employee","value":"7e254521-b2e4-11e7-93d8-5254001aba5d"}],"target_type":"duration","target_value":"s{\"symbol\":\"&gt;=\",\"unit\":\"d\",\"number\":\"6\"}"}]</t>
+    <t>[{"target_value":"s{}","target_type":"","approvers":[{"type":"reporting_to","uuid":"","value":"1"},{"type":"reporting_to","uuid":"","value":"2"},{"type":"reporting_to","uuid":"","value":"3"},{"type":"reporting_to","uuid":"","value":"4"},{"type":"login_user_department_manager","uuid":"","value":""},{"type":"department_manager","uuid":"","value":"${organization_2.uuid}"},{"type":"employee","uuid":"","value":"7e254521-b2e4-11e7-93d8-5254001aba5d"}],"uuid":"95d9b755-0f75-11e7-8ff3-00163e007053"},{"target_value":"s{\"department\":[\"${organization_1.uuid}\"],\"employee\":[]}","target_type":"sponsor","approvers":[{"type":"login_user_department_manager","uuid":"","value":""},{"type":"department_manager","uuid":"","value":"${organization_2.uuid}"},{"type":"employee","uuid":"","value":"7e254521-b2e4-11e7-93d8-5254001aba5d"}],"uuid":""}]</t>
+  </si>
+  <si>
+    <t>[{"target_value":"s{}","target_type":"","approvers":[{"type":"reporting_to","uuid":"","value":"1"},{"type":"reporting_to","uuid":"","value":"2"},{"type":"reporting_to","uuid":"","value":"3"},{"type":"reporting_to","uuid":"","value":"4"},{"type":"login_user_department_manager","uuid":"","value":""},{"type":"department_manager","uuid":"","value":"${organization_2.uuid}"},{"type":"employee","uuid":"","value":"7e254521-b2e4-11e7-93d8-5254001aba5d"}],"uuid":"95e2f732-0f75-11e7-8ff3-00163e007053"},{"target_value":"s{\"department\":[\"${organization_1.uuid}\"],\"employee\":[]}","target_type":"sponsor","approvers":[{"type":"login_user_department_manager","uuid":"","value":""},{"type":"department_manager","uuid":"","value":"${organization_2.uuid}"},{"type":"employee","uuid":"","value":"7e254521-b2e4-11e7-93d8-5254001aba5d"}],"uuid":""}]</t>
+  </si>
+  <si>
+    <t>[{"target_value":"s{}","target_type":"","approvers":[{"type":"reporting_to","uuid":"","value":"1"},{"type":"reporting_to","uuid":"","value":"2"},{"type":"reporting_to","uuid":"","value":"3"},{"type":"reporting_to","uuid":"","value":"4"},{"type":"login_user_department_manager","uuid":"","value":""},{"type":"department_manager","uuid":"","value":"${organization_2.uuid}"},{"type":"employee","uuid":"","value":"7e254521-b2e4-11e7-93d8-5254001aba5d"}],"uuid":"95e2f732-0f75-11e7-8ff3-00163e007053"},{"target_value":"s{\"department\":[\"${organization_1.uuid}\"],\"employee\":[]}","target_type":"sponsor","approvers":[{"type":"login_user_department_manager","uuid":"","value":""},{"type":"department_manager","uuid":"","value":"${organization_2.uuid}"},{"type":"employee","uuid":"","value":"7e254521-b2e4-11e7-93d8-5254001aba5d"}],"uuid":""},{"uuid":"","approvers":[{"uuid":"","type":"login_user_department_manager","value":""}],"target_type":"duration","target_value":"s{\"symbol\":\"&lt;\",\"unit\":\"h\",\"number\":\"4\"}"},{"uuid":"","approvers":[{"uuid":"","type":"login_user_department_manager","value":""},{"uuid":"","type":"department_manager","value":"${organization_1.uuid}"}],"target_type":"duration","target_value":"s{\"symbol\":\"==\",\"unit\":\"h\",\"number\":\"4\"}"},{"uuid":"","approvers":[{"uuid":"","type":"login_user_department_manager","value":""},{"uuid":"","type":"department_manager","value":"${organization_1.uuid}"},{"uuid":"","type":"employee","value":"7e254521-b2e4-11e7-93d8-5254001aba5d"}],"target_type":"duration","target_value":"s{\"symbol\":\"&gt;\",\"unit\":\"h\",\"number\":\"4\"}"}]</t>
+  </si>
+  <si>
+    <t>[{"target_value":"s{}","target_type":"","approvers":[{"type":"reporting_to","uuid":"","value":"1"},{"type":"reporting_to","uuid":"","value":"2"},{"type":"reporting_to","uuid":"","value":"3"},{"type":"reporting_to","uuid":"","value":"4"},{"type":"login_user_department_manager","uuid":"","value":""},{"type":"department_manager","uuid":"","value":"${organization_2.uuid}"},{"type":"employee","uuid":"","value":"7e254521-b2e4-11e7-93d8-5254001aba5d"}],"uuid":"95e04b46-0f75-11e7-8ff3-00163e007053"},{"target_value":"s{\"department\":[\"${organization_1.uuid}\"],\"employee\":[]}","target_type":"sponsor","approvers":[{"type":"login_user_department_manager","uuid":"","value":""},{"type":"department_manager","uuid":"","value":"${organization_2.uuid}"},{"type":"employee","uuid":"","value":"7e254521-b2e4-11e7-93d8-5254001aba5d"}],"uuid":""}]</t>
+  </si>
+  <si>
+    <t>[{"target_value":"s{}","target_type":"","approvers":[{"type":"reporting_to","uuid":"","value":"1"},{"type":"reporting_to","uuid":"","value":"2"},{"type":"reporting_to","uuid":"","value":"3"},{"type":"reporting_to","uuid":"","value":"4"},{"type":"login_user_department_manager","uuid":"","value":""},{"type":"department_manager","uuid":"","value":"${organization_2.uuid}"},{"type":"employee","uuid":"","value":"7e254521-b2e4-11e7-93d8-5254001aba5d"}],"uuid":"95e04b46-0f75-11e7-8ff3-00163e007053"},{"target_value":"s{\"department\":[\"${organization_1.uuid}\"],\"employee\":[]}","target_type":"sponsor","approvers":[{"type":"login_user_department_manager","uuid":"","value":""},{"type":"department_manager","uuid":"","value":"${organization_2.uuid}"},{"type":"employee","uuid":"","value":"7e254521-b2e4-11e7-93d8-5254001aba5d"}],"uuid":""},{"uuid":"","approvers":[{"uuid":"","type":"login_user_department_manager","value":""}],"target_type":"duration","target_value":"s{\"symbol\":\"&lt;\",\"unit\":\"m\",\"number\":\"60\"}"},{"uuid":"","approvers":[{"uuid":"","type":"login_user_department_manager","value":""},{"uuid":"","type":"department_manager","value":"${organization_1.uuid}"}],"target_type":"duration","target_value":"s{\"symbol\":\"==\",\"unit\":\"m\",\"number\":\"60\"}"},{"uuid":"","approvers":[{"uuid":"","type":"login_user_department_manager","value":""},{"uuid":"","type":"department_manager","value":"${organization_1.uuid}"}],"target_type":"duration","target_value":"s{\"symbol\":\"==\",\"unit\":\"d\",\"number\":\"5\"}"},{"uuid":"","approvers":[{"uuid":"","type":"login_user_department_manager","value":""},{"uuid":"","type":"department_manager","value":"${organization_1.uuid}"},{"uuid":"","type":"employee","value":"7e254521-b2e4-11e7-93d8-5254001aba5d"}],"target_type":"duration","target_value":"s{\"symbol\":\"&gt;\",\"unit\":\"d\",\"number\":\"5\"}"}]</t>
+  </si>
+  <si>
+    <t>[{"target_value":"s{}","target_type":"","approvers":[{"type":"reporting_to","uuid":"","value":"1"},{"type":"reporting_to","uuid":"","value":"2"},{"type":"reporting_to","uuid":"","value":"3"},{"type":"reporting_to","uuid":"","value":"4"},{"type":"login_user_department_manager","uuid":"","value":""},{"type":"department_manager","uuid":"","value":"${organization_2.uuid}"},{"type":"employee","uuid":"","value":"7e254521-b2e4-11e7-93d8-5254001aba5d"}],"uuid":"418cc2c7-c1e6-11e7-8d35-5254001aba5d"},{"target_value":"s{\"department\":[\"${organization_1.uuid}\"],\"employee\":[]}","target_type":"sponsor","approvers":[{"type":"login_user_department_manager","uuid":"","value":""},{"type":"department_manager","uuid":"","value":"${organization_2.uuid}"},{"type":"employee","uuid":"","value":"7e254521-b2e4-11e7-93d8-5254001aba5d"}],"uuid":""}]</t>
+  </si>
+  <si>
+    <t>[{"target_value":"s{}","target_type":"","approvers":[{"type":"reporting_to","uuid":"","value":"1"},{"type":"reporting_to","uuid":"","value":"2"},{"type":"reporting_to","uuid":"","value":"3"},{"type":"reporting_to","uuid":"","value":"4"},{"type":"login_user_department_manager","uuid":"","value":""},{"type":"department_manager","uuid":"","value":"${organization_2.uuid}"},{"type":"employee","uuid":"","value":"7e254521-b2e4-11e7-93d8-5254001aba5d"}],"uuid":"418cc2c7-c1e6-11e7-8d35-5254001aba5d"},{"target_value":"s{\"department\":[\"${organization_1.uuid}\"],\"employee\":[]}","target_type":"sponsor","approvers":[{"type":"login_user_department_manager","uuid":"","value":""},{"type":"department_manager","uuid":"","value":"${organization_2.uuid}"},{"type":"employee","uuid":"","value":"7e254521-b2e4-11e7-93d8-5254001aba5d"}],"uuid":""},{"uuid":"","approvers":[{"uuid":"","type":"login_user_department_manager","value":""}],"target_type":"duration","target_value":"s{\"symbol\":\"&lt;=\",\"unit\":\"d\",\"number\":\"4\"}"},{"uuid":"","approvers":[{"uuid":"","type":"login_user_department_manager","value":""},{"uuid":"","type":"department_manager","value":"${organization_1.uuid}"}],"target_type":"duration","target_value":"s{\"symbol\":\"==\",\"unit\":\"d\",\"number\":\"5\"}"},{"uuid":"","approvers":[{"uuid":"","type":"login_user_department_manager","value":""},{"uuid":"","type":"department_manager","value":"${organization_1.uuid}"},{"uuid":"","type":"employee","value":"7e254521-b2e4-11e7-93d8-5254001aba5d"}],"target_type":"duration","target_value":"s{\"symbol\":\"&gt;=\",\"unit\":\"d\",\"number\":\"6\"}"}]</t>
+  </si>
+  <si>
+    <t>[{"uuid":"8ad63f15-be23-11e7-afef-5254001aba5d","approvers":[{"uuid":"","type":"reporting_to","value":"1"},{"uuid":"","type":"reporting_to","value":"2"},{"uuid":"","type":"reporting_to","value":"3"},{"uuid":"","type":"reporting_to","value":"4"},{"uuid":"","type":"login_user_department_manager","value":""},{"uuid":"","type":"department_manager","value":"${organization_2.uuid}"},{"uuid":"","type":"employee","value":"7e254521-b2e4-11e7-93d8-5254001aba5d"}],"target_type":"","target_value":"s{}"},{"uuid":"","approvers":[{"uuid":"","type":"login_user_department_manager","value":""},{"uuid":"","type":"department_manager","value":"${organization_2.uuid}"},{"uuid":"","type":"employee","value":"7e254521-b2e4-11e7-93d8-5254001aba5d"}],"target_type":"sponsor","target_value":"s{\"department\":[\"${organization_1.uuid}\"],\"employee\":[]}"},{"uuid":"","approvers":[{"uuid":"","type":"login_user_department_manager","value":""},{"uuid":"","type":"employee","value":"7e254521-b2e4-11e7-93d8-5254001aba5d"},{"uuid":"","type":"employee","value":"b8a23753-0f75-11e7-9aa4-00163e007053"}],"target_type":"sponsor","target_value":"s{\"department\":[\"${organization_2.uuid}\"],\"employee\":[]}"}]</t>
+  </si>
+  <si>
+    <t>[{"target_value":"s{}","target_type":"","approvers":[{"type":"reporting_to","uuid":"","value":"1"},{"type":"reporting_to","uuid":"","value":"2"},{"type":"reporting_to","uuid":"","value":"3"},{"type":"reporting_to","uuid":"","value":"4"},{"type":"login_user_department_manager","uuid":"","value":""},{"type":"department_manager","uuid":"","value":"${organization_2.uuid}"},{"type":"employee","uuid":"","value":"7e254521-b2e4-11e7-93d8-5254001aba5d"}],"uuid":"95db250e-0f75-11e7-8ff3-00163e007053"},{"target_value":"s{\"department\":[\"${organization_1.uuid}\"],\"employee\":[]}","target_type":"sponsor","approvers":[{"type":"login_user_department_manager","uuid":"","value":""},{"type":"department_manager","uuid":"","value":"${organization_2.uuid}"},{"type":"employee","uuid":"","value":"7e254521-b2e4-11e7-93d8-5254001aba5d"}],"uuid":""},{"uuid":"","approvers":[{"uuid":"","type":"login_user_department_manager","value":""},{"uuid":"","type":"employee","value":"7e254521-b2e4-11e7-93d8-5254001aba5d"},{"uuid":"","type":"employee","value":"b8a23753-0f75-11e7-9aa4-00163e007053"}],"target_type":"sponsor","target_value":"s{\"department\":[\"${organization_2.uuid}\"],\"employee\":[]}"}]</t>
+  </si>
+  <si>
+    <t>[{"target_value":"s{}","target_type":"","approvers":[{"type":"reporting_to","uuid":"","value":"1"},{"type":"reporting_to","uuid":"","value":"2"},{"type":"reporting_to","uuid":"","value":"3"},{"type":"reporting_to","uuid":"","value":"4"},{"type":"login_user_department_manager","uuid":"","value":""},{"type":"department_manager","uuid":"","value":"${organization_2.uuid}"},{"type":"employee","uuid":"","value":"7e254521-b2e4-11e7-93d8-5254001aba5d"}],"uuid":"b276c863-bd48-11e7-a179-5254001aba5d"},{"target_value":"s{\"department\":[\"${organization_1.uuid}\"],\"employee\":[]}","target_type":"sponsor","approvers":[{"type":"login_user_department_manager","uuid":"","value":""},{"type":"department_manager","uuid":"","value":"${organization_2.uuid}"},{"type":"employee","uuid":"","value":"7e254521-b2e4-11e7-93d8-5254001aba5d"}],"uuid":""},{"uuid":"","approvers":[{"uuid":"","type":"login_user_department_manager","value":""},{"uuid":"","type":"employee","value":"7e254521-b2e4-11e7-93d8-5254001aba5d"},{"uuid":"","type":"employee","value":"b8a23753-0f75-11e7-9aa4-00163e007053"}],"target_type":"sponsor","target_value":"s{\"department\":[\"${organization_2.uuid}\"],\"employee\":[]}"}]</t>
+  </si>
+  <si>
+    <t>[{"uuid":"7642fbdf-bd26-11e7-a179-5254001aba5d","approvers":[{"uuid":"","type":"reporting_to","value":"1"},{"uuid":"","type":"reporting_to","value":"2"},{"uuid":"","type":"reporting_to","value":"3"},{"uuid":"","type":"reporting_to","value":"4"},{"uuid":"","type":"login_user_department_manager","value":""},{"uuid":"","type":"department_manager","value":"${organization_2.uuid}"},{"uuid":"","type":"employee","value":"7e254521-b2e4-11e7-93d8-5254001aba5d"}],"target_type":"","target_value":"s{}"},{"uuid":"","approvers":[{"uuid":"","type":"login_user_department_manager","value":""},{"uuid":"","type":"department_manager","value":"${organization_2.uuid}"},{"uuid":"","type":"employee","value":"7e254521-b2e4-11e7-93d8-5254001aba5d"}],"target_type":"sponsor","target_value":"s{\"department\":[\"${organization_1.uuid}\"],\"employee\":[]}"},{"uuid":"","approvers":[{"uuid":"","type":"login_user_department_manager","value":""},{"uuid":"","type":"employee","value":"7e254521-b2e4-11e7-93d8-5254001aba5d"},{"uuid":"","type":"employee","value":"b8a23753-0f75-11e7-9aa4-00163e007053"}],"target_type":"sponsor","target_value":"s{\"department\":[\"${organization_2.uuid}\"],\"employee\":[]}"},{"uuid":"","approvers":[{"uuid":"","type":"reporting_to","value":"4"},{"uuid":"","type":"login_user_department_manager","value":""},{"uuid":"","type":"employee","value":"7e254521-b2e4-11e7-93d8-5254001aba5d"},{"uuid":"","type":"employee","value":"b8a23753-0f75-11e7-9aa4-00163e007053"}],"target_type":"sponsor","target_value":"s{\"department\":[],\"employee\":[\"${Auth.uuid}\"]}"}]</t>
+  </si>
+  <si>
+    <t>[{"target_value":"s{}","target_type":"","approvers":[{"type":"reporting_to","uuid":"","value":"1"},{"type":"reporting_to","uuid":"","value":"2"},{"type":"reporting_to","uuid":"","value":"3"},{"type":"reporting_to","uuid":"","value":"4"},{"type":"login_user_department_manager","uuid":"","value":""},{"type":"department_manager","uuid":"","value":"${organization_2.uuid}"},{"type":"employee","uuid":"","value":"7e254521-b2e4-11e7-93d8-5254001aba5d"}],"uuid":"5389429f-b9f7-11e7-9997-5254001aba5d"},{"target_value":"s{\"department\":[\"${organization_1.uuid}\"],\"employee\":[]}","target_type":"sponsor","approvers":[{"type":"login_user_department_manager","uuid":"","value":""},{"type":"department_manager","uuid":"","value":"${organization_2.uuid}"},{"type":"employee","uuid":"","value":"7e254521-b2e4-11e7-93d8-5254001aba5d"}],"uuid":""},{"uuid":"","approvers":[{"uuid":"","type":"employee","value":"7e254521-b2e4-11e7-93d8-5254001aba5d"},{"uuid":"","type":"login_user_department_manager","value":""}],"target_type":"sponsor","target_value":"s{\"department\":[],\"employee\":[\"${Auth.uuid}\"]}"}]</t>
+  </si>
+  <si>
+    <t>[{"target_value":"s{}","target_type":"","approvers":[{"type":"reporting_to","uuid":"","value":"1"},{"type":"reporting_to","uuid":"","value":"2"},{"type":"reporting_to","uuid":"","value":"3"},{"type":"reporting_to","uuid":"","value":"4"},{"type":"login_user_department_manager","uuid":"","value":""},{"type":"department_manager","uuid":"","value":"${organization_2.uuid}"},{"type":"employee","uuid":"","value":"7e254521-b2e4-11e7-93d8-5254001aba5d"}],"uuid":"5389429f-b9f7-11e7-9997-5254001aba5d"},{"target_value":"s{\"department\":[\"${organization_1.uuid}\"],\"employee\":[]}","target_type":"sponsor","approvers":[{"type":"login_user_department_manager","uuid":"","value":""},{"type":"department_manager","uuid":"","value":"${organization_2.uuid}"},{"type":"employee","uuid":"","value":"7e254521-b2e4-11e7-93d8-5254001aba5d"}],"uuid":""},{"uuid":"","approvers":[{"uuid":"","type":"login_user_department_manager","value":""}],"target_type":"duration","target_value":"s{\"symbol\":\"&lt;\",\"unit\":\"m\",\"number\":\"60\"}"},{"uuid":"","approvers":[{"uuid":"","type":"login_user_department_manager","value":""},{"uuid":"","type":"department_manager","value":"${organization_1.uuid}"}],"target_type":"duration","target_value":"s{\"symbol\":\"==\",\"unit\":\"m\",\"number\":\"60\"}"},{"uuid":"","approvers":[{"uuid":"","type":"login_user_department_manager","value":""},{"uuid":"","type":"department_manager","value":"${organization_1.uuid}"},{"uuid":"","type":"employee","value":"7e254521-b2e4-11e7-93d8-5254001aba5d"}],"target_type":"duration","target_value":"s{\"symbol\":\"&gt;\",\"unit\":\"m\",\"number\":\"60\"}"},{"uuid":"","approvers":[{"uuid":"","type":"employee","value":"7e254521-b2e4-11e7-93d8-5254001aba5d"},{"uuid":"","type":"login_user_department_manager","value":""}],"target_type":"sponsor","target_value":"s{\"department\":[],\"employee\":[\"${Auth.uuid}\"]}"}]</t>
+  </si>
+  <si>
+    <t>[{"uuid":"95e367b3-0f75-11e7-8ff3-00163e007053","approvers":[{"uuid":"","type":"reporting_to","value":"1"},{"uuid":"","type":"reporting_to","value":"2"},{"uuid":"","type":"reporting_to","value":"3"},{"uuid":"","type":"reporting_to","value":"4"},{"uuid":"","type":"login_user_department_manager","value":""},{"uuid":"","type":"department_manager","value":"${organization_2.uuid}"},{"uuid":"","type":"employee","value":"7e254521-b2e4-11e7-93d8-5254001aba5d"}],"target_type":"","target_value":"s{}"},{"uuid":"","approvers":[{"uuid":"","type":"login_user_department_manager","value":""},{"uuid":"","type":"department_manager","value":"${organization_2.uuid}"},{"uuid":"","type":"employee","value":"7e254521-b2e4-11e7-93d8-5254001aba5d"}],"target_type":"sponsor","target_value":"s{\"department\":[\"${organization_1.uuid}\"],\"employee\":[]}"},{"uuid":"","approvers":[{"uuid":"","type":"login_user_department_manager","value":""},{"uuid":"","type":"employee","value":"7e254521-b2e4-11e7-93d8-5254001aba5d"},{"uuid":"","type":"employee","value":"b8a23753-0f75-11e7-9aa4-00163e007053"}],"target_type":"sponsor","target_value":"s{\"department\":[\"${organization_2.uuid}\"],\"employee\":[]}"},{"uuid":"","approvers":[{"uuid":"","type":"reporting_to","value":"4"},{"uuid":"","type":"login_user_department_manager","value":""},{"uuid":"","type":"employee","value":"7e254521-b2e4-11e7-93d8-5254001aba5d"},{"uuid":"","type":"employee","value":"b8a23753-0f75-11e7-9aa4-00163e007053"}],"target_type":"sponsor","target_value":"s{\"department\":[],\"employee\":[\"${Auth.uuid}\"]}"}]</t>
   </si>
 </sst>
 </file>
@@ -976,8 +967,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G25"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="F26" sqref="F26"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E17" sqref="E17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1025,7 +1016,7 @@
         <v>54</v>
       </c>
       <c r="D2" t="s">
-        <v>123</v>
+        <v>117</v>
       </c>
       <c r="F2" t="s">
         <v>18</v>
@@ -1045,7 +1036,7 @@
         <v>34</v>
       </c>
       <c r="D3" t="s">
-        <v>124</v>
+        <v>130</v>
       </c>
       <c r="F3" t="s">
         <v>114</v>
@@ -1085,7 +1076,7 @@
         <v>53</v>
       </c>
       <c r="D5" t="s">
-        <v>119</v>
+        <v>127</v>
       </c>
       <c r="F5" t="s">
         <v>114</v>
@@ -1096,7 +1087,7 @@
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>122</v>
+        <v>116</v>
       </c>
       <c r="B6" t="s">
         <v>55</v>
@@ -1128,7 +1119,7 @@
         <v>53</v>
       </c>
       <c r="D7" t="s">
-        <v>120</v>
+        <v>128</v>
       </c>
       <c r="E7" t="s">
         <v>59</v>
@@ -1174,7 +1165,7 @@
         <v>53</v>
       </c>
       <c r="D9" t="s">
-        <v>121</v>
+        <v>129</v>
       </c>
       <c r="E9" t="s">
         <v>60</v>
@@ -1217,7 +1208,7 @@
         <v>53</v>
       </c>
       <c r="D11" t="s">
-        <v>116</v>
+        <v>120</v>
       </c>
       <c r="F11" t="s">
         <v>114</v>
@@ -1257,7 +1248,7 @@
         <v>53</v>
       </c>
       <c r="D13" t="s">
-        <v>128</v>
+        <v>131</v>
       </c>
       <c r="F13" t="s">
         <v>114</v>
@@ -1277,7 +1268,7 @@
         <v>53</v>
       </c>
       <c r="D14" t="s">
-        <v>127</v>
+        <v>132</v>
       </c>
       <c r="F14" t="s">
         <v>114</v>
@@ -1317,7 +1308,7 @@
         <v>53</v>
       </c>
       <c r="D16" t="s">
-        <v>125</v>
+        <v>133</v>
       </c>
       <c r="F16" t="s">
         <v>114</v>
@@ -1357,7 +1348,7 @@
         <v>53</v>
       </c>
       <c r="D18" t="s">
-        <v>117</v>
+        <v>121</v>
       </c>
       <c r="F18" t="s">
         <v>114</v>
@@ -1377,7 +1368,7 @@
         <v>53</v>
       </c>
       <c r="D19" t="s">
-        <v>126</v>
+        <v>122</v>
       </c>
       <c r="F19" t="s">
         <v>114</v>
@@ -1417,13 +1408,13 @@
         <v>53</v>
       </c>
       <c r="D21" t="s">
-        <v>118</v>
+        <v>123</v>
       </c>
       <c r="F21" t="s">
         <v>114</v>
       </c>
       <c r="G21" t="s">
-        <v>130</v>
+        <v>118</v>
       </c>
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.2">
@@ -1437,13 +1428,13 @@
         <v>53</v>
       </c>
       <c r="D22" t="s">
-        <v>129</v>
+        <v>124</v>
       </c>
       <c r="F22" t="s">
         <v>114</v>
       </c>
       <c r="G22" t="s">
-        <v>130</v>
+        <v>118</v>
       </c>
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.2">
@@ -1457,7 +1448,7 @@
         <v>54</v>
       </c>
       <c r="D23" t="s">
-        <v>131</v>
+        <v>119</v>
       </c>
       <c r="F23" t="s">
         <v>18</v>
@@ -1477,13 +1468,13 @@
         <v>53</v>
       </c>
       <c r="D24" t="s">
-        <v>132</v>
+        <v>125</v>
       </c>
       <c r="F24" t="s">
         <v>114</v>
       </c>
       <c r="G24" t="s">
-        <v>130</v>
+        <v>118</v>
       </c>
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.2">
@@ -1497,13 +1488,13 @@
         <v>53</v>
       </c>
       <c r="D25" t="s">
-        <v>133</v>
+        <v>126</v>
       </c>
       <c r="F25" t="s">
         <v>114</v>
       </c>
       <c r="G25" t="s">
-        <v>130</v>
+        <v>118</v>
       </c>
     </row>
   </sheetData>
@@ -2550,7 +2541,7 @@
         <v>30</v>
       </c>
       <c r="I22" t="s">
-        <v>130</v>
+        <v>118</v>
       </c>
       <c r="J22" t="s">
         <v>53</v>
@@ -2597,7 +2588,7 @@
         <v>30</v>
       </c>
       <c r="I23" t="s">
-        <v>130</v>
+        <v>118</v>
       </c>
       <c r="J23" t="s">
         <v>53</v>
@@ -2691,7 +2682,7 @@
         <v>30</v>
       </c>
       <c r="I25" t="s">
-        <v>130</v>
+        <v>118</v>
       </c>
       <c r="J25" t="s">
         <v>53</v>
@@ -2738,7 +2729,7 @@
         <v>30</v>
       </c>
       <c r="I26" t="s">
-        <v>130</v>
+        <v>118</v>
       </c>
       <c r="J26" t="s">
         <v>53</v>

--- a/sources/case/ApprovalTypes.xlsx
+++ b/sources/case/ApprovalTypes.xlsx
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="557" uniqueCount="134">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="693" uniqueCount="166">
   <si>
     <t>API</t>
   </si>
@@ -520,16 +520,112 @@
     <t>[{"target_value":"s{}","target_type":"","approvers":[{"type":"reporting_to","uuid":"","value":"1"},{"type":"reporting_to","uuid":"","value":"2"},{"type":"reporting_to","uuid":"","value":"3"},{"type":"reporting_to","uuid":"","value":"4"},{"type":"login_user_department_manager","uuid":"","value":""},{"type":"department_manager","uuid":"","value":"${organization_2.uuid}"},{"type":"employee","uuid":"","value":"7e254521-b2e4-11e7-93d8-5254001aba5d"}],"uuid":"b276c863-bd48-11e7-a179-5254001aba5d"},{"target_value":"s{\"department\":[\"${organization_1.uuid}\"],\"employee\":[]}","target_type":"sponsor","approvers":[{"type":"login_user_department_manager","uuid":"","value":""},{"type":"department_manager","uuid":"","value":"${organization_2.uuid}"},{"type":"employee","uuid":"","value":"7e254521-b2e4-11e7-93d8-5254001aba5d"}],"uuid":""},{"uuid":"","approvers":[{"uuid":"","type":"login_user_department_manager","value":""},{"uuid":"","type":"employee","value":"7e254521-b2e4-11e7-93d8-5254001aba5d"},{"uuid":"","type":"employee","value":"b8a23753-0f75-11e7-9aa4-00163e007053"}],"target_type":"sponsor","target_value":"s{\"department\":[\"${organization_2.uuid}\"],\"employee\":[]}"}]</t>
   </si>
   <si>
-    <t>[{"uuid":"7642fbdf-bd26-11e7-a179-5254001aba5d","approvers":[{"uuid":"","type":"reporting_to","value":"1"},{"uuid":"","type":"reporting_to","value":"2"},{"uuid":"","type":"reporting_to","value":"3"},{"uuid":"","type":"reporting_to","value":"4"},{"uuid":"","type":"login_user_department_manager","value":""},{"uuid":"","type":"department_manager","value":"${organization_2.uuid}"},{"uuid":"","type":"employee","value":"7e254521-b2e4-11e7-93d8-5254001aba5d"}],"target_type":"","target_value":"s{}"},{"uuid":"","approvers":[{"uuid":"","type":"login_user_department_manager","value":""},{"uuid":"","type":"department_manager","value":"${organization_2.uuid}"},{"uuid":"","type":"employee","value":"7e254521-b2e4-11e7-93d8-5254001aba5d"}],"target_type":"sponsor","target_value":"s{\"department\":[\"${organization_1.uuid}\"],\"employee\":[]}"},{"uuid":"","approvers":[{"uuid":"","type":"login_user_department_manager","value":""},{"uuid":"","type":"employee","value":"7e254521-b2e4-11e7-93d8-5254001aba5d"},{"uuid":"","type":"employee","value":"b8a23753-0f75-11e7-9aa4-00163e007053"}],"target_type":"sponsor","target_value":"s{\"department\":[\"${organization_2.uuid}\"],\"employee\":[]}"},{"uuid":"","approvers":[{"uuid":"","type":"reporting_to","value":"4"},{"uuid":"","type":"login_user_department_manager","value":""},{"uuid":"","type":"employee","value":"7e254521-b2e4-11e7-93d8-5254001aba5d"},{"uuid":"","type":"employee","value":"b8a23753-0f75-11e7-9aa4-00163e007053"}],"target_type":"sponsor","target_value":"s{\"department\":[],\"employee\":[\"${Auth.uuid}\"]}"}]</t>
-  </si>
-  <si>
-    <t>[{"target_value":"s{}","target_type":"","approvers":[{"type":"reporting_to","uuid":"","value":"1"},{"type":"reporting_to","uuid":"","value":"2"},{"type":"reporting_to","uuid":"","value":"3"},{"type":"reporting_to","uuid":"","value":"4"},{"type":"login_user_department_manager","uuid":"","value":""},{"type":"department_manager","uuid":"","value":"${organization_2.uuid}"},{"type":"employee","uuid":"","value":"7e254521-b2e4-11e7-93d8-5254001aba5d"}],"uuid":"5389429f-b9f7-11e7-9997-5254001aba5d"},{"target_value":"s{\"department\":[\"${organization_1.uuid}\"],\"employee\":[]}","target_type":"sponsor","approvers":[{"type":"login_user_department_manager","uuid":"","value":""},{"type":"department_manager","uuid":"","value":"${organization_2.uuid}"},{"type":"employee","uuid":"","value":"7e254521-b2e4-11e7-93d8-5254001aba5d"}],"uuid":""},{"uuid":"","approvers":[{"uuid":"","type":"employee","value":"7e254521-b2e4-11e7-93d8-5254001aba5d"},{"uuid":"","type":"login_user_department_manager","value":""}],"target_type":"sponsor","target_value":"s{\"department\":[],\"employee\":[\"${Auth.uuid}\"]}"}]</t>
-  </si>
-  <si>
-    <t>[{"target_value":"s{}","target_type":"","approvers":[{"type":"reporting_to","uuid":"","value":"1"},{"type":"reporting_to","uuid":"","value":"2"},{"type":"reporting_to","uuid":"","value":"3"},{"type":"reporting_to","uuid":"","value":"4"},{"type":"login_user_department_manager","uuid":"","value":""},{"type":"department_manager","uuid":"","value":"${organization_2.uuid}"},{"type":"employee","uuid":"","value":"7e254521-b2e4-11e7-93d8-5254001aba5d"}],"uuid":"5389429f-b9f7-11e7-9997-5254001aba5d"},{"target_value":"s{\"department\":[\"${organization_1.uuid}\"],\"employee\":[]}","target_type":"sponsor","approvers":[{"type":"login_user_department_manager","uuid":"","value":""},{"type":"department_manager","uuid":"","value":"${organization_2.uuid}"},{"type":"employee","uuid":"","value":"7e254521-b2e4-11e7-93d8-5254001aba5d"}],"uuid":""},{"uuid":"","approvers":[{"uuid":"","type":"login_user_department_manager","value":""}],"target_type":"duration","target_value":"s{\"symbol\":\"&lt;\",\"unit\":\"m\",\"number\":\"60\"}"},{"uuid":"","approvers":[{"uuid":"","type":"login_user_department_manager","value":""},{"uuid":"","type":"department_manager","value":"${organization_1.uuid}"}],"target_type":"duration","target_value":"s{\"symbol\":\"==\",\"unit\":\"m\",\"number\":\"60\"}"},{"uuid":"","approvers":[{"uuid":"","type":"login_user_department_manager","value":""},{"uuid":"","type":"department_manager","value":"${organization_1.uuid}"},{"uuid":"","type":"employee","value":"7e254521-b2e4-11e7-93d8-5254001aba5d"}],"target_type":"duration","target_value":"s{\"symbol\":\"&gt;\",\"unit\":\"m\",\"number\":\"60\"}"},{"uuid":"","approvers":[{"uuid":"","type":"employee","value":"7e254521-b2e4-11e7-93d8-5254001aba5d"},{"uuid":"","type":"login_user_department_manager","value":""}],"target_type":"sponsor","target_value":"s{\"department\":[],\"employee\":[\"${Auth.uuid}\"]}"}]</t>
-  </si>
-  <si>
-    <t>[{"uuid":"95e367b3-0f75-11e7-8ff3-00163e007053","approvers":[{"uuid":"","type":"reporting_to","value":"1"},{"uuid":"","type":"reporting_to","value":"2"},{"uuid":"","type":"reporting_to","value":"3"},{"uuid":"","type":"reporting_to","value":"4"},{"uuid":"","type":"login_user_department_manager","value":""},{"uuid":"","type":"department_manager","value":"${organization_2.uuid}"},{"uuid":"","type":"employee","value":"7e254521-b2e4-11e7-93d8-5254001aba5d"}],"target_type":"","target_value":"s{}"},{"uuid":"","approvers":[{"uuid":"","type":"login_user_department_manager","value":""},{"uuid":"","type":"department_manager","value":"${organization_2.uuid}"},{"uuid":"","type":"employee","value":"7e254521-b2e4-11e7-93d8-5254001aba5d"}],"target_type":"sponsor","target_value":"s{\"department\":[\"${organization_1.uuid}\"],\"employee\":[]}"},{"uuid":"","approvers":[{"uuid":"","type":"login_user_department_manager","value":""},{"uuid":"","type":"employee","value":"7e254521-b2e4-11e7-93d8-5254001aba5d"},{"uuid":"","type":"employee","value":"b8a23753-0f75-11e7-9aa4-00163e007053"}],"target_type":"sponsor","target_value":"s{\"department\":[\"${organization_2.uuid}\"],\"employee\":[]}"},{"uuid":"","approvers":[{"uuid":"","type":"reporting_to","value":"4"},{"uuid":"","type":"login_user_department_manager","value":""},{"uuid":"","type":"employee","value":"7e254521-b2e4-11e7-93d8-5254001aba5d"},{"uuid":"","type":"employee","value":"b8a23753-0f75-11e7-9aa4-00163e007053"}],"target_type":"sponsor","target_value":"s{\"department\":[],\"employee\":[\"${Auth.uuid}\"]}"}]</t>
+    <t>project_1</t>
+  </si>
+  <si>
+    <t>028f8158-9f81-11e7-965d-5254001aba5d</t>
+  </si>
+  <si>
+    <t>duplicate</t>
+  </si>
+  <si>
+    <t>[{"target_value":"s{}","target_type":"","approvers":[{"type":"reporting_to","uuid":"","value":"1"},{"type":"reporting_to","uuid":"","value":"2"},{"type":"reporting_to","uuid":"","value":"3"},{"type":"reporting_to","uuid":"","value":"4"},{"type":"login_user_department_manager","uuid":"","value":""},{"type":"department_manager","uuid":"","value":"${organization_2.uuid}"},{"type":"employee","uuid":"","value":"7e254521-b2e4-11e7-93d8-5254001aba5d"}],"uuid":"932edd34-c05f-11e7-8d35-5254001aba5d"}]</t>
+  </si>
+  <si>
+    <t>project_2</t>
+  </si>
+  <si>
+    <t>many_times</t>
+  </si>
+  <si>
+    <t>[{"target_value":"s{}","target_type":"","approvers":[{"type":"reporting_to","uuid":"","value":"1"},{"type":"reporting_to","uuid":"","value":"2"},{"type":"reporting_to","uuid":"","value":"3"},{"type":"reporting_to","uuid":"","value":"4"},{"type":"login_user_department_manager","uuid":"","value":""},{"type":"department_manager","uuid":"","value":"${organization_2.uuid}"},{"type":"employee","uuid":"","value":"7e254521-b2e4-11e7-93d8-5254001aba5d"}],"uuid":"932edd34-c05f-11e7-8d35-5254001aba5d"},{"target_value":"s{\"department\":[\"a62ef58e-beb4-11e7-98c2-5254001aba5d\"],\"employee\":[]}","target_type":"sponsor","approvers":[{"type":"login_user_department_manager","uuid":"","value":""},{"type":"department_manager","uuid":"","value":"${organization_2.uuid}"},{"type":"employee","uuid":"","value":"7e254521-b2e4-11e7-93d8-5254001aba5d"}],"uuid":""},{"uuid":"","approvers":[{"uuid":"","type":"employee","value":"7e254521-b2e4-11e7-93d8-5254001aba5d"},{"uuid":"","type":"login_user_department_manager","value":""}],"target_type":"sponsor","target_value":"s{\"department\":[],\"employee\":[\"b8a23753-0f75-11e7-9aa4-00163e007053\"]}"}]</t>
+  </si>
+  <si>
+    <t>general_1</t>
+  </si>
+  <si>
+    <t>95eb0772-0f75-11e7-8ff3-00163e007053</t>
+  </si>
+  <si>
+    <t>[{"target_value":"s{}","target_type":"","approvers":[{"type":"reporting_to","uuid":"","value":"1"},{"type":"reporting_to","uuid":"","value":"2"},{"type":"reporting_to","uuid":"","value":"3"},{"type":"reporting_to","uuid":"","value":"4"},{"type":"login_user_department_manager","uuid":"","value":""},{"type":"department_manager","uuid":"","value":"${organization_2.uuid}"},{"type":"employee","uuid":"","value":"7e254521-b2e4-11e7-93d8-5254001aba5d"}],"uuid":"95eb32c3-0f75-11e7-8ff3-00163e007053"}]</t>
+  </si>
+  <si>
+    <t>general_2</t>
+  </si>
+  <si>
+    <t>[{"target_value":"s{}","target_type":"","approvers":[{"type":"reporting_to","uuid":"","value":"1"},{"type":"reporting_to","uuid":"","value":"2"},{"type":"reporting_to","uuid":"","value":"3"},{"type":"reporting_to","uuid":"","value":"4"},{"type":"login_user_department_manager","uuid":"","value":""},{"type":"department_manager","uuid":"","value":"${organization_2.uuid}"},{"type":"employee","uuid":"","value":"7e254521-b2e4-11e7-93d8-5254001aba5d"}],"uuid":"95eb32c3-0f75-11e7-8ff3-00163e007053"},{"target_value":"s{\"department\":[\"a62ef58e-beb4-11e7-98c2-5254001aba5d\"],\"employee\":[]}","target_type":"sponsor","approvers":[{"type":"login_user_department_manager","uuid":"","value":""},{"type":"department_manager","uuid":"","value":"${organization_2.uuid}"},{"type":"employee","uuid":"","value":"7e254521-b2e4-11e7-93d8-5254001aba5d"}],"uuid":""},{"uuid":"","approvers":[{"uuid":"","type":"employee","value":"7e254521-b2e4-11e7-93d8-5254001aba5d"},{"uuid":"","type":"login_user_department_manager","value":""}],"target_type":"sponsor","target_value":"s{\"department\":[],\"employee\":[\"b8a23753-0f75-11e7-9aa4-00163e007053\"]}"}]</t>
+  </si>
+  <si>
+    <t>materialget_1</t>
+  </si>
+  <si>
+    <t>95e78e13-0f75-11e7-8ff3-00163e007053</t>
+  </si>
+  <si>
+    <t>[{"target_value":"s{}","target_type":"","approvers":[{"type":"reporting_to","uuid":"","value":"1"},{"type":"reporting_to","uuid":"","value":"2"},{"type":"reporting_to","uuid":"","value":"3"},{"type":"reporting_to","uuid":"","value":"4"},{"type":"login_user_department_manager","uuid":"","value":""},{"type":"department_manager","uuid":"","value":"${organization_2.uuid}"},{"type":"employee","uuid":"","value":"7e254521-b2e4-11e7-93d8-5254001aba5d"}],"uuid":"95e7b57a-0f75-11e7-8ff3-00163e007053"}]</t>
+  </si>
+  <si>
+    <t>materialget_2</t>
+  </si>
+  <si>
+    <t>[{"target_value":"s{}","target_type":"","approvers":[{"type":"reporting_to","uuid":"","value":"1"},{"type":"reporting_to","uuid":"","value":"2"},{"type":"reporting_to","uuid":"","value":"3"},{"type":"reporting_to","uuid":"","value":"4"},{"type":"login_user_department_manager","uuid":"","value":""},{"type":"department_manager","uuid":"","value":"${organization_2.uuid}"},{"type":"employee","uuid":"","value":"7e254521-b2e4-11e7-93d8-5254001aba5d"}],"uuid":"95e7b57a-0f75-11e7-8ff3-00163e007053"},{"target_value":"s{\"department\":[\"a62ef58e-beb4-11e7-98c2-5254001aba5d\"],\"employee\":[]}","target_type":"sponsor","approvers":[{"type":"login_user_department_manager","uuid":"","value":""},{"type":"department_manager","uuid":"","value":"${organization_2.uuid}"},{"type":"employee","uuid":"","value":"7e254521-b2e4-11e7-93d8-5254001aba5d"}],"uuid":""},{"uuid":"","approvers":[{"uuid":"","type":"employee","value":"7e254521-b2e4-11e7-93d8-5254001aba5d"},{"uuid":"","type":"login_user_department_manager","value":""}],"target_type":"sponsor","target_value":"s{\"department\":[],\"employee\":[\"b8a23753-0f75-11e7-9aa4-00163e007053\"]}"}]</t>
+  </si>
+  <si>
+    <t>contract_1</t>
+  </si>
+  <si>
+    <t>95e70193-0f75-11e7-8ff3-00163e007053</t>
+  </si>
+  <si>
+    <t>[{"target_value":"s{}","target_type":"","approvers":[{"type":"reporting_to","uuid":"","value":"1"},{"type":"reporting_to","uuid":"","value":"2"},{"type":"reporting_to","uuid":"","value":"3"},{"type":"reporting_to","uuid":"","value":"4"},{"type":"login_user_department_manager","uuid":"","value":""},{"type":"department_manager","uuid":"","value":"${organization_2.uuid}"},{"type":"employee","uuid":"","value":"7e254521-b2e4-11e7-93d8-5254001aba5d"}],"uuid":"95e727c9-0f75-11e7-8ff3-00163e007053"}]</t>
+  </si>
+  <si>
+    <t>contract_2</t>
+  </si>
+  <si>
+    <t>[{"target_value":"s{}","target_type":"","approvers":[{"type":"reporting_to","uuid":"","value":"1"},{"type":"reporting_to","uuid":"","value":"2"},{"type":"reporting_to","uuid":"","value":"3"},{"type":"reporting_to","uuid":"","value":"4"},{"type":"login_user_department_manager","uuid":"","value":""},{"type":"department_manager","uuid":"","value":"${organization_2.uuid}"},{"type":"employee","uuid":"","value":"7e254521-b2e4-11e7-93d8-5254001aba5d"}],"uuid":"95e727c9-0f75-11e7-8ff3-00163e007053"},{"target_value":"s{\"department\":[\"a62ef58e-beb4-11e7-98c2-5254001aba5d\"],\"employee\":[]}","target_type":"sponsor","approvers":[{"type":"login_user_department_manager","uuid":"","value":""},{"type":"department_manager","uuid":"","value":"${organization_2.uuid}"},{"type":"employee","uuid":"","value":"7e254521-b2e4-11e7-93d8-5254001aba5d"}],"uuid":""},{"uuid":"","approvers":[{"uuid":"","type":"employee","value":"7e254521-b2e4-11e7-93d8-5254001aba5d"},{"uuid":"","type":"login_user_department_manager","value":""}],"target_type":"sponsor","target_value":"s{\"department\":[],\"employee\":[\"b8a23753-0f75-11e7-9aa4-00163e007053\"]}"}]</t>
+  </si>
+  <si>
+    <t>cd00524d-0eed-11e7-b0e5-00163e007053</t>
+  </si>
+  <si>
+    <t>项目审批</t>
+  </si>
+  <si>
+    <t>automation</t>
+  </si>
+  <si>
+    <t>project_approval</t>
+  </si>
+  <si>
+    <t>通用审批</t>
+  </si>
+  <si>
+    <t>general_approval</t>
+  </si>
+  <si>
+    <t>物品领用</t>
+  </si>
+  <si>
+    <t>materialget</t>
+  </si>
+  <si>
+    <t>合同</t>
+  </si>
+  <si>
+    <t>contract</t>
+  </si>
+  <si>
+    <t>[{"uuid":"7642fbdf-bd26-11e7-a179-5254001aba5d","approvers":[{"uuid":"","type":"reporting_to","value":"1"},{"uuid":"","type":"reporting_to","value":"2"},{"uuid":"","type":"reporting_to","value":"3"},{"uuid":"","type":"reporting_to","value":"4"},{"uuid":"","type":"login_user_department_manager","value":""},{"uuid":"","type":"department_manager","value":"${organization_2.uuid}"},{"uuid":"","type":"employee","value":"7e254521-b2e4-11e7-93d8-5254001aba5d"}],"target_type":"","target_value":"s{}"},{"uuid":"","approvers":[{"uuid":"","type":"login_user_department_manager","value":""},{"uuid":"","type":"department_manager","value":"${organization_2.uuid}"},{"uuid":"","type":"employee","value":"7e254521-b2e4-11e7-93d8-5254001aba5d"}],"target_type":"sponsor","target_value":"s{\"department\":[\"${organization_1.uuid}\"],\"employee\":[]}"},{"uuid":"","approvers":[{"uuid":"","type":"login_user_department_manager","value":""},{"uuid":"","type":"employee","value":"7e254521-b2e4-11e7-93d8-5254001aba5d"},{"uuid":"","type":"employee","value":"b8a23753-0f75-11e7-9aa4-00163e007053"}],"target_type":"sponsor","target_value":"s{\"department\":[\"${organization_2.uuid}\"],\"employee\":[]}"},{"uuid":"","approvers":[{"uuid":"","type":"reporting_to","value":"4"},{"uuid":"","type":"login_user_department_manager","value":""},{"uuid":"","type":"employee","value":"7e254521-b2e4-11e7-93d8-5254001aba5d"},{"uuid":"","type":"employee","value":"b8a23753-0f75-11e7-9aa4-00163e007053"}],"target_type":"sponsor","target_value":"s{\"department\":[],\"employee\":[\"${Auth.employee_id}\"]}"}]</t>
+  </si>
+  <si>
+    <t>[{"target_value":"s{}","target_type":"","approvers":[{"type":"reporting_to","uuid":"","value":"1"},{"type":"reporting_to","uuid":"","value":"2"},{"type":"reporting_to","uuid":"","value":"3"},{"type":"reporting_to","uuid":"","value":"4"},{"type":"login_user_department_manager","uuid":"","value":""},{"type":"department_manager","uuid":"","value":"${organization_2.uuid}"},{"type":"employee","uuid":"","value":"7e254521-b2e4-11e7-93d8-5254001aba5d"}],"uuid":"5389429f-b9f7-11e7-9997-5254001aba5d"},{"target_value":"s{\"department\":[\"${organization_1.uuid}\"],\"employee\":[]}","target_type":"sponsor","approvers":[{"type":"login_user_department_manager","uuid":"","value":""},{"type":"department_manager","uuid":"","value":"${organization_2.uuid}"},{"type":"employee","uuid":"","value":"7e254521-b2e4-11e7-93d8-5254001aba5d"}],"uuid":""},{"uuid":"","approvers":[{"uuid":"","type":"employee","value":"7e254521-b2e4-11e7-93d8-5254001aba5d"},{"uuid":"","type":"login_user_department_manager","value":""}],"target_type":"sponsor","target_value":"s{\"department\":[],\"employee\":[\"${Auth.employee_id}\"]}"}]</t>
+  </si>
+  <si>
+    <t>[{"target_value":"s{}","target_type":"","approvers":[{"type":"reporting_to","uuid":"","value":"1"},{"type":"reporting_to","uuid":"","value":"2"},{"type":"reporting_to","uuid":"","value":"3"},{"type":"reporting_to","uuid":"","value":"4"},{"type":"login_user_department_manager","uuid":"","value":""},{"type":"department_manager","uuid":"","value":"${organization_2.uuid}"},{"type":"employee","uuid":"","value":"7e254521-b2e4-11e7-93d8-5254001aba5d"}],"uuid":"5389429f-b9f7-11e7-9997-5254001aba5d"},{"target_value":"s{\"department\":[\"${organization_1.uuid}\"],\"employee\":[]}","target_type":"sponsor","approvers":[{"type":"login_user_department_manager","uuid":"","value":""},{"type":"department_manager","uuid":"","value":"${organization_2.uuid}"},{"type":"employee","uuid":"","value":"7e254521-b2e4-11e7-93d8-5254001aba5d"}],"uuid":""},{"uuid":"","approvers":[{"uuid":"","type":"login_user_department_manager","value":""}],"target_type":"duration","target_value":"s{\"symbol\":\"&lt;\",\"unit\":\"m\",\"number\":\"60\"}"},{"uuid":"","approvers":[{"uuid":"","type":"login_user_department_manager","value":""},{"uuid":"","type":"department_manager","value":"${organization_1.uuid}"}],"target_type":"duration","target_value":"s{\"symbol\":\"==\",\"unit\":\"m\",\"number\":\"60\"}"},{"uuid":"","approvers":[{"uuid":"","type":"login_user_department_manager","value":""},{"uuid":"","type":"department_manager","value":"${organization_1.uuid}"},{"uuid":"","type":"employee","value":"7e254521-b2e4-11e7-93d8-5254001aba5d"}],"target_type":"duration","target_value":"s{\"symbol\":\"&gt;\",\"unit\":\"m\",\"number\":\"60\"}"},{"uuid":"","approvers":[{"uuid":"","type":"employee","value":"7e254521-b2e4-11e7-93d8-5254001aba5d"},{"uuid":"","type":"login_user_department_manager","value":""}],"target_type":"sponsor","target_value":"s{\"department\":[],\"employee\":[\"${Auth.employee_id}\"]}"}]</t>
+  </si>
+  <si>
+    <t>[{"uuid":"95e367b3-0f75-11e7-8ff3-00163e007053","approvers":[{"uuid":"","type":"reporting_to","value":"1"},{"uuid":"","type":"reporting_to","value":"2"},{"uuid":"","type":"reporting_to","value":"3"},{"uuid":"","type":"reporting_to","value":"4"},{"uuid":"","type":"login_user_department_manager","value":""},{"uuid":"","type":"department_manager","value":"${organization_2.uuid}"},{"uuid":"","type":"employee","value":"7e254521-b2e4-11e7-93d8-5254001aba5d"}],"target_type":"","target_value":"s{}"},{"uuid":"","approvers":[{"uuid":"","type":"login_user_department_manager","value":""},{"uuid":"","type":"department_manager","value":"${organization_2.uuid}"},{"uuid":"","type":"employee","value":"7e254521-b2e4-11e7-93d8-5254001aba5d"}],"target_type":"sponsor","target_value":"s{\"department\":[\"${organization_1.uuid}\"],\"employee\":[]}"},{"uuid":"","approvers":[{"uuid":"","type":"login_user_department_manager","value":""},{"uuid":"","type":"employee","value":"7e254521-b2e4-11e7-93d8-5254001aba5d"},{"uuid":"","type":"employee","value":"b8a23753-0f75-11e7-9aa4-00163e007053"}],"target_type":"sponsor","target_value":"s{\"department\":[\"${organization_2.uuid}\"],\"employee\":[]}"},{"uuid":"","approvers":[{"uuid":"","type":"reporting_to","value":"4"},{"uuid":"","type":"login_user_department_manager","value":""},{"uuid":"","type":"employee","value":"7e254521-b2e4-11e7-93d8-5254001aba5d"},{"uuid":"","type":"employee","value":"b8a23753-0f75-11e7-9aa4-00163e007053"}],"target_type":"sponsor","target_value":"s{\"department\":[],\"employee\":[\"${Auth.employee_id}\"]}"}]</t>
   </si>
 </sst>
 </file>
@@ -600,7 +696,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -617,6 +713,18 @@
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -965,10 +1073,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G25"/>
+  <dimension ref="A1:G33"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E17" sqref="E17"/>
+      <selection activeCell="D13" sqref="D13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1036,7 +1144,7 @@
         <v>34</v>
       </c>
       <c r="D3" t="s">
-        <v>130</v>
+        <v>162</v>
       </c>
       <c r="F3" t="s">
         <v>114</v>
@@ -1248,7 +1356,7 @@
         <v>53</v>
       </c>
       <c r="D13" t="s">
-        <v>131</v>
+        <v>163</v>
       </c>
       <c r="F13" t="s">
         <v>114</v>
@@ -1268,7 +1376,7 @@
         <v>53</v>
       </c>
       <c r="D14" t="s">
-        <v>132</v>
+        <v>164</v>
       </c>
       <c r="F14" t="s">
         <v>114</v>
@@ -1308,7 +1416,7 @@
         <v>53</v>
       </c>
       <c r="D16" t="s">
-        <v>133</v>
+        <v>165</v>
       </c>
       <c r="F16" t="s">
         <v>114</v>
@@ -1495,6 +1603,174 @@
       </c>
       <c r="G25" t="s">
         <v>118</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A26" s="6" t="s">
+        <v>130</v>
+      </c>
+      <c r="B26" s="6" t="s">
+        <v>131</v>
+      </c>
+      <c r="C26" s="6" t="s">
+        <v>132</v>
+      </c>
+      <c r="D26" s="6" t="s">
+        <v>133</v>
+      </c>
+      <c r="E26" s="6"/>
+      <c r="F26" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="G26" s="6" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A27" s="6" t="s">
+        <v>134</v>
+      </c>
+      <c r="B27" s="6" t="s">
+        <v>131</v>
+      </c>
+      <c r="C27" s="6" t="s">
+        <v>135</v>
+      </c>
+      <c r="D27" s="6" t="s">
+        <v>136</v>
+      </c>
+      <c r="E27" s="6"/>
+      <c r="F27" s="6" t="s">
+        <v>114</v>
+      </c>
+      <c r="G27" s="6" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A28" s="6" t="s">
+        <v>137</v>
+      </c>
+      <c r="B28" s="6" t="s">
+        <v>138</v>
+      </c>
+      <c r="C28" s="6" t="s">
+        <v>132</v>
+      </c>
+      <c r="D28" s="6" t="s">
+        <v>139</v>
+      </c>
+      <c r="E28" s="6"/>
+      <c r="F28" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="G28" s="6" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A29" s="6" t="s">
+        <v>140</v>
+      </c>
+      <c r="B29" s="6" t="s">
+        <v>138</v>
+      </c>
+      <c r="C29" s="6" t="s">
+        <v>135</v>
+      </c>
+      <c r="D29" s="6" t="s">
+        <v>141</v>
+      </c>
+      <c r="E29" s="6"/>
+      <c r="F29" s="6" t="s">
+        <v>114</v>
+      </c>
+      <c r="G29" s="6" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A30" s="6" t="s">
+        <v>142</v>
+      </c>
+      <c r="B30" s="6" t="s">
+        <v>143</v>
+      </c>
+      <c r="C30" s="6" t="s">
+        <v>132</v>
+      </c>
+      <c r="D30" s="6" t="s">
+        <v>144</v>
+      </c>
+      <c r="E30" s="6"/>
+      <c r="F30" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="G30" s="6" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A31" s="6" t="s">
+        <v>145</v>
+      </c>
+      <c r="B31" s="6" t="s">
+        <v>143</v>
+      </c>
+      <c r="C31" s="6" t="s">
+        <v>135</v>
+      </c>
+      <c r="D31" s="6" t="s">
+        <v>146</v>
+      </c>
+      <c r="E31" s="6"/>
+      <c r="F31" s="6" t="s">
+        <v>114</v>
+      </c>
+      <c r="G31" s="6" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A32" s="6" t="s">
+        <v>147</v>
+      </c>
+      <c r="B32" s="7" t="s">
+        <v>148</v>
+      </c>
+      <c r="C32" s="6" t="s">
+        <v>132</v>
+      </c>
+      <c r="D32" s="6" t="s">
+        <v>149</v>
+      </c>
+      <c r="E32" s="6"/>
+      <c r="F32" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="G32" s="6" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A33" s="6" t="s">
+        <v>150</v>
+      </c>
+      <c r="B33" s="7" t="s">
+        <v>148</v>
+      </c>
+      <c r="C33" s="6" t="s">
+        <v>135</v>
+      </c>
+      <c r="D33" s="6" t="s">
+        <v>151</v>
+      </c>
+      <c r="E33" s="6"/>
+      <c r="F33" s="6" t="s">
+        <v>114</v>
+      </c>
+      <c r="G33" s="6" t="s">
+        <v>33</v>
       </c>
     </row>
   </sheetData>
@@ -1506,10 +1782,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:O26"/>
+  <dimension ref="A1:O34"/>
   <sheetViews>
-    <sheetView topLeftCell="G1" workbookViewId="0">
-      <selection activeCell="I24" sqref="I24:I26"/>
+    <sheetView topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="B23" sqref="B23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -2750,6 +3026,318 @@
         <v>32</v>
       </c>
     </row>
+    <row r="27" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A27" s="8" t="s">
+        <v>130</v>
+      </c>
+      <c r="B27" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="C27" s="8"/>
+      <c r="D27" s="8"/>
+      <c r="E27" s="8"/>
+      <c r="F27" s="8"/>
+      <c r="G27" s="8" t="s">
+        <v>131</v>
+      </c>
+      <c r="H27" s="8" t="s">
+        <v>152</v>
+      </c>
+      <c r="I27" s="8" t="s">
+        <v>33</v>
+      </c>
+      <c r="J27" s="8" t="s">
+        <v>132</v>
+      </c>
+      <c r="K27" s="8" t="s">
+        <v>31</v>
+      </c>
+      <c r="L27" s="8" t="s">
+        <v>153</v>
+      </c>
+      <c r="M27" s="8" t="s">
+        <v>154</v>
+      </c>
+      <c r="N27" s="8" t="s">
+        <v>155</v>
+      </c>
+      <c r="O27" s="8" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="28" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A28" s="8" t="s">
+        <v>134</v>
+      </c>
+      <c r="B28" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="C28" s="8"/>
+      <c r="D28" s="8"/>
+      <c r="E28" s="8"/>
+      <c r="F28" s="8"/>
+      <c r="G28" s="8" t="s">
+        <v>131</v>
+      </c>
+      <c r="H28" s="8" t="s">
+        <v>152</v>
+      </c>
+      <c r="I28" s="8" t="s">
+        <v>33</v>
+      </c>
+      <c r="J28" s="8" t="s">
+        <v>135</v>
+      </c>
+      <c r="K28" s="8" t="s">
+        <v>31</v>
+      </c>
+      <c r="L28" s="8" t="s">
+        <v>153</v>
+      </c>
+      <c r="M28" s="8" t="s">
+        <v>154</v>
+      </c>
+      <c r="N28" s="8" t="s">
+        <v>155</v>
+      </c>
+      <c r="O28" s="8" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="29" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A29" s="8" t="s">
+        <v>137</v>
+      </c>
+      <c r="B29" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="C29" s="8"/>
+      <c r="D29" s="8"/>
+      <c r="E29" s="8"/>
+      <c r="F29" s="8"/>
+      <c r="G29" s="8" t="s">
+        <v>138</v>
+      </c>
+      <c r="H29" s="8" t="s">
+        <v>30</v>
+      </c>
+      <c r="I29" s="8" t="s">
+        <v>33</v>
+      </c>
+      <c r="J29" s="8" t="s">
+        <v>132</v>
+      </c>
+      <c r="K29" s="8" t="s">
+        <v>31</v>
+      </c>
+      <c r="L29" s="8" t="s">
+        <v>156</v>
+      </c>
+      <c r="M29" s="8" t="s">
+        <v>154</v>
+      </c>
+      <c r="N29" s="8" t="s">
+        <v>157</v>
+      </c>
+      <c r="O29" s="8" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="30" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A30" s="8" t="s">
+        <v>140</v>
+      </c>
+      <c r="B30" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="C30" s="8"/>
+      <c r="D30" s="8"/>
+      <c r="E30" s="8"/>
+      <c r="F30" s="8"/>
+      <c r="G30" s="8" t="s">
+        <v>138</v>
+      </c>
+      <c r="H30" s="8" t="s">
+        <v>30</v>
+      </c>
+      <c r="I30" s="8" t="s">
+        <v>33</v>
+      </c>
+      <c r="J30" s="8" t="s">
+        <v>135</v>
+      </c>
+      <c r="K30" s="8" t="s">
+        <v>31</v>
+      </c>
+      <c r="L30" s="8" t="s">
+        <v>156</v>
+      </c>
+      <c r="M30" s="8" t="s">
+        <v>154</v>
+      </c>
+      <c r="N30" s="8" t="s">
+        <v>157</v>
+      </c>
+      <c r="O30" s="8" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="31" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A31" s="8" t="s">
+        <v>142</v>
+      </c>
+      <c r="B31" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="C31" s="8"/>
+      <c r="D31" s="8"/>
+      <c r="E31" s="8"/>
+      <c r="F31" s="8"/>
+      <c r="G31" s="8" t="s">
+        <v>143</v>
+      </c>
+      <c r="H31" s="8" t="s">
+        <v>30</v>
+      </c>
+      <c r="I31" s="8" t="s">
+        <v>33</v>
+      </c>
+      <c r="J31" s="8" t="s">
+        <v>132</v>
+      </c>
+      <c r="K31" s="8" t="s">
+        <v>31</v>
+      </c>
+      <c r="L31" s="8" t="s">
+        <v>158</v>
+      </c>
+      <c r="M31" s="8" t="s">
+        <v>154</v>
+      </c>
+      <c r="N31" s="8" t="s">
+        <v>159</v>
+      </c>
+      <c r="O31" s="8" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="32" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A32" s="8" t="s">
+        <v>145</v>
+      </c>
+      <c r="B32" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="C32" s="8"/>
+      <c r="D32" s="8"/>
+      <c r="E32" s="8"/>
+      <c r="F32" s="8"/>
+      <c r="G32" s="8" t="s">
+        <v>143</v>
+      </c>
+      <c r="H32" s="8" t="s">
+        <v>30</v>
+      </c>
+      <c r="I32" s="8" t="s">
+        <v>33</v>
+      </c>
+      <c r="J32" s="8" t="s">
+        <v>135</v>
+      </c>
+      <c r="K32" s="8" t="s">
+        <v>31</v>
+      </c>
+      <c r="L32" s="8" t="s">
+        <v>158</v>
+      </c>
+      <c r="M32" s="8" t="s">
+        <v>154</v>
+      </c>
+      <c r="N32" s="8" t="s">
+        <v>159</v>
+      </c>
+      <c r="O32" s="8" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="33" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A33" s="8" t="s">
+        <v>147</v>
+      </c>
+      <c r="B33" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="C33" s="8"/>
+      <c r="D33" s="8"/>
+      <c r="E33" s="8"/>
+      <c r="F33" s="8"/>
+      <c r="G33" s="9" t="s">
+        <v>148</v>
+      </c>
+      <c r="H33" s="8" t="s">
+        <v>30</v>
+      </c>
+      <c r="I33" s="8" t="s">
+        <v>33</v>
+      </c>
+      <c r="J33" s="8" t="s">
+        <v>132</v>
+      </c>
+      <c r="K33" s="8" t="s">
+        <v>31</v>
+      </c>
+      <c r="L33" s="8" t="s">
+        <v>160</v>
+      </c>
+      <c r="M33" s="8" t="s">
+        <v>154</v>
+      </c>
+      <c r="N33" s="8" t="s">
+        <v>161</v>
+      </c>
+      <c r="O33" s="8" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="34" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A34" s="8" t="s">
+        <v>150</v>
+      </c>
+      <c r="B34" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="C34" s="8"/>
+      <c r="D34" s="8"/>
+      <c r="E34" s="8"/>
+      <c r="F34" s="8"/>
+      <c r="G34" s="9" t="s">
+        <v>148</v>
+      </c>
+      <c r="H34" s="8" t="s">
+        <v>30</v>
+      </c>
+      <c r="I34" s="8" t="s">
+        <v>33</v>
+      </c>
+      <c r="J34" s="8" t="s">
+        <v>135</v>
+      </c>
+      <c r="K34" s="8" t="s">
+        <v>31</v>
+      </c>
+      <c r="L34" s="8" t="s">
+        <v>160</v>
+      </c>
+      <c r="M34" s="8" t="s">
+        <v>154</v>
+      </c>
+      <c r="N34" s="8" t="s">
+        <v>161</v>
+      </c>
+      <c r="O34" s="8" t="s">
+        <v>32</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/sources/case/ApprovalTypes.xlsx
+++ b/sources/case/ApprovalTypes.xlsx
@@ -447,79 +447,17 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>[{"uuid":"95db250e-0f75-11e7-8ff3-00163e007053","approvers":[{"uuid":"","type":"reporting_to","value":"1"},{"uuid":"","type":"reporting_to","value":"2"},{"uuid":"","type":"reporting_to","value":"3"},{"uuid":"","type":"reporting_to","value":"4"},{"uuid":"","type":"login_user_department_manager","value":""},{"uuid":"","type":"department_manager","value":"${organization_2.uuid}"},{"uuid":"","type":"employee","value":"7e254521-b2e4-11e7-93d8-5254001aba5d"}],"target_type":"","target_value":"s{}"}]</t>
-  </si>
-  <si>
-    <t>[{"uuid":"b276c863-bd48-11e7-a179-5254001aba5d","approvers":[{"uuid":"","type":"reporting_to","value":"1"},{"uuid":"","type":"reporting_to","value":"2"},{"uuid":"","type":"reporting_to","value":"3"},{"uuid":"","type":"reporting_to","value":"4"},{"uuid":"","type":"login_user_department_manager","value":""},{"uuid":"","type":"department_manager","value":"${organization_2.uuid}"},{"uuid":"","type":"employee","value":"7e254521-b2e4-11e7-93d8-5254001aba5d"}],"target_type":"","target_value":"s{}"}]</t>
-  </si>
-  <si>
-    <t>[{"target_value":"s{}","target_type":"","approvers":[{"type":"reporting_to","uuid":"","value":"1"},{"type":"reporting_to","uuid":"","value":"2"},{"type":"reporting_to","uuid":"","value":"3"},{"type":"reporting_to","uuid":"","value":"4"},{"type":"login_user_department_manager","uuid":"","value":""},{"type":"department_manager","uuid":"","value":"${organization_2.uuid}"},{"type":"employee","uuid":"","value":"7e254521-b2e4-11e7-93d8-5254001aba5d"}],"uuid":"95d9b755-0f75-11e7-8ff3-00163e007053"}]</t>
-  </si>
-  <si>
-    <t>[{"target_value":"s{}","target_type":"","approvers":[{"type":"reporting_to","uuid":"","value":"1"},{"type":"reporting_to","uuid":"","value":"2"},{"type":"reporting_to","uuid":"","value":"3"},{"type":"reporting_to","uuid":"","value":"4"},{"type":"login_user_department_manager","uuid":"","value":""},{"type":"department_manager","uuid":"","value":"${organization_2.uuid}"},{"type":"employee","uuid":"","value":"7e254521-b2e4-11e7-93d8-5254001aba5d"}],"uuid":"5389429f-b9f7-11e7-9997-5254001aba5d"}]</t>
-  </si>
-  <si>
-    <t>[{"target_value":"s{}","target_type":"","approvers":[{"type":"reporting_to","uuid":"","value":"1"},{"type":"reporting_to","uuid":"","value":"2"},{"type":"reporting_to","uuid":"","value":"3"},{"type":"reporting_to","uuid":"","value":"4"},{"type":"login_user_department_manager","uuid":"","value":""},{"type":"department_manager","uuid":"","value":"${organization_2.uuid}"},{"type":"employee","uuid":"","value":"7e254521-b2e4-11e7-93d8-5254001aba5d"}],"uuid":"95e367b3-0f75-11e7-8ff3-00163e007053"}]</t>
-  </si>
-  <si>
-    <t>[{"target_value":"s{}","target_type":"","approvers":[{"type":"reporting_to","uuid":"","value":"1"},{"type":"reporting_to","uuid":"","value":"2"},{"type":"reporting_to","uuid":"","value":"3"},{"type":"reporting_to","uuid":"","value":"4"},{"type":"login_user_department_manager","uuid":"","value":""},{"type":"department_manager","uuid":"","value":"${organization_2.uuid}"},{"type":"employee","uuid":"","value":"7e254521-b2e4-11e7-93d8-5254001aba5d"}],"uuid":"95e2f732-0f75-11e7-8ff3-00163e007053"}]</t>
-  </si>
-  <si>
-    <t>[{"target_value":"s{}","target_type":"","approvers":[{"type":"reporting_to","uuid":"","value":"1"},{"type":"reporting_to","uuid":"","value":"2"},{"type":"reporting_to","uuid":"","value":"3"},{"type":"reporting_to","uuid":"","value":"4"},{"type":"login_user_department_manager","uuid":"","value":""},{"type":"department_manager","uuid":"","value":"${organization_2.uuid}"},{"type":"employee","uuid":"","value":"7e254521-b2e4-11e7-93d8-5254001aba5d"}],"uuid":"95e04b46-0f75-11e7-8ff3-00163e007053"}]</t>
-  </si>
-  <si>
     <t>[{"employee_id":"b8a23753-0f75-11e7-9aa4-00163e007053"}]</t>
   </si>
   <si>
-    <t>[{"uuid":"8ad63f15-be23-11e7-afef-5254001aba5d","approvers":[{"uuid":"","type":"reporting_to","value":"1"},{"uuid":"","type":"reporting_to","value":"2"},{"uuid":"","type":"reporting_to","value":"3"},{"uuid":"","type":"reporting_to","value":"4"},{"uuid":"","type":"login_user_department_manager","value":""},{"uuid":"","type":"department_manager","value":"${organization_2.uuid}"},{"uuid":"","type":"employee","value":"7e254521-b2e4-11e7-93d8-5254001aba5d"}],"target_type":"","target_value":"s{}"}]</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>Offboard_resign1</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>[{"uuid":"7642fbdf-bd26-11e7-a179-5254001aba5d","approvers":[{"uuid":"","type":"reporting_to","value":"1"},{"uuid":"","type":"reporting_to","value":"2"},{"uuid":"","type":"reporting_to","value":"3"},{"uuid":"","type":"reporting_to","value":"4"},{"uuid":"","type":"login_user_department_manager","value":""},{"uuid":"","type":"department_manager","value":"${organization_2.uuid}"},{"uuid":"","type":"employee","value":"7e254521-b2e4-11e7-93d8-5254001aba5d"}],"target_type":"","target_value":"s{}"}]</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>approval_end</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>[{"target_value":"s{}","target_type":"","approvers":[{"type":"reporting_to","uuid":"","value":"1"},{"type":"reporting_to","uuid":"","value":"2"},{"type":"reporting_to","uuid":"","value":"3"},{"type":"reporting_to","uuid":"","value":"4"},{"type":"login_user_department_manager","uuid":"","value":""},{"type":"department_manager","uuid":"","value":"${organization_2.uuid}"},{"type":"employee","uuid":"","value":"7e254521-b2e4-11e7-93d8-5254001aba5d"}],"uuid":"418cc2c7-c1e6-11e7-8d35-5254001aba5d"}]</t>
-  </si>
-  <si>
-    <t>[{"target_value":"s{}","target_type":"","approvers":[{"type":"reporting_to","uuid":"","value":"1"},{"type":"reporting_to","uuid":"","value":"2"},{"type":"reporting_to","uuid":"","value":"3"},{"type":"reporting_to","uuid":"","value":"4"},{"type":"login_user_department_manager","uuid":"","value":""},{"type":"department_manager","uuid":"","value":"${organization_2.uuid}"},{"type":"employee","uuid":"","value":"7e254521-b2e4-11e7-93d8-5254001aba5d"}],"uuid":"95d9b755-0f75-11e7-8ff3-00163e007053"},{"target_value":"s{\"department\":[\"${organization_1.uuid}\"],\"employee\":[]}","target_type":"sponsor","approvers":[{"type":"login_user_department_manager","uuid":"","value":""},{"type":"department_manager","uuid":"","value":"${organization_2.uuid}"},{"type":"employee","uuid":"","value":"7e254521-b2e4-11e7-93d8-5254001aba5d"}],"uuid":""}]</t>
-  </si>
-  <si>
-    <t>[{"target_value":"s{}","target_type":"","approvers":[{"type":"reporting_to","uuid":"","value":"1"},{"type":"reporting_to","uuid":"","value":"2"},{"type":"reporting_to","uuid":"","value":"3"},{"type":"reporting_to","uuid":"","value":"4"},{"type":"login_user_department_manager","uuid":"","value":""},{"type":"department_manager","uuid":"","value":"${organization_2.uuid}"},{"type":"employee","uuid":"","value":"7e254521-b2e4-11e7-93d8-5254001aba5d"}],"uuid":"95e2f732-0f75-11e7-8ff3-00163e007053"},{"target_value":"s{\"department\":[\"${organization_1.uuid}\"],\"employee\":[]}","target_type":"sponsor","approvers":[{"type":"login_user_department_manager","uuid":"","value":""},{"type":"department_manager","uuid":"","value":"${organization_2.uuid}"},{"type":"employee","uuid":"","value":"7e254521-b2e4-11e7-93d8-5254001aba5d"}],"uuid":""}]</t>
-  </si>
-  <si>
-    <t>[{"target_value":"s{}","target_type":"","approvers":[{"type":"reporting_to","uuid":"","value":"1"},{"type":"reporting_to","uuid":"","value":"2"},{"type":"reporting_to","uuid":"","value":"3"},{"type":"reporting_to","uuid":"","value":"4"},{"type":"login_user_department_manager","uuid":"","value":""},{"type":"department_manager","uuid":"","value":"${organization_2.uuid}"},{"type":"employee","uuid":"","value":"7e254521-b2e4-11e7-93d8-5254001aba5d"}],"uuid":"95e2f732-0f75-11e7-8ff3-00163e007053"},{"target_value":"s{\"department\":[\"${organization_1.uuid}\"],\"employee\":[]}","target_type":"sponsor","approvers":[{"type":"login_user_department_manager","uuid":"","value":""},{"type":"department_manager","uuid":"","value":"${organization_2.uuid}"},{"type":"employee","uuid":"","value":"7e254521-b2e4-11e7-93d8-5254001aba5d"}],"uuid":""},{"uuid":"","approvers":[{"uuid":"","type":"login_user_department_manager","value":""}],"target_type":"duration","target_value":"s{\"symbol\":\"&lt;\",\"unit\":\"h\",\"number\":\"4\"}"},{"uuid":"","approvers":[{"uuid":"","type":"login_user_department_manager","value":""},{"uuid":"","type":"department_manager","value":"${organization_1.uuid}"}],"target_type":"duration","target_value":"s{\"symbol\":\"==\",\"unit\":\"h\",\"number\":\"4\"}"},{"uuid":"","approvers":[{"uuid":"","type":"login_user_department_manager","value":""},{"uuid":"","type":"department_manager","value":"${organization_1.uuid}"},{"uuid":"","type":"employee","value":"7e254521-b2e4-11e7-93d8-5254001aba5d"}],"target_type":"duration","target_value":"s{\"symbol\":\"&gt;\",\"unit\":\"h\",\"number\":\"4\"}"}]</t>
-  </si>
-  <si>
-    <t>[{"target_value":"s{}","target_type":"","approvers":[{"type":"reporting_to","uuid":"","value":"1"},{"type":"reporting_to","uuid":"","value":"2"},{"type":"reporting_to","uuid":"","value":"3"},{"type":"reporting_to","uuid":"","value":"4"},{"type":"login_user_department_manager","uuid":"","value":""},{"type":"department_manager","uuid":"","value":"${organization_2.uuid}"},{"type":"employee","uuid":"","value":"7e254521-b2e4-11e7-93d8-5254001aba5d"}],"uuid":"95e04b46-0f75-11e7-8ff3-00163e007053"},{"target_value":"s{\"department\":[\"${organization_1.uuid}\"],\"employee\":[]}","target_type":"sponsor","approvers":[{"type":"login_user_department_manager","uuid":"","value":""},{"type":"department_manager","uuid":"","value":"${organization_2.uuid}"},{"type":"employee","uuid":"","value":"7e254521-b2e4-11e7-93d8-5254001aba5d"}],"uuid":""}]</t>
-  </si>
-  <si>
-    <t>[{"target_value":"s{}","target_type":"","approvers":[{"type":"reporting_to","uuid":"","value":"1"},{"type":"reporting_to","uuid":"","value":"2"},{"type":"reporting_to","uuid":"","value":"3"},{"type":"reporting_to","uuid":"","value":"4"},{"type":"login_user_department_manager","uuid":"","value":""},{"type":"department_manager","uuid":"","value":"${organization_2.uuid}"},{"type":"employee","uuid":"","value":"7e254521-b2e4-11e7-93d8-5254001aba5d"}],"uuid":"95e04b46-0f75-11e7-8ff3-00163e007053"},{"target_value":"s{\"department\":[\"${organization_1.uuid}\"],\"employee\":[]}","target_type":"sponsor","approvers":[{"type":"login_user_department_manager","uuid":"","value":""},{"type":"department_manager","uuid":"","value":"${organization_2.uuid}"},{"type":"employee","uuid":"","value":"7e254521-b2e4-11e7-93d8-5254001aba5d"}],"uuid":""},{"uuid":"","approvers":[{"uuid":"","type":"login_user_department_manager","value":""}],"target_type":"duration","target_value":"s{\"symbol\":\"&lt;\",\"unit\":\"m\",\"number\":\"60\"}"},{"uuid":"","approvers":[{"uuid":"","type":"login_user_department_manager","value":""},{"uuid":"","type":"department_manager","value":"${organization_1.uuid}"}],"target_type":"duration","target_value":"s{\"symbol\":\"==\",\"unit\":\"m\",\"number\":\"60\"}"},{"uuid":"","approvers":[{"uuid":"","type":"login_user_department_manager","value":""},{"uuid":"","type":"department_manager","value":"${organization_1.uuid}"}],"target_type":"duration","target_value":"s{\"symbol\":\"==\",\"unit\":\"d\",\"number\":\"5\"}"},{"uuid":"","approvers":[{"uuid":"","type":"login_user_department_manager","value":""},{"uuid":"","type":"department_manager","value":"${organization_1.uuid}"},{"uuid":"","type":"employee","value":"7e254521-b2e4-11e7-93d8-5254001aba5d"}],"target_type":"duration","target_value":"s{\"symbol\":\"&gt;\",\"unit\":\"d\",\"number\":\"5\"}"}]</t>
-  </si>
-  <si>
-    <t>[{"target_value":"s{}","target_type":"","approvers":[{"type":"reporting_to","uuid":"","value":"1"},{"type":"reporting_to","uuid":"","value":"2"},{"type":"reporting_to","uuid":"","value":"3"},{"type":"reporting_to","uuid":"","value":"4"},{"type":"login_user_department_manager","uuid":"","value":""},{"type":"department_manager","uuid":"","value":"${organization_2.uuid}"},{"type":"employee","uuid":"","value":"7e254521-b2e4-11e7-93d8-5254001aba5d"}],"uuid":"418cc2c7-c1e6-11e7-8d35-5254001aba5d"},{"target_value":"s{\"department\":[\"${organization_1.uuid}\"],\"employee\":[]}","target_type":"sponsor","approvers":[{"type":"login_user_department_manager","uuid":"","value":""},{"type":"department_manager","uuid":"","value":"${organization_2.uuid}"},{"type":"employee","uuid":"","value":"7e254521-b2e4-11e7-93d8-5254001aba5d"}],"uuid":""}]</t>
-  </si>
-  <si>
-    <t>[{"target_value":"s{}","target_type":"","approvers":[{"type":"reporting_to","uuid":"","value":"1"},{"type":"reporting_to","uuid":"","value":"2"},{"type":"reporting_to","uuid":"","value":"3"},{"type":"reporting_to","uuid":"","value":"4"},{"type":"login_user_department_manager","uuid":"","value":""},{"type":"department_manager","uuid":"","value":"${organization_2.uuid}"},{"type":"employee","uuid":"","value":"7e254521-b2e4-11e7-93d8-5254001aba5d"}],"uuid":"418cc2c7-c1e6-11e7-8d35-5254001aba5d"},{"target_value":"s{\"department\":[\"${organization_1.uuid}\"],\"employee\":[]}","target_type":"sponsor","approvers":[{"type":"login_user_department_manager","uuid":"","value":""},{"type":"department_manager","uuid":"","value":"${organization_2.uuid}"},{"type":"employee","uuid":"","value":"7e254521-b2e4-11e7-93d8-5254001aba5d"}],"uuid":""},{"uuid":"","approvers":[{"uuid":"","type":"login_user_department_manager","value":""}],"target_type":"duration","target_value":"s{\"symbol\":\"&lt;=\",\"unit\":\"d\",\"number\":\"4\"}"},{"uuid":"","approvers":[{"uuid":"","type":"login_user_department_manager","value":""},{"uuid":"","type":"department_manager","value":"${organization_1.uuid}"}],"target_type":"duration","target_value":"s{\"symbol\":\"==\",\"unit\":\"d\",\"number\":\"5\"}"},{"uuid":"","approvers":[{"uuid":"","type":"login_user_department_manager","value":""},{"uuid":"","type":"department_manager","value":"${organization_1.uuid}"},{"uuid":"","type":"employee","value":"7e254521-b2e4-11e7-93d8-5254001aba5d"}],"target_type":"duration","target_value":"s{\"symbol\":\"&gt;=\",\"unit\":\"d\",\"number\":\"6\"}"}]</t>
-  </si>
-  <si>
-    <t>[{"uuid":"8ad63f15-be23-11e7-afef-5254001aba5d","approvers":[{"uuid":"","type":"reporting_to","value":"1"},{"uuid":"","type":"reporting_to","value":"2"},{"uuid":"","type":"reporting_to","value":"3"},{"uuid":"","type":"reporting_to","value":"4"},{"uuid":"","type":"login_user_department_manager","value":""},{"uuid":"","type":"department_manager","value":"${organization_2.uuid}"},{"uuid":"","type":"employee","value":"7e254521-b2e4-11e7-93d8-5254001aba5d"}],"target_type":"","target_value":"s{}"},{"uuid":"","approvers":[{"uuid":"","type":"login_user_department_manager","value":""},{"uuid":"","type":"department_manager","value":"${organization_2.uuid}"},{"uuid":"","type":"employee","value":"7e254521-b2e4-11e7-93d8-5254001aba5d"}],"target_type":"sponsor","target_value":"s{\"department\":[\"${organization_1.uuid}\"],\"employee\":[]}"},{"uuid":"","approvers":[{"uuid":"","type":"login_user_department_manager","value":""},{"uuid":"","type":"employee","value":"7e254521-b2e4-11e7-93d8-5254001aba5d"},{"uuid":"","type":"employee","value":"b8a23753-0f75-11e7-9aa4-00163e007053"}],"target_type":"sponsor","target_value":"s{\"department\":[\"${organization_2.uuid}\"],\"employee\":[]}"}]</t>
-  </si>
-  <si>
-    <t>[{"target_value":"s{}","target_type":"","approvers":[{"type":"reporting_to","uuid":"","value":"1"},{"type":"reporting_to","uuid":"","value":"2"},{"type":"reporting_to","uuid":"","value":"3"},{"type":"reporting_to","uuid":"","value":"4"},{"type":"login_user_department_manager","uuid":"","value":""},{"type":"department_manager","uuid":"","value":"${organization_2.uuid}"},{"type":"employee","uuid":"","value":"7e254521-b2e4-11e7-93d8-5254001aba5d"}],"uuid":"95db250e-0f75-11e7-8ff3-00163e007053"},{"target_value":"s{\"department\":[\"${organization_1.uuid}\"],\"employee\":[]}","target_type":"sponsor","approvers":[{"type":"login_user_department_manager","uuid":"","value":""},{"type":"department_manager","uuid":"","value":"${organization_2.uuid}"},{"type":"employee","uuid":"","value":"7e254521-b2e4-11e7-93d8-5254001aba5d"}],"uuid":""},{"uuid":"","approvers":[{"uuid":"","type":"login_user_department_manager","value":""},{"uuid":"","type":"employee","value":"7e254521-b2e4-11e7-93d8-5254001aba5d"},{"uuid":"","type":"employee","value":"b8a23753-0f75-11e7-9aa4-00163e007053"}],"target_type":"sponsor","target_value":"s{\"department\":[\"${organization_2.uuid}\"],\"employee\":[]}"}]</t>
-  </si>
-  <si>
-    <t>[{"target_value":"s{}","target_type":"","approvers":[{"type":"reporting_to","uuid":"","value":"1"},{"type":"reporting_to","uuid":"","value":"2"},{"type":"reporting_to","uuid":"","value":"3"},{"type":"reporting_to","uuid":"","value":"4"},{"type":"login_user_department_manager","uuid":"","value":""},{"type":"department_manager","uuid":"","value":"${organization_2.uuid}"},{"type":"employee","uuid":"","value":"7e254521-b2e4-11e7-93d8-5254001aba5d"}],"uuid":"b276c863-bd48-11e7-a179-5254001aba5d"},{"target_value":"s{\"department\":[\"${organization_1.uuid}\"],\"employee\":[]}","target_type":"sponsor","approvers":[{"type":"login_user_department_manager","uuid":"","value":""},{"type":"department_manager","uuid":"","value":"${organization_2.uuid}"},{"type":"employee","uuid":"","value":"7e254521-b2e4-11e7-93d8-5254001aba5d"}],"uuid":""},{"uuid":"","approvers":[{"uuid":"","type":"login_user_department_manager","value":""},{"uuid":"","type":"employee","value":"7e254521-b2e4-11e7-93d8-5254001aba5d"},{"uuid":"","type":"employee","value":"b8a23753-0f75-11e7-9aa4-00163e007053"}],"target_type":"sponsor","target_value":"s{\"department\":[\"${organization_2.uuid}\"],\"employee\":[]}"}]</t>
-  </si>
-  <si>
     <t>project_1</t>
   </si>
   <si>
@@ -529,63 +467,39 @@
     <t>duplicate</t>
   </si>
   <si>
-    <t>[{"target_value":"s{}","target_type":"","approvers":[{"type":"reporting_to","uuid":"","value":"1"},{"type":"reporting_to","uuid":"","value":"2"},{"type":"reporting_to","uuid":"","value":"3"},{"type":"reporting_to","uuid":"","value":"4"},{"type":"login_user_department_manager","uuid":"","value":""},{"type":"department_manager","uuid":"","value":"${organization_2.uuid}"},{"type":"employee","uuid":"","value":"7e254521-b2e4-11e7-93d8-5254001aba5d"}],"uuid":"932edd34-c05f-11e7-8d35-5254001aba5d"}]</t>
-  </si>
-  <si>
     <t>project_2</t>
   </si>
   <si>
     <t>many_times</t>
   </si>
   <si>
-    <t>[{"target_value":"s{}","target_type":"","approvers":[{"type":"reporting_to","uuid":"","value":"1"},{"type":"reporting_to","uuid":"","value":"2"},{"type":"reporting_to","uuid":"","value":"3"},{"type":"reporting_to","uuid":"","value":"4"},{"type":"login_user_department_manager","uuid":"","value":""},{"type":"department_manager","uuid":"","value":"${organization_2.uuid}"},{"type":"employee","uuid":"","value":"7e254521-b2e4-11e7-93d8-5254001aba5d"}],"uuid":"932edd34-c05f-11e7-8d35-5254001aba5d"},{"target_value":"s{\"department\":[\"a62ef58e-beb4-11e7-98c2-5254001aba5d\"],\"employee\":[]}","target_type":"sponsor","approvers":[{"type":"login_user_department_manager","uuid":"","value":""},{"type":"department_manager","uuid":"","value":"${organization_2.uuid}"},{"type":"employee","uuid":"","value":"7e254521-b2e4-11e7-93d8-5254001aba5d"}],"uuid":""},{"uuid":"","approvers":[{"uuid":"","type":"employee","value":"7e254521-b2e4-11e7-93d8-5254001aba5d"},{"uuid":"","type":"login_user_department_manager","value":""}],"target_type":"sponsor","target_value":"s{\"department\":[],\"employee\":[\"b8a23753-0f75-11e7-9aa4-00163e007053\"]}"}]</t>
-  </si>
-  <si>
     <t>general_1</t>
   </si>
   <si>
     <t>95eb0772-0f75-11e7-8ff3-00163e007053</t>
   </si>
   <si>
-    <t>[{"target_value":"s{}","target_type":"","approvers":[{"type":"reporting_to","uuid":"","value":"1"},{"type":"reporting_to","uuid":"","value":"2"},{"type":"reporting_to","uuid":"","value":"3"},{"type":"reporting_to","uuid":"","value":"4"},{"type":"login_user_department_manager","uuid":"","value":""},{"type":"department_manager","uuid":"","value":"${organization_2.uuid}"},{"type":"employee","uuid":"","value":"7e254521-b2e4-11e7-93d8-5254001aba5d"}],"uuid":"95eb32c3-0f75-11e7-8ff3-00163e007053"}]</t>
-  </si>
-  <si>
     <t>general_2</t>
   </si>
   <si>
-    <t>[{"target_value":"s{}","target_type":"","approvers":[{"type":"reporting_to","uuid":"","value":"1"},{"type":"reporting_to","uuid":"","value":"2"},{"type":"reporting_to","uuid":"","value":"3"},{"type":"reporting_to","uuid":"","value":"4"},{"type":"login_user_department_manager","uuid":"","value":""},{"type":"department_manager","uuid":"","value":"${organization_2.uuid}"},{"type":"employee","uuid":"","value":"7e254521-b2e4-11e7-93d8-5254001aba5d"}],"uuid":"95eb32c3-0f75-11e7-8ff3-00163e007053"},{"target_value":"s{\"department\":[\"a62ef58e-beb4-11e7-98c2-5254001aba5d\"],\"employee\":[]}","target_type":"sponsor","approvers":[{"type":"login_user_department_manager","uuid":"","value":""},{"type":"department_manager","uuid":"","value":"${organization_2.uuid}"},{"type":"employee","uuid":"","value":"7e254521-b2e4-11e7-93d8-5254001aba5d"}],"uuid":""},{"uuid":"","approvers":[{"uuid":"","type":"employee","value":"7e254521-b2e4-11e7-93d8-5254001aba5d"},{"uuid":"","type":"login_user_department_manager","value":""}],"target_type":"sponsor","target_value":"s{\"department\":[],\"employee\":[\"b8a23753-0f75-11e7-9aa4-00163e007053\"]}"}]</t>
-  </si>
-  <si>
     <t>materialget_1</t>
   </si>
   <si>
     <t>95e78e13-0f75-11e7-8ff3-00163e007053</t>
   </si>
   <si>
-    <t>[{"target_value":"s{}","target_type":"","approvers":[{"type":"reporting_to","uuid":"","value":"1"},{"type":"reporting_to","uuid":"","value":"2"},{"type":"reporting_to","uuid":"","value":"3"},{"type":"reporting_to","uuid":"","value":"4"},{"type":"login_user_department_manager","uuid":"","value":""},{"type":"department_manager","uuid":"","value":"${organization_2.uuid}"},{"type":"employee","uuid":"","value":"7e254521-b2e4-11e7-93d8-5254001aba5d"}],"uuid":"95e7b57a-0f75-11e7-8ff3-00163e007053"}]</t>
-  </si>
-  <si>
     <t>materialget_2</t>
   </si>
   <si>
-    <t>[{"target_value":"s{}","target_type":"","approvers":[{"type":"reporting_to","uuid":"","value":"1"},{"type":"reporting_to","uuid":"","value":"2"},{"type":"reporting_to","uuid":"","value":"3"},{"type":"reporting_to","uuid":"","value":"4"},{"type":"login_user_department_manager","uuid":"","value":""},{"type":"department_manager","uuid":"","value":"${organization_2.uuid}"},{"type":"employee","uuid":"","value":"7e254521-b2e4-11e7-93d8-5254001aba5d"}],"uuid":"95e7b57a-0f75-11e7-8ff3-00163e007053"},{"target_value":"s{\"department\":[\"a62ef58e-beb4-11e7-98c2-5254001aba5d\"],\"employee\":[]}","target_type":"sponsor","approvers":[{"type":"login_user_department_manager","uuid":"","value":""},{"type":"department_manager","uuid":"","value":"${organization_2.uuid}"},{"type":"employee","uuid":"","value":"7e254521-b2e4-11e7-93d8-5254001aba5d"}],"uuid":""},{"uuid":"","approvers":[{"uuid":"","type":"employee","value":"7e254521-b2e4-11e7-93d8-5254001aba5d"},{"uuid":"","type":"login_user_department_manager","value":""}],"target_type":"sponsor","target_value":"s{\"department\":[],\"employee\":[\"b8a23753-0f75-11e7-9aa4-00163e007053\"]}"}]</t>
-  </si>
-  <si>
     <t>contract_1</t>
   </si>
   <si>
     <t>95e70193-0f75-11e7-8ff3-00163e007053</t>
   </si>
   <si>
-    <t>[{"target_value":"s{}","target_type":"","approvers":[{"type":"reporting_to","uuid":"","value":"1"},{"type":"reporting_to","uuid":"","value":"2"},{"type":"reporting_to","uuid":"","value":"3"},{"type":"reporting_to","uuid":"","value":"4"},{"type":"login_user_department_manager","uuid":"","value":""},{"type":"department_manager","uuid":"","value":"${organization_2.uuid}"},{"type":"employee","uuid":"","value":"7e254521-b2e4-11e7-93d8-5254001aba5d"}],"uuid":"95e727c9-0f75-11e7-8ff3-00163e007053"}]</t>
-  </si>
-  <si>
     <t>contract_2</t>
   </si>
   <si>
-    <t>[{"target_value":"s{}","target_type":"","approvers":[{"type":"reporting_to","uuid":"","value":"1"},{"type":"reporting_to","uuid":"","value":"2"},{"type":"reporting_to","uuid":"","value":"3"},{"type":"reporting_to","uuid":"","value":"4"},{"type":"login_user_department_manager","uuid":"","value":""},{"type":"department_manager","uuid":"","value":"${organization_2.uuid}"},{"type":"employee","uuid":"","value":"7e254521-b2e4-11e7-93d8-5254001aba5d"}],"uuid":"95e727c9-0f75-11e7-8ff3-00163e007053"},{"target_value":"s{\"department\":[\"a62ef58e-beb4-11e7-98c2-5254001aba5d\"],\"employee\":[]}","target_type":"sponsor","approvers":[{"type":"login_user_department_manager","uuid":"","value":""},{"type":"department_manager","uuid":"","value":"${organization_2.uuid}"},{"type":"employee","uuid":"","value":"7e254521-b2e4-11e7-93d8-5254001aba5d"}],"uuid":""},{"uuid":"","approvers":[{"uuid":"","type":"employee","value":"7e254521-b2e4-11e7-93d8-5254001aba5d"},{"uuid":"","type":"login_user_department_manager","value":""}],"target_type":"sponsor","target_value":"s{\"department\":[],\"employee\":[\"b8a23753-0f75-11e7-9aa4-00163e007053\"]}"}]</t>
-  </si>
-  <si>
     <t>cd00524d-0eed-11e7-b0e5-00163e007053</t>
   </si>
   <si>
@@ -616,16 +530,100 @@
     <t>contract</t>
   </si>
   <si>
-    <t>[{"uuid":"7642fbdf-bd26-11e7-a179-5254001aba5d","approvers":[{"uuid":"","type":"reporting_to","value":"1"},{"uuid":"","type":"reporting_to","value":"2"},{"uuid":"","type":"reporting_to","value":"3"},{"uuid":"","type":"reporting_to","value":"4"},{"uuid":"","type":"login_user_department_manager","value":""},{"uuid":"","type":"department_manager","value":"${organization_2.uuid}"},{"uuid":"","type":"employee","value":"7e254521-b2e4-11e7-93d8-5254001aba5d"}],"target_type":"","target_value":"s{}"},{"uuid":"","approvers":[{"uuid":"","type":"login_user_department_manager","value":""},{"uuid":"","type":"department_manager","value":"${organization_2.uuid}"},{"uuid":"","type":"employee","value":"7e254521-b2e4-11e7-93d8-5254001aba5d"}],"target_type":"sponsor","target_value":"s{\"department\":[\"${organization_1.uuid}\"],\"employee\":[]}"},{"uuid":"","approvers":[{"uuid":"","type":"login_user_department_manager","value":""},{"uuid":"","type":"employee","value":"7e254521-b2e4-11e7-93d8-5254001aba5d"},{"uuid":"","type":"employee","value":"b8a23753-0f75-11e7-9aa4-00163e007053"}],"target_type":"sponsor","target_value":"s{\"department\":[\"${organization_2.uuid}\"],\"employee\":[]}"},{"uuid":"","approvers":[{"uuid":"","type":"reporting_to","value":"4"},{"uuid":"","type":"login_user_department_manager","value":""},{"uuid":"","type":"employee","value":"7e254521-b2e4-11e7-93d8-5254001aba5d"},{"uuid":"","type":"employee","value":"b8a23753-0f75-11e7-9aa4-00163e007053"}],"target_type":"sponsor","target_value":"s{\"department\":[],\"employee\":[\"${Auth.employee_id}\"]}"}]</t>
-  </si>
-  <si>
-    <t>[{"target_value":"s{}","target_type":"","approvers":[{"type":"reporting_to","uuid":"","value":"1"},{"type":"reporting_to","uuid":"","value":"2"},{"type":"reporting_to","uuid":"","value":"3"},{"type":"reporting_to","uuid":"","value":"4"},{"type":"login_user_department_manager","uuid":"","value":""},{"type":"department_manager","uuid":"","value":"${organization_2.uuid}"},{"type":"employee","uuid":"","value":"7e254521-b2e4-11e7-93d8-5254001aba5d"}],"uuid":"5389429f-b9f7-11e7-9997-5254001aba5d"},{"target_value":"s{\"department\":[\"${organization_1.uuid}\"],\"employee\":[]}","target_type":"sponsor","approvers":[{"type":"login_user_department_manager","uuid":"","value":""},{"type":"department_manager","uuid":"","value":"${organization_2.uuid}"},{"type":"employee","uuid":"","value":"7e254521-b2e4-11e7-93d8-5254001aba5d"}],"uuid":""},{"uuid":"","approvers":[{"uuid":"","type":"employee","value":"7e254521-b2e4-11e7-93d8-5254001aba5d"},{"uuid":"","type":"login_user_department_manager","value":""}],"target_type":"sponsor","target_value":"s{\"department\":[],\"employee\":[\"${Auth.employee_id}\"]}"}]</t>
-  </si>
-  <si>
-    <t>[{"target_value":"s{}","target_type":"","approvers":[{"type":"reporting_to","uuid":"","value":"1"},{"type":"reporting_to","uuid":"","value":"2"},{"type":"reporting_to","uuid":"","value":"3"},{"type":"reporting_to","uuid":"","value":"4"},{"type":"login_user_department_manager","uuid":"","value":""},{"type":"department_manager","uuid":"","value":"${organization_2.uuid}"},{"type":"employee","uuid":"","value":"7e254521-b2e4-11e7-93d8-5254001aba5d"}],"uuid":"5389429f-b9f7-11e7-9997-5254001aba5d"},{"target_value":"s{\"department\":[\"${organization_1.uuid}\"],\"employee\":[]}","target_type":"sponsor","approvers":[{"type":"login_user_department_manager","uuid":"","value":""},{"type":"department_manager","uuid":"","value":"${organization_2.uuid}"},{"type":"employee","uuid":"","value":"7e254521-b2e4-11e7-93d8-5254001aba5d"}],"uuid":""},{"uuid":"","approvers":[{"uuid":"","type":"login_user_department_manager","value":""}],"target_type":"duration","target_value":"s{\"symbol\":\"&lt;\",\"unit\":\"m\",\"number\":\"60\"}"},{"uuid":"","approvers":[{"uuid":"","type":"login_user_department_manager","value":""},{"uuid":"","type":"department_manager","value":"${organization_1.uuid}"}],"target_type":"duration","target_value":"s{\"symbol\":\"==\",\"unit\":\"m\",\"number\":\"60\"}"},{"uuid":"","approvers":[{"uuid":"","type":"login_user_department_manager","value":""},{"uuid":"","type":"department_manager","value":"${organization_1.uuid}"},{"uuid":"","type":"employee","value":"7e254521-b2e4-11e7-93d8-5254001aba5d"}],"target_type":"duration","target_value":"s{\"symbol\":\"&gt;\",\"unit\":\"m\",\"number\":\"60\"}"},{"uuid":"","approvers":[{"uuid":"","type":"employee","value":"7e254521-b2e4-11e7-93d8-5254001aba5d"},{"uuid":"","type":"login_user_department_manager","value":""}],"target_type":"sponsor","target_value":"s{\"department\":[],\"employee\":[\"${Auth.employee_id}\"]}"}]</t>
-  </si>
-  <si>
-    <t>[{"uuid":"95e367b3-0f75-11e7-8ff3-00163e007053","approvers":[{"uuid":"","type":"reporting_to","value":"1"},{"uuid":"","type":"reporting_to","value":"2"},{"uuid":"","type":"reporting_to","value":"3"},{"uuid":"","type":"reporting_to","value":"4"},{"uuid":"","type":"login_user_department_manager","value":""},{"uuid":"","type":"department_manager","value":"${organization_2.uuid}"},{"uuid":"","type":"employee","value":"7e254521-b2e4-11e7-93d8-5254001aba5d"}],"target_type":"","target_value":"s{}"},{"uuid":"","approvers":[{"uuid":"","type":"login_user_department_manager","value":""},{"uuid":"","type":"department_manager","value":"${organization_2.uuid}"},{"uuid":"","type":"employee","value":"7e254521-b2e4-11e7-93d8-5254001aba5d"}],"target_type":"sponsor","target_value":"s{\"department\":[\"${organization_1.uuid}\"],\"employee\":[]}"},{"uuid":"","approvers":[{"uuid":"","type":"login_user_department_manager","value":""},{"uuid":"","type":"employee","value":"7e254521-b2e4-11e7-93d8-5254001aba5d"},{"uuid":"","type":"employee","value":"b8a23753-0f75-11e7-9aa4-00163e007053"}],"target_type":"sponsor","target_value":"s{\"department\":[\"${organization_2.uuid}\"],\"employee\":[]}"},{"uuid":"","approvers":[{"uuid":"","type":"reporting_to","value":"4"},{"uuid":"","type":"login_user_department_manager","value":""},{"uuid":"","type":"employee","value":"7e254521-b2e4-11e7-93d8-5254001aba5d"},{"uuid":"","type":"employee","value":"b8a23753-0f75-11e7-9aa4-00163e007053"}],"target_type":"sponsor","target_value":"s{\"department\":[],\"employee\":[\"${Auth.employee_id}\"]}"}]</t>
+    <t>[{"uuid":"7642fbdf-bd26-11e7-a179-5254001aba5d","approvers":[{"uuid":"","type":"reporting_to","value":"1"},{"uuid":"","type":"reporting_to","value":"2"},{"uuid":"","type":"reporting_to","value":"3"},{"uuid":"","type":"reporting_to","value":"4"},{"uuid":"","type":"login_user_department_manager","value":""},{"uuid":"","type":"department_manager","value":"${organization_2.uuid}"},{"uuid":"","type":"employee","value":"7e254521-b2e4-11e7-93d8-5254001aba5d"}],"target_type":"","target_value":"!!String{}"}]</t>
+  </si>
+  <si>
+    <t>[{"uuid":"7642fbdf-bd26-11e7-a179-5254001aba5d","approvers":[{"uuid":"","type":"reporting_to","value":"1"},{"uuid":"","type":"reporting_to","value":"2"},{"uuid":"","type":"reporting_to","value":"3"},{"uuid":"","type":"reporting_to","value":"4"},{"uuid":"","type":"login_user_department_manager","value":""},{"uuid":"","type":"department_manager","value":"${organization_2.uuid}"},{"uuid":"","type":"employee","value":"7e254521-b2e4-11e7-93d8-5254001aba5d"}],"target_type":"","target_value":"!!String{}"},{"uuid":"","approvers":[{"uuid":"","type":"login_user_department_manager","value":""},{"uuid":"","type":"department_manager","value":"${organization_2.uuid}"},{"uuid":"","type":"employee","value":"7e254521-b2e4-11e7-93d8-5254001aba5d"}],"target_type":"sponsor","target_value":"!!String{\"department\":[\"${organization_1.uuid}\"],\"employee\":[]}"},{"uuid":"","approvers":[{"uuid":"","type":"login_user_department_manager","value":""},{"uuid":"","type":"employee","value":"7e254521-b2e4-11e7-93d8-5254001aba5d"},{"uuid":"","type":"employee","value":"b8a23753-0f75-11e7-9aa4-00163e007053"}],"target_type":"sponsor","target_value":"!!String{\"department\":[\"${organization_2.uuid}\"],\"employee\":[]}"},{"uuid":"","approvers":[{"uuid":"","type":"reporting_to","value":"4"},{"uuid":"","type":"login_user_department_manager","value":""},{"uuid":"","type":"employee","value":"7e254521-b2e4-11e7-93d8-5254001aba5d"},{"uuid":"","type":"employee","value":"b8a23753-0f75-11e7-9aa4-00163e007053"}],"target_type":"sponsor","target_value":"!!String{\"department\":[],\"employee\":[\"${Auth.employee_id}\"]}"}]</t>
+  </si>
+  <si>
+    <t>[{"uuid":"8ad63f15-be23-11e7-afef-5254001aba5d","approvers":[{"uuid":"","type":"reporting_to","value":"1"},{"uuid":"","type":"reporting_to","value":"2"},{"uuid":"","type":"reporting_to","value":"3"},{"uuid":"","type":"reporting_to","value":"4"},{"uuid":"","type":"login_user_department_manager","value":""},{"uuid":"","type":"department_manager","value":"${organization_2.uuid}"},{"uuid":"","type":"employee","value":"7e254521-b2e4-11e7-93d8-5254001aba5d"}],"target_type":"","target_value":"!!String{}"}]</t>
+  </si>
+  <si>
+    <t>[{"uuid":"8ad63f15-be23-11e7-afef-5254001aba5d","approvers":[{"uuid":"","type":"reporting_to","value":"1"},{"uuid":"","type":"reporting_to","value":"2"},{"uuid":"","type":"reporting_to","value":"3"},{"uuid":"","type":"reporting_to","value":"4"},{"uuid":"","type":"login_user_department_manager","value":""},{"uuid":"","type":"department_manager","value":"${organization_2.uuid}"},{"uuid":"","type":"employee","value":"7e254521-b2e4-11e7-93d8-5254001aba5d"}],"target_type":"","target_value":"!!String{}"},{"uuid":"","approvers":[{"uuid":"","type":"login_user_department_manager","value":""},{"uuid":"","type":"department_manager","value":"${organization_2.uuid}"},{"uuid":"","type":"employee","value":"7e254521-b2e4-11e7-93d8-5254001aba5d"}],"target_type":"sponsor","target_value":"!!String{\"department\":[\"${organization_1.uuid}\"],\"employee\":[]}"},{"uuid":"","approvers":[{"uuid":"","type":"login_user_department_manager","value":""},{"uuid":"","type":"employee","value":"7e254521-b2e4-11e7-93d8-5254001aba5d"},{"uuid":"","type":"employee","value":"b8a23753-0f75-11e7-9aa4-00163e007053"}],"target_type":"sponsor","target_value":"!!String{\"department\":[\"${organization_2.uuid}\"],\"employee\":[]}"}]</t>
+  </si>
+  <si>
+    <t>[{"uuid":"95db250e-0f75-11e7-8ff3-00163e007053","approvers":[{"uuid":"","type":"reporting_to","value":"1"},{"uuid":"","type":"reporting_to","value":"2"},{"uuid":"","type":"reporting_to","value":"3"},{"uuid":"","type":"reporting_to","value":"4"},{"uuid":"","type":"login_user_department_manager","value":""},{"uuid":"","type":"department_manager","value":"${organization_2.uuid}"},{"uuid":"","type":"employee","value":"7e254521-b2e4-11e7-93d8-5254001aba5d"}],"target_type":"","target_value":"!!String{}"}]</t>
+  </si>
+  <si>
+    <t>[{"target_value":"!!String{}","target_type":"","approvers":[{"type":"reporting_to","uuid":"","value":"1"},{"type":"reporting_to","uuid":"","value":"2"},{"type":"reporting_to","uuid":"","value":"3"},{"type":"reporting_to","uuid":"","value":"4"},{"type":"login_user_department_manager","uuid":"","value":""},{"type":"department_manager","uuid":"","value":"${organization_2.uuid}"},{"type":"employee","uuid":"","value":"7e254521-b2e4-11e7-93d8-5254001aba5d"}],"uuid":"95db250e-0f75-11e7-8ff3-00163e007053"},{"target_value":"!!String{\"department\":[\"${organization_1.uuid}\"],\"employee\":[]}","target_type":"sponsor","approvers":[{"type":"login_user_department_manager","uuid":"","value":""},{"type":"department_manager","uuid":"","value":"${organization_2.uuid}"},{"type":"employee","uuid":"","value":"7e254521-b2e4-11e7-93d8-5254001aba5d"}],"uuid":""},{"uuid":"","approvers":[{"uuid":"","type":"login_user_department_manager","value":""},{"uuid":"","type":"employee","value":"7e254521-b2e4-11e7-93d8-5254001aba5d"},{"uuid":"","type":"employee","value":"b8a23753-0f75-11e7-9aa4-00163e007053"}],"target_type":"sponsor","target_value":"!!String{\"department\":[\"${organization_2.uuid}\"],\"employee\":[]}"}]</t>
+  </si>
+  <si>
+    <t>[{"uuid":"b276c863-bd48-11e7-a179-5254001aba5d","approvers":[{"uuid":"","type":"reporting_to","value":"1"},{"uuid":"","type":"reporting_to","value":"2"},{"uuid":"","type":"reporting_to","value":"3"},{"uuid":"","type":"reporting_to","value":"4"},{"uuid":"","type":"login_user_department_manager","value":""},{"uuid":"","type":"department_manager","value":"${organization_2.uuid}"},{"uuid":"","type":"employee","value":"7e254521-b2e4-11e7-93d8-5254001aba5d"}],"target_type":"","target_value":"!!String{}"}]</t>
+  </si>
+  <si>
+    <t>[{"target_value":"!!String{}","target_type":"","approvers":[{"type":"reporting_to","uuid":"","value":"1"},{"type":"reporting_to","uuid":"","value":"2"},{"type":"reporting_to","uuid":"","value":"3"},{"type":"reporting_to","uuid":"","value":"4"},{"type":"login_user_department_manager","uuid":"","value":""},{"type":"department_manager","uuid":"","value":"${organization_2.uuid}"},{"type":"employee","uuid":"","value":"7e254521-b2e4-11e7-93d8-5254001aba5d"}],"uuid":"b276c863-bd48-11e7-a179-5254001aba5d"},{"target_value":"!!String{\"department\":[\"${organization_1.uuid}\"],\"employee\":[]}","target_type":"sponsor","approvers":[{"type":"login_user_department_manager","uuid":"","value":""},{"type":"department_manager","uuid":"","value":"${organization_2.uuid}"},{"type":"employee","uuid":"","value":"7e254521-b2e4-11e7-93d8-5254001aba5d"}],"uuid":""},{"uuid":"","approvers":[{"uuid":"","type":"login_user_department_manager","value":""},{"uuid":"","type":"employee","value":"7e254521-b2e4-11e7-93d8-5254001aba5d"},{"uuid":"","type":"employee","value":"b8a23753-0f75-11e7-9aa4-00163e007053"}],"target_type":"sponsor","target_value":"!!String{\"department\":[\"${organization_2.uuid}\"],\"employee\":[]}"}]</t>
+  </si>
+  <si>
+    <t>[{"target_value":"!!String{}","target_type":"","approvers":[{"type":"reporting_to","uuid":"","value":"1"},{"type":"reporting_to","uuid":"","value":"2"},{"type":"reporting_to","uuid":"","value":"3"},{"type":"reporting_to","uuid":"","value":"4"},{"type":"login_user_department_manager","uuid":"","value":""},{"type":"department_manager","uuid":"","value":"${organization_2.uuid}"},{"type":"employee","uuid":"","value":"7e254521-b2e4-11e7-93d8-5254001aba5d"}],"uuid":"95d9b755-0f75-11e7-8ff3-00163e007053"}]</t>
+  </si>
+  <si>
+    <t>[{"target_value":"!!String{}","target_type":"","approvers":[{"type":"reporting_to","uuid":"","value":"1"},{"type":"reporting_to","uuid":"","value":"2"},{"type":"reporting_to","uuid":"","value":"3"},{"type":"reporting_to","uuid":"","value":"4"},{"type":"login_user_department_manager","uuid":"","value":""},{"type":"department_manager","uuid":"","value":"${organization_2.uuid}"},{"type":"employee","uuid":"","value":"7e254521-b2e4-11e7-93d8-5254001aba5d"}],"uuid":"95d9b755-0f75-11e7-8ff3-00163e007053"},{"target_value":"!!String{\"department\":[\"${organization_1.uuid}\"],\"employee\":[]}","target_type":"sponsor","approvers":[{"type":"login_user_department_manager","uuid":"","value":""},{"type":"department_manager","uuid":"","value":"${organization_2.uuid}"},{"type":"employee","uuid":"","value":"7e254521-b2e4-11e7-93d8-5254001aba5d"}],"uuid":""}]</t>
+  </si>
+  <si>
+    <t>[{"target_value":"!!String{}","target_type":"","approvers":[{"type":"reporting_to","uuid":"","value":"1"},{"type":"reporting_to","uuid":"","value":"2"},{"type":"reporting_to","uuid":"","value":"3"},{"type":"reporting_to","uuid":"","value":"4"},{"type":"login_user_department_manager","uuid":"","value":""},{"type":"department_manager","uuid":"","value":"${organization_2.uuid}"},{"type":"employee","uuid":"","value":"7e254521-b2e4-11e7-93d8-5254001aba5d"}],"uuid":"5389429f-b9f7-11e7-9997-5254001aba5d"}]</t>
+  </si>
+  <si>
+    <t>[{"target_value":"!!String{}","target_type":"","approvers":[{"type":"reporting_to","uuid":"","value":"1"},{"type":"reporting_to","uuid":"","value":"2"},{"type":"reporting_to","uuid":"","value":"3"},{"type":"reporting_to","uuid":"","value":"4"},{"type":"login_user_department_manager","uuid":"","value":""},{"type":"department_manager","uuid":"","value":"${organization_2.uuid}"},{"type":"employee","uuid":"","value":"7e254521-b2e4-11e7-93d8-5254001aba5d"}],"uuid":"5389429f-b9f7-11e7-9997-5254001aba5d"},{"target_value":"!!String{\"department\":[\"${organization_1.uuid}\"],\"employee\":[]}","target_type":"sponsor","approvers":[{"type":"login_user_department_manager","uuid":"","value":""},{"type":"department_manager","uuid":"","value":"${organization_2.uuid}"},{"type":"employee","uuid":"","value":"7e254521-b2e4-11e7-93d8-5254001aba5d"}],"uuid":""},{"uuid":"","approvers":[{"uuid":"","type":"employee","value":"7e254521-b2e4-11e7-93d8-5254001aba5d"},{"uuid":"","type":"login_user_department_manager","value":""}],"target_type":"sponsor","target_value":"!!String{\"department\":[],\"employee\":[\"${Auth.employee_id}\"]}"}]</t>
+  </si>
+  <si>
+    <t>[{"target_value":"!!String{}","target_type":"","approvers":[{"type":"reporting_to","uuid":"","value":"1"},{"type":"reporting_to","uuid":"","value":"2"},{"type":"reporting_to","uuid":"","value":"3"},{"type":"reporting_to","uuid":"","value":"4"},{"type":"login_user_department_manager","uuid":"","value":""},{"type":"department_manager","uuid":"","value":"${organization_2.uuid}"},{"type":"employee","uuid":"","value":"7e254521-b2e4-11e7-93d8-5254001aba5d"}],"uuid":"5389429f-b9f7-11e7-9997-5254001aba5d"},{"target_value":"!!String{\"department\":[\"${organization_1.uuid}\"],\"employee\":[]}","target_type":"sponsor","approvers":[{"type":"login_user_department_manager","uuid":"","value":""},{"type":"department_manager","uuid":"","value":"${organization_2.uuid}"},{"type":"employee","uuid":"","value":"7e254521-b2e4-11e7-93d8-5254001aba5d"}],"uuid":""},{"uuid":"","approvers":[{"uuid":"","type":"login_user_department_manager","value":""}],"target_type":"duration","target_value":"!!String{\"symbol\":\"&lt;\",\"unit\":\"m\",\"number\":\"60\"}"},{"uuid":"","approvers":[{"uuid":"","type":"login_user_department_manager","value":""},{"uuid":"","type":"department_manager","value":"${organization_1.uuid}"}],"target_type":"duration","target_value":"!!String{\"symbol\":\"==\",\"unit\":\"m\",\"number\":\"60\"}"},{"uuid":"","approvers":[{"uuid":"","type":"login_user_department_manager","value":""},{"uuid":"","type":"department_manager","value":"${organization_1.uuid}"},{"uuid":"","type":"employee","value":"7e254521-b2e4-11e7-93d8-5254001aba5d"}],"target_type":"duration","target_value":"!!String{\"symbol\":\"&gt;\",\"unit\":\"m\",\"number\":\"60\"}"},{"uuid":"","approvers":[{"uuid":"","type":"employee","value":"7e254521-b2e4-11e7-93d8-5254001aba5d"},{"uuid":"","type":"login_user_department_manager","value":""}],"target_type":"sponsor","target_value":"!!String{\"department\":[],\"employee\":[\"${Auth.employee_id}\"]}"}]</t>
+  </si>
+  <si>
+    <t>[{"target_value":"!!String{}","target_type":"","approvers":[{"type":"reporting_to","uuid":"","value":"1"},{"type":"reporting_to","uuid":"","value":"2"},{"type":"reporting_to","uuid":"","value":"3"},{"type":"reporting_to","uuid":"","value":"4"},{"type":"login_user_department_manager","uuid":"","value":""},{"type":"department_manager","uuid":"","value":"${organization_2.uuid}"},{"type":"employee","uuid":"","value":"7e254521-b2e4-11e7-93d8-5254001aba5d"}],"uuid":"95e367b3-0f75-11e7-8ff3-00163e007053"}]</t>
+  </si>
+  <si>
+    <t>[{"uuid":"95e367b3-0f75-11e7-8ff3-00163e007053","approvers":[{"uuid":"","type":"reporting_to","value":"1"},{"uuid":"","type":"reporting_to","value":"2"},{"uuid":"","type":"reporting_to","value":"3"},{"uuid":"","type":"reporting_to","value":"4"},{"uuid":"","type":"login_user_department_manager","value":""},{"uuid":"","type":"department_manager","value":"${organization_2.uuid}"},{"uuid":"","type":"employee","value":"7e254521-b2e4-11e7-93d8-5254001aba5d"}],"target_type":"","target_value":"!!String{}"},{"uuid":"","approvers":[{"uuid":"","type":"login_user_department_manager","value":""},{"uuid":"","type":"department_manager","value":"${organization_2.uuid}"},{"uuid":"","type":"employee","value":"7e254521-b2e4-11e7-93d8-5254001aba5d"}],"target_type":"sponsor","target_value":"!!String{\"department\":[\"${organization_1.uuid}\"],\"employee\":[]}"},{"uuid":"","approvers":[{"uuid":"","type":"login_user_department_manager","value":""},{"uuid":"","type":"employee","value":"7e254521-b2e4-11e7-93d8-5254001aba5d"},{"uuid":"","type":"employee","value":"b8a23753-0f75-11e7-9aa4-00163e007053"}],"target_type":"sponsor","target_value":"!!String{\"department\":[\"${organization_2.uuid}\"],\"employee\":[]}"},{"uuid":"","approvers":[{"uuid":"","type":"reporting_to","value":"4"},{"uuid":"","type":"login_user_department_manager","value":""},{"uuid":"","type":"employee","value":"7e254521-b2e4-11e7-93d8-5254001aba5d"},{"uuid":"","type":"employee","value":"b8a23753-0f75-11e7-9aa4-00163e007053"}],"target_type":"sponsor","target_value":"!!String{\"department\":[],\"employee\":[\"${Auth.employee_id}\"]}"}]</t>
+  </si>
+  <si>
+    <t>[{"target_value":"!!String{}","target_type":"","approvers":[{"type":"reporting_to","uuid":"","value":"1"},{"type":"reporting_to","uuid":"","value":"2"},{"type":"reporting_to","uuid":"","value":"3"},{"type":"reporting_to","uuid":"","value":"4"},{"type":"login_user_department_manager","uuid":"","value":""},{"type":"department_manager","uuid":"","value":"${organization_2.uuid}"},{"type":"employee","uuid":"","value":"7e254521-b2e4-11e7-93d8-5254001aba5d"}],"uuid":"95e2f732-0f75-11e7-8ff3-00163e007053"}]</t>
+  </si>
+  <si>
+    <t>[{"target_value":"!!String{}","target_type":"","approvers":[{"type":"reporting_to","uuid":"","value":"1"},{"type":"reporting_to","uuid":"","value":"2"},{"type":"reporting_to","uuid":"","value":"3"},{"type":"reporting_to","uuid":"","value":"4"},{"type":"login_user_department_manager","uuid":"","value":""},{"type":"department_manager","uuid":"","value":"${organization_2.uuid}"},{"type":"employee","uuid":"","value":"7e254521-b2e4-11e7-93d8-5254001aba5d"}],"uuid":"95e2f732-0f75-11e7-8ff3-00163e007053"},{"target_value":"!!String{\"department\":[\"${organization_1.uuid}\"],\"employee\":[]}","target_type":"sponsor","approvers":[{"type":"login_user_department_manager","uuid":"","value":""},{"type":"department_manager","uuid":"","value":"${organization_2.uuid}"},{"type":"employee","uuid":"","value":"7e254521-b2e4-11e7-93d8-5254001aba5d"}],"uuid":""}]</t>
+  </si>
+  <si>
+    <t>[{"target_value":"!!String{}","target_type":"","approvers":[{"type":"reporting_to","uuid":"","value":"1"},{"type":"reporting_to","uuid":"","value":"2"},{"type":"reporting_to","uuid":"","value":"3"},{"type":"reporting_to","uuid":"","value":"4"},{"type":"login_user_department_manager","uuid":"","value":""},{"type":"department_manager","uuid":"","value":"${organization_2.uuid}"},{"type":"employee","uuid":"","value":"7e254521-b2e4-11e7-93d8-5254001aba5d"}],"uuid":"95e2f732-0f75-11e7-8ff3-00163e007053"},{"target_value":"!!String{\"department\":[\"${organization_1.uuid}\"],\"employee\":[]}","target_type":"sponsor","approvers":[{"type":"login_user_department_manager","uuid":"","value":""},{"type":"department_manager","uuid":"","value":"${organization_2.uuid}"},{"type":"employee","uuid":"","value":"7e254521-b2e4-11e7-93d8-5254001aba5d"}],"uuid":""},{"uuid":"","approvers":[{"uuid":"","type":"login_user_department_manager","value":""}],"target_type":"duration","target_value":"!!String{\"symbol\":\"&lt;\",\"unit\":\"h\",\"number\":\"4\"}"},{"uuid":"","approvers":[{"uuid":"","type":"login_user_department_manager","value":""},{"uuid":"","type":"department_manager","value":"${organization_1.uuid}"}],"target_type":"duration","target_value":"!!String{\"symbol\":\"==\",\"unit\":\"h\",\"number\":\"4\"}"},{"uuid":"","approvers":[{"uuid":"","type":"login_user_department_manager","value":""},{"uuid":"","type":"department_manager","value":"${organization_1.uuid}"},{"uuid":"","type":"employee","value":"7e254521-b2e4-11e7-93d8-5254001aba5d"}],"target_type":"duration","target_value":"!!String{\"symbol\":\"&gt;\",\"unit\":\"h\",\"number\":\"4\"}"}]</t>
+  </si>
+  <si>
+    <t>[{"target_value":"!!String{}","target_type":"","approvers":[{"type":"reporting_to","uuid":"","value":"1"},{"type":"reporting_to","uuid":"","value":"2"},{"type":"reporting_to","uuid":"","value":"3"},{"type":"reporting_to","uuid":"","value":"4"},{"type":"login_user_department_manager","uuid":"","value":""},{"type":"department_manager","uuid":"","value":"${organization_2.uuid}"},{"type":"employee","uuid":"","value":"7e254521-b2e4-11e7-93d8-5254001aba5d"}],"uuid":"95e04b46-0f75-11e7-8ff3-00163e007053"}]</t>
+  </si>
+  <si>
+    <t>[{"target_value":"!!String{}","target_type":"","approvers":[{"type":"reporting_to","uuid":"","value":"1"},{"type":"reporting_to","uuid":"","value":"2"},{"type":"reporting_to","uuid":"","value":"3"},{"type":"reporting_to","uuid":"","value":"4"},{"type":"login_user_department_manager","uuid":"","value":""},{"type":"department_manager","uuid":"","value":"${organization_2.uuid}"},{"type":"employee","uuid":"","value":"7e254521-b2e4-11e7-93d8-5254001aba5d"}],"uuid":"95e04b46-0f75-11e7-8ff3-00163e007053"},{"target_value":"!!String{\"department\":[\"${organization_1.uuid}\"],\"employee\":[]}","target_type":"sponsor","approvers":[{"type":"login_user_department_manager","uuid":"","value":""},{"type":"department_manager","uuid":"","value":"${organization_2.uuid}"},{"type":"employee","uuid":"","value":"7e254521-b2e4-11e7-93d8-5254001aba5d"}],"uuid":""}]</t>
+  </si>
+  <si>
+    <t>[{"target_value":"!!String{}","target_type":"","approvers":[{"type":"reporting_to","uuid":"","value":"1"},{"type":"reporting_to","uuid":"","value":"2"},{"type":"reporting_to","uuid":"","value":"3"},{"type":"reporting_to","uuid":"","value":"4"},{"type":"login_user_department_manager","uuid":"","value":""},{"type":"department_manager","uuid":"","value":"${organization_2.uuid}"},{"type":"employee","uuid":"","value":"7e254521-b2e4-11e7-93d8-5254001aba5d"}],"uuid":"95e04b46-0f75-11e7-8ff3-00163e007053"},{"target_value":"!!String{\"department\":[\"${organization_1.uuid}\"],\"employee\":[]}","target_type":"sponsor","approvers":[{"type":"login_user_department_manager","uuid":"","value":""},{"type":"department_manager","uuid":"","value":"${organization_2.uuid}"},{"type":"employee","uuid":"","value":"7e254521-b2e4-11e7-93d8-5254001aba5d"}],"uuid":""},{"uuid":"","approvers":[{"uuid":"","type":"login_user_department_manager","value":""}],"target_type":"duration","target_value":"!!String{\"symbol\":\"&lt;\",\"unit\":\"m\",\"number\":\"60\"}"},{"uuid":"","approvers":[{"uuid":"","type":"login_user_department_manager","value":""},{"uuid":"","type":"department_manager","value":"${organization_1.uuid}"}],"target_type":"duration","target_value":"!!String{\"symbol\":\"==\",\"unit\":\"m\",\"number\":\"60\"}"},{"uuid":"","approvers":[{"uuid":"","type":"login_user_department_manager","value":""},{"uuid":"","type":"department_manager","value":"${organization_1.uuid}"}],"target_type":"duration","target_value":"!!String{\"symbol\":\"==\",\"unit\":\"d\",\"number\":\"5\"}"},{"uuid":"","approvers":[{"uuid":"","type":"login_user_department_manager","value":""},{"uuid":"","type":"department_manager","value":"${organization_1.uuid}"},{"uuid":"","type":"employee","value":"7e254521-b2e4-11e7-93d8-5254001aba5d"}],"target_type":"duration","target_value":"!!String{\"symbol\":\"&gt;\",\"unit\":\"d\",\"number\":\"5\"}"}]</t>
+  </si>
+  <si>
+    <t>[{"target_value":"!!String{}","target_type":"","approvers":[{"type":"reporting_to","uuid":"","value":"1"},{"type":"reporting_to","uuid":"","value":"2"},{"type":"reporting_to","uuid":"","value":"3"},{"type":"reporting_to","uuid":"","value":"4"},{"type":"login_user_department_manager","uuid":"","value":""},{"type":"department_manager","uuid":"","value":"${organization_2.uuid}"},{"type":"employee","uuid":"","value":"7e254521-b2e4-11e7-93d8-5254001aba5d"}],"uuid":"418cc2c7-c1e6-11e7-8d35-5254001aba5d"}]</t>
+  </si>
+  <si>
+    <t>[{"target_value":"!!String{}","target_type":"","approvers":[{"type":"reporting_to","uuid":"","value":"1"},{"type":"reporting_to","uuid":"","value":"2"},{"type":"reporting_to","uuid":"","value":"3"},{"type":"reporting_to","uuid":"","value":"4"},{"type":"login_user_department_manager","uuid":"","value":""},{"type":"department_manager","uuid":"","value":"${organization_2.uuid}"},{"type":"employee","uuid":"","value":"7e254521-b2e4-11e7-93d8-5254001aba5d"}],"uuid":"418cc2c7-c1e6-11e7-8d35-5254001aba5d"},{"target_value":"!!String{\"department\":[\"${organization_1.uuid}\"],\"employee\":[]}","target_type":"sponsor","approvers":[{"type":"login_user_department_manager","uuid":"","value":""},{"type":"department_manager","uuid":"","value":"${organization_2.uuid}"},{"type":"employee","uuid":"","value":"7e254521-b2e4-11e7-93d8-5254001aba5d"}],"uuid":""}]</t>
+  </si>
+  <si>
+    <t>[{"target_value":"!!String{}","target_type":"","approvers":[{"type":"reporting_to","uuid":"","value":"1"},{"type":"reporting_to","uuid":"","value":"2"},{"type":"reporting_to","uuid":"","value":"3"},{"type":"reporting_to","uuid":"","value":"4"},{"type":"login_user_department_manager","uuid":"","value":""},{"type":"department_manager","uuid":"","value":"${organization_2.uuid}"},{"type":"employee","uuid":"","value":"7e254521-b2e4-11e7-93d8-5254001aba5d"}],"uuid":"418cc2c7-c1e6-11e7-8d35-5254001aba5d"},{"target_value":"!!String{\"department\":[\"${organization_1.uuid}\"],\"employee\":[]}","target_type":"sponsor","approvers":[{"type":"login_user_department_manager","uuid":"","value":""},{"type":"department_manager","uuid":"","value":"${organization_2.uuid}"},{"type":"employee","uuid":"","value":"7e254521-b2e4-11e7-93d8-5254001aba5d"}],"uuid":""},{"uuid":"","approvers":[{"uuid":"","type":"login_user_department_manager","value":""}],"target_type":"duration","target_value":"!!String{\"symbol\":\"&lt;=\",\"unit\":\"d\",\"number\":\"4\"}"},{"uuid":"","approvers":[{"uuid":"","type":"login_user_department_manager","value":""},{"uuid":"","type":"department_manager","value":"${organization_1.uuid}"}],"target_type":"duration","target_value":"!!String{\"symbol\":\"==\",\"unit\":\"d\",\"number\":\"5\"}"},{"uuid":"","approvers":[{"uuid":"","type":"login_user_department_manager","value":""},{"uuid":"","type":"department_manager","value":"${organization_1.uuid}"},{"uuid":"","type":"employee","value":"7e254521-b2e4-11e7-93d8-5254001aba5d"}],"target_type":"duration","target_value":"!!String{\"symbol\":\"&gt;=\",\"unit\":\"d\",\"number\":\"6\"}"}]</t>
+  </si>
+  <si>
+    <t>[{"target_value":"!!String{}","target_type":"","approvers":[{"type":"reporting_to","uuid":"","value":"1"},{"type":"reporting_to","uuid":"","value":"2"},{"type":"reporting_to","uuid":"","value":"3"},{"type":"reporting_to","uuid":"","value":"4"},{"type":"login_user_department_manager","uuid":"","value":""},{"type":"department_manager","uuid":"","value":"${organization_2.uuid}"},{"type":"employee","uuid":"","value":"7e254521-b2e4-11e7-93d8-5254001aba5d"}],"uuid":"932edd34-c05f-11e7-8d35-5254001aba5d"}]</t>
+  </si>
+  <si>
+    <t>[{"target_value":"!!String{}","target_type":"","approvers":[{"type":"reporting_to","uuid":"","value":"1"},{"type":"reporting_to","uuid":"","value":"2"},{"type":"reporting_to","uuid":"","value":"3"},{"type":"reporting_to","uuid":"","value":"4"},{"type":"login_user_department_manager","uuid":"","value":""},{"type":"department_manager","uuid":"","value":"${organization_2.uuid}"},{"type":"employee","uuid":"","value":"7e254521-b2e4-11e7-93d8-5254001aba5d"}],"uuid":"932edd34-c05f-11e7-8d35-5254001aba5d"},{"target_value":"!!String{\"department\":[\"a62ef58e-beb4-11e7-98c2-5254001aba5d\"],\"employee\":[]}","target_type":"sponsor","approvers":[{"type":"login_user_department_manager","uuid":"","value":""},{"type":"department_manager","uuid":"","value":"${organization_2.uuid}"},{"type":"employee","uuid":"","value":"7e254521-b2e4-11e7-93d8-5254001aba5d"}],"uuid":""},{"uuid":"","approvers":[{"uuid":"","type":"employee","value":"7e254521-b2e4-11e7-93d8-5254001aba5d"},{"uuid":"","type":"login_user_department_manager","value":""}],"target_type":"sponsor","target_value":"!!String{\"department\":[],\"employee\":[\"b8a23753-0f75-11e7-9aa4-00163e007053\"]}"}]</t>
+  </si>
+  <si>
+    <t>[{"target_value":"!!String{}","target_type":"","approvers":[{"type":"reporting_to","uuid":"","value":"1"},{"type":"reporting_to","uuid":"","value":"2"},{"type":"reporting_to","uuid":"","value":"3"},{"type":"reporting_to","uuid":"","value":"4"},{"type":"login_user_department_manager","uuid":"","value":""},{"type":"department_manager","uuid":"","value":"${organization_2.uuid}"},{"type":"employee","uuid":"","value":"7e254521-b2e4-11e7-93d8-5254001aba5d"}],"uuid":"95eb32c3-0f75-11e7-8ff3-00163e007053"}]</t>
+  </si>
+  <si>
+    <t>[{"target_value":"!!String{}","target_type":"","approvers":[{"type":"reporting_to","uuid":"","value":"1"},{"type":"reporting_to","uuid":"","value":"2"},{"type":"reporting_to","uuid":"","value":"3"},{"type":"reporting_to","uuid":"","value":"4"},{"type":"login_user_department_manager","uuid":"","value":""},{"type":"department_manager","uuid":"","value":"${organization_2.uuid}"},{"type":"employee","uuid":"","value":"7e254521-b2e4-11e7-93d8-5254001aba5d"}],"uuid":"95eb32c3-0f75-11e7-8ff3-00163e007053"},{"target_value":"!!String{\"department\":[\"a62ef58e-beb4-11e7-98c2-5254001aba5d\"],\"employee\":[]}","target_type":"sponsor","approvers":[{"type":"login_user_department_manager","uuid":"","value":""},{"type":"department_manager","uuid":"","value":"${organization_2.uuid}"},{"type":"employee","uuid":"","value":"7e254521-b2e4-11e7-93d8-5254001aba5d"}],"uuid":""},{"uuid":"","approvers":[{"uuid":"","type":"employee","value":"7e254521-b2e4-11e7-93d8-5254001aba5d"},{"uuid":"","type":"login_user_department_manager","value":""}],"target_type":"sponsor","target_value":"!!String{\"department\":[],\"employee\":[\"b8a23753-0f75-11e7-9aa4-00163e007053\"]}"}]</t>
+  </si>
+  <si>
+    <t>[{"target_value":"!!String{}","target_type":"","approvers":[{"type":"reporting_to","uuid":"","value":"1"},{"type":"reporting_to","uuid":"","value":"2"},{"type":"reporting_to","uuid":"","value":"3"},{"type":"reporting_to","uuid":"","value":"4"},{"type":"login_user_department_manager","uuid":"","value":""},{"type":"department_manager","uuid":"","value":"${organization_2.uuid}"},{"type":"employee","uuid":"","value":"7e254521-b2e4-11e7-93d8-5254001aba5d"}],"uuid":"95e7b57a-0f75-11e7-8ff3-00163e007053"}]</t>
+  </si>
+  <si>
+    <t>[{"target_value":"!!String{}","target_type":"","approvers":[{"type":"reporting_to","uuid":"","value":"1"},{"type":"reporting_to","uuid":"","value":"2"},{"type":"reporting_to","uuid":"","value":"3"},{"type":"reporting_to","uuid":"","value":"4"},{"type":"login_user_department_manager","uuid":"","value":""},{"type":"department_manager","uuid":"","value":"${organization_2.uuid}"},{"type":"employee","uuid":"","value":"7e254521-b2e4-11e7-93d8-5254001aba5d"}],"uuid":"95e7b57a-0f75-11e7-8ff3-00163e007053"},{"target_value":"!!String{\"department\":[\"a62ef58e-beb4-11e7-98c2-5254001aba5d\"],\"employee\":[]}","target_type":"sponsor","approvers":[{"type":"login_user_department_manager","uuid":"","value":""},{"type":"department_manager","uuid":"","value":"${organization_2.uuid}"},{"type":"employee","uuid":"","value":"7e254521-b2e4-11e7-93d8-5254001aba5d"}],"uuid":""},{"uuid":"","approvers":[{"uuid":"","type":"employee","value":"7e254521-b2e4-11e7-93d8-5254001aba5d"},{"uuid":"","type":"login_user_department_manager","value":""}],"target_type":"sponsor","target_value":"!!String{\"department\":[],\"employee\":[\"b8a23753-0f75-11e7-9aa4-00163e007053\"]}"}]</t>
+  </si>
+  <si>
+    <t>[{"target_value":"!!String{}","target_type":"","approvers":[{"type":"reporting_to","uuid":"","value":"1"},{"type":"reporting_to","uuid":"","value":"2"},{"type":"reporting_to","uuid":"","value":"3"},{"type":"reporting_to","uuid":"","value":"4"},{"type":"login_user_department_manager","uuid":"","value":""},{"type":"department_manager","uuid":"","value":"${organization_2.uuid}"},{"type":"employee","uuid":"","value":"7e254521-b2e4-11e7-93d8-5254001aba5d"}],"uuid":"95e727c9-0f75-11e7-8ff3-00163e007053"}]</t>
+  </si>
+  <si>
+    <t>[{"target_value":"!!String{}","target_type":"","approvers":[{"type":"reporting_to","uuid":"","value":"1"},{"type":"reporting_to","uuid":"","value":"2"},{"type":"reporting_to","uuid":"","value":"3"},{"type":"reporting_to","uuid":"","value":"4"},{"type":"login_user_department_manager","uuid":"","value":""},{"type":"department_manager","uuid":"","value":"${organization_2.uuid}"},{"type":"employee","uuid":"","value":"7e254521-b2e4-11e7-93d8-5254001aba5d"}],"uuid":"95e727c9-0f75-11e7-8ff3-00163e007053"},{"target_value":"!!String{\"department\":[\"a62ef58e-beb4-11e7-98c2-5254001aba5d\"],\"employee\":[]}","target_type":"sponsor","approvers":[{"type":"login_user_department_manager","uuid":"","value":""},{"type":"department_manager","uuid":"","value":"${organization_2.uuid}"},{"type":"employee","uuid":"","value":"7e254521-b2e4-11e7-93d8-5254001aba5d"}],"uuid":""},{"uuid":"","approvers":[{"uuid":"","type":"employee","value":"7e254521-b2e4-11e7-93d8-5254001aba5d"},{"uuid":"","type":"login_user_department_manager","value":""}],"target_type":"sponsor","target_value":"!!String{\"department\":[],\"employee\":[\"b8a23753-0f75-11e7-9aa4-00163e007053\"]}"}]</t>
   </si>
 </sst>
 </file>
@@ -1075,8 +1073,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G33"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D13" sqref="D13"/>
+    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="D11" sqref="D11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1124,7 +1122,7 @@
         <v>54</v>
       </c>
       <c r="D2" t="s">
-        <v>117</v>
+        <v>134</v>
       </c>
       <c r="F2" t="s">
         <v>18</v>
@@ -1144,10 +1142,10 @@
         <v>34</v>
       </c>
       <c r="D3" t="s">
-        <v>162</v>
+        <v>135</v>
       </c>
       <c r="F3" t="s">
-        <v>114</v>
+        <v>107</v>
       </c>
       <c r="G3" t="s">
         <v>33</v>
@@ -1164,7 +1162,7 @@
         <v>54</v>
       </c>
       <c r="D4" t="s">
-        <v>115</v>
+        <v>136</v>
       </c>
       <c r="F4" t="s">
         <v>18</v>
@@ -1184,10 +1182,10 @@
         <v>53</v>
       </c>
       <c r="D5" t="s">
-        <v>127</v>
+        <v>137</v>
       </c>
       <c r="F5" t="s">
-        <v>114</v>
+        <v>107</v>
       </c>
       <c r="G5" t="s">
         <v>33</v>
@@ -1195,7 +1193,7 @@
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>116</v>
+        <v>108</v>
       </c>
       <c r="B6" t="s">
         <v>55</v>
@@ -1204,7 +1202,7 @@
         <v>54</v>
       </c>
       <c r="D6" t="s">
-        <v>107</v>
+        <v>138</v>
       </c>
       <c r="E6" t="s">
         <v>64</v>
@@ -1227,13 +1225,13 @@
         <v>53</v>
       </c>
       <c r="D7" t="s">
-        <v>128</v>
+        <v>139</v>
       </c>
       <c r="E7" t="s">
         <v>59</v>
       </c>
       <c r="F7" t="s">
-        <v>114</v>
+        <v>107</v>
       </c>
       <c r="G7" t="s">
         <v>33</v>
@@ -1250,7 +1248,7 @@
         <v>54</v>
       </c>
       <c r="D8" t="s">
-        <v>108</v>
+        <v>140</v>
       </c>
       <c r="E8" t="s">
         <v>61</v>
@@ -1273,13 +1271,13 @@
         <v>53</v>
       </c>
       <c r="D9" t="s">
-        <v>129</v>
+        <v>141</v>
       </c>
       <c r="E9" t="s">
         <v>60</v>
       </c>
       <c r="F9" t="s">
-        <v>114</v>
+        <v>107</v>
       </c>
       <c r="G9" t="s">
         <v>33</v>
@@ -1296,7 +1294,7 @@
         <v>54</v>
       </c>
       <c r="D10" t="s">
-        <v>109</v>
+        <v>142</v>
       </c>
       <c r="F10" t="s">
         <v>18</v>
@@ -1316,10 +1314,10 @@
         <v>53</v>
       </c>
       <c r="D11" t="s">
-        <v>120</v>
+        <v>143</v>
       </c>
       <c r="F11" t="s">
-        <v>114</v>
+        <v>107</v>
       </c>
       <c r="G11" t="s">
         <v>33</v>
@@ -1336,7 +1334,7 @@
         <v>54</v>
       </c>
       <c r="D12" t="s">
-        <v>110</v>
+        <v>144</v>
       </c>
       <c r="F12" t="s">
         <v>18</v>
@@ -1356,10 +1354,10 @@
         <v>53</v>
       </c>
       <c r="D13" t="s">
-        <v>163</v>
+        <v>145</v>
       </c>
       <c r="F13" t="s">
-        <v>114</v>
+        <v>107</v>
       </c>
       <c r="G13" t="s">
         <v>33</v>
@@ -1376,10 +1374,10 @@
         <v>53</v>
       </c>
       <c r="D14" t="s">
-        <v>164</v>
+        <v>146</v>
       </c>
       <c r="F14" t="s">
-        <v>114</v>
+        <v>107</v>
       </c>
       <c r="G14" t="s">
         <v>33</v>
@@ -1396,7 +1394,7 @@
         <v>54</v>
       </c>
       <c r="D15" t="s">
-        <v>111</v>
+        <v>147</v>
       </c>
       <c r="F15" t="s">
         <v>18</v>
@@ -1416,10 +1414,10 @@
         <v>53</v>
       </c>
       <c r="D16" t="s">
-        <v>165</v>
+        <v>148</v>
       </c>
       <c r="F16" t="s">
-        <v>114</v>
+        <v>107</v>
       </c>
       <c r="G16" t="s">
         <v>33</v>
@@ -1436,7 +1434,7 @@
         <v>54</v>
       </c>
       <c r="D17" t="s">
-        <v>112</v>
+        <v>149</v>
       </c>
       <c r="F17" t="s">
         <v>18</v>
@@ -1456,10 +1454,10 @@
         <v>53</v>
       </c>
       <c r="D18" t="s">
-        <v>121</v>
+        <v>150</v>
       </c>
       <c r="F18" t="s">
-        <v>114</v>
+        <v>107</v>
       </c>
       <c r="G18" t="s">
         <v>33</v>
@@ -1476,10 +1474,10 @@
         <v>53</v>
       </c>
       <c r="D19" t="s">
-        <v>122</v>
+        <v>151</v>
       </c>
       <c r="F19" t="s">
-        <v>114</v>
+        <v>107</v>
       </c>
       <c r="G19" t="s">
         <v>33</v>
@@ -1496,7 +1494,7 @@
         <v>54</v>
       </c>
       <c r="D20" t="s">
-        <v>113</v>
+        <v>152</v>
       </c>
       <c r="F20" t="s">
         <v>18</v>
@@ -1516,13 +1514,13 @@
         <v>53</v>
       </c>
       <c r="D21" t="s">
-        <v>123</v>
+        <v>153</v>
       </c>
       <c r="F21" t="s">
-        <v>114</v>
+        <v>107</v>
       </c>
       <c r="G21" t="s">
-        <v>118</v>
+        <v>109</v>
       </c>
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.2">
@@ -1536,13 +1534,13 @@
         <v>53</v>
       </c>
       <c r="D22" t="s">
-        <v>124</v>
+        <v>154</v>
       </c>
       <c r="F22" t="s">
-        <v>114</v>
+        <v>107</v>
       </c>
       <c r="G22" t="s">
-        <v>118</v>
+        <v>109</v>
       </c>
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.2">
@@ -1556,7 +1554,7 @@
         <v>54</v>
       </c>
       <c r="D23" t="s">
-        <v>119</v>
+        <v>155</v>
       </c>
       <c r="F23" t="s">
         <v>18</v>
@@ -1576,13 +1574,13 @@
         <v>53</v>
       </c>
       <c r="D24" t="s">
-        <v>125</v>
+        <v>156</v>
       </c>
       <c r="F24" t="s">
-        <v>114</v>
+        <v>107</v>
       </c>
       <c r="G24" t="s">
-        <v>118</v>
+        <v>109</v>
       </c>
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.2">
@@ -1596,27 +1594,27 @@
         <v>53</v>
       </c>
       <c r="D25" t="s">
-        <v>126</v>
+        <v>157</v>
       </c>
       <c r="F25" t="s">
-        <v>114</v>
+        <v>107</v>
       </c>
       <c r="G25" t="s">
-        <v>118</v>
+        <v>109</v>
       </c>
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A26" s="6" t="s">
-        <v>130</v>
+        <v>110</v>
       </c>
       <c r="B26" s="6" t="s">
-        <v>131</v>
+        <v>111</v>
       </c>
       <c r="C26" s="6" t="s">
-        <v>132</v>
+        <v>112</v>
       </c>
       <c r="D26" s="6" t="s">
-        <v>133</v>
+        <v>158</v>
       </c>
       <c r="E26" s="6"/>
       <c r="F26" s="6" t="s">
@@ -1628,20 +1626,20 @@
     </row>
     <row r="27" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A27" s="6" t="s">
-        <v>134</v>
+        <v>113</v>
       </c>
       <c r="B27" s="6" t="s">
-        <v>131</v>
+        <v>111</v>
       </c>
       <c r="C27" s="6" t="s">
-        <v>135</v>
+        <v>114</v>
       </c>
       <c r="D27" s="6" t="s">
-        <v>136</v>
+        <v>159</v>
       </c>
       <c r="E27" s="6"/>
       <c r="F27" s="6" t="s">
-        <v>114</v>
+        <v>107</v>
       </c>
       <c r="G27" s="6" t="s">
         <v>33</v>
@@ -1649,16 +1647,16 @@
     </row>
     <row r="28" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A28" s="6" t="s">
-        <v>137</v>
+        <v>115</v>
       </c>
       <c r="B28" s="6" t="s">
-        <v>138</v>
+        <v>116</v>
       </c>
       <c r="C28" s="6" t="s">
-        <v>132</v>
+        <v>112</v>
       </c>
       <c r="D28" s="6" t="s">
-        <v>139</v>
+        <v>160</v>
       </c>
       <c r="E28" s="6"/>
       <c r="F28" s="6" t="s">
@@ -1670,20 +1668,20 @@
     </row>
     <row r="29" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A29" s="6" t="s">
-        <v>140</v>
+        <v>117</v>
       </c>
       <c r="B29" s="6" t="s">
-        <v>138</v>
+        <v>116</v>
       </c>
       <c r="C29" s="6" t="s">
-        <v>135</v>
+        <v>114</v>
       </c>
       <c r="D29" s="6" t="s">
-        <v>141</v>
+        <v>161</v>
       </c>
       <c r="E29" s="6"/>
       <c r="F29" s="6" t="s">
-        <v>114</v>
+        <v>107</v>
       </c>
       <c r="G29" s="6" t="s">
         <v>33</v>
@@ -1691,16 +1689,16 @@
     </row>
     <row r="30" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A30" s="6" t="s">
-        <v>142</v>
+        <v>118</v>
       </c>
       <c r="B30" s="6" t="s">
-        <v>143</v>
+        <v>119</v>
       </c>
       <c r="C30" s="6" t="s">
-        <v>132</v>
+        <v>112</v>
       </c>
       <c r="D30" s="6" t="s">
-        <v>144</v>
+        <v>162</v>
       </c>
       <c r="E30" s="6"/>
       <c r="F30" s="6" t="s">
@@ -1712,20 +1710,20 @@
     </row>
     <row r="31" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A31" s="6" t="s">
-        <v>145</v>
+        <v>120</v>
       </c>
       <c r="B31" s="6" t="s">
-        <v>143</v>
+        <v>119</v>
       </c>
       <c r="C31" s="6" t="s">
-        <v>135</v>
+        <v>114</v>
       </c>
       <c r="D31" s="6" t="s">
-        <v>146</v>
+        <v>163</v>
       </c>
       <c r="E31" s="6"/>
       <c r="F31" s="6" t="s">
-        <v>114</v>
+        <v>107</v>
       </c>
       <c r="G31" s="6" t="s">
         <v>33</v>
@@ -1733,16 +1731,16 @@
     </row>
     <row r="32" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A32" s="6" t="s">
-        <v>147</v>
+        <v>121</v>
       </c>
       <c r="B32" s="7" t="s">
-        <v>148</v>
+        <v>122</v>
       </c>
       <c r="C32" s="6" t="s">
-        <v>132</v>
+        <v>112</v>
       </c>
       <c r="D32" s="6" t="s">
-        <v>149</v>
+        <v>164</v>
       </c>
       <c r="E32" s="6"/>
       <c r="F32" s="6" t="s">
@@ -1754,20 +1752,20 @@
     </row>
     <row r="33" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A33" s="6" t="s">
-        <v>150</v>
+        <v>123</v>
       </c>
       <c r="B33" s="7" t="s">
-        <v>148</v>
+        <v>122</v>
       </c>
       <c r="C33" s="6" t="s">
-        <v>135</v>
+        <v>114</v>
       </c>
       <c r="D33" s="6" t="s">
-        <v>151</v>
+        <v>165</v>
       </c>
       <c r="E33" s="6"/>
       <c r="F33" s="6" t="s">
-        <v>114</v>
+        <v>107</v>
       </c>
       <c r="G33" s="6" t="s">
         <v>33</v>
@@ -2817,7 +2815,7 @@
         <v>30</v>
       </c>
       <c r="I22" t="s">
-        <v>118</v>
+        <v>109</v>
       </c>
       <c r="J22" t="s">
         <v>53</v>
@@ -2864,7 +2862,7 @@
         <v>30</v>
       </c>
       <c r="I23" t="s">
-        <v>118</v>
+        <v>109</v>
       </c>
       <c r="J23" t="s">
         <v>53</v>
@@ -2958,7 +2956,7 @@
         <v>30</v>
       </c>
       <c r="I25" t="s">
-        <v>118</v>
+        <v>109</v>
       </c>
       <c r="J25" t="s">
         <v>53</v>
@@ -3005,7 +3003,7 @@
         <v>30</v>
       </c>
       <c r="I26" t="s">
-        <v>118</v>
+        <v>109</v>
       </c>
       <c r="J26" t="s">
         <v>53</v>
@@ -3028,7 +3026,7 @@
     </row>
     <row r="27" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A27" s="8" t="s">
-        <v>130</v>
+        <v>110</v>
       </c>
       <c r="B27" s="8" t="s">
         <v>29</v>
@@ -3038,28 +3036,28 @@
       <c r="E27" s="8"/>
       <c r="F27" s="8"/>
       <c r="G27" s="8" t="s">
-        <v>131</v>
+        <v>111</v>
       </c>
       <c r="H27" s="8" t="s">
-        <v>152</v>
+        <v>124</v>
       </c>
       <c r="I27" s="8" t="s">
         <v>33</v>
       </c>
       <c r="J27" s="8" t="s">
-        <v>132</v>
+        <v>112</v>
       </c>
       <c r="K27" s="8" t="s">
         <v>31</v>
       </c>
       <c r="L27" s="8" t="s">
-        <v>153</v>
+        <v>125</v>
       </c>
       <c r="M27" s="8" t="s">
-        <v>154</v>
+        <v>126</v>
       </c>
       <c r="N27" s="8" t="s">
-        <v>155</v>
+        <v>127</v>
       </c>
       <c r="O27" s="8" t="s">
         <v>32</v>
@@ -3067,7 +3065,7 @@
     </row>
     <row r="28" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A28" s="8" t="s">
-        <v>134</v>
+        <v>113</v>
       </c>
       <c r="B28" s="8" t="s">
         <v>29</v>
@@ -3077,28 +3075,28 @@
       <c r="E28" s="8"/>
       <c r="F28" s="8"/>
       <c r="G28" s="8" t="s">
-        <v>131</v>
+        <v>111</v>
       </c>
       <c r="H28" s="8" t="s">
-        <v>152</v>
+        <v>124</v>
       </c>
       <c r="I28" s="8" t="s">
         <v>33</v>
       </c>
       <c r="J28" s="8" t="s">
-        <v>135</v>
+        <v>114</v>
       </c>
       <c r="K28" s="8" t="s">
         <v>31</v>
       </c>
       <c r="L28" s="8" t="s">
-        <v>153</v>
+        <v>125</v>
       </c>
       <c r="M28" s="8" t="s">
-        <v>154</v>
+        <v>126</v>
       </c>
       <c r="N28" s="8" t="s">
-        <v>155</v>
+        <v>127</v>
       </c>
       <c r="O28" s="8" t="s">
         <v>32</v>
@@ -3106,7 +3104,7 @@
     </row>
     <row r="29" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A29" s="8" t="s">
-        <v>137</v>
+        <v>115</v>
       </c>
       <c r="B29" s="8" t="s">
         <v>29</v>
@@ -3116,7 +3114,7 @@
       <c r="E29" s="8"/>
       <c r="F29" s="8"/>
       <c r="G29" s="8" t="s">
-        <v>138</v>
+        <v>116</v>
       </c>
       <c r="H29" s="8" t="s">
         <v>30</v>
@@ -3125,19 +3123,19 @@
         <v>33</v>
       </c>
       <c r="J29" s="8" t="s">
-        <v>132</v>
+        <v>112</v>
       </c>
       <c r="K29" s="8" t="s">
         <v>31</v>
       </c>
       <c r="L29" s="8" t="s">
-        <v>156</v>
+        <v>128</v>
       </c>
       <c r="M29" s="8" t="s">
-        <v>154</v>
+        <v>126</v>
       </c>
       <c r="N29" s="8" t="s">
-        <v>157</v>
+        <v>129</v>
       </c>
       <c r="O29" s="8" t="s">
         <v>32</v>
@@ -3145,7 +3143,7 @@
     </row>
     <row r="30" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A30" s="8" t="s">
-        <v>140</v>
+        <v>117</v>
       </c>
       <c r="B30" s="8" t="s">
         <v>29</v>
@@ -3155,7 +3153,7 @@
       <c r="E30" s="8"/>
       <c r="F30" s="8"/>
       <c r="G30" s="8" t="s">
-        <v>138</v>
+        <v>116</v>
       </c>
       <c r="H30" s="8" t="s">
         <v>30</v>
@@ -3164,19 +3162,19 @@
         <v>33</v>
       </c>
       <c r="J30" s="8" t="s">
-        <v>135</v>
+        <v>114</v>
       </c>
       <c r="K30" s="8" t="s">
         <v>31</v>
       </c>
       <c r="L30" s="8" t="s">
-        <v>156</v>
+        <v>128</v>
       </c>
       <c r="M30" s="8" t="s">
-        <v>154</v>
+        <v>126</v>
       </c>
       <c r="N30" s="8" t="s">
-        <v>157</v>
+        <v>129</v>
       </c>
       <c r="O30" s="8" t="s">
         <v>32</v>
@@ -3184,7 +3182,7 @@
     </row>
     <row r="31" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A31" s="8" t="s">
-        <v>142</v>
+        <v>118</v>
       </c>
       <c r="B31" s="8" t="s">
         <v>29</v>
@@ -3194,7 +3192,7 @@
       <c r="E31" s="8"/>
       <c r="F31" s="8"/>
       <c r="G31" s="8" t="s">
-        <v>143</v>
+        <v>119</v>
       </c>
       <c r="H31" s="8" t="s">
         <v>30</v>
@@ -3203,19 +3201,19 @@
         <v>33</v>
       </c>
       <c r="J31" s="8" t="s">
-        <v>132</v>
+        <v>112</v>
       </c>
       <c r="K31" s="8" t="s">
         <v>31</v>
       </c>
       <c r="L31" s="8" t="s">
-        <v>158</v>
+        <v>130</v>
       </c>
       <c r="M31" s="8" t="s">
-        <v>154</v>
+        <v>126</v>
       </c>
       <c r="N31" s="8" t="s">
-        <v>159</v>
+        <v>131</v>
       </c>
       <c r="O31" s="8" t="s">
         <v>32</v>
@@ -3223,7 +3221,7 @@
     </row>
     <row r="32" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A32" s="8" t="s">
-        <v>145</v>
+        <v>120</v>
       </c>
       <c r="B32" s="8" t="s">
         <v>29</v>
@@ -3233,7 +3231,7 @@
       <c r="E32" s="8"/>
       <c r="F32" s="8"/>
       <c r="G32" s="8" t="s">
-        <v>143</v>
+        <v>119</v>
       </c>
       <c r="H32" s="8" t="s">
         <v>30</v>
@@ -3242,19 +3240,19 @@
         <v>33</v>
       </c>
       <c r="J32" s="8" t="s">
-        <v>135</v>
+        <v>114</v>
       </c>
       <c r="K32" s="8" t="s">
         <v>31</v>
       </c>
       <c r="L32" s="8" t="s">
-        <v>158</v>
+        <v>130</v>
       </c>
       <c r="M32" s="8" t="s">
-        <v>154</v>
+        <v>126</v>
       </c>
       <c r="N32" s="8" t="s">
-        <v>159</v>
+        <v>131</v>
       </c>
       <c r="O32" s="8" t="s">
         <v>32</v>
@@ -3262,7 +3260,7 @@
     </row>
     <row r="33" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A33" s="8" t="s">
-        <v>147</v>
+        <v>121</v>
       </c>
       <c r="B33" s="8" t="s">
         <v>29</v>
@@ -3272,7 +3270,7 @@
       <c r="E33" s="8"/>
       <c r="F33" s="8"/>
       <c r="G33" s="9" t="s">
-        <v>148</v>
+        <v>122</v>
       </c>
       <c r="H33" s="8" t="s">
         <v>30</v>
@@ -3281,19 +3279,19 @@
         <v>33</v>
       </c>
       <c r="J33" s="8" t="s">
-        <v>132</v>
+        <v>112</v>
       </c>
       <c r="K33" s="8" t="s">
         <v>31</v>
       </c>
       <c r="L33" s="8" t="s">
-        <v>160</v>
+        <v>132</v>
       </c>
       <c r="M33" s="8" t="s">
-        <v>154</v>
+        <v>126</v>
       </c>
       <c r="N33" s="8" t="s">
-        <v>161</v>
+        <v>133</v>
       </c>
       <c r="O33" s="8" t="s">
         <v>32</v>
@@ -3301,7 +3299,7 @@
     </row>
     <row r="34" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A34" s="8" t="s">
-        <v>150</v>
+        <v>123</v>
       </c>
       <c r="B34" s="8" t="s">
         <v>29</v>
@@ -3311,7 +3309,7 @@
       <c r="E34" s="8"/>
       <c r="F34" s="8"/>
       <c r="G34" s="9" t="s">
-        <v>148</v>
+        <v>122</v>
       </c>
       <c r="H34" s="8" t="s">
         <v>30</v>
@@ -3320,19 +3318,19 @@
         <v>33</v>
       </c>
       <c r="J34" s="8" t="s">
-        <v>135</v>
+        <v>114</v>
       </c>
       <c r="K34" s="8" t="s">
         <v>31</v>
       </c>
       <c r="L34" s="8" t="s">
-        <v>160</v>
+        <v>132</v>
       </c>
       <c r="M34" s="8" t="s">
-        <v>154</v>
+        <v>126</v>
       </c>
       <c r="N34" s="8" t="s">
-        <v>161</v>
+        <v>133</v>
       </c>
       <c r="O34" s="8" t="s">
         <v>32</v>

--- a/sources/case/ApprovalTypes.xlsx
+++ b/sources/case/ApprovalTypes.xlsx
@@ -1,15 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="18528"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sam\git\QiFeiApi\sources\case\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7560" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7560" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Base" sheetId="1" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="693" uniqueCount="166">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="882" uniqueCount="195">
   <si>
     <t>API</t>
   </si>
@@ -624,6 +624,116 @@
   </si>
   <si>
     <t>[{"target_value":"!!String{}","target_type":"","approvers":[{"type":"reporting_to","uuid":"","value":"1"},{"type":"reporting_to","uuid":"","value":"2"},{"type":"reporting_to","uuid":"","value":"3"},{"type":"reporting_to","uuid":"","value":"4"},{"type":"login_user_department_manager","uuid":"","value":""},{"type":"department_manager","uuid":"","value":"${organization_2.uuid}"},{"type":"employee","uuid":"","value":"7e254521-b2e4-11e7-93d8-5254001aba5d"}],"uuid":"95e727c9-0f75-11e7-8ff3-00163e007053"},{"target_value":"!!String{\"department\":[\"a62ef58e-beb4-11e7-98c2-5254001aba5d\"],\"employee\":[]}","target_type":"sponsor","approvers":[{"type":"login_user_department_manager","uuid":"","value":""},{"type":"department_manager","uuid":"","value":"${organization_2.uuid}"},{"type":"employee","uuid":"","value":"7e254521-b2e4-11e7-93d8-5254001aba5d"}],"uuid":""},{"uuid":"","approvers":[{"uuid":"","type":"employee","value":"7e254521-b2e4-11e7-93d8-5254001aba5d"},{"uuid":"","type":"login_user_department_manager","value":""}],"target_type":"sponsor","target_value":"!!String{\"department\":[],\"employee\":[\"b8a23753-0f75-11e7-9aa4-00163e007053\"]}"}]</t>
+  </si>
+  <si>
+    <t>[{"uuid":"95e3d42c-0f75-11e7-8ff3-00163e007053","approvers":[{"uuid":"","type":"reporting_to","value":"1"},{"uuid":"","type":"reporting_to","value":"2"},{"uuid":"","type":"reporting_to","value":"3"},{"uuid":"","type":"reporting_to","value":"4"},{"uuid":"","type":"login_user_department_manager","value":""},{"uuid":"","type":"department_manager","value":"${organization_2.uuid}"},{"uuid":"","type":"employee","value":"7e254521-b2e4-11e7-93d8-5254001aba5d"}],"target_type":"","target_value":"!!String{}"}]</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>95e3b97a-0f75-11e7-8ff3-00163e007053</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>purchase_1</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>purchase_2</t>
+  </si>
+  <si>
+    <t>[{"uuid":"95e3d42c-0f75-11e7-8ff3-00163e007053","approvers":[{"uuid":"","type":"reporting_to","value":"1"},{"uuid":"","type":"reporting_to","value":"2"},{"uuid":"","type":"reporting_to","value":"3"},{"uuid":"","type":"reporting_to","value":"4"},{"uuid":"","type":"login_user_department_manager","value":""},{"uuid":"","type":"department_manager","value":"${organization_2.uuid}"},{"uuid":"","type":"employee","value":"7e254521-b2e4-11e7-93d8-5254001aba5d"}],"target_type":"","target_value":"!!String{}"},{"uuid":"","approvers":[{"uuid":"","type":"login_user_department_manager","value":""},{"uuid":"","type":"department_manager","value":"${organization_2.uuid}"},{"uuid":"","type":"employee","value":"7e254521-b2e4-11e7-93d8-5254001aba5d"}],"target_type":"sponsor","target_value":"!!String{\"department\":[\"${organization_1.uuid}\"],\"employee\":[]}"},{"uuid":"","approvers":[{"uuid":"","type":"login_user_department_manager","value":""},{"uuid":"","type":"employee","value":"7e254521-b2e4-11e7-93d8-5254001aba5d"},{"uuid":"","type":"employee","value":"b8a23753-0f75-11e7-9aa4-00163e007053"}],"target_type":"sponsor","target_value":"!!String{\"department\":[\"${organization_2.uuid}\"],\"employee\":[]}"}]</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>采购</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>purchase</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>automation</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>approval_end</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>purchase_3</t>
+  </si>
+  <si>
+    <t>[{"uuid":"95e3d42c-0f75-11e7-8ff3-00163e007053","approvers":[{"uuid":"","type":"reporting_to","value":"1"},{"uuid":"","type":"reporting_to","value":"2"},{"uuid":"","type":"reporting_to","value":"3"},{"uuid":"","type":"reporting_to","value":"4"},{"uuid":"","type":"login_user_department_manager","value":""},{"uuid":"","type":"department_manager","value":"${organization_2.uuid}"},{"uuid":"","type":"employee","value":"7e254521-b2e4-11e7-93d8-5254001aba5d"}],"target_type":"","target_value":"!!String{}"},{"uuid":"","approvers":[{"uuid":"","type":"login_user_department_manager","value":""},{"uuid":"","type":"department_manager","value":"${organization_2.uuid}"},{"uuid":"","type":"employee","value":"7e254521-b2e4-11e7-93d8-5254001aba5d"}],"target_type":"sponsor","target_value":"!!String{\"department\":[\"${organization_1.uuid}\"],\"employee\":[]}"},{"uuid":"","approvers":[{"uuid":"","type":"login_user_department_manager","value":""},{"uuid":"","type":"employee","value":"7e254521-b2e4-11e7-93d8-5254001aba5d"},{"uuid":"","type":"employee","value":"b8a23753-0f75-11e7-9aa4-00163e007053"}],"target_type":"sponsor","target_value":"!!String{\"department\":[\"${organization_2.uuid}\"],\"employee\":[]}"},{"uuid":"","approvers":[{"uuid":"","type":"login_user_department_manager","value":""},{"uuid":"","type":"department_manager","value":"${organization_3.uuid}"}],"target_type":"money","target_value":"!!String{\"symbol\":\"&lt;\",\"unit\":\"元\",\"number\":\"100.00\"}"},{"uuid":"","approvers":[{"uuid":"","type":"department_manager","value":"${organization_3.uuid}"},{"uuid":"","type":"employee","value":"7e254521-b2e4-11e7-93d8-5254001aba5d"}],"target_type":"money","target_value":"!!String{\"symbol\":\"==\",\"unit\":\"元\",\"number\":\"100.00\"}"},{"uuid":"","approvers":[{"uuid":"","type":"login_user_department_manager","value":""},{"uuid":"","type":"department_manager","value":"${organization_3.uuid}"},{"uuid":"","type":"employee","value":"7e254521-b2e4-11e7-93d8-5254001aba5d"}],"target_type":"money","target_value":"!!String{\"symbol\":\"&gt;\",\"unit\":\"元\",\"number\":\"100.00\"}"}]</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>reimbursement_1</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>reimbursement_2</t>
+  </si>
+  <si>
+    <t>reimbursement_3</t>
+  </si>
+  <si>
+    <t>95e60ff1-0f75-11e7-8ff3-00163e007053</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>[{"uuid":"95e63244-0f75-11e7-8ff3-00163e007053","approvers":[{"uuid":"","type":"reporting_to","value":"1"},{"uuid":"","type":"reporting_to","value":"2"},{"uuid":"","type":"reporting_to","value":"3"},{"uuid":"","type":"reporting_to","value":"4"},{"uuid":"","type":"login_user_department_manager","value":""},{"uuid":"","type":"department_manager","value":"${organization_2.uuid}"},{"uuid":"","type":"employee","value":"7e254521-b2e4-11e7-93d8-5254001aba5d"}],"target_type":"","target_value":"!!String{}"},{"uuid":"","approvers":[{"uuid":"","type":"login_user_department_manager","value":""},{"uuid":"","type":"department_manager","value":"${organization_2.uuid}"},{"uuid":"","type":"employee","value":"7e254521-b2e4-11e7-93d8-5254001aba5d"}],"target_type":"sponsor","target_value":"!!String{\"department\":[\"${organization_1.uuid}\"],\"employee\":[]}"},{"uuid":"","approvers":[{"uuid":"","type":"login_user_department_manager","value":""},{"uuid":"","type":"employee","value":"7e254521-b2e4-11e7-93d8-5254001aba5d"},{"uuid":"","type":"employee","value":"b8a23753-0f75-11e7-9aa4-00163e007053"}],"target_type":"sponsor","target_value":"!!String{\"department\":[\"${organization_2.uuid}\"],\"employee\":[]}"}]</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>[{"uuid":"95e63244-0f75-11e7-8ff3-00163e007053","approvers":[{"uuid":"","type":"reporting_to","value":"1"},{"uuid":"","type":"reporting_to","value":"2"},{"uuid":"","type":"reporting_to","value":"3"},{"uuid":"","type":"reporting_to","value":"4"},{"uuid":"","type":"login_user_department_manager","value":""},{"uuid":"","type":"department_manager","value":"${organization_2.uuid}"},{"uuid":"","type":"employee","value":"7e254521-b2e4-11e7-93d8-5254001aba5d"}],"target_type":"","target_value":"!!String{}"}]</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>reimbursement</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>报销</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>[{"uuid":"95e63244-0f75-11e7-8ff3-00163e007053","approvers":[{"uuid":"","type":"reporting_to","value":"1"},{"uuid":"","type":"reporting_to","value":"2"},{"uuid":"","type":"reporting_to","value":"3"},{"uuid":"","type":"reporting_to","value":"4"},{"uuid":"","type":"login_user_department_manager","value":""},{"uuid":"","type":"department_manager","value":"${organization_2.uuid}"},{"uuid":"","type":"employee","value":"7e254521-b2e4-11e7-93d8-5254001aba5d"}],"target_type":"","target_value":"!!String{}"},{"uuid":"","approvers":[{"uuid":"","type":"login_user_department_manager","value":""},{"uuid":"","type":"department_manager","value":"${organization_2.uuid}"},{"uuid":"","type":"employee","value":"7e254521-b2e4-11e7-93d8-5254001aba5d"}],"target_type":"sponsor","target_value":"!!String{\"department\":[\"${organization_1.uuid}\"],\"employee\":[]}"},{"uuid":"","approvers":[{"uuid":"","type":"login_user_department_manager","value":""},{"uuid":"","type":"employee","value":"7e254521-b2e4-11e7-93d8-5254001aba5d"},{"uuid":"","type":"employee","value":"b8a23753-0f75-11e7-9aa4-00163e007053"}],"target_type":"sponsor","target_value":"!!String{\"department\":[\"${organization_2.uuid}\"],\"employee\":[]}"},{"uuid":"","approvers":[{"uuid":"","type":"login_user_department_manager","value":""},{"uuid":"","type":"department_manager","value":"${organization_3.uuid}"}],"target_type":"money","target_value":"!!String{\"symbol\":\"=&lt;\",\"unit\":\"元\",\"number\":\"199.99\"}"},{"uuid":"","approvers":[{"uuid":"","type":"department_manager","value":"${organization_3.uuid}"},{"uuid":"","type":"employee","value":"7e254521-b2e4-11e7-93d8-5254001aba5d"}],"target_type":"money","target_value":"!!String{\"symbol\":\"==\",\"unit\":\"元\",\"number\":\"200.00\"}"},{"uuid":"","approvers":[{"uuid":"","type":"login_user_department_manager","value":""},{"uuid":"","type":"department_manager","value":"${organization_3.uuid}"},{"uuid":"","type":"employee","value":"7e254521-b2e4-11e7-93d8-5254001aba5d"}],"target_type":"money","target_value":"!!String{\"symbol\":\"&gt;=\",\"unit\":\"元\",\"number\":\"200.10\"}"}]</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>[{"uuid":"95e5850a-0f75-11e7-8ff3-00163e007053","approvers":[{"uuid":"","type":"reporting_to","value":"1"},{"uuid":"","type":"reporting_to","value":"2"},{"uuid":"","type":"reporting_to","value":"3"},{"uuid":"","type":"reporting_to","value":"4"},{"uuid":"","type":"login_user_department_manager","value":""},{"uuid":"","type":"department_manager","value":"${organization_2.uuid}"},{"uuid":"","type":"employee","value":"7e254521-b2e4-11e7-93d8-5254001aba5d"}],"target_type":"","target_value":"!!String{}"},{"uuid":"","approvers":[{"uuid":"","type":"login_user_department_manager","value":""},{"uuid":"","type":"department_manager","value":"${organization_2.uuid}"},{"uuid":"","type":"employee","value":"7e254521-b2e4-11e7-93d8-5254001aba5d"}],"target_type":"sponsor","target_value":"!!String{\"department\":[\"${organization_1.uuid}\"],\"employee\":[]}"},{"uuid":"","approvers":[{"uuid":"","type":"login_user_department_manager","value":""},{"uuid":"","type":"employee","value":"7e254521-b2e4-11e7-93d8-5254001aba5d"},{"uuid":"","type":"employee","value":"b8a23753-0f75-11e7-9aa4-00163e007053"}],"target_type":"sponsor","target_value":"!!String{\"department\":[\"${organization_2.uuid}\"],\"employee\":[]}"},{"uuid":"","approvers":[{"uuid":"","type":"login_user_department_manager","value":""},{"uuid":"","type":"department_manager","value":"${organization_3.uuid}"}],"target_type":"money","target_value":"!!String{\"symbol\":\"=&lt;\",\"unit\":\"元\",\"number\":\"199.99\"}"},{"uuid":"","approvers":[{"uuid":"","type":"department_manager","value":"${organization_3.uuid}"},{"uuid":"","type":"employee","value":"7e254521-b2e4-11e7-93d8-5254001aba5d"}],"target_type":"money","target_value":"!!String{\"symbol\":\"==\",\"unit\":\"元\",\"number\":\"200.00\"}"},{"uuid":"","approvers":[{"uuid":"","type":"login_user_department_manager","value":""},{"uuid":"","type":"department_manager","value":"${organization_3.uuid}"},{"uuid":"","type":"employee","value":"7e254521-b2e4-11e7-93d8-5254001aba5d"}],"target_type":"money","target_value":"!!String{\"symbol\":\"&gt;=\",\"unit\":\"元\",\"number\":\"200.10\"}"}]</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>[{"uuid":"95e5850a-0f75-11e7-8ff3-00163e007053","approvers":[{"uuid":"","type":"reporting_to","value":"1"},{"uuid":"","type":"reporting_to","value":"2"},{"uuid":"","type":"reporting_to","value":"3"},{"uuid":"","type":"reporting_to","value":"4"},{"uuid":"","type":"login_user_department_manager","value":""},{"uuid":"","type":"department_manager","value":"${organization_2.uuid}"},{"uuid":"","type":"employee","value":"7e254521-b2e4-11e7-93d8-5254001aba5d"}],"target_type":"","target_value":"!!String{}"},{"uuid":"","approvers":[{"uuid":"","type":"login_user_department_manager","value":""},{"uuid":"","type":"department_manager","value":"${organization_2.uuid}"},{"uuid":"","type":"employee","value":"7e254521-b2e4-11e7-93d8-5254001aba5d"}],"target_type":"sponsor","target_value":"!!String{\"department\":[\"${organization_1.uuid}\"],\"employee\":[]}"},{"uuid":"","approvers":[{"uuid":"","type":"login_user_department_manager","value":""},{"uuid":"","type":"employee","value":"7e254521-b2e4-11e7-93d8-5254001aba5d"},{"uuid":"","type":"employee","value":"b8a23753-0f75-11e7-9aa4-00163e007053"}],"target_type":"sponsor","target_value":"!!String{\"department\":[\"${organization_2.uuid}\"],\"employee\":[]}"}]</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>[{"uuid":"95e5850a-0f75-11e7-8ff3-00163e007053","approvers":[{"uuid":"","type":"reporting_to","value":"1"},{"uuid":"","type":"reporting_to","value":"2"},{"uuid":"","type":"reporting_to","value":"3"},{"uuid":"","type":"reporting_to","value":"4"},{"uuid":"","type":"login_user_department_manager","value":""},{"uuid":"","type":"department_manager","value":"${organization_2.uuid}"},{"uuid":"","type":"employee","value":"7e254521-b2e4-11e7-93d8-5254001aba5d"}],"target_type":"","target_value":"!!String{}"}]</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>95e554cf-0f75-11e7-8ff3-00163e007053</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>payment_1</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>payment_2</t>
+  </si>
+  <si>
+    <t>payment_3</t>
+  </si>
+  <si>
+    <t>付款</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>payment</t>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -1071,10 +1181,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G33"/>
+  <dimension ref="A1:G42"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="D11" sqref="D11"/>
+    <sheetView topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="C41" sqref="C41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1771,6 +1881,186 @@
         <v>33</v>
       </c>
     </row>
+    <row r="34" spans="1:7" s="8" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A34" s="8" t="s">
+        <v>168</v>
+      </c>
+      <c r="B34" s="8" t="s">
+        <v>167</v>
+      </c>
+      <c r="C34" s="8" t="s">
+        <v>54</v>
+      </c>
+      <c r="D34" s="8" t="s">
+        <v>166</v>
+      </c>
+      <c r="F34" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="G34" s="8" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="35" spans="1:7" s="8" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A35" s="8" t="s">
+        <v>169</v>
+      </c>
+      <c r="B35" s="8" t="s">
+        <v>167</v>
+      </c>
+      <c r="C35" s="8" t="s">
+        <v>34</v>
+      </c>
+      <c r="D35" s="8" t="s">
+        <v>170</v>
+      </c>
+      <c r="F35" s="8" t="s">
+        <v>107</v>
+      </c>
+      <c r="G35" s="8" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="36" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A36" s="8" t="s">
+        <v>175</v>
+      </c>
+      <c r="B36" s="8" t="s">
+        <v>167</v>
+      </c>
+      <c r="C36" s="8" t="s">
+        <v>114</v>
+      </c>
+      <c r="D36" t="s">
+        <v>176</v>
+      </c>
+      <c r="F36" s="8" t="s">
+        <v>107</v>
+      </c>
+      <c r="G36" s="8" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="37" spans="1:7" s="8" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A37" s="8" t="s">
+        <v>177</v>
+      </c>
+      <c r="B37" s="8" t="s">
+        <v>180</v>
+      </c>
+      <c r="C37" s="8" t="s">
+        <v>54</v>
+      </c>
+      <c r="D37" s="8" t="s">
+        <v>182</v>
+      </c>
+      <c r="F37" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="G37" s="8" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="38" spans="1:7" s="8" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A38" s="8" t="s">
+        <v>178</v>
+      </c>
+      <c r="B38" s="8" t="s">
+        <v>180</v>
+      </c>
+      <c r="C38" s="8" t="s">
+        <v>34</v>
+      </c>
+      <c r="D38" s="8" t="s">
+        <v>181</v>
+      </c>
+      <c r="F38" s="8" t="s">
+        <v>107</v>
+      </c>
+      <c r="G38" s="8" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="39" spans="1:7" s="8" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A39" s="8" t="s">
+        <v>179</v>
+      </c>
+      <c r="B39" s="8" t="s">
+        <v>180</v>
+      </c>
+      <c r="C39" s="8" t="s">
+        <v>114</v>
+      </c>
+      <c r="D39" s="8" t="s">
+        <v>185</v>
+      </c>
+      <c r="F39" s="8" t="s">
+        <v>107</v>
+      </c>
+      <c r="G39" s="8" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="40" spans="1:7" s="8" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A40" s="8" t="s">
+        <v>190</v>
+      </c>
+      <c r="B40" s="8" t="s">
+        <v>189</v>
+      </c>
+      <c r="C40" s="8" t="s">
+        <v>54</v>
+      </c>
+      <c r="D40" s="8" t="s">
+        <v>188</v>
+      </c>
+      <c r="F40" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="G40" s="8" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="41" spans="1:7" s="8" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A41" s="8" t="s">
+        <v>191</v>
+      </c>
+      <c r="B41" s="8" t="s">
+        <v>189</v>
+      </c>
+      <c r="C41" s="8" t="s">
+        <v>34</v>
+      </c>
+      <c r="D41" s="8" t="s">
+        <v>187</v>
+      </c>
+      <c r="F41" s="8" t="s">
+        <v>107</v>
+      </c>
+      <c r="G41" s="8" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="42" spans="1:7" s="8" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A42" s="8" t="s">
+        <v>192</v>
+      </c>
+      <c r="B42" s="8" t="s">
+        <v>189</v>
+      </c>
+      <c r="C42" s="8" t="s">
+        <v>114</v>
+      </c>
+      <c r="D42" s="8" t="s">
+        <v>186</v>
+      </c>
+      <c r="F42" s="8" t="s">
+        <v>107</v>
+      </c>
+      <c r="G42" s="8" t="s">
+        <v>174</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1780,10 +2070,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:O34"/>
+  <dimension ref="A1:O43"/>
   <sheetViews>
-    <sheetView topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="B23" sqref="B23"/>
+    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
+      <selection activeCell="C30" sqref="C30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -3336,6 +3626,429 @@
         <v>32</v>
       </c>
     </row>
+    <row r="35" spans="1:15" s="8" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A35" s="8" t="s">
+        <v>168</v>
+      </c>
+      <c r="B35" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="C35" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="D35" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="E35" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="F35" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="G35" s="8" t="s">
+        <v>167</v>
+      </c>
+      <c r="H35" s="8" t="s">
+        <v>30</v>
+      </c>
+      <c r="I35" s="8" t="s">
+        <v>33</v>
+      </c>
+      <c r="J35" s="8" t="s">
+        <v>54</v>
+      </c>
+      <c r="K35" s="8" t="s">
+        <v>31</v>
+      </c>
+      <c r="L35" s="8" t="s">
+        <v>171</v>
+      </c>
+      <c r="M35" s="8" t="s">
+        <v>173</v>
+      </c>
+      <c r="N35" s="8" t="s">
+        <v>172</v>
+      </c>
+      <c r="O35" s="8" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="36" spans="1:15" s="8" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A36" s="8" t="s">
+        <v>169</v>
+      </c>
+      <c r="B36" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="C36" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="D36" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="E36" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="F36" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="G36" s="8" t="s">
+        <v>167</v>
+      </c>
+      <c r="H36" s="8" t="s">
+        <v>30</v>
+      </c>
+      <c r="I36" s="8" t="s">
+        <v>33</v>
+      </c>
+      <c r="J36" s="8" t="s">
+        <v>34</v>
+      </c>
+      <c r="K36" s="8" t="s">
+        <v>31</v>
+      </c>
+      <c r="L36" s="8" t="s">
+        <v>171</v>
+      </c>
+      <c r="M36" s="8" t="s">
+        <v>173</v>
+      </c>
+      <c r="N36" s="8" t="s">
+        <v>172</v>
+      </c>
+      <c r="O36" s="8" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="37" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A37" s="8" t="s">
+        <v>175</v>
+      </c>
+      <c r="B37" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="C37" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="D37" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="E37" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="F37" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="G37" s="8" t="s">
+        <v>167</v>
+      </c>
+      <c r="H37" s="8" t="s">
+        <v>30</v>
+      </c>
+      <c r="I37" s="8" t="s">
+        <v>174</v>
+      </c>
+      <c r="J37" s="8" t="s">
+        <v>114</v>
+      </c>
+      <c r="K37" s="8" t="s">
+        <v>31</v>
+      </c>
+      <c r="L37" s="8" t="s">
+        <v>171</v>
+      </c>
+      <c r="M37" s="8" t="s">
+        <v>173</v>
+      </c>
+      <c r="N37" s="8" t="s">
+        <v>172</v>
+      </c>
+      <c r="O37" s="8" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="38" spans="1:15" s="8" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A38" s="8" t="s">
+        <v>177</v>
+      </c>
+      <c r="B38" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="C38" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="D38" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="E38" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="F38" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="G38" s="8" t="s">
+        <v>180</v>
+      </c>
+      <c r="H38" s="8" t="s">
+        <v>30</v>
+      </c>
+      <c r="I38" s="8" t="s">
+        <v>33</v>
+      </c>
+      <c r="J38" s="8" t="s">
+        <v>54</v>
+      </c>
+      <c r="K38" s="8" t="s">
+        <v>31</v>
+      </c>
+      <c r="L38" s="8" t="s">
+        <v>184</v>
+      </c>
+      <c r="M38" s="8" t="s">
+        <v>173</v>
+      </c>
+      <c r="N38" s="8" t="s">
+        <v>183</v>
+      </c>
+      <c r="O38" s="8" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="39" spans="1:15" s="8" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A39" s="8" t="s">
+        <v>178</v>
+      </c>
+      <c r="B39" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="C39" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="D39" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="E39" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="F39" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="G39" s="8" t="s">
+        <v>180</v>
+      </c>
+      <c r="H39" s="8" t="s">
+        <v>30</v>
+      </c>
+      <c r="I39" s="8" t="s">
+        <v>33</v>
+      </c>
+      <c r="J39" s="8" t="s">
+        <v>34</v>
+      </c>
+      <c r="K39" s="8" t="s">
+        <v>31</v>
+      </c>
+      <c r="L39" s="8" t="s">
+        <v>184</v>
+      </c>
+      <c r="M39" s="8" t="s">
+        <v>173</v>
+      </c>
+      <c r="N39" s="8" t="s">
+        <v>183</v>
+      </c>
+      <c r="O39" s="8" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="40" spans="1:15" s="8" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A40" s="8" t="s">
+        <v>179</v>
+      </c>
+      <c r="B40" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="C40" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="D40" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="E40" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="F40" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="G40" s="8" t="s">
+        <v>180</v>
+      </c>
+      <c r="H40" s="8" t="s">
+        <v>30</v>
+      </c>
+      <c r="I40" s="8" t="s">
+        <v>174</v>
+      </c>
+      <c r="J40" s="8" t="s">
+        <v>114</v>
+      </c>
+      <c r="K40" s="8" t="s">
+        <v>31</v>
+      </c>
+      <c r="L40" s="8" t="s">
+        <v>184</v>
+      </c>
+      <c r="M40" s="8" t="s">
+        <v>173</v>
+      </c>
+      <c r="N40" s="8" t="s">
+        <v>183</v>
+      </c>
+      <c r="O40" s="8" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="41" spans="1:15" s="8" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A41" s="8" t="s">
+        <v>190</v>
+      </c>
+      <c r="B41" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="C41" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="D41" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="E41" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="F41" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="G41" s="8" t="s">
+        <v>189</v>
+      </c>
+      <c r="H41" s="8" t="s">
+        <v>30</v>
+      </c>
+      <c r="I41" s="8" t="s">
+        <v>33</v>
+      </c>
+      <c r="J41" s="8" t="s">
+        <v>54</v>
+      </c>
+      <c r="K41" s="8" t="s">
+        <v>31</v>
+      </c>
+      <c r="L41" s="8" t="s">
+        <v>193</v>
+      </c>
+      <c r="M41" s="8" t="s">
+        <v>173</v>
+      </c>
+      <c r="N41" s="8" t="s">
+        <v>194</v>
+      </c>
+      <c r="O41" s="8" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="42" spans="1:15" s="8" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A42" s="8" t="s">
+        <v>191</v>
+      </c>
+      <c r="B42" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="C42" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="D42" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="E42" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="F42" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="G42" s="8" t="s">
+        <v>189</v>
+      </c>
+      <c r="H42" s="8" t="s">
+        <v>30</v>
+      </c>
+      <c r="I42" s="8" t="s">
+        <v>33</v>
+      </c>
+      <c r="J42" s="8" t="s">
+        <v>34</v>
+      </c>
+      <c r="K42" s="8" t="s">
+        <v>31</v>
+      </c>
+      <c r="L42" s="8" t="s">
+        <v>193</v>
+      </c>
+      <c r="M42" s="8" t="s">
+        <v>173</v>
+      </c>
+      <c r="N42" s="8" t="s">
+        <v>194</v>
+      </c>
+      <c r="O42" s="8" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="43" spans="1:15" s="8" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A43" s="8" t="s">
+        <v>192</v>
+      </c>
+      <c r="B43" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="C43" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="D43" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="E43" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="F43" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="G43" s="8" t="s">
+        <v>189</v>
+      </c>
+      <c r="H43" s="8" t="s">
+        <v>30</v>
+      </c>
+      <c r="I43" s="8" t="s">
+        <v>174</v>
+      </c>
+      <c r="J43" s="8" t="s">
+        <v>114</v>
+      </c>
+      <c r="K43" s="8" t="s">
+        <v>31</v>
+      </c>
+      <c r="L43" s="8" t="s">
+        <v>193</v>
+      </c>
+      <c r="M43" s="8" t="s">
+        <v>173</v>
+      </c>
+      <c r="N43" s="8" t="s">
+        <v>194</v>
+      </c>
+      <c r="O43" s="8" t="s">
+        <v>32</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/sources/case/ApprovalTypes.xlsx
+++ b/sources/case/ApprovalTypes.xlsx
@@ -1,15 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="18528"/>
-  <workbookPr/>
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sam\git\QiFeiApi\sources\case\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7560" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7560" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Base" sheetId="1" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="882" uniqueCount="195">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="882" uniqueCount="196">
   <si>
     <t>API</t>
   </si>
@@ -605,27 +605,15 @@
     <t>[{"target_value":"!!String{}","target_type":"","approvers":[{"type":"reporting_to","uuid":"","value":"1"},{"type":"reporting_to","uuid":"","value":"2"},{"type":"reporting_to","uuid":"","value":"3"},{"type":"reporting_to","uuid":"","value":"4"},{"type":"login_user_department_manager","uuid":"","value":""},{"type":"department_manager","uuid":"","value":"${organization_2.uuid}"},{"type":"employee","uuid":"","value":"7e254521-b2e4-11e7-93d8-5254001aba5d"}],"uuid":"932edd34-c05f-11e7-8d35-5254001aba5d"}]</t>
   </si>
   <si>
-    <t>[{"target_value":"!!String{}","target_type":"","approvers":[{"type":"reporting_to","uuid":"","value":"1"},{"type":"reporting_to","uuid":"","value":"2"},{"type":"reporting_to","uuid":"","value":"3"},{"type":"reporting_to","uuid":"","value":"4"},{"type":"login_user_department_manager","uuid":"","value":""},{"type":"department_manager","uuid":"","value":"${organization_2.uuid}"},{"type":"employee","uuid":"","value":"7e254521-b2e4-11e7-93d8-5254001aba5d"}],"uuid":"932edd34-c05f-11e7-8d35-5254001aba5d"},{"target_value":"!!String{\"department\":[\"a62ef58e-beb4-11e7-98c2-5254001aba5d\"],\"employee\":[]}","target_type":"sponsor","approvers":[{"type":"login_user_department_manager","uuid":"","value":""},{"type":"department_manager","uuid":"","value":"${organization_2.uuid}"},{"type":"employee","uuid":"","value":"7e254521-b2e4-11e7-93d8-5254001aba5d"}],"uuid":""},{"uuid":"","approvers":[{"uuid":"","type":"employee","value":"7e254521-b2e4-11e7-93d8-5254001aba5d"},{"uuid":"","type":"login_user_department_manager","value":""}],"target_type":"sponsor","target_value":"!!String{\"department\":[],\"employee\":[\"b8a23753-0f75-11e7-9aa4-00163e007053\"]}"}]</t>
-  </si>
-  <si>
     <t>[{"target_value":"!!String{}","target_type":"","approvers":[{"type":"reporting_to","uuid":"","value":"1"},{"type":"reporting_to","uuid":"","value":"2"},{"type":"reporting_to","uuid":"","value":"3"},{"type":"reporting_to","uuid":"","value":"4"},{"type":"login_user_department_manager","uuid":"","value":""},{"type":"department_manager","uuid":"","value":"${organization_2.uuid}"},{"type":"employee","uuid":"","value":"7e254521-b2e4-11e7-93d8-5254001aba5d"}],"uuid":"95eb32c3-0f75-11e7-8ff3-00163e007053"}]</t>
   </si>
   <si>
-    <t>[{"target_value":"!!String{}","target_type":"","approvers":[{"type":"reporting_to","uuid":"","value":"1"},{"type":"reporting_to","uuid":"","value":"2"},{"type":"reporting_to","uuid":"","value":"3"},{"type":"reporting_to","uuid":"","value":"4"},{"type":"login_user_department_manager","uuid":"","value":""},{"type":"department_manager","uuid":"","value":"${organization_2.uuid}"},{"type":"employee","uuid":"","value":"7e254521-b2e4-11e7-93d8-5254001aba5d"}],"uuid":"95eb32c3-0f75-11e7-8ff3-00163e007053"},{"target_value":"!!String{\"department\":[\"a62ef58e-beb4-11e7-98c2-5254001aba5d\"],\"employee\":[]}","target_type":"sponsor","approvers":[{"type":"login_user_department_manager","uuid":"","value":""},{"type":"department_manager","uuid":"","value":"${organization_2.uuid}"},{"type":"employee","uuid":"","value":"7e254521-b2e4-11e7-93d8-5254001aba5d"}],"uuid":""},{"uuid":"","approvers":[{"uuid":"","type":"employee","value":"7e254521-b2e4-11e7-93d8-5254001aba5d"},{"uuid":"","type":"login_user_department_manager","value":""}],"target_type":"sponsor","target_value":"!!String{\"department\":[],\"employee\":[\"b8a23753-0f75-11e7-9aa4-00163e007053\"]}"}]</t>
-  </si>
-  <si>
     <t>[{"target_value":"!!String{}","target_type":"","approvers":[{"type":"reporting_to","uuid":"","value":"1"},{"type":"reporting_to","uuid":"","value":"2"},{"type":"reporting_to","uuid":"","value":"3"},{"type":"reporting_to","uuid":"","value":"4"},{"type":"login_user_department_manager","uuid":"","value":""},{"type":"department_manager","uuid":"","value":"${organization_2.uuid}"},{"type":"employee","uuid":"","value":"7e254521-b2e4-11e7-93d8-5254001aba5d"}],"uuid":"95e7b57a-0f75-11e7-8ff3-00163e007053"}]</t>
   </si>
   <si>
-    <t>[{"target_value":"!!String{}","target_type":"","approvers":[{"type":"reporting_to","uuid":"","value":"1"},{"type":"reporting_to","uuid":"","value":"2"},{"type":"reporting_to","uuid":"","value":"3"},{"type":"reporting_to","uuid":"","value":"4"},{"type":"login_user_department_manager","uuid":"","value":""},{"type":"department_manager","uuid":"","value":"${organization_2.uuid}"},{"type":"employee","uuid":"","value":"7e254521-b2e4-11e7-93d8-5254001aba5d"}],"uuid":"95e7b57a-0f75-11e7-8ff3-00163e007053"},{"target_value":"!!String{\"department\":[\"a62ef58e-beb4-11e7-98c2-5254001aba5d\"],\"employee\":[]}","target_type":"sponsor","approvers":[{"type":"login_user_department_manager","uuid":"","value":""},{"type":"department_manager","uuid":"","value":"${organization_2.uuid}"},{"type":"employee","uuid":"","value":"7e254521-b2e4-11e7-93d8-5254001aba5d"}],"uuid":""},{"uuid":"","approvers":[{"uuid":"","type":"employee","value":"7e254521-b2e4-11e7-93d8-5254001aba5d"},{"uuid":"","type":"login_user_department_manager","value":""}],"target_type":"sponsor","target_value":"!!String{\"department\":[],\"employee\":[\"b8a23753-0f75-11e7-9aa4-00163e007053\"]}"}]</t>
-  </si>
-  <si>
     <t>[{"target_value":"!!String{}","target_type":"","approvers":[{"type":"reporting_to","uuid":"","value":"1"},{"type":"reporting_to","uuid":"","value":"2"},{"type":"reporting_to","uuid":"","value":"3"},{"type":"reporting_to","uuid":"","value":"4"},{"type":"login_user_department_manager","uuid":"","value":""},{"type":"department_manager","uuid":"","value":"${organization_2.uuid}"},{"type":"employee","uuid":"","value":"7e254521-b2e4-11e7-93d8-5254001aba5d"}],"uuid":"95e727c9-0f75-11e7-8ff3-00163e007053"}]</t>
   </si>
   <si>
-    <t>[{"target_value":"!!String{}","target_type":"","approvers":[{"type":"reporting_to","uuid":"","value":"1"},{"type":"reporting_to","uuid":"","value":"2"},{"type":"reporting_to","uuid":"","value":"3"},{"type":"reporting_to","uuid":"","value":"4"},{"type":"login_user_department_manager","uuid":"","value":""},{"type":"department_manager","uuid":"","value":"${organization_2.uuid}"},{"type":"employee","uuid":"","value":"7e254521-b2e4-11e7-93d8-5254001aba5d"}],"uuid":"95e727c9-0f75-11e7-8ff3-00163e007053"},{"target_value":"!!String{\"department\":[\"a62ef58e-beb4-11e7-98c2-5254001aba5d\"],\"employee\":[]}","target_type":"sponsor","approvers":[{"type":"login_user_department_manager","uuid":"","value":""},{"type":"department_manager","uuid":"","value":"${organization_2.uuid}"},{"type":"employee","uuid":"","value":"7e254521-b2e4-11e7-93d8-5254001aba5d"}],"uuid":""},{"uuid":"","approvers":[{"uuid":"","type":"employee","value":"7e254521-b2e4-11e7-93d8-5254001aba5d"},{"uuid":"","type":"login_user_department_manager","value":""}],"target_type":"sponsor","target_value":"!!String{\"department\":[],\"employee\":[\"b8a23753-0f75-11e7-9aa4-00163e007053\"]}"}]</t>
-  </si>
-  <si>
     <t>[{"uuid":"95e3d42c-0f75-11e7-8ff3-00163e007053","approvers":[{"uuid":"","type":"reporting_to","value":"1"},{"uuid":"","type":"reporting_to","value":"2"},{"uuid":"","type":"reporting_to","value":"3"},{"uuid":"","type":"reporting_to","value":"4"},{"uuid":"","type":"login_user_department_manager","value":""},{"uuid":"","type":"department_manager","value":"${organization_2.uuid}"},{"uuid":"","type":"employee","value":"7e254521-b2e4-11e7-93d8-5254001aba5d"}],"target_type":"","target_value":"!!String{}"}]</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -641,10 +629,6 @@
     <t>purchase_2</t>
   </si>
   <si>
-    <t>[{"uuid":"95e3d42c-0f75-11e7-8ff3-00163e007053","approvers":[{"uuid":"","type":"reporting_to","value":"1"},{"uuid":"","type":"reporting_to","value":"2"},{"uuid":"","type":"reporting_to","value":"3"},{"uuid":"","type":"reporting_to","value":"4"},{"uuid":"","type":"login_user_department_manager","value":""},{"uuid":"","type":"department_manager","value":"${organization_2.uuid}"},{"uuid":"","type":"employee","value":"7e254521-b2e4-11e7-93d8-5254001aba5d"}],"target_type":"","target_value":"!!String{}"},{"uuid":"","approvers":[{"uuid":"","type":"login_user_department_manager","value":""},{"uuid":"","type":"department_manager","value":"${organization_2.uuid}"},{"uuid":"","type":"employee","value":"7e254521-b2e4-11e7-93d8-5254001aba5d"}],"target_type":"sponsor","target_value":"!!String{\"department\":[\"${organization_1.uuid}\"],\"employee\":[]}"},{"uuid":"","approvers":[{"uuid":"","type":"login_user_department_manager","value":""},{"uuid":"","type":"employee","value":"7e254521-b2e4-11e7-93d8-5254001aba5d"},{"uuid":"","type":"employee","value":"b8a23753-0f75-11e7-9aa4-00163e007053"}],"target_type":"sponsor","target_value":"!!String{\"department\":[\"${organization_2.uuid}\"],\"employee\":[]}"}]</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>采购</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -664,10 +648,6 @@
     <t>purchase_3</t>
   </si>
   <si>
-    <t>[{"uuid":"95e3d42c-0f75-11e7-8ff3-00163e007053","approvers":[{"uuid":"","type":"reporting_to","value":"1"},{"uuid":"","type":"reporting_to","value":"2"},{"uuid":"","type":"reporting_to","value":"3"},{"uuid":"","type":"reporting_to","value":"4"},{"uuid":"","type":"login_user_department_manager","value":""},{"uuid":"","type":"department_manager","value":"${organization_2.uuid}"},{"uuid":"","type":"employee","value":"7e254521-b2e4-11e7-93d8-5254001aba5d"}],"target_type":"","target_value":"!!String{}"},{"uuid":"","approvers":[{"uuid":"","type":"login_user_department_manager","value":""},{"uuid":"","type":"department_manager","value":"${organization_2.uuid}"},{"uuid":"","type":"employee","value":"7e254521-b2e4-11e7-93d8-5254001aba5d"}],"target_type":"sponsor","target_value":"!!String{\"department\":[\"${organization_1.uuid}\"],\"employee\":[]}"},{"uuid":"","approvers":[{"uuid":"","type":"login_user_department_manager","value":""},{"uuid":"","type":"employee","value":"7e254521-b2e4-11e7-93d8-5254001aba5d"},{"uuid":"","type":"employee","value":"b8a23753-0f75-11e7-9aa4-00163e007053"}],"target_type":"sponsor","target_value":"!!String{\"department\":[\"${organization_2.uuid}\"],\"employee\":[]}"},{"uuid":"","approvers":[{"uuid":"","type":"login_user_department_manager","value":""},{"uuid":"","type":"department_manager","value":"${organization_3.uuid}"}],"target_type":"money","target_value":"!!String{\"symbol\":\"&lt;\",\"unit\":\"元\",\"number\":\"100.00\"}"},{"uuid":"","approvers":[{"uuid":"","type":"department_manager","value":"${organization_3.uuid}"},{"uuid":"","type":"employee","value":"7e254521-b2e4-11e7-93d8-5254001aba5d"}],"target_type":"money","target_value":"!!String{\"symbol\":\"==\",\"unit\":\"元\",\"number\":\"100.00\"}"},{"uuid":"","approvers":[{"uuid":"","type":"login_user_department_manager","value":""},{"uuid":"","type":"department_manager","value":"${organization_3.uuid}"},{"uuid":"","type":"employee","value":"7e254521-b2e4-11e7-93d8-5254001aba5d"}],"target_type":"money","target_value":"!!String{\"symbol\":\"&gt;\",\"unit\":\"元\",\"number\":\"100.00\"}"}]</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>reimbursement_1</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -682,10 +662,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>[{"uuid":"95e63244-0f75-11e7-8ff3-00163e007053","approvers":[{"uuid":"","type":"reporting_to","value":"1"},{"uuid":"","type":"reporting_to","value":"2"},{"uuid":"","type":"reporting_to","value":"3"},{"uuid":"","type":"reporting_to","value":"4"},{"uuid":"","type":"login_user_department_manager","value":""},{"uuid":"","type":"department_manager","value":"${organization_2.uuid}"},{"uuid":"","type":"employee","value":"7e254521-b2e4-11e7-93d8-5254001aba5d"}],"target_type":"","target_value":"!!String{}"},{"uuid":"","approvers":[{"uuid":"","type":"login_user_department_manager","value":""},{"uuid":"","type":"department_manager","value":"${organization_2.uuid}"},{"uuid":"","type":"employee","value":"7e254521-b2e4-11e7-93d8-5254001aba5d"}],"target_type":"sponsor","target_value":"!!String{\"department\":[\"${organization_1.uuid}\"],\"employee\":[]}"},{"uuid":"","approvers":[{"uuid":"","type":"login_user_department_manager","value":""},{"uuid":"","type":"employee","value":"7e254521-b2e4-11e7-93d8-5254001aba5d"},{"uuid":"","type":"employee","value":"b8a23753-0f75-11e7-9aa4-00163e007053"}],"target_type":"sponsor","target_value":"!!String{\"department\":[\"${organization_2.uuid}\"],\"employee\":[]}"}]</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>[{"uuid":"95e63244-0f75-11e7-8ff3-00163e007053","approvers":[{"uuid":"","type":"reporting_to","value":"1"},{"uuid":"","type":"reporting_to","value":"2"},{"uuid":"","type":"reporting_to","value":"3"},{"uuid":"","type":"reporting_to","value":"4"},{"uuid":"","type":"login_user_department_manager","value":""},{"uuid":"","type":"department_manager","value":"${organization_2.uuid}"},{"uuid":"","type":"employee","value":"7e254521-b2e4-11e7-93d8-5254001aba5d"}],"target_type":"","target_value":"!!String{}"}]</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -698,18 +674,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>[{"uuid":"95e63244-0f75-11e7-8ff3-00163e007053","approvers":[{"uuid":"","type":"reporting_to","value":"1"},{"uuid":"","type":"reporting_to","value":"2"},{"uuid":"","type":"reporting_to","value":"3"},{"uuid":"","type":"reporting_to","value":"4"},{"uuid":"","type":"login_user_department_manager","value":""},{"uuid":"","type":"department_manager","value":"${organization_2.uuid}"},{"uuid":"","type":"employee","value":"7e254521-b2e4-11e7-93d8-5254001aba5d"}],"target_type":"","target_value":"!!String{}"},{"uuid":"","approvers":[{"uuid":"","type":"login_user_department_manager","value":""},{"uuid":"","type":"department_manager","value":"${organization_2.uuid}"},{"uuid":"","type":"employee","value":"7e254521-b2e4-11e7-93d8-5254001aba5d"}],"target_type":"sponsor","target_value":"!!String{\"department\":[\"${organization_1.uuid}\"],\"employee\":[]}"},{"uuid":"","approvers":[{"uuid":"","type":"login_user_department_manager","value":""},{"uuid":"","type":"employee","value":"7e254521-b2e4-11e7-93d8-5254001aba5d"},{"uuid":"","type":"employee","value":"b8a23753-0f75-11e7-9aa4-00163e007053"}],"target_type":"sponsor","target_value":"!!String{\"department\":[\"${organization_2.uuid}\"],\"employee\":[]}"},{"uuid":"","approvers":[{"uuid":"","type":"login_user_department_manager","value":""},{"uuid":"","type":"department_manager","value":"${organization_3.uuid}"}],"target_type":"money","target_value":"!!String{\"symbol\":\"=&lt;\",\"unit\":\"元\",\"number\":\"199.99\"}"},{"uuid":"","approvers":[{"uuid":"","type":"department_manager","value":"${organization_3.uuid}"},{"uuid":"","type":"employee","value":"7e254521-b2e4-11e7-93d8-5254001aba5d"}],"target_type":"money","target_value":"!!String{\"symbol\":\"==\",\"unit\":\"元\",\"number\":\"200.00\"}"},{"uuid":"","approvers":[{"uuid":"","type":"login_user_department_manager","value":""},{"uuid":"","type":"department_manager","value":"${organization_3.uuid}"},{"uuid":"","type":"employee","value":"7e254521-b2e4-11e7-93d8-5254001aba5d"}],"target_type":"money","target_value":"!!String{\"symbol\":\"&gt;=\",\"unit\":\"元\",\"number\":\"200.10\"}"}]</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>[{"uuid":"95e5850a-0f75-11e7-8ff3-00163e007053","approvers":[{"uuid":"","type":"reporting_to","value":"1"},{"uuid":"","type":"reporting_to","value":"2"},{"uuid":"","type":"reporting_to","value":"3"},{"uuid":"","type":"reporting_to","value":"4"},{"uuid":"","type":"login_user_department_manager","value":""},{"uuid":"","type":"department_manager","value":"${organization_2.uuid}"},{"uuid":"","type":"employee","value":"7e254521-b2e4-11e7-93d8-5254001aba5d"}],"target_type":"","target_value":"!!String{}"},{"uuid":"","approvers":[{"uuid":"","type":"login_user_department_manager","value":""},{"uuid":"","type":"department_manager","value":"${organization_2.uuid}"},{"uuid":"","type":"employee","value":"7e254521-b2e4-11e7-93d8-5254001aba5d"}],"target_type":"sponsor","target_value":"!!String{\"department\":[\"${organization_1.uuid}\"],\"employee\":[]}"},{"uuid":"","approvers":[{"uuid":"","type":"login_user_department_manager","value":""},{"uuid":"","type":"employee","value":"7e254521-b2e4-11e7-93d8-5254001aba5d"},{"uuid":"","type":"employee","value":"b8a23753-0f75-11e7-9aa4-00163e007053"}],"target_type":"sponsor","target_value":"!!String{\"department\":[\"${organization_2.uuid}\"],\"employee\":[]}"},{"uuid":"","approvers":[{"uuid":"","type":"login_user_department_manager","value":""},{"uuid":"","type":"department_manager","value":"${organization_3.uuid}"}],"target_type":"money","target_value":"!!String{\"symbol\":\"=&lt;\",\"unit\":\"元\",\"number\":\"199.99\"}"},{"uuid":"","approvers":[{"uuid":"","type":"department_manager","value":"${organization_3.uuid}"},{"uuid":"","type":"employee","value":"7e254521-b2e4-11e7-93d8-5254001aba5d"}],"target_type":"money","target_value":"!!String{\"symbol\":\"==\",\"unit\":\"元\",\"number\":\"200.00\"}"},{"uuid":"","approvers":[{"uuid":"","type":"login_user_department_manager","value":""},{"uuid":"","type":"department_manager","value":"${organization_3.uuid}"},{"uuid":"","type":"employee","value":"7e254521-b2e4-11e7-93d8-5254001aba5d"}],"target_type":"money","target_value":"!!String{\"symbol\":\"&gt;=\",\"unit\":\"元\",\"number\":\"200.10\"}"}]</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>[{"uuid":"95e5850a-0f75-11e7-8ff3-00163e007053","approvers":[{"uuid":"","type":"reporting_to","value":"1"},{"uuid":"","type":"reporting_to","value":"2"},{"uuid":"","type":"reporting_to","value":"3"},{"uuid":"","type":"reporting_to","value":"4"},{"uuid":"","type":"login_user_department_manager","value":""},{"uuid":"","type":"department_manager","value":"${organization_2.uuid}"},{"uuid":"","type":"employee","value":"7e254521-b2e4-11e7-93d8-5254001aba5d"}],"target_type":"","target_value":"!!String{}"},{"uuid":"","approvers":[{"uuid":"","type":"login_user_department_manager","value":""},{"uuid":"","type":"department_manager","value":"${organization_2.uuid}"},{"uuid":"","type":"employee","value":"7e254521-b2e4-11e7-93d8-5254001aba5d"}],"target_type":"sponsor","target_value":"!!String{\"department\":[\"${organization_1.uuid}\"],\"employee\":[]}"},{"uuid":"","approvers":[{"uuid":"","type":"login_user_department_manager","value":""},{"uuid":"","type":"employee","value":"7e254521-b2e4-11e7-93d8-5254001aba5d"},{"uuid":"","type":"employee","value":"b8a23753-0f75-11e7-9aa4-00163e007053"}],"target_type":"sponsor","target_value":"!!String{\"department\":[\"${organization_2.uuid}\"],\"employee\":[]}"}]</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>[{"uuid":"95e5850a-0f75-11e7-8ff3-00163e007053","approvers":[{"uuid":"","type":"reporting_to","value":"1"},{"uuid":"","type":"reporting_to","value":"2"},{"uuid":"","type":"reporting_to","value":"3"},{"uuid":"","type":"reporting_to","value":"4"},{"uuid":"","type":"login_user_department_manager","value":""},{"uuid":"","type":"department_manager","value":"${organization_2.uuid}"},{"uuid":"","type":"employee","value":"7e254521-b2e4-11e7-93d8-5254001aba5d"}],"target_type":"","target_value":"!!String{}"}]</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -734,6 +698,42 @@
   <si>
     <t>payment</t>
     <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>[{"target_value":"!!String{}","target_type":"","approvers":[{"type":"reporting_to","uuid":"","value":"1"},{"type":"reporting_to","uuid":"","value":"2"},{"type":"reporting_to","uuid":"","value":"3"},{"type":"reporting_to","uuid":"","value":"4"},{"type":"login_user_department_manager","uuid":"","value":""},{"type":"department_manager","uuid":"","value":"${organization_2.uuid}"},{"type":"employee","uuid":"","value":"7e254521-b2e4-11e7-93d8-5254001aba5d"}],"uuid":"932edd34-c05f-11e7-8d35-5254001aba5d"},{"target_value":"!!String{\"department\":[\"${organization_1.uuid}\"],\"employee\":[]}","target_type":"sponsor","approvers":[{"type":"login_user_department_manager","uuid":"","value":""},{"type":"department_manager","uuid":"","value":"${organization_2.uuid}"},{"type":"employee","uuid":"","value":"7e254521-b2e4-11e7-93d8-5254001aba5d"}],"uuid":""},{"uuid":"","approvers":[{"uuid":"","type":"employee","value":"7e254521-b2e4-11e7-93d8-5254001aba5d"},{"uuid":"","type":"login_user_department_manager","value":""}],"target_type":"sponsor","target_value":"!!String{\"department\":[],\"employee\":[\"${Auth.employee_id}\"]}"}]</t>
+  </si>
+  <si>
+    <t>[{"target_value":"!!String{}","target_type":"","approvers":[{"type":"reporting_to","uuid":"","value":"1"},{"type":"reporting_to","uuid":"","value":"2"},{"type":"reporting_to","uuid":"","value":"3"},{"type":"reporting_to","uuid":"","value":"4"},{"type":"login_user_department_manager","uuid":"","value":""},{"type":"department_manager","uuid":"","value":"${organization_2.uuid}"},{"type":"employee","uuid":"","value":"7e254521-b2e4-11e7-93d8-5254001aba5d"}],"uuid":"95eb32c3-0f75-11e7-8ff3-00163e007053"},{"target_value":"!!String{\"department\":[\"${organization_1.uuid}\"],\"employee\":[]}","target_type":"sponsor","approvers":[{"type":"login_user_department_manager","uuid":"","value":""},{"type":"department_manager","uuid":"","value":"${organization_2.uuid}"},{"type":"employee","uuid":"","value":"7e254521-b2e4-11e7-93d8-5254001aba5d"}],"uuid":""},{"uuid":"","approvers":[{"uuid":"","type":"employee","value":"7e254521-b2e4-11e7-93d8-5254001aba5d"},{"uuid":"","type":"login_user_department_manager","value":""}],"target_type":"sponsor","target_value":"!!String{\"department\":[],\"employee\":[\"${Auth.employee_id}\"]}"}]</t>
+  </si>
+  <si>
+    <t>[{"target_value":"!!String{}","target_type":"","approvers":[{"type":"reporting_to","uuid":"","value":"1"},{"type":"reporting_to","uuid":"","value":"2"},{"type":"reporting_to","uuid":"","value":"3"},{"type":"reporting_to","uuid":"","value":"4"},{"type":"login_user_department_manager","uuid":"","value":""},{"type":"department_manager","uuid":"","value":"${organization_2.uuid}"},{"type":"employee","uuid":"","value":"7e254521-b2e4-11e7-93d8-5254001aba5d"}],"uuid":"95e7b57a-0f75-11e7-8ff3-00163e007053"},{"target_value":"!!String{\"department\":[\"${organization_1.uuid}\"],\"employee\":[]}","target_type":"sponsor","approvers":[{"type":"login_user_department_manager","uuid":"","value":""},{"type":"department_manager","uuid":"","value":"${organization_2.uuid}"},{"type":"employee","uuid":"","value":"7e254521-b2e4-11e7-93d8-5254001aba5d"}],"uuid":""},{"uuid":"","approvers":[{"uuid":"","type":"employee","value":"7e254521-b2e4-11e7-93d8-5254001aba5d"},{"uuid":"","type":"login_user_department_manager","value":""}],"target_type":"sponsor","target_value":"!!String{\"department\":[],\"employee\":[\"${Auth.employee_id}\"]}"}]</t>
+  </si>
+  <si>
+    <t>[{"target_value":"!!String{}","target_type":"","approvers":[{"type":"reporting_to","uuid":"","value":"1"},{"type":"reporting_to","uuid":"","value":"2"},{"type":"reporting_to","uuid":"","value":"3"},{"type":"reporting_to","uuid":"","value":"4"},{"type":"login_user_department_manager","uuid":"","value":""},{"type":"department_manager","uuid":"","value":"${organization_2.uuid}"},{"type":"employee","uuid":"","value":"7e254521-b2e4-11e7-93d8-5254001aba5d"}],"uuid":"95e727c9-0f75-11e7-8ff3-00163e007053"},{"target_value":"!!String{\"department\":[\"${organization_1.uuid}\"],\"employee\":[]}","target_type":"sponsor","approvers":[{"type":"login_user_department_manager","uuid":"","value":""},{"type":"department_manager","uuid":"","value":"${organization_2.uuid}"},{"type":"employee","uuid":"","value":"7e254521-b2e4-11e7-93d8-5254001aba5d"}],"uuid":""},{"uuid":"","approvers":[{"uuid":"","type":"employee","value":"7e254521-b2e4-11e7-93d8-5254001aba5d"},{"uuid":"","type":"login_user_department_manager","value":""}],"target_type":"sponsor","target_value":"!!String{\"department\":[],\"employee\":[\"${Auth.employee_id}\"]}"}]</t>
+  </si>
+  <si>
+    <t>[{"uuid":"95e3d42c-0f75-11e7-8ff3-00163e007053","approvers":[{"uuid":"","type":"reporting_to","value":"1"},{"uuid":"","type":"reporting_to","value":"2"},{"uuid":"","type":"reporting_to","value":"3"},{"uuid":"","type":"reporting_to","value":"4"},{"uuid":"","type":"login_user_department_manager","value":""},{"uuid":"","type":"department_manager","value":"${organization_2.uuid}"},{"uuid":"","type":"employee","value":"7e254521-b2e4-11e7-93d8-5254001aba5d"}],"target_type":"","target_value":"!!String{}"},{"uuid":"","approvers":[{"uuid":"","type":"login_user_department_manager","value":""},{"uuid":"","type":"department_manager","value":"${organization_2.uuid}"},{"uuid":"","type":"employee","value":"7e254521-b2e4-11e7-93d8-5254001aba5d"}],"target_type":"sponsor","target_value":"!!String{\"department\":[\"${organization_1.uuid}\"],\"employee\":[]}"},{"uuid":"","approvers":[{"uuid":"","type":"login_user_department_manager","value":""},{"uuid":"","type":"employee","value":"7e254521-b2e4-11e7-93d8-5254001aba5d"},{"uuid":"","type":"employee","value":"b8a23753-0f75-11e7-9aa4-00163e007053"}],"target_type":"sponsor","target_value":"!!String{\"department\":[],\"employee\":[\"${Auth.employee_id}\"]}"}]</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>[{"uuid":"95e3d42c-0f75-11e7-8ff3-00163e007053","approvers":[{"uuid":"","type":"reporting_to","value":"1"},{"uuid":"","type":"reporting_to","value":"2"},{"uuid":"","type":"reporting_to","value":"3"},{"uuid":"","type":"reporting_to","value":"4"},{"uuid":"","type":"login_user_department_manager","value":""},{"uuid":"","type":"department_manager","value":"${organization_2.uuid}"},{"uuid":"","type":"employee","value":"7e254521-b2e4-11e7-93d8-5254001aba5d"}],"target_type":"","target_value":"!!String{}"},{"uuid":"","approvers":[{"uuid":"","type":"login_user_department_manager","value":""},{"uuid":"","type":"department_manager","value":"${organization_2.uuid}"},{"uuid":"","type":"employee","value":"7e254521-b2e4-11e7-93d8-5254001aba5d"}],"target_type":"sponsor","target_value":"!!String{\"department\":[\"${organization_1.uuid}\"],\"employee\":[]}"},{"uuid":"","approvers":[{"uuid":"","type":"login_user_department_manager","value":""},{"uuid":"","type":"employee","value":"7e254521-b2e4-11e7-93d8-5254001aba5d"},{"uuid":"","type":"employee","value":"b8a23753-0f75-11e7-9aa4-00163e007053"}],"target_type":"sponsor","target_value":"!!String{\"department\":[],\"employee\":[\"${Auth.employee_id}\"]}"},{"uuid":"","approvers":[{"uuid":"","type":"login_user_department_manager","value":""},{"uuid":"","type":"department_manager","value":"${organization_3.uuid}"}],"target_type":"money","target_value":"!!String{\"symbol\":\"&lt;\",\"unit\":\"元\",\"number\":\"100.00\"}"},{"uuid":"","approvers":[{"uuid":"","type":"department_manager","value":"${organization_3.uuid}"},{"uuid":"","type":"employee","value":"7e254521-b2e4-11e7-93d8-5254001aba5d"}],"target_type":"money","target_value":"!!String{\"symbol\":\"==\",\"unit\":\"元\",\"number\":\"100.00\"}"},{"uuid":"","approvers":[{"uuid":"","type":"login_user_department_manager","value":""},{"uuid":"","type":"department_manager","value":"${organization_3.uuid}"},{"uuid":"","type":"employee","value":"7e254521-b2e4-11e7-93d8-5254001aba5d"}],"target_type":"money","target_value":"!!String{\"symbol\":\"&gt;\",\"unit\":\"元\",\"number\":\"100.00\"}"}]</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>[{"uuid":"95e63244-0f75-11e7-8ff3-00163e007053","approvers":[{"uuid":"","type":"reporting_to","value":"1"},{"uuid":"","type":"reporting_to","value":"2"},{"uuid":"","type":"reporting_to","value":"3"},{"uuid":"","type":"reporting_to","value":"4"},{"uuid":"","type":"login_user_department_manager","value":""},{"uuid":"","type":"department_manager","value":"${organization_2.uuid}"},{"uuid":"","type":"employee","value":"7e254521-b2e4-11e7-93d8-5254001aba5d"}],"target_type":"","target_value":"!!String{}"},{"uuid":"","approvers":[{"uuid":"","type":"login_user_department_manager","value":""},{"uuid":"","type":"department_manager","value":"${organization_2.uuid}"},{"uuid":"","type":"employee","value":"7e254521-b2e4-11e7-93d8-5254001aba5d"}],"target_type":"sponsor","target_value":"!!String{\"department\":[\"${organization_1.uuid}\"],\"employee\":[]}"},{"uuid":"","approvers":[{"uuid":"","type":"login_user_department_manager","value":""},{"uuid":"","type":"employee","value":"7e254521-b2e4-11e7-93d8-5254001aba5d"},{"uuid":"","type":"employee","value":"b8a23753-0f75-11e7-9aa4-00163e007053"}],"target_type":"sponsor","target_value":"!!String{\"department\":[],\"employee\":[\"${Auth.employee_id}\"]}"}]</t>
+  </si>
+  <si>
+    <t>[{"uuid":"95e5850a-0f75-11e7-8ff3-00163e007053","approvers":[{"uuid":"","type":"reporting_to","value":"1"},{"uuid":"","type":"reporting_to","value":"2"},{"uuid":"","type":"reporting_to","value":"3"},{"uuid":"","type":"reporting_to","value":"4"},{"uuid":"","type":"login_user_department_manager","value":""},{"uuid":"","type":"department_manager","value":"${organization_2.uuid}"},{"uuid":"","type":"employee","value":"7e254521-b2e4-11e7-93d8-5254001aba5d"}],"target_type":"","target_value":"!!String{}"},{"uuid":"","approvers":[{"uuid":"","type":"login_user_department_manager","value":""},{"uuid":"","type":"department_manager","value":"${organization_2.uuid}"},{"uuid":"","type":"employee","value":"7e254521-b2e4-11e7-93d8-5254001aba5d"}],"target_type":"sponsor","target_value":"!!String{\"department\":[\"${organization_1.uuid}\"],\"employee\":[]}"},{"uuid":"","approvers":[{"uuid":"","type":"login_user_department_manager","value":""},{"uuid":"","type":"employee","value":"7e254521-b2e4-11e7-93d8-5254001aba5d"},{"uuid":"","type":"employee","value":"b8a23753-0f75-11e7-9aa4-00163e007053"}],"target_type":"sponsor","target_value":"!!String{\"department\":[],\"employee\":[\"${Auth.employee_id}\"]}"}]</t>
+  </si>
+  <si>
+    <t>reimbursement_1</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>[{"uuid":"95e63244-0f75-11e7-8ff3-00163e007053","approvers":[{"uuid":"","type":"reporting_to","value":"1"},{"uuid":"","type":"reporting_to","value":"2"},{"uuid":"","type":"reporting_to","value":"3"},{"uuid":"","type":"reporting_to","value":"4"},{"uuid":"","type":"login_user_department_manager","value":""},{"uuid":"","type":"department_manager","value":"${organization_2.uuid}"},{"uuid":"","type":"employee","value":"7e254521-b2e4-11e7-93d8-5254001aba5d"}],"target_type":"","target_value":"!!String{}"},{"uuid":"","approvers":[{"uuid":"","type":"login_user_department_manager","value":""},{"uuid":"","type":"department_manager","value":"${organization_2.uuid}"},{"uuid":"","type":"employee","value":"7e254521-b2e4-11e7-93d8-5254001aba5d"}],"target_type":"sponsor","target_value":"!!String{\"department\":[\"${organization_1.uuid}\"],\"employee\":[]}"},{"uuid":"","approvers":[{"uuid":"","type":"login_user_department_manager","value":""},{"uuid":"","type":"employee","value":"7e254521-b2e4-11e7-93d8-5254001aba5d"},{"uuid":"","type":"employee","value":"b8a23753-0f75-11e7-9aa4-00163e007053"}],"target_type":"sponsor","target_value":"!!String{\"department\":[],\"employee\":[\"${Auth.employee_id}\"]}"},{"uuid":"","approvers":[{"uuid":"","type":"login_user_department_manager","value":""},{"uuid":"","type":"department_manager","value":"${organization_3.uuid}"}],"target_type":"money","target_value":"!!String{\"symbol\":\"&lt;=\",\"unit\":\"元\",\"number\":\"199.99\"}"},{"uuid":"","approvers":[{"uuid":"","type":"department_manager","value":"${organization_3.uuid}"},{"uuid":"","type":"employee","value":"7e254521-b2e4-11e7-93d8-5254001aba5d"}],"target_type":"money","target_value":"!!String{\"symbol\":\"==\",\"unit\":\"元\",\"number\":\"200.00\"}"},{"uuid":"","approvers":[{"uuid":"","type":"login_user_department_manager","value":""},{"uuid":"","type":"department_manager","value":"${organization_3.uuid}"},{"uuid":"","type":"employee","value":"7e254521-b2e4-11e7-93d8-5254001aba5d"}],"target_type":"money","target_value":"!!String{\"symbol\":\"&gt;=\",\"unit\":\"元\",\"number\":\"200.10\"}"}]</t>
+  </si>
+  <si>
+    <t>[{"uuid":"95e5850a-0f75-11e7-8ff3-00163e007053","approvers":[{"uuid":"","type":"reporting_to","value":"1"},{"uuid":"","type":"reporting_to","value":"2"},{"uuid":"","type":"reporting_to","value":"3"},{"uuid":"","type":"reporting_to","value":"4"},{"uuid":"","type":"login_user_department_manager","value":""},{"uuid":"","type":"department_manager","value":"${organization_2.uuid}"},{"uuid":"","type":"employee","value":"7e254521-b2e4-11e7-93d8-5254001aba5d"}],"target_type":"","target_value":"!!String{}"},{"uuid":"","approvers":[{"uuid":"","type":"login_user_department_manager","value":""},{"uuid":"","type":"department_manager","value":"${organization_2.uuid}"},{"uuid":"","type":"employee","value":"7e254521-b2e4-11e7-93d8-5254001aba5d"}],"target_type":"sponsor","target_value":"!!String{\"department\":[\"${organization_1.uuid}\"],\"employee\":[]}"},{"uuid":"","approvers":[{"uuid":"","type":"login_user_department_manager","value":""},{"uuid":"","type":"employee","value":"7e254521-b2e4-11e7-93d8-5254001aba5d"},{"uuid":"","type":"employee","value":"b8a23753-0f75-11e7-9aa4-00163e007053"}],"target_type":"sponsor","target_value":"!!String{\"department\":[],\"employee\":[\"${Auth.employee_id}\"]}"},{"uuid":"","approvers":[{"uuid":"","type":"login_user_department_manager","value":""},{"uuid":"","type":"department_manager","value":"${organization_3.uuid}"}],"target_type":"money","target_value":"!!String{\"symbol\":\"&lt;=\",\"unit\":\"元\",\"number\":\"199.99\"}"},{"uuid":"","approvers":[{"uuid":"","type":"department_manager","value":"${organization_3.uuid}"},{"uuid":"","type":"employee","value":"7e254521-b2e4-11e7-93d8-5254001aba5d"}],"target_type":"money","target_value":"!!String{\"symbol\":\"==\",\"unit\":\"元\",\"number\":\"200.00\"}"},{"uuid":"","approvers":[{"uuid":"","type":"login_user_department_manager","value":""},{"uuid":"","type":"department_manager","value":"${organization_3.uuid}"},{"uuid":"","type":"employee","value":"7e254521-b2e4-11e7-93d8-5254001aba5d"}],"target_type":"money","target_value":"!!String{\"symbol\":\"&gt;=\",\"unit\":\"元\",\"number\":\"200.10\"}"}]</t>
   </si>
 </sst>
 </file>
@@ -1183,8 +1183,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G42"/>
   <sheetViews>
-    <sheetView topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="C41" sqref="C41"/>
+    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="A40" sqref="A40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1745,7 +1745,7 @@
         <v>114</v>
       </c>
       <c r="D27" s="6" t="s">
-        <v>159</v>
+        <v>185</v>
       </c>
       <c r="E27" s="6"/>
       <c r="F27" s="6" t="s">
@@ -1766,7 +1766,7 @@
         <v>112</v>
       </c>
       <c r="D28" s="6" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="E28" s="6"/>
       <c r="F28" s="6" t="s">
@@ -1787,7 +1787,7 @@
         <v>114</v>
       </c>
       <c r="D29" s="6" t="s">
-        <v>161</v>
+        <v>186</v>
       </c>
       <c r="E29" s="6"/>
       <c r="F29" s="6" t="s">
@@ -1808,7 +1808,7 @@
         <v>112</v>
       </c>
       <c r="D30" s="6" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="E30" s="6"/>
       <c r="F30" s="6" t="s">
@@ -1829,7 +1829,7 @@
         <v>114</v>
       </c>
       <c r="D31" s="6" t="s">
-        <v>163</v>
+        <v>187</v>
       </c>
       <c r="E31" s="6"/>
       <c r="F31" s="6" t="s">
@@ -1850,7 +1850,7 @@
         <v>112</v>
       </c>
       <c r="D32" s="6" t="s">
-        <v>164</v>
+        <v>161</v>
       </c>
       <c r="E32" s="6"/>
       <c r="F32" s="6" t="s">
@@ -1871,7 +1871,7 @@
         <v>114</v>
       </c>
       <c r="D33" s="6" t="s">
-        <v>165</v>
+        <v>188</v>
       </c>
       <c r="E33" s="6"/>
       <c r="F33" s="6" t="s">
@@ -1883,16 +1883,16 @@
     </row>
     <row r="34" spans="1:7" s="8" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A34" s="8" t="s">
-        <v>168</v>
+        <v>164</v>
       </c>
       <c r="B34" s="8" t="s">
-        <v>167</v>
+        <v>163</v>
       </c>
       <c r="C34" s="8" t="s">
         <v>54</v>
       </c>
       <c r="D34" s="8" t="s">
-        <v>166</v>
+        <v>162</v>
       </c>
       <c r="F34" s="8" t="s">
         <v>18</v>
@@ -1903,16 +1903,16 @@
     </row>
     <row r="35" spans="1:7" s="8" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A35" s="8" t="s">
-        <v>169</v>
+        <v>165</v>
       </c>
       <c r="B35" s="8" t="s">
-        <v>167</v>
+        <v>163</v>
       </c>
       <c r="C35" s="8" t="s">
         <v>34</v>
       </c>
       <c r="D35" s="8" t="s">
-        <v>170</v>
+        <v>189</v>
       </c>
       <c r="F35" s="8" t="s">
         <v>107</v>
@@ -1923,36 +1923,36 @@
     </row>
     <row r="36" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A36" s="8" t="s">
-        <v>175</v>
+        <v>170</v>
       </c>
       <c r="B36" s="8" t="s">
-        <v>167</v>
+        <v>163</v>
       </c>
       <c r="C36" s="8" t="s">
         <v>114</v>
       </c>
       <c r="D36" t="s">
-        <v>176</v>
+        <v>190</v>
       </c>
       <c r="F36" s="8" t="s">
         <v>107</v>
       </c>
       <c r="G36" s="8" t="s">
-        <v>174</v>
+        <v>169</v>
       </c>
     </row>
     <row r="37" spans="1:7" s="8" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A37" s="8" t="s">
-        <v>177</v>
+        <v>193</v>
       </c>
       <c r="B37" s="8" t="s">
-        <v>180</v>
+        <v>174</v>
       </c>
       <c r="C37" s="8" t="s">
         <v>54</v>
       </c>
       <c r="D37" s="8" t="s">
-        <v>182</v>
+        <v>175</v>
       </c>
       <c r="F37" s="8" t="s">
         <v>18</v>
@@ -1963,16 +1963,16 @@
     </row>
     <row r="38" spans="1:7" s="8" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A38" s="8" t="s">
-        <v>178</v>
+        <v>172</v>
       </c>
       <c r="B38" s="8" t="s">
-        <v>180</v>
+        <v>174</v>
       </c>
       <c r="C38" s="8" t="s">
         <v>34</v>
       </c>
       <c r="D38" s="8" t="s">
-        <v>181</v>
+        <v>191</v>
       </c>
       <c r="F38" s="8" t="s">
         <v>107</v>
@@ -1983,36 +1983,36 @@
     </row>
     <row r="39" spans="1:7" s="8" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A39" s="8" t="s">
-        <v>179</v>
+        <v>173</v>
       </c>
       <c r="B39" s="8" t="s">
-        <v>180</v>
+        <v>174</v>
       </c>
       <c r="C39" s="8" t="s">
         <v>114</v>
       </c>
       <c r="D39" s="8" t="s">
-        <v>185</v>
+        <v>194</v>
       </c>
       <c r="F39" s="8" t="s">
         <v>107</v>
       </c>
       <c r="G39" s="8" t="s">
-        <v>174</v>
+        <v>109</v>
       </c>
     </row>
     <row r="40" spans="1:7" s="8" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A40" s="8" t="s">
-        <v>190</v>
+        <v>180</v>
       </c>
       <c r="B40" s="8" t="s">
-        <v>189</v>
+        <v>179</v>
       </c>
       <c r="C40" s="8" t="s">
         <v>54</v>
       </c>
       <c r="D40" s="8" t="s">
-        <v>188</v>
+        <v>178</v>
       </c>
       <c r="F40" s="8" t="s">
         <v>18</v>
@@ -2023,16 +2023,16 @@
     </row>
     <row r="41" spans="1:7" s="8" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A41" s="8" t="s">
-        <v>191</v>
+        <v>181</v>
       </c>
       <c r="B41" s="8" t="s">
-        <v>189</v>
+        <v>179</v>
       </c>
       <c r="C41" s="8" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="8" t="s">
-        <v>187</v>
+        <v>192</v>
       </c>
       <c r="F41" s="8" t="s">
         <v>107</v>
@@ -2043,22 +2043,22 @@
     </row>
     <row r="42" spans="1:7" s="8" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A42" s="8" t="s">
-        <v>192</v>
+        <v>182</v>
       </c>
       <c r="B42" s="8" t="s">
-        <v>189</v>
+        <v>179</v>
       </c>
       <c r="C42" s="8" t="s">
         <v>114</v>
       </c>
       <c r="D42" s="8" t="s">
-        <v>186</v>
+        <v>195</v>
       </c>
       <c r="F42" s="8" t="s">
         <v>107</v>
       </c>
       <c r="G42" s="8" t="s">
-        <v>174</v>
+        <v>109</v>
       </c>
     </row>
   </sheetData>
@@ -2072,8 +2072,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:O43"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
-      <selection activeCell="C30" sqref="C30"/>
+    <sheetView topLeftCell="A25" workbookViewId="0">
+      <selection activeCell="B44" sqref="B44"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -3628,7 +3628,7 @@
     </row>
     <row r="35" spans="1:15" s="8" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A35" s="8" t="s">
-        <v>168</v>
+        <v>164</v>
       </c>
       <c r="B35" s="8" t="s">
         <v>29</v>
@@ -3646,7 +3646,7 @@
         <v>17</v>
       </c>
       <c r="G35" s="8" t="s">
-        <v>167</v>
+        <v>163</v>
       </c>
       <c r="H35" s="8" t="s">
         <v>30</v>
@@ -3661,13 +3661,13 @@
         <v>31</v>
       </c>
       <c r="L35" s="8" t="s">
-        <v>171</v>
+        <v>166</v>
       </c>
       <c r="M35" s="8" t="s">
-        <v>173</v>
+        <v>168</v>
       </c>
       <c r="N35" s="8" t="s">
-        <v>172</v>
+        <v>167</v>
       </c>
       <c r="O35" s="8" t="s">
         <v>32</v>
@@ -3675,7 +3675,7 @@
     </row>
     <row r="36" spans="1:15" s="8" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A36" s="8" t="s">
-        <v>169</v>
+        <v>165</v>
       </c>
       <c r="B36" s="8" t="s">
         <v>29</v>
@@ -3693,7 +3693,7 @@
         <v>17</v>
       </c>
       <c r="G36" s="8" t="s">
-        <v>167</v>
+        <v>163</v>
       </c>
       <c r="H36" s="8" t="s">
         <v>30</v>
@@ -3708,13 +3708,13 @@
         <v>31</v>
       </c>
       <c r="L36" s="8" t="s">
-        <v>171</v>
+        <v>166</v>
       </c>
       <c r="M36" s="8" t="s">
-        <v>173</v>
+        <v>168</v>
       </c>
       <c r="N36" s="8" t="s">
-        <v>172</v>
+        <v>167</v>
       </c>
       <c r="O36" s="8" t="s">
         <v>32</v>
@@ -3722,7 +3722,7 @@
     </row>
     <row r="37" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A37" s="8" t="s">
-        <v>175</v>
+        <v>170</v>
       </c>
       <c r="B37" s="8" t="s">
         <v>29</v>
@@ -3740,13 +3740,13 @@
         <v>17</v>
       </c>
       <c r="G37" s="8" t="s">
-        <v>167</v>
+        <v>163</v>
       </c>
       <c r="H37" s="8" t="s">
         <v>30</v>
       </c>
       <c r="I37" s="8" t="s">
-        <v>174</v>
+        <v>169</v>
       </c>
       <c r="J37" s="8" t="s">
         <v>114</v>
@@ -3755,13 +3755,13 @@
         <v>31</v>
       </c>
       <c r="L37" s="8" t="s">
-        <v>171</v>
+        <v>166</v>
       </c>
       <c r="M37" s="8" t="s">
-        <v>173</v>
+        <v>168</v>
       </c>
       <c r="N37" s="8" t="s">
-        <v>172</v>
+        <v>167</v>
       </c>
       <c r="O37" s="8" t="s">
         <v>32</v>
@@ -3769,7 +3769,7 @@
     </row>
     <row r="38" spans="1:15" s="8" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A38" s="8" t="s">
-        <v>177</v>
+        <v>171</v>
       </c>
       <c r="B38" s="8" t="s">
         <v>29</v>
@@ -3787,7 +3787,7 @@
         <v>17</v>
       </c>
       <c r="G38" s="8" t="s">
-        <v>180</v>
+        <v>174</v>
       </c>
       <c r="H38" s="8" t="s">
         <v>30</v>
@@ -3802,13 +3802,13 @@
         <v>31</v>
       </c>
       <c r="L38" s="8" t="s">
-        <v>184</v>
+        <v>177</v>
       </c>
       <c r="M38" s="8" t="s">
-        <v>173</v>
+        <v>168</v>
       </c>
       <c r="N38" s="8" t="s">
-        <v>183</v>
+        <v>176</v>
       </c>
       <c r="O38" s="8" t="s">
         <v>32</v>
@@ -3816,7 +3816,7 @@
     </row>
     <row r="39" spans="1:15" s="8" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A39" s="8" t="s">
-        <v>178</v>
+        <v>172</v>
       </c>
       <c r="B39" s="8" t="s">
         <v>29</v>
@@ -3834,7 +3834,7 @@
         <v>17</v>
       </c>
       <c r="G39" s="8" t="s">
-        <v>180</v>
+        <v>174</v>
       </c>
       <c r="H39" s="8" t="s">
         <v>30</v>
@@ -3849,13 +3849,13 @@
         <v>31</v>
       </c>
       <c r="L39" s="8" t="s">
-        <v>184</v>
+        <v>177</v>
       </c>
       <c r="M39" s="8" t="s">
-        <v>173</v>
+        <v>168</v>
       </c>
       <c r="N39" s="8" t="s">
-        <v>183</v>
+        <v>176</v>
       </c>
       <c r="O39" s="8" t="s">
         <v>32</v>
@@ -3863,7 +3863,7 @@
     </row>
     <row r="40" spans="1:15" s="8" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A40" s="8" t="s">
-        <v>179</v>
+        <v>173</v>
       </c>
       <c r="B40" s="8" t="s">
         <v>29</v>
@@ -3881,13 +3881,13 @@
         <v>17</v>
       </c>
       <c r="G40" s="8" t="s">
-        <v>180</v>
+        <v>174</v>
       </c>
       <c r="H40" s="8" t="s">
         <v>30</v>
       </c>
       <c r="I40" s="8" t="s">
-        <v>174</v>
+        <v>169</v>
       </c>
       <c r="J40" s="8" t="s">
         <v>114</v>
@@ -3896,13 +3896,13 @@
         <v>31</v>
       </c>
       <c r="L40" s="8" t="s">
-        <v>184</v>
+        <v>177</v>
       </c>
       <c r="M40" s="8" t="s">
-        <v>173</v>
+        <v>168</v>
       </c>
       <c r="N40" s="8" t="s">
-        <v>183</v>
+        <v>176</v>
       </c>
       <c r="O40" s="8" t="s">
         <v>32</v>
@@ -3910,7 +3910,7 @@
     </row>
     <row r="41" spans="1:15" s="8" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A41" s="8" t="s">
-        <v>190</v>
+        <v>180</v>
       </c>
       <c r="B41" s="8" t="s">
         <v>29</v>
@@ -3928,7 +3928,7 @@
         <v>17</v>
       </c>
       <c r="G41" s="8" t="s">
-        <v>189</v>
+        <v>179</v>
       </c>
       <c r="H41" s="8" t="s">
         <v>30</v>
@@ -3943,13 +3943,13 @@
         <v>31</v>
       </c>
       <c r="L41" s="8" t="s">
-        <v>193</v>
+        <v>183</v>
       </c>
       <c r="M41" s="8" t="s">
-        <v>173</v>
+        <v>168</v>
       </c>
       <c r="N41" s="8" t="s">
-        <v>194</v>
+        <v>184</v>
       </c>
       <c r="O41" s="8" t="s">
         <v>32</v>
@@ -3957,7 +3957,7 @@
     </row>
     <row r="42" spans="1:15" s="8" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A42" s="8" t="s">
-        <v>191</v>
+        <v>181</v>
       </c>
       <c r="B42" s="8" t="s">
         <v>29</v>
@@ -3975,7 +3975,7 @@
         <v>17</v>
       </c>
       <c r="G42" s="8" t="s">
-        <v>189</v>
+        <v>179</v>
       </c>
       <c r="H42" s="8" t="s">
         <v>30</v>
@@ -3990,13 +3990,13 @@
         <v>31</v>
       </c>
       <c r="L42" s="8" t="s">
-        <v>193</v>
+        <v>183</v>
       </c>
       <c r="M42" s="8" t="s">
-        <v>173</v>
+        <v>168</v>
       </c>
       <c r="N42" s="8" t="s">
-        <v>194</v>
+        <v>184</v>
       </c>
       <c r="O42" s="8" t="s">
         <v>32</v>
@@ -4004,7 +4004,7 @@
     </row>
     <row r="43" spans="1:15" s="8" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A43" s="8" t="s">
-        <v>192</v>
+        <v>182</v>
       </c>
       <c r="B43" s="8" t="s">
         <v>29</v>
@@ -4022,13 +4022,13 @@
         <v>17</v>
       </c>
       <c r="G43" s="8" t="s">
-        <v>189</v>
+        <v>179</v>
       </c>
       <c r="H43" s="8" t="s">
         <v>30</v>
       </c>
       <c r="I43" s="8" t="s">
-        <v>174</v>
+        <v>169</v>
       </c>
       <c r="J43" s="8" t="s">
         <v>114</v>
@@ -4037,13 +4037,13 @@
         <v>31</v>
       </c>
       <c r="L43" s="8" t="s">
-        <v>193</v>
+        <v>183</v>
       </c>
       <c r="M43" s="8" t="s">
-        <v>173</v>
+        <v>168</v>
       </c>
       <c r="N43" s="8" t="s">
-        <v>194</v>
+        <v>184</v>
       </c>
       <c r="O43" s="8" t="s">
         <v>32</v>

--- a/sources/case/ApprovalTypes.xlsx
+++ b/sources/case/ApprovalTypes.xlsx
@@ -1,8 +1,8 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="18625"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sam\git\QiFeiApi\sources\case\"/>
@@ -593,15 +593,6 @@
     <t>[{"target_value":"!!String{}","target_type":"","approvers":[{"type":"reporting_to","uuid":"","value":"1"},{"type":"reporting_to","uuid":"","value":"2"},{"type":"reporting_to","uuid":"","value":"3"},{"type":"reporting_to","uuid":"","value":"4"},{"type":"login_user_department_manager","uuid":"","value":""},{"type":"department_manager","uuid":"","value":"${organization_2.uuid}"},{"type":"employee","uuid":"","value":"7e254521-b2e4-11e7-93d8-5254001aba5d"}],"uuid":"95e04b46-0f75-11e7-8ff3-00163e007053"},{"target_value":"!!String{\"department\":[\"${organization_1.uuid}\"],\"employee\":[]}","target_type":"sponsor","approvers":[{"type":"login_user_department_manager","uuid":"","value":""},{"type":"department_manager","uuid":"","value":"${organization_2.uuid}"},{"type":"employee","uuid":"","value":"7e254521-b2e4-11e7-93d8-5254001aba5d"}],"uuid":""},{"uuid":"","approvers":[{"uuid":"","type":"login_user_department_manager","value":""}],"target_type":"duration","target_value":"!!String{\"symbol\":\"&lt;\",\"unit\":\"m\",\"number\":\"60\"}"},{"uuid":"","approvers":[{"uuid":"","type":"login_user_department_manager","value":""},{"uuid":"","type":"department_manager","value":"${organization_1.uuid}"}],"target_type":"duration","target_value":"!!String{\"symbol\":\"==\",\"unit\":\"m\",\"number\":\"60\"}"},{"uuid":"","approvers":[{"uuid":"","type":"login_user_department_manager","value":""},{"uuid":"","type":"department_manager","value":"${organization_1.uuid}"}],"target_type":"duration","target_value":"!!String{\"symbol\":\"==\",\"unit\":\"d\",\"number\":\"5\"}"},{"uuid":"","approvers":[{"uuid":"","type":"login_user_department_manager","value":""},{"uuid":"","type":"department_manager","value":"${organization_1.uuid}"},{"uuid":"","type":"employee","value":"7e254521-b2e4-11e7-93d8-5254001aba5d"}],"target_type":"duration","target_value":"!!String{\"symbol\":\"&gt;\",\"unit\":\"d\",\"number\":\"5\"}"}]</t>
   </si>
   <si>
-    <t>[{"target_value":"!!String{}","target_type":"","approvers":[{"type":"reporting_to","uuid":"","value":"1"},{"type":"reporting_to","uuid":"","value":"2"},{"type":"reporting_to","uuid":"","value":"3"},{"type":"reporting_to","uuid":"","value":"4"},{"type":"login_user_department_manager","uuid":"","value":""},{"type":"department_manager","uuid":"","value":"${organization_2.uuid}"},{"type":"employee","uuid":"","value":"7e254521-b2e4-11e7-93d8-5254001aba5d"}],"uuid":"418cc2c7-c1e6-11e7-8d35-5254001aba5d"}]</t>
-  </si>
-  <si>
-    <t>[{"target_value":"!!String{}","target_type":"","approvers":[{"type":"reporting_to","uuid":"","value":"1"},{"type":"reporting_to","uuid":"","value":"2"},{"type":"reporting_to","uuid":"","value":"3"},{"type":"reporting_to","uuid":"","value":"4"},{"type":"login_user_department_manager","uuid":"","value":""},{"type":"department_manager","uuid":"","value":"${organization_2.uuid}"},{"type":"employee","uuid":"","value":"7e254521-b2e4-11e7-93d8-5254001aba5d"}],"uuid":"418cc2c7-c1e6-11e7-8d35-5254001aba5d"},{"target_value":"!!String{\"department\":[\"${organization_1.uuid}\"],\"employee\":[]}","target_type":"sponsor","approvers":[{"type":"login_user_department_manager","uuid":"","value":""},{"type":"department_manager","uuid":"","value":"${organization_2.uuid}"},{"type":"employee","uuid":"","value":"7e254521-b2e4-11e7-93d8-5254001aba5d"}],"uuid":""}]</t>
-  </si>
-  <si>
-    <t>[{"target_value":"!!String{}","target_type":"","approvers":[{"type":"reporting_to","uuid":"","value":"1"},{"type":"reporting_to","uuid":"","value":"2"},{"type":"reporting_to","uuid":"","value":"3"},{"type":"reporting_to","uuid":"","value":"4"},{"type":"login_user_department_manager","uuid":"","value":""},{"type":"department_manager","uuid":"","value":"${organization_2.uuid}"},{"type":"employee","uuid":"","value":"7e254521-b2e4-11e7-93d8-5254001aba5d"}],"uuid":"418cc2c7-c1e6-11e7-8d35-5254001aba5d"},{"target_value":"!!String{\"department\":[\"${organization_1.uuid}\"],\"employee\":[]}","target_type":"sponsor","approvers":[{"type":"login_user_department_manager","uuid":"","value":""},{"type":"department_manager","uuid":"","value":"${organization_2.uuid}"},{"type":"employee","uuid":"","value":"7e254521-b2e4-11e7-93d8-5254001aba5d"}],"uuid":""},{"uuid":"","approvers":[{"uuid":"","type":"login_user_department_manager","value":""}],"target_type":"duration","target_value":"!!String{\"symbol\":\"&lt;=\",\"unit\":\"d\",\"number\":\"4\"}"},{"uuid":"","approvers":[{"uuid":"","type":"login_user_department_manager","value":""},{"uuid":"","type":"department_manager","value":"${organization_1.uuid}"}],"target_type":"duration","target_value":"!!String{\"symbol\":\"==\",\"unit\":\"d\",\"number\":\"5\"}"},{"uuid":"","approvers":[{"uuid":"","type":"login_user_department_manager","value":""},{"uuid":"","type":"department_manager","value":"${organization_1.uuid}"},{"uuid":"","type":"employee","value":"7e254521-b2e4-11e7-93d8-5254001aba5d"}],"target_type":"duration","target_value":"!!String{\"symbol\":\"&gt;=\",\"unit\":\"d\",\"number\":\"6\"}"}]</t>
-  </si>
-  <si>
     <t>[{"target_value":"!!String{}","target_type":"","approvers":[{"type":"reporting_to","uuid":"","value":"1"},{"type":"reporting_to","uuid":"","value":"2"},{"type":"reporting_to","uuid":"","value":"3"},{"type":"reporting_to","uuid":"","value":"4"},{"type":"login_user_department_manager","uuid":"","value":""},{"type":"department_manager","uuid":"","value":"${organization_2.uuid}"},{"type":"employee","uuid":"","value":"7e254521-b2e4-11e7-93d8-5254001aba5d"}],"uuid":"932edd34-c05f-11e7-8d35-5254001aba5d"}]</t>
   </si>
   <si>
@@ -734,6 +725,15 @@
   </si>
   <si>
     <t>[{"uuid":"95e5850a-0f75-11e7-8ff3-00163e007053","approvers":[{"uuid":"","type":"reporting_to","value":"1"},{"uuid":"","type":"reporting_to","value":"2"},{"uuid":"","type":"reporting_to","value":"3"},{"uuid":"","type":"reporting_to","value":"4"},{"uuid":"","type":"login_user_department_manager","value":""},{"uuid":"","type":"department_manager","value":"${organization_2.uuid}"},{"uuid":"","type":"employee","value":"7e254521-b2e4-11e7-93d8-5254001aba5d"}],"target_type":"","target_value":"!!String{}"},{"uuid":"","approvers":[{"uuid":"","type":"login_user_department_manager","value":""},{"uuid":"","type":"department_manager","value":"${organization_2.uuid}"},{"uuid":"","type":"employee","value":"7e254521-b2e4-11e7-93d8-5254001aba5d"}],"target_type":"sponsor","target_value":"!!String{\"department\":[\"${organization_1.uuid}\"],\"employee\":[]}"},{"uuid":"","approvers":[{"uuid":"","type":"login_user_department_manager","value":""},{"uuid":"","type":"employee","value":"7e254521-b2e4-11e7-93d8-5254001aba5d"},{"uuid":"","type":"employee","value":"b8a23753-0f75-11e7-9aa4-00163e007053"}],"target_type":"sponsor","target_value":"!!String{\"department\":[],\"employee\":[\"${Auth.employee_id}\"]}"},{"uuid":"","approvers":[{"uuid":"","type":"login_user_department_manager","value":""},{"uuid":"","type":"department_manager","value":"${organization_3.uuid}"}],"target_type":"money","target_value":"!!String{\"symbol\":\"&lt;=\",\"unit\":\"元\",\"number\":\"199.99\"}"},{"uuid":"","approvers":[{"uuid":"","type":"department_manager","value":"${organization_3.uuid}"},{"uuid":"","type":"employee","value":"7e254521-b2e4-11e7-93d8-5254001aba5d"}],"target_type":"money","target_value":"!!String{\"symbol\":\"==\",\"unit\":\"元\",\"number\":\"200.00\"}"},{"uuid":"","approvers":[{"uuid":"","type":"login_user_department_manager","value":""},{"uuid":"","type":"department_manager","value":"${organization_3.uuid}"},{"uuid":"","type":"employee","value":"7e254521-b2e4-11e7-93d8-5254001aba5d"}],"target_type":"money","target_value":"!!String{\"symbol\":\"&gt;=\",\"unit\":\"元\",\"number\":\"200.10\"}"}]</t>
+  </si>
+  <si>
+    <t>[{"target_value":"!!String{}","target_type":"","approvers":[{"type":"reporting_to","uuid":"","value":"1"},{"type":"reporting_to","uuid":"","value":"2"},{"type":"reporting_to","uuid":"","value":"3"},{"type":"reporting_to","uuid":"","value":"4"},{"type":"login_user_department_manager","uuid":"","value":""},{"type":"department_manager","uuid":"","value":"${organization_2.uuid}"},{"type":"employee","uuid":"","value":"7e254521-b2e4-11e7-93d8-5254001aba5d"}],"uuid":"43dece2e-c3d1-11e7-8d35-5254001aba5d"}]</t>
+  </si>
+  <si>
+    <t>[{"target_value":"!!String{}","target_type":"","approvers":[{"type":"reporting_to","uuid":"","value":"1"},{"type":"reporting_to","uuid":"","value":"2"},{"type":"reporting_to","uuid":"","value":"3"},{"type":"reporting_to","uuid":"","value":"4"},{"type":"login_user_department_manager","uuid":"","value":""},{"type":"department_manager","uuid":"","value":"${organization_2.uuid}"},{"type":"employee","uuid":"","value":"7e254521-b2e4-11e7-93d8-5254001aba5d"}],"uuid":"43dece2e-c3d1-11e7-8d35-5254001aba5d"},{"target_value":"!!String{\"department\":[\"${organization_1.uuid}\"],\"employee\":[]}","target_type":"sponsor","approvers":[{"type":"login_user_department_manager","uuid":"","value":""},{"type":"department_manager","uuid":"","value":"${organization_2.uuid}"},{"type":"employee","uuid":"","value":"7e254521-b2e4-11e7-93d8-5254001aba5d"}],"uuid":""}]</t>
+  </si>
+  <si>
+    <t>[{"target_value":"!!String{}","target_type":"","approvers":[{"type":"reporting_to","uuid":"","value":"1"},{"type":"reporting_to","uuid":"","value":"2"},{"type":"reporting_to","uuid":"","value":"3"},{"type":"reporting_to","uuid":"","value":"4"},{"type":"login_user_department_manager","uuid":"","value":""},{"type":"department_manager","uuid":"","value":"${organization_2.uuid}"},{"type":"employee","uuid":"","value":"7e254521-b2e4-11e7-93d8-5254001aba5d"}],"uuid":"43dece2e-c3d1-11e7-8d35-5254001aba5d"},{"target_value":"!!String{\"department\":[\"${organization_1.uuid}\"],\"employee\":[]}","target_type":"sponsor","approvers":[{"type":"login_user_department_manager","uuid":"","value":""},{"type":"department_manager","uuid":"","value":"${organization_2.uuid}"},{"type":"employee","uuid":"","value":"7e254521-b2e4-11e7-93d8-5254001aba5d"}],"uuid":""},{"uuid":"","approvers":[{"uuid":"","type":"login_user_department_manager","value":""}],"target_type":"duration","target_value":"!!String{\"symbol\":\"&lt;=\",\"unit\":\"d\",\"number\":\"4\"}"},{"uuid":"","approvers":[{"uuid":"","type":"login_user_department_manager","value":""},{"uuid":"","type":"department_manager","value":"${organization_1.uuid}"}],"target_type":"duration","target_value":"!!String{\"symbol\":\"==\",\"unit\":\"d\",\"number\":\"5\"}"},{"uuid":"","approvers":[{"uuid":"","type":"login_user_department_manager","value":""},{"uuid":"","type":"department_manager","value":"${organization_1.uuid}"},{"uuid":"","type":"employee","value":"7e254521-b2e4-11e7-93d8-5254001aba5d"}],"target_type":"duration","target_value":"!!String{\"symbol\":\"&gt;=\",\"unit\":\"d\",\"number\":\"6\"}"}]</t>
   </si>
 </sst>
 </file>
@@ -1184,7 +1184,7 @@
   <dimension ref="A1:G42"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="A40" sqref="A40"/>
+      <selection activeCell="C34" sqref="C34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1664,7 +1664,7 @@
         <v>54</v>
       </c>
       <c r="D23" t="s">
-        <v>155</v>
+        <v>193</v>
       </c>
       <c r="F23" t="s">
         <v>18</v>
@@ -1684,7 +1684,7 @@
         <v>53</v>
       </c>
       <c r="D24" t="s">
-        <v>156</v>
+        <v>194</v>
       </c>
       <c r="F24" t="s">
         <v>107</v>
@@ -1704,7 +1704,7 @@
         <v>53</v>
       </c>
       <c r="D25" t="s">
-        <v>157</v>
+        <v>195</v>
       </c>
       <c r="F25" t="s">
         <v>107</v>
@@ -1724,7 +1724,7 @@
         <v>112</v>
       </c>
       <c r="D26" s="6" t="s">
-        <v>158</v>
+        <v>155</v>
       </c>
       <c r="E26" s="6"/>
       <c r="F26" s="6" t="s">
@@ -1745,7 +1745,7 @@
         <v>114</v>
       </c>
       <c r="D27" s="6" t="s">
-        <v>185</v>
+        <v>182</v>
       </c>
       <c r="E27" s="6"/>
       <c r="F27" s="6" t="s">
@@ -1766,7 +1766,7 @@
         <v>112</v>
       </c>
       <c r="D28" s="6" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
       <c r="E28" s="6"/>
       <c r="F28" s="6" t="s">
@@ -1787,7 +1787,7 @@
         <v>114</v>
       </c>
       <c r="D29" s="6" t="s">
-        <v>186</v>
+        <v>183</v>
       </c>
       <c r="E29" s="6"/>
       <c r="F29" s="6" t="s">
@@ -1808,7 +1808,7 @@
         <v>112</v>
       </c>
       <c r="D30" s="6" t="s">
-        <v>160</v>
+        <v>157</v>
       </c>
       <c r="E30" s="6"/>
       <c r="F30" s="6" t="s">
@@ -1829,7 +1829,7 @@
         <v>114</v>
       </c>
       <c r="D31" s="6" t="s">
-        <v>187</v>
+        <v>184</v>
       </c>
       <c r="E31" s="6"/>
       <c r="F31" s="6" t="s">
@@ -1850,7 +1850,7 @@
         <v>112</v>
       </c>
       <c r="D32" s="6" t="s">
-        <v>161</v>
+        <v>158</v>
       </c>
       <c r="E32" s="6"/>
       <c r="F32" s="6" t="s">
@@ -1871,7 +1871,7 @@
         <v>114</v>
       </c>
       <c r="D33" s="6" t="s">
-        <v>188</v>
+        <v>185</v>
       </c>
       <c r="E33" s="6"/>
       <c r="F33" s="6" t="s">
@@ -1883,16 +1883,16 @@
     </row>
     <row r="34" spans="1:7" s="8" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A34" s="8" t="s">
-        <v>164</v>
+        <v>161</v>
       </c>
       <c r="B34" s="8" t="s">
-        <v>163</v>
+        <v>160</v>
       </c>
       <c r="C34" s="8" t="s">
         <v>54</v>
       </c>
       <c r="D34" s="8" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
       <c r="F34" s="8" t="s">
         <v>18</v>
@@ -1903,16 +1903,16 @@
     </row>
     <row r="35" spans="1:7" s="8" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A35" s="8" t="s">
-        <v>165</v>
+        <v>162</v>
       </c>
       <c r="B35" s="8" t="s">
-        <v>163</v>
+        <v>160</v>
       </c>
       <c r="C35" s="8" t="s">
         <v>34</v>
       </c>
       <c r="D35" s="8" t="s">
-        <v>189</v>
+        <v>186</v>
       </c>
       <c r="F35" s="8" t="s">
         <v>107</v>
@@ -1923,36 +1923,36 @@
     </row>
     <row r="36" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A36" s="8" t="s">
-        <v>170</v>
+        <v>167</v>
       </c>
       <c r="B36" s="8" t="s">
-        <v>163</v>
+        <v>160</v>
       </c>
       <c r="C36" s="8" t="s">
         <v>114</v>
       </c>
       <c r="D36" t="s">
-        <v>190</v>
+        <v>187</v>
       </c>
       <c r="F36" s="8" t="s">
         <v>107</v>
       </c>
       <c r="G36" s="8" t="s">
-        <v>169</v>
+        <v>166</v>
       </c>
     </row>
     <row r="37" spans="1:7" s="8" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A37" s="8" t="s">
-        <v>193</v>
+        <v>190</v>
       </c>
       <c r="B37" s="8" t="s">
-        <v>174</v>
+        <v>171</v>
       </c>
       <c r="C37" s="8" t="s">
         <v>54</v>
       </c>
       <c r="D37" s="8" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
       <c r="F37" s="8" t="s">
         <v>18</v>
@@ -1963,16 +1963,16 @@
     </row>
     <row r="38" spans="1:7" s="8" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A38" s="8" t="s">
-        <v>172</v>
+        <v>169</v>
       </c>
       <c r="B38" s="8" t="s">
-        <v>174</v>
+        <v>171</v>
       </c>
       <c r="C38" s="8" t="s">
         <v>34</v>
       </c>
       <c r="D38" s="8" t="s">
-        <v>191</v>
+        <v>188</v>
       </c>
       <c r="F38" s="8" t="s">
         <v>107</v>
@@ -1983,16 +1983,16 @@
     </row>
     <row r="39" spans="1:7" s="8" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A39" s="8" t="s">
-        <v>173</v>
+        <v>170</v>
       </c>
       <c r="B39" s="8" t="s">
-        <v>174</v>
+        <v>171</v>
       </c>
       <c r="C39" s="8" t="s">
         <v>114</v>
       </c>
       <c r="D39" s="8" t="s">
-        <v>194</v>
+        <v>191</v>
       </c>
       <c r="F39" s="8" t="s">
         <v>107</v>
@@ -2003,16 +2003,16 @@
     </row>
     <row r="40" spans="1:7" s="8" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A40" s="8" t="s">
-        <v>180</v>
+        <v>177</v>
       </c>
       <c r="B40" s="8" t="s">
-        <v>179</v>
+        <v>176</v>
       </c>
       <c r="C40" s="8" t="s">
         <v>54</v>
       </c>
       <c r="D40" s="8" t="s">
-        <v>178</v>
+        <v>175</v>
       </c>
       <c r="F40" s="8" t="s">
         <v>18</v>
@@ -2023,16 +2023,16 @@
     </row>
     <row r="41" spans="1:7" s="8" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A41" s="8" t="s">
-        <v>181</v>
+        <v>178</v>
       </c>
       <c r="B41" s="8" t="s">
-        <v>179</v>
+        <v>176</v>
       </c>
       <c r="C41" s="8" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="8" t="s">
-        <v>192</v>
+        <v>189</v>
       </c>
       <c r="F41" s="8" t="s">
         <v>107</v>
@@ -2043,16 +2043,16 @@
     </row>
     <row r="42" spans="1:7" s="8" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A42" s="8" t="s">
-        <v>182</v>
+        <v>179</v>
       </c>
       <c r="B42" s="8" t="s">
-        <v>179</v>
+        <v>176</v>
       </c>
       <c r="C42" s="8" t="s">
         <v>114</v>
       </c>
       <c r="D42" s="8" t="s">
-        <v>195</v>
+        <v>192</v>
       </c>
       <c r="F42" s="8" t="s">
         <v>107</v>
@@ -3628,7 +3628,7 @@
     </row>
     <row r="35" spans="1:15" s="8" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A35" s="8" t="s">
-        <v>164</v>
+        <v>161</v>
       </c>
       <c r="B35" s="8" t="s">
         <v>29</v>
@@ -3646,7 +3646,7 @@
         <v>17</v>
       </c>
       <c r="G35" s="8" t="s">
-        <v>163</v>
+        <v>160</v>
       </c>
       <c r="H35" s="8" t="s">
         <v>30</v>
@@ -3661,13 +3661,13 @@
         <v>31</v>
       </c>
       <c r="L35" s="8" t="s">
-        <v>166</v>
+        <v>163</v>
       </c>
       <c r="M35" s="8" t="s">
-        <v>168</v>
+        <v>165</v>
       </c>
       <c r="N35" s="8" t="s">
-        <v>167</v>
+        <v>164</v>
       </c>
       <c r="O35" s="8" t="s">
         <v>32</v>
@@ -3675,7 +3675,7 @@
     </row>
     <row r="36" spans="1:15" s="8" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A36" s="8" t="s">
-        <v>165</v>
+        <v>162</v>
       </c>
       <c r="B36" s="8" t="s">
         <v>29</v>
@@ -3693,7 +3693,7 @@
         <v>17</v>
       </c>
       <c r="G36" s="8" t="s">
-        <v>163</v>
+        <v>160</v>
       </c>
       <c r="H36" s="8" t="s">
         <v>30</v>
@@ -3708,13 +3708,13 @@
         <v>31</v>
       </c>
       <c r="L36" s="8" t="s">
-        <v>166</v>
+        <v>163</v>
       </c>
       <c r="M36" s="8" t="s">
-        <v>168</v>
+        <v>165</v>
       </c>
       <c r="N36" s="8" t="s">
-        <v>167</v>
+        <v>164</v>
       </c>
       <c r="O36" s="8" t="s">
         <v>32</v>
@@ -3722,7 +3722,7 @@
     </row>
     <row r="37" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A37" s="8" t="s">
-        <v>170</v>
+        <v>167</v>
       </c>
       <c r="B37" s="8" t="s">
         <v>29</v>
@@ -3740,13 +3740,13 @@
         <v>17</v>
       </c>
       <c r="G37" s="8" t="s">
-        <v>163</v>
+        <v>160</v>
       </c>
       <c r="H37" s="8" t="s">
         <v>30</v>
       </c>
       <c r="I37" s="8" t="s">
-        <v>169</v>
+        <v>166</v>
       </c>
       <c r="J37" s="8" t="s">
         <v>114</v>
@@ -3755,13 +3755,13 @@
         <v>31</v>
       </c>
       <c r="L37" s="8" t="s">
-        <v>166</v>
+        <v>163</v>
       </c>
       <c r="M37" s="8" t="s">
-        <v>168</v>
+        <v>165</v>
       </c>
       <c r="N37" s="8" t="s">
-        <v>167</v>
+        <v>164</v>
       </c>
       <c r="O37" s="8" t="s">
         <v>32</v>
@@ -3769,7 +3769,7 @@
     </row>
     <row r="38" spans="1:15" s="8" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A38" s="8" t="s">
-        <v>171</v>
+        <v>168</v>
       </c>
       <c r="B38" s="8" t="s">
         <v>29</v>
@@ -3787,7 +3787,7 @@
         <v>17</v>
       </c>
       <c r="G38" s="8" t="s">
-        <v>174</v>
+        <v>171</v>
       </c>
       <c r="H38" s="8" t="s">
         <v>30</v>
@@ -3802,13 +3802,13 @@
         <v>31</v>
       </c>
       <c r="L38" s="8" t="s">
-        <v>177</v>
+        <v>174</v>
       </c>
       <c r="M38" s="8" t="s">
-        <v>168</v>
+        <v>165</v>
       </c>
       <c r="N38" s="8" t="s">
-        <v>176</v>
+        <v>173</v>
       </c>
       <c r="O38" s="8" t="s">
         <v>32</v>
@@ -3816,7 +3816,7 @@
     </row>
     <row r="39" spans="1:15" s="8" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A39" s="8" t="s">
-        <v>172</v>
+        <v>169</v>
       </c>
       <c r="B39" s="8" t="s">
         <v>29</v>
@@ -3834,7 +3834,7 @@
         <v>17</v>
       </c>
       <c r="G39" s="8" t="s">
-        <v>174</v>
+        <v>171</v>
       </c>
       <c r="H39" s="8" t="s">
         <v>30</v>
@@ -3849,13 +3849,13 @@
         <v>31</v>
       </c>
       <c r="L39" s="8" t="s">
-        <v>177</v>
+        <v>174</v>
       </c>
       <c r="M39" s="8" t="s">
-        <v>168</v>
+        <v>165</v>
       </c>
       <c r="N39" s="8" t="s">
-        <v>176</v>
+        <v>173</v>
       </c>
       <c r="O39" s="8" t="s">
         <v>32</v>
@@ -3863,7 +3863,7 @@
     </row>
     <row r="40" spans="1:15" s="8" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A40" s="8" t="s">
-        <v>173</v>
+        <v>170</v>
       </c>
       <c r="B40" s="8" t="s">
         <v>29</v>
@@ -3881,13 +3881,13 @@
         <v>17</v>
       </c>
       <c r="G40" s="8" t="s">
-        <v>174</v>
+        <v>171</v>
       </c>
       <c r="H40" s="8" t="s">
         <v>30</v>
       </c>
       <c r="I40" s="8" t="s">
-        <v>169</v>
+        <v>166</v>
       </c>
       <c r="J40" s="8" t="s">
         <v>114</v>
@@ -3896,13 +3896,13 @@
         <v>31</v>
       </c>
       <c r="L40" s="8" t="s">
-        <v>177</v>
+        <v>174</v>
       </c>
       <c r="M40" s="8" t="s">
-        <v>168</v>
+        <v>165</v>
       </c>
       <c r="N40" s="8" t="s">
-        <v>176</v>
+        <v>173</v>
       </c>
       <c r="O40" s="8" t="s">
         <v>32</v>
@@ -3910,7 +3910,7 @@
     </row>
     <row r="41" spans="1:15" s="8" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A41" s="8" t="s">
-        <v>180</v>
+        <v>177</v>
       </c>
       <c r="B41" s="8" t="s">
         <v>29</v>
@@ -3928,7 +3928,7 @@
         <v>17</v>
       </c>
       <c r="G41" s="8" t="s">
-        <v>179</v>
+        <v>176</v>
       </c>
       <c r="H41" s="8" t="s">
         <v>30</v>
@@ -3943,13 +3943,13 @@
         <v>31</v>
       </c>
       <c r="L41" s="8" t="s">
-        <v>183</v>
+        <v>180</v>
       </c>
       <c r="M41" s="8" t="s">
-        <v>168</v>
+        <v>165</v>
       </c>
       <c r="N41" s="8" t="s">
-        <v>184</v>
+        <v>181</v>
       </c>
       <c r="O41" s="8" t="s">
         <v>32</v>
@@ -3957,7 +3957,7 @@
     </row>
     <row r="42" spans="1:15" s="8" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A42" s="8" t="s">
-        <v>181</v>
+        <v>178</v>
       </c>
       <c r="B42" s="8" t="s">
         <v>29</v>
@@ -3975,7 +3975,7 @@
         <v>17</v>
       </c>
       <c r="G42" s="8" t="s">
-        <v>179</v>
+        <v>176</v>
       </c>
       <c r="H42" s="8" t="s">
         <v>30</v>
@@ -3990,13 +3990,13 @@
         <v>31</v>
       </c>
       <c r="L42" s="8" t="s">
-        <v>183</v>
+        <v>180</v>
       </c>
       <c r="M42" s="8" t="s">
-        <v>168</v>
+        <v>165</v>
       </c>
       <c r="N42" s="8" t="s">
-        <v>184</v>
+        <v>181</v>
       </c>
       <c r="O42" s="8" t="s">
         <v>32</v>
@@ -4004,7 +4004,7 @@
     </row>
     <row r="43" spans="1:15" s="8" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A43" s="8" t="s">
-        <v>182</v>
+        <v>179</v>
       </c>
       <c r="B43" s="8" t="s">
         <v>29</v>
@@ -4022,13 +4022,13 @@
         <v>17</v>
       </c>
       <c r="G43" s="8" t="s">
-        <v>179</v>
+        <v>176</v>
       </c>
       <c r="H43" s="8" t="s">
         <v>30</v>
       </c>
       <c r="I43" s="8" t="s">
-        <v>169</v>
+        <v>166</v>
       </c>
       <c r="J43" s="8" t="s">
         <v>114</v>
@@ -4037,13 +4037,13 @@
         <v>31</v>
       </c>
       <c r="L43" s="8" t="s">
-        <v>183</v>
+        <v>180</v>
       </c>
       <c r="M43" s="8" t="s">
-        <v>168</v>
+        <v>165</v>
       </c>
       <c r="N43" s="8" t="s">
-        <v>184</v>
+        <v>181</v>
       </c>
       <c r="O43" s="8" t="s">
         <v>32</v>

--- a/sources/case/ApprovalTypes.xlsx
+++ b/sources/case/ApprovalTypes.xlsx
@@ -1,15 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="18625"/>
-  <workbookPr/>
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sam\git\QiFeiApi\sources\case\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7560" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7560"/>
   </bookViews>
   <sheets>
     <sheet name="Base" sheetId="1" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="882" uniqueCount="196">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="967" uniqueCount="213">
   <si>
     <t>API</t>
   </si>
@@ -68,10 +68,6 @@
   </si>
   <si>
     <t>type_id</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>/automation/v1/approval/types/{type_id}/op/all</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
@@ -734,6 +730,67 @@
   </si>
   <si>
     <t>[{"target_value":"!!String{}","target_type":"","approvers":[{"type":"reporting_to","uuid":"","value":"1"},{"type":"reporting_to","uuid":"","value":"2"},{"type":"reporting_to","uuid":"","value":"3"},{"type":"reporting_to","uuid":"","value":"4"},{"type":"login_user_department_manager","uuid":"","value":""},{"type":"department_manager","uuid":"","value":"${organization_2.uuid}"},{"type":"employee","uuid":"","value":"7e254521-b2e4-11e7-93d8-5254001aba5d"}],"uuid":"43dece2e-c3d1-11e7-8d35-5254001aba5d"},{"target_value":"!!String{\"department\":[\"${organization_1.uuid}\"],\"employee\":[]}","target_type":"sponsor","approvers":[{"type":"login_user_department_manager","uuid":"","value":""},{"type":"department_manager","uuid":"","value":"${organization_2.uuid}"},{"type":"employee","uuid":"","value":"7e254521-b2e4-11e7-93d8-5254001aba5d"}],"uuid":""},{"uuid":"","approvers":[{"uuid":"","type":"login_user_department_manager","value":""}],"target_type":"duration","target_value":"!!String{\"symbol\":\"&lt;=\",\"unit\":\"d\",\"number\":\"4\"}"},{"uuid":"","approvers":[{"uuid":"","type":"login_user_department_manager","value":""},{"uuid":"","type":"department_manager","value":"${organization_1.uuid}"}],"target_type":"duration","target_value":"!!String{\"symbol\":\"==\",\"unit\":\"d\",\"number\":\"5\"}"},{"uuid":"","approvers":[{"uuid":"","type":"login_user_department_manager","value":""},{"uuid":"","type":"department_manager","value":"${organization_1.uuid}"},{"uuid":"","type":"employee","value":"7e254521-b2e4-11e7-93d8-5254001aba5d"}],"target_type":"duration","target_value":"!!String{\"symbol\":\"&gt;=\",\"unit\":\"d\",\"number\":\"6\"}"}]</t>
+  </si>
+  <si>
+    <t>Leave_4</t>
+  </si>
+  <si>
+    <t>resign_4</t>
+  </si>
+  <si>
+    <t>out_4</t>
+  </si>
+  <si>
+    <t>overtime_4</t>
+  </si>
+  <si>
+    <t>trip_4</t>
+  </si>
+  <si>
+    <t>duplicate</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>95de83f6-0f75-11e7-8ff3-00163e007053</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>[{"target_value":"s{}","target_type":"","approvers":[{"type":"employee","uuid":"","value":"7e254521-b2e4-11e7-93d8-5254001aba5d"}],"uuid":"5389429f-b9f7-11e7-9997-5254001aba5d"}]</t>
+  </si>
+  <si>
+    <t>95e34c38-0f75-11e7-8ff3-00163e007053</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>duplicate</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>[{"target_value":"s{}","target_type":"","approvers":[{"type":"employee","uuid":"","value":"7e254521-b2e4-11e7-93d8-5254001aba5d"}],"uuid":"95e367b3-0f75-11e7-8ff3-00163e007053"}]</t>
+  </si>
+  <si>
+    <t>95e2aaad-0f75-11e7-8ff3-00163e007053</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>duplicate</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>[{"target_value":"s{}","target_type":"","approvers":[{"type":"employee","uuid":"","value":"7e254521-b2e4-11e7-93d8-5254001aba5d"}],"uuid":"95e2f732-0f75-11e7-8ff3-00163e007053"}]</t>
+  </si>
+  <si>
+    <t>[{"target_value":"s{}","target_type":"","approvers":[{"type":"employee","uuid":"","value":"7e254521-b2e4-11e7-93d8-5254001aba5d"}],"uuid":"95e04b46-0f75-11e7-8ff3-00163e007053"}]</t>
+  </si>
+  <si>
+    <t>95e2231d-0f75-11e7-8ff3-00163e007053</t>
+  </si>
+  <si>
+    <t>[{"target_value":"s{}","target_type":"","approvers":[{"type":"employee","uuid":"","value":"7e254521-b2e4-11e7-93d8-5254001aba5d"}],"uuid":"43dece2e-c3d1-11e7-8d35-5254001aba5d"}]</t>
+  </si>
+  <si>
+    <t>/automation/v1/approval/types/{type_id}/op/all</t>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -1118,8 +1175,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D23" sqref="D23"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E10" sqref="E10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1144,7 +1201,7 @@
         <v>2</v>
       </c>
       <c r="D1" s="4" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="E1" s="1" t="s">
         <v>3</v>
@@ -1155,7 +1212,7 @@
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A2" s="4" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B2" s="1" t="s">
         <v>7</v>
@@ -1164,10 +1221,10 @@
         <v>8</v>
       </c>
       <c r="D2" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="E2" s="3" t="s">
-        <v>13</v>
+        <v>212</v>
       </c>
       <c r="F2" s="1" t="s">
         <v>5</v>
@@ -1181,10 +1238,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G42"/>
+  <dimension ref="A1:G47"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="C34" sqref="C34"/>
+    <sheetView topLeftCell="A34" workbookViewId="0">
+      <selection activeCell="H51" sqref="H51"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1209,856 +1266,956 @@
         <v>10</v>
       </c>
       <c r="D1" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="E1" s="5" t="s">
         <v>14</v>
-      </c>
-      <c r="E1" s="5" t="s">
-        <v>15</v>
       </c>
       <c r="F1" s="5" t="s">
         <v>11</v>
       </c>
       <c r="G1" s="5" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B2" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C2" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="D2" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="F2" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="G2" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
+        <v>49</v>
+      </c>
+      <c r="B3" t="s">
         <v>50</v>
       </c>
-      <c r="B3" t="s">
-        <v>51</v>
-      </c>
       <c r="C3" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D3" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="F3" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="G3" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B4" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C4" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="D4" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="F4" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="G4" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B5" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C5" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="D5" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="F5" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="G5" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="B6" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C6" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="D6" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="E6" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="F6" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="G6" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="B7" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C7" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="D7" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="E7" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="F7" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="G7" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B8" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C8" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="D8" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="E8" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="F8" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="G8" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B9" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C9" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="D9" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="E9" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="F9" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="G9" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B10" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="C10" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="D10" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="F10" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="G10" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="B11" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="C11" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="D11" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="F11" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="G11" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="B12" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="C12" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="D12" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="F12" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="G12" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="B13" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="C13" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="D13" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="F13" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="G13" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="B14" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="C14" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="D14" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="F14" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="G14" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="B15" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="C15" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="D15" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="F15" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="G15" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="B16" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="C16" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="D16" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="F16" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="G16" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="B17" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="C17" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="D17" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="F17" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="G17" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="B18" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="C18" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="D18" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="F18" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="G18" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="B19" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="C19" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="D19" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="F19" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="G19" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="B20" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C20" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="D20" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="F20" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="G20" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="B21" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C21" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="D21" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="F21" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="G21" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="B22" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C22" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="D22" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="F22" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="G22" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="B23" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="C23" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="D23" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="F23" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="G23" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="B24" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="C24" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="D24" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="F24" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="G24" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
+        <v>105</v>
+      </c>
+      <c r="B25" t="s">
+        <v>96</v>
+      </c>
+      <c r="C25" t="s">
+        <v>52</v>
+      </c>
+      <c r="D25" t="s">
+        <v>194</v>
+      </c>
+      <c r="F25" t="s">
         <v>106</v>
       </c>
-      <c r="B25" t="s">
-        <v>97</v>
-      </c>
-      <c r="C25" t="s">
-        <v>53</v>
-      </c>
-      <c r="D25" t="s">
-        <v>195</v>
-      </c>
-      <c r="F25" t="s">
-        <v>107</v>
-      </c>
       <c r="G25" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A26" s="6" t="s">
+        <v>109</v>
+      </c>
+      <c r="B26" s="6" t="s">
         <v>110</v>
       </c>
-      <c r="B26" s="6" t="s">
+      <c r="C26" s="6" t="s">
         <v>111</v>
       </c>
-      <c r="C26" s="6" t="s">
-        <v>112</v>
-      </c>
       <c r="D26" s="6" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="E26" s="6"/>
       <c r="F26" s="6" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="G26" s="6" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="27" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A27" s="6" t="s">
+        <v>112</v>
+      </c>
+      <c r="B27" s="6" t="s">
+        <v>110</v>
+      </c>
+      <c r="C27" s="6" t="s">
         <v>113</v>
       </c>
-      <c r="B27" s="6" t="s">
-        <v>111</v>
-      </c>
-      <c r="C27" s="6" t="s">
-        <v>114</v>
-      </c>
       <c r="D27" s="6" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="E27" s="6"/>
       <c r="F27" s="6" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="G27" s="6" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="28" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A28" s="6" t="s">
+        <v>114</v>
+      </c>
+      <c r="B28" s="6" t="s">
         <v>115</v>
       </c>
-      <c r="B28" s="6" t="s">
-        <v>116</v>
-      </c>
       <c r="C28" s="6" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="D28" s="6" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="E28" s="6"/>
       <c r="F28" s="6" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="G28" s="6" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="29" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A29" s="6" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="B29" s="6" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="C29" s="6" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="D29" s="6" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="E29" s="6"/>
       <c r="F29" s="6" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="G29" s="6" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="30" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A30" s="6" t="s">
+        <v>117</v>
+      </c>
+      <c r="B30" s="6" t="s">
         <v>118</v>
       </c>
-      <c r="B30" s="6" t="s">
-        <v>119</v>
-      </c>
       <c r="C30" s="6" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="D30" s="6" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="E30" s="6"/>
       <c r="F30" s="6" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="G30" s="6" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="31" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A31" s="6" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="B31" s="6" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="C31" s="6" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="D31" s="6" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="E31" s="6"/>
       <c r="F31" s="6" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="G31" s="6" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="32" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A32" s="6" t="s">
+        <v>120</v>
+      </c>
+      <c r="B32" s="7" t="s">
         <v>121</v>
       </c>
-      <c r="B32" s="7" t="s">
-        <v>122</v>
-      </c>
       <c r="C32" s="6" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="D32" s="6" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="E32" s="6"/>
       <c r="F32" s="6" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="G32" s="6" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="33" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A33" s="6" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="B33" s="7" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="C33" s="6" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="D33" s="6" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="E33" s="6"/>
       <c r="F33" s="6" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="G33" s="6" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="34" spans="1:7" s="8" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A34" s="8" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="B34" s="8" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="C34" s="8" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="D34" s="8" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="F34" s="8" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="G34" s="8" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="35" spans="1:7" s="8" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A35" s="8" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="B35" s="8" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="C35" s="8" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D35" s="8" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="F35" s="8" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="G35" s="8" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="36" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A36" s="8" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="B36" s="8" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="C36" s="8" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="D36" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="F36" s="8" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="G36" s="8" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
     </row>
     <row r="37" spans="1:7" s="8" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A37" s="8" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="B37" s="8" t="s">
+        <v>170</v>
+      </c>
+      <c r="C37" s="8" t="s">
+        <v>53</v>
+      </c>
+      <c r="D37" s="8" t="s">
         <v>171</v>
       </c>
-      <c r="C37" s="8" t="s">
-        <v>54</v>
-      </c>
-      <c r="D37" s="8" t="s">
-        <v>172</v>
-      </c>
       <c r="F37" s="8" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="G37" s="8" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="38" spans="1:7" s="8" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A38" s="8" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="B38" s="8" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="C38" s="8" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D38" s="8" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="F38" s="8" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="G38" s="8" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="39" spans="1:7" s="8" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A39" s="8" t="s">
+        <v>169</v>
+      </c>
+      <c r="B39" s="8" t="s">
         <v>170</v>
       </c>
-      <c r="B39" s="8" t="s">
-        <v>171</v>
-      </c>
       <c r="C39" s="8" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="D39" s="8" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="F39" s="8" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="G39" s="8" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
     </row>
     <row r="40" spans="1:7" s="8" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A40" s="8" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="B40" s="8" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="C40" s="8" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="D40" s="8" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="F40" s="8" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="G40" s="8" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="41" spans="1:7" s="8" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A41" s="8" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="B41" s="8" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="C41" s="8" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D41" s="8" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="F41" s="8" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="G41" s="8" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="42" spans="1:7" s="8" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A42" s="8" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="B42" s="8" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="C42" s="8" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="D42" s="8" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="F42" s="8" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="G42" s="8" t="s">
-        <v>109</v>
+        <v>108</v>
+      </c>
+    </row>
+    <row r="43" spans="1:7" s="8" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A43" s="8" t="s">
+        <v>195</v>
+      </c>
+      <c r="B43" s="8" t="s">
+        <v>201</v>
+      </c>
+      <c r="C43" s="8" t="s">
+        <v>200</v>
+      </c>
+      <c r="D43" s="8" t="s">
+        <v>202</v>
+      </c>
+      <c r="F43" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="G43" s="8" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="44" spans="1:7" s="8" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A44" s="8" t="s">
+        <v>196</v>
+      </c>
+      <c r="B44" s="8" t="s">
+        <v>203</v>
+      </c>
+      <c r="C44" s="8" t="s">
+        <v>204</v>
+      </c>
+      <c r="D44" s="8" t="s">
+        <v>205</v>
+      </c>
+      <c r="F44" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="G44" s="8" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="45" spans="1:7" s="8" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A45" s="8" t="s">
+        <v>197</v>
+      </c>
+      <c r="B45" s="8" t="s">
+        <v>206</v>
+      </c>
+      <c r="C45" s="8" t="s">
+        <v>207</v>
+      </c>
+      <c r="D45" s="8" t="s">
+        <v>208</v>
+      </c>
+      <c r="F45" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="G45" s="8" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="46" spans="1:7" s="8" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A46" s="8" t="s">
+        <v>198</v>
+      </c>
+      <c r="B46" s="8" t="s">
+        <v>91</v>
+      </c>
+      <c r="C46" s="8" t="s">
+        <v>200</v>
+      </c>
+      <c r="D46" s="8" t="s">
+        <v>209</v>
+      </c>
+      <c r="F46" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="G46" s="8" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="47" spans="1:7" s="8" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A47" s="8" t="s">
+        <v>199</v>
+      </c>
+      <c r="B47" s="9" t="s">
+        <v>210</v>
+      </c>
+      <c r="C47" s="8" t="s">
+        <v>200</v>
+      </c>
+      <c r="D47" s="8" t="s">
+        <v>211</v>
+      </c>
+      <c r="F47" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="G47" s="8" t="s">
+        <v>32</v>
       </c>
     </row>
   </sheetData>
@@ -2070,10 +2227,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:O43"/>
+  <dimension ref="A1:O48"/>
   <sheetViews>
     <sheetView topLeftCell="A25" workbookViewId="0">
-      <selection activeCell="B44" sqref="B44"/>
+      <selection activeCell="B46" sqref="B46"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -2097,43 +2254,43 @@
         <v>6</v>
       </c>
       <c r="B1" t="s">
+        <v>18</v>
+      </c>
+      <c r="C1" t="s">
         <v>19</v>
       </c>
-      <c r="C1" t="s">
+      <c r="D1" t="s">
+        <v>14</v>
+      </c>
+      <c r="E1" t="s">
         <v>20</v>
       </c>
-      <c r="D1" t="s">
+      <c r="F1" t="s">
+        <v>21</v>
+      </c>
+      <c r="G1" t="s">
+        <v>22</v>
+      </c>
+      <c r="H1" t="s">
+        <v>23</v>
+      </c>
+      <c r="I1" t="s">
         <v>15</v>
-      </c>
-      <c r="E1" t="s">
-        <v>21</v>
-      </c>
-      <c r="F1" t="s">
-        <v>22</v>
-      </c>
-      <c r="G1" t="s">
-        <v>23</v>
-      </c>
-      <c r="H1" t="s">
-        <v>24</v>
-      </c>
-      <c r="I1" t="s">
-        <v>16</v>
       </c>
       <c r="J1" t="s">
         <v>10</v>
       </c>
       <c r="K1" t="s">
+        <v>24</v>
+      </c>
+      <c r="L1" t="s">
         <v>25</v>
       </c>
-      <c r="L1" t="s">
+      <c r="M1" t="s">
         <v>26</v>
       </c>
-      <c r="M1" t="s">
+      <c r="N1" t="s">
         <v>27</v>
-      </c>
-      <c r="N1" t="s">
-        <v>28</v>
       </c>
       <c r="O1" t="s">
         <v>9</v>
@@ -2141,1912 +2298,2087 @@
     </row>
     <row r="2" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B2" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C2" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D2" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E2" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="F2" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="G2" t="s">
+        <v>34</v>
+      </c>
+      <c r="H2" t="s">
+        <v>29</v>
+      </c>
+      <c r="I2" t="s">
+        <v>32</v>
+      </c>
+      <c r="J2" t="s">
+        <v>53</v>
+      </c>
+      <c r="K2" t="s">
+        <v>30</v>
+      </c>
+      <c r="L2" t="s">
         <v>35</v>
       </c>
-      <c r="H2" t="s">
-        <v>30</v>
-      </c>
-      <c r="I2" t="s">
-        <v>33</v>
-      </c>
-      <c r="J2" t="s">
-        <v>54</v>
-      </c>
-      <c r="K2" t="s">
-        <v>31</v>
-      </c>
-      <c r="L2" t="s">
+      <c r="M2" t="s">
         <v>36</v>
       </c>
-      <c r="M2" t="s">
+      <c r="N2" t="s">
         <v>37</v>
       </c>
-      <c r="N2" t="s">
-        <v>38</v>
-      </c>
       <c r="O2" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="3" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B3" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C3" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D3" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E3" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="F3" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="G3" t="s">
+        <v>34</v>
+      </c>
+      <c r="H3" t="s">
+        <v>29</v>
+      </c>
+      <c r="I3" t="s">
+        <v>32</v>
+      </c>
+      <c r="J3" t="s">
+        <v>33</v>
+      </c>
+      <c r="K3" t="s">
+        <v>30</v>
+      </c>
+      <c r="L3" t="s">
         <v>35</v>
       </c>
-      <c r="H3" t="s">
-        <v>30</v>
-      </c>
-      <c r="I3" t="s">
-        <v>33</v>
-      </c>
-      <c r="J3" t="s">
-        <v>34</v>
-      </c>
-      <c r="K3" t="s">
-        <v>31</v>
-      </c>
-      <c r="L3" t="s">
+      <c r="M3" t="s">
         <v>36</v>
       </c>
-      <c r="M3" t="s">
+      <c r="N3" t="s">
         <v>37</v>
       </c>
-      <c r="N3" t="s">
-        <v>38</v>
-      </c>
       <c r="O3" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="4" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B4" t="s">
+        <v>42</v>
+      </c>
+      <c r="C4" t="s">
+        <v>16</v>
+      </c>
+      <c r="D4" t="s">
+        <v>16</v>
+      </c>
+      <c r="E4" t="s">
+        <v>16</v>
+      </c>
+      <c r="F4" t="s">
+        <v>16</v>
+      </c>
+      <c r="G4" t="s">
+        <v>41</v>
+      </c>
+      <c r="H4" t="s">
+        <v>29</v>
+      </c>
+      <c r="I4" t="s">
+        <v>32</v>
+      </c>
+      <c r="J4" t="s">
+        <v>53</v>
+      </c>
+      <c r="K4" t="s">
+        <v>30</v>
+      </c>
+      <c r="L4" t="s">
         <v>43</v>
       </c>
-      <c r="C4" t="s">
-        <v>17</v>
-      </c>
-      <c r="D4" t="s">
-        <v>17</v>
-      </c>
-      <c r="E4" t="s">
-        <v>17</v>
-      </c>
-      <c r="F4" t="s">
-        <v>17</v>
-      </c>
-      <c r="G4" t="s">
-        <v>42</v>
-      </c>
-      <c r="H4" t="s">
-        <v>30</v>
-      </c>
-      <c r="I4" t="s">
-        <v>33</v>
-      </c>
-      <c r="J4" t="s">
-        <v>54</v>
-      </c>
-      <c r="K4" t="s">
-        <v>31</v>
-      </c>
-      <c r="L4" t="s">
+      <c r="M4" t="s">
+        <v>36</v>
+      </c>
+      <c r="N4" t="s">
         <v>44</v>
       </c>
-      <c r="M4" t="s">
-        <v>37</v>
-      </c>
-      <c r="N4" t="s">
-        <v>45</v>
-      </c>
       <c r="O4" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="5" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B5" t="s">
+        <v>42</v>
+      </c>
+      <c r="C5" t="s">
+        <v>16</v>
+      </c>
+      <c r="D5" t="s">
+        <v>16</v>
+      </c>
+      <c r="E5" t="s">
+        <v>16</v>
+      </c>
+      <c r="F5" t="s">
+        <v>16</v>
+      </c>
+      <c r="G5" t="s">
+        <v>41</v>
+      </c>
+      <c r="H5" t="s">
+        <v>29</v>
+      </c>
+      <c r="I5" t="s">
+        <v>32</v>
+      </c>
+      <c r="J5" t="s">
+        <v>52</v>
+      </c>
+      <c r="K5" t="s">
+        <v>30</v>
+      </c>
+      <c r="L5" t="s">
         <v>43</v>
       </c>
-      <c r="C5" t="s">
-        <v>17</v>
-      </c>
-      <c r="D5" t="s">
-        <v>17</v>
-      </c>
-      <c r="E5" t="s">
-        <v>17</v>
-      </c>
-      <c r="F5" t="s">
-        <v>17</v>
-      </c>
-      <c r="G5" t="s">
-        <v>42</v>
-      </c>
-      <c r="H5" t="s">
-        <v>30</v>
-      </c>
-      <c r="I5" t="s">
-        <v>33</v>
-      </c>
-      <c r="J5" t="s">
-        <v>53</v>
-      </c>
-      <c r="K5" t="s">
-        <v>31</v>
-      </c>
-      <c r="L5" t="s">
-        <v>44</v>
-      </c>
       <c r="M5" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="N5" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="O5" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="6" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="B6" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C6" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D6" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E6" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="F6" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="G6" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="H6" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="I6" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="J6" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="K6" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="L6" t="s">
+        <v>56</v>
+      </c>
+      <c r="M6" t="s">
+        <v>36</v>
+      </c>
+      <c r="N6" t="s">
         <v>57</v>
       </c>
-      <c r="M6" t="s">
-        <v>37</v>
-      </c>
-      <c r="N6" t="s">
-        <v>58</v>
-      </c>
       <c r="O6" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="7" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="B7" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C7" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D7" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E7" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="F7" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="G7" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="H7" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="I7" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="J7" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="K7" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="L7" t="s">
+        <v>56</v>
+      </c>
+      <c r="M7" t="s">
+        <v>36</v>
+      </c>
+      <c r="N7" t="s">
         <v>57</v>
       </c>
-      <c r="M7" t="s">
-        <v>37</v>
-      </c>
-      <c r="N7" t="s">
-        <v>58</v>
-      </c>
       <c r="O7" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="8" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B8" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C8" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D8" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E8" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="F8" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="G8" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="H8" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="I8" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="J8" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="K8" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="L8" t="s">
+        <v>56</v>
+      </c>
+      <c r="M8" t="s">
+        <v>36</v>
+      </c>
+      <c r="N8" t="s">
         <v>57</v>
       </c>
-      <c r="M8" t="s">
-        <v>37</v>
-      </c>
-      <c r="N8" t="s">
-        <v>58</v>
-      </c>
       <c r="O8" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="9" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B9" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C9" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D9" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E9" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="F9" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="G9" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="H9" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="I9" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="J9" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="K9" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="L9" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="M9" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="N9" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="O9" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="10" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B10" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C10" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D10" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E10" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="F10" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="G10" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="H10" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="I10" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="J10" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="K10" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="L10" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="M10" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="N10" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="O10" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="11" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
+        <v>69</v>
+      </c>
+      <c r="B11" t="s">
+        <v>42</v>
+      </c>
+      <c r="C11" t="s">
+        <v>16</v>
+      </c>
+      <c r="D11" t="s">
+        <v>16</v>
+      </c>
+      <c r="E11" t="s">
+        <v>16</v>
+      </c>
+      <c r="F11" t="s">
+        <v>16</v>
+      </c>
+      <c r="G11" t="s">
+        <v>67</v>
+      </c>
+      <c r="H11" t="s">
+        <v>29</v>
+      </c>
+      <c r="I11" t="s">
+        <v>32</v>
+      </c>
+      <c r="J11" t="s">
+        <v>52</v>
+      </c>
+      <c r="K11" t="s">
+        <v>30</v>
+      </c>
+      <c r="L11" t="s">
         <v>70</v>
       </c>
-      <c r="B11" t="s">
-        <v>43</v>
-      </c>
-      <c r="C11" t="s">
-        <v>17</v>
-      </c>
-      <c r="D11" t="s">
-        <v>17</v>
-      </c>
-      <c r="E11" t="s">
-        <v>17</v>
-      </c>
-      <c r="F11" t="s">
-        <v>17</v>
-      </c>
-      <c r="G11" t="s">
-        <v>68</v>
-      </c>
-      <c r="H11" t="s">
-        <v>30</v>
-      </c>
-      <c r="I11" t="s">
-        <v>33</v>
-      </c>
-      <c r="J11" t="s">
-        <v>53</v>
-      </c>
-      <c r="K11" t="s">
-        <v>31</v>
-      </c>
-      <c r="L11" t="s">
-        <v>71</v>
-      </c>
       <c r="M11" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="N11" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="O11" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="12" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
+        <v>73</v>
+      </c>
+      <c r="B12" t="s">
+        <v>42</v>
+      </c>
+      <c r="C12" t="s">
+        <v>16</v>
+      </c>
+      <c r="D12" t="s">
+        <v>16</v>
+      </c>
+      <c r="E12" t="s">
+        <v>16</v>
+      </c>
+      <c r="F12" t="s">
+        <v>16</v>
+      </c>
+      <c r="G12" t="s">
+        <v>72</v>
+      </c>
+      <c r="H12" t="s">
+        <v>29</v>
+      </c>
+      <c r="I12" t="s">
+        <v>32</v>
+      </c>
+      <c r="J12" t="s">
+        <v>53</v>
+      </c>
+      <c r="K12" t="s">
+        <v>30</v>
+      </c>
+      <c r="L12" t="s">
         <v>74</v>
       </c>
-      <c r="B12" t="s">
-        <v>43</v>
-      </c>
-      <c r="C12" t="s">
-        <v>17</v>
-      </c>
-      <c r="D12" t="s">
-        <v>17</v>
-      </c>
-      <c r="E12" t="s">
-        <v>17</v>
-      </c>
-      <c r="F12" t="s">
-        <v>17</v>
-      </c>
-      <c r="G12" t="s">
-        <v>73</v>
-      </c>
-      <c r="H12" t="s">
-        <v>30</v>
-      </c>
-      <c r="I12" t="s">
-        <v>33</v>
-      </c>
-      <c r="J12" t="s">
-        <v>54</v>
-      </c>
-      <c r="K12" t="s">
-        <v>31</v>
-      </c>
-      <c r="L12" t="s">
+      <c r="M12" t="s">
+        <v>101</v>
+      </c>
+      <c r="N12" t="s">
         <v>75</v>
       </c>
-      <c r="M12" t="s">
-        <v>102</v>
-      </c>
-      <c r="N12" t="s">
-        <v>76</v>
-      </c>
       <c r="O12" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="13" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="B13" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C13" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D13" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E13" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="F13" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="G13" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="H13" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="I13" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="J13" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="K13" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="L13" t="s">
+        <v>74</v>
+      </c>
+      <c r="M13" t="s">
+        <v>101</v>
+      </c>
+      <c r="N13" t="s">
         <v>75</v>
       </c>
-      <c r="M13" t="s">
-        <v>102</v>
-      </c>
-      <c r="N13" t="s">
-        <v>76</v>
-      </c>
       <c r="O13" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="14" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="B14" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C14" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D14" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E14" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="F14" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="G14" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="H14" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="I14" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="J14" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="K14" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="L14" t="s">
+        <v>74</v>
+      </c>
+      <c r="M14" t="s">
+        <v>101</v>
+      </c>
+      <c r="N14" t="s">
         <v>75</v>
       </c>
-      <c r="M14" t="s">
-        <v>102</v>
-      </c>
-      <c r="N14" t="s">
-        <v>76</v>
-      </c>
       <c r="O14" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="15" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="B15" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C15" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D15" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E15" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="F15" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="G15" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="H15" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="I15" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="J15" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="K15" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="L15" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="M15" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="N15" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="O15" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="16" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="B16" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C16" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D16" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E16" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="F16" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="G16" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="H16" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="I16" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="J16" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="K16" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="L16" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="M16" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="N16" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="O16" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="17" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="B17" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C17" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D17" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E17" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="F17" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="G17" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="H17" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="I17" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="J17" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="K17" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="L17" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="M17" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="N17" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="O17" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="18" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="B18" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C18" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D18" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E18" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="F18" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="G18" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="H18" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="I18" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="J18" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="K18" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="L18" t="s">
+        <v>89</v>
+      </c>
+      <c r="M18" t="s">
+        <v>101</v>
+      </c>
+      <c r="N18" t="s">
         <v>90</v>
       </c>
-      <c r="M18" t="s">
-        <v>102</v>
-      </c>
-      <c r="N18" t="s">
-        <v>91</v>
-      </c>
       <c r="O18" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="19" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
+        <v>88</v>
+      </c>
+      <c r="B19" t="s">
+        <v>42</v>
+      </c>
+      <c r="C19" t="s">
+        <v>16</v>
+      </c>
+      <c r="D19" t="s">
+        <v>16</v>
+      </c>
+      <c r="E19" t="s">
+        <v>16</v>
+      </c>
+      <c r="F19" t="s">
+        <v>16</v>
+      </c>
+      <c r="G19" t="s">
+        <v>86</v>
+      </c>
+      <c r="H19" t="s">
+        <v>29</v>
+      </c>
+      <c r="I19" t="s">
+        <v>32</v>
+      </c>
+      <c r="J19" t="s">
+        <v>52</v>
+      </c>
+      <c r="K19" t="s">
+        <v>30</v>
+      </c>
+      <c r="L19" t="s">
         <v>89</v>
       </c>
-      <c r="B19" t="s">
-        <v>43</v>
-      </c>
-      <c r="C19" t="s">
-        <v>17</v>
-      </c>
-      <c r="D19" t="s">
-        <v>17</v>
-      </c>
-      <c r="E19" t="s">
-        <v>17</v>
-      </c>
-      <c r="F19" t="s">
-        <v>17</v>
-      </c>
-      <c r="G19" t="s">
-        <v>87</v>
-      </c>
-      <c r="H19" t="s">
-        <v>30</v>
-      </c>
-      <c r="I19" t="s">
-        <v>33</v>
-      </c>
-      <c r="J19" t="s">
-        <v>53</v>
-      </c>
-      <c r="K19" t="s">
-        <v>31</v>
-      </c>
-      <c r="L19" t="s">
+      <c r="M19" t="s">
+        <v>101</v>
+      </c>
+      <c r="N19" t="s">
         <v>90</v>
       </c>
-      <c r="M19" t="s">
-        <v>102</v>
-      </c>
-      <c r="N19" t="s">
-        <v>91</v>
-      </c>
       <c r="O19" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="20" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="B20" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C20" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D20" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E20" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="F20" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="G20" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="H20" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="I20" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="J20" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="K20" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="L20" t="s">
+        <v>89</v>
+      </c>
+      <c r="M20" t="s">
+        <v>101</v>
+      </c>
+      <c r="N20" t="s">
         <v>90</v>
       </c>
-      <c r="M20" t="s">
-        <v>102</v>
-      </c>
-      <c r="N20" t="s">
-        <v>91</v>
-      </c>
       <c r="O20" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="21" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="B21" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C21" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D21" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E21" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="F21" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="G21" t="s">
+        <v>91</v>
+      </c>
+      <c r="H21" t="s">
+        <v>29</v>
+      </c>
+      <c r="I21" t="s">
+        <v>32</v>
+      </c>
+      <c r="J21" t="s">
+        <v>53</v>
+      </c>
+      <c r="K21" t="s">
+        <v>30</v>
+      </c>
+      <c r="L21" t="s">
+        <v>93</v>
+      </c>
+      <c r="M21" t="s">
+        <v>101</v>
+      </c>
+      <c r="N21" t="s">
         <v>92</v>
       </c>
-      <c r="H21" t="s">
-        <v>30</v>
-      </c>
-      <c r="I21" t="s">
-        <v>33</v>
-      </c>
-      <c r="J21" t="s">
-        <v>54</v>
-      </c>
-      <c r="K21" t="s">
-        <v>31</v>
-      </c>
-      <c r="L21" t="s">
-        <v>94</v>
-      </c>
-      <c r="M21" t="s">
-        <v>102</v>
-      </c>
-      <c r="N21" t="s">
-        <v>93</v>
-      </c>
       <c r="O21" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="22" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="B22" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C22" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D22" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E22" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="F22" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="G22" t="s">
+        <v>91</v>
+      </c>
+      <c r="H22" t="s">
+        <v>29</v>
+      </c>
+      <c r="I22" t="s">
+        <v>108</v>
+      </c>
+      <c r="J22" t="s">
+        <v>52</v>
+      </c>
+      <c r="K22" t="s">
+        <v>30</v>
+      </c>
+      <c r="L22" t="s">
+        <v>93</v>
+      </c>
+      <c r="M22" t="s">
+        <v>101</v>
+      </c>
+      <c r="N22" t="s">
         <v>92</v>
       </c>
-      <c r="H22" t="s">
-        <v>30</v>
-      </c>
-      <c r="I22" t="s">
-        <v>109</v>
-      </c>
-      <c r="J22" t="s">
-        <v>53</v>
-      </c>
-      <c r="K22" t="s">
-        <v>31</v>
-      </c>
-      <c r="L22" t="s">
-        <v>94</v>
-      </c>
-      <c r="M22" t="s">
-        <v>102</v>
-      </c>
-      <c r="N22" t="s">
-        <v>93</v>
-      </c>
       <c r="O22" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="23" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="B23" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C23" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D23" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E23" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="F23" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="G23" t="s">
+        <v>91</v>
+      </c>
+      <c r="H23" t="s">
+        <v>29</v>
+      </c>
+      <c r="I23" t="s">
+        <v>108</v>
+      </c>
+      <c r="J23" t="s">
+        <v>52</v>
+      </c>
+      <c r="K23" t="s">
+        <v>30</v>
+      </c>
+      <c r="L23" t="s">
+        <v>93</v>
+      </c>
+      <c r="M23" t="s">
+        <v>101</v>
+      </c>
+      <c r="N23" t="s">
         <v>92</v>
       </c>
-      <c r="H23" t="s">
-        <v>30</v>
-      </c>
-      <c r="I23" t="s">
-        <v>109</v>
-      </c>
-      <c r="J23" t="s">
-        <v>53</v>
-      </c>
-      <c r="K23" t="s">
-        <v>31</v>
-      </c>
-      <c r="L23" t="s">
-        <v>94</v>
-      </c>
-      <c r="M23" t="s">
-        <v>102</v>
-      </c>
-      <c r="N23" t="s">
-        <v>93</v>
-      </c>
       <c r="O23" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="24" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="B24" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C24" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D24" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E24" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="F24" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="G24" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="H24" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="I24" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="J24" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="K24" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="L24" t="s">
+        <v>100</v>
+      </c>
+      <c r="M24" t="s">
         <v>101</v>
       </c>
-      <c r="M24" t="s">
-        <v>102</v>
-      </c>
       <c r="N24" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="O24" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="25" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
+        <v>98</v>
+      </c>
+      <c r="B25" t="s">
+        <v>42</v>
+      </c>
+      <c r="C25" t="s">
+        <v>16</v>
+      </c>
+      <c r="D25" t="s">
+        <v>16</v>
+      </c>
+      <c r="E25" t="s">
+        <v>16</v>
+      </c>
+      <c r="F25" t="s">
+        <v>16</v>
+      </c>
+      <c r="G25" t="s">
+        <v>96</v>
+      </c>
+      <c r="H25" t="s">
+        <v>29</v>
+      </c>
+      <c r="I25" t="s">
+        <v>108</v>
+      </c>
+      <c r="J25" t="s">
+        <v>52</v>
+      </c>
+      <c r="K25" t="s">
+        <v>30</v>
+      </c>
+      <c r="L25" t="s">
+        <v>100</v>
+      </c>
+      <c r="M25" t="s">
+        <v>101</v>
+      </c>
+      <c r="N25" t="s">
         <v>99</v>
       </c>
-      <c r="B25" t="s">
-        <v>43</v>
-      </c>
-      <c r="C25" t="s">
-        <v>17</v>
-      </c>
-      <c r="D25" t="s">
-        <v>17</v>
-      </c>
-      <c r="E25" t="s">
-        <v>17</v>
-      </c>
-      <c r="F25" t="s">
-        <v>17</v>
-      </c>
-      <c r="G25" t="s">
-        <v>97</v>
-      </c>
-      <c r="H25" t="s">
-        <v>30</v>
-      </c>
-      <c r="I25" t="s">
-        <v>109</v>
-      </c>
-      <c r="J25" t="s">
-        <v>53</v>
-      </c>
-      <c r="K25" t="s">
-        <v>31</v>
-      </c>
-      <c r="L25" t="s">
-        <v>101</v>
-      </c>
-      <c r="M25" t="s">
-        <v>102</v>
-      </c>
-      <c r="N25" t="s">
-        <v>100</v>
-      </c>
       <c r="O25" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="26" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="B26" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C26" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D26" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E26" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="F26" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="G26" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="H26" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="I26" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="J26" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="K26" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="L26" t="s">
+        <v>100</v>
+      </c>
+      <c r="M26" t="s">
         <v>101</v>
       </c>
-      <c r="M26" t="s">
-        <v>102</v>
-      </c>
       <c r="N26" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="O26" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="27" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A27" s="8" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="B27" s="8" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C27" s="8"/>
       <c r="D27" s="8"/>
       <c r="E27" s="8"/>
       <c r="F27" s="8"/>
       <c r="G27" s="8" t="s">
+        <v>110</v>
+      </c>
+      <c r="H27" s="8" t="s">
+        <v>123</v>
+      </c>
+      <c r="I27" s="8" t="s">
+        <v>32</v>
+      </c>
+      <c r="J27" s="8" t="s">
         <v>111</v>
       </c>
-      <c r="H27" s="8" t="s">
+      <c r="K27" s="8" t="s">
+        <v>30</v>
+      </c>
+      <c r="L27" s="8" t="s">
         <v>124</v>
       </c>
-      <c r="I27" s="8" t="s">
-        <v>33</v>
-      </c>
-      <c r="J27" s="8" t="s">
-        <v>112</v>
-      </c>
-      <c r="K27" s="8" t="s">
-        <v>31</v>
-      </c>
-      <c r="L27" s="8" t="s">
+      <c r="M27" s="8" t="s">
         <v>125</v>
       </c>
-      <c r="M27" s="8" t="s">
+      <c r="N27" s="8" t="s">
         <v>126</v>
       </c>
-      <c r="N27" s="8" t="s">
-        <v>127</v>
-      </c>
       <c r="O27" s="8" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="28" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A28" s="8" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="B28" s="8" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C28" s="8"/>
       <c r="D28" s="8"/>
       <c r="E28" s="8"/>
       <c r="F28" s="8"/>
       <c r="G28" s="8" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="H28" s="8" t="s">
+        <v>123</v>
+      </c>
+      <c r="I28" s="8" t="s">
+        <v>32</v>
+      </c>
+      <c r="J28" s="8" t="s">
+        <v>113</v>
+      </c>
+      <c r="K28" s="8" t="s">
+        <v>30</v>
+      </c>
+      <c r="L28" s="8" t="s">
         <v>124</v>
       </c>
-      <c r="I28" s="8" t="s">
-        <v>33</v>
-      </c>
-      <c r="J28" s="8" t="s">
-        <v>114</v>
-      </c>
-      <c r="K28" s="8" t="s">
-        <v>31</v>
-      </c>
-      <c r="L28" s="8" t="s">
+      <c r="M28" s="8" t="s">
         <v>125</v>
       </c>
-      <c r="M28" s="8" t="s">
+      <c r="N28" s="8" t="s">
         <v>126</v>
       </c>
-      <c r="N28" s="8" t="s">
-        <v>127</v>
-      </c>
       <c r="O28" s="8" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="29" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A29" s="8" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="B29" s="8" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C29" s="8"/>
       <c r="D29" s="8"/>
       <c r="E29" s="8"/>
       <c r="F29" s="8"/>
       <c r="G29" s="8" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="H29" s="8" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="I29" s="8" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="J29" s="8" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="K29" s="8" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="L29" s="8" t="s">
+        <v>127</v>
+      </c>
+      <c r="M29" s="8" t="s">
+        <v>125</v>
+      </c>
+      <c r="N29" s="8" t="s">
         <v>128</v>
       </c>
-      <c r="M29" s="8" t="s">
-        <v>126</v>
-      </c>
-      <c r="N29" s="8" t="s">
-        <v>129</v>
-      </c>
       <c r="O29" s="8" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="30" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A30" s="8" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="B30" s="8" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C30" s="8"/>
       <c r="D30" s="8"/>
       <c r="E30" s="8"/>
       <c r="F30" s="8"/>
       <c r="G30" s="8" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="H30" s="8" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="I30" s="8" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="J30" s="8" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="K30" s="8" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="L30" s="8" t="s">
+        <v>127</v>
+      </c>
+      <c r="M30" s="8" t="s">
+        <v>125</v>
+      </c>
+      <c r="N30" s="8" t="s">
         <v>128</v>
       </c>
-      <c r="M30" s="8" t="s">
-        <v>126</v>
-      </c>
-      <c r="N30" s="8" t="s">
-        <v>129</v>
-      </c>
       <c r="O30" s="8" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="31" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A31" s="8" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="B31" s="8" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C31" s="8"/>
       <c r="D31" s="8"/>
       <c r="E31" s="8"/>
       <c r="F31" s="8"/>
       <c r="G31" s="8" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="H31" s="8" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="I31" s="8" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="J31" s="8" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="K31" s="8" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="L31" s="8" t="s">
+        <v>129</v>
+      </c>
+      <c r="M31" s="8" t="s">
+        <v>125</v>
+      </c>
+      <c r="N31" s="8" t="s">
         <v>130</v>
       </c>
-      <c r="M31" s="8" t="s">
-        <v>126</v>
-      </c>
-      <c r="N31" s="8" t="s">
-        <v>131</v>
-      </c>
       <c r="O31" s="8" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="32" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A32" s="8" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="B32" s="8" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C32" s="8"/>
       <c r="D32" s="8"/>
       <c r="E32" s="8"/>
       <c r="F32" s="8"/>
       <c r="G32" s="8" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="H32" s="8" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="I32" s="8" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="J32" s="8" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="K32" s="8" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="L32" s="8" t="s">
+        <v>129</v>
+      </c>
+      <c r="M32" s="8" t="s">
+        <v>125</v>
+      </c>
+      <c r="N32" s="8" t="s">
         <v>130</v>
       </c>
-      <c r="M32" s="8" t="s">
-        <v>126</v>
-      </c>
-      <c r="N32" s="8" t="s">
-        <v>131</v>
-      </c>
       <c r="O32" s="8" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="33" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A33" s="8" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="B33" s="8" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C33" s="8"/>
       <c r="D33" s="8"/>
       <c r="E33" s="8"/>
       <c r="F33" s="8"/>
       <c r="G33" s="9" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="H33" s="8" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="I33" s="8" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="J33" s="8" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="K33" s="8" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="L33" s="8" t="s">
+        <v>131</v>
+      </c>
+      <c r="M33" s="8" t="s">
+        <v>125</v>
+      </c>
+      <c r="N33" s="8" t="s">
         <v>132</v>
       </c>
-      <c r="M33" s="8" t="s">
-        <v>126</v>
-      </c>
-      <c r="N33" s="8" t="s">
-        <v>133</v>
-      </c>
       <c r="O33" s="8" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="34" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A34" s="8" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="B34" s="8" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C34" s="8"/>
       <c r="D34" s="8"/>
       <c r="E34" s="8"/>
       <c r="F34" s="8"/>
       <c r="G34" s="9" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="H34" s="8" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="I34" s="8" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="J34" s="8" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="K34" s="8" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="L34" s="8" t="s">
+        <v>131</v>
+      </c>
+      <c r="M34" s="8" t="s">
+        <v>125</v>
+      </c>
+      <c r="N34" s="8" t="s">
         <v>132</v>
       </c>
-      <c r="M34" s="8" t="s">
-        <v>126</v>
-      </c>
-      <c r="N34" s="8" t="s">
-        <v>133</v>
-      </c>
       <c r="O34" s="8" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="35" spans="1:15" s="8" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A35" s="8" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="B35" s="8" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C35" s="8" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D35" s="8" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E35" s="8" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="F35" s="8" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="G35" s="8" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="H35" s="8" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="I35" s="8" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="J35" s="8" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="K35" s="8" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="L35" s="8" t="s">
+        <v>162</v>
+      </c>
+      <c r="M35" s="8" t="s">
+        <v>164</v>
+      </c>
+      <c r="N35" s="8" t="s">
         <v>163</v>
       </c>
-      <c r="M35" s="8" t="s">
-        <v>165</v>
-      </c>
-      <c r="N35" s="8" t="s">
-        <v>164</v>
-      </c>
       <c r="O35" s="8" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="36" spans="1:15" s="8" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A36" s="8" t="s">
+        <v>161</v>
+      </c>
+      <c r="B36" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="C36" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="D36" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="E36" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="F36" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="G36" s="8" t="s">
+        <v>159</v>
+      </c>
+      <c r="H36" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="I36" s="8" t="s">
+        <v>32</v>
+      </c>
+      <c r="J36" s="8" t="s">
+        <v>33</v>
+      </c>
+      <c r="K36" s="8" t="s">
+        <v>30</v>
+      </c>
+      <c r="L36" s="8" t="s">
         <v>162</v>
       </c>
-      <c r="B36" s="8" t="s">
-        <v>29</v>
-      </c>
-      <c r="C36" s="8" t="s">
-        <v>17</v>
-      </c>
-      <c r="D36" s="8" t="s">
-        <v>17</v>
-      </c>
-      <c r="E36" s="8" t="s">
-        <v>17</v>
-      </c>
-      <c r="F36" s="8" t="s">
-        <v>17</v>
-      </c>
-      <c r="G36" s="8" t="s">
-        <v>160</v>
-      </c>
-      <c r="H36" s="8" t="s">
-        <v>30</v>
-      </c>
-      <c r="I36" s="8" t="s">
-        <v>33</v>
-      </c>
-      <c r="J36" s="8" t="s">
-        <v>34</v>
-      </c>
-      <c r="K36" s="8" t="s">
-        <v>31</v>
-      </c>
-      <c r="L36" s="8" t="s">
+      <c r="M36" s="8" t="s">
+        <v>164</v>
+      </c>
+      <c r="N36" s="8" t="s">
         <v>163</v>
       </c>
-      <c r="M36" s="8" t="s">
-        <v>165</v>
-      </c>
-      <c r="N36" s="8" t="s">
-        <v>164</v>
-      </c>
       <c r="O36" s="8" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="37" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A37" s="8" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="B37" s="8" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C37" s="8" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D37" s="8" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E37" s="8" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="F37" s="8" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="G37" s="8" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="H37" s="8" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="I37" s="8" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="J37" s="8" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="K37" s="8" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="L37" s="8" t="s">
+        <v>162</v>
+      </c>
+      <c r="M37" s="8" t="s">
+        <v>164</v>
+      </c>
+      <c r="N37" s="8" t="s">
         <v>163</v>
       </c>
-      <c r="M37" s="8" t="s">
-        <v>165</v>
-      </c>
-      <c r="N37" s="8" t="s">
-        <v>164</v>
-      </c>
       <c r="O37" s="8" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="38" spans="1:15" s="8" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A38" s="8" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="B38" s="8" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C38" s="8" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D38" s="8" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E38" s="8" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="F38" s="8" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="G38" s="8" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="H38" s="8" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="I38" s="8" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="J38" s="8" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="K38" s="8" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="L38" s="8" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="M38" s="8" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="N38" s="8" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="O38" s="8" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="39" spans="1:15" s="8" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A39" s="8" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="B39" s="8" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C39" s="8" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D39" s="8" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E39" s="8" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="F39" s="8" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="G39" s="8" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="H39" s="8" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="I39" s="8" t="s">
+        <v>32</v>
+      </c>
+      <c r="J39" s="8" t="s">
         <v>33</v>
       </c>
-      <c r="J39" s="8" t="s">
-        <v>34</v>
-      </c>
       <c r="K39" s="8" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="L39" s="8" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="M39" s="8" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="N39" s="8" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="O39" s="8" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="40" spans="1:15" s="8" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A40" s="8" t="s">
+        <v>169</v>
+      </c>
+      <c r="B40" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="C40" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="D40" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="E40" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="F40" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="G40" s="8" t="s">
         <v>170</v>
       </c>
-      <c r="B40" s="8" t="s">
-        <v>29</v>
-      </c>
-      <c r="C40" s="8" t="s">
-        <v>17</v>
-      </c>
-      <c r="D40" s="8" t="s">
-        <v>17</v>
-      </c>
-      <c r="E40" s="8" t="s">
-        <v>17</v>
-      </c>
-      <c r="F40" s="8" t="s">
-        <v>17</v>
-      </c>
-      <c r="G40" s="8" t="s">
-        <v>171</v>
-      </c>
       <c r="H40" s="8" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="I40" s="8" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="J40" s="8" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="K40" s="8" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="L40" s="8" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="M40" s="8" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="N40" s="8" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="O40" s="8" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="41" spans="1:15" s="8" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A41" s="8" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="B41" s="8" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C41" s="8" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D41" s="8" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E41" s="8" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="F41" s="8" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="G41" s="8" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="H41" s="8" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="I41" s="8" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="J41" s="8" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="K41" s="8" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="L41" s="8" t="s">
+        <v>179</v>
+      </c>
+      <c r="M41" s="8" t="s">
+        <v>164</v>
+      </c>
+      <c r="N41" s="8" t="s">
         <v>180</v>
       </c>
-      <c r="M41" s="8" t="s">
-        <v>165</v>
-      </c>
-      <c r="N41" s="8" t="s">
-        <v>181</v>
-      </c>
       <c r="O41" s="8" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="42" spans="1:15" s="8" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A42" s="8" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="B42" s="8" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C42" s="8" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D42" s="8" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E42" s="8" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="F42" s="8" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="G42" s="8" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="H42" s="8" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="I42" s="8" t="s">
+        <v>32</v>
+      </c>
+      <c r="J42" s="8" t="s">
         <v>33</v>
       </c>
-      <c r="J42" s="8" t="s">
-        <v>34</v>
-      </c>
       <c r="K42" s="8" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="L42" s="8" t="s">
+        <v>179</v>
+      </c>
+      <c r="M42" s="8" t="s">
+        <v>164</v>
+      </c>
+      <c r="N42" s="8" t="s">
         <v>180</v>
       </c>
-      <c r="M42" s="8" t="s">
-        <v>165</v>
-      </c>
-      <c r="N42" s="8" t="s">
-        <v>181</v>
-      </c>
       <c r="O42" s="8" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="43" spans="1:15" s="8" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A43" s="8" t="s">
+        <v>178</v>
+      </c>
+      <c r="B43" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="C43" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="D43" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="E43" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="F43" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="G43" s="8" t="s">
+        <v>175</v>
+      </c>
+      <c r="H43" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="I43" s="8" t="s">
+        <v>165</v>
+      </c>
+      <c r="J43" s="8" t="s">
+        <v>113</v>
+      </c>
+      <c r="K43" s="8" t="s">
+        <v>30</v>
+      </c>
+      <c r="L43" s="8" t="s">
         <v>179</v>
       </c>
-      <c r="B43" s="8" t="s">
-        <v>29</v>
-      </c>
-      <c r="C43" s="8" t="s">
-        <v>17</v>
-      </c>
-      <c r="D43" s="8" t="s">
-        <v>17</v>
-      </c>
-      <c r="E43" s="8" t="s">
-        <v>17</v>
-      </c>
-      <c r="F43" s="8" t="s">
-        <v>17</v>
-      </c>
-      <c r="G43" s="8" t="s">
-        <v>176</v>
-      </c>
-      <c r="H43" s="8" t="s">
-        <v>30</v>
-      </c>
-      <c r="I43" s="8" t="s">
-        <v>166</v>
-      </c>
-      <c r="J43" s="8" t="s">
-        <v>114</v>
-      </c>
-      <c r="K43" s="8" t="s">
-        <v>31</v>
-      </c>
-      <c r="L43" s="8" t="s">
+      <c r="M43" s="8" t="s">
+        <v>164</v>
+      </c>
+      <c r="N43" s="8" t="s">
         <v>180</v>
       </c>
-      <c r="M43" s="8" t="s">
-        <v>165</v>
-      </c>
-      <c r="N43" s="8" t="s">
-        <v>181</v>
-      </c>
       <c r="O43" s="8" t="s">
-        <v>32</v>
+        <v>31</v>
+      </c>
+    </row>
+    <row r="44" spans="1:15" s="8" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A44" s="8" t="s">
+        <v>195</v>
+      </c>
+      <c r="B44" s="8" t="s">
+        <v>42</v>
+      </c>
+      <c r="G44" s="8" t="s">
+        <v>72</v>
+      </c>
+      <c r="H44" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="I44" s="8" t="s">
+        <v>32</v>
+      </c>
+      <c r="J44" s="8" t="s">
+        <v>53</v>
+      </c>
+      <c r="K44" s="8" t="s">
+        <v>30</v>
+      </c>
+      <c r="L44" s="8" t="s">
+        <v>74</v>
+      </c>
+      <c r="M44" s="8" t="s">
+        <v>101</v>
+      </c>
+      <c r="N44" s="8" t="s">
+        <v>75</v>
+      </c>
+      <c r="O44" s="8" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="45" spans="1:15" s="8" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A45" s="8" t="s">
+        <v>196</v>
+      </c>
+      <c r="B45" s="8" t="s">
+        <v>42</v>
+      </c>
+      <c r="G45" s="8" t="s">
+        <v>79</v>
+      </c>
+      <c r="H45" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="I45" s="8" t="s">
+        <v>32</v>
+      </c>
+      <c r="J45" s="8" t="s">
+        <v>53</v>
+      </c>
+      <c r="K45" s="8" t="s">
+        <v>30</v>
+      </c>
+      <c r="L45" s="8" t="s">
+        <v>82</v>
+      </c>
+      <c r="M45" s="8" t="s">
+        <v>101</v>
+      </c>
+      <c r="N45" s="8" t="s">
+        <v>84</v>
+      </c>
+      <c r="O45" s="8" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="46" spans="1:15" s="8" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A46" s="8" t="s">
+        <v>197</v>
+      </c>
+      <c r="B46" s="8" t="s">
+        <v>42</v>
+      </c>
+      <c r="G46" s="8" t="s">
+        <v>86</v>
+      </c>
+      <c r="H46" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="I46" s="8" t="s">
+        <v>32</v>
+      </c>
+      <c r="J46" s="8" t="s">
+        <v>53</v>
+      </c>
+      <c r="K46" s="8" t="s">
+        <v>30</v>
+      </c>
+      <c r="L46" s="8" t="s">
+        <v>89</v>
+      </c>
+      <c r="M46" s="8" t="s">
+        <v>101</v>
+      </c>
+      <c r="N46" s="8" t="s">
+        <v>90</v>
+      </c>
+      <c r="O46" s="8" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="47" spans="1:15" s="8" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A47" s="8" t="s">
+        <v>198</v>
+      </c>
+      <c r="B47" s="8" t="s">
+        <v>42</v>
+      </c>
+      <c r="G47" s="8" t="s">
+        <v>91</v>
+      </c>
+      <c r="H47" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="I47" s="8" t="s">
+        <v>32</v>
+      </c>
+      <c r="J47" s="8" t="s">
+        <v>53</v>
+      </c>
+      <c r="K47" s="8" t="s">
+        <v>30</v>
+      </c>
+      <c r="L47" s="8" t="s">
+        <v>93</v>
+      </c>
+      <c r="M47" s="8" t="s">
+        <v>101</v>
+      </c>
+      <c r="N47" s="8" t="s">
+        <v>92</v>
+      </c>
+      <c r="O47" s="8" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="48" spans="1:15" s="8" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A48" s="8" t="s">
+        <v>199</v>
+      </c>
+      <c r="B48" s="8" t="s">
+        <v>42</v>
+      </c>
+      <c r="G48" s="8" t="s">
+        <v>96</v>
+      </c>
+      <c r="H48" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="I48" s="8" t="s">
+        <v>32</v>
+      </c>
+      <c r="J48" s="8" t="s">
+        <v>53</v>
+      </c>
+      <c r="K48" s="8" t="s">
+        <v>30</v>
+      </c>
+      <c r="L48" s="8" t="s">
+        <v>100</v>
+      </c>
+      <c r="M48" s="8" t="s">
+        <v>101</v>
+      </c>
+      <c r="N48" s="8" t="s">
+        <v>99</v>
+      </c>
+      <c r="O48" s="8" t="s">
+        <v>31</v>
       </c>
     </row>
   </sheetData>

--- a/sources/case/ApprovalTypes.xlsx
+++ b/sources/case/ApprovalTypes.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7560" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7560" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Base" sheetId="1" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="952" uniqueCount="203">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="952" uniqueCount="202">
   <si>
     <t>API</t>
   </si>
@@ -728,10 +728,6 @@
   </si>
   <si>
     <t>[{"target_value":"!!String{}","target_type":"","approvers":[{"type":"reporting_to","uuid":"","value":"1"},{"type":"reporting_to","uuid":"","value":"2"},{"type":"reporting_to","uuid":"","value":"3"},{"type":"reporting_to","uuid":"","value":"4"},{"type":"login_user_department_manager","uuid":"","value":""},{"type":"department_manager","uuid":"","value":"${organization_2.uuid}"},{"type":"employee","uuid":"","value":"$csv{data.Auth.user_1.employee_id}"}],"uuid":"$csv{data.AllTypes.offboard_dismiss.uuid}"},{"target_value":"!!String{\"department\":[\"${organization_1.uuid}\"],\"employee\":[]}","target_type":"sponsor","approvers":[{"type":"login_user_department_manager","uuid":"","value":""},{"type":"department_manager","uuid":"","value":"${organization_2.uuid}"},{"type":"employee","uuid":"","value":"$csv{data.Auth.user_1.employee_id}"}],"uuid":""},{"uuid":"","approvers":[{"uuid":"","type":"login_user_department_manager","value":""},{"uuid":"","type":"employee","value":"$csv{data.Auth.user_1.employee_id}"},{"uuid":"","type":"employee","value":"$csv{data.Auth.user_houlong.employee_id}"}],"target_type":"sponsor","target_value":"!!String{\"department\":[\"${organization_2.uuid}\"],\"employee\":[]}"}]</t>
-  </si>
-  <si>
-    <t>offboard_dismiss</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>$csv{data.Tenant.microfastup.tenant_id}</t>
@@ -1186,8 +1182,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G47"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B2" sqref="B2:B47"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D26" sqref="D26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1285,8 +1281,8 @@
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A5" t="s">
-        <v>200</v>
+      <c r="A5" s="7" t="s">
+        <v>41</v>
       </c>
       <c r="B5" s="7" t="s">
         <v>137</v>
@@ -2175,11 +2171,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:O47"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B8" activePane="bottomRight" state="frozen"/>
+    <sheetView workbookViewId="0">
+      <pane xSplit="1" ySplit="1" topLeftCell="B44" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="C24" sqref="C24"/>
+      <selection pane="bottomRight" activeCell="J5" sqref="J5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -2250,7 +2246,7 @@
         <v>42</v>
       </c>
       <c r="B2" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="C2" t="s">
         <v>16</v>
@@ -2268,7 +2264,7 @@
         <v>136</v>
       </c>
       <c r="H2" s="7" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="I2" t="s">
         <v>30</v>
@@ -2297,7 +2293,7 @@
         <v>43</v>
       </c>
       <c r="B3" s="7" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="C3" t="s">
         <v>16</v>
@@ -2315,7 +2311,7 @@
         <v>136</v>
       </c>
       <c r="H3" s="7" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="I3" t="s">
         <v>30</v>
@@ -2344,7 +2340,7 @@
         <v>40</v>
       </c>
       <c r="B4" s="7" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="C4" t="s">
         <v>16</v>
@@ -2362,7 +2358,7 @@
         <v>137</v>
       </c>
       <c r="H4" s="7" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="I4" t="s">
         <v>30</v>
@@ -2391,7 +2387,7 @@
         <v>41</v>
       </c>
       <c r="B5" s="7" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="C5" t="s">
         <v>16</v>
@@ -2409,7 +2405,7 @@
         <v>137</v>
       </c>
       <c r="H5" s="7" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="I5" t="s">
         <v>30</v>
@@ -2438,7 +2434,7 @@
         <v>55</v>
       </c>
       <c r="B6" s="7" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="C6" t="s">
         <v>16</v>
@@ -2456,7 +2452,7 @@
         <v>194</v>
       </c>
       <c r="H6" s="7" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="I6" t="s">
         <v>30</v>
@@ -2485,7 +2481,7 @@
         <v>56</v>
       </c>
       <c r="B7" s="7" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="C7" t="s">
         <v>16</v>
@@ -2503,7 +2499,7 @@
         <v>194</v>
       </c>
       <c r="H7" s="7" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="I7" t="s">
         <v>30</v>
@@ -2532,7 +2528,7 @@
         <v>52</v>
       </c>
       <c r="B8" s="7" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="C8" t="s">
         <v>16</v>
@@ -2550,7 +2546,7 @@
         <v>195</v>
       </c>
       <c r="H8" s="7" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="I8" t="s">
         <v>30</v>
@@ -2579,7 +2575,7 @@
         <v>53</v>
       </c>
       <c r="B9" s="7" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="C9" t="s">
         <v>16</v>
@@ -2597,7 +2593,7 @@
         <v>195</v>
       </c>
       <c r="H9" s="7" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="I9" t="s">
         <v>30</v>
@@ -2626,7 +2622,7 @@
         <v>58</v>
       </c>
       <c r="B10" s="7" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="C10" t="s">
         <v>16</v>
@@ -2644,7 +2640,7 @@
         <v>138</v>
       </c>
       <c r="H10" s="7" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="I10" t="s">
         <v>30</v>
@@ -2673,7 +2669,7 @@
         <v>59</v>
       </c>
       <c r="B11" s="7" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="C11" t="s">
         <v>16</v>
@@ -2691,7 +2687,7 @@
         <v>138</v>
       </c>
       <c r="H11" s="7" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="I11" t="s">
         <v>30</v>
@@ -2720,7 +2716,7 @@
         <v>61</v>
       </c>
       <c r="B12" s="7" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="C12" t="s">
         <v>16</v>
@@ -2738,7 +2734,7 @@
         <v>139</v>
       </c>
       <c r="H12" s="7" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="I12" t="s">
         <v>30</v>
@@ -2767,7 +2763,7 @@
         <v>65</v>
       </c>
       <c r="B13" s="7" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="C13" t="s">
         <v>16</v>
@@ -2785,7 +2781,7 @@
         <v>139</v>
       </c>
       <c r="H13" s="7" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="I13" t="s">
         <v>30</v>
@@ -2814,7 +2810,7 @@
         <v>66</v>
       </c>
       <c r="B14" s="7" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="C14" t="s">
         <v>16</v>
@@ -2832,7 +2828,7 @@
         <v>139</v>
       </c>
       <c r="H14" s="7" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="I14" t="s">
         <v>30</v>
@@ -2861,7 +2857,7 @@
         <v>67</v>
       </c>
       <c r="B15" s="7" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="C15" t="s">
         <v>16</v>
@@ -2879,7 +2875,7 @@
         <v>140</v>
       </c>
       <c r="H15" s="7" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="I15" t="s">
         <v>30</v>
@@ -2908,7 +2904,7 @@
         <v>68</v>
       </c>
       <c r="B16" s="7" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="C16" t="s">
         <v>16</v>
@@ -2926,7 +2922,7 @@
         <v>140</v>
       </c>
       <c r="H16" s="7" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="I16" t="s">
         <v>30</v>
@@ -2955,7 +2951,7 @@
         <v>73</v>
       </c>
       <c r="B17" s="7" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="C17" t="s">
         <v>16</v>
@@ -2973,7 +2969,7 @@
         <v>141</v>
       </c>
       <c r="H17" s="7" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="I17" t="s">
         <v>30</v>
@@ -3002,7 +2998,7 @@
         <v>74</v>
       </c>
       <c r="B18" s="7" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="C18" t="s">
         <v>16</v>
@@ -3020,7 +3016,7 @@
         <v>141</v>
       </c>
       <c r="H18" s="7" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="I18" t="s">
         <v>30</v>
@@ -3049,7 +3045,7 @@
         <v>86</v>
       </c>
       <c r="B19" s="7" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="C19" t="s">
         <v>16</v>
@@ -3067,7 +3063,7 @@
         <v>141</v>
       </c>
       <c r="H19" s="7" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="I19" t="s">
         <v>30</v>
@@ -3096,7 +3092,7 @@
         <v>79</v>
       </c>
       <c r="B20" s="7" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="C20" t="s">
         <v>16</v>
@@ -3114,7 +3110,7 @@
         <v>142</v>
       </c>
       <c r="H20" s="7" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="I20" t="s">
         <v>30</v>
@@ -3143,7 +3139,7 @@
         <v>80</v>
       </c>
       <c r="B21" s="7" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="C21" t="s">
         <v>16</v>
@@ -3161,7 +3157,7 @@
         <v>142</v>
       </c>
       <c r="H21" s="7" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="I21" t="s">
         <v>89</v>
@@ -3190,7 +3186,7 @@
         <v>87</v>
       </c>
       <c r="B22" s="7" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="C22" t="s">
         <v>16</v>
@@ -3208,7 +3204,7 @@
         <v>142</v>
       </c>
       <c r="H22" s="7" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="I22" t="s">
         <v>89</v>
@@ -3237,7 +3233,7 @@
         <v>81</v>
       </c>
       <c r="B23" s="7" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="C23" t="s">
         <v>16</v>
@@ -3255,7 +3251,7 @@
         <v>143</v>
       </c>
       <c r="H23" s="7" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="I23" t="s">
         <v>30</v>
@@ -3284,7 +3280,7 @@
         <v>82</v>
       </c>
       <c r="B24" s="7" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="C24" t="s">
         <v>16</v>
@@ -3302,7 +3298,7 @@
         <v>143</v>
       </c>
       <c r="H24" s="7" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="I24" t="s">
         <v>89</v>
@@ -3331,7 +3327,7 @@
         <v>88</v>
       </c>
       <c r="B25" s="7" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="C25" t="s">
         <v>16</v>
@@ -3349,7 +3345,7 @@
         <v>143</v>
       </c>
       <c r="H25" s="7" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="I25" t="s">
         <v>89</v>
@@ -3378,7 +3374,7 @@
         <v>90</v>
       </c>
       <c r="B26" s="7" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="C26" s="7"/>
       <c r="D26" s="7"/>
@@ -3388,7 +3384,7 @@
         <v>144</v>
       </c>
       <c r="H26" s="7" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="I26" s="7" t="s">
         <v>30</v>
@@ -3417,7 +3413,7 @@
         <v>92</v>
       </c>
       <c r="B27" s="7" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="C27" s="7"/>
       <c r="D27" s="7"/>
@@ -3427,7 +3423,7 @@
         <v>144</v>
       </c>
       <c r="H27" s="7" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="I27" s="7" t="s">
         <v>30</v>
@@ -3456,7 +3452,7 @@
         <v>94</v>
       </c>
       <c r="B28" s="7" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="C28" s="7"/>
       <c r="D28" s="7"/>
@@ -3466,7 +3462,7 @@
         <v>145</v>
       </c>
       <c r="H28" s="7" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="I28" s="7" t="s">
         <v>30</v>
@@ -3495,7 +3491,7 @@
         <v>95</v>
       </c>
       <c r="B29" s="7" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="C29" s="7"/>
       <c r="D29" s="7"/>
@@ -3505,7 +3501,7 @@
         <v>145</v>
       </c>
       <c r="H29" s="7" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="I29" s="7" t="s">
         <v>30</v>
@@ -3534,7 +3530,7 @@
         <v>96</v>
       </c>
       <c r="B30" s="7" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="C30" s="7"/>
       <c r="D30" s="7"/>
@@ -3544,7 +3540,7 @@
         <v>146</v>
       </c>
       <c r="H30" s="7" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="I30" s="7" t="s">
         <v>30</v>
@@ -3573,7 +3569,7 @@
         <v>97</v>
       </c>
       <c r="B31" s="7" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="C31" s="7"/>
       <c r="D31" s="7"/>
@@ -3583,7 +3579,7 @@
         <v>146</v>
       </c>
       <c r="H31" s="7" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="I31" s="7" t="s">
         <v>30</v>
@@ -3612,7 +3608,7 @@
         <v>98</v>
       </c>
       <c r="B32" s="7" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="C32" s="7"/>
       <c r="D32" s="7"/>
@@ -3622,7 +3618,7 @@
         <v>147</v>
       </c>
       <c r="H32" s="7" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="I32" s="7" t="s">
         <v>30</v>
@@ -3651,7 +3647,7 @@
         <v>99</v>
       </c>
       <c r="B33" s="7" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="C33" s="7"/>
       <c r="D33" s="7"/>
@@ -3661,7 +3657,7 @@
         <v>147</v>
       </c>
       <c r="H33" s="7" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="I33" s="7" t="s">
         <v>30</v>
@@ -3690,7 +3686,7 @@
         <v>109</v>
       </c>
       <c r="B34" s="7" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="C34" s="7" t="s">
         <v>16</v>
@@ -3708,7 +3704,7 @@
         <v>148</v>
       </c>
       <c r="H34" s="7" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="I34" s="7" t="s">
         <v>30</v>
@@ -3737,7 +3733,7 @@
         <v>110</v>
       </c>
       <c r="B35" s="7" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="C35" s="7" t="s">
         <v>16</v>
@@ -3755,7 +3751,7 @@
         <v>148</v>
       </c>
       <c r="H35" s="7" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="I35" s="7" t="s">
         <v>30</v>
@@ -3784,7 +3780,7 @@
         <v>115</v>
       </c>
       <c r="B36" s="7" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="C36" s="7" t="s">
         <v>16</v>
@@ -3802,7 +3798,7 @@
         <v>148</v>
       </c>
       <c r="H36" s="7" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="I36" s="7" t="s">
         <v>114</v>
@@ -3831,7 +3827,7 @@
         <v>116</v>
       </c>
       <c r="B37" s="7" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="C37" s="7" t="s">
         <v>16</v>
@@ -3849,7 +3845,7 @@
         <v>149</v>
       </c>
       <c r="H37" s="7" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="I37" s="7" t="s">
         <v>30</v>
@@ -3878,7 +3874,7 @@
         <v>117</v>
       </c>
       <c r="B38" s="7" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="C38" s="7" t="s">
         <v>16</v>
@@ -3896,7 +3892,7 @@
         <v>149</v>
       </c>
       <c r="H38" s="7" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="I38" s="7" t="s">
         <v>30</v>
@@ -3925,7 +3921,7 @@
         <v>118</v>
       </c>
       <c r="B39" s="7" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="C39" s="7" t="s">
         <v>16</v>
@@ -3943,7 +3939,7 @@
         <v>149</v>
       </c>
       <c r="H39" s="7" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="I39" s="7" t="s">
         <v>114</v>
@@ -3972,7 +3968,7 @@
         <v>121</v>
       </c>
       <c r="B40" s="7" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="C40" s="7" t="s">
         <v>16</v>
@@ -3990,7 +3986,7 @@
         <v>150</v>
       </c>
       <c r="H40" s="7" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="I40" s="7" t="s">
         <v>30</v>
@@ -4019,7 +4015,7 @@
         <v>122</v>
       </c>
       <c r="B41" s="7" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="C41" s="7" t="s">
         <v>16</v>
@@ -4037,7 +4033,7 @@
         <v>150</v>
       </c>
       <c r="H41" s="7" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="I41" s="7" t="s">
         <v>30</v>
@@ -4066,7 +4062,7 @@
         <v>123</v>
       </c>
       <c r="B42" s="7" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="C42" s="7" t="s">
         <v>16</v>
@@ -4084,7 +4080,7 @@
         <v>150</v>
       </c>
       <c r="H42" s="7" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="I42" s="7" t="s">
         <v>114</v>
@@ -4113,13 +4109,13 @@
         <v>127</v>
       </c>
       <c r="B43" s="7" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="G43" s="7" t="s">
         <v>139</v>
       </c>
       <c r="H43" s="7" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="I43" s="7" t="s">
         <v>30</v>
@@ -4148,13 +4144,13 @@
         <v>128</v>
       </c>
       <c r="B44" s="7" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="G44" s="7" t="s">
         <v>140</v>
       </c>
       <c r="H44" s="7" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="I44" s="7" t="s">
         <v>30</v>
@@ -4183,13 +4179,13 @@
         <v>129</v>
       </c>
       <c r="B45" s="7" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="G45" s="7" t="s">
         <v>141</v>
       </c>
       <c r="H45" s="7" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="I45" s="7" t="s">
         <v>30</v>
@@ -4218,13 +4214,13 @@
         <v>130</v>
       </c>
       <c r="B46" s="7" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="G46" s="7" t="s">
         <v>142</v>
       </c>
       <c r="H46" s="7" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="I46" s="7" t="s">
         <v>30</v>
@@ -4253,13 +4249,13 @@
         <v>131</v>
       </c>
       <c r="B47" s="7" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="G47" s="7" t="s">
         <v>143</v>
       </c>
       <c r="H47" s="7" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="I47" s="7" t="s">
         <v>30</v>

--- a/sources/case/ApprovalTypes.xlsx
+++ b/sources/case/ApprovalTypes.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7560" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7560" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Base" sheetId="1" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="952" uniqueCount="202">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="952" uniqueCount="203">
   <si>
     <t>API</t>
   </si>
@@ -735,6 +735,10 @@
   </si>
   <si>
     <t>$csv{data.Tenant.microfastup.user_id}</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>$csv{data.AllTypes.project.created_by}</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -1182,8 +1186,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G47"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D26" sqref="D26"/>
+    <sheetView workbookViewId="0">
+      <pane xSplit="1" ySplit="1" topLeftCell="B20" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight" activeCell="B1" sqref="B1"/>
+      <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
+      <selection pane="bottomRight" activeCell="D27" sqref="D27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -2171,11 +2178,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:O47"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B44" activePane="bottomRight" state="frozen"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane xSplit="1" ySplit="1" topLeftCell="G26" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="J5" sqref="J5"/>
+      <selection pane="bottomRight" activeCell="H30" sqref="H30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -2185,7 +2192,7 @@
     <col min="4" max="4" width="12.625" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="10.5" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="41.375" style="8" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="34.125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="34.875" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="13.5" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="24.125" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="12.5" bestFit="1" customWidth="1"/>
@@ -3384,7 +3391,7 @@
         <v>144</v>
       </c>
       <c r="H26" s="7" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="I26" s="7" t="s">
         <v>30</v>
@@ -3423,7 +3430,7 @@
         <v>144</v>
       </c>
       <c r="H27" s="7" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="I27" s="7" t="s">
         <v>30</v>

--- a/sources/case/ApprovalTypes.xlsx
+++ b/sources/case/ApprovalTypes.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7560" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7560" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Base" sheetId="1" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="952" uniqueCount="203">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="974" uniqueCount="207">
   <si>
     <t>API</t>
   </si>
@@ -739,6 +739,21 @@
   </si>
   <si>
     <t>$csv{data.AllTypes.project.created_by}</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Offboard_resign2</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Offboard_resign3</t>
+  </si>
+  <si>
+    <t>Offboard_resign3</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>[{"target_value":"!!String{}","target_type":"","approvers":[{"type":"employee","uuid":"","value":"$csv{data.Auth.user_houlong.employee_id}"}],"uuid":"$csv{data.AllTypes.offboard_resign.uuid}"}]</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -1122,7 +1137,7 @@
   <dimension ref="A1:F2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E10" sqref="E10"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1184,13 +1199,13 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G47"/>
+  <dimension ref="A1:G48"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B20" activePane="bottomRight" state="frozen"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="D27" sqref="D27"/>
+      <selection pane="bottomRight" activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1353,47 +1368,47 @@
         <v>30</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A8" t="s">
-        <v>52</v>
+    <row r="8" spans="1:7" s="7" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A8" s="7" t="s">
+        <v>205</v>
       </c>
       <c r="B8" s="7" t="s">
-        <v>195</v>
-      </c>
-      <c r="C8" t="s">
+        <v>194</v>
+      </c>
+      <c r="C8" s="7" t="s">
         <v>45</v>
       </c>
       <c r="D8" t="s">
-        <v>198</v>
-      </c>
-      <c r="E8" t="s">
-        <v>51</v>
-      </c>
-      <c r="F8" t="s">
+        <v>206</v>
+      </c>
+      <c r="E8" s="7" t="s">
+        <v>54</v>
+      </c>
+      <c r="F8" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="G8" t="s">
+      <c r="G8" s="7" t="s">
         <v>30</v>
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B9" s="7" t="s">
         <v>195</v>
       </c>
       <c r="C9" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="D9" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="E9" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="F9" t="s">
-        <v>151</v>
+        <v>17</v>
       </c>
       <c r="G9" t="s">
         <v>30</v>
@@ -1401,19 +1416,22 @@
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
-        <v>58</v>
+        <v>53</v>
       </c>
       <c r="B10" s="7" t="s">
-        <v>138</v>
+        <v>195</v>
       </c>
       <c r="C10" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="D10" t="s">
-        <v>156</v>
+        <v>199</v>
+      </c>
+      <c r="E10" t="s">
+        <v>50</v>
       </c>
       <c r="F10" t="s">
-        <v>17</v>
+        <v>151</v>
       </c>
       <c r="G10" t="s">
         <v>30</v>
@@ -1421,19 +1439,19 @@
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B11" s="7" t="s">
         <v>138</v>
       </c>
       <c r="C11" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="D11" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="F11" t="s">
-        <v>151</v>
+        <v>17</v>
       </c>
       <c r="G11" t="s">
         <v>30</v>
@@ -1441,19 +1459,19 @@
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="B12" s="7" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="C12" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="D12" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="F12" t="s">
-        <v>17</v>
+        <v>151</v>
       </c>
       <c r="G12" t="s">
         <v>30</v>
@@ -1461,19 +1479,19 @@
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
       <c r="B13" s="7" t="s">
         <v>139</v>
       </c>
       <c r="C13" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="D13" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="F13" t="s">
-        <v>151</v>
+        <v>17</v>
       </c>
       <c r="G13" t="s">
         <v>30</v>
@@ -1481,7 +1499,7 @@
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="B14" s="7" t="s">
         <v>139</v>
@@ -1490,7 +1508,7 @@
         <v>44</v>
       </c>
       <c r="D14" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="F14" t="s">
         <v>151</v>
@@ -1501,19 +1519,19 @@
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="B15" s="7" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="C15" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="D15" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="F15" t="s">
-        <v>17</v>
+        <v>151</v>
       </c>
       <c r="G15" t="s">
         <v>30</v>
@@ -1521,19 +1539,19 @@
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="B16" s="7" t="s">
         <v>140</v>
       </c>
       <c r="C16" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="D16" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="F16" t="s">
-        <v>151</v>
+        <v>17</v>
       </c>
       <c r="G16" t="s">
         <v>30</v>
@@ -1541,19 +1559,19 @@
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
-        <v>73</v>
+        <v>68</v>
       </c>
       <c r="B17" s="7" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="C17" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="D17" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="F17" t="s">
-        <v>17</v>
+        <v>151</v>
       </c>
       <c r="G17" t="s">
         <v>30</v>
@@ -1561,19 +1579,19 @@
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="B18" s="7" t="s">
         <v>141</v>
       </c>
       <c r="C18" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="D18" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="F18" t="s">
-        <v>151</v>
+        <v>17</v>
       </c>
       <c r="G18" t="s">
         <v>30</v>
@@ -1581,7 +1599,7 @@
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
-        <v>86</v>
+        <v>74</v>
       </c>
       <c r="B19" s="7" t="s">
         <v>141</v>
@@ -1590,7 +1608,7 @@
         <v>44</v>
       </c>
       <c r="D19" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="F19" t="s">
         <v>151</v>
@@ -1601,19 +1619,19 @@
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
-        <v>79</v>
+        <v>86</v>
       </c>
       <c r="B20" s="7" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="C20" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="D20" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="F20" t="s">
-        <v>17</v>
+        <v>151</v>
       </c>
       <c r="G20" t="s">
         <v>30</v>
@@ -1621,27 +1639,27 @@
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="B21" s="7" t="s">
         <v>142</v>
       </c>
       <c r="C21" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="D21" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="F21" t="s">
-        <v>151</v>
+        <v>17</v>
       </c>
       <c r="G21" t="s">
-        <v>89</v>
+        <v>30</v>
       </c>
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
-        <v>87</v>
+        <v>80</v>
       </c>
       <c r="B22" s="7" t="s">
         <v>142</v>
@@ -1650,7 +1668,7 @@
         <v>44</v>
       </c>
       <c r="D22" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="F22" t="s">
         <v>151</v>
@@ -1661,47 +1679,47 @@
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
-        <v>81</v>
+        <v>87</v>
       </c>
       <c r="B23" s="7" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="C23" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="D23" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="F23" t="s">
-        <v>17</v>
+        <v>151</v>
       </c>
       <c r="G23" t="s">
-        <v>30</v>
+        <v>89</v>
       </c>
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="B24" s="7" t="s">
         <v>143</v>
       </c>
       <c r="C24" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="D24" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="F24" t="s">
-        <v>151</v>
+        <v>17</v>
       </c>
       <c r="G24" t="s">
-        <v>89</v>
+        <v>30</v>
       </c>
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
-        <v>88</v>
+        <v>82</v>
       </c>
       <c r="B25" s="7" t="s">
         <v>143</v>
@@ -1710,7 +1728,7 @@
         <v>44</v>
       </c>
       <c r="D25" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="F25" t="s">
         <v>151</v>
@@ -1720,42 +1738,41 @@
       </c>
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A26" s="6" t="s">
-        <v>90</v>
+      <c r="A26" t="s">
+        <v>88</v>
       </c>
       <c r="B26" s="7" t="s">
-        <v>144</v>
-      </c>
-      <c r="C26" s="6" t="s">
-        <v>91</v>
-      </c>
-      <c r="D26" s="6" t="s">
-        <v>177</v>
-      </c>
-      <c r="E26" s="6"/>
-      <c r="F26" s="6" t="s">
-        <v>17</v>
-      </c>
-      <c r="G26" s="6" t="s">
-        <v>30</v>
+        <v>143</v>
+      </c>
+      <c r="C26" t="s">
+        <v>44</v>
+      </c>
+      <c r="D26" t="s">
+        <v>175</v>
+      </c>
+      <c r="F26" t="s">
+        <v>151</v>
+      </c>
+      <c r="G26" t="s">
+        <v>89</v>
       </c>
     </row>
     <row r="27" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A27" s="6" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="B27" s="7" t="s">
         <v>144</v>
       </c>
       <c r="C27" s="6" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="D27" s="6" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="E27" s="6"/>
       <c r="F27" s="6" t="s">
-        <v>151</v>
+        <v>17</v>
       </c>
       <c r="G27" s="6" t="s">
         <v>30</v>
@@ -1763,20 +1780,20 @@
     </row>
     <row r="28" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A28" s="6" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="B28" s="7" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="C28" s="6" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="D28" s="6" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="E28" s="6"/>
       <c r="F28" s="6" t="s">
-        <v>17</v>
+        <v>151</v>
       </c>
       <c r="G28" s="6" t="s">
         <v>30</v>
@@ -1784,20 +1801,20 @@
     </row>
     <row r="29" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A29" s="6" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="B29" s="7" t="s">
         <v>145</v>
       </c>
       <c r="C29" s="6" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="D29" s="6" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="E29" s="6"/>
       <c r="F29" s="6" t="s">
-        <v>151</v>
+        <v>17</v>
       </c>
       <c r="G29" s="6" t="s">
         <v>30</v>
@@ -1805,20 +1822,20 @@
     </row>
     <row r="30" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A30" s="6" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="B30" s="7" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="C30" s="6" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="D30" s="6" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="E30" s="6"/>
       <c r="F30" s="6" t="s">
-        <v>17</v>
+        <v>151</v>
       </c>
       <c r="G30" s="6" t="s">
         <v>30</v>
@@ -1826,20 +1843,20 @@
     </row>
     <row r="31" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A31" s="6" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="B31" s="7" t="s">
         <v>146</v>
       </c>
       <c r="C31" s="6" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="D31" s="6" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="E31" s="6"/>
       <c r="F31" s="6" t="s">
-        <v>151</v>
+        <v>17</v>
       </c>
       <c r="G31" s="6" t="s">
         <v>30</v>
@@ -1847,20 +1864,20 @@
     </row>
     <row r="32" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A32" s="6" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="B32" s="7" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="C32" s="6" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="D32" s="6" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="E32" s="6"/>
       <c r="F32" s="6" t="s">
-        <v>17</v>
+        <v>151</v>
       </c>
       <c r="G32" s="6" t="s">
         <v>30</v>
@@ -1868,120 +1885,121 @@
     </row>
     <row r="33" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A33" s="6" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="B33" s="7" t="s">
         <v>147</v>
       </c>
       <c r="C33" s="6" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="D33" s="6" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="E33" s="6"/>
       <c r="F33" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="G33" s="6" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="34" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A34" s="6" t="s">
+        <v>99</v>
+      </c>
+      <c r="B34" s="7" t="s">
+        <v>147</v>
+      </c>
+      <c r="C34" s="6" t="s">
+        <v>93</v>
+      </c>
+      <c r="D34" s="6" t="s">
+        <v>184</v>
+      </c>
+      <c r="E34" s="6"/>
+      <c r="F34" s="6" t="s">
         <v>151</v>
       </c>
-      <c r="G33" s="6" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="34" spans="1:7" s="7" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A34" s="7" t="s">
-        <v>109</v>
-      </c>
-      <c r="B34" s="7" t="s">
-        <v>148</v>
-      </c>
-      <c r="C34" s="7" t="s">
-        <v>45</v>
-      </c>
-      <c r="D34" s="7" t="s">
-        <v>185</v>
-      </c>
-      <c r="F34" s="7" t="s">
-        <v>17</v>
-      </c>
-      <c r="G34" s="7" t="s">
+      <c r="G34" s="6" t="s">
         <v>30</v>
       </c>
     </row>
     <row r="35" spans="1:7" s="7" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A35" s="7" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="B35" s="7" t="s">
         <v>148</v>
       </c>
       <c r="C35" s="7" t="s">
-        <v>31</v>
+        <v>45</v>
       </c>
       <c r="D35" s="7" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="F35" s="7" t="s">
-        <v>151</v>
+        <v>17</v>
       </c>
       <c r="G35" s="7" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="36" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:7" s="7" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A36" s="7" t="s">
-        <v>115</v>
+        <v>110</v>
       </c>
       <c r="B36" s="7" t="s">
         <v>148</v>
       </c>
       <c r="C36" s="7" t="s">
-        <v>93</v>
-      </c>
-      <c r="D36" t="s">
-        <v>187</v>
+        <v>31</v>
+      </c>
+      <c r="D36" s="7" t="s">
+        <v>186</v>
       </c>
       <c r="F36" s="7" t="s">
         <v>151</v>
       </c>
       <c r="G36" s="7" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="37" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A37" s="7" t="s">
+        <v>115</v>
+      </c>
+      <c r="B37" s="7" t="s">
+        <v>148</v>
+      </c>
+      <c r="C37" s="7" t="s">
+        <v>93</v>
+      </c>
+      <c r="D37" t="s">
+        <v>187</v>
+      </c>
+      <c r="F37" s="7" t="s">
+        <v>151</v>
+      </c>
+      <c r="G37" s="7" t="s">
         <v>114</v>
-      </c>
-    </row>
-    <row r="37" spans="1:7" s="7" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A37" s="7" t="s">
-        <v>126</v>
-      </c>
-      <c r="B37" s="7" t="s">
-        <v>149</v>
-      </c>
-      <c r="C37" s="7" t="s">
-        <v>45</v>
-      </c>
-      <c r="D37" s="7" t="s">
-        <v>188</v>
-      </c>
-      <c r="F37" s="7" t="s">
-        <v>17</v>
-      </c>
-      <c r="G37" s="7" t="s">
-        <v>30</v>
       </c>
     </row>
     <row r="38" spans="1:7" s="7" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A38" s="7" t="s">
-        <v>117</v>
+        <v>126</v>
       </c>
       <c r="B38" s="7" t="s">
         <v>149</v>
       </c>
       <c r="C38" s="7" t="s">
-        <v>31</v>
+        <v>45</v>
       </c>
       <c r="D38" s="7" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="F38" s="7" t="s">
-        <v>151</v>
+        <v>17</v>
       </c>
       <c r="G38" s="7" t="s">
         <v>30</v>
@@ -1989,59 +2007,59 @@
     </row>
     <row r="39" spans="1:7" s="7" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A39" s="7" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="B39" s="7" t="s">
         <v>149</v>
       </c>
       <c r="C39" s="7" t="s">
-        <v>93</v>
+        <v>31</v>
       </c>
       <c r="D39" s="7" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="F39" s="7" t="s">
         <v>151</v>
       </c>
       <c r="G39" s="7" t="s">
-        <v>89</v>
+        <v>30</v>
       </c>
     </row>
     <row r="40" spans="1:7" s="7" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A40" s="7" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="B40" s="7" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="C40" s="7" t="s">
-        <v>45</v>
+        <v>93</v>
       </c>
       <c r="D40" s="7" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="F40" s="7" t="s">
-        <v>17</v>
+        <v>151</v>
       </c>
       <c r="G40" s="7" t="s">
-        <v>30</v>
+        <v>89</v>
       </c>
     </row>
     <row r="41" spans="1:7" s="7" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A41" s="7" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="B41" s="7" t="s">
         <v>150</v>
       </c>
       <c r="C41" s="7" t="s">
-        <v>31</v>
+        <v>45</v>
       </c>
       <c r="D41" s="7" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="F41" s="7" t="s">
-        <v>151</v>
+        <v>17</v>
       </c>
       <c r="G41" s="7" t="s">
         <v>30</v>
@@ -2049,56 +2067,56 @@
     </row>
     <row r="42" spans="1:7" s="7" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A42" s="7" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="B42" s="7" t="s">
         <v>150</v>
       </c>
       <c r="C42" s="7" t="s">
-        <v>93</v>
+        <v>31</v>
       </c>
       <c r="D42" s="7" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="F42" s="7" t="s">
         <v>151</v>
       </c>
       <c r="G42" s="7" t="s">
-        <v>89</v>
+        <v>30</v>
       </c>
     </row>
     <row r="43" spans="1:7" s="7" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A43" s="7" t="s">
-        <v>127</v>
+        <v>123</v>
       </c>
       <c r="B43" s="7" t="s">
-        <v>139</v>
+        <v>150</v>
       </c>
       <c r="C43" s="7" t="s">
-        <v>132</v>
+        <v>93</v>
       </c>
       <c r="D43" s="7" t="s">
-        <v>161</v>
+        <v>193</v>
       </c>
       <c r="F43" s="7" t="s">
-        <v>17</v>
+        <v>151</v>
       </c>
       <c r="G43" s="7" t="s">
-        <v>30</v>
+        <v>89</v>
       </c>
     </row>
     <row r="44" spans="1:7" s="7" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A44" s="7" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="B44" s="7" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="C44" s="7" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="D44" s="7" t="s">
-        <v>164</v>
+        <v>161</v>
       </c>
       <c r="F44" s="7" t="s">
         <v>17</v>
@@ -2109,16 +2127,16 @@
     </row>
     <row r="45" spans="1:7" s="7" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A45" s="7" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="B45" s="7" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="C45" s="7" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="D45" s="7" t="s">
-        <v>168</v>
+        <v>164</v>
       </c>
       <c r="F45" s="7" t="s">
         <v>17</v>
@@ -2129,16 +2147,16 @@
     </row>
     <row r="46" spans="1:7" s="7" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A46" s="7" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="B46" s="7" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="C46" s="7" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="D46" s="7" t="s">
-        <v>172</v>
+        <v>168</v>
       </c>
       <c r="F46" s="7" t="s">
         <v>17</v>
@@ -2149,21 +2167,41 @@
     </row>
     <row r="47" spans="1:7" s="7" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A47" s="7" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="B47" s="7" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="C47" s="7" t="s">
         <v>132</v>
       </c>
       <c r="D47" s="7" t="s">
-        <v>176</v>
+        <v>172</v>
       </c>
       <c r="F47" s="7" t="s">
         <v>17</v>
       </c>
       <c r="G47" s="7" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="48" spans="1:7" s="7" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A48" s="7" t="s">
+        <v>131</v>
+      </c>
+      <c r="B48" s="7" t="s">
+        <v>143</v>
+      </c>
+      <c r="C48" s="7" t="s">
+        <v>132</v>
+      </c>
+      <c r="D48" s="7" t="s">
+        <v>176</v>
+      </c>
+      <c r="F48" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="G48" s="7" t="s">
         <v>30</v>
       </c>
     </row>
@@ -2176,13 +2214,13 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:O47"/>
+  <dimension ref="A1:O48"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="G26" activePane="bottomRight" state="frozen"/>
+    <sheetView workbookViewId="0">
+      <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="H30" sqref="H30"/>
+      <selection pane="bottomRight" activeCell="E23" sqref="E23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -2485,7 +2523,7 @@
     </row>
     <row r="7" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>56</v>
+        <v>203</v>
       </c>
       <c r="B7" s="7" t="s">
         <v>200</v>
@@ -2530,56 +2568,56 @@
         <v>29</v>
       </c>
     </row>
-    <row r="8" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A8" t="s">
-        <v>52</v>
+    <row r="8" spans="1:15" s="7" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A8" s="7" t="s">
+        <v>204</v>
       </c>
       <c r="B8" s="7" t="s">
         <v>200</v>
       </c>
-      <c r="C8" t="s">
-        <v>16</v>
-      </c>
-      <c r="D8" t="s">
-        <v>16</v>
-      </c>
-      <c r="E8" t="s">
-        <v>16</v>
-      </c>
-      <c r="F8" t="s">
+      <c r="C8" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="D8" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="E8" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="F8" s="7" t="s">
         <v>16</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="H8" s="7" t="s">
         <v>201</v>
       </c>
-      <c r="I8" t="s">
-        <v>30</v>
-      </c>
-      <c r="J8" t="s">
+      <c r="I8" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="J8" s="7" t="s">
         <v>45</v>
       </c>
-      <c r="K8" t="s">
-        <v>28</v>
-      </c>
-      <c r="L8" t="s">
+      <c r="K8" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="L8" s="7" t="s">
         <v>47</v>
       </c>
-      <c r="M8" t="s">
+      <c r="M8" s="7" t="s">
         <v>33</v>
       </c>
-      <c r="N8" t="s">
+      <c r="N8" s="7" t="s">
         <v>48</v>
       </c>
-      <c r="O8" t="s">
+      <c r="O8" s="7" t="s">
         <v>29</v>
       </c>
     </row>
     <row r="9" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B9" s="7" t="s">
         <v>200</v>
@@ -2606,13 +2644,13 @@
         <v>30</v>
       </c>
       <c r="J9" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="K9" t="s">
         <v>28</v>
       </c>
       <c r="L9" t="s">
-        <v>57</v>
+        <v>47</v>
       </c>
       <c r="M9" t="s">
         <v>33</v>
@@ -2626,7 +2664,7 @@
     </row>
     <row r="10" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
-        <v>58</v>
+        <v>53</v>
       </c>
       <c r="B10" s="7" t="s">
         <v>200</v>
@@ -2644,7 +2682,7 @@
         <v>16</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>138</v>
+        <v>195</v>
       </c>
       <c r="H10" s="7" t="s">
         <v>201</v>
@@ -2653,19 +2691,19 @@
         <v>30</v>
       </c>
       <c r="J10" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="K10" t="s">
         <v>28</v>
       </c>
       <c r="L10" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="M10" t="s">
         <v>33</v>
       </c>
       <c r="N10" t="s">
-        <v>64</v>
+        <v>48</v>
       </c>
       <c r="O10" t="s">
         <v>29</v>
@@ -2673,7 +2711,7 @@
     </row>
     <row r="11" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B11" s="7" t="s">
         <v>200</v>
@@ -2700,7 +2738,7 @@
         <v>30</v>
       </c>
       <c r="J11" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="K11" t="s">
         <v>28</v>
@@ -2720,7 +2758,7 @@
     </row>
     <row r="12" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="B12" s="7" t="s">
         <v>200</v>
@@ -2738,7 +2776,7 @@
         <v>16</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="H12" s="7" t="s">
         <v>201</v>
@@ -2747,19 +2785,19 @@
         <v>30</v>
       </c>
       <c r="J12" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="K12" t="s">
         <v>28</v>
       </c>
       <c r="L12" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="M12" t="s">
-        <v>85</v>
+        <v>33</v>
       </c>
       <c r="N12" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="O12" t="s">
         <v>29</v>
@@ -2767,7 +2805,7 @@
     </row>
     <row r="13" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
       <c r="B13" s="7" t="s">
         <v>200</v>
@@ -2794,7 +2832,7 @@
         <v>30</v>
       </c>
       <c r="J13" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="K13" t="s">
         <v>28</v>
@@ -2814,7 +2852,7 @@
     </row>
     <row r="14" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="B14" s="7" t="s">
         <v>200</v>
@@ -2861,7 +2899,7 @@
     </row>
     <row r="15" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="B15" s="7" t="s">
         <v>200</v>
@@ -2879,7 +2917,7 @@
         <v>16</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="H15" s="7" t="s">
         <v>201</v>
@@ -2888,19 +2926,19 @@
         <v>30</v>
       </c>
       <c r="J15" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="K15" t="s">
         <v>28</v>
       </c>
       <c r="L15" t="s">
-        <v>69</v>
+        <v>62</v>
       </c>
       <c r="M15" t="s">
         <v>85</v>
       </c>
       <c r="N15" t="s">
-        <v>71</v>
+        <v>63</v>
       </c>
       <c r="O15" t="s">
         <v>29</v>
@@ -2908,7 +2946,7 @@
     </row>
     <row r="16" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="B16" s="7" t="s">
         <v>200</v>
@@ -2935,19 +2973,19 @@
         <v>30</v>
       </c>
       <c r="J16" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="K16" t="s">
         <v>28</v>
       </c>
       <c r="L16" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="M16" t="s">
         <v>85</v>
       </c>
       <c r="N16" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="O16" t="s">
         <v>29</v>
@@ -2955,7 +2993,7 @@
     </row>
     <row r="17" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
-        <v>73</v>
+        <v>68</v>
       </c>
       <c r="B17" s="7" t="s">
         <v>200</v>
@@ -2973,7 +3011,7 @@
         <v>16</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="H17" s="7" t="s">
         <v>201</v>
@@ -2982,19 +3020,19 @@
         <v>30</v>
       </c>
       <c r="J17" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="K17" t="s">
         <v>28</v>
       </c>
       <c r="L17" t="s">
-        <v>75</v>
+        <v>70</v>
       </c>
       <c r="M17" t="s">
         <v>85</v>
       </c>
       <c r="N17" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="O17" t="s">
         <v>29</v>
@@ -3002,7 +3040,7 @@
     </row>
     <row r="18" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="B18" s="7" t="s">
         <v>200</v>
@@ -3029,7 +3067,7 @@
         <v>30</v>
       </c>
       <c r="J18" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="K18" t="s">
         <v>28</v>
@@ -3049,7 +3087,7 @@
     </row>
     <row r="19" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
-        <v>86</v>
+        <v>74</v>
       </c>
       <c r="B19" s="7" t="s">
         <v>200</v>
@@ -3096,7 +3134,7 @@
     </row>
     <row r="20" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
-        <v>79</v>
+        <v>86</v>
       </c>
       <c r="B20" s="7" t="s">
         <v>200</v>
@@ -3114,7 +3152,7 @@
         <v>16</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="H20" s="7" t="s">
         <v>201</v>
@@ -3123,19 +3161,19 @@
         <v>30</v>
       </c>
       <c r="J20" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="K20" t="s">
         <v>28</v>
       </c>
       <c r="L20" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="M20" t="s">
         <v>85</v>
       </c>
       <c r="N20" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="O20" t="s">
         <v>29</v>
@@ -3143,7 +3181,7 @@
     </row>
     <row r="21" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="B21" s="7" t="s">
         <v>200</v>
@@ -3167,10 +3205,10 @@
         <v>201</v>
       </c>
       <c r="I21" t="s">
-        <v>89</v>
+        <v>30</v>
       </c>
       <c r="J21" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="K21" t="s">
         <v>28</v>
@@ -3190,7 +3228,7 @@
     </row>
     <row r="22" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
-        <v>87</v>
+        <v>80</v>
       </c>
       <c r="B22" s="7" t="s">
         <v>200</v>
@@ -3237,7 +3275,7 @@
     </row>
     <row r="23" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
-        <v>81</v>
+        <v>87</v>
       </c>
       <c r="B23" s="7" t="s">
         <v>200</v>
@@ -3255,28 +3293,28 @@
         <v>16</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="H23" s="7" t="s">
         <v>201</v>
       </c>
       <c r="I23" t="s">
-        <v>30</v>
+        <v>89</v>
       </c>
       <c r="J23" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="K23" t="s">
         <v>28</v>
       </c>
       <c r="L23" t="s">
-        <v>84</v>
+        <v>78</v>
       </c>
       <c r="M23" t="s">
         <v>85</v>
       </c>
       <c r="N23" t="s">
-        <v>83</v>
+        <v>77</v>
       </c>
       <c r="O23" t="s">
         <v>29</v>
@@ -3284,7 +3322,7 @@
     </row>
     <row r="24" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="B24" s="7" t="s">
         <v>200</v>
@@ -3308,10 +3346,10 @@
         <v>201</v>
       </c>
       <c r="I24" t="s">
-        <v>89</v>
+        <v>30</v>
       </c>
       <c r="J24" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="K24" t="s">
         <v>28</v>
@@ -3331,7 +3369,7 @@
     </row>
     <row r="25" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
-        <v>88</v>
+        <v>82</v>
       </c>
       <c r="B25" s="7" t="s">
         <v>200</v>
@@ -3377,47 +3415,55 @@
       </c>
     </row>
     <row r="26" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A26" s="7" t="s">
-        <v>90</v>
+      <c r="A26" t="s">
+        <v>88</v>
       </c>
       <c r="B26" s="7" t="s">
         <v>200</v>
       </c>
-      <c r="C26" s="7"/>
-      <c r="D26" s="7"/>
-      <c r="E26" s="7"/>
-      <c r="F26" s="7"/>
+      <c r="C26" t="s">
+        <v>16</v>
+      </c>
+      <c r="D26" t="s">
+        <v>16</v>
+      </c>
+      <c r="E26" t="s">
+        <v>16</v>
+      </c>
+      <c r="F26" t="s">
+        <v>16</v>
+      </c>
       <c r="G26" s="7" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="H26" s="7" t="s">
-        <v>202</v>
-      </c>
-      <c r="I26" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="J26" s="7" t="s">
-        <v>91</v>
-      </c>
-      <c r="K26" s="7" t="s">
-        <v>28</v>
-      </c>
-      <c r="L26" s="7" t="s">
-        <v>100</v>
-      </c>
-      <c r="M26" s="7" t="s">
-        <v>101</v>
-      </c>
-      <c r="N26" s="7" t="s">
-        <v>102</v>
-      </c>
-      <c r="O26" s="7" t="s">
+        <v>201</v>
+      </c>
+      <c r="I26" t="s">
+        <v>89</v>
+      </c>
+      <c r="J26" t="s">
+        <v>44</v>
+      </c>
+      <c r="K26" t="s">
+        <v>28</v>
+      </c>
+      <c r="L26" t="s">
+        <v>84</v>
+      </c>
+      <c r="M26" t="s">
+        <v>85</v>
+      </c>
+      <c r="N26" t="s">
+        <v>83</v>
+      </c>
+      <c r="O26" t="s">
         <v>29</v>
       </c>
     </row>
     <row r="27" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A27" s="7" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="B27" s="7" t="s">
         <v>200</v>
@@ -3436,7 +3482,7 @@
         <v>30</v>
       </c>
       <c r="J27" s="7" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="K27" s="7" t="s">
         <v>28</v>
@@ -3456,7 +3502,7 @@
     </row>
     <row r="28" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A28" s="7" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="B28" s="7" t="s">
         <v>200</v>
@@ -3466,28 +3512,28 @@
       <c r="E28" s="7"/>
       <c r="F28" s="7"/>
       <c r="G28" s="7" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="H28" s="7" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="I28" s="7" t="s">
         <v>30</v>
       </c>
       <c r="J28" s="7" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="K28" s="7" t="s">
         <v>28</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="M28" s="7" t="s">
         <v>101</v>
       </c>
       <c r="N28" s="7" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="O28" s="7" t="s">
         <v>29</v>
@@ -3495,7 +3541,7 @@
     </row>
     <row r="29" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A29" s="7" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="B29" s="7" t="s">
         <v>200</v>
@@ -3514,7 +3560,7 @@
         <v>30</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="K29" s="7" t="s">
         <v>28</v>
@@ -3534,7 +3580,7 @@
     </row>
     <row r="30" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A30" s="7" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="B30" s="7" t="s">
         <v>200</v>
@@ -3544,7 +3590,7 @@
       <c r="E30" s="7"/>
       <c r="F30" s="7"/>
       <c r="G30" s="7" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="H30" s="7" t="s">
         <v>201</v>
@@ -3553,19 +3599,19 @@
         <v>30</v>
       </c>
       <c r="J30" s="7" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="K30" s="7" t="s">
         <v>28</v>
       </c>
       <c r="L30" s="7" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="M30" s="7" t="s">
         <v>101</v>
       </c>
       <c r="N30" s="7" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="O30" s="7" t="s">
         <v>29</v>
@@ -3573,7 +3619,7 @@
     </row>
     <row r="31" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A31" s="7" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="B31" s="7" t="s">
         <v>200</v>
@@ -3592,7 +3638,7 @@
         <v>30</v>
       </c>
       <c r="J31" s="7" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="K31" s="7" t="s">
         <v>28</v>
@@ -3612,7 +3658,7 @@
     </row>
     <row r="32" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A32" s="7" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="B32" s="7" t="s">
         <v>200</v>
@@ -3622,7 +3668,7 @@
       <c r="E32" s="7"/>
       <c r="F32" s="7"/>
       <c r="G32" s="7" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="H32" s="7" t="s">
         <v>201</v>
@@ -3631,19 +3677,19 @@
         <v>30</v>
       </c>
       <c r="J32" s="7" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="K32" s="7" t="s">
         <v>28</v>
       </c>
       <c r="L32" s="7" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="M32" s="7" t="s">
         <v>101</v>
       </c>
       <c r="N32" s="7" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="O32" s="7" t="s">
         <v>29</v>
@@ -3651,7 +3697,7 @@
     </row>
     <row r="33" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A33" s="7" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="B33" s="7" t="s">
         <v>200</v>
@@ -3670,7 +3716,7 @@
         <v>30</v>
       </c>
       <c r="J33" s="7" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="K33" s="7" t="s">
         <v>28</v>
@@ -3688,27 +3734,19 @@
         <v>29</v>
       </c>
     </row>
-    <row r="34" spans="1:15" s="7" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A34" s="7" t="s">
-        <v>109</v>
+        <v>99</v>
       </c>
       <c r="B34" s="7" t="s">
         <v>200</v>
       </c>
-      <c r="C34" s="7" t="s">
-        <v>16</v>
-      </c>
-      <c r="D34" s="7" t="s">
-        <v>16</v>
-      </c>
-      <c r="E34" s="7" t="s">
-        <v>16</v>
-      </c>
-      <c r="F34" s="7" t="s">
-        <v>16</v>
-      </c>
+      <c r="C34" s="7"/>
+      <c r="D34" s="7"/>
+      <c r="E34" s="7"/>
+      <c r="F34" s="7"/>
       <c r="G34" s="7" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="H34" s="7" t="s">
         <v>201</v>
@@ -3717,19 +3755,19 @@
         <v>30</v>
       </c>
       <c r="J34" s="7" t="s">
-        <v>45</v>
+        <v>93</v>
       </c>
       <c r="K34" s="7" t="s">
         <v>28</v>
       </c>
       <c r="L34" s="7" t="s">
-        <v>111</v>
+        <v>107</v>
       </c>
       <c r="M34" s="7" t="s">
-        <v>113</v>
+        <v>101</v>
       </c>
       <c r="N34" s="7" t="s">
-        <v>112</v>
+        <v>108</v>
       </c>
       <c r="O34" s="7" t="s">
         <v>29</v>
@@ -3737,7 +3775,7 @@
     </row>
     <row r="35" spans="1:15" s="7" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A35" s="7" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="B35" s="7" t="s">
         <v>200</v>
@@ -3764,7 +3802,7 @@
         <v>30</v>
       </c>
       <c r="J35" s="7" t="s">
-        <v>31</v>
+        <v>45</v>
       </c>
       <c r="K35" s="7" t="s">
         <v>28</v>
@@ -3782,9 +3820,9 @@
         <v>29</v>
       </c>
     </row>
-    <row r="36" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:15" s="7" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A36" s="7" t="s">
-        <v>115</v>
+        <v>110</v>
       </c>
       <c r="B36" s="7" t="s">
         <v>200</v>
@@ -3808,10 +3846,10 @@
         <v>201</v>
       </c>
       <c r="I36" s="7" t="s">
-        <v>114</v>
+        <v>30</v>
       </c>
       <c r="J36" s="7" t="s">
-        <v>93</v>
+        <v>31</v>
       </c>
       <c r="K36" s="7" t="s">
         <v>28</v>
@@ -3829,9 +3867,9 @@
         <v>29</v>
       </c>
     </row>
-    <row r="37" spans="1:15" s="7" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A37" s="7" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="B37" s="7" t="s">
         <v>200</v>
@@ -3849,28 +3887,28 @@
         <v>16</v>
       </c>
       <c r="G37" s="7" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="H37" s="7" t="s">
         <v>201</v>
       </c>
       <c r="I37" s="7" t="s">
-        <v>30</v>
+        <v>114</v>
       </c>
       <c r="J37" s="7" t="s">
-        <v>45</v>
+        <v>93</v>
       </c>
       <c r="K37" s="7" t="s">
         <v>28</v>
       </c>
       <c r="L37" s="7" t="s">
-        <v>120</v>
+        <v>111</v>
       </c>
       <c r="M37" s="7" t="s">
         <v>113</v>
       </c>
       <c r="N37" s="7" t="s">
-        <v>119</v>
+        <v>112</v>
       </c>
       <c r="O37" s="7" t="s">
         <v>29</v>
@@ -3878,7 +3916,7 @@
     </row>
     <row r="38" spans="1:15" s="7" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A38" s="7" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="B38" s="7" t="s">
         <v>200</v>
@@ -3905,7 +3943,7 @@
         <v>30</v>
       </c>
       <c r="J38" s="7" t="s">
-        <v>31</v>
+        <v>45</v>
       </c>
       <c r="K38" s="7" t="s">
         <v>28</v>
@@ -3925,7 +3963,7 @@
     </row>
     <row r="39" spans="1:15" s="7" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A39" s="7" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="B39" s="7" t="s">
         <v>200</v>
@@ -3949,10 +3987,10 @@
         <v>201</v>
       </c>
       <c r="I39" s="7" t="s">
-        <v>114</v>
+        <v>30</v>
       </c>
       <c r="J39" s="7" t="s">
-        <v>93</v>
+        <v>31</v>
       </c>
       <c r="K39" s="7" t="s">
         <v>28</v>
@@ -3972,7 +4010,7 @@
     </row>
     <row r="40" spans="1:15" s="7" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A40" s="7" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="B40" s="7" t="s">
         <v>200</v>
@@ -3990,28 +4028,28 @@
         <v>16</v>
       </c>
       <c r="G40" s="7" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="H40" s="7" t="s">
         <v>201</v>
       </c>
       <c r="I40" s="7" t="s">
-        <v>30</v>
+        <v>114</v>
       </c>
       <c r="J40" s="7" t="s">
-        <v>45</v>
+        <v>93</v>
       </c>
       <c r="K40" s="7" t="s">
         <v>28</v>
       </c>
       <c r="L40" s="7" t="s">
-        <v>124</v>
+        <v>120</v>
       </c>
       <c r="M40" s="7" t="s">
         <v>113</v>
       </c>
       <c r="N40" s="7" t="s">
-        <v>125</v>
+        <v>119</v>
       </c>
       <c r="O40" s="7" t="s">
         <v>29</v>
@@ -4019,7 +4057,7 @@
     </row>
     <row r="41" spans="1:15" s="7" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A41" s="7" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="B41" s="7" t="s">
         <v>200</v>
@@ -4046,7 +4084,7 @@
         <v>30</v>
       </c>
       <c r="J41" s="7" t="s">
-        <v>31</v>
+        <v>45</v>
       </c>
       <c r="K41" s="7" t="s">
         <v>28</v>
@@ -4066,7 +4104,7 @@
     </row>
     <row r="42" spans="1:15" s="7" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A42" s="7" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="B42" s="7" t="s">
         <v>200</v>
@@ -4090,10 +4128,10 @@
         <v>201</v>
       </c>
       <c r="I42" s="7" t="s">
-        <v>114</v>
+        <v>30</v>
       </c>
       <c r="J42" s="7" t="s">
-        <v>93</v>
+        <v>31</v>
       </c>
       <c r="K42" s="7" t="s">
         <v>28</v>
@@ -4113,34 +4151,46 @@
     </row>
     <row r="43" spans="1:15" s="7" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A43" s="7" t="s">
-        <v>127</v>
+        <v>123</v>
       </c>
       <c r="B43" s="7" t="s">
         <v>200</v>
       </c>
+      <c r="C43" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="D43" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="E43" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="F43" s="7" t="s">
+        <v>16</v>
+      </c>
       <c r="G43" s="7" t="s">
-        <v>139</v>
+        <v>150</v>
       </c>
       <c r="H43" s="7" t="s">
         <v>201</v>
       </c>
       <c r="I43" s="7" t="s">
-        <v>30</v>
+        <v>114</v>
       </c>
       <c r="J43" s="7" t="s">
-        <v>45</v>
+        <v>93</v>
       </c>
       <c r="K43" s="7" t="s">
         <v>28</v>
       </c>
       <c r="L43" s="7" t="s">
-        <v>62</v>
+        <v>124</v>
       </c>
       <c r="M43" s="7" t="s">
-        <v>85</v>
+        <v>113</v>
       </c>
       <c r="N43" s="7" t="s">
-        <v>63</v>
+        <v>125</v>
       </c>
       <c r="O43" s="7" t="s">
         <v>29</v>
@@ -4148,13 +4198,13 @@
     </row>
     <row r="44" spans="1:15" s="7" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A44" s="7" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="B44" s="7" t="s">
         <v>200</v>
       </c>
       <c r="G44" s="7" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="H44" s="7" t="s">
         <v>201</v>
@@ -4169,13 +4219,13 @@
         <v>28</v>
       </c>
       <c r="L44" s="7" t="s">
-        <v>69</v>
+        <v>62</v>
       </c>
       <c r="M44" s="7" t="s">
         <v>85</v>
       </c>
       <c r="N44" s="7" t="s">
-        <v>71</v>
+        <v>63</v>
       </c>
       <c r="O44" s="7" t="s">
         <v>29</v>
@@ -4183,13 +4233,13 @@
     </row>
     <row r="45" spans="1:15" s="7" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A45" s="7" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="B45" s="7" t="s">
         <v>200</v>
       </c>
       <c r="G45" s="7" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="H45" s="7" t="s">
         <v>201</v>
@@ -4204,13 +4254,13 @@
         <v>28</v>
       </c>
       <c r="L45" s="7" t="s">
-        <v>75</v>
+        <v>69</v>
       </c>
       <c r="M45" s="7" t="s">
         <v>85</v>
       </c>
       <c r="N45" s="7" t="s">
-        <v>76</v>
+        <v>71</v>
       </c>
       <c r="O45" s="7" t="s">
         <v>29</v>
@@ -4218,13 +4268,13 @@
     </row>
     <row r="46" spans="1:15" s="7" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A46" s="7" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="B46" s="7" t="s">
         <v>200</v>
       </c>
       <c r="G46" s="7" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="H46" s="7" t="s">
         <v>201</v>
@@ -4239,13 +4289,13 @@
         <v>28</v>
       </c>
       <c r="L46" s="7" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="M46" s="7" t="s">
         <v>85</v>
       </c>
       <c r="N46" s="7" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="O46" s="7" t="s">
         <v>29</v>
@@ -4253,13 +4303,13 @@
     </row>
     <row r="47" spans="1:15" s="7" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A47" s="7" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="B47" s="7" t="s">
         <v>200</v>
       </c>
       <c r="G47" s="7" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="H47" s="7" t="s">
         <v>201</v>
@@ -4274,15 +4324,50 @@
         <v>28</v>
       </c>
       <c r="L47" s="7" t="s">
-        <v>84</v>
+        <v>78</v>
       </c>
       <c r="M47" s="7" t="s">
         <v>85</v>
       </c>
       <c r="N47" s="7" t="s">
+        <v>77</v>
+      </c>
+      <c r="O47" s="7" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="48" spans="1:15" s="7" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A48" s="7" t="s">
+        <v>131</v>
+      </c>
+      <c r="B48" s="7" t="s">
+        <v>200</v>
+      </c>
+      <c r="G48" s="7" t="s">
+        <v>143</v>
+      </c>
+      <c r="H48" s="7" t="s">
+        <v>201</v>
+      </c>
+      <c r="I48" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="J48" s="7" t="s">
+        <v>45</v>
+      </c>
+      <c r="K48" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="L48" s="7" t="s">
+        <v>84</v>
+      </c>
+      <c r="M48" s="7" t="s">
+        <v>85</v>
+      </c>
+      <c r="N48" s="7" t="s">
         <v>83</v>
       </c>
-      <c r="O47" s="7" t="s">
+      <c r="O48" s="7" t="s">
         <v>29</v>
       </c>
     </row>

--- a/sources/case/ApprovalTypes.xlsx
+++ b/sources/case/ApprovalTypes.xlsx
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="974" uniqueCount="207">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="974" uniqueCount="223">
   <si>
     <t>API</t>
   </si>
@@ -101,9 +101,6 @@
     <t>uuid</t>
   </si>
   <si>
-    <t>created_by</t>
-  </si>
-  <si>
     <t>has_approval</t>
   </si>
   <si>
@@ -126,9 +123,6 @@
   </si>
   <si>
     <t>continuous_multiple_times</t>
-  </si>
-  <si>
-    <t>调整</t>
   </si>
   <si>
     <t>hr</t>
@@ -154,6 +148,370 @@
   </si>
   <si>
     <t>http://console.t.upvi.com/bapi</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>employee_probation</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>FormalType_1</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>FormalType_2</t>
+  </si>
+  <si>
+    <t>adjuctType_1</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>adjuctType_2</t>
+  </si>
+  <si>
+    <t>many_times</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>duplicate</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>employee_probation</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>resign</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>dismiss</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>dismiss</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Offboard_dismiss1</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Offboard_dismiss2</t>
+  </si>
+  <si>
+    <t>resign</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Offboard_resign1</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Offboard_resign2</t>
+  </si>
+  <si>
+    <t>Offer_1</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Offer_2</t>
+  </si>
+  <si>
+    <t>Leave_1</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>leave_request</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>employee_offer</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Leave_2</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Leave_3</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>resign_1</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>resign_2</t>
+  </si>
+  <si>
+    <t>resign_request</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>resign_request</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>out_1</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>out_2</t>
+  </si>
+  <si>
+    <t>外出</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>out_request</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>overtime_request</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>加班</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>overtime_1</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>overtime_2</t>
+  </si>
+  <si>
+    <t>trip_1</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>trip_2</t>
+  </si>
+  <si>
+    <t>trip_request</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>出差</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>attendance</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>out_3</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>overtime_3</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>trip_3</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>approval_end</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>project_1</t>
+  </si>
+  <si>
+    <t>duplicate</t>
+  </si>
+  <si>
+    <t>project_2</t>
+  </si>
+  <si>
+    <t>many_times</t>
+  </si>
+  <si>
+    <t>general_1</t>
+  </si>
+  <si>
+    <t>general_2</t>
+  </si>
+  <si>
+    <t>materialget_1</t>
+  </si>
+  <si>
+    <t>materialget_2</t>
+  </si>
+  <si>
+    <t>contract_1</t>
+  </si>
+  <si>
+    <t>contract_2</t>
+  </si>
+  <si>
+    <t>automation</t>
+  </si>
+  <si>
+    <t>project_approval</t>
+  </si>
+  <si>
+    <t>general_approval</t>
+  </si>
+  <si>
+    <t>materialget</t>
+  </si>
+  <si>
+    <t>contract</t>
+  </si>
+  <si>
+    <t>purchase_1</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>purchase_2</t>
+  </si>
+  <si>
+    <t>purchase</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>automation</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>approval_end</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>purchase_3</t>
+  </si>
+  <si>
+    <t>reimbursement_1</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>reimbursement_2</t>
+  </si>
+  <si>
+    <t>reimbursement_3</t>
+  </si>
+  <si>
+    <t>reimbursement</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>payment_1</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>payment_2</t>
+  </si>
+  <si>
+    <t>payment_3</t>
+  </si>
+  <si>
+    <t>payment</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>reimbursement_1</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Leave_4</t>
+  </si>
+  <si>
+    <t>resign_4</t>
+  </si>
+  <si>
+    <t>out_4</t>
+  </si>
+  <si>
+    <t>overtime_4</t>
+  </si>
+  <si>
+    <t>trip_4</t>
+  </si>
+  <si>
+    <t>duplicate</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>duplicate</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>duplicate</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>/automation/v1/approval/types/{type_id}/op/all</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>[{"employee_id":"$csv{data.Auth.user_houlong.employee_id}"}]</t>
+  </si>
+  <si>
+    <t>$csv{data.Tenant.microfastup.tenant_id}</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Offboard_resign2</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Offboard_resign3</t>
+  </si>
+  <si>
+    <t>Offboard_resign3</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>[{"uuid":"$csv{data.AllTypes.employee_probation.uuid}","approvers":[{"uuid":"","type":"reporting_to","value":"1"},{"uuid":"","type":"reporting_to","value":"2"},{"uuid":"","type":"reporting_to","value":"3"},{"uuid":"","type":"reporting_to","value":"4"},{"uuid":"","type":"login_user_department_manager","value":""},{"uuid":"","type":"department_manager","value":"${organization_2.uuid}"},{"uuid":"","type":"employee","value":"$csv{data.Auth.user_1.employee_id}"}],"target_type":"","target_value":"!!String{}"},{"uuid":"","approvers":[{"uuid":"","type":"login_user_department_manager","value":""},{"uuid":"","type":"department_manager","value":"${organization_2.uuid}"},{"uuid":"","type":"employee","value":"$csv{data.Auth.user_1.employee_id}"}],"target_type":"sponsor","target_value":"!!String{\"department\":[\"${organization_1.uuid}\"],\"employee\":[]}"},{"uuid":"","approvers":[{"uuid":"","type":"login_user_department_manager","value":""},{"uuid":"","type":"employee","value":"$csv{data.Auth.user_1.employee_id}"},{"uuid":"","type":"employee","value":"$csv{data.Auth.user_houlong.employee_id}"}],"target_type":"sponsor","target_value":"!!String{\"department\":[\"${organization_2.uuid}\"],\"employee\":[]}"}]</t>
+  </si>
+  <si>
+    <t>[{"target_value":"!!String{}","target_type":"","approvers":[{"type":"reporting_to","uuid":"","value":"1"},{"type":"reporting_to","uuid":"","value":"2"},{"type":"reporting_to","uuid":"","value":"3"},{"type":"reporting_to","uuid":"","value":"4"},{"type":"login_user_department_manager","uuid":"","value":""},{"type":"department_manager","uuid":"","value":"${organization_2.uuid}"},{"type":"employee","uuid":"","value":"$csv{data.Auth.user_1.employee_id}"}],"uuid":"$csv{data.AllTypes.employee_resign.uuid}"},{"target_value":"!!String{\"department\":[\"${organization_1.uuid}\"],\"employee\":[]}","target_type":"sponsor","approvers":[{"type":"login_user_department_manager","uuid":"","value":""},{"type":"department_manager","uuid":"","value":"${organization_2.uuid}"},{"type":"employee","uuid":"","value":"$csv{data.Auth.user_1.employee_id}"}],"uuid":""},{"uuid":"","approvers":[{"uuid":"","type":"login_user_department_manager","value":""},{"uuid":"","type":"employee","value":"$csv{data.Auth.user_1.employee_id}"},{"uuid":"","type":"employee","value":"$csv{data.Auth.user_houlong.employee_id}"}],"target_type":"sponsor","target_value":"!!String{\"department\":[\"${organization_2.uuid}\"],\"employee\":[]}"}]</t>
+  </si>
+  <si>
+    <t>[{"target_value":"!!String{}","target_type":"","approvers":[{"type":"reporting_to","uuid":"","value":"1"},{"type":"reporting_to","uuid":"","value":"2"},{"type":"reporting_to","uuid":"","value":"3"},{"type":"reporting_to","uuid":"","value":"4"},{"type":"login_user_department_manager","uuid":"","value":""},{"type":"department_manager","uuid":"","value":"${organization_2.uuid}"},{"type":"employee","uuid":"","value":"$csv{data.Auth.user_1.employee_id}"}],"uuid":"$csv{data.AllTypes.employee_offboard.uuid}"},{"target_value":"!!String{\"department\":[\"${organization_1.uuid}\"],\"employee\":[]}","target_type":"sponsor","approvers":[{"type":"login_user_department_manager","uuid":"","value":""},{"type":"department_manager","uuid":"","value":"${organization_2.uuid}"},{"type":"employee","uuid":"","value":"$csv{data.Auth.user_1.employee_id}"}],"uuid":""},{"uuid":"","approvers":[{"uuid":"","type":"login_user_department_manager","value":""},{"uuid":"","type":"employee","value":"$csv{data.Auth.user_1.employee_id}"},{"uuid":"","type":"employee","value":"$csv{data.Auth.user_houlong.employee_id}"}],"target_type":"sponsor","target_value":"!!String{\"department\":[\"${organization_2.uuid}\"],\"employee\":[]}"}]</t>
+  </si>
+  <si>
+    <t>[{"target_value":"!!String{}","target_type":"","approvers":[{"type":"reporting_to","uuid":"","value":"1"},{"type":"reporting_to","uuid":"","value":"2"},{"type":"reporting_to","uuid":"","value":"3"},{"type":"reporting_to","uuid":"","value":"4"},{"type":"login_user_department_manager","uuid":"","value":""},{"type":"department_manager","uuid":"","value":"${organization_2.uuid}"},{"type":"employee","uuid":"","value":"$csv{data.Auth.user_1.employee_id}"}],"uuid":"$csv{data.AllTypes.employee_offer.uuid}"},{"target_value":"!!String{\"department\":[\"${organization_1.uuid}\"],\"employee\":[]}","target_type":"sponsor","approvers":[{"type":"login_user_department_manager","uuid":"","value":""},{"type":"department_manager","uuid":"","value":"${organization_2.uuid}"},{"type":"employee","uuid":"","value":"$csv{data.Auth.user_1.employee_id}"}],"uuid":""}]</t>
+  </si>
+  <si>
+    <t>[{"target_value":"s{}","target_type":"","approvers":[{"type":"employee","uuid":"","value":"$csv{data.Auth.user_1.employee_id}"}],"uuid":"$csv{data.AllTypes.leave_request.uuid}"}]</t>
+  </si>
+  <si>
+    <t>[{"target_value":"s{}","target_type":"","approvers":[{"type":"employee","uuid":"","value":"$csv{data.Auth.user_1.employee_id}"}],"uuid":"$csv{data.AllTypes.resign_request.uuid}"}]</t>
+  </si>
+  <si>
+    <t>[{"target_value":"!!String{}","target_type":"","approvers":[{"type":"reporting_to","uuid":"","value":"1"},{"type":"reporting_to","uuid":"","value":"2"},{"type":"reporting_to","uuid":"","value":"3"},{"type":"reporting_to","uuid":"","value":"4"},{"type":"login_user_department_manager","uuid":"","value":""},{"type":"department_manager","uuid":"","value":"${organization_2.uuid}"},{"type":"employee","uuid":"","value":"$csv{data.Auth.user_1.employee_id}"}],"uuid":"$csv{data.AllTypes.out_request.uuid}"},{"target_value":"!!String{\"department\":[\"${organization_1.uuid}\"],\"employee\":[]}","target_type":"sponsor","approvers":[{"type":"login_user_department_manager","uuid":"","value":""},{"type":"department_manager","uuid":"","value":"${organization_2.uuid}"},{"type":"employee","uuid":"","value":"$csv{data.Auth.user_1.employee_id}"}],"uuid":""}]</t>
+  </si>
+  <si>
+    <t>[{"target_value":"!!String{}","target_type":"","approvers":[{"type":"reporting_to","uuid":"","value":"1"},{"type":"reporting_to","uuid":"","value":"2"},{"type":"reporting_to","uuid":"","value":"3"},{"type":"reporting_to","uuid":"","value":"4"},{"type":"login_user_department_manager","uuid":"","value":""},{"type":"department_manager","uuid":"","value":"${organization_2.uuid}"},{"type":"employee","uuid":"","value":"$csv{data.Auth.user_1.employee_id}"}],"uuid":"$csv{data.AllTypes.out_request.uuid}"},{"target_value":"!!String{\"department\":[\"${organization_1.uuid}\"],\"employee\":[]}","target_type":"sponsor","approvers":[{"type":"login_user_department_manager","uuid":"","value":""},{"type":"department_manager","uuid":"","value":"${organization_2.uuid}"},{"type":"employee","uuid":"","value":"$csv{data.Auth.user_1.employee_id}"}],"uuid":""},{"uuid":"","approvers":[{"uuid":"","type":"login_user_department_manager","value":""}],"target_type":"duration","target_value":"!!String{\"symbol\":\"&lt;\",\"unit\":\"h\",\"number\":\"4\"}"},{"uuid":"","approvers":[{"uuid":"","type":"login_user_department_manager","value":""},{"uuid":"","type":"department_manager","value":"${organization_1.uuid}"}],"target_type":"duration","target_value":"!!String{\"symbol\":\"==\",\"unit\":\"h\",\"number\":\"4\"}"},{"uuid":"","approvers":[{"uuid":"","type":"login_user_department_manager","value":""},{"uuid":"","type":"department_manager","value":"${organization_1.uuid}"},{"uuid":"","type":"employee","value":"$csv{data.Auth.user_1.employee_id}"}],"target_type":"duration","target_value":"!!String{\"symbol\":\"&gt;\",\"unit\":\"h\",\"number\":\"4\"}"}]</t>
+  </si>
+  <si>
+    <t>[{"target_value":"s{}","target_type":"","approvers":[{"type":"employee","uuid":"","value":"$csv{data.Auth.user_1.employee_id}"}],"uuid":"$csv{data.AllTypes.out_request.uuid}"}]</t>
+  </si>
+  <si>
+    <t>[{"target_value":"!!String{}","target_type":"","approvers":[{"type":"reporting_to","uuid":"","value":"1"},{"type":"reporting_to","uuid":"","value":"2"},{"type":"reporting_to","uuid":"","value":"3"},{"type":"reporting_to","uuid":"","value":"4"},{"type":"login_user_department_manager","uuid":"","value":""},{"type":"department_manager","uuid":"","value":"${organization_2.uuid}"},{"type":"employee","uuid":"","value":"$csv{data.Auth.user_1.employee_id}"}],"uuid":"$csv{data.AllTypes.overtime_request.uuid}"},{"target_value":"!!String{\"department\":[\"${organization_1.uuid}\"],\"employee\":[]}","target_type":"sponsor","approvers":[{"type":"login_user_department_manager","uuid":"","value":""},{"type":"department_manager","uuid":"","value":"${organization_2.uuid}"},{"type":"employee","uuid":"","value":"$csv{data.Auth.user_1.employee_id}"}],"uuid":""}]</t>
+  </si>
+  <si>
+    <t>[{"target_value":"!!String{}","target_type":"","approvers":[{"type":"reporting_to","uuid":"","value":"1"},{"type":"reporting_to","uuid":"","value":"2"},{"type":"reporting_to","uuid":"","value":"3"},{"type":"reporting_to","uuid":"","value":"4"},{"type":"login_user_department_manager","uuid":"","value":""},{"type":"department_manager","uuid":"","value":"${organization_2.uuid}"},{"type":"employee","uuid":"","value":"$csv{data.Auth.user_1.employee_id}"}],"uuid":"$csv{data.AllTypes.overtime_request.uuid}"},{"target_value":"!!String{\"department\":[\"${organization_1.uuid}\"],\"employee\":[]}","target_type":"sponsor","approvers":[{"type":"login_user_department_manager","uuid":"","value":""},{"type":"department_manager","uuid":"","value":"${organization_2.uuid}"},{"type":"employee","uuid":"","value":"$csv{data.Auth.user_1.employee_id}"}],"uuid":""},{"uuid":"","approvers":[{"uuid":"","type":"login_user_department_manager","value":""}],"target_type":"duration","target_value":"!!String{\"symbol\":\"&lt;\",\"unit\":\"m\",\"number\":\"60\"}"},{"uuid":"","approvers":[{"uuid":"","type":"login_user_department_manager","value":""},{"uuid":"","type":"department_manager","value":"${organization_1.uuid}"}],"target_type":"duration","target_value":"!!String{\"symbol\":\"==\",\"unit\":\"m\",\"number\":\"60\"}"},{"uuid":"","approvers":[{"uuid":"","type":"login_user_department_manager","value":""},{"uuid":"","type":"department_manager","value":"${organization_1.uuid}"}],"target_type":"duration","target_value":"!!String{\"symbol\":\"==\",\"unit\":\"d\",\"number\":\"5\"}"},{"uuid":"","approvers":[{"uuid":"","type":"login_user_department_manager","value":""},{"uuid":"","type":"department_manager","value":"${organization_1.uuid}"},{"uuid":"","type":"employee","value":"$csv{data.Auth.user_1.employee_id}"}],"target_type":"duration","target_value":"!!String{\"symbol\":\"&gt;\",\"unit\":\"d\",\"number\":\"5\"}"}]</t>
+  </si>
+  <si>
+    <t>[{"target_value":"s{}","target_type":"","approvers":[{"type":"employee","uuid":"","value":"$csv{data.Auth.user_1.employee_id}"}],"uuid":"$csv{data.AllTypes.overtime_request.uuid}"}]</t>
+  </si>
+  <si>
+    <t>[{"target_value":"!!String{}","target_type":"","approvers":[{"type":"reporting_to","uuid":"","value":"1"},{"type":"reporting_to","uuid":"","value":"2"},{"type":"reporting_to","uuid":"","value":"3"},{"type":"reporting_to","uuid":"","value":"4"},{"type":"login_user_department_manager","uuid":"","value":""},{"type":"department_manager","uuid":"","value":"${organization_2.uuid}"},{"type":"employee","uuid":"","value":"$csv{data.Auth.user_1.employee_id}"}],"uuid":"$csv{data.AllTypes.trip_request.uuid}"},{"target_value":"!!String{\"department\":[\"${organization_1.uuid}\"],\"employee\":[]}","target_type":"sponsor","approvers":[{"type":"login_user_department_manager","uuid":"","value":""},{"type":"department_manager","uuid":"","value":"${organization_2.uuid}"},{"type":"employee","uuid":"","value":"$csv{data.Auth.user_1.employee_id}"}],"uuid":""}]</t>
+  </si>
+  <si>
+    <t>[{"target_value":"!!String{}","target_type":"","approvers":[{"type":"reporting_to","uuid":"","value":"1"},{"type":"reporting_to","uuid":"","value":"2"},{"type":"reporting_to","uuid":"","value":"3"},{"type":"reporting_to","uuid":"","value":"4"},{"type":"login_user_department_manager","uuid":"","value":""},{"type":"department_manager","uuid":"","value":"${organization_2.uuid}"},{"type":"employee","uuid":"","value":"$csv{data.Auth.user_1.employee_id}"}],"uuid":"$csv{data.AllTypes.trip_request.uuid}"},{"target_value":"!!String{\"department\":[\"${organization_1.uuid}\"],\"employee\":[]}","target_type":"sponsor","approvers":[{"type":"login_user_department_manager","uuid":"","value":""},{"type":"department_manager","uuid":"","value":"${organization_2.uuid}"},{"type":"employee","uuid":"","value":"$csv{data.Auth.user_1.employee_id}"}],"uuid":""},{"uuid":"","approvers":[{"uuid":"","type":"login_user_department_manager","value":""}],"target_type":"duration","target_value":"!!String{\"symbol\":\"&lt;=\",\"unit\":\"d\",\"number\":\"4\"}"},{"uuid":"","approvers":[{"uuid":"","type":"login_user_department_manager","value":""},{"uuid":"","type":"department_manager","value":"${organization_1.uuid}"}],"target_type":"duration","target_value":"!!String{\"symbol\":\"==\",\"unit\":\"d\",\"number\":\"5\"}"},{"uuid":"","approvers":[{"uuid":"","type":"login_user_department_manager","value":""},{"uuid":"","type":"department_manager","value":"${organization_1.uuid}"},{"uuid":"","type":"employee","value":"$csv{data.Auth.user_1.employee_id}"}],"target_type":"duration","target_value":"!!String{\"symbol\":\"&gt;=\",\"unit\":\"d\",\"number\":\"6\"}"}]</t>
+  </si>
+  <si>
+    <t>[{"target_value":"s{}","target_type":"","approvers":[{"type":"employee","uuid":"","value":"$csv{data.Auth.user_1.employee_id}"}],"uuid":"$csv{data.AllTypes.trip_request.uuid}"}]</t>
+  </si>
+  <si>
+    <t>[{"uuid":"$csv{data.AllTypes.reimbursement.uuid}","approvers":[{"uuid":"","type":"reporting_to","value":"1"},{"uuid":"","type":"reporting_to","value":"2"},{"uuid":"","type":"reporting_to","value":"3"},{"uuid":"","type":"reporting_to","value":"4"},{"uuid":"","type":"login_user_department_manager","value":""},{"uuid":"","type":"department_manager","value":"${organization_2.uuid}"},{"uuid":"","type":"employee","value":"$csv{data.Auth.user_1.employee_id}"}],"target_type":"","target_value":"!!String{}"}]</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
@@ -183,38 +541,219 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>转正</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>employee_probation</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>FormalType_1</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>FormalType_2</t>
-  </si>
-  <si>
-    <t>adjuctType_1</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>adjuctType_2</t>
-  </si>
-  <si>
-    <t>many_times</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>duplicate</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>employee_probation</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <t>[{"uuid":"$csv{data.AllTypes.employee_adjust.uuid}","approvers":[{"uuid":"","type":"reporting_to","value":"1"},{"uuid":"","type":"reporting_to","value":"2"},{"uuid":"","type":"reporting_to","value":"3"},{"uuid":"","type":"reporting_to","value":"4"},{"uuid":"","type":"login_user_department_manager","value":""},{"uuid":"","type":"department_manager","value":"${organization_2.uuid}"},{"uuid":"","type":"employee","value":"$csv{data.Auth.user_1.employee_id}"}],"target_type":"","target_value":"!!String{}"}]</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>$csv{data.AllTypes.employee_adjust.type_id}</t>
+  </si>
+  <si>
+    <t>[{"uuid":"$csv{data.AllTypes.employee_probation.uuid}","approvers":[{"uuid":"","type":"reporting_to","value":"1"},{"uuid":"","type":"reporting_to","value":"2"},{"uuid":"","type":"reporting_to","value":"3"},{"uuid":"","type":"reporting_to","value":"4"},{"uuid":"","type":"login_user_department_manager","value":""},{"uuid":"","type":"department_manager","value":"${organization_2.uuid}"},{"uuid":"","type":"employee","value":"$csv{data.Auth.user_1.employee_id}"}],"target_type":"","target_value":"!!String{}"}]</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>$csv{data.AllTypes.employee_probation.type_id}</t>
+  </si>
+  <si>
+    <t>[{"uuid":"$csv{data.AllTypes.employee_resign.uuid}","approvers":[{"uuid":"","type":"reporting_to","value":"1"},{"uuid":"","type":"reporting_to","value":"2"},{"uuid":"","type":"reporting_to","value":"3"},{"uuid":"","type":"reporting_to","value":"4"},{"uuid":"","type":"login_user_department_manager","value":""},{"uuid":"","type":"department_manager","value":"${organization_2.uuid}"},{"uuid":"","type":"employee","value":"$csv{data.Auth.user_1.employee_id}"}],"target_type":"","target_value":"!!String{}"}]</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>$csv{data.AllTypes.employee_resign.type_id}</t>
+  </si>
+  <si>
+    <t>[{"uuid":"$csv{data.AllTypes.employee_offboard.uuid}","approvers":[{"uuid":"","type":"reporting_to","value":"1"},{"uuid":"","type":"reporting_to","value":"2"},{"uuid":"","type":"reporting_to","value":"3"},{"uuid":"","type":"reporting_to","value":"4"},{"uuid":"","type":"login_user_department_manager","value":""},{"uuid":"","type":"department_manager","value":"${organization_2.uuid}"},{"uuid":"","type":"employee","value":"$csv{data.Auth.user_1.employee_id}"}],"target_type":"","target_value":"!!String{}"}]</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>$csv{data.AllTypes.employee_offboard.type_id}</t>
+  </si>
+  <si>
+    <t>[{"target_value":"!!String{}","target_type":"","approvers":[{"type":"reporting_to","uuid":"","value":"1"},{"type":"reporting_to","uuid":"","value":"2"},{"type":"reporting_to","uuid":"","value":"3"},{"type":"reporting_to","uuid":"","value":"4"},{"type":"login_user_department_manager","uuid":"","value":""},{"type":"department_manager","uuid":"","value":"${organization_2.uuid}"},{"type":"employee","uuid":"","value":"$csv{data.Auth.user_1.employee_id}"}],"uuid":"$csv{data.AllTypes.employee_offer.uuid}"}]</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>$csv{data.AllTypes.employee_offer.type_id}</t>
+  </si>
+  <si>
+    <t>[{"target_value":"!!String{}","target_type":"","approvers":[{"type":"reporting_to","uuid":"","value":"1"},{"type":"reporting_to","uuid":"","value":"2"},{"type":"reporting_to","uuid":"","value":"3"},{"type":"reporting_to","uuid":"","value":"4"},{"type":"login_user_department_manager","uuid":"","value":""},{"type":"department_manager","uuid":"","value":"${organization_2.uuid}"},{"type":"employee","uuid":"","value":"$csv{data.Auth.user_1.employee_id}"}],"uuid":"$csv{data.AllTypes.leave_request.uuid}"}]</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>$csv{data.AllTypes.leave_request.type_id}</t>
+  </si>
+  <si>
+    <t>[{"target_value":"!!String{}","target_type":"","approvers":[{"type":"reporting_to","uuid":"","value":"1"},{"type":"reporting_to","uuid":"","value":"2"},{"type":"reporting_to","uuid":"","value":"3"},{"type":"reporting_to","uuid":"","value":"4"},{"type":"login_user_department_manager","uuid":"","value":""},{"type":"department_manager","uuid":"","value":"${organization_2.uuid}"},{"type":"employee","uuid":"","value":"$csv{data.Auth.user_1.employee_id}"}],"uuid":"$csv{data.AllTypes.resign_request.uuid}"}]</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>$csv{data.AllTypes.resign_request.type_id}</t>
+  </si>
+  <si>
+    <t>[{"target_value":"!!String{}","target_type":"","approvers":[{"type":"reporting_to","uuid":"","value":"1"},{"type":"reporting_to","uuid":"","value":"2"},{"type":"reporting_to","uuid":"","value":"3"},{"type":"reporting_to","uuid":"","value":"4"},{"type":"login_user_department_manager","uuid":"","value":""},{"type":"department_manager","uuid":"","value":"${organization_2.uuid}"},{"type":"employee","uuid":"","value":"$csv{data.Auth.user_1.employee_id}"}],"uuid":"$csv{data.AllTypes.out_request.uuid}"}]</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>$csv{data.AllTypes.out_request.type_id}</t>
+  </si>
+  <si>
+    <t>[{"target_value":"!!String{}","target_type":"","approvers":[{"type":"reporting_to","uuid":"","value":"1"},{"type":"reporting_to","uuid":"","value":"2"},{"type":"reporting_to","uuid":"","value":"3"},{"type":"reporting_to","uuid":"","value":"4"},{"type":"login_user_department_manager","uuid":"","value":""},{"type":"department_manager","uuid":"","value":"${organization_2.uuid}"},{"type":"employee","uuid":"","value":"$csv{data.Auth.user_1.employee_id}"}],"uuid":"$csv{data.AllTypes.overtime_request.uuid}"}]</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>$csv{data.AllTypes.overtime_request.type_id}</t>
+  </si>
+  <si>
+    <t>[{"target_value":"!!String{}","target_type":"","approvers":[{"type":"reporting_to","uuid":"","value":"1"},{"type":"reporting_to","uuid":"","value":"2"},{"type":"reporting_to","uuid":"","value":"3"},{"type":"reporting_to","uuid":"","value":"4"},{"type":"login_user_department_manager","uuid":"","value":""},{"type":"department_manager","uuid":"","value":"${organization_2.uuid}"},{"type":"employee","uuid":"","value":"$csv{data.Auth.user_1.employee_id}"}],"uuid":"$csv{data.AllTypes.trip_request.uuid}"}]</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>$csv{data.AllTypes.trip_request.type_id}</t>
+  </si>
+  <si>
+    <t>[{"target_value":"!!String{}","target_type":"","approvers":[{"type":"reporting_to","uuid":"","value":"1"},{"type":"reporting_to","uuid":"","value":"2"},{"type":"reporting_to","uuid":"","value":"3"},{"type":"reporting_to","uuid":"","value":"4"},{"type":"login_user_department_manager","uuid":"","value":""},{"type":"department_manager","uuid":"","value":"${organization_2.uuid}"},{"type":"employee","uuid":"","value":"$csv{data.Auth.user_1.employee_id}"}],"uuid":"$csv{data.AllTypes.project_approval.uuid}"}]</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>$csv{data.AllTypes.project_approval.type_id}</t>
+  </si>
+  <si>
+    <t>[{"target_value":"!!String{}","target_type":"","approvers":[{"type":"reporting_to","uuid":"","value":"1"},{"type":"reporting_to","uuid":"","value":"2"},{"type":"reporting_to","uuid":"","value":"3"},{"type":"reporting_to","uuid":"","value":"4"},{"type":"login_user_department_manager","uuid":"","value":""},{"type":"department_manager","uuid":"","value":"${organization_2.uuid}"},{"type":"employee","uuid":"","value":"$csv{data.Auth.user_1.employee_id}"}],"uuid":"$csv{data.AllTypes.general_approval.uuid}"}]</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>$csv{data.AllTypes.general_approval.type_id}</t>
+  </si>
+  <si>
+    <t>[{"target_value":"!!String{}","target_type":"","approvers":[{"type":"reporting_to","uuid":"","value":"1"},{"type":"reporting_to","uuid":"","value":"2"},{"type":"reporting_to","uuid":"","value":"3"},{"type":"reporting_to","uuid":"","value":"4"},{"type":"login_user_department_manager","uuid":"","value":""},{"type":"department_manager","uuid":"","value":"${organization_2.uuid}"},{"type":"employee","uuid":"","value":"$csv{data.Auth.user_1.employee_id}"}],"uuid":"$csv{data.AllTypes.materialget.uuid}"}]</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>$csv{data.AllTypes.materialget.type_id}</t>
+  </si>
+  <si>
+    <t>[{"target_value":"!!String{}","target_type":"","approvers":[{"type":"reporting_to","uuid":"","value":"1"},{"type":"reporting_to","uuid":"","value":"2"},{"type":"reporting_to","uuid":"","value":"3"},{"type":"reporting_to","uuid":"","value":"4"},{"type":"login_user_department_manager","uuid":"","value":""},{"type":"department_manager","uuid":"","value":"${organization_2.uuid}"},{"type":"employee","uuid":"","value":"$csv{data.Auth.user_1.employee_id}"}],"uuid":"$csv{data.AllTypes.contract.uuid}"}]</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>$csv{data.AllTypes.contract.type_id}</t>
+  </si>
+  <si>
+    <t>[{"uuid":"$csv{data.AllTypes.purchase.uuid}","approvers":[{"uuid":"","type":"reporting_to","value":"1"},{"uuid":"","type":"reporting_to","value":"2"},{"uuid":"","type":"reporting_to","value":"3"},{"uuid":"","type":"reporting_to","value":"4"},{"uuid":"","type":"login_user_department_manager","value":""},{"uuid":"","type":"department_manager","value":"${organization_2.uuid}"},{"uuid":"","type":"employee","value":"$csv{data.Auth.user_1.employee_id}"}],"target_type":"","target_value":"!!String{}"}]</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>$csv{data.AllTypes.purchase.type_id}</t>
+  </si>
+  <si>
+    <t>$csv{data.AllTypes.reimbursement.type_id}</t>
+  </si>
+  <si>
+    <t>[{"uuid":"$csv{data.AllTypes.payment.uuid}","approvers":[{"uuid":"","type":"reporting_to","value":"1"},{"uuid":"","type":"reporting_to","value":"2"},{"uuid":"","type":"reporting_to","value":"3"},{"uuid":"","type":"reporting_to","value":"4"},{"uuid":"","type":"login_user_department_manager","value":""},{"uuid":"","type":"department_manager","value":"${organization_2.uuid}"},{"uuid":"","type":"employee","value":"$csv{data.Auth.user_1.employee_id}"}],"target_type":"","target_value":"!!String{}"}]</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>$csv{data.AllTypes.payment.type_id}</t>
+  </si>
+  <si>
+    <t>created_by</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>$csv{data.AllTypes.employee_adjust.created_by}</t>
+  </si>
+  <si>
+    <t>$csv{data.AllTypes.employee_probation.created_by}</t>
+  </si>
+  <si>
+    <t>$csv{data.AllTypes.employee_resign.created_by}</t>
+  </si>
+  <si>
+    <t>$csv{data.AllTypes.employee_offboard.created_by}</t>
+  </si>
+  <si>
+    <t>$csv{data.AllTypes.employee_offer.created_by}</t>
+  </si>
+  <si>
+    <t>$csv{data.AllTypes.leave_request.created_by}</t>
+  </si>
+  <si>
+    <t>$csv{data.AllTypes.resign_request.created_by}</t>
+  </si>
+  <si>
+    <t>$csv{data.AllTypes.out_request.created_by}</t>
+  </si>
+  <si>
+    <t>$csv{data.AllTypes.overtime_request.created_by}</t>
+  </si>
+  <si>
+    <t>$csv{data.AllTypes.trip_request.created_by}</t>
+  </si>
+  <si>
+    <t>$csv{data.AllTypes.project_approval.created_by}</t>
+  </si>
+  <si>
+    <t>$csv{data.AllTypes.general_approval.created_by}</t>
+  </si>
+  <si>
+    <t>$csv{data.AllTypes.materialget.created_by}</t>
+  </si>
+  <si>
+    <t>$csv{data.AllTypes.contract.created_by}</t>
+  </si>
+  <si>
+    <t>$csv{data.AllTypes.purchase.created_by}</t>
+  </si>
+  <si>
+    <t>$csv{data.AllTypes.reimbursement.created_by}</t>
+  </si>
+  <si>
+    <t>$csv{data.AllTypes.payment.created_by}</t>
+  </si>
+  <si>
+    <t>$csv{data.AllTypes.employee_adjust.name}</t>
+  </si>
+  <si>
+    <t>$csv{data.AllTypes.employee_probation.name}</t>
+  </si>
+  <si>
+    <t>$csv{data.AllTypes.employee_offer.name}</t>
+  </si>
+  <si>
+    <t>$csv{data.AllTypes.leave_request.name}</t>
+  </si>
+  <si>
+    <t>$csv{data.AllTypes.resign_request.name}</t>
+  </si>
+  <si>
+    <t>$csv{data.AllTypes.out_request.name}</t>
+  </si>
+  <si>
+    <t>$csv{data.AllTypes.overtime_request.name}</t>
+  </si>
+  <si>
+    <t>$csv{data.AllTypes.trip_request.name}</t>
+  </si>
+  <si>
+    <t>$csv{data.AllTypes.project_approval.name}</t>
+  </si>
+  <si>
+    <t>$csv{data.AllTypes.general_approval.name}</t>
+  </si>
+  <si>
+    <t>$csv{data.AllTypes.materialget.name}</t>
+  </si>
+  <si>
+    <t>$csv{data.AllTypes.contract.name}</t>
+  </si>
+  <si>
+    <t>$csv{data.AllTypes.purchase.name}</t>
+  </si>
+  <si>
+    <t>$csv{data.AllTypes.reimbursement.name}</t>
+  </si>
+  <si>
+    <t>$csv{data.AllTypes.payment.name}</t>
   </si>
   <si>
     <t>离职</t>
@@ -225,536 +764,50 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>resign</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>dismiss</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>dismiss</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>Offboard_dismiss1</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>Offboard_dismiss2</t>
-  </si>
-  <si>
-    <t>resign</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>Offboard_resign1</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>Offboard_resign2</t>
-  </si>
-  <si>
-    <t>离职</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>Offer_1</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>Offer_2</t>
-  </si>
-  <si>
-    <t>Offer</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>Leave_1</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>请假</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>leave_request</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>employee_offer</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>Leave_2</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>Leave_3</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>resign_1</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>resign_2</t>
-  </si>
-  <si>
-    <t>补卡</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>补卡</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>resign_request</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>resign_request</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>out_1</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>out_2</t>
-  </si>
-  <si>
-    <t>外出</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>out_request</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>overtime_request</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>加班</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>overtime_1</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>overtime_2</t>
-  </si>
-  <si>
-    <t>trip_1</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>trip_2</t>
-  </si>
-  <si>
-    <t>trip_request</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>出差</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>attendance</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>out_3</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>overtime_3</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>trip_3</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>approval_end</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>project_1</t>
-  </si>
-  <si>
-    <t>duplicate</t>
-  </si>
-  <si>
-    <t>project_2</t>
-  </si>
-  <si>
-    <t>many_times</t>
-  </si>
-  <si>
-    <t>general_1</t>
-  </si>
-  <si>
-    <t>general_2</t>
-  </si>
-  <si>
-    <t>materialget_1</t>
-  </si>
-  <si>
-    <t>materialget_2</t>
-  </si>
-  <si>
-    <t>contract_1</t>
-  </si>
-  <si>
-    <t>contract_2</t>
-  </si>
-  <si>
-    <t>项目审批</t>
-  </si>
-  <si>
-    <t>automation</t>
-  </si>
-  <si>
-    <t>project_approval</t>
-  </si>
-  <si>
-    <t>通用审批</t>
-  </si>
-  <si>
-    <t>general_approval</t>
-  </si>
-  <si>
-    <t>物品领用</t>
-  </si>
-  <si>
-    <t>materialget</t>
-  </si>
-  <si>
-    <t>合同</t>
-  </si>
-  <si>
-    <t>contract</t>
-  </si>
-  <si>
-    <t>purchase_1</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>purchase_2</t>
-  </si>
-  <si>
-    <t>采购</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>purchase</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>automation</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>approval_end</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>purchase_3</t>
-  </si>
-  <si>
-    <t>reimbursement_1</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>reimbursement_2</t>
-  </si>
-  <si>
-    <t>reimbursement_3</t>
-  </si>
-  <si>
-    <t>reimbursement</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>报销</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>payment_1</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>payment_2</t>
-  </si>
-  <si>
-    <t>payment_3</t>
-  </si>
-  <si>
-    <t>付款</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>payment</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>reimbursement_1</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>Leave_4</t>
-  </si>
-  <si>
-    <t>resign_4</t>
-  </si>
-  <si>
-    <t>out_4</t>
-  </si>
-  <si>
-    <t>overtime_4</t>
-  </si>
-  <si>
-    <t>trip_4</t>
-  </si>
-  <si>
-    <t>duplicate</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>duplicate</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>duplicate</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>/automation/v1/approval/types/{type_id}/op/all</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>$temp{AllTypes.items.uuid?name='调整'}</t>
-  </si>
-  <si>
-    <t>$temp{AllTypes.items.uuid?name='转正'}</t>
-  </si>
-  <si>
-    <t>$temp{AllTypes.items.uuid?name='Offer'}</t>
-  </si>
-  <si>
-    <t>$temp{AllTypes.items.uuid?name='请假'}</t>
-  </si>
-  <si>
-    <t>$temp{AllTypes.items.uuid?name='补卡'}</t>
-  </si>
-  <si>
-    <t>$temp{AllTypes.items.uuid?name='外出'}</t>
-  </si>
-  <si>
-    <t>$temp{AllTypes.items.uuid?name='加班'}</t>
-  </si>
-  <si>
-    <t>$temp{AllTypes.items.uuid?name='出差'}</t>
-  </si>
-  <si>
-    <t>$temp{AllTypes.items.uuid?name='项目审批'}</t>
-  </si>
-  <si>
-    <t>$temp{AllTypes.items.uuid?name='通用审批'}</t>
-  </si>
-  <si>
-    <t>$temp{AllTypes.items.uuid?name='物品领用'}</t>
-  </si>
-  <si>
-    <t>$temp{AllTypes.items.uuid?name='合同'}</t>
-  </si>
-  <si>
-    <t>$temp{AllTypes.items.uuid?name='采购'}</t>
-  </si>
-  <si>
-    <t>$temp{AllTypes.items.uuid?name='报销'}</t>
-  </si>
-  <si>
-    <t>$temp{AllTypes.items.uuid?name='付款'}</t>
-  </si>
-  <si>
-    <t>[{"employee_id":"$csv{data.Auth.user_houlong.employee_id}"}]</t>
-  </si>
-  <si>
-    <t>[{"uuid":"$csv{data.AllTypes.adjuct.uuid}","approvers":[{"uuid":"","type":"reporting_to","value":"1"},{"uuid":"","type":"reporting_to","value":"2"},{"uuid":"","type":"reporting_to","value":"3"},{"uuid":"","type":"reporting_to","value":"4"},{"uuid":"","type":"login_user_department_manager","value":""},{"uuid":"","type":"department_manager","value":"${organization_2.uuid}"},{"uuid":"","type":"employee","value":"$csv{data.Auth.user_1.employee_id}"}],"target_type":"","target_value":"!!String{}"}]</t>
-  </si>
-  <si>
-    <t>[{"uuid":"$csv{data.AllTypes.adjuct.uuid}","approvers":[{"uuid":"","type":"reporting_to","value":"1"},{"uuid":"","type":"reporting_to","value":"2"},{"uuid":"","type":"reporting_to","value":"3"},{"uuid":"","type":"reporting_to","value":"4"},{"uuid":"","type":"login_user_department_manager","value":""},{"uuid":"","type":"department_manager","value":"${organization_2.uuid}"},{"uuid":"","type":"employee","value":"$csv{data.Auth.user_1.employee_id}"}],"target_type":"","target_value":"!!String{}"},{"uuid":"","approvers":[{"uuid":"","type":"login_user_department_manager","value":""},{"uuid":"","type":"department_manager","value":"${organization_2.uuid}"},{"uuid":"","type":"employee","value":"$csv{data.Auth.user_1.employee_id}"}],"target_type":"sponsor","target_value":"!!String{\"department\":[\"${organization_1.uuid}\"],\"employee\":[]}"},{"uuid":"","approvers":[{"uuid":"","type":"login_user_department_manager","value":""},{"uuid":"","type":"employee","value":"$csv{data.Auth.user_1.employee_id}"},{"uuid":"","type":"employee","value":"$csv{data.Auth.user_houlong.employee_id}"}],"target_type":"sponsor","target_value":"!!String{\"department\":[\"${organization_2.uuid}\"],\"employee\":[]}"},{"uuid":"","approvers":[{"uuid":"","type":"reporting_to","value":"4"},{"uuid":"","type":"login_user_department_manager","value":""},{"uuid":"","type":"employee","value":"$csv{data.Auth.user_1.employee_id}"},{"uuid":"","type":"employee","value":"$csv{data.Auth.user_houlong.employee_id}"}],"target_type":"sponsor","target_value":"!!String{\"department\":[],\"employee\":[\"${Auth.employee_id}\"]}"}]</t>
-  </si>
-  <si>
-    <t>[{"uuid":"$csv{data.AllTypes.formal.uuid}","approvers":[{"uuid":"","type":"reporting_to","value":"1"},{"uuid":"","type":"reporting_to","value":"2"},{"uuid":"","type":"reporting_to","value":"3"},{"uuid":"","type":"reporting_to","value":"4"},{"uuid":"","type":"login_user_department_manager","value":""},{"uuid":"","type":"department_manager","value":"${organization_2.uuid}"},{"uuid":"","type":"employee","value":"$csv{data.Auth.user_1.employee_id}"}],"target_type":"","target_value":"!!String{}"}]</t>
-  </si>
-  <si>
-    <t>[{"uuid":"$csv{data.AllTypes.formal.uuid}","approvers":[{"uuid":"","type":"reporting_to","value":"1"},{"uuid":"","type":"reporting_to","value":"2"},{"uuid":"","type":"reporting_to","value":"3"},{"uuid":"","type":"reporting_to","value":"4"},{"uuid":"","type":"login_user_department_manager","value":""},{"uuid":"","type":"department_manager","value":"${organization_2.uuid}"},{"uuid":"","type":"employee","value":"$csv{data.Auth.user_1.employee_id}"}],"target_type":"","target_value":"!!String{}"},{"uuid":"","approvers":[{"uuid":"","type":"login_user_department_manager","value":""},{"uuid":"","type":"department_manager","value":"${organization_2.uuid}"},{"uuid":"","type":"employee","value":"$csv{data.Auth.user_1.employee_id}"}],"target_type":"sponsor","target_value":"!!String{\"department\":[\"${organization_1.uuid}\"],\"employee\":[]}"},{"uuid":"","approvers":[{"uuid":"","type":"login_user_department_manager","value":""},{"uuid":"","type":"employee","value":"$csv{data.Auth.user_1.employee_id}"},{"uuid":"","type":"employee","value":"$csv{data.Auth.user_houlong.employee_id}"}],"target_type":"sponsor","target_value":"!!String{\"department\":[\"${organization_2.uuid}\"],\"employee\":[]}"}]</t>
-  </si>
-  <si>
-    <t>[{"target_value":"!!String{}","target_type":"","approvers":[{"type":"reporting_to","uuid":"","value":"1"},{"type":"reporting_to","uuid":"","value":"2"},{"type":"reporting_to","uuid":"","value":"3"},{"type":"reporting_to","uuid":"","value":"4"},{"type":"login_user_department_manager","uuid":"","value":""},{"type":"department_manager","uuid":"","value":"${organization_2.uuid}"},{"type":"employee","uuid":"","value":"$csv{data.Auth.user_1.employee_id}"}],"uuid":"$csv{data.AllTypes.offer.uuid}"}]</t>
-  </si>
-  <si>
-    <t>[{"target_value":"!!String{}","target_type":"","approvers":[{"type":"reporting_to","uuid":"","value":"1"},{"type":"reporting_to","uuid":"","value":"2"},{"type":"reporting_to","uuid":"","value":"3"},{"type":"reporting_to","uuid":"","value":"4"},{"type":"login_user_department_manager","uuid":"","value":""},{"type":"department_manager","uuid":"","value":"${organization_2.uuid}"},{"type":"employee","uuid":"","value":"$csv{data.Auth.user_1.employee_id}"}],"uuid":"$csv{data.AllTypes.offer.uuid}"},{"target_value":"!!String{\"department\":[\"${organization_1.uuid}\"],\"employee\":[]}","target_type":"sponsor","approvers":[{"type":"login_user_department_manager","uuid":"","value":""},{"type":"department_manager","uuid":"","value":"${organization_2.uuid}"},{"type":"employee","uuid":"","value":"$csv{data.Auth.user_1.employee_id}"}],"uuid":""}]</t>
-  </si>
-  <si>
-    <t>[{"target_value":"!!String{}","target_type":"","approvers":[{"type":"reporting_to","uuid":"","value":"1"},{"type":"reporting_to","uuid":"","value":"2"},{"type":"reporting_to","uuid":"","value":"3"},{"type":"reporting_to","uuid":"","value":"4"},{"type":"login_user_department_manager","uuid":"","value":""},{"type":"department_manager","uuid":"","value":"${organization_2.uuid}"},{"type":"employee","uuid":"","value":"$csv{data.Auth.user_1.employee_id}"}],"uuid":"$csv{data.AllTypes.leave.uuid}"}]</t>
-  </si>
-  <si>
-    <t>[{"target_value":"!!String{}","target_type":"","approvers":[{"type":"reporting_to","uuid":"","value":"1"},{"type":"reporting_to","uuid":"","value":"2"},{"type":"reporting_to","uuid":"","value":"3"},{"type":"reporting_to","uuid":"","value":"4"},{"type":"login_user_department_manager","uuid":"","value":""},{"type":"department_manager","uuid":"","value":"${organization_2.uuid}"},{"type":"employee","uuid":"","value":"$csv{data.Auth.user_1.employee_id}"}],"uuid":"$csv{data.AllTypes.leave.uuid}"},{"target_value":"!!String{\"department\":[\"${organization_1.uuid}\"],\"employee\":[]}","target_type":"sponsor","approvers":[{"type":"login_user_department_manager","uuid":"","value":""},{"type":"department_manager","uuid":"","value":"${organization_2.uuid}"},{"type":"employee","uuid":"","value":"$csv{data.Auth.user_1.employee_id}"}],"uuid":""},{"uuid":"","approvers":[{"uuid":"","type":"employee","value":"$csv{data.Auth.user_1.employee_id}"},{"uuid":"","type":"login_user_department_manager","value":""}],"target_type":"sponsor","target_value":"!!String{\"department\":[],\"employee\":[\"${Auth.employee_id}\"]}"}]</t>
-  </si>
-  <si>
-    <t>[{"target_value":"!!String{}","target_type":"","approvers":[{"type":"reporting_to","uuid":"","value":"1"},{"type":"reporting_to","uuid":"","value":"2"},{"type":"reporting_to","uuid":"","value":"3"},{"type":"reporting_to","uuid":"","value":"4"},{"type":"login_user_department_manager","uuid":"","value":""},{"type":"department_manager","uuid":"","value":"${organization_2.uuid}"},{"type":"employee","uuid":"","value":"$csv{data.Auth.user_1.employee_id}"}],"uuid":"$csv{data.AllTypes.leave.uuid}"},{"target_value":"!!String{\"department\":[\"${organization_1.uuid}\"],\"employee\":[]}","target_type":"sponsor","approvers":[{"type":"login_user_department_manager","uuid":"","value":""},{"type":"department_manager","uuid":"","value":"${organization_2.uuid}"},{"type":"employee","uuid":"","value":"$csv{data.Auth.user_1.employee_id}"}],"uuid":""},{"uuid":"","approvers":[{"uuid":"","type":"login_user_department_manager","value":""}],"target_type":"duration","target_value":"!!String{\"symbol\":\"&lt;\",\"unit\":\"m\",\"number\":\"60\"}"},{"uuid":"","approvers":[{"uuid":"","type":"login_user_department_manager","value":""},{"uuid":"","type":"department_manager","value":"${organization_1.uuid}"}],"target_type":"duration","target_value":"!!String{\"symbol\":\"==\",\"unit\":\"m\",\"number\":\"60\"}"},{"uuid":"","approvers":[{"uuid":"","type":"login_user_department_manager","value":""},{"uuid":"","type":"department_manager","value":"${organization_1.uuid}"},{"uuid":"","type":"employee","value":"$csv{data.Auth.user_1.employee_id}"}],"target_type":"duration","target_value":"!!String{\"symbol\":\"&gt;\",\"unit\":\"m\",\"number\":\"60\"}"},{"uuid":"","approvers":[{"uuid":"","type":"employee","value":"$csv{data.Auth.user_1.employee_id}"},{"uuid":"","type":"login_user_department_manager","value":""}],"target_type":"sponsor","target_value":"!!String{\"department\":[],\"employee\":[\"${Auth.employee_id}\"]}"}]</t>
-  </si>
-  <si>
-    <t>[{"target_value":"s{}","target_type":"","approvers":[{"type":"employee","uuid":"","value":"$csv{data.Auth.user_1.employee_id}"}],"uuid":"$csv{data.AllTypes.leave.uuid}"}]</t>
-  </si>
-  <si>
-    <t>[{"target_value":"!!String{}","target_type":"","approvers":[{"type":"reporting_to","uuid":"","value":"1"},{"type":"reporting_to","uuid":"","value":"2"},{"type":"reporting_to","uuid":"","value":"3"},{"type":"reporting_to","uuid":"","value":"4"},{"type":"login_user_department_manager","uuid":"","value":""},{"type":"department_manager","uuid":"","value":"${organization_2.uuid}"},{"type":"employee","uuid":"","value":"$csv{data.Auth.user_1.employee_id}"}],"uuid":"$csv{data.AllTypes.resign.uuid}"}]</t>
-  </si>
-  <si>
-    <t>[{"uuid":"$csv{data.AllTypes.resign.uuid}","approvers":[{"uuid":"","type":"reporting_to","value":"1"},{"uuid":"","type":"reporting_to","value":"2"},{"uuid":"","type":"reporting_to","value":"3"},{"uuid":"","type":"reporting_to","value":"4"},{"uuid":"","type":"login_user_department_manager","value":""},{"uuid":"","type":"department_manager","value":"${organization_2.uuid}"},{"uuid":"","type":"employee","value":"$csv{data.Auth.user_1.employee_id}"}],"target_type":"","target_value":"!!String{}"},{"uuid":"","approvers":[{"uuid":"","type":"login_user_department_manager","value":""},{"uuid":"","type":"department_manager","value":"${organization_2.uuid}"},{"uuid":"","type":"employee","value":"$csv{data.Auth.user_1.employee_id}"}],"target_type":"sponsor","target_value":"!!String{\"department\":[\"${organization_1.uuid}\"],\"employee\":[]}"},{"uuid":"","approvers":[{"uuid":"","type":"login_user_department_manager","value":""},{"uuid":"","type":"employee","value":"$csv{data.Auth.user_1.employee_id}"},{"uuid":"","type":"employee","value":"$csv{data.Auth.user_houlong.employee_id}"}],"target_type":"sponsor","target_value":"!!String{\"department\":[\"${organization_2.uuid}\"],\"employee\":[]}"},{"uuid":"","approvers":[{"uuid":"","type":"reporting_to","value":"4"},{"uuid":"","type":"login_user_department_manager","value":""},{"uuid":"","type":"employee","value":"$csv{data.Auth.user_1.employee_id}"},{"uuid":"","type":"employee","value":"$csv{data.Auth.user_houlong.employee_id}"}],"target_type":"sponsor","target_value":"!!String{\"department\":[],\"employee\":[\"${Auth.employee_id}\"]}"}]</t>
-  </si>
-  <si>
-    <t>[{"target_value":"s{}","target_type":"","approvers":[{"type":"employee","uuid":"","value":"$csv{data.Auth.user_1.employee_id}"}],"uuid":"$csv{data.AllTypes.resign.uuid}"}]</t>
-  </si>
-  <si>
-    <t>[{"target_value":"!!String{}","target_type":"","approvers":[{"type":"reporting_to","uuid":"","value":"1"},{"type":"reporting_to","uuid":"","value":"2"},{"type":"reporting_to","uuid":"","value":"3"},{"type":"reporting_to","uuid":"","value":"4"},{"type":"login_user_department_manager","uuid":"","value":""},{"type":"department_manager","uuid":"","value":"${organization_2.uuid}"},{"type":"employee","uuid":"","value":"$csv{data.Auth.user_1.employee_id}"}],"uuid":"$csv{data.AllTypes.out.uuid}"}]</t>
-  </si>
-  <si>
-    <t>[{"target_value":"!!String{}","target_type":"","approvers":[{"type":"reporting_to","uuid":"","value":"1"},{"type":"reporting_to","uuid":"","value":"2"},{"type":"reporting_to","uuid":"","value":"3"},{"type":"reporting_to","uuid":"","value":"4"},{"type":"login_user_department_manager","uuid":"","value":""},{"type":"department_manager","uuid":"","value":"${organization_2.uuid}"},{"type":"employee","uuid":"","value":"$csv{data.Auth.user_1.employee_id}"}],"uuid":"$csv{data.AllTypes.out.uuid}"},{"target_value":"!!String{\"department\":[\"${organization_1.uuid}\"],\"employee\":[]}","target_type":"sponsor","approvers":[{"type":"login_user_department_manager","uuid":"","value":""},{"type":"department_manager","uuid":"","value":"${organization_2.uuid}"},{"type":"employee","uuid":"","value":"$csv{data.Auth.user_1.employee_id}"}],"uuid":""}]</t>
-  </si>
-  <si>
-    <t>[{"target_value":"!!String{}","target_type":"","approvers":[{"type":"reporting_to","uuid":"","value":"1"},{"type":"reporting_to","uuid":"","value":"2"},{"type":"reporting_to","uuid":"","value":"3"},{"type":"reporting_to","uuid":"","value":"4"},{"type":"login_user_department_manager","uuid":"","value":""},{"type":"department_manager","uuid":"","value":"${organization_2.uuid}"},{"type":"employee","uuid":"","value":"$csv{data.Auth.user_1.employee_id}"}],"uuid":"$csv{data.AllTypes.out.uuid}"},{"target_value":"!!String{\"department\":[\"${organization_1.uuid}\"],\"employee\":[]}","target_type":"sponsor","approvers":[{"type":"login_user_department_manager","uuid":"","value":""},{"type":"department_manager","uuid":"","value":"${organization_2.uuid}"},{"type":"employee","uuid":"","value":"$csv{data.Auth.user_1.employee_id}"}],"uuid":""},{"uuid":"","approvers":[{"uuid":"","type":"login_user_department_manager","value":""}],"target_type":"duration","target_value":"!!String{\"symbol\":\"&lt;\",\"unit\":\"h\",\"number\":\"4\"}"},{"uuid":"","approvers":[{"uuid":"","type":"login_user_department_manager","value":""},{"uuid":"","type":"department_manager","value":"${organization_1.uuid}"}],"target_type":"duration","target_value":"!!String{\"symbol\":\"==\",\"unit\":\"h\",\"number\":\"4\"}"},{"uuid":"","approvers":[{"uuid":"","type":"login_user_department_manager","value":""},{"uuid":"","type":"department_manager","value":"${organization_1.uuid}"},{"uuid":"","type":"employee","value":"$csv{data.Auth.user_1.employee_id}"}],"target_type":"duration","target_value":"!!String{\"symbol\":\"&gt;\",\"unit\":\"h\",\"number\":\"4\"}"}]</t>
-  </si>
-  <si>
-    <t>[{"target_value":"s{}","target_type":"","approvers":[{"type":"employee","uuid":"","value":"$csv{data.Auth.user_1.employee_id}"}],"uuid":"$csv{data.AllTypes.out.uuid}"}]</t>
-  </si>
-  <si>
-    <t>[{"target_value":"!!String{}","target_type":"","approvers":[{"type":"reporting_to","uuid":"","value":"1"},{"type":"reporting_to","uuid":"","value":"2"},{"type":"reporting_to","uuid":"","value":"3"},{"type":"reporting_to","uuid":"","value":"4"},{"type":"login_user_department_manager","uuid":"","value":""},{"type":"department_manager","uuid":"","value":"${organization_2.uuid}"},{"type":"employee","uuid":"","value":"$csv{data.Auth.user_1.employee_id}"}],"uuid":"$csv{data.AllTypes.overtime.uuid}"}]</t>
-  </si>
-  <si>
-    <t>[{"target_value":"!!String{}","target_type":"","approvers":[{"type":"reporting_to","uuid":"","value":"1"},{"type":"reporting_to","uuid":"","value":"2"},{"type":"reporting_to","uuid":"","value":"3"},{"type":"reporting_to","uuid":"","value":"4"},{"type":"login_user_department_manager","uuid":"","value":""},{"type":"department_manager","uuid":"","value":"${organization_2.uuid}"},{"type":"employee","uuid":"","value":"$csv{data.Auth.user_1.employee_id}"}],"uuid":"$csv{data.AllTypes.overtime.uuid}"},{"target_value":"!!String{\"department\":[\"${organization_1.uuid}\"],\"employee\":[]}","target_type":"sponsor","approvers":[{"type":"login_user_department_manager","uuid":"","value":""},{"type":"department_manager","uuid":"","value":"${organization_2.uuid}"},{"type":"employee","uuid":"","value":"$csv{data.Auth.user_1.employee_id}"}],"uuid":""}]</t>
-  </si>
-  <si>
-    <t>[{"target_value":"!!String{}","target_type":"","approvers":[{"type":"reporting_to","uuid":"","value":"1"},{"type":"reporting_to","uuid":"","value":"2"},{"type":"reporting_to","uuid":"","value":"3"},{"type":"reporting_to","uuid":"","value":"4"},{"type":"login_user_department_manager","uuid":"","value":""},{"type":"department_manager","uuid":"","value":"${organization_2.uuid}"},{"type":"employee","uuid":"","value":"$csv{data.Auth.user_1.employee_id}"}],"uuid":"$csv{data.AllTypes.overtime.uuid}"},{"target_value":"!!String{\"department\":[\"${organization_1.uuid}\"],\"employee\":[]}","target_type":"sponsor","approvers":[{"type":"login_user_department_manager","uuid":"","value":""},{"type":"department_manager","uuid":"","value":"${organization_2.uuid}"},{"type":"employee","uuid":"","value":"$csv{data.Auth.user_1.employee_id}"}],"uuid":""},{"uuid":"","approvers":[{"uuid":"","type":"login_user_department_manager","value":""}],"target_type":"duration","target_value":"!!String{\"symbol\":\"&lt;\",\"unit\":\"m\",\"number\":\"60\"}"},{"uuid":"","approvers":[{"uuid":"","type":"login_user_department_manager","value":""},{"uuid":"","type":"department_manager","value":"${organization_1.uuid}"}],"target_type":"duration","target_value":"!!String{\"symbol\":\"==\",\"unit\":\"m\",\"number\":\"60\"}"},{"uuid":"","approvers":[{"uuid":"","type":"login_user_department_manager","value":""},{"uuid":"","type":"department_manager","value":"${organization_1.uuid}"}],"target_type":"duration","target_value":"!!String{\"symbol\":\"==\",\"unit\":\"d\",\"number\":\"5\"}"},{"uuid":"","approvers":[{"uuid":"","type":"login_user_department_manager","value":""},{"uuid":"","type":"department_manager","value":"${organization_1.uuid}"},{"uuid":"","type":"employee","value":"$csv{data.Auth.user_1.employee_id}"}],"target_type":"duration","target_value":"!!String{\"symbol\":\"&gt;\",\"unit\":\"d\",\"number\":\"5\"}"}]</t>
-  </si>
-  <si>
-    <t>[{"target_value":"s{}","target_type":"","approvers":[{"type":"employee","uuid":"","value":"$csv{data.Auth.user_1.employee_id}"}],"uuid":"$csv{data.AllTypes.overtime.uuid}"}]</t>
-  </si>
-  <si>
-    <t>[{"target_value":"!!String{}","target_type":"","approvers":[{"type":"reporting_to","uuid":"","value":"1"},{"type":"reporting_to","uuid":"","value":"2"},{"type":"reporting_to","uuid":"","value":"3"},{"type":"reporting_to","uuid":"","value":"4"},{"type":"login_user_department_manager","uuid":"","value":""},{"type":"department_manager","uuid":"","value":"${organization_2.uuid}"},{"type":"employee","uuid":"","value":"$csv{data.Auth.user_1.employee_id}"}],"uuid":"$csv{data.AllTypes.trip.uuid}"}]</t>
-  </si>
-  <si>
-    <t>[{"target_value":"!!String{}","target_type":"","approvers":[{"type":"reporting_to","uuid":"","value":"1"},{"type":"reporting_to","uuid":"","value":"2"},{"type":"reporting_to","uuid":"","value":"3"},{"type":"reporting_to","uuid":"","value":"4"},{"type":"login_user_department_manager","uuid":"","value":""},{"type":"department_manager","uuid":"","value":"${organization_2.uuid}"},{"type":"employee","uuid":"","value":"$csv{data.Auth.user_1.employee_id}"}],"uuid":"$csv{data.AllTypes.trip.uuid}"},{"target_value":"!!String{\"department\":[\"${organization_1.uuid}\"],\"employee\":[]}","target_type":"sponsor","approvers":[{"type":"login_user_department_manager","uuid":"","value":""},{"type":"department_manager","uuid":"","value":"${organization_2.uuid}"},{"type":"employee","uuid":"","value":"$csv{data.Auth.user_1.employee_id}"}],"uuid":""}]</t>
-  </si>
-  <si>
-    <t>[{"target_value":"!!String{}","target_type":"","approvers":[{"type":"reporting_to","uuid":"","value":"1"},{"type":"reporting_to","uuid":"","value":"2"},{"type":"reporting_to","uuid":"","value":"3"},{"type":"reporting_to","uuid":"","value":"4"},{"type":"login_user_department_manager","uuid":"","value":""},{"type":"department_manager","uuid":"","value":"${organization_2.uuid}"},{"type":"employee","uuid":"","value":"$csv{data.Auth.user_1.employee_id}"}],"uuid":"$csv{data.AllTypes.trip.uuid}"},{"target_value":"!!String{\"department\":[\"${organization_1.uuid}\"],\"employee\":[]}","target_type":"sponsor","approvers":[{"type":"login_user_department_manager","uuid":"","value":""},{"type":"department_manager","uuid":"","value":"${organization_2.uuid}"},{"type":"employee","uuid":"","value":"$csv{data.Auth.user_1.employee_id}"}],"uuid":""},{"uuid":"","approvers":[{"uuid":"","type":"login_user_department_manager","value":""}],"target_type":"duration","target_value":"!!String{\"symbol\":\"&lt;=\",\"unit\":\"d\",\"number\":\"4\"}"},{"uuid":"","approvers":[{"uuid":"","type":"login_user_department_manager","value":""},{"uuid":"","type":"department_manager","value":"${organization_1.uuid}"}],"target_type":"duration","target_value":"!!String{\"symbol\":\"==\",\"unit\":\"d\",\"number\":\"5\"}"},{"uuid":"","approvers":[{"uuid":"","type":"login_user_department_manager","value":""},{"uuid":"","type":"department_manager","value":"${organization_1.uuid}"},{"uuid":"","type":"employee","value":"$csv{data.Auth.user_1.employee_id}"}],"target_type":"duration","target_value":"!!String{\"symbol\":\"&gt;=\",\"unit\":\"d\",\"number\":\"6\"}"}]</t>
-  </si>
-  <si>
-    <t>[{"target_value":"s{}","target_type":"","approvers":[{"type":"employee","uuid":"","value":"$csv{data.Auth.user_1.employee_id}"}],"uuid":"$csv{data.AllTypes.trip.uuid}"}]</t>
-  </si>
-  <si>
-    <t>[{"target_value":"!!String{}","target_type":"","approvers":[{"type":"reporting_to","uuid":"","value":"1"},{"type":"reporting_to","uuid":"","value":"2"},{"type":"reporting_to","uuid":"","value":"3"},{"type":"reporting_to","uuid":"","value":"4"},{"type":"login_user_department_manager","uuid":"","value":""},{"type":"department_manager","uuid":"","value":"${organization_2.uuid}"},{"type":"employee","uuid":"","value":"$csv{data.Auth.user_1.employee_id}"}],"uuid":"$csv{data.AllTypes.project.uuid}"}]</t>
-  </si>
-  <si>
-    <t>[{"target_value":"!!String{}","target_type":"","approvers":[{"type":"reporting_to","uuid":"","value":"1"},{"type":"reporting_to","uuid":"","value":"2"},{"type":"reporting_to","uuid":"","value":"3"},{"type":"reporting_to","uuid":"","value":"4"},{"type":"login_user_department_manager","uuid":"","value":""},{"type":"department_manager","uuid":"","value":"${organization_2.uuid}"},{"type":"employee","uuid":"","value":"$csv{data.Auth.user_1.employee_id}"}],"uuid":"$csv{data.AllTypes.project.uuid}"},{"target_value":"!!String{\"department\":[\"${organization_1.uuid}\"],\"employee\":[]}","target_type":"sponsor","approvers":[{"type":"login_user_department_manager","uuid":"","value":""},{"type":"department_manager","uuid":"","value":"${organization_2.uuid}"},{"type":"employee","uuid":"","value":"$csv{data.Auth.user_1.employee_id}"}],"uuid":""},{"uuid":"","approvers":[{"uuid":"","type":"employee","value":"$csv{data.Auth.user_1.employee_id}"},{"uuid":"","type":"login_user_department_manager","value":""}],"target_type":"sponsor","target_value":"!!String{\"department\":[],\"employee\":[\"${Auth.employee_id}\"]}"}]</t>
-  </si>
-  <si>
-    <t>[{"target_value":"!!String{}","target_type":"","approvers":[{"type":"reporting_to","uuid":"","value":"1"},{"type":"reporting_to","uuid":"","value":"2"},{"type":"reporting_to","uuid":"","value":"3"},{"type":"reporting_to","uuid":"","value":"4"},{"type":"login_user_department_manager","uuid":"","value":""},{"type":"department_manager","uuid":"","value":"${organization_2.uuid}"},{"type":"employee","uuid":"","value":"$csv{data.Auth.user_1.employee_id}"}],"uuid":"$csv{data.AllTypes.general.uuid}"}]</t>
-  </si>
-  <si>
-    <t>[{"target_value":"!!String{}","target_type":"","approvers":[{"type":"reporting_to","uuid":"","value":"1"},{"type":"reporting_to","uuid":"","value":"2"},{"type":"reporting_to","uuid":"","value":"3"},{"type":"reporting_to","uuid":"","value":"4"},{"type":"login_user_department_manager","uuid":"","value":""},{"type":"department_manager","uuid":"","value":"${organization_2.uuid}"},{"type":"employee","uuid":"","value":"$csv{data.Auth.user_1.employee_id}"}],"uuid":"$csv{data.AllTypes.general.uuid}"},{"target_value":"!!String{\"department\":[\"${organization_1.uuid}\"],\"employee\":[]}","target_type":"sponsor","approvers":[{"type":"login_user_department_manager","uuid":"","value":""},{"type":"department_manager","uuid":"","value":"${organization_2.uuid}"},{"type":"employee","uuid":"","value":"$csv{data.Auth.user_1.employee_id}"}],"uuid":""},{"uuid":"","approvers":[{"uuid":"","type":"employee","value":"$csv{data.Auth.user_1.employee_id}"},{"uuid":"","type":"login_user_department_manager","value":""}],"target_type":"sponsor","target_value":"!!String{\"department\":[],\"employee\":[\"${Auth.employee_id}\"]}"}]</t>
-  </si>
-  <si>
-    <t>[{"target_value":"!!String{}","target_type":"","approvers":[{"type":"reporting_to","uuid":"","value":"1"},{"type":"reporting_to","uuid":"","value":"2"},{"type":"reporting_to","uuid":"","value":"3"},{"type":"reporting_to","uuid":"","value":"4"},{"type":"login_user_department_manager","uuid":"","value":""},{"type":"department_manager","uuid":"","value":"${organization_2.uuid}"},{"type":"employee","uuid":"","value":"$csv{data.Auth.user_1.employee_id}"}],"uuid":"$csv{data.AllTypes.materialget.uuid}"}]</t>
-  </si>
-  <si>
-    <t>[{"target_value":"!!String{}","target_type":"","approvers":[{"type":"reporting_to","uuid":"","value":"1"},{"type":"reporting_to","uuid":"","value":"2"},{"type":"reporting_to","uuid":"","value":"3"},{"type":"reporting_to","uuid":"","value":"4"},{"type":"login_user_department_manager","uuid":"","value":""},{"type":"department_manager","uuid":"","value":"${organization_2.uuid}"},{"type":"employee","uuid":"","value":"$csv{data.Auth.user_1.employee_id}"}],"uuid":"$csv{data.AllTypes.materialget.uuid}"},{"target_value":"!!String{\"department\":[\"${organization_1.uuid}\"],\"employee\":[]}","target_type":"sponsor","approvers":[{"type":"login_user_department_manager","uuid":"","value":""},{"type":"department_manager","uuid":"","value":"${organization_2.uuid}"},{"type":"employee","uuid":"","value":"$csv{data.Auth.user_1.employee_id}"}],"uuid":""},{"uuid":"","approvers":[{"uuid":"","type":"employee","value":"$csv{data.Auth.user_1.employee_id}"},{"uuid":"","type":"login_user_department_manager","value":""}],"target_type":"sponsor","target_value":"!!String{\"department\":[],\"employee\":[\"${Auth.employee_id}\"]}"}]</t>
-  </si>
-  <si>
-    <t>[{"target_value":"!!String{}","target_type":"","approvers":[{"type":"reporting_to","uuid":"","value":"1"},{"type":"reporting_to","uuid":"","value":"2"},{"type":"reporting_to","uuid":"","value":"3"},{"type":"reporting_to","uuid":"","value":"4"},{"type":"login_user_department_manager","uuid":"","value":""},{"type":"department_manager","uuid":"","value":"${organization_2.uuid}"},{"type":"employee","uuid":"","value":"$csv{data.Auth.user_1.employee_id}"}],"uuid":"$csv{data.AllTypes.contract.uuid}"}]</t>
-  </si>
-  <si>
-    <t>[{"target_value":"!!String{}","target_type":"","approvers":[{"type":"reporting_to","uuid":"","value":"1"},{"type":"reporting_to","uuid":"","value":"2"},{"type":"reporting_to","uuid":"","value":"3"},{"type":"reporting_to","uuid":"","value":"4"},{"type":"login_user_department_manager","uuid":"","value":""},{"type":"department_manager","uuid":"","value":"${organization_2.uuid}"},{"type":"employee","uuid":"","value":"$csv{data.Auth.user_1.employee_id}"}],"uuid":"$csv{data.AllTypes.contract.uuid}"},{"target_value":"!!String{\"department\":[\"${organization_1.uuid}\"],\"employee\":[]}","target_type":"sponsor","approvers":[{"type":"login_user_department_manager","uuid":"","value":""},{"type":"department_manager","uuid":"","value":"${organization_2.uuid}"},{"type":"employee","uuid":"","value":"$csv{data.Auth.user_1.employee_id}"}],"uuid":""},{"uuid":"","approvers":[{"uuid":"","type":"employee","value":"$csv{data.Auth.user_1.employee_id}"},{"uuid":"","type":"login_user_department_manager","value":""}],"target_type":"sponsor","target_value":"!!String{\"department\":[],\"employee\":[\"${Auth.employee_id}\"]}"}]</t>
-  </si>
-  <si>
-    <t>[{"uuid":"$csv{data.AllTypes.purchase.uuid}","approvers":[{"uuid":"","type":"reporting_to","value":"1"},{"uuid":"","type":"reporting_to","value":"2"},{"uuid":"","type":"reporting_to","value":"3"},{"uuid":"","type":"reporting_to","value":"4"},{"uuid":"","type":"login_user_department_manager","value":""},{"uuid":"","type":"department_manager","value":"${organization_2.uuid}"},{"uuid":"","type":"employee","value":"$csv{data.Auth.user_1.employee_id}"}],"target_type":"","target_value":"!!String{}"}]</t>
-  </si>
-  <si>
-    <t>[{"uuid":"$csv{data.AllTypes.purchase.uuid}","approvers":[{"uuid":"","type":"reporting_to","value":"1"},{"uuid":"","type":"reporting_to","value":"2"},{"uuid":"","type":"reporting_to","value":"3"},{"uuid":"","type":"reporting_to","value":"4"},{"uuid":"","type":"login_user_department_manager","value":""},{"uuid":"","type":"department_manager","value":"${organization_2.uuid}"},{"uuid":"","type":"employee","value":"$csv{data.Auth.user_1.employee_id}"}],"target_type":"","target_value":"!!String{}"},{"uuid":"","approvers":[{"uuid":"","type":"login_user_department_manager","value":""},{"uuid":"","type":"department_manager","value":"${organization_2.uuid}"},{"uuid":"","type":"employee","value":"$csv{data.Auth.user_1.employee_id}"}],"target_type":"sponsor","target_value":"!!String{\"department\":[\"${organization_1.uuid}\"],\"employee\":[]}"},{"uuid":"","approvers":[{"uuid":"","type":"login_user_department_manager","value":""},{"uuid":"","type":"employee","value":"$csv{data.Auth.user_1.employee_id}"},{"uuid":"","type":"employee","value":"$csv{data.Auth.user_houlong.employee_id}"}],"target_type":"sponsor","target_value":"!!String{\"department\":[],\"employee\":[\"${Auth.employee_id}\"]}"}]</t>
-  </si>
-  <si>
-    <t>[{"uuid":"$csv{data.AllTypes.purchase.uuid}","approvers":[{"uuid":"","type":"reporting_to","value":"1"},{"uuid":"","type":"reporting_to","value":"2"},{"uuid":"","type":"reporting_to","value":"3"},{"uuid":"","type":"reporting_to","value":"4"},{"uuid":"","type":"login_user_department_manager","value":""},{"uuid":"","type":"department_manager","value":"${organization_2.uuid}"},{"uuid":"","type":"employee","value":"$csv{data.Auth.user_1.employee_id}"}],"target_type":"","target_value":"!!String{}"},{"uuid":"","approvers":[{"uuid":"","type":"login_user_department_manager","value":""},{"uuid":"","type":"department_manager","value":"${organization_2.uuid}"},{"uuid":"","type":"employee","value":"$csv{data.Auth.user_1.employee_id}"}],"target_type":"sponsor","target_value":"!!String{\"department\":[\"${organization_1.uuid}\"],\"employee\":[]}"},{"uuid":"","approvers":[{"uuid":"","type":"login_user_department_manager","value":""},{"uuid":"","type":"employee","value":"$csv{data.Auth.user_1.employee_id}"},{"uuid":"","type":"employee","value":"$csv{data.Auth.user_houlong.employee_id}"}],"target_type":"sponsor","target_value":"!!String{\"department\":[],\"employee\":[\"${Auth.employee_id}\"]}"},{"uuid":"","approvers":[{"uuid":"","type":"login_user_department_manager","value":""},{"uuid":"","type":"department_manager","value":"${organization_3.uuid}"}],"target_type":"money","target_value":"!!String{\"symbol\":\"&lt;\",\"unit\":\"元\",\"number\":\"100.00\"}"},{"uuid":"","approvers":[{"uuid":"","type":"department_manager","value":"${organization_3.uuid}"},{"uuid":"","type":"employee","value":"$csv{data.Auth.user_1.employee_id}"}],"target_type":"money","target_value":"!!String{\"symbol\":\"==\",\"unit\":\"元\",\"number\":\"100.00\"}"},{"uuid":"","approvers":[{"uuid":"","type":"login_user_department_manager","value":""},{"uuid":"","type":"department_manager","value":"${organization_3.uuid}"},{"uuid":"","type":"employee","value":"$csv{data.Auth.user_1.employee_id}"}],"target_type":"money","target_value":"!!String{\"symbol\":\"&gt;\",\"unit\":\"元\",\"number\":\"100.00\"}"}]</t>
-  </si>
-  <si>
-    <t>[{"uuid":"$csv{data.AllTypes.reimbursement.uuid}","approvers":[{"uuid":"","type":"reporting_to","value":"1"},{"uuid":"","type":"reporting_to","value":"2"},{"uuid":"","type":"reporting_to","value":"3"},{"uuid":"","type":"reporting_to","value":"4"},{"uuid":"","type":"login_user_department_manager","value":""},{"uuid":"","type":"department_manager","value":"${organization_2.uuid}"},{"uuid":"","type":"employee","value":"$csv{data.Auth.user_1.employee_id}"}],"target_type":"","target_value":"!!String{}"}]</t>
-  </si>
-  <si>
-    <t>[{"uuid":"$csv{data.AllTypes.reimbursement.uuid}","approvers":[{"uuid":"","type":"reporting_to","value":"1"},{"uuid":"","type":"reporting_to","value":"2"},{"uuid":"","type":"reporting_to","value":"3"},{"uuid":"","type":"reporting_to","value":"4"},{"uuid":"","type":"login_user_department_manager","value":""},{"uuid":"","type":"department_manager","value":"${organization_2.uuid}"},{"uuid":"","type":"employee","value":"$csv{data.Auth.user_1.employee_id}"}],"target_type":"","target_value":"!!String{}"},{"uuid":"","approvers":[{"uuid":"","type":"login_user_department_manager","value":""},{"uuid":"","type":"department_manager","value":"${organization_2.uuid}"},{"uuid":"","type":"employee","value":"$csv{data.Auth.user_1.employee_id}"}],"target_type":"sponsor","target_value":"!!String{\"department\":[\"${organization_1.uuid}\"],\"employee\":[]}"},{"uuid":"","approvers":[{"uuid":"","type":"login_user_department_manager","value":""},{"uuid":"","type":"employee","value":"$csv{data.Auth.user_1.employee_id}"},{"uuid":"","type":"employee","value":"$csv{data.Auth.user_houlong.employee_id}"}],"target_type":"sponsor","target_value":"!!String{\"department\":[],\"employee\":[\"${Auth.employee_id}\"]}"}]</t>
-  </si>
-  <si>
-    <t>[{"uuid":"$csv{data.AllTypes.reimbursement.uuid}","approvers":[{"uuid":"","type":"reporting_to","value":"1"},{"uuid":"","type":"reporting_to","value":"2"},{"uuid":"","type":"reporting_to","value":"3"},{"uuid":"","type":"reporting_to","value":"4"},{"uuid":"","type":"login_user_department_manager","value":""},{"uuid":"","type":"department_manager","value":"${organization_2.uuid}"},{"uuid":"","type":"employee","value":"$csv{data.Auth.user_1.employee_id}"}],"target_type":"","target_value":"!!String{}"},{"uuid":"","approvers":[{"uuid":"","type":"login_user_department_manager","value":""},{"uuid":"","type":"department_manager","value":"${organization_2.uuid}"},{"uuid":"","type":"employee","value":"$csv{data.Auth.user_1.employee_id}"}],"target_type":"sponsor","target_value":"!!String{\"department\":[\"${organization_1.uuid}\"],\"employee\":[]}"},{"uuid":"","approvers":[{"uuid":"","type":"login_user_department_manager","value":""},{"uuid":"","type":"employee","value":"$csv{data.Auth.user_1.employee_id}"},{"uuid":"","type":"employee","value":"$csv{data.Auth.user_houlong.employee_id}"}],"target_type":"sponsor","target_value":"!!String{\"department\":[],\"employee\":[\"${Auth.employee_id}\"]}"},{"uuid":"","approvers":[{"uuid":"","type":"login_user_department_manager","value":""},{"uuid":"","type":"department_manager","value":"${organization_3.uuid}"}],"target_type":"money","target_value":"!!String{\"symbol\":\"&lt;=\",\"unit\":\"元\",\"number\":\"199.99\"}"},{"uuid":"","approvers":[{"uuid":"","type":"department_manager","value":"${organization_3.uuid}"},{"uuid":"","type":"employee","value":"$csv{data.Auth.user_1.employee_id}"}],"target_type":"money","target_value":"!!String{\"symbol\":\"==\",\"unit\":\"元\",\"number\":\"200.00\"}"},{"uuid":"","approvers":[{"uuid":"","type":"login_user_department_manager","value":""},{"uuid":"","type":"department_manager","value":"${organization_3.uuid}"},{"uuid":"","type":"employee","value":"$csv{data.Auth.user_1.employee_id}"}],"target_type":"money","target_value":"!!String{\"symbol\":\"&gt;=\",\"unit\":\"元\",\"number\":\"200.10\"}"}]</t>
-  </si>
-  <si>
-    <t>[{"uuid":"$csv{data.AllTypes.payment.uuid}","approvers":[{"uuid":"","type":"reporting_to","value":"1"},{"uuid":"","type":"reporting_to","value":"2"},{"uuid":"","type":"reporting_to","value":"3"},{"uuid":"","type":"reporting_to","value":"4"},{"uuid":"","type":"login_user_department_manager","value":""},{"uuid":"","type":"department_manager","value":"${organization_2.uuid}"},{"uuid":"","type":"employee","value":"$csv{data.Auth.user_1.employee_id}"}],"target_type":"","target_value":"!!String{}"}]</t>
-  </si>
-  <si>
-    <t>[{"uuid":"$csv{data.AllTypes.payment.uuid}","approvers":[{"uuid":"","type":"reporting_to","value":"1"},{"uuid":"","type":"reporting_to","value":"2"},{"uuid":"","type":"reporting_to","value":"3"},{"uuid":"","type":"reporting_to","value":"4"},{"uuid":"","type":"login_user_department_manager","value":""},{"uuid":"","type":"department_manager","value":"${organization_2.uuid}"},{"uuid":"","type":"employee","value":"$csv{data.Auth.user_1.employee_id}"}],"target_type":"","target_value":"!!String{}"},{"uuid":"","approvers":[{"uuid":"","type":"login_user_department_manager","value":""},{"uuid":"","type":"department_manager","value":"${organization_2.uuid}"},{"uuid":"","type":"employee","value":"$csv{data.Auth.user_1.employee_id}"}],"target_type":"sponsor","target_value":"!!String{\"department\":[\"${organization_1.uuid}\"],\"employee\":[]}"},{"uuid":"","approvers":[{"uuid":"","type":"login_user_department_manager","value":""},{"uuid":"","type":"employee","value":"$csv{data.Auth.user_1.employee_id}"},{"uuid":"","type":"employee","value":"$csv{data.Auth.user_houlong.employee_id}"}],"target_type":"sponsor","target_value":"!!String{\"department\":[],\"employee\":[\"${Auth.employee_id}\"]}"}]</t>
-  </si>
-  <si>
-    <t>[{"uuid":"$csv{data.AllTypes.payment.uuid}","approvers":[{"uuid":"","type":"reporting_to","value":"1"},{"uuid":"","type":"reporting_to","value":"2"},{"uuid":"","type":"reporting_to","value":"3"},{"uuid":"","type":"reporting_to","value":"4"},{"uuid":"","type":"login_user_department_manager","value":""},{"uuid":"","type":"department_manager","value":"${organization_2.uuid}"},{"uuid":"","type":"employee","value":"$csv{data.Auth.user_1.employee_id}"}],"target_type":"","target_value":"!!String{}"},{"uuid":"","approvers":[{"uuid":"","type":"login_user_department_manager","value":""},{"uuid":"","type":"department_manager","value":"${organization_2.uuid}"},{"uuid":"","type":"employee","value":"$csv{data.Auth.user_1.employee_id}"}],"target_type":"sponsor","target_value":"!!String{\"department\":[\"${organization_1.uuid}\"],\"employee\":[]}"},{"uuid":"","approvers":[{"uuid":"","type":"login_user_department_manager","value":""},{"uuid":"","type":"employee","value":"$csv{data.Auth.user_1.employee_id}"},{"uuid":"","type":"employee","value":"$csv{data.Auth.user_houlong.employee_id}"}],"target_type":"sponsor","target_value":"!!String{\"department\":[],\"employee\":[\"${Auth.employee_id}\"]}"},{"uuid":"","approvers":[{"uuid":"","type":"login_user_department_manager","value":""},{"uuid":"","type":"department_manager","value":"${organization_3.uuid}"}],"target_type":"money","target_value":"!!String{\"symbol\":\"&lt;=\",\"unit\":\"元\",\"number\":\"199.99\"}"},{"uuid":"","approvers":[{"uuid":"","type":"department_manager","value":"${organization_3.uuid}"},{"uuid":"","type":"employee","value":"$csv{data.Auth.user_1.employee_id}"}],"target_type":"money","target_value":"!!String{\"symbol\":\"==\",\"unit\":\"元\",\"number\":\"200.00\"}"},{"uuid":"","approvers":[{"uuid":"","type":"login_user_department_manager","value":""},{"uuid":"","type":"department_manager","value":"${organization_3.uuid}"},{"uuid":"","type":"employee","value":"$csv{data.Auth.user_1.employee_id}"}],"target_type":"money","target_value":"!!String{\"symbol\":\"&gt;=\",\"unit\":\"元\",\"number\":\"200.10\"}"}]</t>
-  </si>
-  <si>
-    <t>$temp{AllTypes.items.uuid?name='辞职'}</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>$temp{AllTypes.items.uuid?name='辞退'}</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>[{"uuid":"$csv{data.AllTypes.offboard_resign.uuid}","approvers":[{"uuid":"","type":"reporting_to","value":"1"},{"uuid":"","type":"reporting_to","value":"2"},{"uuid":"","type":"reporting_to","value":"3"},{"uuid":"","type":"reporting_to","value":"4"},{"uuid":"","type":"login_user_department_manager","value":""},{"uuid":"","type":"department_manager","value":"${organization_2.uuid}"},{"uuid":"","type":"employee","value":"$csv{data.Auth.user_1.employee_id}"}],"target_type":"","target_value":"!!String{}"}]</t>
-  </si>
-  <si>
-    <t>[{"target_value":"!!String{}","target_type":"","approvers":[{"type":"reporting_to","uuid":"","value":"1"},{"type":"reporting_to","uuid":"","value":"2"},{"type":"reporting_to","uuid":"","value":"3"},{"type":"reporting_to","uuid":"","value":"4"},{"type":"login_user_department_manager","uuid":"","value":""},{"type":"department_manager","uuid":"","value":"${organization_2.uuid}"},{"type":"employee","uuid":"","value":"$csv{data.Auth.user_1.employee_id}"}],"uuid":"$csv{data.AllTypes.offboard_resign.uuid}"},{"target_value":"!!String{\"department\":[\"${organization_1.uuid}\"],\"employee\":[]}","target_type":"sponsor","approvers":[{"type":"login_user_department_manager","uuid":"","value":""},{"type":"department_manager","uuid":"","value":"${organization_2.uuid}"},{"type":"employee","uuid":"","value":"$csv{data.Auth.user_1.employee_id}"}],"uuid":""},{"uuid":"","approvers":[{"uuid":"","type":"login_user_department_manager","value":""},{"uuid":"","type":"employee","value":"$csv{data.Auth.user_1.employee_id}"},{"uuid":"","type":"employee","value":"$csv{data.Auth.user_houlong.employee_id}"}],"target_type":"sponsor","target_value":"!!String{\"department\":[\"${organization_2.uuid}\"],\"employee\":[]}"}]</t>
-  </si>
-  <si>
-    <t>[{"uuid":"$csv{data.AllTypes.offboard_dismiss.uuid}","approvers":[{"uuid":"","type":"reporting_to","value":"1"},{"uuid":"","type":"reporting_to","value":"2"},{"uuid":"","type":"reporting_to","value":"3"},{"uuid":"","type":"reporting_to","value":"4"},{"uuid":"","type":"login_user_department_manager","value":""},{"uuid":"","type":"department_manager","value":"${organization_2.uuid}"},{"uuid":"","type":"employee","value":"$csv{data.Auth.user_1.employee_id}"}],"target_type":"","target_value":"!!String{}"}]</t>
-  </si>
-  <si>
-    <t>[{"target_value":"!!String{}","target_type":"","approvers":[{"type":"reporting_to","uuid":"","value":"1"},{"type":"reporting_to","uuid":"","value":"2"},{"type":"reporting_to","uuid":"","value":"3"},{"type":"reporting_to","uuid":"","value":"4"},{"type":"login_user_department_manager","uuid":"","value":""},{"type":"department_manager","uuid":"","value":"${organization_2.uuid}"},{"type":"employee","uuid":"","value":"$csv{data.Auth.user_1.employee_id}"}],"uuid":"$csv{data.AllTypes.offboard_dismiss.uuid}"},{"target_value":"!!String{\"department\":[\"${organization_1.uuid}\"],\"employee\":[]}","target_type":"sponsor","approvers":[{"type":"login_user_department_manager","uuid":"","value":""},{"type":"department_manager","uuid":"","value":"${organization_2.uuid}"},{"type":"employee","uuid":"","value":"$csv{data.Auth.user_1.employee_id}"}],"uuid":""},{"uuid":"","approvers":[{"uuid":"","type":"login_user_department_manager","value":""},{"uuid":"","type":"employee","value":"$csv{data.Auth.user_1.employee_id}"},{"uuid":"","type":"employee","value":"$csv{data.Auth.user_houlong.employee_id}"}],"target_type":"sponsor","target_value":"!!String{\"department\":[\"${organization_2.uuid}\"],\"employee\":[]}"}]</t>
-  </si>
-  <si>
-    <t>$csv{data.Tenant.microfastup.tenant_id}</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>$csv{data.Tenant.microfastup.user_id}</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>$csv{data.AllTypes.project.created_by}</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>Offboard_resign2</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>Offboard_resign3</t>
-  </si>
-  <si>
-    <t>Offboard_resign3</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>[{"target_value":"!!String{}","target_type":"","approvers":[{"type":"employee","uuid":"","value":"$csv{data.Auth.user_houlong.employee_id}"}],"uuid":"$csv{data.AllTypes.offboard_resign.uuid}"}]</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <t>[{"target_value":"!!String{}","target_type":"","approvers":[{"type":"employee","uuid":"","value":"$csv{data.Auth.user_houlong.employee_id}"}],"uuid":"$csv{data.AllTypes.employee_resign.uuid}"}]</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>[{"uuid":"$csv{data.AllTypes.employee_adjust.uuid}","approvers":[{"uuid":"","type":"reporting_to","value":"1"},{"uuid":"","type":"reporting_to","value":"2"},{"uuid":"","type":"reporting_to","value":"3"},{"uuid":"","type":"reporting_to","value":"4"},{"uuid":"","type":"login_user_department_manager","value":""},{"uuid":"","type":"department_manager","value":"${organization_2.uuid}"},{"uuid":"","type":"employee","value":"$csv{data.Auth.user_1.employee_id}"}],"target_type":"","target_value":"!!String{}"},{"uuid":"","approvers":[{"uuid":"","type":"login_user_department_manager","value":""},{"uuid":"","type":"department_manager","value":"${organization_2.uuid}"},{"uuid":"","type":"employee","value":"$csv{data.Auth.user_1.employee_id}"}],"target_type":"sponsor","target_value":"!!String{\"department\":[\"${organization_1.uuid}\"],\"employee\":[]}"},{"uuid":"","approvers":[{"uuid":"","type":"login_user_department_manager","value":""},{"uuid":"","type":"employee","value":"$csv{data.Auth.user_1.employee_id}"},{"uuid":"","type":"employee","value":"$csv{data.Auth.user_houlong.employee_id}"}],"target_type":"sponsor","target_value":"!!String{\"department\":[\"${organization_2.uuid}\"],\"employee\":[]}"},{"uuid":"","approvers":[{"uuid":"","type":"reporting_to","value":"4"},{"uuid":"","type":"login_user_department_manager","value":""},{"uuid":"","type":"employee","value":"$csv{data.Auth.user_1.employee_id}"},{"uuid":"","type":"employee","value":"$csv{data.Auth.user_houlong.employee_id}"}],"target_type":"sponsor","target_value":"!!String{\"department\":[],\"employee\":[\"$csv{data.Auth.user_houlong.employee_id}\"]}"}]</t>
+  </si>
+  <si>
+    <t>[{"target_value":"!!String{}","target_type":"","approvers":[{"type":"reporting_to","uuid":"","value":"1"},{"type":"reporting_to","uuid":"","value":"2"},{"type":"reporting_to","uuid":"","value":"3"},{"type":"reporting_to","uuid":"","value":"4"},{"type":"login_user_department_manager","uuid":"","value":""},{"type":"department_manager","uuid":"","value":"${organization_2.uuid}"},{"type":"employee","uuid":"","value":"$csv{data.Auth.user_1.employee_id}"}],"uuid":"$csv{data.AllTypes.leave_request.uuid}"},{"target_value":"!!String{\"department\":[\"${organization_1.uuid}\"],\"employee\":[]}","target_type":"sponsor","approvers":[{"type":"login_user_department_manager","uuid":"","value":""},{"type":"department_manager","uuid":"","value":"${organization_2.uuid}"},{"type":"employee","uuid":"","value":"$csv{data.Auth.user_1.employee_id}"}],"uuid":""},{"uuid":"","approvers":[{"uuid":"","type":"employee","value":"$csv{data.Auth.user_1.employee_id}"},{"uuid":"","type":"login_user_department_manager","value":""}],"target_type":"sponsor","target_value":"!!String{\"department\":[],\"employee\":[\"$csv{data.Auth.user_houlong.employee_id}\"]}"}]</t>
+  </si>
+  <si>
+    <t>[{"target_value":"!!String{}","target_type":"","approvers":[{"type":"reporting_to","uuid":"","value":"1"},{"type":"reporting_to","uuid":"","value":"2"},{"type":"reporting_to","uuid":"","value":"3"},{"type":"reporting_to","uuid":"","value":"4"},{"type":"login_user_department_manager","uuid":"","value":""},{"type":"department_manager","uuid":"","value":"${organization_2.uuid}"},{"type":"employee","uuid":"","value":"$csv{data.Auth.user_1.employee_id}"}],"uuid":"$csv{data.AllTypes.leave_request.uuid}"},{"target_value":"!!String{\"department\":[\"${organization_1.uuid}\"],\"employee\":[]}","target_type":"sponsor","approvers":[{"type":"login_user_department_manager","uuid":"","value":""},{"type":"department_manager","uuid":"","value":"${organization_2.uuid}"},{"type":"employee","uuid":"","value":"$csv{data.Auth.user_1.employee_id}"}],"uuid":""},{"uuid":"","approvers":[{"uuid":"","type":"login_user_department_manager","value":""}],"target_type":"duration","target_value":"!!String{\"symbol\":\"&lt;\",\"unit\":\"m\",\"number\":\"60\"}"},{"uuid":"","approvers":[{"uuid":"","type":"login_user_department_manager","value":""},{"uuid":"","type":"department_manager","value":"${organization_1.uuid}"}],"target_type":"duration","target_value":"!!String{\"symbol\":\"==\",\"unit\":\"m\",\"number\":\"60\"}"},{"uuid":"","approvers":[{"uuid":"","type":"login_user_department_manager","value":""},{"uuid":"","type":"department_manager","value":"${organization_1.uuid}"},{"uuid":"","type":"employee","value":"$csv{data.Auth.user_1.employee_id}"}],"target_type":"duration","target_value":"!!String{\"symbol\":\"&gt;\",\"unit\":\"m\",\"number\":\"60\"}"},{"uuid":"","approvers":[{"uuid":"","type":"employee","value":"$csv{data.Auth.user_1.employee_id}"},{"uuid":"","type":"login_user_department_manager","value":""}],"target_type":"sponsor","target_value":"!!String{\"department\":[],\"employee\":[\"$csv{data.Auth.user_houlong.employee_id}\"]}"}]</t>
+  </si>
+  <si>
+    <t>[{"uuid":"$csv{data.AllTypes.resign_request.uuid}","approvers":[{"uuid":"","type":"reporting_to","value":"1"},{"uuid":"","type":"reporting_to","value":"2"},{"uuid":"","type":"reporting_to","value":"3"},{"uuid":"","type":"reporting_to","value":"4"},{"uuid":"","type":"login_user_department_manager","value":""},{"uuid":"","type":"department_manager","value":"${organization_2.uuid}"},{"uuid":"","type":"employee","value":"$csv{data.Auth.user_1.employee_id}"}],"target_type":"","target_value":"!!String{}"},{"uuid":"","approvers":[{"uuid":"","type":"login_user_department_manager","value":""},{"uuid":"","type":"department_manager","value":"${organization_2.uuid}"},{"uuid":"","type":"employee","value":"$csv{data.Auth.user_1.employee_id}"}],"target_type":"sponsor","target_value":"!!String{\"department\":[\"${organization_1.uuid}\"],\"employee\":[]}"},{"uuid":"","approvers":[{"uuid":"","type":"login_user_department_manager","value":""},{"uuid":"","type":"employee","value":"$csv{data.Auth.user_1.employee_id}"},{"uuid":"","type":"employee","value":"$csv{data.Auth.user_houlong.employee_id}"}],"target_type":"sponsor","target_value":"!!String{\"department\":[\"${organization_2.uuid}\"],\"employee\":[]}"},{"uuid":"","approvers":[{"uuid":"","type":"reporting_to","value":"4"},{"uuid":"","type":"login_user_department_manager","value":""},{"uuid":"","type":"employee","value":"$csv{data.Auth.user_1.employee_id}"},{"uuid":"","type":"employee","value":"$csv{data.Auth.user_houlong.employee_id}"}],"target_type":"sponsor","target_value":"!!String{\"department\":[],\"employee\":[\"$csv{data.Auth.user_houlong.employee_id}\"]}"}]</t>
+  </si>
+  <si>
+    <t>[{"target_value":"!!String{}","target_type":"","approvers":[{"type":"reporting_to","uuid":"","value":"1"},{"type":"reporting_to","uuid":"","value":"2"},{"type":"reporting_to","uuid":"","value":"3"},{"type":"reporting_to","uuid":"","value":"4"},{"type":"login_user_department_manager","uuid":"","value":""},{"type":"department_manager","uuid":"","value":"${organization_2.uuid}"},{"type":"employee","uuid":"","value":"$csv{data.Auth.user_1.employee_id}"}],"uuid":"$csv{data.AllTypes.project_approval.uuid}"},{"target_value":"!!String{\"department\":[\"${organization_1.uuid}\"],\"employee\":[]}","target_type":"sponsor","approvers":[{"type":"login_user_department_manager","uuid":"","value":""},{"type":"department_manager","uuid":"","value":"${organization_2.uuid}"},{"type":"employee","uuid":"","value":"$csv{data.Auth.user_1.employee_id}"}],"uuid":""},{"uuid":"","approvers":[{"uuid":"","type":"employee","value":"$csv{data.Auth.user_1.employee_id}"},{"uuid":"","type":"login_user_department_manager","value":""}],"target_type":"sponsor","target_value":"!!String{\"department\":[],\"employee\":[\"$csv{data.Auth.user_houlong.employee_id}\"]}"}]</t>
+  </si>
+  <si>
+    <t>[{"target_value":"!!String{}","target_type":"","approvers":[{"type":"reporting_to","uuid":"","value":"1"},{"type":"reporting_to","uuid":"","value":"2"},{"type":"reporting_to","uuid":"","value":"3"},{"type":"reporting_to","uuid":"","value":"4"},{"type":"login_user_department_manager","uuid":"","value":""},{"type":"department_manager","uuid":"","value":"${organization_2.uuid}"},{"type":"employee","uuid":"","value":"$csv{data.Auth.user_1.employee_id}"}],"uuid":"$csv{data.AllTypes.general_approval.uuid}"},{"target_value":"!!String{\"department\":[\"${organization_1.uuid}\"],\"employee\":[]}","target_type":"sponsor","approvers":[{"type":"login_user_department_manager","uuid":"","value":""},{"type":"department_manager","uuid":"","value":"${organization_2.uuid}"},{"type":"employee","uuid":"","value":"$csv{data.Auth.user_1.employee_id}"}],"uuid":""},{"uuid":"","approvers":[{"uuid":"","type":"employee","value":"$csv{data.Auth.user_1.employee_id}"},{"uuid":"","type":"login_user_department_manager","value":""}],"target_type":"sponsor","target_value":"!!String{\"department\":[],\"employee\":[\"$csv{data.Auth.user_houlong.employee_id}\"]}"}]</t>
+  </si>
+  <si>
+    <t>[{"target_value":"!!String{}","target_type":"","approvers":[{"type":"reporting_to","uuid":"","value":"1"},{"type":"reporting_to","uuid":"","value":"2"},{"type":"reporting_to","uuid":"","value":"3"},{"type":"reporting_to","uuid":"","value":"4"},{"type":"login_user_department_manager","uuid":"","value":""},{"type":"department_manager","uuid":"","value":"${organization_2.uuid}"},{"type":"employee","uuid":"","value":"$csv{data.Auth.user_1.employee_id}"}],"uuid":"$csv{data.AllTypes.materialget.uuid}"},{"target_value":"!!String{\"department\":[\"${organization_1.uuid}\"],\"employee\":[]}","target_type":"sponsor","approvers":[{"type":"login_user_department_manager","uuid":"","value":""},{"type":"department_manager","uuid":"","value":"${organization_2.uuid}"},{"type":"employee","uuid":"","value":"$csv{data.Auth.user_1.employee_id}"}],"uuid":""},{"uuid":"","approvers":[{"uuid":"","type":"employee","value":"$csv{data.Auth.user_1.employee_id}"},{"uuid":"","type":"login_user_department_manager","value":""}],"target_type":"sponsor","target_value":"!!String{\"department\":[],\"employee\":[\"$csv{data.Auth.user_houlong.employee_id}\"]}"}]</t>
+  </si>
+  <si>
+    <t>[{"target_value":"!!String{}","target_type":"","approvers":[{"type":"reporting_to","uuid":"","value":"1"},{"type":"reporting_to","uuid":"","value":"2"},{"type":"reporting_to","uuid":"","value":"3"},{"type":"reporting_to","uuid":"","value":"4"},{"type":"login_user_department_manager","uuid":"","value":""},{"type":"department_manager","uuid":"","value":"${organization_2.uuid}"},{"type":"employee","uuid":"","value":"$csv{data.Auth.user_1.employee_id}"}],"uuid":"$csv{data.AllTypes.contract.uuid}"},{"target_value":"!!String{\"department\":[\"${organization_1.uuid}\"],\"employee\":[]}","target_type":"sponsor","approvers":[{"type":"login_user_department_manager","uuid":"","value":""},{"type":"department_manager","uuid":"","value":"${organization_2.uuid}"},{"type":"employee","uuid":"","value":"$csv{data.Auth.user_1.employee_id}"}],"uuid":""},{"uuid":"","approvers":[{"uuid":"","type":"employee","value":"$csv{data.Auth.user_1.employee_id}"},{"uuid":"","type":"login_user_department_manager","value":""}],"target_type":"sponsor","target_value":"!!String{\"department\":[],\"employee\":[\"$csv{data.Auth.user_houlong.employee_id}\"]}"}]</t>
+  </si>
+  <si>
+    <t>[{"uuid":"$csv{data.AllTypes.purchase.uuid}","approvers":[{"uuid":"","type":"reporting_to","value":"1"},{"uuid":"","type":"reporting_to","value":"2"},{"uuid":"","type":"reporting_to","value":"3"},{"uuid":"","type":"reporting_to","value":"4"},{"uuid":"","type":"login_user_department_manager","value":""},{"uuid":"","type":"department_manager","value":"${organization_2.uuid}"},{"uuid":"","type":"employee","value":"$csv{data.Auth.user_1.employee_id}"}],"target_type":"","target_value":"!!String{}"},{"uuid":"","approvers":[{"uuid":"","type":"login_user_department_manager","value":""},{"uuid":"","type":"department_manager","value":"${organization_2.uuid}"},{"uuid":"","type":"employee","value":"$csv{data.Auth.user_1.employee_id}"}],"target_type":"sponsor","target_value":"!!String{\"department\":[\"${organization_1.uuid}\"],\"employee\":[]}"},{"uuid":"","approvers":[{"uuid":"","type":"login_user_department_manager","value":""},{"uuid":"","type":"employee","value":"$csv{data.Auth.user_1.employee_id}"},{"uuid":"","type":"employee","value":"$csv{data.Auth.user_houlong.employee_id}"}],"target_type":"sponsor","target_value":"!!String{\"department\":[],\"employee\":[\"$csv{data.Auth.user_houlong.employee_id}\"]}"}]</t>
+  </si>
+  <si>
+    <t>[{"uuid":"$csv{data.AllTypes.purchase.uuid}","approvers":[{"uuid":"","type":"reporting_to","value":"1"},{"uuid":"","type":"reporting_to","value":"2"},{"uuid":"","type":"reporting_to","value":"3"},{"uuid":"","type":"reporting_to","value":"4"},{"uuid":"","type":"login_user_department_manager","value":""},{"uuid":"","type":"department_manager","value":"${organization_2.uuid}"},{"uuid":"","type":"employee","value":"$csv{data.Auth.user_1.employee_id}"}],"target_type":"","target_value":"!!String{}"},{"uuid":"","approvers":[{"uuid":"","type":"login_user_department_manager","value":""},{"uuid":"","type":"department_manager","value":"${organization_2.uuid}"},{"uuid":"","type":"employee","value":"$csv{data.Auth.user_1.employee_id}"}],"target_type":"sponsor","target_value":"!!String{\"department\":[\"${organization_1.uuid}\"],\"employee\":[]}"},{"uuid":"","approvers":[{"uuid":"","type":"login_user_department_manager","value":""},{"uuid":"","type":"employee","value":"$csv{data.Auth.user_1.employee_id}"},{"uuid":"","type":"employee","value":"$csv{data.Auth.user_houlong.employee_id}"}],"target_type":"sponsor","target_value":"!!String{\"department\":[],\"employee\":[\"$csv{data.Auth.user_houlong.employee_id}\"]}"},{"uuid":"","approvers":[{"uuid":"","type":"login_user_department_manager","value":""},{"uuid":"","type":"department_manager","value":"${organization_3.uuid}"}],"target_type":"money","target_value":"!!String{\"symbol\":\"&lt;\",\"unit\":\"元\",\"number\":\"100.00\"}"},{"uuid":"","approvers":[{"uuid":"","type":"department_manager","value":"${organization_3.uuid}"},{"uuid":"","type":"employee","value":"$csv{data.Auth.user_1.employee_id}"}],"target_type":"money","target_value":"!!String{\"symbol\":\"==\",\"unit\":\"元\",\"number\":\"100.00\"}"},{"uuid":"","approvers":[{"uuid":"","type":"login_user_department_manager","value":""},{"uuid":"","type":"department_manager","value":"${organization_3.uuid}"},{"uuid":"","type":"employee","value":"$csv{data.Auth.user_1.employee_id}"}],"target_type":"money","target_value":"!!String{\"symbol\":\"&gt;\",\"unit\":\"元\",\"number\":\"100.00\"}"}]</t>
+  </si>
+  <si>
+    <t>[{"uuid":"$csv{data.AllTypes.reimbursement.uuid}","approvers":[{"uuid":"","type":"reporting_to","value":"1"},{"uuid":"","type":"reporting_to","value":"2"},{"uuid":"","type":"reporting_to","value":"3"},{"uuid":"","type":"reporting_to","value":"4"},{"uuid":"","type":"login_user_department_manager","value":""},{"uuid":"","type":"department_manager","value":"${organization_2.uuid}"},{"uuid":"","type":"employee","value":"$csv{data.Auth.user_1.employee_id}"}],"target_type":"","target_value":"!!String{}"},{"uuid":"","approvers":[{"uuid":"","type":"login_user_department_manager","value":""},{"uuid":"","type":"department_manager","value":"${organization_2.uuid}"},{"uuid":"","type":"employee","value":"$csv{data.Auth.user_1.employee_id}"}],"target_type":"sponsor","target_value":"!!String{\"department\":[\"${organization_1.uuid}\"],\"employee\":[]}"},{"uuid":"","approvers":[{"uuid":"","type":"login_user_department_manager","value":""},{"uuid":"","type":"employee","value":"$csv{data.Auth.user_1.employee_id}"},{"uuid":"","type":"employee","value":"$csv{data.Auth.user_houlong.employee_id}"}],"target_type":"sponsor","target_value":"!!String{\"department\":[],\"employee\":[\"$csv{data.Auth.user_houlong.employee_id}\"]}"}]</t>
+  </si>
+  <si>
+    <t>[{"uuid":"$csv{data.AllTypes.reimbursement.uuid}","approvers":[{"uuid":"","type":"reporting_to","value":"1"},{"uuid":"","type":"reporting_to","value":"2"},{"uuid":"","type":"reporting_to","value":"3"},{"uuid":"","type":"reporting_to","value":"4"},{"uuid":"","type":"login_user_department_manager","value":""},{"uuid":"","type":"department_manager","value":"${organization_2.uuid}"},{"uuid":"","type":"employee","value":"$csv{data.Auth.user_1.employee_id}"}],"target_type":"","target_value":"!!String{}"},{"uuid":"","approvers":[{"uuid":"","type":"login_user_department_manager","value":""},{"uuid":"","type":"department_manager","value":"${organization_2.uuid}"},{"uuid":"","type":"employee","value":"$csv{data.Auth.user_1.employee_id}"}],"target_type":"sponsor","target_value":"!!String{\"department\":[\"${organization_1.uuid}\"],\"employee\":[]}"},{"uuid":"","approvers":[{"uuid":"","type":"login_user_department_manager","value":""},{"uuid":"","type":"employee","value":"$csv{data.Auth.user_1.employee_id}"},{"uuid":"","type":"employee","value":"$csv{data.Auth.user_houlong.employee_id}"}],"target_type":"sponsor","target_value":"!!String{\"department\":[],\"employee\":[\"$csv{data.Auth.user_houlong.employee_id}\"]}"},{"uuid":"","approvers":[{"uuid":"","type":"login_user_department_manager","value":""},{"uuid":"","type":"department_manager","value":"${organization_3.uuid}"}],"target_type":"money","target_value":"!!String{\"symbol\":\"&lt;=\",\"unit\":\"元\",\"number\":\"199.99\"}"},{"uuid":"","approvers":[{"uuid":"","type":"department_manager","value":"${organization_3.uuid}"},{"uuid":"","type":"employee","value":"$csv{data.Auth.user_1.employee_id}"}],"target_type":"money","target_value":"!!String{\"symbol\":\"==\",\"unit\":\"元\",\"number\":\"200.00\"}"},{"uuid":"","approvers":[{"uuid":"","type":"login_user_department_manager","value":""},{"uuid":"","type":"department_manager","value":"${organization_3.uuid}"},{"uuid":"","type":"employee","value":"$csv{data.Auth.user_1.employee_id}"}],"target_type":"money","target_value":"!!String{\"symbol\":\"&gt;=\",\"unit\":\"元\",\"number\":\"200.10\"}"}]</t>
+  </si>
+  <si>
+    <t>[{"uuid":"$csv{data.AllTypes.payment.uuid}","approvers":[{"uuid":"","type":"reporting_to","value":"1"},{"uuid":"","type":"reporting_to","value":"2"},{"uuid":"","type":"reporting_to","value":"3"},{"uuid":"","type":"reporting_to","value":"4"},{"uuid":"","type":"login_user_department_manager","value":""},{"uuid":"","type":"department_manager","value":"${organization_2.uuid}"},{"uuid":"","type":"employee","value":"$csv{data.Auth.user_1.employee_id}"}],"target_type":"","target_value":"!!String{}"},{"uuid":"","approvers":[{"uuid":"","type":"login_user_department_manager","value":""},{"uuid":"","type":"department_manager","value":"${organization_2.uuid}"},{"uuid":"","type":"employee","value":"$csv{data.Auth.user_1.employee_id}"}],"target_type":"sponsor","target_value":"!!String{\"department\":[\"${organization_1.uuid}\"],\"employee\":[]}"},{"uuid":"","approvers":[{"uuid":"","type":"login_user_department_manager","value":""},{"uuid":"","type":"employee","value":"$csv{data.Auth.user_1.employee_id}"},{"uuid":"","type":"employee","value":"$csv{data.Auth.user_houlong.employee_id}"}],"target_type":"sponsor","target_value":"!!String{\"department\":[],\"employee\":[\"$csv{data.Auth.user_houlong.employee_id}\"]}"}]</t>
+  </si>
+  <si>
+    <t>[{"uuid":"$csv{data.AllTypes.payment.uuid}","approvers":[{"uuid":"","type":"reporting_to","value":"1"},{"uuid":"","type":"reporting_to","value":"2"},{"uuid":"","type":"reporting_to","value":"3"},{"uuid":"","type":"reporting_to","value":"4"},{"uuid":"","type":"login_user_department_manager","value":""},{"uuid":"","type":"department_manager","value":"${organization_2.uuid}"},{"uuid":"","type":"employee","value":"$csv{data.Auth.user_1.employee_id}"}],"target_type":"","target_value":"!!String{}"},{"uuid":"","approvers":[{"uuid":"","type":"login_user_department_manager","value":""},{"uuid":"","type":"department_manager","value":"${organization_2.uuid}"},{"uuid":"","type":"employee","value":"$csv{data.Auth.user_1.employee_id}"}],"target_type":"sponsor","target_value":"!!String{\"department\":[\"${organization_1.uuid}\"],\"employee\":[]}"},{"uuid":"","approvers":[{"uuid":"","type":"login_user_department_manager","value":""},{"uuid":"","type":"employee","value":"$csv{data.Auth.user_1.employee_id}"},{"uuid":"","type":"employee","value":"$csv{data.Auth.user_houlong.employee_id}"}],"target_type":"sponsor","target_value":"!!String{\"department\":[],\"employee\":[\"$csv{data.Auth.user_houlong.employee_id}\"]}"},{"uuid":"","approvers":[{"uuid":"","type":"login_user_department_manager","value":""},{"uuid":"","type":"department_manager","value":"${organization_3.uuid}"}],"target_type":"money","target_value":"!!String{\"symbol\":\"&lt;=\",\"unit\":\"元\",\"number\":\"199.99\"}"},{"uuid":"","approvers":[{"uuid":"","type":"department_manager","value":"${organization_3.uuid}"},{"uuid":"","type":"employee","value":"$csv{data.Auth.user_1.employee_id}"}],"target_type":"money","target_value":"!!String{\"symbol\":\"==\",\"unit\":\"元\",\"number\":\"200.00\"}"},{"uuid":"","approvers":[{"uuid":"","type":"login_user_department_manager","value":""},{"uuid":"","type":"department_manager","value":"${organization_3.uuid}"},{"uuid":"","type":"employee","value":"$csv{data.Auth.user_1.employee_id}"}],"target_type":"money","target_value":"!!String{\"symbol\":\"&gt;=\",\"unit\":\"元\",\"number\":\"200.10\"}"}]</t>
   </si>
 </sst>
 </file>
@@ -1137,7 +1190,7 @@
   <dimension ref="A1:F2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="E8" sqref="E8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1162,7 +1215,7 @@
         <v>2</v>
       </c>
       <c r="D1" s="4" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="E1" s="1" t="s">
         <v>3</v>
@@ -1173,7 +1226,7 @@
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A2" s="4" t="s">
-        <v>37</v>
+        <v>139</v>
       </c>
       <c r="B2" s="1" t="s">
         <v>7</v>
@@ -1182,10 +1235,10 @@
         <v>8</v>
       </c>
       <c r="D2" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="E2" s="3" t="s">
-        <v>135</v>
+        <v>117</v>
       </c>
       <c r="F2" s="1" t="s">
         <v>5</v>
@@ -1202,10 +1255,10 @@
   <dimension ref="A1:G48"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="C3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="C9" sqref="C9"/>
+      <selection pane="bottomRight" activeCell="F14" sqref="F14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1244,965 +1297,965 @@
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="B2" s="7" t="s">
-        <v>136</v>
+        <v>141</v>
       </c>
       <c r="C2" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="D2" t="s">
-        <v>152</v>
+        <v>140</v>
       </c>
       <c r="F2" t="s">
         <v>17</v>
       </c>
       <c r="G2" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="B3" s="7" t="s">
-        <v>136</v>
+        <v>141</v>
       </c>
       <c r="C3" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D3" t="s">
-        <v>153</v>
+        <v>209</v>
       </c>
       <c r="F3" t="s">
-        <v>151</v>
+        <v>118</v>
       </c>
       <c r="G3" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="B4" s="7" t="s">
-        <v>137</v>
+        <v>143</v>
       </c>
       <c r="C4" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="D4" t="s">
-        <v>154</v>
+        <v>142</v>
       </c>
       <c r="F4" t="s">
         <v>17</v>
       </c>
       <c r="G4" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A5" s="7" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="B5" s="7" t="s">
-        <v>137</v>
+        <v>143</v>
       </c>
       <c r="C5" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="D5" t="s">
-        <v>155</v>
+        <v>123</v>
       </c>
       <c r="F5" t="s">
-        <v>151</v>
+        <v>118</v>
       </c>
       <c r="G5" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>55</v>
+        <v>49</v>
       </c>
       <c r="B6" s="7" t="s">
-        <v>194</v>
+        <v>145</v>
       </c>
       <c r="C6" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="D6" t="s">
-        <v>196</v>
+        <v>144</v>
       </c>
       <c r="E6" t="s">
-        <v>54</v>
+        <v>48</v>
       </c>
       <c r="F6" t="s">
         <v>17</v>
       </c>
       <c r="G6" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>56</v>
+        <v>50</v>
       </c>
       <c r="B7" s="7" t="s">
-        <v>194</v>
+        <v>145</v>
       </c>
       <c r="C7" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="D7" t="s">
-        <v>197</v>
+        <v>124</v>
       </c>
       <c r="E7" t="s">
-        <v>49</v>
+        <v>43</v>
       </c>
       <c r="F7" t="s">
-        <v>151</v>
+        <v>118</v>
       </c>
       <c r="G7" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="8" spans="1:7" s="7" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A8" s="7" t="s">
-        <v>205</v>
+        <v>122</v>
       </c>
       <c r="B8" s="7" t="s">
-        <v>194</v>
+        <v>145</v>
       </c>
       <c r="C8" s="7" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="D8" t="s">
-        <v>206</v>
+        <v>208</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>54</v>
+        <v>48</v>
       </c>
       <c r="F8" s="7" t="s">
         <v>17</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
-        <v>52</v>
+        <v>46</v>
       </c>
       <c r="B9" s="7" t="s">
-        <v>195</v>
+        <v>147</v>
       </c>
       <c r="C9" t="s">
+        <v>41</v>
+      </c>
+      <c r="D9" t="s">
+        <v>146</v>
+      </c>
+      <c r="E9" t="s">
         <v>45</v>
-      </c>
-      <c r="D9" t="s">
-        <v>198</v>
-      </c>
-      <c r="E9" t="s">
-        <v>51</v>
       </c>
       <c r="F9" t="s">
         <v>17</v>
       </c>
       <c r="G9" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
-        <v>53</v>
+        <v>47</v>
       </c>
       <c r="B10" s="7" t="s">
-        <v>195</v>
+        <v>147</v>
       </c>
       <c r="C10" t="s">
+        <v>40</v>
+      </c>
+      <c r="D10" t="s">
+        <v>125</v>
+      </c>
+      <c r="E10" t="s">
         <v>44</v>
       </c>
-      <c r="D10" t="s">
-        <v>199</v>
-      </c>
-      <c r="E10" t="s">
-        <v>50</v>
-      </c>
       <c r="F10" t="s">
-        <v>151</v>
+        <v>118</v>
       </c>
       <c r="G10" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
-        <v>58</v>
+        <v>51</v>
       </c>
       <c r="B11" s="7" t="s">
-        <v>138</v>
+        <v>149</v>
       </c>
       <c r="C11" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="D11" t="s">
-        <v>156</v>
+        <v>148</v>
       </c>
       <c r="F11" t="s">
         <v>17</v>
       </c>
       <c r="G11" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
-        <v>59</v>
+        <v>52</v>
       </c>
       <c r="B12" s="7" t="s">
-        <v>138</v>
+        <v>149</v>
       </c>
       <c r="C12" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="D12" t="s">
-        <v>157</v>
+        <v>126</v>
       </c>
       <c r="F12" t="s">
-        <v>151</v>
+        <v>118</v>
       </c>
       <c r="G12" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
-        <v>61</v>
+        <v>53</v>
       </c>
       <c r="B13" s="7" t="s">
-        <v>139</v>
+        <v>151</v>
       </c>
       <c r="C13" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="D13" t="s">
-        <v>158</v>
+        <v>150</v>
       </c>
       <c r="F13" t="s">
         <v>17</v>
       </c>
       <c r="G13" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
-        <v>65</v>
+        <v>56</v>
       </c>
       <c r="B14" s="7" t="s">
-        <v>139</v>
+        <v>151</v>
       </c>
       <c r="C14" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="D14" t="s">
-        <v>159</v>
+        <v>210</v>
       </c>
       <c r="F14" t="s">
-        <v>151</v>
+        <v>118</v>
       </c>
       <c r="G14" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
-        <v>66</v>
+        <v>57</v>
       </c>
       <c r="B15" s="7" t="s">
-        <v>139</v>
+        <v>151</v>
       </c>
       <c r="C15" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="D15" t="s">
-        <v>160</v>
+        <v>211</v>
       </c>
       <c r="F15" t="s">
-        <v>151</v>
+        <v>118</v>
       </c>
       <c r="G15" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
-        <v>67</v>
+        <v>58</v>
       </c>
       <c r="B16" s="7" t="s">
-        <v>140</v>
+        <v>153</v>
       </c>
       <c r="C16" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="D16" t="s">
-        <v>162</v>
+        <v>152</v>
       </c>
       <c r="F16" t="s">
         <v>17</v>
       </c>
       <c r="G16" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
-        <v>68</v>
+        <v>59</v>
       </c>
       <c r="B17" s="7" t="s">
-        <v>140</v>
+        <v>153</v>
       </c>
       <c r="C17" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="D17" t="s">
-        <v>163</v>
+        <v>212</v>
       </c>
       <c r="F17" t="s">
-        <v>151</v>
+        <v>118</v>
       </c>
       <c r="G17" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
-        <v>73</v>
+        <v>62</v>
       </c>
       <c r="B18" s="7" t="s">
-        <v>141</v>
+        <v>155</v>
       </c>
       <c r="C18" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="D18" t="s">
-        <v>165</v>
+        <v>154</v>
       </c>
       <c r="F18" t="s">
         <v>17</v>
       </c>
       <c r="G18" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
-        <v>74</v>
+        <v>63</v>
       </c>
       <c r="B19" s="7" t="s">
-        <v>141</v>
+        <v>155</v>
       </c>
       <c r="C19" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="D19" t="s">
-        <v>166</v>
+        <v>129</v>
       </c>
       <c r="F19" t="s">
-        <v>151</v>
+        <v>118</v>
       </c>
       <c r="G19" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
-        <v>86</v>
+        <v>75</v>
       </c>
       <c r="B20" s="7" t="s">
-        <v>141</v>
+        <v>155</v>
       </c>
       <c r="C20" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="D20" t="s">
-        <v>167</v>
+        <v>130</v>
       </c>
       <c r="F20" t="s">
-        <v>151</v>
+        <v>118</v>
       </c>
       <c r="G20" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
-        <v>79</v>
+        <v>68</v>
       </c>
       <c r="B21" s="7" t="s">
-        <v>142</v>
+        <v>157</v>
       </c>
       <c r="C21" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="D21" t="s">
-        <v>169</v>
+        <v>156</v>
       </c>
       <c r="F21" t="s">
         <v>17</v>
       </c>
       <c r="G21" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
-        <v>80</v>
+        <v>69</v>
       </c>
       <c r="B22" s="7" t="s">
-        <v>142</v>
+        <v>157</v>
       </c>
       <c r="C22" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="D22" t="s">
-        <v>170</v>
+        <v>132</v>
       </c>
       <c r="F22" t="s">
-        <v>151</v>
+        <v>118</v>
       </c>
       <c r="G22" t="s">
-        <v>89</v>
+        <v>78</v>
       </c>
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
-        <v>87</v>
+        <v>76</v>
       </c>
       <c r="B23" s="7" t="s">
-        <v>142</v>
+        <v>157</v>
       </c>
       <c r="C23" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="D23" t="s">
-        <v>171</v>
+        <v>133</v>
       </c>
       <c r="F23" t="s">
-        <v>151</v>
+        <v>118</v>
       </c>
       <c r="G23" t="s">
-        <v>89</v>
+        <v>78</v>
       </c>
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
-        <v>81</v>
+        <v>70</v>
       </c>
       <c r="B24" s="7" t="s">
-        <v>143</v>
+        <v>159</v>
       </c>
       <c r="C24" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="D24" t="s">
-        <v>173</v>
+        <v>158</v>
       </c>
       <c r="F24" t="s">
         <v>17</v>
       </c>
       <c r="G24" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
-        <v>82</v>
+        <v>71</v>
       </c>
       <c r="B25" s="7" t="s">
-        <v>143</v>
+        <v>159</v>
       </c>
       <c r="C25" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="D25" t="s">
-        <v>174</v>
+        <v>135</v>
       </c>
       <c r="F25" t="s">
-        <v>151</v>
+        <v>118</v>
       </c>
       <c r="G25" t="s">
-        <v>89</v>
+        <v>78</v>
       </c>
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
-        <v>88</v>
+        <v>77</v>
       </c>
       <c r="B26" s="7" t="s">
-        <v>143</v>
+        <v>159</v>
       </c>
       <c r="C26" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="D26" t="s">
-        <v>175</v>
+        <v>136</v>
       </c>
       <c r="F26" t="s">
-        <v>151</v>
+        <v>118</v>
       </c>
       <c r="G26" t="s">
-        <v>89</v>
+        <v>78</v>
       </c>
     </row>
     <row r="27" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A27" s="6" t="s">
-        <v>90</v>
+        <v>79</v>
       </c>
       <c r="B27" s="7" t="s">
-        <v>144</v>
+        <v>161</v>
       </c>
       <c r="C27" s="6" t="s">
-        <v>91</v>
+        <v>80</v>
       </c>
       <c r="D27" s="6" t="s">
-        <v>177</v>
+        <v>160</v>
       </c>
       <c r="E27" s="6"/>
       <c r="F27" s="6" t="s">
         <v>17</v>
       </c>
       <c r="G27" s="6" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="28" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A28" s="6" t="s">
-        <v>92</v>
+        <v>81</v>
       </c>
       <c r="B28" s="7" t="s">
-        <v>144</v>
+        <v>161</v>
       </c>
       <c r="C28" s="6" t="s">
-        <v>93</v>
+        <v>82</v>
       </c>
       <c r="D28" s="6" t="s">
-        <v>178</v>
+        <v>213</v>
       </c>
       <c r="E28" s="6"/>
       <c r="F28" s="6" t="s">
-        <v>151</v>
+        <v>118</v>
       </c>
       <c r="G28" s="6" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="29" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A29" s="6" t="s">
-        <v>94</v>
+        <v>83</v>
       </c>
       <c r="B29" s="7" t="s">
-        <v>145</v>
+        <v>163</v>
       </c>
       <c r="C29" s="6" t="s">
-        <v>91</v>
+        <v>80</v>
       </c>
       <c r="D29" s="6" t="s">
-        <v>179</v>
+        <v>162</v>
       </c>
       <c r="E29" s="6"/>
       <c r="F29" s="6" t="s">
         <v>17</v>
       </c>
       <c r="G29" s="6" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="30" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A30" s="6" t="s">
-        <v>95</v>
+        <v>84</v>
       </c>
       <c r="B30" s="7" t="s">
-        <v>145</v>
+        <v>163</v>
       </c>
       <c r="C30" s="6" t="s">
-        <v>93</v>
+        <v>82</v>
       </c>
       <c r="D30" s="6" t="s">
-        <v>180</v>
+        <v>214</v>
       </c>
       <c r="E30" s="6"/>
       <c r="F30" s="6" t="s">
-        <v>151</v>
+        <v>118</v>
       </c>
       <c r="G30" s="6" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="31" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A31" s="6" t="s">
-        <v>96</v>
+        <v>85</v>
       </c>
       <c r="B31" s="7" t="s">
-        <v>146</v>
+        <v>165</v>
       </c>
       <c r="C31" s="6" t="s">
-        <v>91</v>
+        <v>80</v>
       </c>
       <c r="D31" s="6" t="s">
-        <v>181</v>
+        <v>164</v>
       </c>
       <c r="E31" s="6"/>
       <c r="F31" s="6" t="s">
         <v>17</v>
       </c>
       <c r="G31" s="6" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="32" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A32" s="6" t="s">
-        <v>97</v>
+        <v>86</v>
       </c>
       <c r="B32" s="7" t="s">
-        <v>146</v>
+        <v>165</v>
       </c>
       <c r="C32" s="6" t="s">
-        <v>93</v>
+        <v>82</v>
       </c>
       <c r="D32" s="6" t="s">
-        <v>182</v>
+        <v>215</v>
       </c>
       <c r="E32" s="6"/>
       <c r="F32" s="6" t="s">
-        <v>151</v>
+        <v>118</v>
       </c>
       <c r="G32" s="6" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="33" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A33" s="6" t="s">
-        <v>98</v>
+        <v>87</v>
       </c>
       <c r="B33" s="7" t="s">
-        <v>147</v>
+        <v>167</v>
       </c>
       <c r="C33" s="6" t="s">
-        <v>91</v>
+        <v>80</v>
       </c>
       <c r="D33" s="6" t="s">
-        <v>183</v>
+        <v>166</v>
       </c>
       <c r="E33" s="6"/>
       <c r="F33" s="6" t="s">
         <v>17</v>
       </c>
       <c r="G33" s="6" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="34" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A34" s="6" t="s">
-        <v>99</v>
+        <v>88</v>
       </c>
       <c r="B34" s="7" t="s">
-        <v>147</v>
+        <v>167</v>
       </c>
       <c r="C34" s="6" t="s">
-        <v>93</v>
+        <v>82</v>
       </c>
       <c r="D34" s="6" t="s">
-        <v>184</v>
+        <v>216</v>
       </c>
       <c r="E34" s="6"/>
       <c r="F34" s="6" t="s">
-        <v>151</v>
+        <v>118</v>
       </c>
       <c r="G34" s="6" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="35" spans="1:7" s="7" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A35" s="7" t="s">
-        <v>109</v>
+        <v>94</v>
       </c>
       <c r="B35" s="7" t="s">
-        <v>148</v>
+        <v>169</v>
       </c>
       <c r="C35" s="7" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="D35" s="7" t="s">
-        <v>185</v>
+        <v>168</v>
       </c>
       <c r="F35" s="7" t="s">
         <v>17</v>
       </c>
       <c r="G35" s="7" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="36" spans="1:7" s="7" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A36" s="7" t="s">
-        <v>110</v>
+        <v>95</v>
       </c>
       <c r="B36" s="7" t="s">
-        <v>148</v>
+        <v>169</v>
       </c>
       <c r="C36" s="7" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D36" s="7" t="s">
-        <v>186</v>
+        <v>217</v>
       </c>
       <c r="F36" s="7" t="s">
-        <v>151</v>
+        <v>118</v>
       </c>
       <c r="G36" s="7" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="37" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A37" s="7" t="s">
-        <v>115</v>
+        <v>99</v>
       </c>
       <c r="B37" s="7" t="s">
-        <v>148</v>
+        <v>169</v>
       </c>
       <c r="C37" s="7" t="s">
-        <v>93</v>
+        <v>82</v>
       </c>
       <c r="D37" t="s">
-        <v>187</v>
+        <v>218</v>
       </c>
       <c r="F37" s="7" t="s">
-        <v>151</v>
+        <v>118</v>
       </c>
       <c r="G37" s="7" t="s">
-        <v>114</v>
+        <v>98</v>
       </c>
     </row>
     <row r="38" spans="1:7" s="7" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A38" s="7" t="s">
-        <v>126</v>
+        <v>108</v>
       </c>
       <c r="B38" s="7" t="s">
-        <v>149</v>
+        <v>170</v>
       </c>
       <c r="C38" s="7" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="D38" s="7" t="s">
-        <v>188</v>
+        <v>138</v>
       </c>
       <c r="F38" s="7" t="s">
         <v>17</v>
       </c>
       <c r="G38" s="7" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="39" spans="1:7" s="7" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A39" s="7" t="s">
-        <v>117</v>
+        <v>101</v>
       </c>
       <c r="B39" s="7" t="s">
-        <v>149</v>
+        <v>170</v>
       </c>
       <c r="C39" s="7" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D39" s="7" t="s">
-        <v>189</v>
+        <v>219</v>
       </c>
       <c r="F39" s="7" t="s">
-        <v>151</v>
+        <v>118</v>
       </c>
       <c r="G39" s="7" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="40" spans="1:7" s="7" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A40" s="7" t="s">
+        <v>102</v>
+      </c>
+      <c r="B40" s="7" t="s">
+        <v>170</v>
+      </c>
+      <c r="C40" s="7" t="s">
+        <v>82</v>
+      </c>
+      <c r="D40" s="7" t="s">
+        <v>220</v>
+      </c>
+      <c r="F40" s="7" t="s">
         <v>118</v>
       </c>
-      <c r="B40" s="7" t="s">
-        <v>149</v>
-      </c>
-      <c r="C40" s="7" t="s">
-        <v>93</v>
-      </c>
-      <c r="D40" s="7" t="s">
-        <v>190</v>
-      </c>
-      <c r="F40" s="7" t="s">
-        <v>151</v>
-      </c>
       <c r="G40" s="7" t="s">
-        <v>89</v>
+        <v>78</v>
       </c>
     </row>
     <row r="41" spans="1:7" s="7" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A41" s="7" t="s">
-        <v>121</v>
+        <v>104</v>
       </c>
       <c r="B41" s="7" t="s">
-        <v>150</v>
+        <v>172</v>
       </c>
       <c r="C41" s="7" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="D41" s="7" t="s">
-        <v>191</v>
+        <v>171</v>
       </c>
       <c r="F41" s="7" t="s">
         <v>17</v>
       </c>
       <c r="G41" s="7" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="42" spans="1:7" s="7" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A42" s="7" t="s">
-        <v>122</v>
+        <v>105</v>
       </c>
       <c r="B42" s="7" t="s">
-        <v>150</v>
+        <v>172</v>
       </c>
       <c r="C42" s="7" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D42" s="7" t="s">
-        <v>192</v>
+        <v>221</v>
       </c>
       <c r="F42" s="7" t="s">
-        <v>151</v>
+        <v>118</v>
       </c>
       <c r="G42" s="7" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="43" spans="1:7" s="7" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A43" s="7" t="s">
-        <v>123</v>
+        <v>106</v>
       </c>
       <c r="B43" s="7" t="s">
-        <v>150</v>
+        <v>172</v>
       </c>
       <c r="C43" s="7" t="s">
-        <v>93</v>
+        <v>82</v>
       </c>
       <c r="D43" s="7" t="s">
-        <v>193</v>
+        <v>222</v>
       </c>
       <c r="F43" s="7" t="s">
-        <v>151</v>
+        <v>118</v>
       </c>
       <c r="G43" s="7" t="s">
-        <v>89</v>
+        <v>78</v>
       </c>
     </row>
     <row r="44" spans="1:7" s="7" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A44" s="7" t="s">
+        <v>109</v>
+      </c>
+      <c r="B44" s="7" t="s">
+        <v>151</v>
+      </c>
+      <c r="C44" s="7" t="s">
+        <v>114</v>
+      </c>
+      <c r="D44" s="7" t="s">
         <v>127</v>
-      </c>
-      <c r="B44" s="7" t="s">
-        <v>139</v>
-      </c>
-      <c r="C44" s="7" t="s">
-        <v>132</v>
-      </c>
-      <c r="D44" s="7" t="s">
-        <v>161</v>
       </c>
       <c r="F44" s="7" t="s">
         <v>17</v>
       </c>
       <c r="G44" s="7" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="45" spans="1:7" s="7" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A45" s="7" t="s">
+        <v>110</v>
+      </c>
+      <c r="B45" s="7" t="s">
+        <v>153</v>
+      </c>
+      <c r="C45" s="7" t="s">
+        <v>115</v>
+      </c>
+      <c r="D45" s="7" t="s">
         <v>128</v>
-      </c>
-      <c r="B45" s="7" t="s">
-        <v>140</v>
-      </c>
-      <c r="C45" s="7" t="s">
-        <v>133</v>
-      </c>
-      <c r="D45" s="7" t="s">
-        <v>164</v>
       </c>
       <c r="F45" s="7" t="s">
         <v>17</v>
       </c>
       <c r="G45" s="7" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="46" spans="1:7" s="7" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A46" s="7" t="s">
-        <v>129</v>
+        <v>111</v>
       </c>
       <c r="B46" s="7" t="s">
-        <v>141</v>
+        <v>155</v>
       </c>
       <c r="C46" s="7" t="s">
-        <v>134</v>
+        <v>116</v>
       </c>
       <c r="D46" s="7" t="s">
-        <v>168</v>
+        <v>131</v>
       </c>
       <c r="F46" s="7" t="s">
         <v>17</v>
       </c>
       <c r="G46" s="7" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="47" spans="1:7" s="7" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A47" s="7" t="s">
-        <v>130</v>
+        <v>112</v>
       </c>
       <c r="B47" s="7" t="s">
-        <v>142</v>
+        <v>157</v>
       </c>
       <c r="C47" s="7" t="s">
-        <v>132</v>
+        <v>114</v>
       </c>
       <c r="D47" s="7" t="s">
-        <v>172</v>
+        <v>134</v>
       </c>
       <c r="F47" s="7" t="s">
         <v>17</v>
       </c>
       <c r="G47" s="7" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="48" spans="1:7" s="7" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A48" s="7" t="s">
-        <v>131</v>
+        <v>113</v>
       </c>
       <c r="B48" s="7" t="s">
-        <v>143</v>
+        <v>159</v>
       </c>
       <c r="C48" s="7" t="s">
-        <v>132</v>
+        <v>114</v>
       </c>
       <c r="D48" s="7" t="s">
-        <v>176</v>
+        <v>137</v>
       </c>
       <c r="F48" s="7" t="s">
         <v>17</v>
       </c>
       <c r="G48" s="7" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
   </sheetData>
@@ -2217,10 +2270,10 @@
   <dimension ref="A1:O48"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="I2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="E23" sqref="E23"/>
+      <selection pane="bottomRight" activeCell="N6" sqref="N6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -2230,11 +2283,11 @@
     <col min="4" max="4" width="12.625" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="10.5" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="41.375" style="8" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="34.875" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="47.25" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="13.5" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="24.125" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="12.5" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="6.125" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="42.5" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="11.125" bestFit="1" customWidth="1"/>
     <col min="14" max="14" width="19.375" bestFit="1" customWidth="1"/>
   </cols>
@@ -2262,7 +2315,7 @@
         <v>22</v>
       </c>
       <c r="H1" t="s">
-        <v>23</v>
+        <v>173</v>
       </c>
       <c r="I1" t="s">
         <v>15</v>
@@ -2271,16 +2324,16 @@
         <v>10</v>
       </c>
       <c r="K1" t="s">
+        <v>23</v>
+      </c>
+      <c r="L1" t="s">
         <v>24</v>
       </c>
-      <c r="L1" t="s">
+      <c r="M1" t="s">
         <v>25</v>
       </c>
-      <c r="M1" t="s">
+      <c r="N1" t="s">
         <v>26</v>
-      </c>
-      <c r="N1" t="s">
-        <v>27</v>
       </c>
       <c r="O1" t="s">
         <v>9</v>
@@ -2288,10 +2341,10 @@
     </row>
     <row r="2" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="B2" t="s">
-        <v>200</v>
+        <v>119</v>
       </c>
       <c r="C2" t="s">
         <v>16</v>
@@ -2306,39 +2359,39 @@
         <v>16</v>
       </c>
       <c r="G2" s="7" t="s">
-        <v>136</v>
+        <v>141</v>
       </c>
       <c r="H2" s="7" t="s">
-        <v>201</v>
+        <v>174</v>
       </c>
       <c r="I2" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="J2" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="K2" t="s">
-        <v>28</v>
-      </c>
-      <c r="L2" t="s">
+        <v>27</v>
+      </c>
+      <c r="L2" s="7" t="s">
+        <v>191</v>
+      </c>
+      <c r="M2" t="s">
+        <v>31</v>
+      </c>
+      <c r="N2" t="s">
         <v>32</v>
       </c>
-      <c r="M2" t="s">
-        <v>33</v>
-      </c>
-      <c r="N2" t="s">
-        <v>34</v>
-      </c>
       <c r="O2" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="3" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="B3" s="7" t="s">
-        <v>200</v>
+        <v>119</v>
       </c>
       <c r="C3" t="s">
         <v>16</v>
@@ -2353,39 +2406,39 @@
         <v>16</v>
       </c>
       <c r="G3" s="7" t="s">
-        <v>136</v>
+        <v>141</v>
       </c>
       <c r="H3" s="7" t="s">
-        <v>201</v>
+        <v>174</v>
       </c>
       <c r="I3" t="s">
+        <v>29</v>
+      </c>
+      <c r="J3" t="s">
         <v>30</v>
       </c>
-      <c r="J3" t="s">
+      <c r="K3" t="s">
+        <v>27</v>
+      </c>
+      <c r="L3" s="7" t="s">
+        <v>191</v>
+      </c>
+      <c r="M3" t="s">
         <v>31</v>
       </c>
-      <c r="K3" t="s">
-        <v>28</v>
-      </c>
-      <c r="L3" t="s">
+      <c r="N3" t="s">
         <v>32</v>
       </c>
-      <c r="M3" t="s">
-        <v>33</v>
-      </c>
-      <c r="N3" t="s">
-        <v>34</v>
-      </c>
       <c r="O3" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="4" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="B4" s="7" t="s">
-        <v>200</v>
+        <v>119</v>
       </c>
       <c r="C4" t="s">
         <v>16</v>
@@ -2400,39 +2453,39 @@
         <v>16</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>137</v>
+        <v>143</v>
       </c>
       <c r="H4" s="7" t="s">
-        <v>201</v>
+        <v>175</v>
       </c>
       <c r="I4" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="J4" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="K4" t="s">
-        <v>28</v>
-      </c>
-      <c r="L4" t="s">
-        <v>38</v>
+        <v>27</v>
+      </c>
+      <c r="L4" s="7" t="s">
+        <v>192</v>
       </c>
       <c r="M4" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="N4" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="O4" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="5" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="B5" s="7" t="s">
-        <v>200</v>
+        <v>119</v>
       </c>
       <c r="C5" t="s">
         <v>16</v>
@@ -2447,39 +2500,39 @@
         <v>16</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>137</v>
+        <v>143</v>
       </c>
       <c r="H5" s="7" t="s">
-        <v>201</v>
+        <v>175</v>
       </c>
       <c r="I5" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="J5" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="K5" t="s">
-        <v>28</v>
-      </c>
-      <c r="L5" t="s">
-        <v>38</v>
+        <v>27</v>
+      </c>
+      <c r="L5" s="7" t="s">
+        <v>192</v>
       </c>
       <c r="M5" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="N5" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="O5" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="6" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>55</v>
+        <v>49</v>
       </c>
       <c r="B6" s="7" t="s">
-        <v>200</v>
+        <v>119</v>
       </c>
       <c r="C6" t="s">
         <v>16</v>
@@ -2494,39 +2547,39 @@
         <v>16</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>194</v>
+        <v>145</v>
       </c>
       <c r="H6" s="7" t="s">
-        <v>201</v>
+        <v>176</v>
       </c>
       <c r="I6" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="J6" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="K6" t="s">
-        <v>28</v>
-      </c>
-      <c r="L6" t="s">
-        <v>47</v>
+        <v>27</v>
+      </c>
+      <c r="L6" s="7" t="s">
+        <v>206</v>
       </c>
       <c r="M6" t="s">
-        <v>33</v>
-      </c>
-      <c r="N6" t="s">
-        <v>48</v>
+        <v>31</v>
+      </c>
+      <c r="N6" s="7" t="s">
+        <v>207</v>
       </c>
       <c r="O6" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="7" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>203</v>
+        <v>120</v>
       </c>
       <c r="B7" s="7" t="s">
-        <v>200</v>
+        <v>119</v>
       </c>
       <c r="C7" t="s">
         <v>16</v>
@@ -2541,39 +2594,39 @@
         <v>16</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>194</v>
+        <v>145</v>
       </c>
       <c r="H7" s="7" t="s">
-        <v>201</v>
+        <v>176</v>
       </c>
       <c r="I7" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="J7" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="K7" t="s">
-        <v>28</v>
-      </c>
-      <c r="L7" t="s">
-        <v>47</v>
+        <v>27</v>
+      </c>
+      <c r="L7" s="7" t="s">
+        <v>206</v>
       </c>
       <c r="M7" t="s">
-        <v>33</v>
-      </c>
-      <c r="N7" t="s">
-        <v>48</v>
+        <v>31</v>
+      </c>
+      <c r="N7" s="7" t="s">
+        <v>207</v>
       </c>
       <c r="O7" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="8" spans="1:15" s="7" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A8" s="7" t="s">
-        <v>204</v>
+        <v>121</v>
       </c>
       <c r="B8" s="7" t="s">
-        <v>200</v>
+        <v>119</v>
       </c>
       <c r="C8" s="7" t="s">
         <v>16</v>
@@ -2588,39 +2641,39 @@
         <v>16</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>194</v>
+        <v>145</v>
       </c>
       <c r="H8" s="7" t="s">
-        <v>201</v>
+        <v>176</v>
       </c>
       <c r="I8" s="7" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>47</v>
+        <v>206</v>
       </c>
       <c r="M8" s="7" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="N8" s="7" t="s">
-        <v>48</v>
+        <v>207</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="9" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
-        <v>52</v>
+        <v>46</v>
       </c>
       <c r="B9" s="7" t="s">
-        <v>200</v>
+        <v>119</v>
       </c>
       <c r="C9" t="s">
         <v>16</v>
@@ -2635,39 +2688,39 @@
         <v>16</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>195</v>
+        <v>147</v>
       </c>
       <c r="H9" s="7" t="s">
-        <v>201</v>
+        <v>177</v>
       </c>
       <c r="I9" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="J9" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="K9" t="s">
-        <v>28</v>
-      </c>
-      <c r="L9" t="s">
-        <v>47</v>
+        <v>27</v>
+      </c>
+      <c r="L9" s="7" t="s">
+        <v>206</v>
       </c>
       <c r="M9" t="s">
-        <v>33</v>
-      </c>
-      <c r="N9" t="s">
-        <v>48</v>
+        <v>31</v>
+      </c>
+      <c r="N9" s="7" t="s">
+        <v>207</v>
       </c>
       <c r="O9" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="10" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
-        <v>53</v>
+        <v>47</v>
       </c>
       <c r="B10" s="7" t="s">
-        <v>200</v>
+        <v>119</v>
       </c>
       <c r="C10" t="s">
         <v>16</v>
@@ -2682,39 +2735,39 @@
         <v>16</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>195</v>
+        <v>147</v>
       </c>
       <c r="H10" s="7" t="s">
-        <v>201</v>
+        <v>177</v>
       </c>
       <c r="I10" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="J10" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="K10" t="s">
-        <v>28</v>
-      </c>
-      <c r="L10" t="s">
-        <v>57</v>
+        <v>27</v>
+      </c>
+      <c r="L10" s="7" t="s">
+        <v>206</v>
       </c>
       <c r="M10" t="s">
-        <v>33</v>
-      </c>
-      <c r="N10" t="s">
-        <v>48</v>
+        <v>31</v>
+      </c>
+      <c r="N10" s="7" t="s">
+        <v>207</v>
       </c>
       <c r="O10" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="11" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
-        <v>58</v>
+        <v>51</v>
       </c>
       <c r="B11" s="7" t="s">
-        <v>200</v>
+        <v>119</v>
       </c>
       <c r="C11" t="s">
         <v>16</v>
@@ -2729,39 +2782,39 @@
         <v>16</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>138</v>
+        <v>149</v>
       </c>
       <c r="H11" s="7" t="s">
-        <v>201</v>
+        <v>178</v>
       </c>
       <c r="I11" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="J11" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="K11" t="s">
-        <v>28</v>
-      </c>
-      <c r="L11" t="s">
-        <v>60</v>
+        <v>27</v>
+      </c>
+      <c r="L11" s="7" t="s">
+        <v>193</v>
       </c>
       <c r="M11" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="N11" t="s">
-        <v>64</v>
+        <v>55</v>
       </c>
       <c r="O11" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="12" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
-        <v>59</v>
+        <v>52</v>
       </c>
       <c r="B12" s="7" t="s">
-        <v>200</v>
+        <v>119</v>
       </c>
       <c r="C12" t="s">
         <v>16</v>
@@ -2776,39 +2829,39 @@
         <v>16</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>138</v>
+        <v>149</v>
       </c>
       <c r="H12" s="7" t="s">
-        <v>201</v>
+        <v>178</v>
       </c>
       <c r="I12" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="J12" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="K12" t="s">
-        <v>28</v>
-      </c>
-      <c r="L12" t="s">
-        <v>60</v>
+        <v>27</v>
+      </c>
+      <c r="L12" s="7" t="s">
+        <v>193</v>
       </c>
       <c r="M12" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="N12" t="s">
-        <v>64</v>
+        <v>55</v>
       </c>
       <c r="O12" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="13" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
-        <v>61</v>
+        <v>53</v>
       </c>
       <c r="B13" s="7" t="s">
-        <v>200</v>
+        <v>119</v>
       </c>
       <c r="C13" t="s">
         <v>16</v>
@@ -2823,39 +2876,39 @@
         <v>16</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>139</v>
+        <v>151</v>
       </c>
       <c r="H13" s="7" t="s">
-        <v>201</v>
+        <v>179</v>
       </c>
       <c r="I13" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="J13" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="K13" t="s">
-        <v>28</v>
-      </c>
-      <c r="L13" t="s">
-        <v>62</v>
+        <v>27</v>
+      </c>
+      <c r="L13" s="7" t="s">
+        <v>194</v>
       </c>
       <c r="M13" t="s">
-        <v>85</v>
+        <v>74</v>
       </c>
       <c r="N13" t="s">
-        <v>63</v>
+        <v>54</v>
       </c>
       <c r="O13" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="14" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
-        <v>65</v>
+        <v>56</v>
       </c>
       <c r="B14" s="7" t="s">
-        <v>200</v>
+        <v>119</v>
       </c>
       <c r="C14" t="s">
         <v>16</v>
@@ -2870,39 +2923,39 @@
         <v>16</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>139</v>
+        <v>151</v>
       </c>
       <c r="H14" s="7" t="s">
-        <v>201</v>
+        <v>179</v>
       </c>
       <c r="I14" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="J14" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="K14" t="s">
-        <v>28</v>
-      </c>
-      <c r="L14" t="s">
-        <v>62</v>
+        <v>27</v>
+      </c>
+      <c r="L14" s="7" t="s">
+        <v>194</v>
       </c>
       <c r="M14" t="s">
-        <v>85</v>
+        <v>74</v>
       </c>
       <c r="N14" t="s">
-        <v>63</v>
+        <v>54</v>
       </c>
       <c r="O14" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="15" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
-        <v>66</v>
+        <v>57</v>
       </c>
       <c r="B15" s="7" t="s">
-        <v>200</v>
+        <v>119</v>
       </c>
       <c r="C15" t="s">
         <v>16</v>
@@ -2917,39 +2970,39 @@
         <v>16</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>139</v>
+        <v>151</v>
       </c>
       <c r="H15" s="7" t="s">
-        <v>201</v>
+        <v>179</v>
       </c>
       <c r="I15" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="J15" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="K15" t="s">
-        <v>28</v>
-      </c>
-      <c r="L15" t="s">
-        <v>62</v>
+        <v>27</v>
+      </c>
+      <c r="L15" s="7" t="s">
+        <v>194</v>
       </c>
       <c r="M15" t="s">
-        <v>85</v>
+        <v>74</v>
       </c>
       <c r="N15" t="s">
-        <v>63</v>
+        <v>54</v>
       </c>
       <c r="O15" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="16" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
-        <v>67</v>
+        <v>58</v>
       </c>
       <c r="B16" s="7" t="s">
-        <v>200</v>
+        <v>119</v>
       </c>
       <c r="C16" t="s">
         <v>16</v>
@@ -2964,39 +3017,39 @@
         <v>16</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>140</v>
+        <v>153</v>
       </c>
       <c r="H16" s="7" t="s">
-        <v>201</v>
+        <v>180</v>
       </c>
       <c r="I16" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="J16" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="K16" t="s">
-        <v>28</v>
-      </c>
-      <c r="L16" t="s">
-        <v>69</v>
+        <v>27</v>
+      </c>
+      <c r="L16" s="7" t="s">
+        <v>195</v>
       </c>
       <c r="M16" t="s">
-        <v>85</v>
+        <v>74</v>
       </c>
       <c r="N16" t="s">
-        <v>71</v>
+        <v>60</v>
       </c>
       <c r="O16" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="17" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
-        <v>68</v>
+        <v>59</v>
       </c>
       <c r="B17" s="7" t="s">
-        <v>200</v>
+        <v>119</v>
       </c>
       <c r="C17" t="s">
         <v>16</v>
@@ -3011,39 +3064,39 @@
         <v>16</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>140</v>
+        <v>153</v>
       </c>
       <c r="H17" s="7" t="s">
-        <v>201</v>
+        <v>180</v>
       </c>
       <c r="I17" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="J17" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="K17" t="s">
-        <v>28</v>
-      </c>
-      <c r="L17" t="s">
-        <v>70</v>
+        <v>27</v>
+      </c>
+      <c r="L17" s="7" t="s">
+        <v>195</v>
       </c>
       <c r="M17" t="s">
-        <v>85</v>
+        <v>74</v>
       </c>
       <c r="N17" t="s">
-        <v>72</v>
+        <v>61</v>
       </c>
       <c r="O17" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="18" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
-        <v>73</v>
+        <v>62</v>
       </c>
       <c r="B18" s="7" t="s">
-        <v>200</v>
+        <v>119</v>
       </c>
       <c r="C18" t="s">
         <v>16</v>
@@ -3058,86 +3111,86 @@
         <v>16</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>141</v>
+        <v>155</v>
       </c>
       <c r="H18" s="7" t="s">
-        <v>201</v>
+        <v>181</v>
       </c>
       <c r="I18" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="J18" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="K18" t="s">
-        <v>28</v>
-      </c>
-      <c r="L18" t="s">
-        <v>75</v>
+        <v>27</v>
+      </c>
+      <c r="L18" s="7" t="s">
+        <v>196</v>
       </c>
       <c r="M18" t="s">
-        <v>85</v>
+        <v>74</v>
       </c>
       <c r="N18" t="s">
-        <v>76</v>
+        <v>65</v>
       </c>
       <c r="O18" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="19" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
+        <v>63</v>
+      </c>
+      <c r="B19" s="7" t="s">
+        <v>119</v>
+      </c>
+      <c r="C19" t="s">
+        <v>16</v>
+      </c>
+      <c r="D19" t="s">
+        <v>16</v>
+      </c>
+      <c r="E19" t="s">
+        <v>16</v>
+      </c>
+      <c r="F19" t="s">
+        <v>16</v>
+      </c>
+      <c r="G19" s="7" t="s">
+        <v>155</v>
+      </c>
+      <c r="H19" s="7" t="s">
+        <v>181</v>
+      </c>
+      <c r="I19" t="s">
+        <v>29</v>
+      </c>
+      <c r="J19" t="s">
+        <v>40</v>
+      </c>
+      <c r="K19" t="s">
+        <v>27</v>
+      </c>
+      <c r="L19" s="7" t="s">
+        <v>196</v>
+      </c>
+      <c r="M19" t="s">
         <v>74</v>
       </c>
-      <c r="B19" s="7" t="s">
-        <v>200</v>
-      </c>
-      <c r="C19" t="s">
-        <v>16</v>
-      </c>
-      <c r="D19" t="s">
-        <v>16</v>
-      </c>
-      <c r="E19" t="s">
-        <v>16</v>
-      </c>
-      <c r="F19" t="s">
-        <v>16</v>
-      </c>
-      <c r="G19" s="7" t="s">
-        <v>141</v>
-      </c>
-      <c r="H19" s="7" t="s">
-        <v>201</v>
-      </c>
-      <c r="I19" t="s">
-        <v>30</v>
-      </c>
-      <c r="J19" t="s">
-        <v>44</v>
-      </c>
-      <c r="K19" t="s">
-        <v>28</v>
-      </c>
-      <c r="L19" t="s">
-        <v>75</v>
-      </c>
-      <c r="M19" t="s">
-        <v>85</v>
-      </c>
       <c r="N19" t="s">
-        <v>76</v>
+        <v>65</v>
       </c>
       <c r="O19" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="20" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
-        <v>86</v>
+        <v>75</v>
       </c>
       <c r="B20" s="7" t="s">
-        <v>200</v>
+        <v>119</v>
       </c>
       <c r="C20" t="s">
         <v>16</v>
@@ -3152,39 +3205,39 @@
         <v>16</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>141</v>
+        <v>155</v>
       </c>
       <c r="H20" s="7" t="s">
-        <v>201</v>
+        <v>181</v>
       </c>
       <c r="I20" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="J20" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="K20" t="s">
-        <v>28</v>
-      </c>
-      <c r="L20" t="s">
-        <v>75</v>
+        <v>27</v>
+      </c>
+      <c r="L20" s="7" t="s">
+        <v>196</v>
       </c>
       <c r="M20" t="s">
-        <v>85</v>
+        <v>74</v>
       </c>
       <c r="N20" t="s">
-        <v>76</v>
+        <v>65</v>
       </c>
       <c r="O20" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="21" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
-        <v>79</v>
+        <v>68</v>
       </c>
       <c r="B21" s="7" t="s">
-        <v>200</v>
+        <v>119</v>
       </c>
       <c r="C21" t="s">
         <v>16</v>
@@ -3199,39 +3252,39 @@
         <v>16</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>142</v>
+        <v>157</v>
       </c>
       <c r="H21" s="7" t="s">
-        <v>201</v>
+        <v>182</v>
       </c>
       <c r="I21" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="J21" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="K21" t="s">
-        <v>28</v>
-      </c>
-      <c r="L21" t="s">
-        <v>78</v>
+        <v>27</v>
+      </c>
+      <c r="L21" s="7" t="s">
+        <v>197</v>
       </c>
       <c r="M21" t="s">
-        <v>85</v>
+        <v>74</v>
       </c>
       <c r="N21" t="s">
-        <v>77</v>
+        <v>66</v>
       </c>
       <c r="O21" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="22" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
-        <v>80</v>
+        <v>69</v>
       </c>
       <c r="B22" s="7" t="s">
-        <v>200</v>
+        <v>119</v>
       </c>
       <c r="C22" t="s">
         <v>16</v>
@@ -3246,39 +3299,39 @@
         <v>16</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>142</v>
+        <v>157</v>
       </c>
       <c r="H22" s="7" t="s">
-        <v>201</v>
+        <v>182</v>
       </c>
       <c r="I22" t="s">
-        <v>89</v>
+        <v>78</v>
       </c>
       <c r="J22" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="K22" t="s">
-        <v>28</v>
-      </c>
-      <c r="L22" t="s">
-        <v>78</v>
+        <v>27</v>
+      </c>
+      <c r="L22" s="7" t="s">
+        <v>197</v>
       </c>
       <c r="M22" t="s">
-        <v>85</v>
+        <v>74</v>
       </c>
       <c r="N22" t="s">
-        <v>77</v>
+        <v>66</v>
       </c>
       <c r="O22" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="23" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
-        <v>87</v>
+        <v>76</v>
       </c>
       <c r="B23" s="7" t="s">
-        <v>200</v>
+        <v>119</v>
       </c>
       <c r="C23" t="s">
         <v>16</v>
@@ -3293,39 +3346,39 @@
         <v>16</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>142</v>
+        <v>157</v>
       </c>
       <c r="H23" s="7" t="s">
-        <v>201</v>
+        <v>182</v>
       </c>
       <c r="I23" t="s">
-        <v>89</v>
+        <v>78</v>
       </c>
       <c r="J23" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="K23" t="s">
-        <v>28</v>
-      </c>
-      <c r="L23" t="s">
-        <v>78</v>
+        <v>27</v>
+      </c>
+      <c r="L23" s="7" t="s">
+        <v>197</v>
       </c>
       <c r="M23" t="s">
-        <v>85</v>
+        <v>74</v>
       </c>
       <c r="N23" t="s">
-        <v>77</v>
+        <v>66</v>
       </c>
       <c r="O23" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="24" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
-        <v>81</v>
+        <v>70</v>
       </c>
       <c r="B24" s="7" t="s">
-        <v>200</v>
+        <v>119</v>
       </c>
       <c r="C24" t="s">
         <v>16</v>
@@ -3340,39 +3393,39 @@
         <v>16</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>143</v>
+        <v>159</v>
       </c>
       <c r="H24" s="7" t="s">
-        <v>201</v>
+        <v>183</v>
       </c>
       <c r="I24" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="J24" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="K24" t="s">
-        <v>28</v>
-      </c>
-      <c r="L24" t="s">
-        <v>84</v>
+        <v>27</v>
+      </c>
+      <c r="L24" s="7" t="s">
+        <v>198</v>
       </c>
       <c r="M24" t="s">
-        <v>85</v>
+        <v>74</v>
       </c>
       <c r="N24" t="s">
-        <v>83</v>
+        <v>72</v>
       </c>
       <c r="O24" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="25" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
-        <v>82</v>
+        <v>71</v>
       </c>
       <c r="B25" s="7" t="s">
-        <v>200</v>
+        <v>119</v>
       </c>
       <c r="C25" t="s">
         <v>16</v>
@@ -3387,39 +3440,39 @@
         <v>16</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>143</v>
+        <v>159</v>
       </c>
       <c r="H25" s="7" t="s">
-        <v>201</v>
+        <v>183</v>
       </c>
       <c r="I25" t="s">
-        <v>89</v>
+        <v>78</v>
       </c>
       <c r="J25" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="K25" t="s">
-        <v>28</v>
-      </c>
-      <c r="L25" t="s">
-        <v>84</v>
+        <v>27</v>
+      </c>
+      <c r="L25" s="7" t="s">
+        <v>198</v>
       </c>
       <c r="M25" t="s">
-        <v>85</v>
+        <v>74</v>
       </c>
       <c r="N25" t="s">
-        <v>83</v>
+        <v>72</v>
       </c>
       <c r="O25" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="26" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
-        <v>88</v>
+        <v>77</v>
       </c>
       <c r="B26" s="7" t="s">
-        <v>200</v>
+        <v>119</v>
       </c>
       <c r="C26" t="s">
         <v>16</v>
@@ -3434,351 +3487,351 @@
         <v>16</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>143</v>
+        <v>159</v>
       </c>
       <c r="H26" s="7" t="s">
-        <v>201</v>
+        <v>183</v>
       </c>
       <c r="I26" t="s">
-        <v>89</v>
+        <v>78</v>
       </c>
       <c r="J26" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="K26" t="s">
-        <v>28</v>
-      </c>
-      <c r="L26" t="s">
-        <v>84</v>
+        <v>27</v>
+      </c>
+      <c r="L26" s="7" t="s">
+        <v>198</v>
       </c>
       <c r="M26" t="s">
-        <v>85</v>
+        <v>74</v>
       </c>
       <c r="N26" t="s">
-        <v>83</v>
+        <v>72</v>
       </c>
       <c r="O26" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="27" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A27" s="7" t="s">
-        <v>90</v>
+        <v>79</v>
       </c>
       <c r="B27" s="7" t="s">
-        <v>200</v>
+        <v>119</v>
       </c>
       <c r="C27" s="7"/>
       <c r="D27" s="7"/>
       <c r="E27" s="7"/>
       <c r="F27" s="7"/>
       <c r="G27" s="7" t="s">
-        <v>144</v>
+        <v>161</v>
       </c>
       <c r="H27" s="7" t="s">
-        <v>202</v>
+        <v>184</v>
       </c>
       <c r="I27" s="7" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="J27" s="7" t="s">
-        <v>91</v>
+        <v>80</v>
       </c>
       <c r="K27" s="7" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="L27" s="7" t="s">
-        <v>100</v>
+        <v>199</v>
       </c>
       <c r="M27" s="7" t="s">
-        <v>101</v>
+        <v>89</v>
       </c>
       <c r="N27" s="7" t="s">
-        <v>102</v>
+        <v>90</v>
       </c>
       <c r="O27" s="7" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="28" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A28" s="7" t="s">
-        <v>92</v>
+        <v>81</v>
       </c>
       <c r="B28" s="7" t="s">
-        <v>200</v>
+        <v>119</v>
       </c>
       <c r="C28" s="7"/>
       <c r="D28" s="7"/>
       <c r="E28" s="7"/>
       <c r="F28" s="7"/>
       <c r="G28" s="7" t="s">
-        <v>144</v>
+        <v>161</v>
       </c>
       <c r="H28" s="7" t="s">
-        <v>202</v>
+        <v>184</v>
       </c>
       <c r="I28" s="7" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="J28" s="7" t="s">
-        <v>93</v>
+        <v>82</v>
       </c>
       <c r="K28" s="7" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>100</v>
+        <v>199</v>
       </c>
       <c r="M28" s="7" t="s">
-        <v>101</v>
+        <v>89</v>
       </c>
       <c r="N28" s="7" t="s">
-        <v>102</v>
+        <v>90</v>
       </c>
       <c r="O28" s="7" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="29" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A29" s="7" t="s">
-        <v>94</v>
+        <v>83</v>
       </c>
       <c r="B29" s="7" t="s">
-        <v>200</v>
+        <v>119</v>
       </c>
       <c r="C29" s="7"/>
       <c r="D29" s="7"/>
       <c r="E29" s="7"/>
       <c r="F29" s="7"/>
       <c r="G29" s="7" t="s">
-        <v>145</v>
+        <v>163</v>
       </c>
       <c r="H29" s="7" t="s">
-        <v>201</v>
+        <v>185</v>
       </c>
       <c r="I29" s="7" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="J29" s="7" t="s">
+        <v>80</v>
+      </c>
+      <c r="K29" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="L29" s="7" t="s">
+        <v>200</v>
+      </c>
+      <c r="M29" s="7" t="s">
+        <v>89</v>
+      </c>
+      <c r="N29" s="7" t="s">
         <v>91</v>
       </c>
-      <c r="K29" s="7" t="s">
-        <v>28</v>
-      </c>
-      <c r="L29" s="7" t="s">
-        <v>103</v>
-      </c>
-      <c r="M29" s="7" t="s">
-        <v>101</v>
-      </c>
-      <c r="N29" s="7" t="s">
-        <v>104</v>
-      </c>
       <c r="O29" s="7" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="30" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A30" s="7" t="s">
-        <v>95</v>
+        <v>84</v>
       </c>
       <c r="B30" s="7" t="s">
-        <v>200</v>
+        <v>119</v>
       </c>
       <c r="C30" s="7"/>
       <c r="D30" s="7"/>
       <c r="E30" s="7"/>
       <c r="F30" s="7"/>
       <c r="G30" s="7" t="s">
-        <v>145</v>
+        <v>163</v>
       </c>
       <c r="H30" s="7" t="s">
-        <v>201</v>
+        <v>185</v>
       </c>
       <c r="I30" s="7" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="J30" s="7" t="s">
-        <v>93</v>
+        <v>82</v>
       </c>
       <c r="K30" s="7" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="L30" s="7" t="s">
-        <v>103</v>
+        <v>200</v>
       </c>
       <c r="M30" s="7" t="s">
-        <v>101</v>
+        <v>89</v>
       </c>
       <c r="N30" s="7" t="s">
-        <v>104</v>
+        <v>91</v>
       </c>
       <c r="O30" s="7" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="31" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A31" s="7" t="s">
-        <v>96</v>
+        <v>85</v>
       </c>
       <c r="B31" s="7" t="s">
-        <v>200</v>
+        <v>119</v>
       </c>
       <c r="C31" s="7"/>
       <c r="D31" s="7"/>
       <c r="E31" s="7"/>
       <c r="F31" s="7"/>
       <c r="G31" s="7" t="s">
-        <v>146</v>
+        <v>165</v>
       </c>
       <c r="H31" s="7" t="s">
+        <v>186</v>
+      </c>
+      <c r="I31" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="J31" s="7" t="s">
+        <v>80</v>
+      </c>
+      <c r="K31" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="L31" s="7" t="s">
         <v>201</v>
       </c>
-      <c r="I31" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="J31" s="7" t="s">
-        <v>91</v>
-      </c>
-      <c r="K31" s="7" t="s">
-        <v>28</v>
-      </c>
-      <c r="L31" s="7" t="s">
-        <v>105</v>
-      </c>
       <c r="M31" s="7" t="s">
-        <v>101</v>
+        <v>89</v>
       </c>
       <c r="N31" s="7" t="s">
-        <v>106</v>
+        <v>92</v>
       </c>
       <c r="O31" s="7" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="32" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A32" s="7" t="s">
-        <v>97</v>
+        <v>86</v>
       </c>
       <c r="B32" s="7" t="s">
-        <v>200</v>
+        <v>119</v>
       </c>
       <c r="C32" s="7"/>
       <c r="D32" s="7"/>
       <c r="E32" s="7"/>
       <c r="F32" s="7"/>
       <c r="G32" s="7" t="s">
-        <v>146</v>
+        <v>165</v>
       </c>
       <c r="H32" s="7" t="s">
+        <v>186</v>
+      </c>
+      <c r="I32" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="J32" s="7" t="s">
+        <v>82</v>
+      </c>
+      <c r="K32" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="L32" s="7" t="s">
         <v>201</v>
       </c>
-      <c r="I32" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="J32" s="7" t="s">
-        <v>93</v>
-      </c>
-      <c r="K32" s="7" t="s">
-        <v>28</v>
-      </c>
-      <c r="L32" s="7" t="s">
-        <v>105</v>
-      </c>
       <c r="M32" s="7" t="s">
-        <v>101</v>
+        <v>89</v>
       </c>
       <c r="N32" s="7" t="s">
-        <v>106</v>
+        <v>92</v>
       </c>
       <c r="O32" s="7" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="33" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A33" s="7" t="s">
-        <v>98</v>
+        <v>87</v>
       </c>
       <c r="B33" s="7" t="s">
-        <v>200</v>
+        <v>119</v>
       </c>
       <c r="C33" s="7"/>
       <c r="D33" s="7"/>
       <c r="E33" s="7"/>
       <c r="F33" s="7"/>
       <c r="G33" s="7" t="s">
-        <v>147</v>
+        <v>167</v>
       </c>
       <c r="H33" s="7" t="s">
-        <v>201</v>
+        <v>187</v>
       </c>
       <c r="I33" s="7" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="J33" s="7" t="s">
-        <v>91</v>
+        <v>80</v>
       </c>
       <c r="K33" s="7" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="L33" s="7" t="s">
-        <v>107</v>
+        <v>202</v>
       </c>
       <c r="M33" s="7" t="s">
-        <v>101</v>
+        <v>89</v>
       </c>
       <c r="N33" s="7" t="s">
-        <v>108</v>
+        <v>93</v>
       </c>
       <c r="O33" s="7" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="34" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A34" s="7" t="s">
-        <v>99</v>
+        <v>88</v>
       </c>
       <c r="B34" s="7" t="s">
-        <v>200</v>
+        <v>119</v>
       </c>
       <c r="C34" s="7"/>
       <c r="D34" s="7"/>
       <c r="E34" s="7"/>
       <c r="F34" s="7"/>
       <c r="G34" s="7" t="s">
-        <v>147</v>
+        <v>167</v>
       </c>
       <c r="H34" s="7" t="s">
-        <v>201</v>
+        <v>187</v>
       </c>
       <c r="I34" s="7" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="J34" s="7" t="s">
+        <v>82</v>
+      </c>
+      <c r="K34" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="L34" s="7" t="s">
+        <v>202</v>
+      </c>
+      <c r="M34" s="7" t="s">
+        <v>89</v>
+      </c>
+      <c r="N34" s="7" t="s">
         <v>93</v>
       </c>
-      <c r="K34" s="7" t="s">
-        <v>28</v>
-      </c>
-      <c r="L34" s="7" t="s">
-        <v>107</v>
-      </c>
-      <c r="M34" s="7" t="s">
-        <v>101</v>
-      </c>
-      <c r="N34" s="7" t="s">
-        <v>108</v>
-      </c>
       <c r="O34" s="7" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="35" spans="1:15" s="7" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A35" s="7" t="s">
-        <v>109</v>
+        <v>94</v>
       </c>
       <c r="B35" s="7" t="s">
-        <v>200</v>
+        <v>119</v>
       </c>
       <c r="C35" s="7" t="s">
         <v>16</v>
@@ -3793,39 +3846,39 @@
         <v>16</v>
       </c>
       <c r="G35" s="7" t="s">
-        <v>148</v>
+        <v>169</v>
       </c>
       <c r="H35" s="7" t="s">
-        <v>201</v>
+        <v>188</v>
       </c>
       <c r="I35" s="7" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="J35" s="7" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="K35" s="7" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="L35" s="7" t="s">
-        <v>111</v>
+        <v>203</v>
       </c>
       <c r="M35" s="7" t="s">
-        <v>113</v>
+        <v>97</v>
       </c>
       <c r="N35" s="7" t="s">
-        <v>112</v>
+        <v>96</v>
       </c>
       <c r="O35" s="7" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="36" spans="1:15" s="7" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A36" s="7" t="s">
-        <v>110</v>
+        <v>95</v>
       </c>
       <c r="B36" s="7" t="s">
-        <v>200</v>
+        <v>119</v>
       </c>
       <c r="C36" s="7" t="s">
         <v>16</v>
@@ -3840,39 +3893,39 @@
         <v>16</v>
       </c>
       <c r="G36" s="7" t="s">
-        <v>148</v>
+        <v>169</v>
       </c>
       <c r="H36" s="7" t="s">
-        <v>201</v>
+        <v>188</v>
       </c>
       <c r="I36" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="J36" s="7" t="s">
         <v>30</v>
       </c>
-      <c r="J36" s="7" t="s">
-        <v>31</v>
-      </c>
       <c r="K36" s="7" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="L36" s="7" t="s">
-        <v>111</v>
+        <v>203</v>
       </c>
       <c r="M36" s="7" t="s">
-        <v>113</v>
+        <v>97</v>
       </c>
       <c r="N36" s="7" t="s">
-        <v>112</v>
+        <v>96</v>
       </c>
       <c r="O36" s="7" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="37" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A37" s="7" t="s">
-        <v>115</v>
+        <v>99</v>
       </c>
       <c r="B37" s="7" t="s">
-        <v>200</v>
+        <v>119</v>
       </c>
       <c r="C37" s="7" t="s">
         <v>16</v>
@@ -3887,39 +3940,39 @@
         <v>16</v>
       </c>
       <c r="G37" s="7" t="s">
-        <v>148</v>
+        <v>169</v>
       </c>
       <c r="H37" s="7" t="s">
-        <v>201</v>
+        <v>188</v>
       </c>
       <c r="I37" s="7" t="s">
-        <v>114</v>
+        <v>98</v>
       </c>
       <c r="J37" s="7" t="s">
-        <v>93</v>
+        <v>82</v>
       </c>
       <c r="K37" s="7" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="L37" s="7" t="s">
-        <v>111</v>
+        <v>203</v>
       </c>
       <c r="M37" s="7" t="s">
-        <v>113</v>
+        <v>97</v>
       </c>
       <c r="N37" s="7" t="s">
-        <v>112</v>
+        <v>96</v>
       </c>
       <c r="O37" s="7" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="38" spans="1:15" s="7" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A38" s="7" t="s">
-        <v>116</v>
+        <v>100</v>
       </c>
       <c r="B38" s="7" t="s">
-        <v>200</v>
+        <v>119</v>
       </c>
       <c r="C38" s="7" t="s">
         <v>16</v>
@@ -3934,39 +3987,39 @@
         <v>16</v>
       </c>
       <c r="G38" s="7" t="s">
-        <v>149</v>
+        <v>170</v>
       </c>
       <c r="H38" s="7" t="s">
-        <v>201</v>
+        <v>189</v>
       </c>
       <c r="I38" s="7" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="J38" s="7" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="K38" s="7" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="L38" s="7" t="s">
-        <v>120</v>
+        <v>204</v>
       </c>
       <c r="M38" s="7" t="s">
-        <v>113</v>
+        <v>97</v>
       </c>
       <c r="N38" s="7" t="s">
-        <v>119</v>
+        <v>103</v>
       </c>
       <c r="O38" s="7" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="39" spans="1:15" s="7" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A39" s="7" t="s">
-        <v>117</v>
+        <v>101</v>
       </c>
       <c r="B39" s="7" t="s">
-        <v>200</v>
+        <v>119</v>
       </c>
       <c r="C39" s="7" t="s">
         <v>16</v>
@@ -3981,39 +4034,39 @@
         <v>16</v>
       </c>
       <c r="G39" s="7" t="s">
-        <v>149</v>
+        <v>170</v>
       </c>
       <c r="H39" s="7" t="s">
-        <v>201</v>
+        <v>189</v>
       </c>
       <c r="I39" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="J39" s="7" t="s">
         <v>30</v>
       </c>
-      <c r="J39" s="7" t="s">
-        <v>31</v>
-      </c>
       <c r="K39" s="7" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="L39" s="7" t="s">
-        <v>120</v>
+        <v>204</v>
       </c>
       <c r="M39" s="7" t="s">
-        <v>113</v>
+        <v>97</v>
       </c>
       <c r="N39" s="7" t="s">
-        <v>119</v>
+        <v>103</v>
       </c>
       <c r="O39" s="7" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="40" spans="1:15" s="7" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A40" s="7" t="s">
-        <v>118</v>
+        <v>102</v>
       </c>
       <c r="B40" s="7" t="s">
-        <v>200</v>
+        <v>119</v>
       </c>
       <c r="C40" s="7" t="s">
         <v>16</v>
@@ -4028,39 +4081,39 @@
         <v>16</v>
       </c>
       <c r="G40" s="7" t="s">
-        <v>149</v>
+        <v>170</v>
       </c>
       <c r="H40" s="7" t="s">
-        <v>201</v>
+        <v>189</v>
       </c>
       <c r="I40" s="7" t="s">
-        <v>114</v>
+        <v>98</v>
       </c>
       <c r="J40" s="7" t="s">
-        <v>93</v>
+        <v>82</v>
       </c>
       <c r="K40" s="7" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="L40" s="7" t="s">
-        <v>120</v>
+        <v>204</v>
       </c>
       <c r="M40" s="7" t="s">
-        <v>113</v>
+        <v>97</v>
       </c>
       <c r="N40" s="7" t="s">
-        <v>119</v>
+        <v>103</v>
       </c>
       <c r="O40" s="7" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="41" spans="1:15" s="7" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A41" s="7" t="s">
-        <v>121</v>
+        <v>104</v>
       </c>
       <c r="B41" s="7" t="s">
-        <v>200</v>
+        <v>119</v>
       </c>
       <c r="C41" s="7" t="s">
         <v>16</v>
@@ -4075,39 +4128,39 @@
         <v>16</v>
       </c>
       <c r="G41" s="7" t="s">
-        <v>150</v>
+        <v>172</v>
       </c>
       <c r="H41" s="7" t="s">
-        <v>201</v>
+        <v>190</v>
       </c>
       <c r="I41" s="7" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="J41" s="7" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="K41" s="7" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="L41" s="7" t="s">
-        <v>124</v>
+        <v>205</v>
       </c>
       <c r="M41" s="7" t="s">
-        <v>113</v>
+        <v>97</v>
       </c>
       <c r="N41" s="7" t="s">
-        <v>125</v>
+        <v>107</v>
       </c>
       <c r="O41" s="7" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="42" spans="1:15" s="7" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A42" s="7" t="s">
-        <v>122</v>
+        <v>105</v>
       </c>
       <c r="B42" s="7" t="s">
-        <v>200</v>
+        <v>119</v>
       </c>
       <c r="C42" s="7" t="s">
         <v>16</v>
@@ -4122,39 +4175,39 @@
         <v>16</v>
       </c>
       <c r="G42" s="7" t="s">
-        <v>150</v>
+        <v>172</v>
       </c>
       <c r="H42" s="7" t="s">
-        <v>201</v>
+        <v>190</v>
       </c>
       <c r="I42" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="J42" s="7" t="s">
         <v>30</v>
       </c>
-      <c r="J42" s="7" t="s">
-        <v>31</v>
-      </c>
       <c r="K42" s="7" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="L42" s="7" t="s">
-        <v>124</v>
+        <v>205</v>
       </c>
       <c r="M42" s="7" t="s">
-        <v>113</v>
+        <v>97</v>
       </c>
       <c r="N42" s="7" t="s">
-        <v>125</v>
+        <v>107</v>
       </c>
       <c r="O42" s="7" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="43" spans="1:15" s="7" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A43" s="7" t="s">
-        <v>123</v>
+        <v>106</v>
       </c>
       <c r="B43" s="7" t="s">
-        <v>200</v>
+        <v>119</v>
       </c>
       <c r="C43" s="7" t="s">
         <v>16</v>
@@ -4169,206 +4222,206 @@
         <v>16</v>
       </c>
       <c r="G43" s="7" t="s">
-        <v>150</v>
+        <v>172</v>
       </c>
       <c r="H43" s="7" t="s">
-        <v>201</v>
+        <v>190</v>
       </c>
       <c r="I43" s="7" t="s">
-        <v>114</v>
+        <v>98</v>
       </c>
       <c r="J43" s="7" t="s">
-        <v>93</v>
+        <v>82</v>
       </c>
       <c r="K43" s="7" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="L43" s="7" t="s">
-        <v>124</v>
+        <v>205</v>
       </c>
       <c r="M43" s="7" t="s">
-        <v>113</v>
+        <v>97</v>
       </c>
       <c r="N43" s="7" t="s">
-        <v>125</v>
+        <v>107</v>
       </c>
       <c r="O43" s="7" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="44" spans="1:15" s="7" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A44" s="7" t="s">
-        <v>127</v>
+        <v>109</v>
       </c>
       <c r="B44" s="7" t="s">
-        <v>200</v>
+        <v>119</v>
       </c>
       <c r="G44" s="7" t="s">
-        <v>139</v>
+        <v>151</v>
       </c>
       <c r="H44" s="7" t="s">
-        <v>201</v>
+        <v>179</v>
       </c>
       <c r="I44" s="7" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="J44" s="7" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="K44" s="7" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="L44" s="7" t="s">
-        <v>62</v>
+        <v>194</v>
       </c>
       <c r="M44" s="7" t="s">
-        <v>85</v>
+        <v>74</v>
       </c>
       <c r="N44" s="7" t="s">
-        <v>63</v>
+        <v>54</v>
       </c>
       <c r="O44" s="7" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="45" spans="1:15" s="7" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A45" s="7" t="s">
-        <v>128</v>
+        <v>110</v>
       </c>
       <c r="B45" s="7" t="s">
-        <v>200</v>
+        <v>119</v>
       </c>
       <c r="G45" s="7" t="s">
-        <v>140</v>
+        <v>153</v>
       </c>
       <c r="H45" s="7" t="s">
-        <v>201</v>
+        <v>180</v>
       </c>
       <c r="I45" s="7" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="J45" s="7" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="K45" s="7" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="L45" s="7" t="s">
-        <v>69</v>
+        <v>195</v>
       </c>
       <c r="M45" s="7" t="s">
-        <v>85</v>
+        <v>74</v>
       </c>
       <c r="N45" s="7" t="s">
-        <v>71</v>
+        <v>60</v>
       </c>
       <c r="O45" s="7" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="46" spans="1:15" s="7" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A46" s="7" t="s">
-        <v>129</v>
+        <v>111</v>
       </c>
       <c r="B46" s="7" t="s">
-        <v>200</v>
+        <v>119</v>
       </c>
       <c r="G46" s="7" t="s">
-        <v>141</v>
+        <v>155</v>
       </c>
       <c r="H46" s="7" t="s">
-        <v>201</v>
+        <v>181</v>
       </c>
       <c r="I46" s="7" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="J46" s="7" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="K46" s="7" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="L46" s="7" t="s">
-        <v>75</v>
+        <v>64</v>
       </c>
       <c r="M46" s="7" t="s">
-        <v>85</v>
+        <v>74</v>
       </c>
       <c r="N46" s="7" t="s">
-        <v>76</v>
+        <v>65</v>
       </c>
       <c r="O46" s="7" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="47" spans="1:15" s="7" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A47" s="7" t="s">
-        <v>130</v>
+        <v>112</v>
       </c>
       <c r="B47" s="7" t="s">
-        <v>200</v>
+        <v>119</v>
       </c>
       <c r="G47" s="7" t="s">
-        <v>142</v>
+        <v>157</v>
       </c>
       <c r="H47" s="7" t="s">
-        <v>201</v>
+        <v>182</v>
       </c>
       <c r="I47" s="7" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="J47" s="7" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="K47" s="7" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="L47" s="7" t="s">
-        <v>78</v>
+        <v>67</v>
       </c>
       <c r="M47" s="7" t="s">
-        <v>85</v>
+        <v>74</v>
       </c>
       <c r="N47" s="7" t="s">
-        <v>77</v>
+        <v>66</v>
       </c>
       <c r="O47" s="7" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="48" spans="1:15" s="7" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A48" s="7" t="s">
-        <v>131</v>
+        <v>113</v>
       </c>
       <c r="B48" s="7" t="s">
-        <v>200</v>
+        <v>119</v>
       </c>
       <c r="G48" s="7" t="s">
-        <v>143</v>
+        <v>159</v>
       </c>
       <c r="H48" s="7" t="s">
-        <v>201</v>
+        <v>183</v>
       </c>
       <c r="I48" s="7" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="J48" s="7" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="K48" s="7" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="L48" s="7" t="s">
-        <v>84</v>
+        <v>73</v>
       </c>
       <c r="M48" s="7" t="s">
-        <v>85</v>
+        <v>74</v>
       </c>
       <c r="N48" s="7" t="s">
-        <v>83</v>
+        <v>72</v>
       </c>
       <c r="O48" s="7" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
   </sheetData>

--- a/sources/case/ApprovalTypes.xlsx
+++ b/sources/case/ApprovalTypes.xlsx
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="974" uniqueCount="223">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="974" uniqueCount="225">
   <si>
     <t>API</t>
   </si>
@@ -189,10 +189,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>dismiss</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>Offboard_dismiss1</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -469,12 +465,6 @@
     <t>[{"uuid":"$csv{data.AllTypes.employee_probation.uuid}","approvers":[{"uuid":"","type":"reporting_to","value":"1"},{"uuid":"","type":"reporting_to","value":"2"},{"uuid":"","type":"reporting_to","value":"3"},{"uuid":"","type":"reporting_to","value":"4"},{"uuid":"","type":"login_user_department_manager","value":""},{"uuid":"","type":"department_manager","value":"${organization_2.uuid}"},{"uuid":"","type":"employee","value":"$csv{data.Auth.user_1.employee_id}"}],"target_type":"","target_value":"!!String{}"},{"uuid":"","approvers":[{"uuid":"","type":"login_user_department_manager","value":""},{"uuid":"","type":"department_manager","value":"${organization_2.uuid}"},{"uuid":"","type":"employee","value":"$csv{data.Auth.user_1.employee_id}"}],"target_type":"sponsor","target_value":"!!String{\"department\":[\"${organization_1.uuid}\"],\"employee\":[]}"},{"uuid":"","approvers":[{"uuid":"","type":"login_user_department_manager","value":""},{"uuid":"","type":"employee","value":"$csv{data.Auth.user_1.employee_id}"},{"uuid":"","type":"employee","value":"$csv{data.Auth.user_houlong.employee_id}"}],"target_type":"sponsor","target_value":"!!String{\"department\":[\"${organization_2.uuid}\"],\"employee\":[]}"}]</t>
   </si>
   <si>
-    <t>[{"target_value":"!!String{}","target_type":"","approvers":[{"type":"reporting_to","uuid":"","value":"1"},{"type":"reporting_to","uuid":"","value":"2"},{"type":"reporting_to","uuid":"","value":"3"},{"type":"reporting_to","uuid":"","value":"4"},{"type":"login_user_department_manager","uuid":"","value":""},{"type":"department_manager","uuid":"","value":"${organization_2.uuid}"},{"type":"employee","uuid":"","value":"$csv{data.Auth.user_1.employee_id}"}],"uuid":"$csv{data.AllTypes.employee_resign.uuid}"},{"target_value":"!!String{\"department\":[\"${organization_1.uuid}\"],\"employee\":[]}","target_type":"sponsor","approvers":[{"type":"login_user_department_manager","uuid":"","value":""},{"type":"department_manager","uuid":"","value":"${organization_2.uuid}"},{"type":"employee","uuid":"","value":"$csv{data.Auth.user_1.employee_id}"}],"uuid":""},{"uuid":"","approvers":[{"uuid":"","type":"login_user_department_manager","value":""},{"uuid":"","type":"employee","value":"$csv{data.Auth.user_1.employee_id}"},{"uuid":"","type":"employee","value":"$csv{data.Auth.user_houlong.employee_id}"}],"target_type":"sponsor","target_value":"!!String{\"department\":[\"${organization_2.uuid}\"],\"employee\":[]}"}]</t>
-  </si>
-  <si>
-    <t>[{"target_value":"!!String{}","target_type":"","approvers":[{"type":"reporting_to","uuid":"","value":"1"},{"type":"reporting_to","uuid":"","value":"2"},{"type":"reporting_to","uuid":"","value":"3"},{"type":"reporting_to","uuid":"","value":"4"},{"type":"login_user_department_manager","uuid":"","value":""},{"type":"department_manager","uuid":"","value":"${organization_2.uuid}"},{"type":"employee","uuid":"","value":"$csv{data.Auth.user_1.employee_id}"}],"uuid":"$csv{data.AllTypes.employee_offboard.uuid}"},{"target_value":"!!String{\"department\":[\"${organization_1.uuid}\"],\"employee\":[]}","target_type":"sponsor","approvers":[{"type":"login_user_department_manager","uuid":"","value":""},{"type":"department_manager","uuid":"","value":"${organization_2.uuid}"},{"type":"employee","uuid":"","value":"$csv{data.Auth.user_1.employee_id}"}],"uuid":""},{"uuid":"","approvers":[{"uuid":"","type":"login_user_department_manager","value":""},{"uuid":"","type":"employee","value":"$csv{data.Auth.user_1.employee_id}"},{"uuid":"","type":"employee","value":"$csv{data.Auth.user_houlong.employee_id}"}],"target_type":"sponsor","target_value":"!!String{\"department\":[\"${organization_2.uuid}\"],\"employee\":[]}"}]</t>
-  </si>
-  <si>
     <t>[{"target_value":"!!String{}","target_type":"","approvers":[{"type":"reporting_to","uuid":"","value":"1"},{"type":"reporting_to","uuid":"","value":"2"},{"type":"reporting_to","uuid":"","value":"3"},{"type":"reporting_to","uuid":"","value":"4"},{"type":"login_user_department_manager","uuid":"","value":""},{"type":"department_manager","uuid":"","value":"${organization_2.uuid}"},{"type":"employee","uuid":"","value":"$csv{data.Auth.user_1.employee_id}"}],"uuid":"$csv{data.AllTypes.employee_offer.uuid}"},{"target_value":"!!String{\"department\":[\"${organization_1.uuid}\"],\"employee\":[]}","target_type":"sponsor","approvers":[{"type":"login_user_department_manager","uuid":"","value":""},{"type":"department_manager","uuid":"","value":"${organization_2.uuid}"},{"type":"employee","uuid":"","value":"$csv{data.Auth.user_1.employee_id}"}],"uuid":""}]</t>
   </si>
   <si>
@@ -513,6 +503,257 @@
   <si>
     <t>[{"uuid":"$csv{data.AllTypes.reimbursement.uuid}","approvers":[{"uuid":"","type":"reporting_to","value":"1"},{"uuid":"","type":"reporting_to","value":"2"},{"uuid":"","type":"reporting_to","value":"3"},{"uuid":"","type":"reporting_to","value":"4"},{"uuid":"","type":"login_user_department_manager","value":""},{"uuid":"","type":"department_manager","value":"${organization_2.uuid}"},{"uuid":"","type":"employee","value":"$csv{data.Auth.user_1.employee_id}"}],"target_type":"","target_value":"!!String{}"}]</t>
     <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>[{"uuid":"$csv{data.AllTypes.employee_adjust.uuid}","approvers":[{"uuid":"","type":"reporting_to","value":"1"},{"uuid":"","type":"reporting_to","value":"2"},{"uuid":"","type":"reporting_to","value":"3"},{"uuid":"","type":"reporting_to","value":"4"},{"uuid":"","type":"login_user_department_manager","value":""},{"uuid":"","type":"department_manager","value":"${organization_2.uuid}"},{"uuid":"","type":"employee","value":"$csv{data.Auth.user_1.employee_id}"}],"target_type":"","target_value":"!!String{}"}]</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>$csv{data.AllTypes.employee_adjust.type_id}</t>
+  </si>
+  <si>
+    <t>[{"uuid":"$csv{data.AllTypes.employee_probation.uuid}","approvers":[{"uuid":"","type":"reporting_to","value":"1"},{"uuid":"","type":"reporting_to","value":"2"},{"uuid":"","type":"reporting_to","value":"3"},{"uuid":"","type":"reporting_to","value":"4"},{"uuid":"","type":"login_user_department_manager","value":""},{"uuid":"","type":"department_manager","value":"${organization_2.uuid}"},{"uuid":"","type":"employee","value":"$csv{data.Auth.user_1.employee_id}"}],"target_type":"","target_value":"!!String{}"}]</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>$csv{data.AllTypes.employee_probation.type_id}</t>
+  </si>
+  <si>
+    <t>$csv{data.AllTypes.employee_offboard.type_id}</t>
+  </si>
+  <si>
+    <t>[{"target_value":"!!String{}","target_type":"","approvers":[{"type":"reporting_to","uuid":"","value":"1"},{"type":"reporting_to","uuid":"","value":"2"},{"type":"reporting_to","uuid":"","value":"3"},{"type":"reporting_to","uuid":"","value":"4"},{"type":"login_user_department_manager","uuid":"","value":""},{"type":"department_manager","uuid":"","value":"${organization_2.uuid}"},{"type":"employee","uuid":"","value":"$csv{data.Auth.user_1.employee_id}"}],"uuid":"$csv{data.AllTypes.employee_offer.uuid}"}]</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>$csv{data.AllTypes.employee_offer.type_id}</t>
+  </si>
+  <si>
+    <t>[{"target_value":"!!String{}","target_type":"","approvers":[{"type":"reporting_to","uuid":"","value":"1"},{"type":"reporting_to","uuid":"","value":"2"},{"type":"reporting_to","uuid":"","value":"3"},{"type":"reporting_to","uuid":"","value":"4"},{"type":"login_user_department_manager","uuid":"","value":""},{"type":"department_manager","uuid":"","value":"${organization_2.uuid}"},{"type":"employee","uuid":"","value":"$csv{data.Auth.user_1.employee_id}"}],"uuid":"$csv{data.AllTypes.leave_request.uuid}"}]</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>$csv{data.AllTypes.leave_request.type_id}</t>
+  </si>
+  <si>
+    <t>[{"target_value":"!!String{}","target_type":"","approvers":[{"type":"reporting_to","uuid":"","value":"1"},{"type":"reporting_to","uuid":"","value":"2"},{"type":"reporting_to","uuid":"","value":"3"},{"type":"reporting_to","uuid":"","value":"4"},{"type":"login_user_department_manager","uuid":"","value":""},{"type":"department_manager","uuid":"","value":"${organization_2.uuid}"},{"type":"employee","uuid":"","value":"$csv{data.Auth.user_1.employee_id}"}],"uuid":"$csv{data.AllTypes.resign_request.uuid}"}]</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>$csv{data.AllTypes.resign_request.type_id}</t>
+  </si>
+  <si>
+    <t>[{"target_value":"!!String{}","target_type":"","approvers":[{"type":"reporting_to","uuid":"","value":"1"},{"type":"reporting_to","uuid":"","value":"2"},{"type":"reporting_to","uuid":"","value":"3"},{"type":"reporting_to","uuid":"","value":"4"},{"type":"login_user_department_manager","uuid":"","value":""},{"type":"department_manager","uuid":"","value":"${organization_2.uuid}"},{"type":"employee","uuid":"","value":"$csv{data.Auth.user_1.employee_id}"}],"uuid":"$csv{data.AllTypes.out_request.uuid}"}]</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>$csv{data.AllTypes.out_request.type_id}</t>
+  </si>
+  <si>
+    <t>[{"target_value":"!!String{}","target_type":"","approvers":[{"type":"reporting_to","uuid":"","value":"1"},{"type":"reporting_to","uuid":"","value":"2"},{"type":"reporting_to","uuid":"","value":"3"},{"type":"reporting_to","uuid":"","value":"4"},{"type":"login_user_department_manager","uuid":"","value":""},{"type":"department_manager","uuid":"","value":"${organization_2.uuid}"},{"type":"employee","uuid":"","value":"$csv{data.Auth.user_1.employee_id}"}],"uuid":"$csv{data.AllTypes.overtime_request.uuid}"}]</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>$csv{data.AllTypes.overtime_request.type_id}</t>
+  </si>
+  <si>
+    <t>[{"target_value":"!!String{}","target_type":"","approvers":[{"type":"reporting_to","uuid":"","value":"1"},{"type":"reporting_to","uuid":"","value":"2"},{"type":"reporting_to","uuid":"","value":"3"},{"type":"reporting_to","uuid":"","value":"4"},{"type":"login_user_department_manager","uuid":"","value":""},{"type":"department_manager","uuid":"","value":"${organization_2.uuid}"},{"type":"employee","uuid":"","value":"$csv{data.Auth.user_1.employee_id}"}],"uuid":"$csv{data.AllTypes.trip_request.uuid}"}]</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>$csv{data.AllTypes.trip_request.type_id}</t>
+  </si>
+  <si>
+    <t>[{"target_value":"!!String{}","target_type":"","approvers":[{"type":"reporting_to","uuid":"","value":"1"},{"type":"reporting_to","uuid":"","value":"2"},{"type":"reporting_to","uuid":"","value":"3"},{"type":"reporting_to","uuid":"","value":"4"},{"type":"login_user_department_manager","uuid":"","value":""},{"type":"department_manager","uuid":"","value":"${organization_2.uuid}"},{"type":"employee","uuid":"","value":"$csv{data.Auth.user_1.employee_id}"}],"uuid":"$csv{data.AllTypes.project_approval.uuid}"}]</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>$csv{data.AllTypes.project_approval.type_id}</t>
+  </si>
+  <si>
+    <t>[{"target_value":"!!String{}","target_type":"","approvers":[{"type":"reporting_to","uuid":"","value":"1"},{"type":"reporting_to","uuid":"","value":"2"},{"type":"reporting_to","uuid":"","value":"3"},{"type":"reporting_to","uuid":"","value":"4"},{"type":"login_user_department_manager","uuid":"","value":""},{"type":"department_manager","uuid":"","value":"${organization_2.uuid}"},{"type":"employee","uuid":"","value":"$csv{data.Auth.user_1.employee_id}"}],"uuid":"$csv{data.AllTypes.general_approval.uuid}"}]</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>$csv{data.AllTypes.general_approval.type_id}</t>
+  </si>
+  <si>
+    <t>[{"target_value":"!!String{}","target_type":"","approvers":[{"type":"reporting_to","uuid":"","value":"1"},{"type":"reporting_to","uuid":"","value":"2"},{"type":"reporting_to","uuid":"","value":"3"},{"type":"reporting_to","uuid":"","value":"4"},{"type":"login_user_department_manager","uuid":"","value":""},{"type":"department_manager","uuid":"","value":"${organization_2.uuid}"},{"type":"employee","uuid":"","value":"$csv{data.Auth.user_1.employee_id}"}],"uuid":"$csv{data.AllTypes.materialget.uuid}"}]</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>$csv{data.AllTypes.materialget.type_id}</t>
+  </si>
+  <si>
+    <t>[{"target_value":"!!String{}","target_type":"","approvers":[{"type":"reporting_to","uuid":"","value":"1"},{"type":"reporting_to","uuid":"","value":"2"},{"type":"reporting_to","uuid":"","value":"3"},{"type":"reporting_to","uuid":"","value":"4"},{"type":"login_user_department_manager","uuid":"","value":""},{"type":"department_manager","uuid":"","value":"${organization_2.uuid}"},{"type":"employee","uuid":"","value":"$csv{data.Auth.user_1.employee_id}"}],"uuid":"$csv{data.AllTypes.contract.uuid}"}]</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>$csv{data.AllTypes.contract.type_id}</t>
+  </si>
+  <si>
+    <t>[{"uuid":"$csv{data.AllTypes.purchase.uuid}","approvers":[{"uuid":"","type":"reporting_to","value":"1"},{"uuid":"","type":"reporting_to","value":"2"},{"uuid":"","type":"reporting_to","value":"3"},{"uuid":"","type":"reporting_to","value":"4"},{"uuid":"","type":"login_user_department_manager","value":""},{"uuid":"","type":"department_manager","value":"${organization_2.uuid}"},{"uuid":"","type":"employee","value":"$csv{data.Auth.user_1.employee_id}"}],"target_type":"","target_value":"!!String{}"}]</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>$csv{data.AllTypes.purchase.type_id}</t>
+  </si>
+  <si>
+    <t>$csv{data.AllTypes.reimbursement.type_id}</t>
+  </si>
+  <si>
+    <t>[{"uuid":"$csv{data.AllTypes.payment.uuid}","approvers":[{"uuid":"","type":"reporting_to","value":"1"},{"uuid":"","type":"reporting_to","value":"2"},{"uuid":"","type":"reporting_to","value":"3"},{"uuid":"","type":"reporting_to","value":"4"},{"uuid":"","type":"login_user_department_manager","value":""},{"uuid":"","type":"department_manager","value":"${organization_2.uuid}"},{"uuid":"","type":"employee","value":"$csv{data.Auth.user_1.employee_id}"}],"target_type":"","target_value":"!!String{}"}]</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>$csv{data.AllTypes.payment.type_id}</t>
+  </si>
+  <si>
+    <t>created_by</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>$csv{data.AllTypes.employee_adjust.created_by}</t>
+  </si>
+  <si>
+    <t>$csv{data.AllTypes.employee_probation.created_by}</t>
+  </si>
+  <si>
+    <t>$csv{data.AllTypes.employee_offboard.created_by}</t>
+  </si>
+  <si>
+    <t>$csv{data.AllTypes.employee_offer.created_by}</t>
+  </si>
+  <si>
+    <t>$csv{data.AllTypes.leave_request.created_by}</t>
+  </si>
+  <si>
+    <t>$csv{data.AllTypes.resign_request.created_by}</t>
+  </si>
+  <si>
+    <t>$csv{data.AllTypes.out_request.created_by}</t>
+  </si>
+  <si>
+    <t>$csv{data.AllTypes.overtime_request.created_by}</t>
+  </si>
+  <si>
+    <t>$csv{data.AllTypes.trip_request.created_by}</t>
+  </si>
+  <si>
+    <t>$csv{data.AllTypes.project_approval.created_by}</t>
+  </si>
+  <si>
+    <t>$csv{data.AllTypes.general_approval.created_by}</t>
+  </si>
+  <si>
+    <t>$csv{data.AllTypes.materialget.created_by}</t>
+  </si>
+  <si>
+    <t>$csv{data.AllTypes.contract.created_by}</t>
+  </si>
+  <si>
+    <t>$csv{data.AllTypes.purchase.created_by}</t>
+  </si>
+  <si>
+    <t>$csv{data.AllTypes.reimbursement.created_by}</t>
+  </si>
+  <si>
+    <t>$csv{data.AllTypes.payment.created_by}</t>
+  </si>
+  <si>
+    <t>$csv{data.AllTypes.employee_adjust.name}</t>
+  </si>
+  <si>
+    <t>$csv{data.AllTypes.employee_probation.name}</t>
+  </si>
+  <si>
+    <t>$csv{data.AllTypes.employee_offer.name}</t>
+  </si>
+  <si>
+    <t>$csv{data.AllTypes.leave_request.name}</t>
+  </si>
+  <si>
+    <t>$csv{data.AllTypes.resign_request.name}</t>
+  </si>
+  <si>
+    <t>$csv{data.AllTypes.out_request.name}</t>
+  </si>
+  <si>
+    <t>$csv{data.AllTypes.overtime_request.name}</t>
+  </si>
+  <si>
+    <t>$csv{data.AllTypes.trip_request.name}</t>
+  </si>
+  <si>
+    <t>$csv{data.AllTypes.project_approval.name}</t>
+  </si>
+  <si>
+    <t>$csv{data.AllTypes.general_approval.name}</t>
+  </si>
+  <si>
+    <t>$csv{data.AllTypes.materialget.name}</t>
+  </si>
+  <si>
+    <t>$csv{data.AllTypes.contract.name}</t>
+  </si>
+  <si>
+    <t>$csv{data.AllTypes.purchase.name}</t>
+  </si>
+  <si>
+    <t>$csv{data.AllTypes.reimbursement.name}</t>
+  </si>
+  <si>
+    <t>$csv{data.AllTypes.payment.name}</t>
+  </si>
+  <si>
+    <t>离职</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>employee_offboard</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>[{"uuid":"$csv{data.AllTypes.employee_adjust.uuid}","approvers":[{"uuid":"","type":"reporting_to","value":"1"},{"uuid":"","type":"reporting_to","value":"2"},{"uuid":"","type":"reporting_to","value":"3"},{"uuid":"","type":"reporting_to","value":"4"},{"uuid":"","type":"login_user_department_manager","value":""},{"uuid":"","type":"department_manager","value":"${organization_2.uuid}"},{"uuid":"","type":"employee","value":"$csv{data.Auth.user_1.employee_id}"}],"target_type":"","target_value":"!!String{}"},{"uuid":"","approvers":[{"uuid":"","type":"login_user_department_manager","value":""},{"uuid":"","type":"department_manager","value":"${organization_2.uuid}"},{"uuid":"","type":"employee","value":"$csv{data.Auth.user_1.employee_id}"}],"target_type":"sponsor","target_value":"!!String{\"department\":[\"${organization_1.uuid}\"],\"employee\":[]}"},{"uuid":"","approvers":[{"uuid":"","type":"login_user_department_manager","value":""},{"uuid":"","type":"employee","value":"$csv{data.Auth.user_1.employee_id}"},{"uuid":"","type":"employee","value":"$csv{data.Auth.user_houlong.employee_id}"}],"target_type":"sponsor","target_value":"!!String{\"department\":[\"${organization_2.uuid}\"],\"employee\":[]}"},{"uuid":"","approvers":[{"uuid":"","type":"reporting_to","value":"4"},{"uuid":"","type":"login_user_department_manager","value":""},{"uuid":"","type":"employee","value":"$csv{data.Auth.user_1.employee_id}"},{"uuid":"","type":"employee","value":"$csv{data.Auth.user_houlong.employee_id}"}],"target_type":"sponsor","target_value":"!!String{\"department\":[],\"employee\":[\"$csv{data.Auth.user_houlong.employee_id}\"]}"}]</t>
+  </si>
+  <si>
+    <t>[{"target_value":"!!String{}","target_type":"","approvers":[{"type":"reporting_to","uuid":"","value":"1"},{"type":"reporting_to","uuid":"","value":"2"},{"type":"reporting_to","uuid":"","value":"3"},{"type":"reporting_to","uuid":"","value":"4"},{"type":"login_user_department_manager","uuid":"","value":""},{"type":"department_manager","uuid":"","value":"${organization_2.uuid}"},{"type":"employee","uuid":"","value":"$csv{data.Auth.user_1.employee_id}"}],"uuid":"$csv{data.AllTypes.leave_request.uuid}"},{"target_value":"!!String{\"department\":[\"${organization_1.uuid}\"],\"employee\":[]}","target_type":"sponsor","approvers":[{"type":"login_user_department_manager","uuid":"","value":""},{"type":"department_manager","uuid":"","value":"${organization_2.uuid}"},{"type":"employee","uuid":"","value":"$csv{data.Auth.user_1.employee_id}"}],"uuid":""},{"uuid":"","approvers":[{"uuid":"","type":"employee","value":"$csv{data.Auth.user_1.employee_id}"},{"uuid":"","type":"login_user_department_manager","value":""}],"target_type":"sponsor","target_value":"!!String{\"department\":[],\"employee\":[\"$csv{data.Auth.user_houlong.employee_id}\"]}"}]</t>
+  </si>
+  <si>
+    <t>[{"target_value":"!!String{}","target_type":"","approvers":[{"type":"reporting_to","uuid":"","value":"1"},{"type":"reporting_to","uuid":"","value":"2"},{"type":"reporting_to","uuid":"","value":"3"},{"type":"reporting_to","uuid":"","value":"4"},{"type":"login_user_department_manager","uuid":"","value":""},{"type":"department_manager","uuid":"","value":"${organization_2.uuid}"},{"type":"employee","uuid":"","value":"$csv{data.Auth.user_1.employee_id}"}],"uuid":"$csv{data.AllTypes.leave_request.uuid}"},{"target_value":"!!String{\"department\":[\"${organization_1.uuid}\"],\"employee\":[]}","target_type":"sponsor","approvers":[{"type":"login_user_department_manager","uuid":"","value":""},{"type":"department_manager","uuid":"","value":"${organization_2.uuid}"},{"type":"employee","uuid":"","value":"$csv{data.Auth.user_1.employee_id}"}],"uuid":""},{"uuid":"","approvers":[{"uuid":"","type":"login_user_department_manager","value":""}],"target_type":"duration","target_value":"!!String{\"symbol\":\"&lt;\",\"unit\":\"m\",\"number\":\"60\"}"},{"uuid":"","approvers":[{"uuid":"","type":"login_user_department_manager","value":""},{"uuid":"","type":"department_manager","value":"${organization_1.uuid}"}],"target_type":"duration","target_value":"!!String{\"symbol\":\"==\",\"unit\":\"m\",\"number\":\"60\"}"},{"uuid":"","approvers":[{"uuid":"","type":"login_user_department_manager","value":""},{"uuid":"","type":"department_manager","value":"${organization_1.uuid}"},{"uuid":"","type":"employee","value":"$csv{data.Auth.user_1.employee_id}"}],"target_type":"duration","target_value":"!!String{\"symbol\":\"&gt;\",\"unit\":\"m\",\"number\":\"60\"}"},{"uuid":"","approvers":[{"uuid":"","type":"employee","value":"$csv{data.Auth.user_1.employee_id}"},{"uuid":"","type":"login_user_department_manager","value":""}],"target_type":"sponsor","target_value":"!!String{\"department\":[],\"employee\":[\"$csv{data.Auth.user_houlong.employee_id}\"]}"}]</t>
+  </si>
+  <si>
+    <t>[{"uuid":"$csv{data.AllTypes.resign_request.uuid}","approvers":[{"uuid":"","type":"reporting_to","value":"1"},{"uuid":"","type":"reporting_to","value":"2"},{"uuid":"","type":"reporting_to","value":"3"},{"uuid":"","type":"reporting_to","value":"4"},{"uuid":"","type":"login_user_department_manager","value":""},{"uuid":"","type":"department_manager","value":"${organization_2.uuid}"},{"uuid":"","type":"employee","value":"$csv{data.Auth.user_1.employee_id}"}],"target_type":"","target_value":"!!String{}"},{"uuid":"","approvers":[{"uuid":"","type":"login_user_department_manager","value":""},{"uuid":"","type":"department_manager","value":"${organization_2.uuid}"},{"uuid":"","type":"employee","value":"$csv{data.Auth.user_1.employee_id}"}],"target_type":"sponsor","target_value":"!!String{\"department\":[\"${organization_1.uuid}\"],\"employee\":[]}"},{"uuid":"","approvers":[{"uuid":"","type":"login_user_department_manager","value":""},{"uuid":"","type":"employee","value":"$csv{data.Auth.user_1.employee_id}"},{"uuid":"","type":"employee","value":"$csv{data.Auth.user_houlong.employee_id}"}],"target_type":"sponsor","target_value":"!!String{\"department\":[\"${organization_2.uuid}\"],\"employee\":[]}"},{"uuid":"","approvers":[{"uuid":"","type":"reporting_to","value":"4"},{"uuid":"","type":"login_user_department_manager","value":""},{"uuid":"","type":"employee","value":"$csv{data.Auth.user_1.employee_id}"},{"uuid":"","type":"employee","value":"$csv{data.Auth.user_houlong.employee_id}"}],"target_type":"sponsor","target_value":"!!String{\"department\":[],\"employee\":[\"$csv{data.Auth.user_houlong.employee_id}\"]}"}]</t>
+  </si>
+  <si>
+    <t>[{"target_value":"!!String{}","target_type":"","approvers":[{"type":"reporting_to","uuid":"","value":"1"},{"type":"reporting_to","uuid":"","value":"2"},{"type":"reporting_to","uuid":"","value":"3"},{"type":"reporting_to","uuid":"","value":"4"},{"type":"login_user_department_manager","uuid":"","value":""},{"type":"department_manager","uuid":"","value":"${organization_2.uuid}"},{"type":"employee","uuid":"","value":"$csv{data.Auth.user_1.employee_id}"}],"uuid":"$csv{data.AllTypes.project_approval.uuid}"},{"target_value":"!!String{\"department\":[\"${organization_1.uuid}\"],\"employee\":[]}","target_type":"sponsor","approvers":[{"type":"login_user_department_manager","uuid":"","value":""},{"type":"department_manager","uuid":"","value":"${organization_2.uuid}"},{"type":"employee","uuid":"","value":"$csv{data.Auth.user_1.employee_id}"}],"uuid":""},{"uuid":"","approvers":[{"uuid":"","type":"employee","value":"$csv{data.Auth.user_1.employee_id}"},{"uuid":"","type":"login_user_department_manager","value":""}],"target_type":"sponsor","target_value":"!!String{\"department\":[],\"employee\":[\"$csv{data.Auth.user_houlong.employee_id}\"]}"}]</t>
+  </si>
+  <si>
+    <t>[{"target_value":"!!String{}","target_type":"","approvers":[{"type":"reporting_to","uuid":"","value":"1"},{"type":"reporting_to","uuid":"","value":"2"},{"type":"reporting_to","uuid":"","value":"3"},{"type":"reporting_to","uuid":"","value":"4"},{"type":"login_user_department_manager","uuid":"","value":""},{"type":"department_manager","uuid":"","value":"${organization_2.uuid}"},{"type":"employee","uuid":"","value":"$csv{data.Auth.user_1.employee_id}"}],"uuid":"$csv{data.AllTypes.general_approval.uuid}"},{"target_value":"!!String{\"department\":[\"${organization_1.uuid}\"],\"employee\":[]}","target_type":"sponsor","approvers":[{"type":"login_user_department_manager","uuid":"","value":""},{"type":"department_manager","uuid":"","value":"${organization_2.uuid}"},{"type":"employee","uuid":"","value":"$csv{data.Auth.user_1.employee_id}"}],"uuid":""},{"uuid":"","approvers":[{"uuid":"","type":"employee","value":"$csv{data.Auth.user_1.employee_id}"},{"uuid":"","type":"login_user_department_manager","value":""}],"target_type":"sponsor","target_value":"!!String{\"department\":[],\"employee\":[\"$csv{data.Auth.user_houlong.employee_id}\"]}"}]</t>
+  </si>
+  <si>
+    <t>[{"target_value":"!!String{}","target_type":"","approvers":[{"type":"reporting_to","uuid":"","value":"1"},{"type":"reporting_to","uuid":"","value":"2"},{"type":"reporting_to","uuid":"","value":"3"},{"type":"reporting_to","uuid":"","value":"4"},{"type":"login_user_department_manager","uuid":"","value":""},{"type":"department_manager","uuid":"","value":"${organization_2.uuid}"},{"type":"employee","uuid":"","value":"$csv{data.Auth.user_1.employee_id}"}],"uuid":"$csv{data.AllTypes.materialget.uuid}"},{"target_value":"!!String{\"department\":[\"${organization_1.uuid}\"],\"employee\":[]}","target_type":"sponsor","approvers":[{"type":"login_user_department_manager","uuid":"","value":""},{"type":"department_manager","uuid":"","value":"${organization_2.uuid}"},{"type":"employee","uuid":"","value":"$csv{data.Auth.user_1.employee_id}"}],"uuid":""},{"uuid":"","approvers":[{"uuid":"","type":"employee","value":"$csv{data.Auth.user_1.employee_id}"},{"uuid":"","type":"login_user_department_manager","value":""}],"target_type":"sponsor","target_value":"!!String{\"department\":[],\"employee\":[\"$csv{data.Auth.user_houlong.employee_id}\"]}"}]</t>
+  </si>
+  <si>
+    <t>[{"target_value":"!!String{}","target_type":"","approvers":[{"type":"reporting_to","uuid":"","value":"1"},{"type":"reporting_to","uuid":"","value":"2"},{"type":"reporting_to","uuid":"","value":"3"},{"type":"reporting_to","uuid":"","value":"4"},{"type":"login_user_department_manager","uuid":"","value":""},{"type":"department_manager","uuid":"","value":"${organization_2.uuid}"},{"type":"employee","uuid":"","value":"$csv{data.Auth.user_1.employee_id}"}],"uuid":"$csv{data.AllTypes.contract.uuid}"},{"target_value":"!!String{\"department\":[\"${organization_1.uuid}\"],\"employee\":[]}","target_type":"sponsor","approvers":[{"type":"login_user_department_manager","uuid":"","value":""},{"type":"department_manager","uuid":"","value":"${organization_2.uuid}"},{"type":"employee","uuid":"","value":"$csv{data.Auth.user_1.employee_id}"}],"uuid":""},{"uuid":"","approvers":[{"uuid":"","type":"employee","value":"$csv{data.Auth.user_1.employee_id}"},{"uuid":"","type":"login_user_department_manager","value":""}],"target_type":"sponsor","target_value":"!!String{\"department\":[],\"employee\":[\"$csv{data.Auth.user_houlong.employee_id}\"]}"}]</t>
+  </si>
+  <si>
+    <t>[{"uuid":"$csv{data.AllTypes.purchase.uuid}","approvers":[{"uuid":"","type":"reporting_to","value":"1"},{"uuid":"","type":"reporting_to","value":"2"},{"uuid":"","type":"reporting_to","value":"3"},{"uuid":"","type":"reporting_to","value":"4"},{"uuid":"","type":"login_user_department_manager","value":""},{"uuid":"","type":"department_manager","value":"${organization_2.uuid}"},{"uuid":"","type":"employee","value":"$csv{data.Auth.user_1.employee_id}"}],"target_type":"","target_value":"!!String{}"},{"uuid":"","approvers":[{"uuid":"","type":"login_user_department_manager","value":""},{"uuid":"","type":"department_manager","value":"${organization_2.uuid}"},{"uuid":"","type":"employee","value":"$csv{data.Auth.user_1.employee_id}"}],"target_type":"sponsor","target_value":"!!String{\"department\":[\"${organization_1.uuid}\"],\"employee\":[]}"},{"uuid":"","approvers":[{"uuid":"","type":"login_user_department_manager","value":""},{"uuid":"","type":"employee","value":"$csv{data.Auth.user_1.employee_id}"},{"uuid":"","type":"employee","value":"$csv{data.Auth.user_houlong.employee_id}"}],"target_type":"sponsor","target_value":"!!String{\"department\":[],\"employee\":[\"$csv{data.Auth.user_houlong.employee_id}\"]}"}]</t>
+  </si>
+  <si>
+    <t>[{"uuid":"$csv{data.AllTypes.purchase.uuid}","approvers":[{"uuid":"","type":"reporting_to","value":"1"},{"uuid":"","type":"reporting_to","value":"2"},{"uuid":"","type":"reporting_to","value":"3"},{"uuid":"","type":"reporting_to","value":"4"},{"uuid":"","type":"login_user_department_manager","value":""},{"uuid":"","type":"department_manager","value":"${organization_2.uuid}"},{"uuid":"","type":"employee","value":"$csv{data.Auth.user_1.employee_id}"}],"target_type":"","target_value":"!!String{}"},{"uuid":"","approvers":[{"uuid":"","type":"login_user_department_manager","value":""},{"uuid":"","type":"department_manager","value":"${organization_2.uuid}"},{"uuid":"","type":"employee","value":"$csv{data.Auth.user_1.employee_id}"}],"target_type":"sponsor","target_value":"!!String{\"department\":[\"${organization_1.uuid}\"],\"employee\":[]}"},{"uuid":"","approvers":[{"uuid":"","type":"login_user_department_manager","value":""},{"uuid":"","type":"employee","value":"$csv{data.Auth.user_1.employee_id}"},{"uuid":"","type":"employee","value":"$csv{data.Auth.user_houlong.employee_id}"}],"target_type":"sponsor","target_value":"!!String{\"department\":[],\"employee\":[\"$csv{data.Auth.user_houlong.employee_id}\"]}"},{"uuid":"","approvers":[{"uuid":"","type":"login_user_department_manager","value":""},{"uuid":"","type":"department_manager","value":"${organization_3.uuid}"}],"target_type":"money","target_value":"!!String{\"symbol\":\"&lt;\",\"unit\":\"元\",\"number\":\"100.00\"}"},{"uuid":"","approvers":[{"uuid":"","type":"department_manager","value":"${organization_3.uuid}"},{"uuid":"","type":"employee","value":"$csv{data.Auth.user_1.employee_id}"}],"target_type":"money","target_value":"!!String{\"symbol\":\"==\",\"unit\":\"元\",\"number\":\"100.00\"}"},{"uuid":"","approvers":[{"uuid":"","type":"login_user_department_manager","value":""},{"uuid":"","type":"department_manager","value":"${organization_3.uuid}"},{"uuid":"","type":"employee","value":"$csv{data.Auth.user_1.employee_id}"}],"target_type":"money","target_value":"!!String{\"symbol\":\"&gt;\",\"unit\":\"元\",\"number\":\"100.00\"}"}]</t>
+  </si>
+  <si>
+    <t>[{"uuid":"$csv{data.AllTypes.reimbursement.uuid}","approvers":[{"uuid":"","type":"reporting_to","value":"1"},{"uuid":"","type":"reporting_to","value":"2"},{"uuid":"","type":"reporting_to","value":"3"},{"uuid":"","type":"reporting_to","value":"4"},{"uuid":"","type":"login_user_department_manager","value":""},{"uuid":"","type":"department_manager","value":"${organization_2.uuid}"},{"uuid":"","type":"employee","value":"$csv{data.Auth.user_1.employee_id}"}],"target_type":"","target_value":"!!String{}"},{"uuid":"","approvers":[{"uuid":"","type":"login_user_department_manager","value":""},{"uuid":"","type":"department_manager","value":"${organization_2.uuid}"},{"uuid":"","type":"employee","value":"$csv{data.Auth.user_1.employee_id}"}],"target_type":"sponsor","target_value":"!!String{\"department\":[\"${organization_1.uuid}\"],\"employee\":[]}"},{"uuid":"","approvers":[{"uuid":"","type":"login_user_department_manager","value":""},{"uuid":"","type":"employee","value":"$csv{data.Auth.user_1.employee_id}"},{"uuid":"","type":"employee","value":"$csv{data.Auth.user_houlong.employee_id}"}],"target_type":"sponsor","target_value":"!!String{\"department\":[],\"employee\":[\"$csv{data.Auth.user_houlong.employee_id}\"]}"}]</t>
+  </si>
+  <si>
+    <t>[{"uuid":"$csv{data.AllTypes.reimbursement.uuid}","approvers":[{"uuid":"","type":"reporting_to","value":"1"},{"uuid":"","type":"reporting_to","value":"2"},{"uuid":"","type":"reporting_to","value":"3"},{"uuid":"","type":"reporting_to","value":"4"},{"uuid":"","type":"login_user_department_manager","value":""},{"uuid":"","type":"department_manager","value":"${organization_2.uuid}"},{"uuid":"","type":"employee","value":"$csv{data.Auth.user_1.employee_id}"}],"target_type":"","target_value":"!!String{}"},{"uuid":"","approvers":[{"uuid":"","type":"login_user_department_manager","value":""},{"uuid":"","type":"department_manager","value":"${organization_2.uuid}"},{"uuid":"","type":"employee","value":"$csv{data.Auth.user_1.employee_id}"}],"target_type":"sponsor","target_value":"!!String{\"department\":[\"${organization_1.uuid}\"],\"employee\":[]}"},{"uuid":"","approvers":[{"uuid":"","type":"login_user_department_manager","value":""},{"uuid":"","type":"employee","value":"$csv{data.Auth.user_1.employee_id}"},{"uuid":"","type":"employee","value":"$csv{data.Auth.user_houlong.employee_id}"}],"target_type":"sponsor","target_value":"!!String{\"department\":[],\"employee\":[\"$csv{data.Auth.user_houlong.employee_id}\"]}"},{"uuid":"","approvers":[{"uuid":"","type":"login_user_department_manager","value":""},{"uuid":"","type":"department_manager","value":"${organization_3.uuid}"}],"target_type":"money","target_value":"!!String{\"symbol\":\"&lt;=\",\"unit\":\"元\",\"number\":\"199.99\"}"},{"uuid":"","approvers":[{"uuid":"","type":"department_manager","value":"${organization_3.uuid}"},{"uuid":"","type":"employee","value":"$csv{data.Auth.user_1.employee_id}"}],"target_type":"money","target_value":"!!String{\"symbol\":\"==\",\"unit\":\"元\",\"number\":\"200.00\"}"},{"uuid":"","approvers":[{"uuid":"","type":"login_user_department_manager","value":""},{"uuid":"","type":"department_manager","value":"${organization_3.uuid}"},{"uuid":"","type":"employee","value":"$csv{data.Auth.user_1.employee_id}"}],"target_type":"money","target_value":"!!String{\"symbol\":\"&gt;=\",\"unit\":\"元\",\"number\":\"200.10\"}"}]</t>
+  </si>
+  <si>
+    <t>[{"uuid":"$csv{data.AllTypes.payment.uuid}","approvers":[{"uuid":"","type":"reporting_to","value":"1"},{"uuid":"","type":"reporting_to","value":"2"},{"uuid":"","type":"reporting_to","value":"3"},{"uuid":"","type":"reporting_to","value":"4"},{"uuid":"","type":"login_user_department_manager","value":""},{"uuid":"","type":"department_manager","value":"${organization_2.uuid}"},{"uuid":"","type":"employee","value":"$csv{data.Auth.user_1.employee_id}"}],"target_type":"","target_value":"!!String{}"},{"uuid":"","approvers":[{"uuid":"","type":"login_user_department_manager","value":""},{"uuid":"","type":"department_manager","value":"${organization_2.uuid}"},{"uuid":"","type":"employee","value":"$csv{data.Auth.user_1.employee_id}"}],"target_type":"sponsor","target_value":"!!String{\"department\":[\"${organization_1.uuid}\"],\"employee\":[]}"},{"uuid":"","approvers":[{"uuid":"","type":"login_user_department_manager","value":""},{"uuid":"","type":"employee","value":"$csv{data.Auth.user_1.employee_id}"},{"uuid":"","type":"employee","value":"$csv{data.Auth.user_houlong.employee_id}"}],"target_type":"sponsor","target_value":"!!String{\"department\":[],\"employee\":[\"$csv{data.Auth.user_houlong.employee_id}\"]}"}]</t>
+  </si>
+  <si>
+    <t>[{"uuid":"$csv{data.AllTypes.payment.uuid}","approvers":[{"uuid":"","type":"reporting_to","value":"1"},{"uuid":"","type":"reporting_to","value":"2"},{"uuid":"","type":"reporting_to","value":"3"},{"uuid":"","type":"reporting_to","value":"4"},{"uuid":"","type":"login_user_department_manager","value":""},{"uuid":"","type":"department_manager","value":"${organization_2.uuid}"},{"uuid":"","type":"employee","value":"$csv{data.Auth.user_1.employee_id}"}],"target_type":"","target_value":"!!String{}"},{"uuid":"","approvers":[{"uuid":"","type":"login_user_department_manager","value":""},{"uuid":"","type":"department_manager","value":"${organization_2.uuid}"},{"uuid":"","type":"employee","value":"$csv{data.Auth.user_1.employee_id}"}],"target_type":"sponsor","target_value":"!!String{\"department\":[\"${organization_1.uuid}\"],\"employee\":[]}"},{"uuid":"","approvers":[{"uuid":"","type":"login_user_department_manager","value":""},{"uuid":"","type":"employee","value":"$csv{data.Auth.user_1.employee_id}"},{"uuid":"","type":"employee","value":"$csv{data.Auth.user_houlong.employee_id}"}],"target_type":"sponsor","target_value":"!!String{\"department\":[],\"employee\":[\"$csv{data.Auth.user_houlong.employee_id}\"]}"},{"uuid":"","approvers":[{"uuid":"","type":"login_user_department_manager","value":""},{"uuid":"","type":"department_manager","value":"${organization_3.uuid}"}],"target_type":"money","target_value":"!!String{\"symbol\":\"&lt;=\",\"unit\":\"元\",\"number\":\"199.99\"}"},{"uuid":"","approvers":[{"uuid":"","type":"department_manager","value":"${organization_3.uuid}"},{"uuid":"","type":"employee","value":"$csv{data.Auth.user_1.employee_id}"}],"target_type":"money","target_value":"!!String{\"symbol\":\"==\",\"unit\":\"元\",\"number\":\"200.00\"}"},{"uuid":"","approvers":[{"uuid":"","type":"login_user_department_manager","value":""},{"uuid":"","type":"department_manager","value":"${organization_3.uuid}"},{"uuid":"","type":"employee","value":"$csv{data.Auth.user_1.employee_id}"}],"target_type":"money","target_value":"!!String{\"symbol\":\"&gt;=\",\"unit\":\"元\",\"number\":\"200.10\"}"}]</t>
   </si>
   <si>
     <r>
@@ -541,273 +782,36 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>[{"uuid":"$csv{data.AllTypes.employee_adjust.uuid}","approvers":[{"uuid":"","type":"reporting_to","value":"1"},{"uuid":"","type":"reporting_to","value":"2"},{"uuid":"","type":"reporting_to","value":"3"},{"uuid":"","type":"reporting_to","value":"4"},{"uuid":"","type":"login_user_department_manager","value":""},{"uuid":"","type":"department_manager","value":"${organization_2.uuid}"},{"uuid":"","type":"employee","value":"$csv{data.Auth.user_1.employee_id}"}],"target_type":"","target_value":"!!String{}"}]</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>$csv{data.AllTypes.employee_adjust.type_id}</t>
-  </si>
-  <si>
-    <t>[{"uuid":"$csv{data.AllTypes.employee_probation.uuid}","approvers":[{"uuid":"","type":"reporting_to","value":"1"},{"uuid":"","type":"reporting_to","value":"2"},{"uuid":"","type":"reporting_to","value":"3"},{"uuid":"","type":"reporting_to","value":"4"},{"uuid":"","type":"login_user_department_manager","value":""},{"uuid":"","type":"department_manager","value":"${organization_2.uuid}"},{"uuid":"","type":"employee","value":"$csv{data.Auth.user_1.employee_id}"}],"target_type":"","target_value":"!!String{}"}]</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>$csv{data.AllTypes.employee_probation.type_id}</t>
-  </si>
-  <si>
-    <t>[{"uuid":"$csv{data.AllTypes.employee_resign.uuid}","approvers":[{"uuid":"","type":"reporting_to","value":"1"},{"uuid":"","type":"reporting_to","value":"2"},{"uuid":"","type":"reporting_to","value":"3"},{"uuid":"","type":"reporting_to","value":"4"},{"uuid":"","type":"login_user_department_manager","value":""},{"uuid":"","type":"department_manager","value":"${organization_2.uuid}"},{"uuid":"","type":"employee","value":"$csv{data.Auth.user_1.employee_id}"}],"target_type":"","target_value":"!!String{}"}]</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>$csv{data.AllTypes.employee_resign.type_id}</t>
-  </si>
-  <si>
-    <t>[{"uuid":"$csv{data.AllTypes.employee_offboard.uuid}","approvers":[{"uuid":"","type":"reporting_to","value":"1"},{"uuid":"","type":"reporting_to","value":"2"},{"uuid":"","type":"reporting_to","value":"3"},{"uuid":"","type":"reporting_to","value":"4"},{"uuid":"","type":"login_user_department_manager","value":""},{"uuid":"","type":"department_manager","value":"${organization_2.uuid}"},{"uuid":"","type":"employee","value":"$csv{data.Auth.user_1.employee_id}"}],"target_type":"","target_value":"!!String{}"}]</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <t>$csv{data.AllTypes.employee_offboardresign.type_id}</t>
+  </si>
+  <si>
+    <t>[{"uuid":"$csv{data.AllTypes.employee_offboardresign.uuid}","approvers":[{"uuid":"","type":"reporting_to","value":"1"},{"uuid":"","type":"reporting_to","value":"2"},{"uuid":"","type":"reporting_to","value":"3"},{"uuid":"","type":"reporting_to","value":"4"},{"uuid":"","type":"login_user_department_manager","value":""},{"uuid":"","type":"department_manager","value":"${organization_2.uuid}"},{"uuid":"","type":"employee","value":"$csv{data.Auth.user_1.employee_id}"}],"target_type":"","target_value":"!!String{}"}]</t>
+  </si>
+  <si>
+    <t>[{"target_value":"!!String{}","target_type":"","approvers":[{"type":"reporting_to","uuid":"","value":"1"},{"type":"reporting_to","uuid":"","value":"2"},{"type":"reporting_to","uuid":"","value":"3"},{"type":"reporting_to","uuid":"","value":"4"},{"type":"login_user_department_manager","uuid":"","value":""},{"type":"department_manager","uuid":"","value":"${organization_2.uuid}"},{"type":"employee","uuid":"","value":"$csv{data.Auth.user_1.employee_id}"}],"uuid":"$csv{data.AllTypes.employee_offboardresign.uuid}"},{"target_value":"!!String{\"department\":[\"${organization_1.uuid}\"],\"employee\":[]}","target_type":"sponsor","approvers":[{"type":"login_user_department_manager","uuid":"","value":""},{"type":"department_manager","uuid":"","value":"${organization_2.uuid}"},{"type":"employee","uuid":"","value":"$csv{data.Auth.user_1.employee_id}"}],"uuid":""},{"uuid":"","approvers":[{"uuid":"","type":"login_user_department_manager","value":""},{"uuid":"","type":"employee","value":"$csv{data.Auth.user_1.employee_id}"},{"uuid":"","type":"employee","value":"$csv{data.Auth.user_houlong.employee_id}"}],"target_type":"sponsor","target_value":"!!String{\"department\":[\"${organization_2.uuid}\"],\"employee\":[]}"}]</t>
+  </si>
+  <si>
+    <t>[{"uuid":"$csv{data.AllTypes.employee_offboardresign.uuid}","approvers":[{"uuid":"","type":"employee","value":"$csv{data.Auth.user_houlong.employee_id}"}],"target_type":"","target_value":"!!String{}"}]</t>
+  </si>
+  <si>
+    <t>$csv{data.AllTypes.employee_offboardresign.created_by}</t>
   </si>
   <si>
     <t>$csv{data.AllTypes.employee_offboard.type_id}</t>
-  </si>
-  <si>
-    <t>[{"target_value":"!!String{}","target_type":"","approvers":[{"type":"reporting_to","uuid":"","value":"1"},{"type":"reporting_to","uuid":"","value":"2"},{"type":"reporting_to","uuid":"","value":"3"},{"type":"reporting_to","uuid":"","value":"4"},{"type":"login_user_department_manager","uuid":"","value":""},{"type":"department_manager","uuid":"","value":"${organization_2.uuid}"},{"type":"employee","uuid":"","value":"$csv{data.Auth.user_1.employee_id}"}],"uuid":"$csv{data.AllTypes.employee_offer.uuid}"}]</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>$csv{data.AllTypes.employee_offer.type_id}</t>
-  </si>
-  <si>
-    <t>[{"target_value":"!!String{}","target_type":"","approvers":[{"type":"reporting_to","uuid":"","value":"1"},{"type":"reporting_to","uuid":"","value":"2"},{"type":"reporting_to","uuid":"","value":"3"},{"type":"reporting_to","uuid":"","value":"4"},{"type":"login_user_department_manager","uuid":"","value":""},{"type":"department_manager","uuid":"","value":"${organization_2.uuid}"},{"type":"employee","uuid":"","value":"$csv{data.Auth.user_1.employee_id}"}],"uuid":"$csv{data.AllTypes.leave_request.uuid}"}]</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>$csv{data.AllTypes.leave_request.type_id}</t>
-  </si>
-  <si>
-    <t>[{"target_value":"!!String{}","target_type":"","approvers":[{"type":"reporting_to","uuid":"","value":"1"},{"type":"reporting_to","uuid":"","value":"2"},{"type":"reporting_to","uuid":"","value":"3"},{"type":"reporting_to","uuid":"","value":"4"},{"type":"login_user_department_manager","uuid":"","value":""},{"type":"department_manager","uuid":"","value":"${organization_2.uuid}"},{"type":"employee","uuid":"","value":"$csv{data.Auth.user_1.employee_id}"}],"uuid":"$csv{data.AllTypes.resign_request.uuid}"}]</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>$csv{data.AllTypes.resign_request.type_id}</t>
-  </si>
-  <si>
-    <t>[{"target_value":"!!String{}","target_type":"","approvers":[{"type":"reporting_to","uuid":"","value":"1"},{"type":"reporting_to","uuid":"","value":"2"},{"type":"reporting_to","uuid":"","value":"3"},{"type":"reporting_to","uuid":"","value":"4"},{"type":"login_user_department_manager","uuid":"","value":""},{"type":"department_manager","uuid":"","value":"${organization_2.uuid}"},{"type":"employee","uuid":"","value":"$csv{data.Auth.user_1.employee_id}"}],"uuid":"$csv{data.AllTypes.out_request.uuid}"}]</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>$csv{data.AllTypes.out_request.type_id}</t>
-  </si>
-  <si>
-    <t>[{"target_value":"!!String{}","target_type":"","approvers":[{"type":"reporting_to","uuid":"","value":"1"},{"type":"reporting_to","uuid":"","value":"2"},{"type":"reporting_to","uuid":"","value":"3"},{"type":"reporting_to","uuid":"","value":"4"},{"type":"login_user_department_manager","uuid":"","value":""},{"type":"department_manager","uuid":"","value":"${organization_2.uuid}"},{"type":"employee","uuid":"","value":"$csv{data.Auth.user_1.employee_id}"}],"uuid":"$csv{data.AllTypes.overtime_request.uuid}"}]</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>$csv{data.AllTypes.overtime_request.type_id}</t>
-  </si>
-  <si>
-    <t>[{"target_value":"!!String{}","target_type":"","approvers":[{"type":"reporting_to","uuid":"","value":"1"},{"type":"reporting_to","uuid":"","value":"2"},{"type":"reporting_to","uuid":"","value":"3"},{"type":"reporting_to","uuid":"","value":"4"},{"type":"login_user_department_manager","uuid":"","value":""},{"type":"department_manager","uuid":"","value":"${organization_2.uuid}"},{"type":"employee","uuid":"","value":"$csv{data.Auth.user_1.employee_id}"}],"uuid":"$csv{data.AllTypes.trip_request.uuid}"}]</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>$csv{data.AllTypes.trip_request.type_id}</t>
-  </si>
-  <si>
-    <t>[{"target_value":"!!String{}","target_type":"","approvers":[{"type":"reporting_to","uuid":"","value":"1"},{"type":"reporting_to","uuid":"","value":"2"},{"type":"reporting_to","uuid":"","value":"3"},{"type":"reporting_to","uuid":"","value":"4"},{"type":"login_user_department_manager","uuid":"","value":""},{"type":"department_manager","uuid":"","value":"${organization_2.uuid}"},{"type":"employee","uuid":"","value":"$csv{data.Auth.user_1.employee_id}"}],"uuid":"$csv{data.AllTypes.project_approval.uuid}"}]</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>$csv{data.AllTypes.project_approval.type_id}</t>
-  </si>
-  <si>
-    <t>[{"target_value":"!!String{}","target_type":"","approvers":[{"type":"reporting_to","uuid":"","value":"1"},{"type":"reporting_to","uuid":"","value":"2"},{"type":"reporting_to","uuid":"","value":"3"},{"type":"reporting_to","uuid":"","value":"4"},{"type":"login_user_department_manager","uuid":"","value":""},{"type":"department_manager","uuid":"","value":"${organization_2.uuid}"},{"type":"employee","uuid":"","value":"$csv{data.Auth.user_1.employee_id}"}],"uuid":"$csv{data.AllTypes.general_approval.uuid}"}]</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>$csv{data.AllTypes.general_approval.type_id}</t>
-  </si>
-  <si>
-    <t>[{"target_value":"!!String{}","target_type":"","approvers":[{"type":"reporting_to","uuid":"","value":"1"},{"type":"reporting_to","uuid":"","value":"2"},{"type":"reporting_to","uuid":"","value":"3"},{"type":"reporting_to","uuid":"","value":"4"},{"type":"login_user_department_manager","uuid":"","value":""},{"type":"department_manager","uuid":"","value":"${organization_2.uuid}"},{"type":"employee","uuid":"","value":"$csv{data.Auth.user_1.employee_id}"}],"uuid":"$csv{data.AllTypes.materialget.uuid}"}]</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>$csv{data.AllTypes.materialget.type_id}</t>
-  </si>
-  <si>
-    <t>[{"target_value":"!!String{}","target_type":"","approvers":[{"type":"reporting_to","uuid":"","value":"1"},{"type":"reporting_to","uuid":"","value":"2"},{"type":"reporting_to","uuid":"","value":"3"},{"type":"reporting_to","uuid":"","value":"4"},{"type":"login_user_department_manager","uuid":"","value":""},{"type":"department_manager","uuid":"","value":"${organization_2.uuid}"},{"type":"employee","uuid":"","value":"$csv{data.Auth.user_1.employee_id}"}],"uuid":"$csv{data.AllTypes.contract.uuid}"}]</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>$csv{data.AllTypes.contract.type_id}</t>
-  </si>
-  <si>
-    <t>[{"uuid":"$csv{data.AllTypes.purchase.uuid}","approvers":[{"uuid":"","type":"reporting_to","value":"1"},{"uuid":"","type":"reporting_to","value":"2"},{"uuid":"","type":"reporting_to","value":"3"},{"uuid":"","type":"reporting_to","value":"4"},{"uuid":"","type":"login_user_department_manager","value":""},{"uuid":"","type":"department_manager","value":"${organization_2.uuid}"},{"uuid":"","type":"employee","value":"$csv{data.Auth.user_1.employee_id}"}],"target_type":"","target_value":"!!String{}"}]</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>$csv{data.AllTypes.purchase.type_id}</t>
-  </si>
-  <si>
-    <t>$csv{data.AllTypes.reimbursement.type_id}</t>
-  </si>
-  <si>
-    <t>[{"uuid":"$csv{data.AllTypes.payment.uuid}","approvers":[{"uuid":"","type":"reporting_to","value":"1"},{"uuid":"","type":"reporting_to","value":"2"},{"uuid":"","type":"reporting_to","value":"3"},{"uuid":"","type":"reporting_to","value":"4"},{"uuid":"","type":"login_user_department_manager","value":""},{"uuid":"","type":"department_manager","value":"${organization_2.uuid}"},{"uuid":"","type":"employee","value":"$csv{data.Auth.user_1.employee_id}"}],"target_type":"","target_value":"!!String{}"}]</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>$csv{data.AllTypes.payment.type_id}</t>
-  </si>
-  <si>
-    <t>created_by</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>$csv{data.AllTypes.employee_adjust.created_by}</t>
-  </si>
-  <si>
-    <t>$csv{data.AllTypes.employee_probation.created_by}</t>
-  </si>
-  <si>
-    <t>$csv{data.AllTypes.employee_resign.created_by}</t>
-  </si>
-  <si>
-    <t>$csv{data.AllTypes.employee_offboard.created_by}</t>
-  </si>
-  <si>
-    <t>$csv{data.AllTypes.employee_offer.created_by}</t>
-  </si>
-  <si>
-    <t>$csv{data.AllTypes.leave_request.created_by}</t>
-  </si>
-  <si>
-    <t>$csv{data.AllTypes.resign_request.created_by}</t>
-  </si>
-  <si>
-    <t>$csv{data.AllTypes.out_request.created_by}</t>
-  </si>
-  <si>
-    <t>$csv{data.AllTypes.overtime_request.created_by}</t>
-  </si>
-  <si>
-    <t>$csv{data.AllTypes.trip_request.created_by}</t>
-  </si>
-  <si>
-    <t>$csv{data.AllTypes.project_approval.created_by}</t>
-  </si>
-  <si>
-    <t>$csv{data.AllTypes.general_approval.created_by}</t>
-  </si>
-  <si>
-    <t>$csv{data.AllTypes.materialget.created_by}</t>
-  </si>
-  <si>
-    <t>$csv{data.AllTypes.contract.created_by}</t>
-  </si>
-  <si>
-    <t>$csv{data.AllTypes.purchase.created_by}</t>
-  </si>
-  <si>
-    <t>$csv{data.AllTypes.reimbursement.created_by}</t>
-  </si>
-  <si>
-    <t>$csv{data.AllTypes.payment.created_by}</t>
-  </si>
-  <si>
-    <t>$csv{data.AllTypes.employee_adjust.name}</t>
-  </si>
-  <si>
-    <t>$csv{data.AllTypes.employee_probation.name}</t>
-  </si>
-  <si>
-    <t>$csv{data.AllTypes.employee_offer.name}</t>
-  </si>
-  <si>
-    <t>$csv{data.AllTypes.leave_request.name}</t>
-  </si>
-  <si>
-    <t>$csv{data.AllTypes.resign_request.name}</t>
-  </si>
-  <si>
-    <t>$csv{data.AllTypes.out_request.name}</t>
-  </si>
-  <si>
-    <t>$csv{data.AllTypes.overtime_request.name}</t>
-  </si>
-  <si>
-    <t>$csv{data.AllTypes.trip_request.name}</t>
-  </si>
-  <si>
-    <t>$csv{data.AllTypes.project_approval.name}</t>
-  </si>
-  <si>
-    <t>$csv{data.AllTypes.general_approval.name}</t>
-  </si>
-  <si>
-    <t>$csv{data.AllTypes.materialget.name}</t>
-  </si>
-  <si>
-    <t>$csv{data.AllTypes.contract.name}</t>
-  </si>
-  <si>
-    <t>$csv{data.AllTypes.purchase.name}</t>
-  </si>
-  <si>
-    <t>$csv{data.AllTypes.reimbursement.name}</t>
-  </si>
-  <si>
-    <t>$csv{data.AllTypes.payment.name}</t>
-  </si>
-  <si>
-    <t>离职</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>employee_offboard</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>[{"target_value":"!!String{}","target_type":"","approvers":[{"type":"employee","uuid":"","value":"$csv{data.Auth.user_houlong.employee_id}"}],"uuid":"$csv{data.AllTypes.employee_resign.uuid}"}]</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>[{"uuid":"$csv{data.AllTypes.employee_adjust.uuid}","approvers":[{"uuid":"","type":"reporting_to","value":"1"},{"uuid":"","type":"reporting_to","value":"2"},{"uuid":"","type":"reporting_to","value":"3"},{"uuid":"","type":"reporting_to","value":"4"},{"uuid":"","type":"login_user_department_manager","value":""},{"uuid":"","type":"department_manager","value":"${organization_2.uuid}"},{"uuid":"","type":"employee","value":"$csv{data.Auth.user_1.employee_id}"}],"target_type":"","target_value":"!!String{}"},{"uuid":"","approvers":[{"uuid":"","type":"login_user_department_manager","value":""},{"uuid":"","type":"department_manager","value":"${organization_2.uuid}"},{"uuid":"","type":"employee","value":"$csv{data.Auth.user_1.employee_id}"}],"target_type":"sponsor","target_value":"!!String{\"department\":[\"${organization_1.uuid}\"],\"employee\":[]}"},{"uuid":"","approvers":[{"uuid":"","type":"login_user_department_manager","value":""},{"uuid":"","type":"employee","value":"$csv{data.Auth.user_1.employee_id}"},{"uuid":"","type":"employee","value":"$csv{data.Auth.user_houlong.employee_id}"}],"target_type":"sponsor","target_value":"!!String{\"department\":[\"${organization_2.uuid}\"],\"employee\":[]}"},{"uuid":"","approvers":[{"uuid":"","type":"reporting_to","value":"4"},{"uuid":"","type":"login_user_department_manager","value":""},{"uuid":"","type":"employee","value":"$csv{data.Auth.user_1.employee_id}"},{"uuid":"","type":"employee","value":"$csv{data.Auth.user_houlong.employee_id}"}],"target_type":"sponsor","target_value":"!!String{\"department\":[],\"employee\":[\"$csv{data.Auth.user_houlong.employee_id}\"]}"}]</t>
-  </si>
-  <si>
-    <t>[{"target_value":"!!String{}","target_type":"","approvers":[{"type":"reporting_to","uuid":"","value":"1"},{"type":"reporting_to","uuid":"","value":"2"},{"type":"reporting_to","uuid":"","value":"3"},{"type":"reporting_to","uuid":"","value":"4"},{"type":"login_user_department_manager","uuid":"","value":""},{"type":"department_manager","uuid":"","value":"${organization_2.uuid}"},{"type":"employee","uuid":"","value":"$csv{data.Auth.user_1.employee_id}"}],"uuid":"$csv{data.AllTypes.leave_request.uuid}"},{"target_value":"!!String{\"department\":[\"${organization_1.uuid}\"],\"employee\":[]}","target_type":"sponsor","approvers":[{"type":"login_user_department_manager","uuid":"","value":""},{"type":"department_manager","uuid":"","value":"${organization_2.uuid}"},{"type":"employee","uuid":"","value":"$csv{data.Auth.user_1.employee_id}"}],"uuid":""},{"uuid":"","approvers":[{"uuid":"","type":"employee","value":"$csv{data.Auth.user_1.employee_id}"},{"uuid":"","type":"login_user_department_manager","value":""}],"target_type":"sponsor","target_value":"!!String{\"department\":[],\"employee\":[\"$csv{data.Auth.user_houlong.employee_id}\"]}"}]</t>
-  </si>
-  <si>
-    <t>[{"target_value":"!!String{}","target_type":"","approvers":[{"type":"reporting_to","uuid":"","value":"1"},{"type":"reporting_to","uuid":"","value":"2"},{"type":"reporting_to","uuid":"","value":"3"},{"type":"reporting_to","uuid":"","value":"4"},{"type":"login_user_department_manager","uuid":"","value":""},{"type":"department_manager","uuid":"","value":"${organization_2.uuid}"},{"type":"employee","uuid":"","value":"$csv{data.Auth.user_1.employee_id}"}],"uuid":"$csv{data.AllTypes.leave_request.uuid}"},{"target_value":"!!String{\"department\":[\"${organization_1.uuid}\"],\"employee\":[]}","target_type":"sponsor","approvers":[{"type":"login_user_department_manager","uuid":"","value":""},{"type":"department_manager","uuid":"","value":"${organization_2.uuid}"},{"type":"employee","uuid":"","value":"$csv{data.Auth.user_1.employee_id}"}],"uuid":""},{"uuid":"","approvers":[{"uuid":"","type":"login_user_department_manager","value":""}],"target_type":"duration","target_value":"!!String{\"symbol\":\"&lt;\",\"unit\":\"m\",\"number\":\"60\"}"},{"uuid":"","approvers":[{"uuid":"","type":"login_user_department_manager","value":""},{"uuid":"","type":"department_manager","value":"${organization_1.uuid}"}],"target_type":"duration","target_value":"!!String{\"symbol\":\"==\",\"unit\":\"m\",\"number\":\"60\"}"},{"uuid":"","approvers":[{"uuid":"","type":"login_user_department_manager","value":""},{"uuid":"","type":"department_manager","value":"${organization_1.uuid}"},{"uuid":"","type":"employee","value":"$csv{data.Auth.user_1.employee_id}"}],"target_type":"duration","target_value":"!!String{\"symbol\":\"&gt;\",\"unit\":\"m\",\"number\":\"60\"}"},{"uuid":"","approvers":[{"uuid":"","type":"employee","value":"$csv{data.Auth.user_1.employee_id}"},{"uuid":"","type":"login_user_department_manager","value":""}],"target_type":"sponsor","target_value":"!!String{\"department\":[],\"employee\":[\"$csv{data.Auth.user_houlong.employee_id}\"]}"}]</t>
-  </si>
-  <si>
-    <t>[{"uuid":"$csv{data.AllTypes.resign_request.uuid}","approvers":[{"uuid":"","type":"reporting_to","value":"1"},{"uuid":"","type":"reporting_to","value":"2"},{"uuid":"","type":"reporting_to","value":"3"},{"uuid":"","type":"reporting_to","value":"4"},{"uuid":"","type":"login_user_department_manager","value":""},{"uuid":"","type":"department_manager","value":"${organization_2.uuid}"},{"uuid":"","type":"employee","value":"$csv{data.Auth.user_1.employee_id}"}],"target_type":"","target_value":"!!String{}"},{"uuid":"","approvers":[{"uuid":"","type":"login_user_department_manager","value":""},{"uuid":"","type":"department_manager","value":"${organization_2.uuid}"},{"uuid":"","type":"employee","value":"$csv{data.Auth.user_1.employee_id}"}],"target_type":"sponsor","target_value":"!!String{\"department\":[\"${organization_1.uuid}\"],\"employee\":[]}"},{"uuid":"","approvers":[{"uuid":"","type":"login_user_department_manager","value":""},{"uuid":"","type":"employee","value":"$csv{data.Auth.user_1.employee_id}"},{"uuid":"","type":"employee","value":"$csv{data.Auth.user_houlong.employee_id}"}],"target_type":"sponsor","target_value":"!!String{\"department\":[\"${organization_2.uuid}\"],\"employee\":[]}"},{"uuid":"","approvers":[{"uuid":"","type":"reporting_to","value":"4"},{"uuid":"","type":"login_user_department_manager","value":""},{"uuid":"","type":"employee","value":"$csv{data.Auth.user_1.employee_id}"},{"uuid":"","type":"employee","value":"$csv{data.Auth.user_houlong.employee_id}"}],"target_type":"sponsor","target_value":"!!String{\"department\":[],\"employee\":[\"$csv{data.Auth.user_houlong.employee_id}\"]}"}]</t>
-  </si>
-  <si>
-    <t>[{"target_value":"!!String{}","target_type":"","approvers":[{"type":"reporting_to","uuid":"","value":"1"},{"type":"reporting_to","uuid":"","value":"2"},{"type":"reporting_to","uuid":"","value":"3"},{"type":"reporting_to","uuid":"","value":"4"},{"type":"login_user_department_manager","uuid":"","value":""},{"type":"department_manager","uuid":"","value":"${organization_2.uuid}"},{"type":"employee","uuid":"","value":"$csv{data.Auth.user_1.employee_id}"}],"uuid":"$csv{data.AllTypes.project_approval.uuid}"},{"target_value":"!!String{\"department\":[\"${organization_1.uuid}\"],\"employee\":[]}","target_type":"sponsor","approvers":[{"type":"login_user_department_manager","uuid":"","value":""},{"type":"department_manager","uuid":"","value":"${organization_2.uuid}"},{"type":"employee","uuid":"","value":"$csv{data.Auth.user_1.employee_id}"}],"uuid":""},{"uuid":"","approvers":[{"uuid":"","type":"employee","value":"$csv{data.Auth.user_1.employee_id}"},{"uuid":"","type":"login_user_department_manager","value":""}],"target_type":"sponsor","target_value":"!!String{\"department\":[],\"employee\":[\"$csv{data.Auth.user_houlong.employee_id}\"]}"}]</t>
-  </si>
-  <si>
-    <t>[{"target_value":"!!String{}","target_type":"","approvers":[{"type":"reporting_to","uuid":"","value":"1"},{"type":"reporting_to","uuid":"","value":"2"},{"type":"reporting_to","uuid":"","value":"3"},{"type":"reporting_to","uuid":"","value":"4"},{"type":"login_user_department_manager","uuid":"","value":""},{"type":"department_manager","uuid":"","value":"${organization_2.uuid}"},{"type":"employee","uuid":"","value":"$csv{data.Auth.user_1.employee_id}"}],"uuid":"$csv{data.AllTypes.general_approval.uuid}"},{"target_value":"!!String{\"department\":[\"${organization_1.uuid}\"],\"employee\":[]}","target_type":"sponsor","approvers":[{"type":"login_user_department_manager","uuid":"","value":""},{"type":"department_manager","uuid":"","value":"${organization_2.uuid}"},{"type":"employee","uuid":"","value":"$csv{data.Auth.user_1.employee_id}"}],"uuid":""},{"uuid":"","approvers":[{"uuid":"","type":"employee","value":"$csv{data.Auth.user_1.employee_id}"},{"uuid":"","type":"login_user_department_manager","value":""}],"target_type":"sponsor","target_value":"!!String{\"department\":[],\"employee\":[\"$csv{data.Auth.user_houlong.employee_id}\"]}"}]</t>
-  </si>
-  <si>
-    <t>[{"target_value":"!!String{}","target_type":"","approvers":[{"type":"reporting_to","uuid":"","value":"1"},{"type":"reporting_to","uuid":"","value":"2"},{"type":"reporting_to","uuid":"","value":"3"},{"type":"reporting_to","uuid":"","value":"4"},{"type":"login_user_department_manager","uuid":"","value":""},{"type":"department_manager","uuid":"","value":"${organization_2.uuid}"},{"type":"employee","uuid":"","value":"$csv{data.Auth.user_1.employee_id}"}],"uuid":"$csv{data.AllTypes.materialget.uuid}"},{"target_value":"!!String{\"department\":[\"${organization_1.uuid}\"],\"employee\":[]}","target_type":"sponsor","approvers":[{"type":"login_user_department_manager","uuid":"","value":""},{"type":"department_manager","uuid":"","value":"${organization_2.uuid}"},{"type":"employee","uuid":"","value":"$csv{data.Auth.user_1.employee_id}"}],"uuid":""},{"uuid":"","approvers":[{"uuid":"","type":"employee","value":"$csv{data.Auth.user_1.employee_id}"},{"uuid":"","type":"login_user_department_manager","value":""}],"target_type":"sponsor","target_value":"!!String{\"department\":[],\"employee\":[\"$csv{data.Auth.user_houlong.employee_id}\"]}"}]</t>
-  </si>
-  <si>
-    <t>[{"target_value":"!!String{}","target_type":"","approvers":[{"type":"reporting_to","uuid":"","value":"1"},{"type":"reporting_to","uuid":"","value":"2"},{"type":"reporting_to","uuid":"","value":"3"},{"type":"reporting_to","uuid":"","value":"4"},{"type":"login_user_department_manager","uuid":"","value":""},{"type":"department_manager","uuid":"","value":"${organization_2.uuid}"},{"type":"employee","uuid":"","value":"$csv{data.Auth.user_1.employee_id}"}],"uuid":"$csv{data.AllTypes.contract.uuid}"},{"target_value":"!!String{\"department\":[\"${organization_1.uuid}\"],\"employee\":[]}","target_type":"sponsor","approvers":[{"type":"login_user_department_manager","uuid":"","value":""},{"type":"department_manager","uuid":"","value":"${organization_2.uuid}"},{"type":"employee","uuid":"","value":"$csv{data.Auth.user_1.employee_id}"}],"uuid":""},{"uuid":"","approvers":[{"uuid":"","type":"employee","value":"$csv{data.Auth.user_1.employee_id}"},{"uuid":"","type":"login_user_department_manager","value":""}],"target_type":"sponsor","target_value":"!!String{\"department\":[],\"employee\":[\"$csv{data.Auth.user_houlong.employee_id}\"]}"}]</t>
-  </si>
-  <si>
-    <t>[{"uuid":"$csv{data.AllTypes.purchase.uuid}","approvers":[{"uuid":"","type":"reporting_to","value":"1"},{"uuid":"","type":"reporting_to","value":"2"},{"uuid":"","type":"reporting_to","value":"3"},{"uuid":"","type":"reporting_to","value":"4"},{"uuid":"","type":"login_user_department_manager","value":""},{"uuid":"","type":"department_manager","value":"${organization_2.uuid}"},{"uuid":"","type":"employee","value":"$csv{data.Auth.user_1.employee_id}"}],"target_type":"","target_value":"!!String{}"},{"uuid":"","approvers":[{"uuid":"","type":"login_user_department_manager","value":""},{"uuid":"","type":"department_manager","value":"${organization_2.uuid}"},{"uuid":"","type":"employee","value":"$csv{data.Auth.user_1.employee_id}"}],"target_type":"sponsor","target_value":"!!String{\"department\":[\"${organization_1.uuid}\"],\"employee\":[]}"},{"uuid":"","approvers":[{"uuid":"","type":"login_user_department_manager","value":""},{"uuid":"","type":"employee","value":"$csv{data.Auth.user_1.employee_id}"},{"uuid":"","type":"employee","value":"$csv{data.Auth.user_houlong.employee_id}"}],"target_type":"sponsor","target_value":"!!String{\"department\":[],\"employee\":[\"$csv{data.Auth.user_houlong.employee_id}\"]}"}]</t>
-  </si>
-  <si>
-    <t>[{"uuid":"$csv{data.AllTypes.purchase.uuid}","approvers":[{"uuid":"","type":"reporting_to","value":"1"},{"uuid":"","type":"reporting_to","value":"2"},{"uuid":"","type":"reporting_to","value":"3"},{"uuid":"","type":"reporting_to","value":"4"},{"uuid":"","type":"login_user_department_manager","value":""},{"uuid":"","type":"department_manager","value":"${organization_2.uuid}"},{"uuid":"","type":"employee","value":"$csv{data.Auth.user_1.employee_id}"}],"target_type":"","target_value":"!!String{}"},{"uuid":"","approvers":[{"uuid":"","type":"login_user_department_manager","value":""},{"uuid":"","type":"department_manager","value":"${organization_2.uuid}"},{"uuid":"","type":"employee","value":"$csv{data.Auth.user_1.employee_id}"}],"target_type":"sponsor","target_value":"!!String{\"department\":[\"${organization_1.uuid}\"],\"employee\":[]}"},{"uuid":"","approvers":[{"uuid":"","type":"login_user_department_manager","value":""},{"uuid":"","type":"employee","value":"$csv{data.Auth.user_1.employee_id}"},{"uuid":"","type":"employee","value":"$csv{data.Auth.user_houlong.employee_id}"}],"target_type":"sponsor","target_value":"!!String{\"department\":[],\"employee\":[\"$csv{data.Auth.user_houlong.employee_id}\"]}"},{"uuid":"","approvers":[{"uuid":"","type":"login_user_department_manager","value":""},{"uuid":"","type":"department_manager","value":"${organization_3.uuid}"}],"target_type":"money","target_value":"!!String{\"symbol\":\"&lt;\",\"unit\":\"元\",\"number\":\"100.00\"}"},{"uuid":"","approvers":[{"uuid":"","type":"department_manager","value":"${organization_3.uuid}"},{"uuid":"","type":"employee","value":"$csv{data.Auth.user_1.employee_id}"}],"target_type":"money","target_value":"!!String{\"symbol\":\"==\",\"unit\":\"元\",\"number\":\"100.00\"}"},{"uuid":"","approvers":[{"uuid":"","type":"login_user_department_manager","value":""},{"uuid":"","type":"department_manager","value":"${organization_3.uuid}"},{"uuid":"","type":"employee","value":"$csv{data.Auth.user_1.employee_id}"}],"target_type":"money","target_value":"!!String{\"symbol\":\"&gt;\",\"unit\":\"元\",\"number\":\"100.00\"}"}]</t>
-  </si>
-  <si>
-    <t>[{"uuid":"$csv{data.AllTypes.reimbursement.uuid}","approvers":[{"uuid":"","type":"reporting_to","value":"1"},{"uuid":"","type":"reporting_to","value":"2"},{"uuid":"","type":"reporting_to","value":"3"},{"uuid":"","type":"reporting_to","value":"4"},{"uuid":"","type":"login_user_department_manager","value":""},{"uuid":"","type":"department_manager","value":"${organization_2.uuid}"},{"uuid":"","type":"employee","value":"$csv{data.Auth.user_1.employee_id}"}],"target_type":"","target_value":"!!String{}"},{"uuid":"","approvers":[{"uuid":"","type":"login_user_department_manager","value":""},{"uuid":"","type":"department_manager","value":"${organization_2.uuid}"},{"uuid":"","type":"employee","value":"$csv{data.Auth.user_1.employee_id}"}],"target_type":"sponsor","target_value":"!!String{\"department\":[\"${organization_1.uuid}\"],\"employee\":[]}"},{"uuid":"","approvers":[{"uuid":"","type":"login_user_department_manager","value":""},{"uuid":"","type":"employee","value":"$csv{data.Auth.user_1.employee_id}"},{"uuid":"","type":"employee","value":"$csv{data.Auth.user_houlong.employee_id}"}],"target_type":"sponsor","target_value":"!!String{\"department\":[],\"employee\":[\"$csv{data.Auth.user_houlong.employee_id}\"]}"}]</t>
-  </si>
-  <si>
-    <t>[{"uuid":"$csv{data.AllTypes.reimbursement.uuid}","approvers":[{"uuid":"","type":"reporting_to","value":"1"},{"uuid":"","type":"reporting_to","value":"2"},{"uuid":"","type":"reporting_to","value":"3"},{"uuid":"","type":"reporting_to","value":"4"},{"uuid":"","type":"login_user_department_manager","value":""},{"uuid":"","type":"department_manager","value":"${organization_2.uuid}"},{"uuid":"","type":"employee","value":"$csv{data.Auth.user_1.employee_id}"}],"target_type":"","target_value":"!!String{}"},{"uuid":"","approvers":[{"uuid":"","type":"login_user_department_manager","value":""},{"uuid":"","type":"department_manager","value":"${organization_2.uuid}"},{"uuid":"","type":"employee","value":"$csv{data.Auth.user_1.employee_id}"}],"target_type":"sponsor","target_value":"!!String{\"department\":[\"${organization_1.uuid}\"],\"employee\":[]}"},{"uuid":"","approvers":[{"uuid":"","type":"login_user_department_manager","value":""},{"uuid":"","type":"employee","value":"$csv{data.Auth.user_1.employee_id}"},{"uuid":"","type":"employee","value":"$csv{data.Auth.user_houlong.employee_id}"}],"target_type":"sponsor","target_value":"!!String{\"department\":[],\"employee\":[\"$csv{data.Auth.user_houlong.employee_id}\"]}"},{"uuid":"","approvers":[{"uuid":"","type":"login_user_department_manager","value":""},{"uuid":"","type":"department_manager","value":"${organization_3.uuid}"}],"target_type":"money","target_value":"!!String{\"symbol\":\"&lt;=\",\"unit\":\"元\",\"number\":\"199.99\"}"},{"uuid":"","approvers":[{"uuid":"","type":"department_manager","value":"${organization_3.uuid}"},{"uuid":"","type":"employee","value":"$csv{data.Auth.user_1.employee_id}"}],"target_type":"money","target_value":"!!String{\"symbol\":\"==\",\"unit\":\"元\",\"number\":\"200.00\"}"},{"uuid":"","approvers":[{"uuid":"","type":"login_user_department_manager","value":""},{"uuid":"","type":"department_manager","value":"${organization_3.uuid}"},{"uuid":"","type":"employee","value":"$csv{data.Auth.user_1.employee_id}"}],"target_type":"money","target_value":"!!String{\"symbol\":\"&gt;=\",\"unit\":\"元\",\"number\":\"200.10\"}"}]</t>
-  </si>
-  <si>
-    <t>[{"uuid":"$csv{data.AllTypes.payment.uuid}","approvers":[{"uuid":"","type":"reporting_to","value":"1"},{"uuid":"","type":"reporting_to","value":"2"},{"uuid":"","type":"reporting_to","value":"3"},{"uuid":"","type":"reporting_to","value":"4"},{"uuid":"","type":"login_user_department_manager","value":""},{"uuid":"","type":"department_manager","value":"${organization_2.uuid}"},{"uuid":"","type":"employee","value":"$csv{data.Auth.user_1.employee_id}"}],"target_type":"","target_value":"!!String{}"},{"uuid":"","approvers":[{"uuid":"","type":"login_user_department_manager","value":""},{"uuid":"","type":"department_manager","value":"${organization_2.uuid}"},{"uuid":"","type":"employee","value":"$csv{data.Auth.user_1.employee_id}"}],"target_type":"sponsor","target_value":"!!String{\"department\":[\"${organization_1.uuid}\"],\"employee\":[]}"},{"uuid":"","approvers":[{"uuid":"","type":"login_user_department_manager","value":""},{"uuid":"","type":"employee","value":"$csv{data.Auth.user_1.employee_id}"},{"uuid":"","type":"employee","value":"$csv{data.Auth.user_houlong.employee_id}"}],"target_type":"sponsor","target_value":"!!String{\"department\":[],\"employee\":[\"$csv{data.Auth.user_houlong.employee_id}\"]}"}]</t>
-  </si>
-  <si>
-    <t>[{"uuid":"$csv{data.AllTypes.payment.uuid}","approvers":[{"uuid":"","type":"reporting_to","value":"1"},{"uuid":"","type":"reporting_to","value":"2"},{"uuid":"","type":"reporting_to","value":"3"},{"uuid":"","type":"reporting_to","value":"4"},{"uuid":"","type":"login_user_department_manager","value":""},{"uuid":"","type":"department_manager","value":"${organization_2.uuid}"},{"uuid":"","type":"employee","value":"$csv{data.Auth.user_1.employee_id}"}],"target_type":"","target_value":"!!String{}"},{"uuid":"","approvers":[{"uuid":"","type":"login_user_department_manager","value":""},{"uuid":"","type":"department_manager","value":"${organization_2.uuid}"},{"uuid":"","type":"employee","value":"$csv{data.Auth.user_1.employee_id}"}],"target_type":"sponsor","target_value":"!!String{\"department\":[\"${organization_1.uuid}\"],\"employee\":[]}"},{"uuid":"","approvers":[{"uuid":"","type":"login_user_department_manager","value":""},{"uuid":"","type":"employee","value":"$csv{data.Auth.user_1.employee_id}"},{"uuid":"","type":"employee","value":"$csv{data.Auth.user_houlong.employee_id}"}],"target_type":"sponsor","target_value":"!!String{\"department\":[],\"employee\":[\"$csv{data.Auth.user_houlong.employee_id}\"]}"},{"uuid":"","approvers":[{"uuid":"","type":"login_user_department_manager","value":""},{"uuid":"","type":"department_manager","value":"${organization_3.uuid}"}],"target_type":"money","target_value":"!!String{\"symbol\":\"&lt;=\",\"unit\":\"元\",\"number\":\"199.99\"}"},{"uuid":"","approvers":[{"uuid":"","type":"department_manager","value":"${organization_3.uuid}"},{"uuid":"","type":"employee","value":"$csv{data.Auth.user_1.employee_id}"}],"target_type":"money","target_value":"!!String{\"symbol\":\"==\",\"unit\":\"元\",\"number\":\"200.00\"}"},{"uuid":"","approvers":[{"uuid":"","type":"login_user_department_manager","value":""},{"uuid":"","type":"department_manager","value":"${organization_3.uuid}"},{"uuid":"","type":"employee","value":"$csv{data.Auth.user_1.employee_id}"}],"target_type":"money","target_value":"!!String{\"symbol\":\"&gt;=\",\"unit\":\"元\",\"number\":\"200.10\"}"}]</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>dismiss</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>$csv{data.AllTypes.employee_offboarddismissdismiss.type_id}</t>
+  </si>
+  <si>
+    <t>[{"uuid":"$csv{data.AllTypes.employee_offboarddismissdismiss.uuid}","approvers":[{"uuid":"","type":"reporting_to","value":"1"},{"uuid":"","type":"reporting_to","value":"2"},{"uuid":"","type":"reporting_to","value":"3"},{"uuid":"","type":"reporting_to","value":"4"},{"uuid":"","type":"login_user_department_manager","value":""},{"uuid":"","type":"department_manager","value":"${organization_2.uuid}"},{"uuid":"","type":"employee","value":"$csv{data.Auth.user_1.employee_id}"}],"target_type":"","target_value":"!!String{}"}]</t>
+  </si>
+  <si>
+    <t>[{"target_value":"!!String{}","target_type":"","approvers":[{"type":"reporting_to","uuid":"","value":"1"},{"type":"reporting_to","uuid":"","value":"2"},{"type":"reporting_to","uuid":"","value":"3"},{"type":"reporting_to","uuid":"","value":"4"},{"type":"login_user_department_manager","uuid":"","value":""},{"type":"department_manager","uuid":"","value":"${organization_2.uuid}"},{"type":"employee","uuid":"","value":"$csv{data.Auth.user_1.employee_id}"}],"uuid":"$csv{data.AllTypes.employee_offboarddismissdismiss.uuid}"},{"target_value":"!!String{\"department\":[\"${organization_1.uuid}\"],\"employee\":[]}","target_type":"sponsor","approvers":[{"type":"login_user_department_manager","uuid":"","value":""},{"type":"department_manager","uuid":"","value":"${organization_2.uuid}"},{"type":"employee","uuid":"","value":"$csv{data.Auth.user_1.employee_id}"}],"uuid":""},{"uuid":"","approvers":[{"uuid":"","type":"login_user_department_manager","value":""},{"uuid":"","type":"employee","value":"$csv{data.Auth.user_1.employee_id}"},{"uuid":"","type":"employee","value":"$csv{data.Auth.user_houlong.employee_id}"}],"target_type":"sponsor","target_value":"!!String{\"department\":[\"${organization_2.uuid}\"],\"employee\":[]}"}]</t>
   </si>
 </sst>
 </file>
@@ -1190,7 +1194,7 @@
   <dimension ref="A1:F2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E8" sqref="E8"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1226,7 +1230,7 @@
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A2" s="4" t="s">
-        <v>139</v>
+        <v>214</v>
       </c>
       <c r="B2" s="1" t="s">
         <v>7</v>
@@ -1238,7 +1242,7 @@
         <v>34</v>
       </c>
       <c r="E2" s="3" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="F2" s="1" t="s">
         <v>5</v>
@@ -1255,19 +1259,19 @@
   <dimension ref="A1:G48"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="C3" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="F14" sqref="F14"/>
+      <selection pane="bottomRight" activeCell="D17" sqref="D17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="17.125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="41.375" style="7" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="54.5" style="7" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="24.125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="20.625" customWidth="1"/>
-    <col min="5" max="5" width="12.625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="12.625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="20.625" customWidth="1"/>
     <col min="6" max="6" width="57" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="13.5" bestFit="1" customWidth="1"/>
   </cols>
@@ -1283,10 +1287,10 @@
         <v>10</v>
       </c>
       <c r="D1" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="E1" s="5" t="s">
         <v>13</v>
-      </c>
-      <c r="E1" s="5" t="s">
-        <v>14</v>
       </c>
       <c r="F1" s="5" t="s">
         <v>11</v>
@@ -1300,13 +1304,13 @@
         <v>38</v>
       </c>
       <c r="B2" s="7" t="s">
-        <v>141</v>
+        <v>137</v>
       </c>
       <c r="C2" t="s">
         <v>41</v>
       </c>
-      <c r="D2" t="s">
-        <v>140</v>
+      <c r="E2" t="s">
+        <v>136</v>
       </c>
       <c r="F2" t="s">
         <v>17</v>
@@ -1320,16 +1324,16 @@
         <v>39</v>
       </c>
       <c r="B3" s="7" t="s">
-        <v>141</v>
+        <v>137</v>
       </c>
       <c r="C3" t="s">
         <v>30</v>
       </c>
-      <c r="D3" t="s">
-        <v>209</v>
+      <c r="E3" t="s">
+        <v>200</v>
       </c>
       <c r="F3" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="G3" t="s">
         <v>29</v>
@@ -1340,13 +1344,13 @@
         <v>36</v>
       </c>
       <c r="B4" s="7" t="s">
-        <v>143</v>
+        <v>139</v>
       </c>
       <c r="C4" t="s">
         <v>41</v>
       </c>
-      <c r="D4" t="s">
-        <v>142</v>
+      <c r="E4" t="s">
+        <v>138</v>
       </c>
       <c r="F4" t="s">
         <v>17</v>
@@ -1360,16 +1364,16 @@
         <v>37</v>
       </c>
       <c r="B5" s="7" t="s">
-        <v>143</v>
+        <v>139</v>
       </c>
       <c r="C5" t="s">
         <v>40</v>
       </c>
-      <c r="D5" t="s">
-        <v>123</v>
+      <c r="E5" t="s">
+        <v>122</v>
       </c>
       <c r="F5" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="G5" t="s">
         <v>29</v>
@@ -1377,19 +1381,19 @@
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B6" s="7" t="s">
-        <v>145</v>
+        <v>215</v>
       </c>
       <c r="C6" t="s">
         <v>41</v>
       </c>
       <c r="D6" t="s">
-        <v>144</v>
+        <v>47</v>
       </c>
       <c r="E6" t="s">
-        <v>48</v>
+        <v>216</v>
       </c>
       <c r="F6" t="s">
         <v>17</v>
@@ -1400,22 +1404,22 @@
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B7" s="7" t="s">
-        <v>145</v>
+        <v>215</v>
       </c>
       <c r="C7" t="s">
         <v>40</v>
       </c>
       <c r="D7" t="s">
-        <v>124</v>
+        <v>43</v>
       </c>
       <c r="E7" t="s">
-        <v>43</v>
+        <v>217</v>
       </c>
       <c r="F7" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="G7" t="s">
         <v>29</v>
@@ -1423,19 +1427,19 @@
     </row>
     <row r="8" spans="1:7" s="7" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A8" s="7" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="B8" s="7" t="s">
-        <v>145</v>
+        <v>215</v>
       </c>
       <c r="C8" s="7" t="s">
         <v>41</v>
       </c>
-      <c r="D8" t="s">
-        <v>208</v>
-      </c>
-      <c r="E8" s="7" t="s">
-        <v>48</v>
+      <c r="D8" s="7" t="s">
+        <v>47</v>
+      </c>
+      <c r="E8" t="s">
+        <v>218</v>
       </c>
       <c r="F8" s="7" t="s">
         <v>17</v>
@@ -1446,19 +1450,19 @@
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B9" s="7" t="s">
-        <v>147</v>
+        <v>222</v>
       </c>
       <c r="C9" t="s">
         <v>41</v>
       </c>
       <c r="D9" t="s">
-        <v>146</v>
+        <v>221</v>
       </c>
       <c r="E9" t="s">
-        <v>45</v>
+        <v>223</v>
       </c>
       <c r="F9" t="s">
         <v>17</v>
@@ -1469,22 +1473,22 @@
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B10" s="7" t="s">
-        <v>147</v>
+        <v>222</v>
       </c>
       <c r="C10" t="s">
         <v>40</v>
       </c>
       <c r="D10" t="s">
-        <v>125</v>
+        <v>44</v>
       </c>
       <c r="E10" t="s">
-        <v>44</v>
+        <v>224</v>
       </c>
       <c r="F10" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="G10" t="s">
         <v>29</v>
@@ -1492,16 +1496,16 @@
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B11" s="7" t="s">
-        <v>149</v>
+        <v>142</v>
       </c>
       <c r="C11" t="s">
         <v>41</v>
       </c>
-      <c r="D11" t="s">
-        <v>148</v>
+      <c r="E11" t="s">
+        <v>141</v>
       </c>
       <c r="F11" t="s">
         <v>17</v>
@@ -1512,19 +1516,19 @@
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B12" s="7" t="s">
-        <v>149</v>
+        <v>142</v>
       </c>
       <c r="C12" t="s">
         <v>40</v>
       </c>
-      <c r="D12" t="s">
-        <v>126</v>
+      <c r="E12" t="s">
+        <v>123</v>
       </c>
       <c r="F12" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="G12" t="s">
         <v>29</v>
@@ -1532,16 +1536,16 @@
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B13" s="7" t="s">
-        <v>151</v>
+        <v>144</v>
       </c>
       <c r="C13" t="s">
         <v>41</v>
       </c>
-      <c r="D13" t="s">
-        <v>150</v>
+      <c r="E13" t="s">
+        <v>143</v>
       </c>
       <c r="F13" t="s">
         <v>17</v>
@@ -1552,19 +1556,19 @@
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B14" s="7" t="s">
-        <v>151</v>
+        <v>144</v>
       </c>
       <c r="C14" t="s">
         <v>40</v>
       </c>
-      <c r="D14" t="s">
-        <v>210</v>
+      <c r="E14" t="s">
+        <v>201</v>
       </c>
       <c r="F14" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="G14" t="s">
         <v>29</v>
@@ -1572,19 +1576,19 @@
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B15" s="7" t="s">
-        <v>151</v>
+        <v>144</v>
       </c>
       <c r="C15" t="s">
         <v>40</v>
       </c>
-      <c r="D15" t="s">
-        <v>211</v>
+      <c r="E15" t="s">
+        <v>202</v>
       </c>
       <c r="F15" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="G15" t="s">
         <v>29</v>
@@ -1592,16 +1596,16 @@
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B16" s="7" t="s">
-        <v>153</v>
+        <v>146</v>
       </c>
       <c r="C16" t="s">
         <v>41</v>
       </c>
-      <c r="D16" t="s">
-        <v>152</v>
+      <c r="E16" t="s">
+        <v>145</v>
       </c>
       <c r="F16" t="s">
         <v>17</v>
@@ -1612,19 +1616,19 @@
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B17" s="7" t="s">
-        <v>153</v>
+        <v>146</v>
       </c>
       <c r="C17" t="s">
         <v>40</v>
       </c>
-      <c r="D17" t="s">
-        <v>212</v>
+      <c r="E17" t="s">
+        <v>203</v>
       </c>
       <c r="F17" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="G17" t="s">
         <v>29</v>
@@ -1632,16 +1636,16 @@
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B18" s="7" t="s">
-        <v>155</v>
+        <v>148</v>
       </c>
       <c r="C18" t="s">
         <v>41</v>
       </c>
-      <c r="D18" t="s">
-        <v>154</v>
+      <c r="E18" t="s">
+        <v>147</v>
       </c>
       <c r="F18" t="s">
         <v>17</v>
@@ -1652,19 +1656,19 @@
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B19" s="7" t="s">
-        <v>155</v>
+        <v>148</v>
       </c>
       <c r="C19" t="s">
         <v>40</v>
       </c>
-      <c r="D19" t="s">
-        <v>129</v>
+      <c r="E19" t="s">
+        <v>126</v>
       </c>
       <c r="F19" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="G19" t="s">
         <v>29</v>
@@ -1672,19 +1676,19 @@
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="B20" s="7" t="s">
-        <v>155</v>
+        <v>148</v>
       </c>
       <c r="C20" t="s">
         <v>40</v>
       </c>
-      <c r="D20" t="s">
-        <v>130</v>
+      <c r="E20" t="s">
+        <v>127</v>
       </c>
       <c r="F20" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="G20" t="s">
         <v>29</v>
@@ -1692,16 +1696,16 @@
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="B21" s="7" t="s">
-        <v>157</v>
+        <v>150</v>
       </c>
       <c r="C21" t="s">
         <v>41</v>
       </c>
-      <c r="D21" t="s">
-        <v>156</v>
+      <c r="E21" t="s">
+        <v>149</v>
       </c>
       <c r="F21" t="s">
         <v>17</v>
@@ -1712,56 +1716,56 @@
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B22" s="7" t="s">
-        <v>157</v>
+        <v>150</v>
       </c>
       <c r="C22" t="s">
         <v>40</v>
       </c>
-      <c r="D22" t="s">
-        <v>132</v>
+      <c r="E22" t="s">
+        <v>129</v>
       </c>
       <c r="F22" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="G22" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="B23" s="7" t="s">
-        <v>157</v>
+        <v>150</v>
       </c>
       <c r="C23" t="s">
         <v>40</v>
       </c>
-      <c r="D23" t="s">
-        <v>133</v>
+      <c r="E23" t="s">
+        <v>130</v>
       </c>
       <c r="F23" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="G23" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="B24" s="7" t="s">
-        <v>159</v>
+        <v>152</v>
       </c>
       <c r="C24" t="s">
         <v>41</v>
       </c>
-      <c r="D24" t="s">
-        <v>158</v>
+      <c r="E24" t="s">
+        <v>151</v>
       </c>
       <c r="F24" t="s">
         <v>17</v>
@@ -1772,58 +1776,58 @@
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="B25" s="7" t="s">
-        <v>159</v>
+        <v>152</v>
       </c>
       <c r="C25" t="s">
         <v>40</v>
       </c>
-      <c r="D25" t="s">
-        <v>135</v>
+      <c r="E25" t="s">
+        <v>132</v>
       </c>
       <c r="F25" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="G25" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="B26" s="7" t="s">
-        <v>159</v>
+        <v>152</v>
       </c>
       <c r="C26" t="s">
         <v>40</v>
       </c>
-      <c r="D26" t="s">
-        <v>136</v>
+      <c r="E26" t="s">
+        <v>133</v>
       </c>
       <c r="F26" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="G26" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
     </row>
     <row r="27" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A27" s="6" t="s">
+        <v>78</v>
+      </c>
+      <c r="B27" s="7" t="s">
+        <v>154</v>
+      </c>
+      <c r="C27" s="6" t="s">
         <v>79</v>
       </c>
-      <c r="B27" s="7" t="s">
-        <v>161</v>
-      </c>
-      <c r="C27" s="6" t="s">
-        <v>80</v>
-      </c>
-      <c r="D27" s="6" t="s">
-        <v>160</v>
-      </c>
-      <c r="E27" s="6"/>
+      <c r="D27" s="6"/>
+      <c r="E27" s="6" t="s">
+        <v>153</v>
+      </c>
       <c r="F27" s="6" t="s">
         <v>17</v>
       </c>
@@ -1833,20 +1837,20 @@
     </row>
     <row r="28" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A28" s="6" t="s">
+        <v>80</v>
+      </c>
+      <c r="B28" s="7" t="s">
+        <v>154</v>
+      </c>
+      <c r="C28" s="6" t="s">
         <v>81</v>
       </c>
-      <c r="B28" s="7" t="s">
-        <v>161</v>
-      </c>
-      <c r="C28" s="6" t="s">
-        <v>82</v>
-      </c>
-      <c r="D28" s="6" t="s">
-        <v>213</v>
-      </c>
-      <c r="E28" s="6"/>
+      <c r="D28" s="6"/>
+      <c r="E28" s="6" t="s">
+        <v>204</v>
+      </c>
       <c r="F28" s="6" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="G28" s="6" t="s">
         <v>29</v>
@@ -1854,18 +1858,18 @@
     </row>
     <row r="29" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A29" s="6" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="B29" s="7" t="s">
-        <v>163</v>
+        <v>156</v>
       </c>
       <c r="C29" s="6" t="s">
-        <v>80</v>
-      </c>
-      <c r="D29" s="6" t="s">
-        <v>162</v>
-      </c>
-      <c r="E29" s="6"/>
+        <v>79</v>
+      </c>
+      <c r="D29" s="6"/>
+      <c r="E29" s="6" t="s">
+        <v>155</v>
+      </c>
       <c r="F29" s="6" t="s">
         <v>17</v>
       </c>
@@ -1875,20 +1879,20 @@
     </row>
     <row r="30" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A30" s="6" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="B30" s="7" t="s">
-        <v>163</v>
+        <v>156</v>
       </c>
       <c r="C30" s="6" t="s">
-        <v>82</v>
-      </c>
-      <c r="D30" s="6" t="s">
-        <v>214</v>
-      </c>
-      <c r="E30" s="6"/>
+        <v>81</v>
+      </c>
+      <c r="D30" s="6"/>
+      <c r="E30" s="6" t="s">
+        <v>205</v>
+      </c>
       <c r="F30" s="6" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="G30" s="6" t="s">
         <v>29</v>
@@ -1896,18 +1900,18 @@
     </row>
     <row r="31" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A31" s="6" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="B31" s="7" t="s">
-        <v>165</v>
+        <v>158</v>
       </c>
       <c r="C31" s="6" t="s">
-        <v>80</v>
-      </c>
-      <c r="D31" s="6" t="s">
-        <v>164</v>
-      </c>
-      <c r="E31" s="6"/>
+        <v>79</v>
+      </c>
+      <c r="D31" s="6"/>
+      <c r="E31" s="6" t="s">
+        <v>157</v>
+      </c>
       <c r="F31" s="6" t="s">
         <v>17</v>
       </c>
@@ -1917,20 +1921,20 @@
     </row>
     <row r="32" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A32" s="6" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="B32" s="7" t="s">
-        <v>165</v>
+        <v>158</v>
       </c>
       <c r="C32" s="6" t="s">
-        <v>82</v>
-      </c>
-      <c r="D32" s="6" t="s">
-        <v>215</v>
-      </c>
-      <c r="E32" s="6"/>
+        <v>81</v>
+      </c>
+      <c r="D32" s="6"/>
+      <c r="E32" s="6" t="s">
+        <v>206</v>
+      </c>
       <c r="F32" s="6" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="G32" s="6" t="s">
         <v>29</v>
@@ -1938,18 +1942,18 @@
     </row>
     <row r="33" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A33" s="6" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="B33" s="7" t="s">
-        <v>167</v>
+        <v>160</v>
       </c>
       <c r="C33" s="6" t="s">
-        <v>80</v>
-      </c>
-      <c r="D33" s="6" t="s">
-        <v>166</v>
-      </c>
-      <c r="E33" s="6"/>
+        <v>79</v>
+      </c>
+      <c r="D33" s="6"/>
+      <c r="E33" s="6" t="s">
+        <v>159</v>
+      </c>
       <c r="F33" s="6" t="s">
         <v>17</v>
       </c>
@@ -1959,20 +1963,20 @@
     </row>
     <row r="34" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A34" s="6" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="B34" s="7" t="s">
-        <v>167</v>
+        <v>160</v>
       </c>
       <c r="C34" s="6" t="s">
-        <v>82</v>
-      </c>
-      <c r="D34" s="6" t="s">
-        <v>216</v>
-      </c>
-      <c r="E34" s="6"/>
+        <v>81</v>
+      </c>
+      <c r="D34" s="6"/>
+      <c r="E34" s="6" t="s">
+        <v>207</v>
+      </c>
       <c r="F34" s="6" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="G34" s="6" t="s">
         <v>29</v>
@@ -1980,16 +1984,16 @@
     </row>
     <row r="35" spans="1:7" s="7" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A35" s="7" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="B35" s="7" t="s">
-        <v>169</v>
+        <v>162</v>
       </c>
       <c r="C35" s="7" t="s">
         <v>41</v>
       </c>
-      <c r="D35" s="7" t="s">
-        <v>168</v>
+      <c r="E35" s="7" t="s">
+        <v>161</v>
       </c>
       <c r="F35" s="7" t="s">
         <v>17</v>
@@ -2000,19 +2004,19 @@
     </row>
     <row r="36" spans="1:7" s="7" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A36" s="7" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="B36" s="7" t="s">
-        <v>169</v>
+        <v>162</v>
       </c>
       <c r="C36" s="7" t="s">
         <v>30</v>
       </c>
-      <c r="D36" s="7" t="s">
-        <v>217</v>
+      <c r="E36" s="7" t="s">
+        <v>208</v>
       </c>
       <c r="F36" s="7" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="G36" s="7" t="s">
         <v>29</v>
@@ -2020,36 +2024,36 @@
     </row>
     <row r="37" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A37" s="7" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="B37" s="7" t="s">
-        <v>169</v>
+        <v>162</v>
       </c>
       <c r="C37" s="7" t="s">
-        <v>82</v>
-      </c>
-      <c r="D37" t="s">
-        <v>218</v>
+        <v>81</v>
+      </c>
+      <c r="E37" t="s">
+        <v>209</v>
       </c>
       <c r="F37" s="7" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="G37" s="7" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
     </row>
     <row r="38" spans="1:7" s="7" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A38" s="7" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="B38" s="7" t="s">
-        <v>170</v>
+        <v>163</v>
       </c>
       <c r="C38" s="7" t="s">
         <v>41</v>
       </c>
-      <c r="D38" s="7" t="s">
-        <v>138</v>
+      <c r="E38" s="7" t="s">
+        <v>135</v>
       </c>
       <c r="F38" s="7" t="s">
         <v>17</v>
@@ -2060,19 +2064,19 @@
     </row>
     <row r="39" spans="1:7" s="7" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A39" s="7" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="B39" s="7" t="s">
-        <v>170</v>
+        <v>163</v>
       </c>
       <c r="C39" s="7" t="s">
         <v>30</v>
       </c>
-      <c r="D39" s="7" t="s">
-        <v>219</v>
+      <c r="E39" s="7" t="s">
+        <v>210</v>
       </c>
       <c r="F39" s="7" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="G39" s="7" t="s">
         <v>29</v>
@@ -2080,36 +2084,36 @@
     </row>
     <row r="40" spans="1:7" s="7" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A40" s="7" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="B40" s="7" t="s">
-        <v>170</v>
+        <v>163</v>
       </c>
       <c r="C40" s="7" t="s">
-        <v>82</v>
-      </c>
-      <c r="D40" s="7" t="s">
-        <v>220</v>
+        <v>81</v>
+      </c>
+      <c r="E40" s="7" t="s">
+        <v>211</v>
       </c>
       <c r="F40" s="7" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="G40" s="7" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
     </row>
     <row r="41" spans="1:7" s="7" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A41" s="7" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="B41" s="7" t="s">
-        <v>172</v>
+        <v>165</v>
       </c>
       <c r="C41" s="7" t="s">
         <v>41</v>
       </c>
-      <c r="D41" s="7" t="s">
-        <v>171</v>
+      <c r="E41" s="7" t="s">
+        <v>164</v>
       </c>
       <c r="F41" s="7" t="s">
         <v>17</v>
@@ -2120,19 +2124,19 @@
     </row>
     <row r="42" spans="1:7" s="7" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A42" s="7" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="B42" s="7" t="s">
-        <v>172</v>
+        <v>165</v>
       </c>
       <c r="C42" s="7" t="s">
         <v>30</v>
       </c>
-      <c r="D42" s="7" t="s">
-        <v>221</v>
+      <c r="E42" s="7" t="s">
+        <v>212</v>
       </c>
       <c r="F42" s="7" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="G42" s="7" t="s">
         <v>29</v>
@@ -2140,36 +2144,36 @@
     </row>
     <row r="43" spans="1:7" s="7" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A43" s="7" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="B43" s="7" t="s">
-        <v>172</v>
+        <v>165</v>
       </c>
       <c r="C43" s="7" t="s">
-        <v>82</v>
-      </c>
-      <c r="D43" s="7" t="s">
-        <v>222</v>
+        <v>81</v>
+      </c>
+      <c r="E43" s="7" t="s">
+        <v>213</v>
       </c>
       <c r="F43" s="7" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="G43" s="7" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
     </row>
     <row r="44" spans="1:7" s="7" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A44" s="7" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="B44" s="7" t="s">
-        <v>151</v>
+        <v>144</v>
       </c>
       <c r="C44" s="7" t="s">
-        <v>114</v>
-      </c>
-      <c r="D44" s="7" t="s">
-        <v>127</v>
+        <v>113</v>
+      </c>
+      <c r="E44" s="7" t="s">
+        <v>124</v>
       </c>
       <c r="F44" s="7" t="s">
         <v>17</v>
@@ -2180,16 +2184,16 @@
     </row>
     <row r="45" spans="1:7" s="7" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A45" s="7" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="B45" s="7" t="s">
-        <v>153</v>
+        <v>146</v>
       </c>
       <c r="C45" s="7" t="s">
-        <v>115</v>
-      </c>
-      <c r="D45" s="7" t="s">
-        <v>128</v>
+        <v>114</v>
+      </c>
+      <c r="E45" s="7" t="s">
+        <v>125</v>
       </c>
       <c r="F45" s="7" t="s">
         <v>17</v>
@@ -2200,16 +2204,16 @@
     </row>
     <row r="46" spans="1:7" s="7" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A46" s="7" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="B46" s="7" t="s">
-        <v>155</v>
+        <v>148</v>
       </c>
       <c r="C46" s="7" t="s">
-        <v>116</v>
-      </c>
-      <c r="D46" s="7" t="s">
-        <v>131</v>
+        <v>115</v>
+      </c>
+      <c r="E46" s="7" t="s">
+        <v>128</v>
       </c>
       <c r="F46" s="7" t="s">
         <v>17</v>
@@ -2220,16 +2224,16 @@
     </row>
     <row r="47" spans="1:7" s="7" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A47" s="7" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="B47" s="7" t="s">
-        <v>157</v>
+        <v>150</v>
       </c>
       <c r="C47" s="7" t="s">
-        <v>114</v>
-      </c>
-      <c r="D47" s="7" t="s">
-        <v>134</v>
+        <v>113</v>
+      </c>
+      <c r="E47" s="7" t="s">
+        <v>131</v>
       </c>
       <c r="F47" s="7" t="s">
         <v>17</v>
@@ -2240,16 +2244,16 @@
     </row>
     <row r="48" spans="1:7" s="7" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A48" s="7" t="s">
+        <v>112</v>
+      </c>
+      <c r="B48" s="7" t="s">
+        <v>152</v>
+      </c>
+      <c r="C48" s="7" t="s">
         <v>113</v>
       </c>
-      <c r="B48" s="7" t="s">
-        <v>159</v>
-      </c>
-      <c r="C48" s="7" t="s">
-        <v>114</v>
-      </c>
-      <c r="D48" s="7" t="s">
-        <v>137</v>
+      <c r="E48" s="7" t="s">
+        <v>134</v>
       </c>
       <c r="F48" s="7" t="s">
         <v>17</v>
@@ -2270,10 +2274,10 @@
   <dimension ref="A1:O48"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="I2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="N6" sqref="N6"/>
+      <selection pane="bottomRight" activeCell="G9" sqref="G9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -2315,7 +2319,7 @@
         <v>22</v>
       </c>
       <c r="H1" t="s">
-        <v>173</v>
+        <v>166</v>
       </c>
       <c r="I1" t="s">
         <v>15</v>
@@ -2344,7 +2348,7 @@
         <v>38</v>
       </c>
       <c r="B2" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="C2" t="s">
         <v>16</v>
@@ -2359,10 +2363,10 @@
         <v>16</v>
       </c>
       <c r="G2" s="7" t="s">
-        <v>141</v>
+        <v>137</v>
       </c>
       <c r="H2" s="7" t="s">
-        <v>174</v>
+        <v>167</v>
       </c>
       <c r="I2" t="s">
         <v>29</v>
@@ -2374,7 +2378,7 @@
         <v>27</v>
       </c>
       <c r="L2" s="7" t="s">
-        <v>191</v>
+        <v>183</v>
       </c>
       <c r="M2" t="s">
         <v>31</v>
@@ -2391,7 +2395,7 @@
         <v>39</v>
       </c>
       <c r="B3" s="7" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="C3" t="s">
         <v>16</v>
@@ -2406,10 +2410,10 @@
         <v>16</v>
       </c>
       <c r="G3" s="7" t="s">
-        <v>141</v>
+        <v>137</v>
       </c>
       <c r="H3" s="7" t="s">
-        <v>174</v>
+        <v>167</v>
       </c>
       <c r="I3" t="s">
         <v>29</v>
@@ -2421,7 +2425,7 @@
         <v>27</v>
       </c>
       <c r="L3" s="7" t="s">
-        <v>191</v>
+        <v>183</v>
       </c>
       <c r="M3" t="s">
         <v>31</v>
@@ -2438,7 +2442,7 @@
         <v>36</v>
       </c>
       <c r="B4" s="7" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="C4" t="s">
         <v>16</v>
@@ -2453,10 +2457,10 @@
         <v>16</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>143</v>
+        <v>139</v>
       </c>
       <c r="H4" s="7" t="s">
-        <v>175</v>
+        <v>168</v>
       </c>
       <c r="I4" t="s">
         <v>29</v>
@@ -2468,7 +2472,7 @@
         <v>27</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>192</v>
+        <v>184</v>
       </c>
       <c r="M4" t="s">
         <v>31</v>
@@ -2485,7 +2489,7 @@
         <v>37</v>
       </c>
       <c r="B5" s="7" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="C5" t="s">
         <v>16</v>
@@ -2500,10 +2504,10 @@
         <v>16</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>143</v>
+        <v>139</v>
       </c>
       <c r="H5" s="7" t="s">
-        <v>175</v>
+        <v>168</v>
       </c>
       <c r="I5" t="s">
         <v>29</v>
@@ -2515,7 +2519,7 @@
         <v>27</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>192</v>
+        <v>184</v>
       </c>
       <c r="M5" t="s">
         <v>31</v>
@@ -2529,10 +2533,10 @@
     </row>
     <row r="6" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B6" s="7" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="C6" t="s">
         <v>16</v>
@@ -2547,10 +2551,10 @@
         <v>16</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>145</v>
+        <v>215</v>
       </c>
       <c r="H6" s="7" t="s">
-        <v>176</v>
+        <v>219</v>
       </c>
       <c r="I6" t="s">
         <v>29</v>
@@ -2562,13 +2566,13 @@
         <v>27</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>206</v>
+        <v>198</v>
       </c>
       <c r="M6" t="s">
         <v>31</v>
       </c>
       <c r="N6" s="7" t="s">
-        <v>207</v>
+        <v>199</v>
       </c>
       <c r="O6" t="s">
         <v>28</v>
@@ -2576,10 +2580,10 @@
     </row>
     <row r="7" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="B7" s="7" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="C7" t="s">
         <v>16</v>
@@ -2594,10 +2598,10 @@
         <v>16</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>145</v>
+        <v>215</v>
       </c>
       <c r="H7" s="7" t="s">
-        <v>176</v>
+        <v>219</v>
       </c>
       <c r="I7" t="s">
         <v>29</v>
@@ -2609,13 +2613,13 @@
         <v>27</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>206</v>
+        <v>198</v>
       </c>
       <c r="M7" t="s">
         <v>31</v>
       </c>
       <c r="N7" s="7" t="s">
-        <v>207</v>
+        <v>199</v>
       </c>
       <c r="O7" t="s">
         <v>28</v>
@@ -2623,10 +2627,10 @@
     </row>
     <row r="8" spans="1:15" s="7" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A8" s="7" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="B8" s="7" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="C8" s="7" t="s">
         <v>16</v>
@@ -2641,10 +2645,10 @@
         <v>16</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>145</v>
+        <v>215</v>
       </c>
       <c r="H8" s="7" t="s">
-        <v>176</v>
+        <v>219</v>
       </c>
       <c r="I8" s="7" t="s">
         <v>29</v>
@@ -2656,13 +2660,13 @@
         <v>27</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>206</v>
+        <v>198</v>
       </c>
       <c r="M8" s="7" t="s">
         <v>31</v>
       </c>
       <c r="N8" s="7" t="s">
-        <v>207</v>
+        <v>199</v>
       </c>
       <c r="O8" s="7" t="s">
         <v>28</v>
@@ -2670,10 +2674,10 @@
     </row>
     <row r="9" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B9" s="7" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="C9" t="s">
         <v>16</v>
@@ -2688,10 +2692,10 @@
         <v>16</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>147</v>
+        <v>220</v>
       </c>
       <c r="H9" s="7" t="s">
-        <v>177</v>
+        <v>169</v>
       </c>
       <c r="I9" t="s">
         <v>29</v>
@@ -2703,13 +2707,13 @@
         <v>27</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>206</v>
+        <v>198</v>
       </c>
       <c r="M9" t="s">
         <v>31</v>
       </c>
       <c r="N9" s="7" t="s">
-        <v>207</v>
+        <v>199</v>
       </c>
       <c r="O9" t="s">
         <v>28</v>
@@ -2717,10 +2721,10 @@
     </row>
     <row r="10" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B10" s="7" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="C10" t="s">
         <v>16</v>
@@ -2735,10 +2739,10 @@
         <v>16</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>147</v>
+        <v>140</v>
       </c>
       <c r="H10" s="7" t="s">
-        <v>177</v>
+        <v>169</v>
       </c>
       <c r="I10" t="s">
         <v>29</v>
@@ -2750,13 +2754,13 @@
         <v>27</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>206</v>
+        <v>198</v>
       </c>
       <c r="M10" t="s">
         <v>31</v>
       </c>
       <c r="N10" s="7" t="s">
-        <v>207</v>
+        <v>199</v>
       </c>
       <c r="O10" t="s">
         <v>28</v>
@@ -2764,10 +2768,10 @@
     </row>
     <row r="11" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B11" s="7" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="C11" t="s">
         <v>16</v>
@@ -2782,10 +2786,10 @@
         <v>16</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>149</v>
+        <v>142</v>
       </c>
       <c r="H11" s="7" t="s">
-        <v>178</v>
+        <v>170</v>
       </c>
       <c r="I11" t="s">
         <v>29</v>
@@ -2797,13 +2801,13 @@
         <v>27</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>193</v>
+        <v>185</v>
       </c>
       <c r="M11" t="s">
         <v>31</v>
       </c>
       <c r="N11" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="O11" t="s">
         <v>28</v>
@@ -2811,10 +2815,10 @@
     </row>
     <row r="12" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B12" s="7" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="C12" t="s">
         <v>16</v>
@@ -2829,10 +2833,10 @@
         <v>16</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>149</v>
+        <v>142</v>
       </c>
       <c r="H12" s="7" t="s">
-        <v>178</v>
+        <v>170</v>
       </c>
       <c r="I12" t="s">
         <v>29</v>
@@ -2844,13 +2848,13 @@
         <v>27</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>193</v>
+        <v>185</v>
       </c>
       <c r="M12" t="s">
         <v>31</v>
       </c>
       <c r="N12" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="O12" t="s">
         <v>28</v>
@@ -2858,10 +2862,10 @@
     </row>
     <row r="13" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B13" s="7" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="C13" t="s">
         <v>16</v>
@@ -2876,10 +2880,10 @@
         <v>16</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>151</v>
+        <v>144</v>
       </c>
       <c r="H13" s="7" t="s">
-        <v>179</v>
+        <v>171</v>
       </c>
       <c r="I13" t="s">
         <v>29</v>
@@ -2891,13 +2895,13 @@
         <v>27</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>194</v>
+        <v>186</v>
       </c>
       <c r="M13" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="N13" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="O13" t="s">
         <v>28</v>
@@ -2905,10 +2909,10 @@
     </row>
     <row r="14" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B14" s="7" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="C14" t="s">
         <v>16</v>
@@ -2923,10 +2927,10 @@
         <v>16</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>151</v>
+        <v>144</v>
       </c>
       <c r="H14" s="7" t="s">
-        <v>179</v>
+        <v>171</v>
       </c>
       <c r="I14" t="s">
         <v>29</v>
@@ -2938,13 +2942,13 @@
         <v>27</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>194</v>
+        <v>186</v>
       </c>
       <c r="M14" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="N14" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="O14" t="s">
         <v>28</v>
@@ -2952,10 +2956,10 @@
     </row>
     <row r="15" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B15" s="7" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="C15" t="s">
         <v>16</v>
@@ -2970,10 +2974,10 @@
         <v>16</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>151</v>
+        <v>144</v>
       </c>
       <c r="H15" s="7" t="s">
-        <v>179</v>
+        <v>171</v>
       </c>
       <c r="I15" t="s">
         <v>29</v>
@@ -2985,13 +2989,13 @@
         <v>27</v>
       </c>
       <c r="L15" s="7" t="s">
-        <v>194</v>
+        <v>186</v>
       </c>
       <c r="M15" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="N15" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="O15" t="s">
         <v>28</v>
@@ -2999,10 +3003,10 @@
     </row>
     <row r="16" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B16" s="7" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="C16" t="s">
         <v>16</v>
@@ -3017,10 +3021,10 @@
         <v>16</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>153</v>
+        <v>146</v>
       </c>
       <c r="H16" s="7" t="s">
-        <v>180</v>
+        <v>172</v>
       </c>
       <c r="I16" t="s">
         <v>29</v>
@@ -3032,13 +3036,13 @@
         <v>27</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>195</v>
+        <v>187</v>
       </c>
       <c r="M16" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="N16" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="O16" t="s">
         <v>28</v>
@@ -3046,10 +3050,10 @@
     </row>
     <row r="17" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B17" s="7" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="C17" t="s">
         <v>16</v>
@@ -3064,10 +3068,10 @@
         <v>16</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>153</v>
+        <v>146</v>
       </c>
       <c r="H17" s="7" t="s">
-        <v>180</v>
+        <v>172</v>
       </c>
       <c r="I17" t="s">
         <v>29</v>
@@ -3079,13 +3083,13 @@
         <v>27</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>195</v>
+        <v>187</v>
       </c>
       <c r="M17" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="N17" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="O17" t="s">
         <v>28</v>
@@ -3093,10 +3097,10 @@
     </row>
     <row r="18" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B18" s="7" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="C18" t="s">
         <v>16</v>
@@ -3111,10 +3115,10 @@
         <v>16</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>155</v>
+        <v>148</v>
       </c>
       <c r="H18" s="7" t="s">
-        <v>181</v>
+        <v>173</v>
       </c>
       <c r="I18" t="s">
         <v>29</v>
@@ -3126,13 +3130,13 @@
         <v>27</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>196</v>
+        <v>188</v>
       </c>
       <c r="M18" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="N18" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="O18" t="s">
         <v>28</v>
@@ -3140,10 +3144,10 @@
     </row>
     <row r="19" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B19" s="7" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="C19" t="s">
         <v>16</v>
@@ -3158,10 +3162,10 @@
         <v>16</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>155</v>
+        <v>148</v>
       </c>
       <c r="H19" s="7" t="s">
-        <v>181</v>
+        <v>173</v>
       </c>
       <c r="I19" t="s">
         <v>29</v>
@@ -3173,13 +3177,13 @@
         <v>27</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>196</v>
+        <v>188</v>
       </c>
       <c r="M19" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="N19" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="O19" t="s">
         <v>28</v>
@@ -3187,10 +3191,10 @@
     </row>
     <row r="20" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="B20" s="7" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="C20" t="s">
         <v>16</v>
@@ -3205,10 +3209,10 @@
         <v>16</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>155</v>
+        <v>148</v>
       </c>
       <c r="H20" s="7" t="s">
-        <v>181</v>
+        <v>173</v>
       </c>
       <c r="I20" t="s">
         <v>29</v>
@@ -3220,13 +3224,13 @@
         <v>27</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>196</v>
+        <v>188</v>
       </c>
       <c r="M20" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="N20" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="O20" t="s">
         <v>28</v>
@@ -3234,10 +3238,10 @@
     </row>
     <row r="21" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="B21" s="7" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="C21" t="s">
         <v>16</v>
@@ -3252,10 +3256,10 @@
         <v>16</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>157</v>
+        <v>150</v>
       </c>
       <c r="H21" s="7" t="s">
-        <v>182</v>
+        <v>174</v>
       </c>
       <c r="I21" t="s">
         <v>29</v>
@@ -3267,13 +3271,13 @@
         <v>27</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>197</v>
+        <v>189</v>
       </c>
       <c r="M21" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="N21" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="O21" t="s">
         <v>28</v>
@@ -3281,10 +3285,10 @@
     </row>
     <row r="22" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B22" s="7" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="C22" t="s">
         <v>16</v>
@@ -3299,13 +3303,13 @@
         <v>16</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>157</v>
+        <v>150</v>
       </c>
       <c r="H22" s="7" t="s">
-        <v>182</v>
+        <v>174</v>
       </c>
       <c r="I22" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="J22" t="s">
         <v>40</v>
@@ -3314,13 +3318,13 @@
         <v>27</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>197</v>
+        <v>189</v>
       </c>
       <c r="M22" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="N22" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="O22" t="s">
         <v>28</v>
@@ -3328,10 +3332,10 @@
     </row>
     <row r="23" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="B23" s="7" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="C23" t="s">
         <v>16</v>
@@ -3346,13 +3350,13 @@
         <v>16</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>157</v>
+        <v>150</v>
       </c>
       <c r="H23" s="7" t="s">
-        <v>182</v>
+        <v>174</v>
       </c>
       <c r="I23" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="J23" t="s">
         <v>40</v>
@@ -3361,13 +3365,13 @@
         <v>27</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>197</v>
+        <v>189</v>
       </c>
       <c r="M23" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="N23" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="O23" t="s">
         <v>28</v>
@@ -3375,10 +3379,10 @@
     </row>
     <row r="24" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="B24" s="7" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="C24" t="s">
         <v>16</v>
@@ -3393,10 +3397,10 @@
         <v>16</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>159</v>
+        <v>152</v>
       </c>
       <c r="H24" s="7" t="s">
-        <v>183</v>
+        <v>175</v>
       </c>
       <c r="I24" t="s">
         <v>29</v>
@@ -3408,13 +3412,13 @@
         <v>27</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>198</v>
+        <v>190</v>
       </c>
       <c r="M24" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="N24" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="O24" t="s">
         <v>28</v>
@@ -3422,10 +3426,10 @@
     </row>
     <row r="25" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="B25" s="7" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="C25" t="s">
         <v>16</v>
@@ -3440,13 +3444,13 @@
         <v>16</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>159</v>
+        <v>152</v>
       </c>
       <c r="H25" s="7" t="s">
-        <v>183</v>
+        <v>175</v>
       </c>
       <c r="I25" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="J25" t="s">
         <v>40</v>
@@ -3455,13 +3459,13 @@
         <v>27</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>198</v>
+        <v>190</v>
       </c>
       <c r="M25" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="N25" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="O25" t="s">
         <v>28</v>
@@ -3469,31 +3473,31 @@
     </row>
     <row r="26" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
+        <v>76</v>
+      </c>
+      <c r="B26" s="7" t="s">
+        <v>118</v>
+      </c>
+      <c r="C26" t="s">
+        <v>16</v>
+      </c>
+      <c r="D26" t="s">
+        <v>16</v>
+      </c>
+      <c r="E26" t="s">
+        <v>16</v>
+      </c>
+      <c r="F26" t="s">
+        <v>16</v>
+      </c>
+      <c r="G26" s="7" t="s">
+        <v>152</v>
+      </c>
+      <c r="H26" s="7" t="s">
+        <v>175</v>
+      </c>
+      <c r="I26" t="s">
         <v>77</v>
-      </c>
-      <c r="B26" s="7" t="s">
-        <v>119</v>
-      </c>
-      <c r="C26" t="s">
-        <v>16</v>
-      </c>
-      <c r="D26" t="s">
-        <v>16</v>
-      </c>
-      <c r="E26" t="s">
-        <v>16</v>
-      </c>
-      <c r="F26" t="s">
-        <v>16</v>
-      </c>
-      <c r="G26" s="7" t="s">
-        <v>159</v>
-      </c>
-      <c r="H26" s="7" t="s">
-        <v>183</v>
-      </c>
-      <c r="I26" t="s">
-        <v>78</v>
       </c>
       <c r="J26" t="s">
         <v>40</v>
@@ -3502,13 +3506,13 @@
         <v>27</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>198</v>
+        <v>190</v>
       </c>
       <c r="M26" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="N26" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="O26" t="s">
         <v>28</v>
@@ -3516,38 +3520,38 @@
     </row>
     <row r="27" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A27" s="7" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="B27" s="7" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="C27" s="7"/>
       <c r="D27" s="7"/>
       <c r="E27" s="7"/>
       <c r="F27" s="7"/>
       <c r="G27" s="7" t="s">
-        <v>161</v>
+        <v>154</v>
       </c>
       <c r="H27" s="7" t="s">
-        <v>184</v>
+        <v>176</v>
       </c>
       <c r="I27" s="7" t="s">
         <v>29</v>
       </c>
       <c r="J27" s="7" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="K27" s="7" t="s">
         <v>27</v>
       </c>
       <c r="L27" s="7" t="s">
-        <v>199</v>
+        <v>191</v>
       </c>
       <c r="M27" s="7" t="s">
+        <v>88</v>
+      </c>
+      <c r="N27" s="7" t="s">
         <v>89</v>
-      </c>
-      <c r="N27" s="7" t="s">
-        <v>90</v>
       </c>
       <c r="O27" s="7" t="s">
         <v>28</v>
@@ -3555,38 +3559,38 @@
     </row>
     <row r="28" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A28" s="7" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="B28" s="7" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="C28" s="7"/>
       <c r="D28" s="7"/>
       <c r="E28" s="7"/>
       <c r="F28" s="7"/>
       <c r="G28" s="7" t="s">
-        <v>161</v>
+        <v>154</v>
       </c>
       <c r="H28" s="7" t="s">
-        <v>184</v>
+        <v>176</v>
       </c>
       <c r="I28" s="7" t="s">
         <v>29</v>
       </c>
       <c r="J28" s="7" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="K28" s="7" t="s">
         <v>27</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>199</v>
+        <v>191</v>
       </c>
       <c r="M28" s="7" t="s">
+        <v>88</v>
+      </c>
+      <c r="N28" s="7" t="s">
         <v>89</v>
-      </c>
-      <c r="N28" s="7" t="s">
-        <v>90</v>
       </c>
       <c r="O28" s="7" t="s">
         <v>28</v>
@@ -3594,38 +3598,38 @@
     </row>
     <row r="29" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A29" s="7" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="B29" s="7" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="C29" s="7"/>
       <c r="D29" s="7"/>
       <c r="E29" s="7"/>
       <c r="F29" s="7"/>
       <c r="G29" s="7" t="s">
-        <v>163</v>
+        <v>156</v>
       </c>
       <c r="H29" s="7" t="s">
-        <v>185</v>
+        <v>177</v>
       </c>
       <c r="I29" s="7" t="s">
         <v>29</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="K29" s="7" t="s">
         <v>27</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>200</v>
+        <v>192</v>
       </c>
       <c r="M29" s="7" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="N29" s="7" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="O29" s="7" t="s">
         <v>28</v>
@@ -3633,38 +3637,38 @@
     </row>
     <row r="30" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A30" s="7" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="B30" s="7" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="C30" s="7"/>
       <c r="D30" s="7"/>
       <c r="E30" s="7"/>
       <c r="F30" s="7"/>
       <c r="G30" s="7" t="s">
-        <v>163</v>
+        <v>156</v>
       </c>
       <c r="H30" s="7" t="s">
-        <v>185</v>
+        <v>177</v>
       </c>
       <c r="I30" s="7" t="s">
         <v>29</v>
       </c>
       <c r="J30" s="7" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="K30" s="7" t="s">
         <v>27</v>
       </c>
       <c r="L30" s="7" t="s">
-        <v>200</v>
+        <v>192</v>
       </c>
       <c r="M30" s="7" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="N30" s="7" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="O30" s="7" t="s">
         <v>28</v>
@@ -3672,38 +3676,38 @@
     </row>
     <row r="31" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A31" s="7" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="B31" s="7" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="C31" s="7"/>
       <c r="D31" s="7"/>
       <c r="E31" s="7"/>
       <c r="F31" s="7"/>
       <c r="G31" s="7" t="s">
-        <v>165</v>
+        <v>158</v>
       </c>
       <c r="H31" s="7" t="s">
-        <v>186</v>
+        <v>178</v>
       </c>
       <c r="I31" s="7" t="s">
         <v>29</v>
       </c>
       <c r="J31" s="7" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="K31" s="7" t="s">
         <v>27</v>
       </c>
       <c r="L31" s="7" t="s">
-        <v>201</v>
+        <v>193</v>
       </c>
       <c r="M31" s="7" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="N31" s="7" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="O31" s="7" t="s">
         <v>28</v>
@@ -3711,38 +3715,38 @@
     </row>
     <row r="32" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A32" s="7" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="B32" s="7" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="C32" s="7"/>
       <c r="D32" s="7"/>
       <c r="E32" s="7"/>
       <c r="F32" s="7"/>
       <c r="G32" s="7" t="s">
-        <v>165</v>
+        <v>158</v>
       </c>
       <c r="H32" s="7" t="s">
-        <v>186</v>
+        <v>178</v>
       </c>
       <c r="I32" s="7" t="s">
         <v>29</v>
       </c>
       <c r="J32" s="7" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="K32" s="7" t="s">
         <v>27</v>
       </c>
       <c r="L32" s="7" t="s">
-        <v>201</v>
+        <v>193</v>
       </c>
       <c r="M32" s="7" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="N32" s="7" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="O32" s="7" t="s">
         <v>28</v>
@@ -3750,38 +3754,38 @@
     </row>
     <row r="33" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A33" s="7" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="B33" s="7" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="C33" s="7"/>
       <c r="D33" s="7"/>
       <c r="E33" s="7"/>
       <c r="F33" s="7"/>
       <c r="G33" s="7" t="s">
-        <v>167</v>
+        <v>160</v>
       </c>
       <c r="H33" s="7" t="s">
-        <v>187</v>
+        <v>179</v>
       </c>
       <c r="I33" s="7" t="s">
         <v>29</v>
       </c>
       <c r="J33" s="7" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="K33" s="7" t="s">
         <v>27</v>
       </c>
       <c r="L33" s="7" t="s">
-        <v>202</v>
+        <v>194</v>
       </c>
       <c r="M33" s="7" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="N33" s="7" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="O33" s="7" t="s">
         <v>28</v>
@@ -3789,38 +3793,38 @@
     </row>
     <row r="34" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A34" s="7" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="B34" s="7" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="C34" s="7"/>
       <c r="D34" s="7"/>
       <c r="E34" s="7"/>
       <c r="F34" s="7"/>
       <c r="G34" s="7" t="s">
-        <v>167</v>
+        <v>160</v>
       </c>
       <c r="H34" s="7" t="s">
-        <v>187</v>
+        <v>179</v>
       </c>
       <c r="I34" s="7" t="s">
         <v>29</v>
       </c>
       <c r="J34" s="7" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="K34" s="7" t="s">
         <v>27</v>
       </c>
       <c r="L34" s="7" t="s">
-        <v>202</v>
+        <v>194</v>
       </c>
       <c r="M34" s="7" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="N34" s="7" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="O34" s="7" t="s">
         <v>28</v>
@@ -3828,10 +3832,10 @@
     </row>
     <row r="35" spans="1:15" s="7" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A35" s="7" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="B35" s="7" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="C35" s="7" t="s">
         <v>16</v>
@@ -3846,10 +3850,10 @@
         <v>16</v>
       </c>
       <c r="G35" s="7" t="s">
-        <v>169</v>
+        <v>162</v>
       </c>
       <c r="H35" s="7" t="s">
-        <v>188</v>
+        <v>180</v>
       </c>
       <c r="I35" s="7" t="s">
         <v>29</v>
@@ -3861,13 +3865,13 @@
         <v>27</v>
       </c>
       <c r="L35" s="7" t="s">
-        <v>203</v>
+        <v>195</v>
       </c>
       <c r="M35" s="7" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="N35" s="7" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="O35" s="7" t="s">
         <v>28</v>
@@ -3875,10 +3879,10 @@
     </row>
     <row r="36" spans="1:15" s="7" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A36" s="7" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="B36" s="7" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="C36" s="7" t="s">
         <v>16</v>
@@ -3893,10 +3897,10 @@
         <v>16</v>
       </c>
       <c r="G36" s="7" t="s">
-        <v>169</v>
+        <v>162</v>
       </c>
       <c r="H36" s="7" t="s">
-        <v>188</v>
+        <v>180</v>
       </c>
       <c r="I36" s="7" t="s">
         <v>29</v>
@@ -3908,13 +3912,13 @@
         <v>27</v>
       </c>
       <c r="L36" s="7" t="s">
-        <v>203</v>
+        <v>195</v>
       </c>
       <c r="M36" s="7" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="N36" s="7" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="O36" s="7" t="s">
         <v>28</v>
@@ -3922,10 +3926,10 @@
     </row>
     <row r="37" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A37" s="7" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="B37" s="7" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="C37" s="7" t="s">
         <v>16</v>
@@ -3940,28 +3944,28 @@
         <v>16</v>
       </c>
       <c r="G37" s="7" t="s">
-        <v>169</v>
+        <v>162</v>
       </c>
       <c r="H37" s="7" t="s">
-        <v>188</v>
+        <v>180</v>
       </c>
       <c r="I37" s="7" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="J37" s="7" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="K37" s="7" t="s">
         <v>27</v>
       </c>
       <c r="L37" s="7" t="s">
-        <v>203</v>
+        <v>195</v>
       </c>
       <c r="M37" s="7" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="N37" s="7" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="O37" s="7" t="s">
         <v>28</v>
@@ -3969,10 +3973,10 @@
     </row>
     <row r="38" spans="1:15" s="7" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A38" s="7" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="B38" s="7" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="C38" s="7" t="s">
         <v>16</v>
@@ -3987,10 +3991,10 @@
         <v>16</v>
       </c>
       <c r="G38" s="7" t="s">
-        <v>170</v>
+        <v>163</v>
       </c>
       <c r="H38" s="7" t="s">
-        <v>189</v>
+        <v>181</v>
       </c>
       <c r="I38" s="7" t="s">
         <v>29</v>
@@ -4002,13 +4006,13 @@
         <v>27</v>
       </c>
       <c r="L38" s="7" t="s">
-        <v>204</v>
+        <v>196</v>
       </c>
       <c r="M38" s="7" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="N38" s="7" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="O38" s="7" t="s">
         <v>28</v>
@@ -4016,10 +4020,10 @@
     </row>
     <row r="39" spans="1:15" s="7" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A39" s="7" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="B39" s="7" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="C39" s="7" t="s">
         <v>16</v>
@@ -4034,10 +4038,10 @@
         <v>16</v>
       </c>
       <c r="G39" s="7" t="s">
-        <v>170</v>
+        <v>163</v>
       </c>
       <c r="H39" s="7" t="s">
-        <v>189</v>
+        <v>181</v>
       </c>
       <c r="I39" s="7" t="s">
         <v>29</v>
@@ -4049,13 +4053,13 @@
         <v>27</v>
       </c>
       <c r="L39" s="7" t="s">
-        <v>204</v>
+        <v>196</v>
       </c>
       <c r="M39" s="7" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="N39" s="7" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="O39" s="7" t="s">
         <v>28</v>
@@ -4063,46 +4067,46 @@
     </row>
     <row r="40" spans="1:15" s="7" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A40" s="7" t="s">
+        <v>101</v>
+      </c>
+      <c r="B40" s="7" t="s">
+        <v>118</v>
+      </c>
+      <c r="C40" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="D40" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="E40" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="F40" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="G40" s="7" t="s">
+        <v>163</v>
+      </c>
+      <c r="H40" s="7" t="s">
+        <v>181</v>
+      </c>
+      <c r="I40" s="7" t="s">
+        <v>97</v>
+      </c>
+      <c r="J40" s="7" t="s">
+        <v>81</v>
+      </c>
+      <c r="K40" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="L40" s="7" t="s">
+        <v>196</v>
+      </c>
+      <c r="M40" s="7" t="s">
+        <v>96</v>
+      </c>
+      <c r="N40" s="7" t="s">
         <v>102</v>
-      </c>
-      <c r="B40" s="7" t="s">
-        <v>119</v>
-      </c>
-      <c r="C40" s="7" t="s">
-        <v>16</v>
-      </c>
-      <c r="D40" s="7" t="s">
-        <v>16</v>
-      </c>
-      <c r="E40" s="7" t="s">
-        <v>16</v>
-      </c>
-      <c r="F40" s="7" t="s">
-        <v>16</v>
-      </c>
-      <c r="G40" s="7" t="s">
-        <v>170</v>
-      </c>
-      <c r="H40" s="7" t="s">
-        <v>189</v>
-      </c>
-      <c r="I40" s="7" t="s">
-        <v>98</v>
-      </c>
-      <c r="J40" s="7" t="s">
-        <v>82</v>
-      </c>
-      <c r="K40" s="7" t="s">
-        <v>27</v>
-      </c>
-      <c r="L40" s="7" t="s">
-        <v>204</v>
-      </c>
-      <c r="M40" s="7" t="s">
-        <v>97</v>
-      </c>
-      <c r="N40" s="7" t="s">
-        <v>103</v>
       </c>
       <c r="O40" s="7" t="s">
         <v>28</v>
@@ -4110,10 +4114,10 @@
     </row>
     <row r="41" spans="1:15" s="7" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A41" s="7" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="B41" s="7" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="C41" s="7" t="s">
         <v>16</v>
@@ -4128,10 +4132,10 @@
         <v>16</v>
       </c>
       <c r="G41" s="7" t="s">
-        <v>172</v>
+        <v>165</v>
       </c>
       <c r="H41" s="7" t="s">
-        <v>190</v>
+        <v>182</v>
       </c>
       <c r="I41" s="7" t="s">
         <v>29</v>
@@ -4143,13 +4147,13 @@
         <v>27</v>
       </c>
       <c r="L41" s="7" t="s">
-        <v>205</v>
+        <v>197</v>
       </c>
       <c r="M41" s="7" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="N41" s="7" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="O41" s="7" t="s">
         <v>28</v>
@@ -4157,10 +4161,10 @@
     </row>
     <row r="42" spans="1:15" s="7" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A42" s="7" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="B42" s="7" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="C42" s="7" t="s">
         <v>16</v>
@@ -4175,10 +4179,10 @@
         <v>16</v>
       </c>
       <c r="G42" s="7" t="s">
-        <v>172</v>
+        <v>165</v>
       </c>
       <c r="H42" s="7" t="s">
-        <v>190</v>
+        <v>182</v>
       </c>
       <c r="I42" s="7" t="s">
         <v>29</v>
@@ -4190,13 +4194,13 @@
         <v>27</v>
       </c>
       <c r="L42" s="7" t="s">
-        <v>205</v>
+        <v>197</v>
       </c>
       <c r="M42" s="7" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="N42" s="7" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="O42" s="7" t="s">
         <v>28</v>
@@ -4204,46 +4208,46 @@
     </row>
     <row r="43" spans="1:15" s="7" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A43" s="7" t="s">
+        <v>105</v>
+      </c>
+      <c r="B43" s="7" t="s">
+        <v>118</v>
+      </c>
+      <c r="C43" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="D43" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="E43" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="F43" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="G43" s="7" t="s">
+        <v>165</v>
+      </c>
+      <c r="H43" s="7" t="s">
+        <v>182</v>
+      </c>
+      <c r="I43" s="7" t="s">
+        <v>97</v>
+      </c>
+      <c r="J43" s="7" t="s">
+        <v>81</v>
+      </c>
+      <c r="K43" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="L43" s="7" t="s">
+        <v>197</v>
+      </c>
+      <c r="M43" s="7" t="s">
+        <v>96</v>
+      </c>
+      <c r="N43" s="7" t="s">
         <v>106</v>
-      </c>
-      <c r="B43" s="7" t="s">
-        <v>119</v>
-      </c>
-      <c r="C43" s="7" t="s">
-        <v>16</v>
-      </c>
-      <c r="D43" s="7" t="s">
-        <v>16</v>
-      </c>
-      <c r="E43" s="7" t="s">
-        <v>16</v>
-      </c>
-      <c r="F43" s="7" t="s">
-        <v>16</v>
-      </c>
-      <c r="G43" s="7" t="s">
-        <v>172</v>
-      </c>
-      <c r="H43" s="7" t="s">
-        <v>190</v>
-      </c>
-      <c r="I43" s="7" t="s">
-        <v>98</v>
-      </c>
-      <c r="J43" s="7" t="s">
-        <v>82</v>
-      </c>
-      <c r="K43" s="7" t="s">
-        <v>27</v>
-      </c>
-      <c r="L43" s="7" t="s">
-        <v>205</v>
-      </c>
-      <c r="M43" s="7" t="s">
-        <v>97</v>
-      </c>
-      <c r="N43" s="7" t="s">
-        <v>107</v>
       </c>
       <c r="O43" s="7" t="s">
         <v>28</v>
@@ -4251,16 +4255,16 @@
     </row>
     <row r="44" spans="1:15" s="7" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A44" s="7" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="B44" s="7" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="G44" s="7" t="s">
-        <v>151</v>
+        <v>144</v>
       </c>
       <c r="H44" s="7" t="s">
-        <v>179</v>
+        <v>171</v>
       </c>
       <c r="I44" s="7" t="s">
         <v>29</v>
@@ -4272,13 +4276,13 @@
         <v>27</v>
       </c>
       <c r="L44" s="7" t="s">
-        <v>194</v>
+        <v>186</v>
       </c>
       <c r="M44" s="7" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="N44" s="7" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="O44" s="7" t="s">
         <v>28</v>
@@ -4286,16 +4290,16 @@
     </row>
     <row r="45" spans="1:15" s="7" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A45" s="7" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="B45" s="7" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="G45" s="7" t="s">
-        <v>153</v>
+        <v>146</v>
       </c>
       <c r="H45" s="7" t="s">
-        <v>180</v>
+        <v>172</v>
       </c>
       <c r="I45" s="7" t="s">
         <v>29</v>
@@ -4307,13 +4311,13 @@
         <v>27</v>
       </c>
       <c r="L45" s="7" t="s">
-        <v>195</v>
+        <v>187</v>
       </c>
       <c r="M45" s="7" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="N45" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="O45" s="7" t="s">
         <v>28</v>
@@ -4321,16 +4325,16 @@
     </row>
     <row r="46" spans="1:15" s="7" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A46" s="7" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="B46" s="7" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="G46" s="7" t="s">
-        <v>155</v>
+        <v>148</v>
       </c>
       <c r="H46" s="7" t="s">
-        <v>181</v>
+        <v>173</v>
       </c>
       <c r="I46" s="7" t="s">
         <v>29</v>
@@ -4342,13 +4346,13 @@
         <v>27</v>
       </c>
       <c r="L46" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="M46" s="7" t="s">
+        <v>73</v>
+      </c>
+      <c r="N46" s="7" t="s">
         <v>64</v>
-      </c>
-      <c r="M46" s="7" t="s">
-        <v>74</v>
-      </c>
-      <c r="N46" s="7" t="s">
-        <v>65</v>
       </c>
       <c r="O46" s="7" t="s">
         <v>28</v>
@@ -4356,16 +4360,16 @@
     </row>
     <row r="47" spans="1:15" s="7" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A47" s="7" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="B47" s="7" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="G47" s="7" t="s">
-        <v>157</v>
+        <v>150</v>
       </c>
       <c r="H47" s="7" t="s">
-        <v>182</v>
+        <v>174</v>
       </c>
       <c r="I47" s="7" t="s">
         <v>29</v>
@@ -4377,13 +4381,13 @@
         <v>27</v>
       </c>
       <c r="L47" s="7" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="M47" s="7" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="N47" s="7" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="O47" s="7" t="s">
         <v>28</v>
@@ -4391,16 +4395,16 @@
     </row>
     <row r="48" spans="1:15" s="7" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A48" s="7" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="B48" s="7" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="G48" s="7" t="s">
-        <v>159</v>
+        <v>152</v>
       </c>
       <c r="H48" s="7" t="s">
-        <v>183</v>
+        <v>175</v>
       </c>
       <c r="I48" s="7" t="s">
         <v>29</v>
@@ -4412,13 +4416,13 @@
         <v>27</v>
       </c>
       <c r="L48" s="7" t="s">
+        <v>72</v>
+      </c>
+      <c r="M48" s="7" t="s">
         <v>73</v>
       </c>
-      <c r="M48" s="7" t="s">
-        <v>74</v>
-      </c>
       <c r="N48" s="7" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="O48" s="7" t="s">
         <v>28</v>

--- a/sources/case/ApprovalTypes.xlsx
+++ b/sources/case/ApprovalTypes.xlsx
@@ -805,13 +805,13 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>$csv{data.AllTypes.employee_offboarddismissdismiss.type_id}</t>
-  </si>
-  <si>
-    <t>[{"uuid":"$csv{data.AllTypes.employee_offboarddismissdismiss.uuid}","approvers":[{"uuid":"","type":"reporting_to","value":"1"},{"uuid":"","type":"reporting_to","value":"2"},{"uuid":"","type":"reporting_to","value":"3"},{"uuid":"","type":"reporting_to","value":"4"},{"uuid":"","type":"login_user_department_manager","value":""},{"uuid":"","type":"department_manager","value":"${organization_2.uuid}"},{"uuid":"","type":"employee","value":"$csv{data.Auth.user_1.employee_id}"}],"target_type":"","target_value":"!!String{}"}]</t>
-  </si>
-  <si>
-    <t>[{"target_value":"!!String{}","target_type":"","approvers":[{"type":"reporting_to","uuid":"","value":"1"},{"type":"reporting_to","uuid":"","value":"2"},{"type":"reporting_to","uuid":"","value":"3"},{"type":"reporting_to","uuid":"","value":"4"},{"type":"login_user_department_manager","uuid":"","value":""},{"type":"department_manager","uuid":"","value":"${organization_2.uuid}"},{"type":"employee","uuid":"","value":"$csv{data.Auth.user_1.employee_id}"}],"uuid":"$csv{data.AllTypes.employee_offboarddismissdismiss.uuid}"},{"target_value":"!!String{\"department\":[\"${organization_1.uuid}\"],\"employee\":[]}","target_type":"sponsor","approvers":[{"type":"login_user_department_manager","uuid":"","value":""},{"type":"department_manager","uuid":"","value":"${organization_2.uuid}"},{"type":"employee","uuid":"","value":"$csv{data.Auth.user_1.employee_id}"}],"uuid":""},{"uuid":"","approvers":[{"uuid":"","type":"login_user_department_manager","value":""},{"uuid":"","type":"employee","value":"$csv{data.Auth.user_1.employee_id}"},{"uuid":"","type":"employee","value":"$csv{data.Auth.user_houlong.employee_id}"}],"target_type":"sponsor","target_value":"!!String{\"department\":[\"${organization_2.uuid}\"],\"employee\":[]}"}]</t>
+    <t>$csv{data.AllTypes.employee_offboarddismiss.type_id}</t>
+  </si>
+  <si>
+    <t>[{"uuid":"$csv{data.AllTypes.employee_offboarddismiss.uuid}","approvers":[{"uuid":"","type":"reporting_to","value":"1"},{"uuid":"","type":"reporting_to","value":"2"},{"uuid":"","type":"reporting_to","value":"3"},{"uuid":"","type":"reporting_to","value":"4"},{"uuid":"","type":"login_user_department_manager","value":""},{"uuid":"","type":"department_manager","value":"${organization_2.uuid}"},{"uuid":"","type":"employee","value":"$csv{data.Auth.user_1.employee_id}"}],"target_type":"","target_value":"!!String{}"}]</t>
+  </si>
+  <si>
+    <t>[{"target_value":"!!String{}","target_type":"","approvers":[{"type":"reporting_to","uuid":"","value":"1"},{"type":"reporting_to","uuid":"","value":"2"},{"type":"reporting_to","uuid":"","value":"3"},{"type":"reporting_to","uuid":"","value":"4"},{"type":"login_user_department_manager","uuid":"","value":""},{"type":"department_manager","uuid":"","value":"${organization_2.uuid}"},{"type":"employee","uuid":"","value":"$csv{data.Auth.user_1.employee_id}"}],"uuid":"$csv{data.AllTypes.employee_offboarddismiss.uuid}"},{"target_value":"!!String{\"department\":[\"${organization_1.uuid}\"],\"employee\":[]}","target_type":"sponsor","approvers":[{"type":"login_user_department_manager","uuid":"","value":""},{"type":"department_manager","uuid":"","value":"${organization_2.uuid}"},{"type":"employee","uuid":"","value":"$csv{data.Auth.user_1.employee_id}"}],"uuid":""},{"uuid":"","approvers":[{"uuid":"","type":"login_user_department_manager","value":""},{"uuid":"","type":"employee","value":"$csv{data.Auth.user_1.employee_id}"},{"uuid":"","type":"employee","value":"$csv{data.Auth.user_houlong.employee_id}"}],"target_type":"sponsor","target_value":"!!String{\"department\":[\"${organization_2.uuid}\"],\"employee\":[]}"}]</t>
   </si>
 </sst>
 </file>
@@ -1262,7 +1262,7 @@
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="D17" sqref="D17"/>
+      <selection pane="bottomRight" activeCell="C20" sqref="C20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>

--- a/sources/case/ApprovalTypes.xlsx
+++ b/sources/case/ApprovalTypes.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7560" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7560" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Base" sheetId="1" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="974" uniqueCount="225">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="974" uniqueCount="222">
   <si>
     <t>API</t>
   </si>
@@ -519,9 +519,6 @@
     <t>$csv{data.AllTypes.employee_probation.type_id}</t>
   </si>
   <si>
-    <t>$csv{data.AllTypes.employee_offboard.type_id}</t>
-  </si>
-  <si>
     <t>[{"target_value":"!!String{}","target_type":"","approvers":[{"type":"reporting_to","uuid":"","value":"1"},{"type":"reporting_to","uuid":"","value":"2"},{"type":"reporting_to","uuid":"","value":"3"},{"type":"reporting_to","uuid":"","value":"4"},{"type":"login_user_department_manager","uuid":"","value":""},{"type":"department_manager","uuid":"","value":"${organization_2.uuid}"},{"type":"employee","uuid":"","value":"$csv{data.Auth.user_1.employee_id}"}],"uuid":"$csv{data.AllTypes.employee_offer.uuid}"}]</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -617,9 +614,6 @@
   </si>
   <si>
     <t>$csv{data.AllTypes.employee_probation.created_by}</t>
-  </si>
-  <si>
-    <t>$csv{data.AllTypes.employee_offboard.created_by}</t>
   </si>
   <si>
     <t>$csv{data.AllTypes.employee_offer.created_by}</t>
@@ -797,14 +791,6 @@
     <t>$csv{data.AllTypes.employee_offboardresign.created_by}</t>
   </si>
   <si>
-    <t>$csv{data.AllTypes.employee_offboard.type_id}</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>dismiss</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>$csv{data.AllTypes.employee_offboarddismiss.type_id}</t>
   </si>
   <si>
@@ -812,6 +798,9 @@
   </si>
   <si>
     <t>[{"target_value":"!!String{}","target_type":"","approvers":[{"type":"reporting_to","uuid":"","value":"1"},{"type":"reporting_to","uuid":"","value":"2"},{"type":"reporting_to","uuid":"","value":"3"},{"type":"reporting_to","uuid":"","value":"4"},{"type":"login_user_department_manager","uuid":"","value":""},{"type":"department_manager","uuid":"","value":"${organization_2.uuid}"},{"type":"employee","uuid":"","value":"$csv{data.Auth.user_1.employee_id}"}],"uuid":"$csv{data.AllTypes.employee_offboarddismiss.uuid}"},{"target_value":"!!String{\"department\":[\"${organization_1.uuid}\"],\"employee\":[]}","target_type":"sponsor","approvers":[{"type":"login_user_department_manager","uuid":"","value":""},{"type":"department_manager","uuid":"","value":"${organization_2.uuid}"},{"type":"employee","uuid":"","value":"$csv{data.Auth.user_1.employee_id}"}],"uuid":""},{"uuid":"","approvers":[{"uuid":"","type":"login_user_department_manager","value":""},{"uuid":"","type":"employee","value":"$csv{data.Auth.user_1.employee_id}"},{"uuid":"","type":"employee","value":"$csv{data.Auth.user_houlong.employee_id}"}],"target_type":"sponsor","target_value":"!!String{\"department\":[\"${organization_2.uuid}\"],\"employee\":[]}"}]</t>
+  </si>
+  <si>
+    <t>$csv{data.AllTypes.employee_offboarddismiss.created_by}</t>
   </si>
 </sst>
 </file>
@@ -1230,7 +1219,7 @@
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A2" s="4" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="B2" s="1" t="s">
         <v>7</v>
@@ -1258,11 +1247,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G48"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="C20" sqref="C20"/>
+      <selection pane="bottomRight" activeCell="D9" sqref="D9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1330,7 +1319,7 @@
         <v>30</v>
       </c>
       <c r="E3" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="F3" t="s">
         <v>117</v>
@@ -1384,7 +1373,7 @@
         <v>48</v>
       </c>
       <c r="B6" s="7" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="C6" t="s">
         <v>41</v>
@@ -1393,7 +1382,7 @@
         <v>47</v>
       </c>
       <c r="E6" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="F6" t="s">
         <v>17</v>
@@ -1407,7 +1396,7 @@
         <v>49</v>
       </c>
       <c r="B7" s="7" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="C7" t="s">
         <v>40</v>
@@ -1416,7 +1405,7 @@
         <v>43</v>
       </c>
       <c r="E7" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="F7" t="s">
         <v>117</v>
@@ -1430,7 +1419,7 @@
         <v>121</v>
       </c>
       <c r="B8" s="7" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="C8" s="7" t="s">
         <v>41</v>
@@ -1439,7 +1428,7 @@
         <v>47</v>
       </c>
       <c r="E8" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="F8" s="7" t="s">
         <v>17</v>
@@ -1453,16 +1442,16 @@
         <v>45</v>
       </c>
       <c r="B9" s="7" t="s">
-        <v>222</v>
+        <v>218</v>
       </c>
       <c r="C9" t="s">
         <v>41</v>
       </c>
       <c r="D9" t="s">
-        <v>221</v>
+        <v>44</v>
       </c>
       <c r="E9" t="s">
-        <v>223</v>
+        <v>219</v>
       </c>
       <c r="F9" t="s">
         <v>17</v>
@@ -1476,7 +1465,7 @@
         <v>46</v>
       </c>
       <c r="B10" s="7" t="s">
-        <v>222</v>
+        <v>218</v>
       </c>
       <c r="C10" t="s">
         <v>40</v>
@@ -1485,7 +1474,7 @@
         <v>44</v>
       </c>
       <c r="E10" t="s">
-        <v>224</v>
+        <v>220</v>
       </c>
       <c r="F10" t="s">
         <v>117</v>
@@ -1499,13 +1488,13 @@
         <v>50</v>
       </c>
       <c r="B11" s="7" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="C11" t="s">
         <v>41</v>
       </c>
       <c r="E11" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="F11" t="s">
         <v>17</v>
@@ -1519,7 +1508,7 @@
         <v>51</v>
       </c>
       <c r="B12" s="7" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="C12" t="s">
         <v>40</v>
@@ -1539,13 +1528,13 @@
         <v>52</v>
       </c>
       <c r="B13" s="7" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="C13" t="s">
         <v>41</v>
       </c>
       <c r="E13" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="F13" t="s">
         <v>17</v>
@@ -1559,13 +1548,13 @@
         <v>55</v>
       </c>
       <c r="B14" s="7" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="C14" t="s">
         <v>40</v>
       </c>
       <c r="E14" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="F14" t="s">
         <v>117</v>
@@ -1579,13 +1568,13 @@
         <v>56</v>
       </c>
       <c r="B15" s="7" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="C15" t="s">
         <v>40</v>
       </c>
       <c r="E15" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="F15" t="s">
         <v>117</v>
@@ -1599,13 +1588,13 @@
         <v>57</v>
       </c>
       <c r="B16" s="7" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="C16" t="s">
         <v>41</v>
       </c>
       <c r="E16" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="F16" t="s">
         <v>17</v>
@@ -1619,13 +1608,13 @@
         <v>58</v>
       </c>
       <c r="B17" s="7" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="C17" t="s">
         <v>40</v>
       </c>
       <c r="E17" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="F17" t="s">
         <v>117</v>
@@ -1639,13 +1628,13 @@
         <v>61</v>
       </c>
       <c r="B18" s="7" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="C18" t="s">
         <v>41</v>
       </c>
       <c r="E18" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="F18" t="s">
         <v>17</v>
@@ -1659,7 +1648,7 @@
         <v>62</v>
       </c>
       <c r="B19" s="7" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="C19" t="s">
         <v>40</v>
@@ -1679,7 +1668,7 @@
         <v>74</v>
       </c>
       <c r="B20" s="7" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="C20" t="s">
         <v>40</v>
@@ -1699,13 +1688,13 @@
         <v>67</v>
       </c>
       <c r="B21" s="7" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="C21" t="s">
         <v>41</v>
       </c>
       <c r="E21" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="F21" t="s">
         <v>17</v>
@@ -1719,7 +1708,7 @@
         <v>68</v>
       </c>
       <c r="B22" s="7" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="C22" t="s">
         <v>40</v>
@@ -1739,7 +1728,7 @@
         <v>75</v>
       </c>
       <c r="B23" s="7" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="C23" t="s">
         <v>40</v>
@@ -1759,13 +1748,13 @@
         <v>69</v>
       </c>
       <c r="B24" s="7" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="C24" t="s">
         <v>41</v>
       </c>
       <c r="E24" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="F24" t="s">
         <v>17</v>
@@ -1779,7 +1768,7 @@
         <v>70</v>
       </c>
       <c r="B25" s="7" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="C25" t="s">
         <v>40</v>
@@ -1799,7 +1788,7 @@
         <v>76</v>
       </c>
       <c r="B26" s="7" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="C26" t="s">
         <v>40</v>
@@ -1819,14 +1808,14 @@
         <v>78</v>
       </c>
       <c r="B27" s="7" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="C27" s="6" t="s">
         <v>79</v>
       </c>
       <c r="D27" s="6"/>
       <c r="E27" s="6" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="F27" s="6" t="s">
         <v>17</v>
@@ -1840,14 +1829,14 @@
         <v>80</v>
       </c>
       <c r="B28" s="7" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="C28" s="6" t="s">
         <v>81</v>
       </c>
       <c r="D28" s="6"/>
       <c r="E28" s="6" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="F28" s="6" t="s">
         <v>117</v>
@@ -1861,14 +1850,14 @@
         <v>82</v>
       </c>
       <c r="B29" s="7" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="C29" s="6" t="s">
         <v>79</v>
       </c>
       <c r="D29" s="6"/>
       <c r="E29" s="6" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="F29" s="6" t="s">
         <v>17</v>
@@ -1882,14 +1871,14 @@
         <v>83</v>
       </c>
       <c r="B30" s="7" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="C30" s="6" t="s">
         <v>81</v>
       </c>
       <c r="D30" s="6"/>
       <c r="E30" s="6" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="F30" s="6" t="s">
         <v>117</v>
@@ -1903,14 +1892,14 @@
         <v>84</v>
       </c>
       <c r="B31" s="7" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="C31" s="6" t="s">
         <v>79</v>
       </c>
       <c r="D31" s="6"/>
       <c r="E31" s="6" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="F31" s="6" t="s">
         <v>17</v>
@@ -1924,14 +1913,14 @@
         <v>85</v>
       </c>
       <c r="B32" s="7" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="C32" s="6" t="s">
         <v>81</v>
       </c>
       <c r="D32" s="6"/>
       <c r="E32" s="6" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="F32" s="6" t="s">
         <v>117</v>
@@ -1945,14 +1934,14 @@
         <v>86</v>
       </c>
       <c r="B33" s="7" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="C33" s="6" t="s">
         <v>79</v>
       </c>
       <c r="D33" s="6"/>
       <c r="E33" s="6" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="F33" s="6" t="s">
         <v>17</v>
@@ -1966,14 +1955,14 @@
         <v>87</v>
       </c>
       <c r="B34" s="7" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="C34" s="6" t="s">
         <v>81</v>
       </c>
       <c r="D34" s="6"/>
       <c r="E34" s="6" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="F34" s="6" t="s">
         <v>117</v>
@@ -1987,13 +1976,13 @@
         <v>93</v>
       </c>
       <c r="B35" s="7" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="C35" s="7" t="s">
         <v>41</v>
       </c>
       <c r="E35" s="7" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="F35" s="7" t="s">
         <v>17</v>
@@ -2007,13 +1996,13 @@
         <v>94</v>
       </c>
       <c r="B36" s="7" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="C36" s="7" t="s">
         <v>30</v>
       </c>
       <c r="E36" s="7" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="F36" s="7" t="s">
         <v>117</v>
@@ -2027,13 +2016,13 @@
         <v>98</v>
       </c>
       <c r="B37" s="7" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="C37" s="7" t="s">
         <v>81</v>
       </c>
       <c r="E37" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="F37" s="7" t="s">
         <v>117</v>
@@ -2047,7 +2036,7 @@
         <v>107</v>
       </c>
       <c r="B38" s="7" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="C38" s="7" t="s">
         <v>41</v>
@@ -2067,13 +2056,13 @@
         <v>100</v>
       </c>
       <c r="B39" s="7" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="C39" s="7" t="s">
         <v>30</v>
       </c>
       <c r="E39" s="7" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="F39" s="7" t="s">
         <v>117</v>
@@ -2087,13 +2076,13 @@
         <v>101</v>
       </c>
       <c r="B40" s="7" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="C40" s="7" t="s">
         <v>81</v>
       </c>
       <c r="E40" s="7" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="F40" s="7" t="s">
         <v>117</v>
@@ -2107,13 +2096,13 @@
         <v>103</v>
       </c>
       <c r="B41" s="7" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="C41" s="7" t="s">
         <v>41</v>
       </c>
       <c r="E41" s="7" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="F41" s="7" t="s">
         <v>17</v>
@@ -2127,13 +2116,13 @@
         <v>104</v>
       </c>
       <c r="B42" s="7" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="C42" s="7" t="s">
         <v>30</v>
       </c>
       <c r="E42" s="7" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="F42" s="7" t="s">
         <v>117</v>
@@ -2147,13 +2136,13 @@
         <v>105</v>
       </c>
       <c r="B43" s="7" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="C43" s="7" t="s">
         <v>81</v>
       </c>
       <c r="E43" s="7" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="F43" s="7" t="s">
         <v>117</v>
@@ -2167,7 +2156,7 @@
         <v>108</v>
       </c>
       <c r="B44" s="7" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="C44" s="7" t="s">
         <v>113</v>
@@ -2187,7 +2176,7 @@
         <v>109</v>
       </c>
       <c r="B45" s="7" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="C45" s="7" t="s">
         <v>114</v>
@@ -2207,7 +2196,7 @@
         <v>110</v>
       </c>
       <c r="B46" s="7" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="C46" s="7" t="s">
         <v>115</v>
@@ -2227,7 +2216,7 @@
         <v>111</v>
       </c>
       <c r="B47" s="7" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="C47" s="7" t="s">
         <v>113</v>
@@ -2247,7 +2236,7 @@
         <v>112</v>
       </c>
       <c r="B48" s="7" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="C48" s="7" t="s">
         <v>113</v>
@@ -2273,11 +2262,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:O48"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane xSplit="1" ySplit="1" topLeftCell="D2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="G9" sqref="G9"/>
+      <selection pane="bottomRight" activeCell="G14" sqref="G14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -2319,7 +2308,7 @@
         <v>22</v>
       </c>
       <c r="H1" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="I1" t="s">
         <v>15</v>
@@ -2366,7 +2355,7 @@
         <v>137</v>
       </c>
       <c r="H2" s="7" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="I2" t="s">
         <v>29</v>
@@ -2378,7 +2367,7 @@
         <v>27</v>
       </c>
       <c r="L2" s="7" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="M2" t="s">
         <v>31</v>
@@ -2413,7 +2402,7 @@
         <v>137</v>
       </c>
       <c r="H3" s="7" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="I3" t="s">
         <v>29</v>
@@ -2425,7 +2414,7 @@
         <v>27</v>
       </c>
       <c r="L3" s="7" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="M3" t="s">
         <v>31</v>
@@ -2460,7 +2449,7 @@
         <v>139</v>
       </c>
       <c r="H4" s="7" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="I4" t="s">
         <v>29</v>
@@ -2472,7 +2461,7 @@
         <v>27</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="M4" t="s">
         <v>31</v>
@@ -2507,7 +2496,7 @@
         <v>139</v>
       </c>
       <c r="H5" s="7" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="I5" t="s">
         <v>29</v>
@@ -2519,7 +2508,7 @@
         <v>27</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="M5" t="s">
         <v>31</v>
@@ -2551,10 +2540,10 @@
         <v>16</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="H6" s="7" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="I6" t="s">
         <v>29</v>
@@ -2566,13 +2555,13 @@
         <v>27</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="M6" t="s">
         <v>31</v>
       </c>
       <c r="N6" s="7" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="O6" t="s">
         <v>28</v>
@@ -2598,10 +2587,10 @@
         <v>16</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="H7" s="7" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="I7" t="s">
         <v>29</v>
@@ -2613,13 +2602,13 @@
         <v>27</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="M7" t="s">
         <v>31</v>
       </c>
       <c r="N7" s="7" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="O7" t="s">
         <v>28</v>
@@ -2645,10 +2634,10 @@
         <v>16</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="H8" s="7" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="I8" s="7" t="s">
         <v>29</v>
@@ -2660,13 +2649,13 @@
         <v>27</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="M8" s="7" t="s">
         <v>31</v>
       </c>
       <c r="N8" s="7" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="O8" s="7" t="s">
         <v>28</v>
@@ -2692,10 +2681,10 @@
         <v>16</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="H9" s="7" t="s">
-        <v>169</v>
+        <v>221</v>
       </c>
       <c r="I9" t="s">
         <v>29</v>
@@ -2707,13 +2696,13 @@
         <v>27</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="M9" t="s">
         <v>31</v>
       </c>
       <c r="N9" s="7" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="O9" t="s">
         <v>28</v>
@@ -2739,10 +2728,10 @@
         <v>16</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>140</v>
+        <v>218</v>
       </c>
       <c r="H10" s="7" t="s">
-        <v>169</v>
+        <v>221</v>
       </c>
       <c r="I10" t="s">
         <v>29</v>
@@ -2754,13 +2743,13 @@
         <v>27</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="M10" t="s">
         <v>31</v>
       </c>
       <c r="N10" s="7" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="O10" t="s">
         <v>28</v>
@@ -2786,10 +2775,10 @@
         <v>16</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="H11" s="7" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="I11" t="s">
         <v>29</v>
@@ -2801,7 +2790,7 @@
         <v>27</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="M11" t="s">
         <v>31</v>
@@ -2833,10 +2822,10 @@
         <v>16</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="H12" s="7" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="I12" t="s">
         <v>29</v>
@@ -2848,7 +2837,7 @@
         <v>27</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="M12" t="s">
         <v>31</v>
@@ -2880,10 +2869,10 @@
         <v>16</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="H13" s="7" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="I13" t="s">
         <v>29</v>
@@ -2895,7 +2884,7 @@
         <v>27</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="M13" t="s">
         <v>73</v>
@@ -2927,10 +2916,10 @@
         <v>16</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="H14" s="7" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="I14" t="s">
         <v>29</v>
@@ -2942,7 +2931,7 @@
         <v>27</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="M14" t="s">
         <v>73</v>
@@ -2974,10 +2963,10 @@
         <v>16</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="H15" s="7" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="I15" t="s">
         <v>29</v>
@@ -2989,7 +2978,7 @@
         <v>27</v>
       </c>
       <c r="L15" s="7" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="M15" t="s">
         <v>73</v>
@@ -3021,10 +3010,10 @@
         <v>16</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="H16" s="7" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="I16" t="s">
         <v>29</v>
@@ -3036,7 +3025,7 @@
         <v>27</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="M16" t="s">
         <v>73</v>
@@ -3068,10 +3057,10 @@
         <v>16</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="H17" s="7" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="I17" t="s">
         <v>29</v>
@@ -3083,7 +3072,7 @@
         <v>27</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="M17" t="s">
         <v>73</v>
@@ -3115,10 +3104,10 @@
         <v>16</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="H18" s="7" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="I18" t="s">
         <v>29</v>
@@ -3130,7 +3119,7 @@
         <v>27</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="M18" t="s">
         <v>73</v>
@@ -3162,10 +3151,10 @@
         <v>16</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="H19" s="7" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="I19" t="s">
         <v>29</v>
@@ -3177,7 +3166,7 @@
         <v>27</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="M19" t="s">
         <v>73</v>
@@ -3209,10 +3198,10 @@
         <v>16</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="H20" s="7" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="I20" t="s">
         <v>29</v>
@@ -3224,7 +3213,7 @@
         <v>27</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="M20" t="s">
         <v>73</v>
@@ -3256,10 +3245,10 @@
         <v>16</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="H21" s="7" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="I21" t="s">
         <v>29</v>
@@ -3271,7 +3260,7 @@
         <v>27</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="M21" t="s">
         <v>73</v>
@@ -3303,10 +3292,10 @@
         <v>16</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="H22" s="7" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="I22" t="s">
         <v>77</v>
@@ -3318,7 +3307,7 @@
         <v>27</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="M22" t="s">
         <v>73</v>
@@ -3350,10 +3339,10 @@
         <v>16</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="H23" s="7" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="I23" t="s">
         <v>77</v>
@@ -3365,7 +3354,7 @@
         <v>27</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="M23" t="s">
         <v>73</v>
@@ -3397,10 +3386,10 @@
         <v>16</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="H24" s="7" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="I24" t="s">
         <v>29</v>
@@ -3412,7 +3401,7 @@
         <v>27</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="M24" t="s">
         <v>73</v>
@@ -3444,10 +3433,10 @@
         <v>16</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="H25" s="7" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="I25" t="s">
         <v>77</v>
@@ -3459,7 +3448,7 @@
         <v>27</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="M25" t="s">
         <v>73</v>
@@ -3491,10 +3480,10 @@
         <v>16</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="H26" s="7" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="I26" t="s">
         <v>77</v>
@@ -3506,7 +3495,7 @@
         <v>27</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="M26" t="s">
         <v>73</v>
@@ -3530,10 +3519,10 @@
       <c r="E27" s="7"/>
       <c r="F27" s="7"/>
       <c r="G27" s="7" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="H27" s="7" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="I27" s="7" t="s">
         <v>29</v>
@@ -3545,7 +3534,7 @@
         <v>27</v>
       </c>
       <c r="L27" s="7" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="M27" s="7" t="s">
         <v>88</v>
@@ -3569,10 +3558,10 @@
       <c r="E28" s="7"/>
       <c r="F28" s="7"/>
       <c r="G28" s="7" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="H28" s="7" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="I28" s="7" t="s">
         <v>29</v>
@@ -3584,7 +3573,7 @@
         <v>27</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="M28" s="7" t="s">
         <v>88</v>
@@ -3608,10 +3597,10 @@
       <c r="E29" s="7"/>
       <c r="F29" s="7"/>
       <c r="G29" s="7" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="H29" s="7" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="I29" s="7" t="s">
         <v>29</v>
@@ -3623,7 +3612,7 @@
         <v>27</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="M29" s="7" t="s">
         <v>88</v>
@@ -3647,10 +3636,10 @@
       <c r="E30" s="7"/>
       <c r="F30" s="7"/>
       <c r="G30" s="7" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="H30" s="7" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="I30" s="7" t="s">
         <v>29</v>
@@ -3662,7 +3651,7 @@
         <v>27</v>
       </c>
       <c r="L30" s="7" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="M30" s="7" t="s">
         <v>88</v>
@@ -3686,10 +3675,10 @@
       <c r="E31" s="7"/>
       <c r="F31" s="7"/>
       <c r="G31" s="7" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="H31" s="7" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="I31" s="7" t="s">
         <v>29</v>
@@ -3701,7 +3690,7 @@
         <v>27</v>
       </c>
       <c r="L31" s="7" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="M31" s="7" t="s">
         <v>88</v>
@@ -3725,10 +3714,10 @@
       <c r="E32" s="7"/>
       <c r="F32" s="7"/>
       <c r="G32" s="7" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="H32" s="7" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="I32" s="7" t="s">
         <v>29</v>
@@ -3740,7 +3729,7 @@
         <v>27</v>
       </c>
       <c r="L32" s="7" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="M32" s="7" t="s">
         <v>88</v>
@@ -3764,10 +3753,10 @@
       <c r="E33" s="7"/>
       <c r="F33" s="7"/>
       <c r="G33" s="7" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="H33" s="7" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="I33" s="7" t="s">
         <v>29</v>
@@ -3779,7 +3768,7 @@
         <v>27</v>
       </c>
       <c r="L33" s="7" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="M33" s="7" t="s">
         <v>88</v>
@@ -3803,10 +3792,10 @@
       <c r="E34" s="7"/>
       <c r="F34" s="7"/>
       <c r="G34" s="7" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="H34" s="7" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="I34" s="7" t="s">
         <v>29</v>
@@ -3818,7 +3807,7 @@
         <v>27</v>
       </c>
       <c r="L34" s="7" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="M34" s="7" t="s">
         <v>88</v>
@@ -3850,10 +3839,10 @@
         <v>16</v>
       </c>
       <c r="G35" s="7" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="H35" s="7" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="I35" s="7" t="s">
         <v>29</v>
@@ -3865,7 +3854,7 @@
         <v>27</v>
       </c>
       <c r="L35" s="7" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="M35" s="7" t="s">
         <v>96</v>
@@ -3897,10 +3886,10 @@
         <v>16</v>
       </c>
       <c r="G36" s="7" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="H36" s="7" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="I36" s="7" t="s">
         <v>29</v>
@@ -3912,7 +3901,7 @@
         <v>27</v>
       </c>
       <c r="L36" s="7" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="M36" s="7" t="s">
         <v>96</v>
@@ -3944,10 +3933,10 @@
         <v>16</v>
       </c>
       <c r="G37" s="7" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="H37" s="7" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="I37" s="7" t="s">
         <v>97</v>
@@ -3959,7 +3948,7 @@
         <v>27</v>
       </c>
       <c r="L37" s="7" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="M37" s="7" t="s">
         <v>96</v>
@@ -3991,10 +3980,10 @@
         <v>16</v>
       </c>
       <c r="G38" s="7" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="H38" s="7" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="I38" s="7" t="s">
         <v>29</v>
@@ -4006,7 +3995,7 @@
         <v>27</v>
       </c>
       <c r="L38" s="7" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="M38" s="7" t="s">
         <v>96</v>
@@ -4038,10 +4027,10 @@
         <v>16</v>
       </c>
       <c r="G39" s="7" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="H39" s="7" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="I39" s="7" t="s">
         <v>29</v>
@@ -4053,7 +4042,7 @@
         <v>27</v>
       </c>
       <c r="L39" s="7" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="M39" s="7" t="s">
         <v>96</v>
@@ -4085,10 +4074,10 @@
         <v>16</v>
       </c>
       <c r="G40" s="7" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="H40" s="7" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="I40" s="7" t="s">
         <v>97</v>
@@ -4100,7 +4089,7 @@
         <v>27</v>
       </c>
       <c r="L40" s="7" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="M40" s="7" t="s">
         <v>96</v>
@@ -4132,10 +4121,10 @@
         <v>16</v>
       </c>
       <c r="G41" s="7" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="H41" s="7" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="I41" s="7" t="s">
         <v>29</v>
@@ -4147,7 +4136,7 @@
         <v>27</v>
       </c>
       <c r="L41" s="7" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="M41" s="7" t="s">
         <v>96</v>
@@ -4179,10 +4168,10 @@
         <v>16</v>
       </c>
       <c r="G42" s="7" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="H42" s="7" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="I42" s="7" t="s">
         <v>29</v>
@@ -4194,7 +4183,7 @@
         <v>27</v>
       </c>
       <c r="L42" s="7" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="M42" s="7" t="s">
         <v>96</v>
@@ -4226,10 +4215,10 @@
         <v>16</v>
       </c>
       <c r="G43" s="7" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="H43" s="7" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="I43" s="7" t="s">
         <v>97</v>
@@ -4241,7 +4230,7 @@
         <v>27</v>
       </c>
       <c r="L43" s="7" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="M43" s="7" t="s">
         <v>96</v>
@@ -4261,10 +4250,10 @@
         <v>118</v>
       </c>
       <c r="G44" s="7" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="H44" s="7" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="I44" s="7" t="s">
         <v>29</v>
@@ -4276,7 +4265,7 @@
         <v>27</v>
       </c>
       <c r="L44" s="7" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="M44" s="7" t="s">
         <v>73</v>
@@ -4296,10 +4285,10 @@
         <v>118</v>
       </c>
       <c r="G45" s="7" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="H45" s="7" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="I45" s="7" t="s">
         <v>29</v>
@@ -4311,7 +4300,7 @@
         <v>27</v>
       </c>
       <c r="L45" s="7" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="M45" s="7" t="s">
         <v>73</v>
@@ -4331,10 +4320,10 @@
         <v>118</v>
       </c>
       <c r="G46" s="7" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="H46" s="7" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="I46" s="7" t="s">
         <v>29</v>
@@ -4366,10 +4355,10 @@
         <v>118</v>
       </c>
       <c r="G47" s="7" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="H47" s="7" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="I47" s="7" t="s">
         <v>29</v>
@@ -4401,10 +4390,10 @@
         <v>118</v>
       </c>
       <c r="G48" s="7" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="H48" s="7" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="I48" s="7" t="s">
         <v>29</v>

--- a/sources/case/ApprovalTypes.xlsx
+++ b/sources/case/ApprovalTypes.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7560" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7560" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Base" sheetId="1" r:id="rId1"/>
@@ -462,147 +462,63 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>[{"uuid":"$csv{data.AllTypes.employee_probation.uuid}","approvers":[{"uuid":"","type":"reporting_to","value":"1"},{"uuid":"","type":"reporting_to","value":"2"},{"uuid":"","type":"reporting_to","value":"3"},{"uuid":"","type":"reporting_to","value":"4"},{"uuid":"","type":"login_user_department_manager","value":""},{"uuid":"","type":"department_manager","value":"${organization_2.uuid}"},{"uuid":"","type":"employee","value":"$csv{data.Auth.user_1.employee_id}"}],"target_type":"","target_value":"!!String{}"},{"uuid":"","approvers":[{"uuid":"","type":"login_user_department_manager","value":""},{"uuid":"","type":"department_manager","value":"${organization_2.uuid}"},{"uuid":"","type":"employee","value":"$csv{data.Auth.user_1.employee_id}"}],"target_type":"sponsor","target_value":"!!String{\"department\":[\"${organization_1.uuid}\"],\"employee\":[]}"},{"uuid":"","approvers":[{"uuid":"","type":"login_user_department_manager","value":""},{"uuid":"","type":"employee","value":"$csv{data.Auth.user_1.employee_id}"},{"uuid":"","type":"employee","value":"$csv{data.Auth.user_houlong.employee_id}"}],"target_type":"sponsor","target_value":"!!String{\"department\":[\"${organization_2.uuid}\"],\"employee\":[]}"}]</t>
-  </si>
-  <si>
-    <t>[{"target_value":"!!String{}","target_type":"","approvers":[{"type":"reporting_to","uuid":"","value":"1"},{"type":"reporting_to","uuid":"","value":"2"},{"type":"reporting_to","uuid":"","value":"3"},{"type":"reporting_to","uuid":"","value":"4"},{"type":"login_user_department_manager","uuid":"","value":""},{"type":"department_manager","uuid":"","value":"${organization_2.uuid}"},{"type":"employee","uuid":"","value":"$csv{data.Auth.user_1.employee_id}"}],"uuid":"$csv{data.AllTypes.employee_offer.uuid}"},{"target_value":"!!String{\"department\":[\"${organization_1.uuid}\"],\"employee\":[]}","target_type":"sponsor","approvers":[{"type":"login_user_department_manager","uuid":"","value":""},{"type":"department_manager","uuid":"","value":"${organization_2.uuid}"},{"type":"employee","uuid":"","value":"$csv{data.Auth.user_1.employee_id}"}],"uuid":""}]</t>
-  </si>
-  <si>
     <t>[{"target_value":"s{}","target_type":"","approvers":[{"type":"employee","uuid":"","value":"$csv{data.Auth.user_1.employee_id}"}],"uuid":"$csv{data.AllTypes.leave_request.uuid}"}]</t>
   </si>
   <si>
     <t>[{"target_value":"s{}","target_type":"","approvers":[{"type":"employee","uuid":"","value":"$csv{data.Auth.user_1.employee_id}"}],"uuid":"$csv{data.AllTypes.resign_request.uuid}"}]</t>
   </si>
   <si>
-    <t>[{"target_value":"!!String{}","target_type":"","approvers":[{"type":"reporting_to","uuid":"","value":"1"},{"type":"reporting_to","uuid":"","value":"2"},{"type":"reporting_to","uuid":"","value":"3"},{"type":"reporting_to","uuid":"","value":"4"},{"type":"login_user_department_manager","uuid":"","value":""},{"type":"department_manager","uuid":"","value":"${organization_2.uuid}"},{"type":"employee","uuid":"","value":"$csv{data.Auth.user_1.employee_id}"}],"uuid":"$csv{data.AllTypes.out_request.uuid}"},{"target_value":"!!String{\"department\":[\"${organization_1.uuid}\"],\"employee\":[]}","target_type":"sponsor","approvers":[{"type":"login_user_department_manager","uuid":"","value":""},{"type":"department_manager","uuid":"","value":"${organization_2.uuid}"},{"type":"employee","uuid":"","value":"$csv{data.Auth.user_1.employee_id}"}],"uuid":""}]</t>
-  </si>
-  <si>
-    <t>[{"target_value":"!!String{}","target_type":"","approvers":[{"type":"reporting_to","uuid":"","value":"1"},{"type":"reporting_to","uuid":"","value":"2"},{"type":"reporting_to","uuid":"","value":"3"},{"type":"reporting_to","uuid":"","value":"4"},{"type":"login_user_department_manager","uuid":"","value":""},{"type":"department_manager","uuid":"","value":"${organization_2.uuid}"},{"type":"employee","uuid":"","value":"$csv{data.Auth.user_1.employee_id}"}],"uuid":"$csv{data.AllTypes.out_request.uuid}"},{"target_value":"!!String{\"department\":[\"${organization_1.uuid}\"],\"employee\":[]}","target_type":"sponsor","approvers":[{"type":"login_user_department_manager","uuid":"","value":""},{"type":"department_manager","uuid":"","value":"${organization_2.uuid}"},{"type":"employee","uuid":"","value":"$csv{data.Auth.user_1.employee_id}"}],"uuid":""},{"uuid":"","approvers":[{"uuid":"","type":"login_user_department_manager","value":""}],"target_type":"duration","target_value":"!!String{\"symbol\":\"&lt;\",\"unit\":\"h\",\"number\":\"4\"}"},{"uuid":"","approvers":[{"uuid":"","type":"login_user_department_manager","value":""},{"uuid":"","type":"department_manager","value":"${organization_1.uuid}"}],"target_type":"duration","target_value":"!!String{\"symbol\":\"==\",\"unit\":\"h\",\"number\":\"4\"}"},{"uuid":"","approvers":[{"uuid":"","type":"login_user_department_manager","value":""},{"uuid":"","type":"department_manager","value":"${organization_1.uuid}"},{"uuid":"","type":"employee","value":"$csv{data.Auth.user_1.employee_id}"}],"target_type":"duration","target_value":"!!String{\"symbol\":\"&gt;\",\"unit\":\"h\",\"number\":\"4\"}"}]</t>
-  </si>
-  <si>
     <t>[{"target_value":"s{}","target_type":"","approvers":[{"type":"employee","uuid":"","value":"$csv{data.Auth.user_1.employee_id}"}],"uuid":"$csv{data.AllTypes.out_request.uuid}"}]</t>
   </si>
   <si>
-    <t>[{"target_value":"!!String{}","target_type":"","approvers":[{"type":"reporting_to","uuid":"","value":"1"},{"type":"reporting_to","uuid":"","value":"2"},{"type":"reporting_to","uuid":"","value":"3"},{"type":"reporting_to","uuid":"","value":"4"},{"type":"login_user_department_manager","uuid":"","value":""},{"type":"department_manager","uuid":"","value":"${organization_2.uuid}"},{"type":"employee","uuid":"","value":"$csv{data.Auth.user_1.employee_id}"}],"uuid":"$csv{data.AllTypes.overtime_request.uuid}"},{"target_value":"!!String{\"department\":[\"${organization_1.uuid}\"],\"employee\":[]}","target_type":"sponsor","approvers":[{"type":"login_user_department_manager","uuid":"","value":""},{"type":"department_manager","uuid":"","value":"${organization_2.uuid}"},{"type":"employee","uuid":"","value":"$csv{data.Auth.user_1.employee_id}"}],"uuid":""}]</t>
-  </si>
-  <si>
-    <t>[{"target_value":"!!String{}","target_type":"","approvers":[{"type":"reporting_to","uuid":"","value":"1"},{"type":"reporting_to","uuid":"","value":"2"},{"type":"reporting_to","uuid":"","value":"3"},{"type":"reporting_to","uuid":"","value":"4"},{"type":"login_user_department_manager","uuid":"","value":""},{"type":"department_manager","uuid":"","value":"${organization_2.uuid}"},{"type":"employee","uuid":"","value":"$csv{data.Auth.user_1.employee_id}"}],"uuid":"$csv{data.AllTypes.overtime_request.uuid}"},{"target_value":"!!String{\"department\":[\"${organization_1.uuid}\"],\"employee\":[]}","target_type":"sponsor","approvers":[{"type":"login_user_department_manager","uuid":"","value":""},{"type":"department_manager","uuid":"","value":"${organization_2.uuid}"},{"type":"employee","uuid":"","value":"$csv{data.Auth.user_1.employee_id}"}],"uuid":""},{"uuid":"","approvers":[{"uuid":"","type":"login_user_department_manager","value":""}],"target_type":"duration","target_value":"!!String{\"symbol\":\"&lt;\",\"unit\":\"m\",\"number\":\"60\"}"},{"uuid":"","approvers":[{"uuid":"","type":"login_user_department_manager","value":""},{"uuid":"","type":"department_manager","value":"${organization_1.uuid}"}],"target_type":"duration","target_value":"!!String{\"symbol\":\"==\",\"unit\":\"m\",\"number\":\"60\"}"},{"uuid":"","approvers":[{"uuid":"","type":"login_user_department_manager","value":""},{"uuid":"","type":"department_manager","value":"${organization_1.uuid}"}],"target_type":"duration","target_value":"!!String{\"symbol\":\"==\",\"unit\":\"d\",\"number\":\"5\"}"},{"uuid":"","approvers":[{"uuid":"","type":"login_user_department_manager","value":""},{"uuid":"","type":"department_manager","value":"${organization_1.uuid}"},{"uuid":"","type":"employee","value":"$csv{data.Auth.user_1.employee_id}"}],"target_type":"duration","target_value":"!!String{\"symbol\":\"&gt;\",\"unit\":\"d\",\"number\":\"5\"}"}]</t>
-  </si>
-  <si>
     <t>[{"target_value":"s{}","target_type":"","approvers":[{"type":"employee","uuid":"","value":"$csv{data.Auth.user_1.employee_id}"}],"uuid":"$csv{data.AllTypes.overtime_request.uuid}"}]</t>
   </si>
   <si>
-    <t>[{"target_value":"!!String{}","target_type":"","approvers":[{"type":"reporting_to","uuid":"","value":"1"},{"type":"reporting_to","uuid":"","value":"2"},{"type":"reporting_to","uuid":"","value":"3"},{"type":"reporting_to","uuid":"","value":"4"},{"type":"login_user_department_manager","uuid":"","value":""},{"type":"department_manager","uuid":"","value":"${organization_2.uuid}"},{"type":"employee","uuid":"","value":"$csv{data.Auth.user_1.employee_id}"}],"uuid":"$csv{data.AllTypes.trip_request.uuid}"},{"target_value":"!!String{\"department\":[\"${organization_1.uuid}\"],\"employee\":[]}","target_type":"sponsor","approvers":[{"type":"login_user_department_manager","uuid":"","value":""},{"type":"department_manager","uuid":"","value":"${organization_2.uuid}"},{"type":"employee","uuid":"","value":"$csv{data.Auth.user_1.employee_id}"}],"uuid":""}]</t>
-  </si>
-  <si>
-    <t>[{"target_value":"!!String{}","target_type":"","approvers":[{"type":"reporting_to","uuid":"","value":"1"},{"type":"reporting_to","uuid":"","value":"2"},{"type":"reporting_to","uuid":"","value":"3"},{"type":"reporting_to","uuid":"","value":"4"},{"type":"login_user_department_manager","uuid":"","value":""},{"type":"department_manager","uuid":"","value":"${organization_2.uuid}"},{"type":"employee","uuid":"","value":"$csv{data.Auth.user_1.employee_id}"}],"uuid":"$csv{data.AllTypes.trip_request.uuid}"},{"target_value":"!!String{\"department\":[\"${organization_1.uuid}\"],\"employee\":[]}","target_type":"sponsor","approvers":[{"type":"login_user_department_manager","uuid":"","value":""},{"type":"department_manager","uuid":"","value":"${organization_2.uuid}"},{"type":"employee","uuid":"","value":"$csv{data.Auth.user_1.employee_id}"}],"uuid":""},{"uuid":"","approvers":[{"uuid":"","type":"login_user_department_manager","value":""}],"target_type":"duration","target_value":"!!String{\"symbol\":\"&lt;=\",\"unit\":\"d\",\"number\":\"4\"}"},{"uuid":"","approvers":[{"uuid":"","type":"login_user_department_manager","value":""},{"uuid":"","type":"department_manager","value":"${organization_1.uuid}"}],"target_type":"duration","target_value":"!!String{\"symbol\":\"==\",\"unit\":\"d\",\"number\":\"5\"}"},{"uuid":"","approvers":[{"uuid":"","type":"login_user_department_manager","value":""},{"uuid":"","type":"department_manager","value":"${organization_1.uuid}"},{"uuid":"","type":"employee","value":"$csv{data.Auth.user_1.employee_id}"}],"target_type":"duration","target_value":"!!String{\"symbol\":\"&gt;=\",\"unit\":\"d\",\"number\":\"6\"}"}]</t>
-  </si>
-  <si>
     <t>[{"target_value":"s{}","target_type":"","approvers":[{"type":"employee","uuid":"","value":"$csv{data.Auth.user_1.employee_id}"}],"uuid":"$csv{data.AllTypes.trip_request.uuid}"}]</t>
   </si>
   <si>
-    <t>[{"uuid":"$csv{data.AllTypes.reimbursement.uuid}","approvers":[{"uuid":"","type":"reporting_to","value":"1"},{"uuid":"","type":"reporting_to","value":"2"},{"uuid":"","type":"reporting_to","value":"3"},{"uuid":"","type":"reporting_to","value":"4"},{"uuid":"","type":"login_user_department_manager","value":""},{"uuid":"","type":"department_manager","value":"${organization_2.uuid}"},{"uuid":"","type":"employee","value":"$csv{data.Auth.user_1.employee_id}"}],"target_type":"","target_value":"!!String{}"}]</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>[{"uuid":"$csv{data.AllTypes.employee_adjust.uuid}","approvers":[{"uuid":"","type":"reporting_to","value":"1"},{"uuid":"","type":"reporting_to","value":"2"},{"uuid":"","type":"reporting_to","value":"3"},{"uuid":"","type":"reporting_to","value":"4"},{"uuid":"","type":"login_user_department_manager","value":""},{"uuid":"","type":"department_manager","value":"${organization_2.uuid}"},{"uuid":"","type":"employee","value":"$csv{data.Auth.user_1.employee_id}"}],"target_type":"","target_value":"!!String{}"}]</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>$csv{data.AllTypes.employee_adjust.type_id}</t>
   </si>
   <si>
-    <t>[{"uuid":"$csv{data.AllTypes.employee_probation.uuid}","approvers":[{"uuid":"","type":"reporting_to","value":"1"},{"uuid":"","type":"reporting_to","value":"2"},{"uuid":"","type":"reporting_to","value":"3"},{"uuid":"","type":"reporting_to","value":"4"},{"uuid":"","type":"login_user_department_manager","value":""},{"uuid":"","type":"department_manager","value":"${organization_2.uuid}"},{"uuid":"","type":"employee","value":"$csv{data.Auth.user_1.employee_id}"}],"target_type":"","target_value":"!!String{}"}]</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>$csv{data.AllTypes.employee_probation.type_id}</t>
   </si>
   <si>
-    <t>[{"target_value":"!!String{}","target_type":"","approvers":[{"type":"reporting_to","uuid":"","value":"1"},{"type":"reporting_to","uuid":"","value":"2"},{"type":"reporting_to","uuid":"","value":"3"},{"type":"reporting_to","uuid":"","value":"4"},{"type":"login_user_department_manager","uuid":"","value":""},{"type":"department_manager","uuid":"","value":"${organization_2.uuid}"},{"type":"employee","uuid":"","value":"$csv{data.Auth.user_1.employee_id}"}],"uuid":"$csv{data.AllTypes.employee_offer.uuid}"}]</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>$csv{data.AllTypes.employee_offer.type_id}</t>
   </si>
   <si>
-    <t>[{"target_value":"!!String{}","target_type":"","approvers":[{"type":"reporting_to","uuid":"","value":"1"},{"type":"reporting_to","uuid":"","value":"2"},{"type":"reporting_to","uuid":"","value":"3"},{"type":"reporting_to","uuid":"","value":"4"},{"type":"login_user_department_manager","uuid":"","value":""},{"type":"department_manager","uuid":"","value":"${organization_2.uuid}"},{"type":"employee","uuid":"","value":"$csv{data.Auth.user_1.employee_id}"}],"uuid":"$csv{data.AllTypes.leave_request.uuid}"}]</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>$csv{data.AllTypes.leave_request.type_id}</t>
   </si>
   <si>
-    <t>[{"target_value":"!!String{}","target_type":"","approvers":[{"type":"reporting_to","uuid":"","value":"1"},{"type":"reporting_to","uuid":"","value":"2"},{"type":"reporting_to","uuid":"","value":"3"},{"type":"reporting_to","uuid":"","value":"4"},{"type":"login_user_department_manager","uuid":"","value":""},{"type":"department_manager","uuid":"","value":"${organization_2.uuid}"},{"type":"employee","uuid":"","value":"$csv{data.Auth.user_1.employee_id}"}],"uuid":"$csv{data.AllTypes.resign_request.uuid}"}]</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>$csv{data.AllTypes.resign_request.type_id}</t>
   </si>
   <si>
-    <t>[{"target_value":"!!String{}","target_type":"","approvers":[{"type":"reporting_to","uuid":"","value":"1"},{"type":"reporting_to","uuid":"","value":"2"},{"type":"reporting_to","uuid":"","value":"3"},{"type":"reporting_to","uuid":"","value":"4"},{"type":"login_user_department_manager","uuid":"","value":""},{"type":"department_manager","uuid":"","value":"${organization_2.uuid}"},{"type":"employee","uuid":"","value":"$csv{data.Auth.user_1.employee_id}"}],"uuid":"$csv{data.AllTypes.out_request.uuid}"}]</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>$csv{data.AllTypes.out_request.type_id}</t>
   </si>
   <si>
-    <t>[{"target_value":"!!String{}","target_type":"","approvers":[{"type":"reporting_to","uuid":"","value":"1"},{"type":"reporting_to","uuid":"","value":"2"},{"type":"reporting_to","uuid":"","value":"3"},{"type":"reporting_to","uuid":"","value":"4"},{"type":"login_user_department_manager","uuid":"","value":""},{"type":"department_manager","uuid":"","value":"${organization_2.uuid}"},{"type":"employee","uuid":"","value":"$csv{data.Auth.user_1.employee_id}"}],"uuid":"$csv{data.AllTypes.overtime_request.uuid}"}]</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>$csv{data.AllTypes.overtime_request.type_id}</t>
   </si>
   <si>
-    <t>[{"target_value":"!!String{}","target_type":"","approvers":[{"type":"reporting_to","uuid":"","value":"1"},{"type":"reporting_to","uuid":"","value":"2"},{"type":"reporting_to","uuid":"","value":"3"},{"type":"reporting_to","uuid":"","value":"4"},{"type":"login_user_department_manager","uuid":"","value":""},{"type":"department_manager","uuid":"","value":"${organization_2.uuid}"},{"type":"employee","uuid":"","value":"$csv{data.Auth.user_1.employee_id}"}],"uuid":"$csv{data.AllTypes.trip_request.uuid}"}]</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>$csv{data.AllTypes.trip_request.type_id}</t>
   </si>
   <si>
-    <t>[{"target_value":"!!String{}","target_type":"","approvers":[{"type":"reporting_to","uuid":"","value":"1"},{"type":"reporting_to","uuid":"","value":"2"},{"type":"reporting_to","uuid":"","value":"3"},{"type":"reporting_to","uuid":"","value":"4"},{"type":"login_user_department_manager","uuid":"","value":""},{"type":"department_manager","uuid":"","value":"${organization_2.uuid}"},{"type":"employee","uuid":"","value":"$csv{data.Auth.user_1.employee_id}"}],"uuid":"$csv{data.AllTypes.project_approval.uuid}"}]</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>$csv{data.AllTypes.project_approval.type_id}</t>
   </si>
   <si>
-    <t>[{"target_value":"!!String{}","target_type":"","approvers":[{"type":"reporting_to","uuid":"","value":"1"},{"type":"reporting_to","uuid":"","value":"2"},{"type":"reporting_to","uuid":"","value":"3"},{"type":"reporting_to","uuid":"","value":"4"},{"type":"login_user_department_manager","uuid":"","value":""},{"type":"department_manager","uuid":"","value":"${organization_2.uuid}"},{"type":"employee","uuid":"","value":"$csv{data.Auth.user_1.employee_id}"}],"uuid":"$csv{data.AllTypes.general_approval.uuid}"}]</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>$csv{data.AllTypes.general_approval.type_id}</t>
   </si>
   <si>
-    <t>[{"target_value":"!!String{}","target_type":"","approvers":[{"type":"reporting_to","uuid":"","value":"1"},{"type":"reporting_to","uuid":"","value":"2"},{"type":"reporting_to","uuid":"","value":"3"},{"type":"reporting_to","uuid":"","value":"4"},{"type":"login_user_department_manager","uuid":"","value":""},{"type":"department_manager","uuid":"","value":"${organization_2.uuid}"},{"type":"employee","uuid":"","value":"$csv{data.Auth.user_1.employee_id}"}],"uuid":"$csv{data.AllTypes.materialget.uuid}"}]</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>$csv{data.AllTypes.materialget.type_id}</t>
   </si>
   <si>
-    <t>[{"target_value":"!!String{}","target_type":"","approvers":[{"type":"reporting_to","uuid":"","value":"1"},{"type":"reporting_to","uuid":"","value":"2"},{"type":"reporting_to","uuid":"","value":"3"},{"type":"reporting_to","uuid":"","value":"4"},{"type":"login_user_department_manager","uuid":"","value":""},{"type":"department_manager","uuid":"","value":"${organization_2.uuid}"},{"type":"employee","uuid":"","value":"$csv{data.Auth.user_1.employee_id}"}],"uuid":"$csv{data.AllTypes.contract.uuid}"}]</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>$csv{data.AllTypes.contract.type_id}</t>
   </si>
   <si>
-    <t>[{"uuid":"$csv{data.AllTypes.purchase.uuid}","approvers":[{"uuid":"","type":"reporting_to","value":"1"},{"uuid":"","type":"reporting_to","value":"2"},{"uuid":"","type":"reporting_to","value":"3"},{"uuid":"","type":"reporting_to","value":"4"},{"uuid":"","type":"login_user_department_manager","value":""},{"uuid":"","type":"department_manager","value":"${organization_2.uuid}"},{"uuid":"","type":"employee","value":"$csv{data.Auth.user_1.employee_id}"}],"target_type":"","target_value":"!!String{}"}]</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>$csv{data.AllTypes.purchase.type_id}</t>
   </si>
   <si>
     <t>$csv{data.AllTypes.reimbursement.type_id}</t>
   </si>
   <si>
-    <t>[{"uuid":"$csv{data.AllTypes.payment.uuid}","approvers":[{"uuid":"","type":"reporting_to","value":"1"},{"uuid":"","type":"reporting_to","value":"2"},{"uuid":"","type":"reporting_to","value":"3"},{"uuid":"","type":"reporting_to","value":"4"},{"uuid":"","type":"login_user_department_manager","value":""},{"uuid":"","type":"department_manager","value":"${organization_2.uuid}"},{"uuid":"","type":"employee","value":"$csv{data.Auth.user_1.employee_id}"}],"target_type":"","target_value":"!!String{}"}]</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>$csv{data.AllTypes.payment.type_id}</t>
   </si>
   <si>
@@ -706,48 +622,6 @@
   <si>
     <t>employee_offboard</t>
     <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>[{"uuid":"$csv{data.AllTypes.employee_adjust.uuid}","approvers":[{"uuid":"","type":"reporting_to","value":"1"},{"uuid":"","type":"reporting_to","value":"2"},{"uuid":"","type":"reporting_to","value":"3"},{"uuid":"","type":"reporting_to","value":"4"},{"uuid":"","type":"login_user_department_manager","value":""},{"uuid":"","type":"department_manager","value":"${organization_2.uuid}"},{"uuid":"","type":"employee","value":"$csv{data.Auth.user_1.employee_id}"}],"target_type":"","target_value":"!!String{}"},{"uuid":"","approvers":[{"uuid":"","type":"login_user_department_manager","value":""},{"uuid":"","type":"department_manager","value":"${organization_2.uuid}"},{"uuid":"","type":"employee","value":"$csv{data.Auth.user_1.employee_id}"}],"target_type":"sponsor","target_value":"!!String{\"department\":[\"${organization_1.uuid}\"],\"employee\":[]}"},{"uuid":"","approvers":[{"uuid":"","type":"login_user_department_manager","value":""},{"uuid":"","type":"employee","value":"$csv{data.Auth.user_1.employee_id}"},{"uuid":"","type":"employee","value":"$csv{data.Auth.user_houlong.employee_id}"}],"target_type":"sponsor","target_value":"!!String{\"department\":[\"${organization_2.uuid}\"],\"employee\":[]}"},{"uuid":"","approvers":[{"uuid":"","type":"reporting_to","value":"4"},{"uuid":"","type":"login_user_department_manager","value":""},{"uuid":"","type":"employee","value":"$csv{data.Auth.user_1.employee_id}"},{"uuid":"","type":"employee","value":"$csv{data.Auth.user_houlong.employee_id}"}],"target_type":"sponsor","target_value":"!!String{\"department\":[],\"employee\":[\"$csv{data.Auth.user_houlong.employee_id}\"]}"}]</t>
-  </si>
-  <si>
-    <t>[{"target_value":"!!String{}","target_type":"","approvers":[{"type":"reporting_to","uuid":"","value":"1"},{"type":"reporting_to","uuid":"","value":"2"},{"type":"reporting_to","uuid":"","value":"3"},{"type":"reporting_to","uuid":"","value":"4"},{"type":"login_user_department_manager","uuid":"","value":""},{"type":"department_manager","uuid":"","value":"${organization_2.uuid}"},{"type":"employee","uuid":"","value":"$csv{data.Auth.user_1.employee_id}"}],"uuid":"$csv{data.AllTypes.leave_request.uuid}"},{"target_value":"!!String{\"department\":[\"${organization_1.uuid}\"],\"employee\":[]}","target_type":"sponsor","approvers":[{"type":"login_user_department_manager","uuid":"","value":""},{"type":"department_manager","uuid":"","value":"${organization_2.uuid}"},{"type":"employee","uuid":"","value":"$csv{data.Auth.user_1.employee_id}"}],"uuid":""},{"uuid":"","approvers":[{"uuid":"","type":"employee","value":"$csv{data.Auth.user_1.employee_id}"},{"uuid":"","type":"login_user_department_manager","value":""}],"target_type":"sponsor","target_value":"!!String{\"department\":[],\"employee\":[\"$csv{data.Auth.user_houlong.employee_id}\"]}"}]</t>
-  </si>
-  <si>
-    <t>[{"target_value":"!!String{}","target_type":"","approvers":[{"type":"reporting_to","uuid":"","value":"1"},{"type":"reporting_to","uuid":"","value":"2"},{"type":"reporting_to","uuid":"","value":"3"},{"type":"reporting_to","uuid":"","value":"4"},{"type":"login_user_department_manager","uuid":"","value":""},{"type":"department_manager","uuid":"","value":"${organization_2.uuid}"},{"type":"employee","uuid":"","value":"$csv{data.Auth.user_1.employee_id}"}],"uuid":"$csv{data.AllTypes.leave_request.uuid}"},{"target_value":"!!String{\"department\":[\"${organization_1.uuid}\"],\"employee\":[]}","target_type":"sponsor","approvers":[{"type":"login_user_department_manager","uuid":"","value":""},{"type":"department_manager","uuid":"","value":"${organization_2.uuid}"},{"type":"employee","uuid":"","value":"$csv{data.Auth.user_1.employee_id}"}],"uuid":""},{"uuid":"","approvers":[{"uuid":"","type":"login_user_department_manager","value":""}],"target_type":"duration","target_value":"!!String{\"symbol\":\"&lt;\",\"unit\":\"m\",\"number\":\"60\"}"},{"uuid":"","approvers":[{"uuid":"","type":"login_user_department_manager","value":""},{"uuid":"","type":"department_manager","value":"${organization_1.uuid}"}],"target_type":"duration","target_value":"!!String{\"symbol\":\"==\",\"unit\":\"m\",\"number\":\"60\"}"},{"uuid":"","approvers":[{"uuid":"","type":"login_user_department_manager","value":""},{"uuid":"","type":"department_manager","value":"${organization_1.uuid}"},{"uuid":"","type":"employee","value":"$csv{data.Auth.user_1.employee_id}"}],"target_type":"duration","target_value":"!!String{\"symbol\":\"&gt;\",\"unit\":\"m\",\"number\":\"60\"}"},{"uuid":"","approvers":[{"uuid":"","type":"employee","value":"$csv{data.Auth.user_1.employee_id}"},{"uuid":"","type":"login_user_department_manager","value":""}],"target_type":"sponsor","target_value":"!!String{\"department\":[],\"employee\":[\"$csv{data.Auth.user_houlong.employee_id}\"]}"}]</t>
-  </si>
-  <si>
-    <t>[{"uuid":"$csv{data.AllTypes.resign_request.uuid}","approvers":[{"uuid":"","type":"reporting_to","value":"1"},{"uuid":"","type":"reporting_to","value":"2"},{"uuid":"","type":"reporting_to","value":"3"},{"uuid":"","type":"reporting_to","value":"4"},{"uuid":"","type":"login_user_department_manager","value":""},{"uuid":"","type":"department_manager","value":"${organization_2.uuid}"},{"uuid":"","type":"employee","value":"$csv{data.Auth.user_1.employee_id}"}],"target_type":"","target_value":"!!String{}"},{"uuid":"","approvers":[{"uuid":"","type":"login_user_department_manager","value":""},{"uuid":"","type":"department_manager","value":"${organization_2.uuid}"},{"uuid":"","type":"employee","value":"$csv{data.Auth.user_1.employee_id}"}],"target_type":"sponsor","target_value":"!!String{\"department\":[\"${organization_1.uuid}\"],\"employee\":[]}"},{"uuid":"","approvers":[{"uuid":"","type":"login_user_department_manager","value":""},{"uuid":"","type":"employee","value":"$csv{data.Auth.user_1.employee_id}"},{"uuid":"","type":"employee","value":"$csv{data.Auth.user_houlong.employee_id}"}],"target_type":"sponsor","target_value":"!!String{\"department\":[\"${organization_2.uuid}\"],\"employee\":[]}"},{"uuid":"","approvers":[{"uuid":"","type":"reporting_to","value":"4"},{"uuid":"","type":"login_user_department_manager","value":""},{"uuid":"","type":"employee","value":"$csv{data.Auth.user_1.employee_id}"},{"uuid":"","type":"employee","value":"$csv{data.Auth.user_houlong.employee_id}"}],"target_type":"sponsor","target_value":"!!String{\"department\":[],\"employee\":[\"$csv{data.Auth.user_houlong.employee_id}\"]}"}]</t>
-  </si>
-  <si>
-    <t>[{"target_value":"!!String{}","target_type":"","approvers":[{"type":"reporting_to","uuid":"","value":"1"},{"type":"reporting_to","uuid":"","value":"2"},{"type":"reporting_to","uuid":"","value":"3"},{"type":"reporting_to","uuid":"","value":"4"},{"type":"login_user_department_manager","uuid":"","value":""},{"type":"department_manager","uuid":"","value":"${organization_2.uuid}"},{"type":"employee","uuid":"","value":"$csv{data.Auth.user_1.employee_id}"}],"uuid":"$csv{data.AllTypes.project_approval.uuid}"},{"target_value":"!!String{\"department\":[\"${organization_1.uuid}\"],\"employee\":[]}","target_type":"sponsor","approvers":[{"type":"login_user_department_manager","uuid":"","value":""},{"type":"department_manager","uuid":"","value":"${organization_2.uuid}"},{"type":"employee","uuid":"","value":"$csv{data.Auth.user_1.employee_id}"}],"uuid":""},{"uuid":"","approvers":[{"uuid":"","type":"employee","value":"$csv{data.Auth.user_1.employee_id}"},{"uuid":"","type":"login_user_department_manager","value":""}],"target_type":"sponsor","target_value":"!!String{\"department\":[],\"employee\":[\"$csv{data.Auth.user_houlong.employee_id}\"]}"}]</t>
-  </si>
-  <si>
-    <t>[{"target_value":"!!String{}","target_type":"","approvers":[{"type":"reporting_to","uuid":"","value":"1"},{"type":"reporting_to","uuid":"","value":"2"},{"type":"reporting_to","uuid":"","value":"3"},{"type":"reporting_to","uuid":"","value":"4"},{"type":"login_user_department_manager","uuid":"","value":""},{"type":"department_manager","uuid":"","value":"${organization_2.uuid}"},{"type":"employee","uuid":"","value":"$csv{data.Auth.user_1.employee_id}"}],"uuid":"$csv{data.AllTypes.general_approval.uuid}"},{"target_value":"!!String{\"department\":[\"${organization_1.uuid}\"],\"employee\":[]}","target_type":"sponsor","approvers":[{"type":"login_user_department_manager","uuid":"","value":""},{"type":"department_manager","uuid":"","value":"${organization_2.uuid}"},{"type":"employee","uuid":"","value":"$csv{data.Auth.user_1.employee_id}"}],"uuid":""},{"uuid":"","approvers":[{"uuid":"","type":"employee","value":"$csv{data.Auth.user_1.employee_id}"},{"uuid":"","type":"login_user_department_manager","value":""}],"target_type":"sponsor","target_value":"!!String{\"department\":[],\"employee\":[\"$csv{data.Auth.user_houlong.employee_id}\"]}"}]</t>
-  </si>
-  <si>
-    <t>[{"target_value":"!!String{}","target_type":"","approvers":[{"type":"reporting_to","uuid":"","value":"1"},{"type":"reporting_to","uuid":"","value":"2"},{"type":"reporting_to","uuid":"","value":"3"},{"type":"reporting_to","uuid":"","value":"4"},{"type":"login_user_department_manager","uuid":"","value":""},{"type":"department_manager","uuid":"","value":"${organization_2.uuid}"},{"type":"employee","uuid":"","value":"$csv{data.Auth.user_1.employee_id}"}],"uuid":"$csv{data.AllTypes.materialget.uuid}"},{"target_value":"!!String{\"department\":[\"${organization_1.uuid}\"],\"employee\":[]}","target_type":"sponsor","approvers":[{"type":"login_user_department_manager","uuid":"","value":""},{"type":"department_manager","uuid":"","value":"${organization_2.uuid}"},{"type":"employee","uuid":"","value":"$csv{data.Auth.user_1.employee_id}"}],"uuid":""},{"uuid":"","approvers":[{"uuid":"","type":"employee","value":"$csv{data.Auth.user_1.employee_id}"},{"uuid":"","type":"login_user_department_manager","value":""}],"target_type":"sponsor","target_value":"!!String{\"department\":[],\"employee\":[\"$csv{data.Auth.user_houlong.employee_id}\"]}"}]</t>
-  </si>
-  <si>
-    <t>[{"target_value":"!!String{}","target_type":"","approvers":[{"type":"reporting_to","uuid":"","value":"1"},{"type":"reporting_to","uuid":"","value":"2"},{"type":"reporting_to","uuid":"","value":"3"},{"type":"reporting_to","uuid":"","value":"4"},{"type":"login_user_department_manager","uuid":"","value":""},{"type":"department_manager","uuid":"","value":"${organization_2.uuid}"},{"type":"employee","uuid":"","value":"$csv{data.Auth.user_1.employee_id}"}],"uuid":"$csv{data.AllTypes.contract.uuid}"},{"target_value":"!!String{\"department\":[\"${organization_1.uuid}\"],\"employee\":[]}","target_type":"sponsor","approvers":[{"type":"login_user_department_manager","uuid":"","value":""},{"type":"department_manager","uuid":"","value":"${organization_2.uuid}"},{"type":"employee","uuid":"","value":"$csv{data.Auth.user_1.employee_id}"}],"uuid":""},{"uuid":"","approvers":[{"uuid":"","type":"employee","value":"$csv{data.Auth.user_1.employee_id}"},{"uuid":"","type":"login_user_department_manager","value":""}],"target_type":"sponsor","target_value":"!!String{\"department\":[],\"employee\":[\"$csv{data.Auth.user_houlong.employee_id}\"]}"}]</t>
-  </si>
-  <si>
-    <t>[{"uuid":"$csv{data.AllTypes.purchase.uuid}","approvers":[{"uuid":"","type":"reporting_to","value":"1"},{"uuid":"","type":"reporting_to","value":"2"},{"uuid":"","type":"reporting_to","value":"3"},{"uuid":"","type":"reporting_to","value":"4"},{"uuid":"","type":"login_user_department_manager","value":""},{"uuid":"","type":"department_manager","value":"${organization_2.uuid}"},{"uuid":"","type":"employee","value":"$csv{data.Auth.user_1.employee_id}"}],"target_type":"","target_value":"!!String{}"},{"uuid":"","approvers":[{"uuid":"","type":"login_user_department_manager","value":""},{"uuid":"","type":"department_manager","value":"${organization_2.uuid}"},{"uuid":"","type":"employee","value":"$csv{data.Auth.user_1.employee_id}"}],"target_type":"sponsor","target_value":"!!String{\"department\":[\"${organization_1.uuid}\"],\"employee\":[]}"},{"uuid":"","approvers":[{"uuid":"","type":"login_user_department_manager","value":""},{"uuid":"","type":"employee","value":"$csv{data.Auth.user_1.employee_id}"},{"uuid":"","type":"employee","value":"$csv{data.Auth.user_houlong.employee_id}"}],"target_type":"sponsor","target_value":"!!String{\"department\":[],\"employee\":[\"$csv{data.Auth.user_houlong.employee_id}\"]}"}]</t>
-  </si>
-  <si>
-    <t>[{"uuid":"$csv{data.AllTypes.purchase.uuid}","approvers":[{"uuid":"","type":"reporting_to","value":"1"},{"uuid":"","type":"reporting_to","value":"2"},{"uuid":"","type":"reporting_to","value":"3"},{"uuid":"","type":"reporting_to","value":"4"},{"uuid":"","type":"login_user_department_manager","value":""},{"uuid":"","type":"department_manager","value":"${organization_2.uuid}"},{"uuid":"","type":"employee","value":"$csv{data.Auth.user_1.employee_id}"}],"target_type":"","target_value":"!!String{}"},{"uuid":"","approvers":[{"uuid":"","type":"login_user_department_manager","value":""},{"uuid":"","type":"department_manager","value":"${organization_2.uuid}"},{"uuid":"","type":"employee","value":"$csv{data.Auth.user_1.employee_id}"}],"target_type":"sponsor","target_value":"!!String{\"department\":[\"${organization_1.uuid}\"],\"employee\":[]}"},{"uuid":"","approvers":[{"uuid":"","type":"login_user_department_manager","value":""},{"uuid":"","type":"employee","value":"$csv{data.Auth.user_1.employee_id}"},{"uuid":"","type":"employee","value":"$csv{data.Auth.user_houlong.employee_id}"}],"target_type":"sponsor","target_value":"!!String{\"department\":[],\"employee\":[\"$csv{data.Auth.user_houlong.employee_id}\"]}"},{"uuid":"","approvers":[{"uuid":"","type":"login_user_department_manager","value":""},{"uuid":"","type":"department_manager","value":"${organization_3.uuid}"}],"target_type":"money","target_value":"!!String{\"symbol\":\"&lt;\",\"unit\":\"元\",\"number\":\"100.00\"}"},{"uuid":"","approvers":[{"uuid":"","type":"department_manager","value":"${organization_3.uuid}"},{"uuid":"","type":"employee","value":"$csv{data.Auth.user_1.employee_id}"}],"target_type":"money","target_value":"!!String{\"symbol\":\"==\",\"unit\":\"元\",\"number\":\"100.00\"}"},{"uuid":"","approvers":[{"uuid":"","type":"login_user_department_manager","value":""},{"uuid":"","type":"department_manager","value":"${organization_3.uuid}"},{"uuid":"","type":"employee","value":"$csv{data.Auth.user_1.employee_id}"}],"target_type":"money","target_value":"!!String{\"symbol\":\"&gt;\",\"unit\":\"元\",\"number\":\"100.00\"}"}]</t>
-  </si>
-  <si>
-    <t>[{"uuid":"$csv{data.AllTypes.reimbursement.uuid}","approvers":[{"uuid":"","type":"reporting_to","value":"1"},{"uuid":"","type":"reporting_to","value":"2"},{"uuid":"","type":"reporting_to","value":"3"},{"uuid":"","type":"reporting_to","value":"4"},{"uuid":"","type":"login_user_department_manager","value":""},{"uuid":"","type":"department_manager","value":"${organization_2.uuid}"},{"uuid":"","type":"employee","value":"$csv{data.Auth.user_1.employee_id}"}],"target_type":"","target_value":"!!String{}"},{"uuid":"","approvers":[{"uuid":"","type":"login_user_department_manager","value":""},{"uuid":"","type":"department_manager","value":"${organization_2.uuid}"},{"uuid":"","type":"employee","value":"$csv{data.Auth.user_1.employee_id}"}],"target_type":"sponsor","target_value":"!!String{\"department\":[\"${organization_1.uuid}\"],\"employee\":[]}"},{"uuid":"","approvers":[{"uuid":"","type":"login_user_department_manager","value":""},{"uuid":"","type":"employee","value":"$csv{data.Auth.user_1.employee_id}"},{"uuid":"","type":"employee","value":"$csv{data.Auth.user_houlong.employee_id}"}],"target_type":"sponsor","target_value":"!!String{\"department\":[],\"employee\":[\"$csv{data.Auth.user_houlong.employee_id}\"]}"}]</t>
-  </si>
-  <si>
-    <t>[{"uuid":"$csv{data.AllTypes.reimbursement.uuid}","approvers":[{"uuid":"","type":"reporting_to","value":"1"},{"uuid":"","type":"reporting_to","value":"2"},{"uuid":"","type":"reporting_to","value":"3"},{"uuid":"","type":"reporting_to","value":"4"},{"uuid":"","type":"login_user_department_manager","value":""},{"uuid":"","type":"department_manager","value":"${organization_2.uuid}"},{"uuid":"","type":"employee","value":"$csv{data.Auth.user_1.employee_id}"}],"target_type":"","target_value":"!!String{}"},{"uuid":"","approvers":[{"uuid":"","type":"login_user_department_manager","value":""},{"uuid":"","type":"department_manager","value":"${organization_2.uuid}"},{"uuid":"","type":"employee","value":"$csv{data.Auth.user_1.employee_id}"}],"target_type":"sponsor","target_value":"!!String{\"department\":[\"${organization_1.uuid}\"],\"employee\":[]}"},{"uuid":"","approvers":[{"uuid":"","type":"login_user_department_manager","value":""},{"uuid":"","type":"employee","value":"$csv{data.Auth.user_1.employee_id}"},{"uuid":"","type":"employee","value":"$csv{data.Auth.user_houlong.employee_id}"}],"target_type":"sponsor","target_value":"!!String{\"department\":[],\"employee\":[\"$csv{data.Auth.user_houlong.employee_id}\"]}"},{"uuid":"","approvers":[{"uuid":"","type":"login_user_department_manager","value":""},{"uuid":"","type":"department_manager","value":"${organization_3.uuid}"}],"target_type":"money","target_value":"!!String{\"symbol\":\"&lt;=\",\"unit\":\"元\",\"number\":\"199.99\"}"},{"uuid":"","approvers":[{"uuid":"","type":"department_manager","value":"${organization_3.uuid}"},{"uuid":"","type":"employee","value":"$csv{data.Auth.user_1.employee_id}"}],"target_type":"money","target_value":"!!String{\"symbol\":\"==\",\"unit\":\"元\",\"number\":\"200.00\"}"},{"uuid":"","approvers":[{"uuid":"","type":"login_user_department_manager","value":""},{"uuid":"","type":"department_manager","value":"${organization_3.uuid}"},{"uuid":"","type":"employee","value":"$csv{data.Auth.user_1.employee_id}"}],"target_type":"money","target_value":"!!String{\"symbol\":\"&gt;=\",\"unit\":\"元\",\"number\":\"200.10\"}"}]</t>
-  </si>
-  <si>
-    <t>[{"uuid":"$csv{data.AllTypes.payment.uuid}","approvers":[{"uuid":"","type":"reporting_to","value":"1"},{"uuid":"","type":"reporting_to","value":"2"},{"uuid":"","type":"reporting_to","value":"3"},{"uuid":"","type":"reporting_to","value":"4"},{"uuid":"","type":"login_user_department_manager","value":""},{"uuid":"","type":"department_manager","value":"${organization_2.uuid}"},{"uuid":"","type":"employee","value":"$csv{data.Auth.user_1.employee_id}"}],"target_type":"","target_value":"!!String{}"},{"uuid":"","approvers":[{"uuid":"","type":"login_user_department_manager","value":""},{"uuid":"","type":"department_manager","value":"${organization_2.uuid}"},{"uuid":"","type":"employee","value":"$csv{data.Auth.user_1.employee_id}"}],"target_type":"sponsor","target_value":"!!String{\"department\":[\"${organization_1.uuid}\"],\"employee\":[]}"},{"uuid":"","approvers":[{"uuid":"","type":"login_user_department_manager","value":""},{"uuid":"","type":"employee","value":"$csv{data.Auth.user_1.employee_id}"},{"uuid":"","type":"employee","value":"$csv{data.Auth.user_houlong.employee_id}"}],"target_type":"sponsor","target_value":"!!String{\"department\":[],\"employee\":[\"$csv{data.Auth.user_houlong.employee_id}\"]}"}]</t>
-  </si>
-  <si>
-    <t>[{"uuid":"$csv{data.AllTypes.payment.uuid}","approvers":[{"uuid":"","type":"reporting_to","value":"1"},{"uuid":"","type":"reporting_to","value":"2"},{"uuid":"","type":"reporting_to","value":"3"},{"uuid":"","type":"reporting_to","value":"4"},{"uuid":"","type":"login_user_department_manager","value":""},{"uuid":"","type":"department_manager","value":"${organization_2.uuid}"},{"uuid":"","type":"employee","value":"$csv{data.Auth.user_1.employee_id}"}],"target_type":"","target_value":"!!String{}"},{"uuid":"","approvers":[{"uuid":"","type":"login_user_department_manager","value":""},{"uuid":"","type":"department_manager","value":"${organization_2.uuid}"},{"uuid":"","type":"employee","value":"$csv{data.Auth.user_1.employee_id}"}],"target_type":"sponsor","target_value":"!!String{\"department\":[\"${organization_1.uuid}\"],\"employee\":[]}"},{"uuid":"","approvers":[{"uuid":"","type":"login_user_department_manager","value":""},{"uuid":"","type":"employee","value":"$csv{data.Auth.user_1.employee_id}"},{"uuid":"","type":"employee","value":"$csv{data.Auth.user_houlong.employee_id}"}],"target_type":"sponsor","target_value":"!!String{\"department\":[],\"employee\":[\"$csv{data.Auth.user_houlong.employee_id}\"]}"},{"uuid":"","approvers":[{"uuid":"","type":"login_user_department_manager","value":""},{"uuid":"","type":"department_manager","value":"${organization_3.uuid}"}],"target_type":"money","target_value":"!!String{\"symbol\":\"&lt;=\",\"unit\":\"元\",\"number\":\"199.99\"}"},{"uuid":"","approvers":[{"uuid":"","type":"department_manager","value":"${organization_3.uuid}"},{"uuid":"","type":"employee","value":"$csv{data.Auth.user_1.employee_id}"}],"target_type":"money","target_value":"!!String{\"symbol\":\"==\",\"unit\":\"元\",\"number\":\"200.00\"}"},{"uuid":"","approvers":[{"uuid":"","type":"login_user_department_manager","value":""},{"uuid":"","type":"department_manager","value":"${organization_3.uuid}"},{"uuid":"","type":"employee","value":"$csv{data.Auth.user_1.employee_id}"}],"target_type":"money","target_value":"!!String{\"symbol\":\"&gt;=\",\"unit\":\"元\",\"number\":\"200.10\"}"}]</t>
   </si>
   <si>
     <r>
@@ -779,12 +653,6 @@
     <t>$csv{data.AllTypes.employee_offboardresign.type_id}</t>
   </si>
   <si>
-    <t>[{"uuid":"$csv{data.AllTypes.employee_offboardresign.uuid}","approvers":[{"uuid":"","type":"reporting_to","value":"1"},{"uuid":"","type":"reporting_to","value":"2"},{"uuid":"","type":"reporting_to","value":"3"},{"uuid":"","type":"reporting_to","value":"4"},{"uuid":"","type":"login_user_department_manager","value":""},{"uuid":"","type":"department_manager","value":"${organization_2.uuid}"},{"uuid":"","type":"employee","value":"$csv{data.Auth.user_1.employee_id}"}],"target_type":"","target_value":"!!String{}"}]</t>
-  </si>
-  <si>
-    <t>[{"target_value":"!!String{}","target_type":"","approvers":[{"type":"reporting_to","uuid":"","value":"1"},{"type":"reporting_to","uuid":"","value":"2"},{"type":"reporting_to","uuid":"","value":"3"},{"type":"reporting_to","uuid":"","value":"4"},{"type":"login_user_department_manager","uuid":"","value":""},{"type":"department_manager","uuid":"","value":"${organization_2.uuid}"},{"type":"employee","uuid":"","value":"$csv{data.Auth.user_1.employee_id}"}],"uuid":"$csv{data.AllTypes.employee_offboardresign.uuid}"},{"target_value":"!!String{\"department\":[\"${organization_1.uuid}\"],\"employee\":[]}","target_type":"sponsor","approvers":[{"type":"login_user_department_manager","uuid":"","value":""},{"type":"department_manager","uuid":"","value":"${organization_2.uuid}"},{"type":"employee","uuid":"","value":"$csv{data.Auth.user_1.employee_id}"}],"uuid":""},{"uuid":"","approvers":[{"uuid":"","type":"login_user_department_manager","value":""},{"uuid":"","type":"employee","value":"$csv{data.Auth.user_1.employee_id}"},{"uuid":"","type":"employee","value":"$csv{data.Auth.user_houlong.employee_id}"}],"target_type":"sponsor","target_value":"!!String{\"department\":[\"${organization_2.uuid}\"],\"employee\":[]}"}]</t>
-  </si>
-  <si>
     <t>[{"uuid":"$csv{data.AllTypes.employee_offboardresign.uuid}","approvers":[{"uuid":"","type":"employee","value":"$csv{data.Auth.user_houlong.employee_id}"}],"target_type":"","target_value":"!!String{}"}]</t>
   </si>
   <si>
@@ -794,13 +662,130 @@
     <t>$csv{data.AllTypes.employee_offboarddismiss.type_id}</t>
   </si>
   <si>
-    <t>[{"uuid":"$csv{data.AllTypes.employee_offboarddismiss.uuid}","approvers":[{"uuid":"","type":"reporting_to","value":"1"},{"uuid":"","type":"reporting_to","value":"2"},{"uuid":"","type":"reporting_to","value":"3"},{"uuid":"","type":"reporting_to","value":"4"},{"uuid":"","type":"login_user_department_manager","value":""},{"uuid":"","type":"department_manager","value":"${organization_2.uuid}"},{"uuid":"","type":"employee","value":"$csv{data.Auth.user_1.employee_id}"}],"target_type":"","target_value":"!!String{}"}]</t>
-  </si>
-  <si>
-    <t>[{"target_value":"!!String{}","target_type":"","approvers":[{"type":"reporting_to","uuid":"","value":"1"},{"type":"reporting_to","uuid":"","value":"2"},{"type":"reporting_to","uuid":"","value":"3"},{"type":"reporting_to","uuid":"","value":"4"},{"type":"login_user_department_manager","uuid":"","value":""},{"type":"department_manager","uuid":"","value":"${organization_2.uuid}"},{"type":"employee","uuid":"","value":"$csv{data.Auth.user_1.employee_id}"}],"uuid":"$csv{data.AllTypes.employee_offboarddismiss.uuid}"},{"target_value":"!!String{\"department\":[\"${organization_1.uuid}\"],\"employee\":[]}","target_type":"sponsor","approvers":[{"type":"login_user_department_manager","uuid":"","value":""},{"type":"department_manager","uuid":"","value":"${organization_2.uuid}"},{"type":"employee","uuid":"","value":"$csv{data.Auth.user_1.employee_id}"}],"uuid":""},{"uuid":"","approvers":[{"uuid":"","type":"login_user_department_manager","value":""},{"uuid":"","type":"employee","value":"$csv{data.Auth.user_1.employee_id}"},{"uuid":"","type":"employee","value":"$csv{data.Auth.user_houlong.employee_id}"}],"target_type":"sponsor","target_value":"!!String{\"department\":[\"${organization_2.uuid}\"],\"employee\":[]}"}]</t>
-  </si>
-  <si>
     <t>$csv{data.AllTypes.employee_offboarddismiss.created_by}</t>
+  </si>
+  <si>
+    <t>[{"uuid":"$csv{data.AllTypes.employee_adjust.uuid}","approvers":[{"uuid":"","type":"reporting_to","value":"1"},{"uuid":"","type":"reporting_to","value":"2"},{"uuid":"","type":"reporting_to","value":"3"},{"uuid":"","type":"reporting_to","value":"4"},{"uuid":"","type":"login_user_department_manager","value":""},{"uuid":"","type":"department_manager","value":"$csv{data.organization.organization_2.uuid}"},{"uuid":"","type":"employee","value":"$csv{data.Auth.user_1.employee_id}"}],"target_type":"","target_value":"!!String{}"}]</t>
+  </si>
+  <si>
+    <t>[{"uuid":"$csv{data.AllTypes.employee_probation.uuid}","approvers":[{"uuid":"","type":"reporting_to","value":"1"},{"uuid":"","type":"reporting_to","value":"2"},{"uuid":"","type":"reporting_to","value":"3"},{"uuid":"","type":"reporting_to","value":"4"},{"uuid":"","type":"login_user_department_manager","value":""},{"uuid":"","type":"department_manager","value":"$csv{data.organization.organization_2.uuid}"},{"uuid":"","type":"employee","value":"$csv{data.Auth.user_1.employee_id}"}],"target_type":"","target_value":"!!String{}"}]</t>
+  </si>
+  <si>
+    <t>[{"uuid":"$csv{data.AllTypes.employee_offboardresign.uuid}","approvers":[{"uuid":"","type":"reporting_to","value":"1"},{"uuid":"","type":"reporting_to","value":"2"},{"uuid":"","type":"reporting_to","value":"3"},{"uuid":"","type":"reporting_to","value":"4"},{"uuid":"","type":"login_user_department_manager","value":""},{"uuid":"","type":"department_manager","value":"$csv{data.organization.organization_2.uuid}"},{"uuid":"","type":"employee","value":"$csv{data.Auth.user_1.employee_id}"}],"target_type":"","target_value":"!!String{}"}]</t>
+  </si>
+  <si>
+    <t>[{"uuid":"$csv{data.AllTypes.employee_offboarddismiss.uuid}","approvers":[{"uuid":"","type":"reporting_to","value":"1"},{"uuid":"","type":"reporting_to","value":"2"},{"uuid":"","type":"reporting_to","value":"3"},{"uuid":"","type":"reporting_to","value":"4"},{"uuid":"","type":"login_user_department_manager","value":""},{"uuid":"","type":"department_manager","value":"$csv{data.organization.organization_2.uuid}"},{"uuid":"","type":"employee","value":"$csv{data.Auth.user_1.employee_id}"}],"target_type":"","target_value":"!!String{}"}]</t>
+  </si>
+  <si>
+    <t>[{"target_value":"!!String{}","target_type":"","approvers":[{"type":"reporting_to","uuid":"","value":"1"},{"type":"reporting_to","uuid":"","value":"2"},{"type":"reporting_to","uuid":"","value":"3"},{"type":"reporting_to","uuid":"","value":"4"},{"type":"login_user_department_manager","uuid":"","value":""},{"type":"department_manager","uuid":"","value":"$csv{data.organization.organization_2.uuid}"},{"type":"employee","uuid":"","value":"$csv{data.Auth.user_1.employee_id}"}],"uuid":"$csv{data.AllTypes.employee_offer.uuid}"}]</t>
+  </si>
+  <si>
+    <t>[{"target_value":"!!String{}","target_type":"","approvers":[{"type":"reporting_to","uuid":"","value":"1"},{"type":"reporting_to","uuid":"","value":"2"},{"type":"reporting_to","uuid":"","value":"3"},{"type":"reporting_to","uuid":"","value":"4"},{"type":"login_user_department_manager","uuid":"","value":""},{"type":"department_manager","uuid":"","value":"$csv{data.organization.organization_2.uuid}"},{"type":"employee","uuid":"","value":"$csv{data.Auth.user_1.employee_id}"}],"uuid":"$csv{data.AllTypes.leave_request.uuid}"}]</t>
+  </si>
+  <si>
+    <t>[{"target_value":"!!String{}","target_type":"","approvers":[{"type":"reporting_to","uuid":"","value":"1"},{"type":"reporting_to","uuid":"","value":"2"},{"type":"reporting_to","uuid":"","value":"3"},{"type":"reporting_to","uuid":"","value":"4"},{"type":"login_user_department_manager","uuid":"","value":""},{"type":"department_manager","uuid":"","value":"$csv{data.organization.organization_2.uuid}"},{"type":"employee","uuid":"","value":"$csv{data.Auth.user_1.employee_id}"}],"uuid":"$csv{data.AllTypes.resign_request.uuid}"}]</t>
+  </si>
+  <si>
+    <t>[{"target_value":"!!String{}","target_type":"","approvers":[{"type":"reporting_to","uuid":"","value":"1"},{"type":"reporting_to","uuid":"","value":"2"},{"type":"reporting_to","uuid":"","value":"3"},{"type":"reporting_to","uuid":"","value":"4"},{"type":"login_user_department_manager","uuid":"","value":""},{"type":"department_manager","uuid":"","value":"$csv{data.organization.organization_2.uuid}"},{"type":"employee","uuid":"","value":"$csv{data.Auth.user_1.employee_id}"}],"uuid":"$csv{data.AllTypes.out_request.uuid}"}]</t>
+  </si>
+  <si>
+    <t>[{"target_value":"!!String{}","target_type":"","approvers":[{"type":"reporting_to","uuid":"","value":"1"},{"type":"reporting_to","uuid":"","value":"2"},{"type":"reporting_to","uuid":"","value":"3"},{"type":"reporting_to","uuid":"","value":"4"},{"type":"login_user_department_manager","uuid":"","value":""},{"type":"department_manager","uuid":"","value":"$csv{data.organization.organization_2.uuid}"},{"type":"employee","uuid":"","value":"$csv{data.Auth.user_1.employee_id}"}],"uuid":"$csv{data.AllTypes.overtime_request.uuid}"}]</t>
+  </si>
+  <si>
+    <t>[{"target_value":"!!String{}","target_type":"","approvers":[{"type":"reporting_to","uuid":"","value":"1"},{"type":"reporting_to","uuid":"","value":"2"},{"type":"reporting_to","uuid":"","value":"3"},{"type":"reporting_to","uuid":"","value":"4"},{"type":"login_user_department_manager","uuid":"","value":""},{"type":"department_manager","uuid":"","value":"$csv{data.organization.organization_2.uuid}"},{"type":"employee","uuid":"","value":"$csv{data.Auth.user_1.employee_id}"}],"uuid":"$csv{data.AllTypes.trip_request.uuid}"}]</t>
+  </si>
+  <si>
+    <t>[{"target_value":"!!String{}","target_type":"","approvers":[{"type":"reporting_to","uuid":"","value":"1"},{"type":"reporting_to","uuid":"","value":"2"},{"type":"reporting_to","uuid":"","value":"3"},{"type":"reporting_to","uuid":"","value":"4"},{"type":"login_user_department_manager","uuid":"","value":""},{"type":"department_manager","uuid":"","value":"$csv{data.organization.organization_2.uuid}"},{"type":"employee","uuid":"","value":"$csv{data.Auth.user_1.employee_id}"}],"uuid":"$csv{data.AllTypes.project_approval.uuid}"}]</t>
+  </si>
+  <si>
+    <t>[{"target_value":"!!String{}","target_type":"","approvers":[{"type":"reporting_to","uuid":"","value":"1"},{"type":"reporting_to","uuid":"","value":"2"},{"type":"reporting_to","uuid":"","value":"3"},{"type":"reporting_to","uuid":"","value":"4"},{"type":"login_user_department_manager","uuid":"","value":""},{"type":"department_manager","uuid":"","value":"$csv{data.organization.organization_2.uuid}"},{"type":"employee","uuid":"","value":"$csv{data.Auth.user_1.employee_id}"}],"uuid":"$csv{data.AllTypes.general_approval.uuid}"}]</t>
+  </si>
+  <si>
+    <t>[{"target_value":"!!String{}","target_type":"","approvers":[{"type":"reporting_to","uuid":"","value":"1"},{"type":"reporting_to","uuid":"","value":"2"},{"type":"reporting_to","uuid":"","value":"3"},{"type":"reporting_to","uuid":"","value":"4"},{"type":"login_user_department_manager","uuid":"","value":""},{"type":"department_manager","uuid":"","value":"$csv{data.organization.organization_2.uuid}"},{"type":"employee","uuid":"","value":"$csv{data.Auth.user_1.employee_id}"}],"uuid":"$csv{data.AllTypes.materialget.uuid}"}]</t>
+  </si>
+  <si>
+    <t>[{"target_value":"!!String{}","target_type":"","approvers":[{"type":"reporting_to","uuid":"","value":"1"},{"type":"reporting_to","uuid":"","value":"2"},{"type":"reporting_to","uuid":"","value":"3"},{"type":"reporting_to","uuid":"","value":"4"},{"type":"login_user_department_manager","uuid":"","value":""},{"type":"department_manager","uuid":"","value":"$csv{data.organization.organization_2.uuid}"},{"type":"employee","uuid":"","value":"$csv{data.Auth.user_1.employee_id}"}],"uuid":"$csv{data.AllTypes.contract.uuid}"}]</t>
+  </si>
+  <si>
+    <t>[{"uuid":"$csv{data.AllTypes.purchase.uuid}","approvers":[{"uuid":"","type":"reporting_to","value":"1"},{"uuid":"","type":"reporting_to","value":"2"},{"uuid":"","type":"reporting_to","value":"3"},{"uuid":"","type":"reporting_to","value":"4"},{"uuid":"","type":"login_user_department_manager","value":""},{"uuid":"","type":"department_manager","value":"$csv{data.organization.organization_2.uuid}"},{"uuid":"","type":"employee","value":"$csv{data.Auth.user_1.employee_id}"}],"target_type":"","target_value":"!!String{}"}]</t>
+  </si>
+  <si>
+    <t>[{"uuid":"$csv{data.AllTypes.reimbursement.uuid}","approvers":[{"uuid":"","type":"reporting_to","value":"1"},{"uuid":"","type":"reporting_to","value":"2"},{"uuid":"","type":"reporting_to","value":"3"},{"uuid":"","type":"reporting_to","value":"4"},{"uuid":"","type":"login_user_department_manager","value":""},{"uuid":"","type":"department_manager","value":"$csv{data.organization.organization_2.uuid}"},{"uuid":"","type":"employee","value":"$csv{data.Auth.user_1.employee_id}"}],"target_type":"","target_value":"!!String{}"}]</t>
+  </si>
+  <si>
+    <t>[{"uuid":"$csv{data.AllTypes.payment.uuid}","approvers":[{"uuid":"","type":"reporting_to","value":"1"},{"uuid":"","type":"reporting_to","value":"2"},{"uuid":"","type":"reporting_to","value":"3"},{"uuid":"","type":"reporting_to","value":"4"},{"uuid":"","type":"login_user_department_manager","value":""},{"uuid":"","type":"department_manager","value":"$csv{data.organization.organization_2.uuid}"},{"uuid":"","type":"employee","value":"$csv{data.Auth.user_1.employee_id}"}],"target_type":"","target_value":"!!String{}"}]</t>
+  </si>
+  <si>
+    <t>[{"uuid":"$csv{data.AllTypes.employee_adjust.uuid}","approvers":[{"uuid":"","type":"reporting_to","value":"1"},{"uuid":"","type":"reporting_to","value":"2"},{"uuid":"","type":"reporting_to","value":"3"},{"uuid":"","type":"reporting_to","value":"4"},{"uuid":"","type":"login_user_department_manager","value":""},{"uuid":"","type":"department_manager","value":"$csv{data.organization.organization_2.uuid}"},{"uuid":"","type":"employee","value":"$csv{data.Auth.user_1.employee_id}"}],"target_type":"","target_value":"!!String{}"},{"uuid":"","approvers":[{"uuid":"","type":"login_user_department_manager","value":""},{"uuid":"","type":"department_manager","value":"$csv{data.organization.organization_2.uuid}"},{"uuid":"","type":"employee","value":"$csv{data.Auth.user_1.employee_id}"}],"target_type":"sponsor","target_value":"!!String{\"department\":[\"$csv{data.organization.organization_1.uuid}\"],\"employee\":[]}"},{"uuid":"","approvers":[{"uuid":"","type":"login_user_department_manager","value":""},{"uuid":"","type":"employee","value":"$csv{data.Auth.user_1.employee_id}"},{"uuid":"","type":"employee","value":"$csv{data.Auth.user_houlong.employee_id}"}],"target_type":"sponsor","target_value":"!!String{\"department\":[\"$csv{data.organization.organization_2.uuid}\"],\"employee\":[]}"},{"uuid":"","approvers":[{"uuid":"","type":"reporting_to","value":"4"},{"uuid":"","type":"login_user_department_manager","value":""},{"uuid":"","type":"employee","value":"$csv{data.Auth.user_1.employee_id}"},{"uuid":"","type":"employee","value":"$csv{data.Auth.user_houlong.employee_id}"}],"target_type":"sponsor","target_value":"!!String{\"department\":[],\"employee\":[\"$csv{data.Auth.user_houlong.employee_id}\"]}"}]</t>
+  </si>
+  <si>
+    <t>[{"uuid":"$csv{data.AllTypes.employee_probation.uuid}","approvers":[{"uuid":"","type":"reporting_to","value":"1"},{"uuid":"","type":"reporting_to","value":"2"},{"uuid":"","type":"reporting_to","value":"3"},{"uuid":"","type":"reporting_to","value":"4"},{"uuid":"","type":"login_user_department_manager","value":""},{"uuid":"","type":"department_manager","value":"$csv{data.organization.organization_2.uuid}"},{"uuid":"","type":"employee","value":"$csv{data.Auth.user_1.employee_id}"}],"target_type":"","target_value":"!!String{}"},{"uuid":"","approvers":[{"uuid":"","type":"login_user_department_manager","value":""},{"uuid":"","type":"department_manager","value":"$csv{data.organization.organization_2.uuid}"},{"uuid":"","type":"employee","value":"$csv{data.Auth.user_1.employee_id}"}],"target_type":"sponsor","target_value":"!!String{\"department\":[\"$csv{data.organization.organization_1.uuid}\"],\"employee\":[]}"},{"uuid":"","approvers":[{"uuid":"","type":"login_user_department_manager","value":""},{"uuid":"","type":"employee","value":"$csv{data.Auth.user_1.employee_id}"},{"uuid":"","type":"employee","value":"$csv{data.Auth.user_houlong.employee_id}"}],"target_type":"sponsor","target_value":"!!String{\"department\":[\"$csv{data.organization.organization_2.uuid}\"],\"employee\":[]}"}]</t>
+  </si>
+  <si>
+    <t>[{"target_value":"!!String{}","target_type":"","approvers":[{"type":"reporting_to","uuid":"","value":"1"},{"type":"reporting_to","uuid":"","value":"2"},{"type":"reporting_to","uuid":"","value":"3"},{"type":"reporting_to","uuid":"","value":"4"},{"type":"login_user_department_manager","uuid":"","value":""},{"type":"department_manager","uuid":"","value":"$csv{data.organization.organization_2.uuid}"},{"type":"employee","uuid":"","value":"$csv{data.Auth.user_1.employee_id}"}],"uuid":"$csv{data.AllTypes.employee_offboardresign.uuid}"},{"target_value":"!!String{\"department\":[\"$csv{data.organization.organization_1.uuid}\"],\"employee\":[]}","target_type":"sponsor","approvers":[{"type":"login_user_department_manager","uuid":"","value":""},{"type":"department_manager","uuid":"","value":"$csv{data.organization.organization_2.uuid}"},{"type":"employee","uuid":"","value":"$csv{data.Auth.user_1.employee_id}"}],"uuid":""},{"uuid":"","approvers":[{"uuid":"","type":"login_user_department_manager","value":""},{"uuid":"","type":"employee","value":"$csv{data.Auth.user_1.employee_id}"},{"uuid":"","type":"employee","value":"$csv{data.Auth.user_houlong.employee_id}"}],"target_type":"sponsor","target_value":"!!String{\"department\":[\"$csv{data.organization.organization_2.uuid}\"],\"employee\":[]}"}]</t>
+  </si>
+  <si>
+    <t>[{"target_value":"!!String{}","target_type":"","approvers":[{"type":"reporting_to","uuid":"","value":"1"},{"type":"reporting_to","uuid":"","value":"2"},{"type":"reporting_to","uuid":"","value":"3"},{"type":"reporting_to","uuid":"","value":"4"},{"type":"login_user_department_manager","uuid":"","value":""},{"type":"department_manager","uuid":"","value":"$csv{data.organization.organization_2.uuid}"},{"type":"employee","uuid":"","value":"$csv{data.Auth.user_1.employee_id}"}],"uuid":"$csv{data.AllTypes.employee_offboarddismiss.uuid}"},{"target_value":"!!String{\"department\":[\"$csv{data.organization.organization_1.uuid}\"],\"employee\":[]}","target_type":"sponsor","approvers":[{"type":"login_user_department_manager","uuid":"","value":""},{"type":"department_manager","uuid":"","value":"$csv{data.organization.organization_2.uuid}"},{"type":"employee","uuid":"","value":"$csv{data.Auth.user_1.employee_id}"}],"uuid":""},{"uuid":"","approvers":[{"uuid":"","type":"login_user_department_manager","value":""},{"uuid":"","type":"employee","value":"$csv{data.Auth.user_1.employee_id}"},{"uuid":"","type":"employee","value":"$csv{data.Auth.user_houlong.employee_id}"}],"target_type":"sponsor","target_value":"!!String{\"department\":[\"$csv{data.organization.organization_2.uuid}\"],\"employee\":[]}"}]</t>
+  </si>
+  <si>
+    <t>[{"target_value":"!!String{}","target_type":"","approvers":[{"type":"reporting_to","uuid":"","value":"1"},{"type":"reporting_to","uuid":"","value":"2"},{"type":"reporting_to","uuid":"","value":"3"},{"type":"reporting_to","uuid":"","value":"4"},{"type":"login_user_department_manager","uuid":"","value":""},{"type":"department_manager","uuid":"","value":"$csv{data.organization.organization_2.uuid}"},{"type":"employee","uuid":"","value":"$csv{data.Auth.user_1.employee_id}"}],"uuid":"$csv{data.AllTypes.employee_offer.uuid}"},{"target_value":"!!String{\"department\":[\"$csv{data.organization.organization_1.uuid}\"],\"employee\":[]}","target_type":"sponsor","approvers":[{"type":"login_user_department_manager","uuid":"","value":""},{"type":"department_manager","uuid":"","value":"$csv{data.organization.organization_2.uuid}"},{"type":"employee","uuid":"","value":"$csv{data.Auth.user_1.employee_id}"}],"uuid":""}]</t>
+  </si>
+  <si>
+    <t>[{"target_value":"!!String{}","target_type":"","approvers":[{"type":"reporting_to","uuid":"","value":"1"},{"type":"reporting_to","uuid":"","value":"2"},{"type":"reporting_to","uuid":"","value":"3"},{"type":"reporting_to","uuid":"","value":"4"},{"type":"login_user_department_manager","uuid":"","value":""},{"type":"department_manager","uuid":"","value":"$csv{data.organization.organization_2.uuid}"},{"type":"employee","uuid":"","value":"$csv{data.Auth.user_1.employee_id}"}],"uuid":"$csv{data.AllTypes.leave_request.uuid}"},{"target_value":"!!String{\"department\":[\"$csv{data.organization.organization_1.uuid}\"],\"employee\":[]}","target_type":"sponsor","approvers":[{"type":"login_user_department_manager","uuid":"","value":""},{"type":"department_manager","uuid":"","value":"$csv{data.organization.organization_2.uuid}"},{"type":"employee","uuid":"","value":"$csv{data.Auth.user_1.employee_id}"}],"uuid":""},{"uuid":"","approvers":[{"uuid":"","type":"employee","value":"$csv{data.Auth.user_1.employee_id}"},{"uuid":"","type":"login_user_department_manager","value":""}],"target_type":"sponsor","target_value":"!!String{\"department\":[],\"employee\":[\"$csv{data.Auth.user_houlong.employee_id}\"]}"}]</t>
+  </si>
+  <si>
+    <t>[{"target_value":"!!String{}","target_type":"","approvers":[{"type":"reporting_to","uuid":"","value":"1"},{"type":"reporting_to","uuid":"","value":"2"},{"type":"reporting_to","uuid":"","value":"3"},{"type":"reporting_to","uuid":"","value":"4"},{"type":"login_user_department_manager","uuid":"","value":""},{"type":"department_manager","uuid":"","value":"$csv{data.organization.organization_2.uuid}"},{"type":"employee","uuid":"","value":"$csv{data.Auth.user_1.employee_id}"}],"uuid":"$csv{data.AllTypes.leave_request.uuid}"},{"target_value":"!!String{\"department\":[\"$csv{data.organization.organization_1.uuid}\"],\"employee\":[]}","target_type":"sponsor","approvers":[{"type":"login_user_department_manager","uuid":"","value":""},{"type":"department_manager","uuid":"","value":"$csv{data.organization.organization_2.uuid}"},{"type":"employee","uuid":"","value":"$csv{data.Auth.user_1.employee_id}"}],"uuid":""},{"uuid":"","approvers":[{"uuid":"","type":"login_user_department_manager","value":""}],"target_type":"duration","target_value":"!!String{\"symbol\":\"&lt;\",\"unit\":\"m\",\"number\":\"60\"}"},{"uuid":"","approvers":[{"uuid":"","type":"login_user_department_manager","value":""},{"uuid":"","type":"department_manager","value":"$csv{data.organization.organization_1.uuid}"}],"target_type":"duration","target_value":"!!String{\"symbol\":\"==\",\"unit\":\"m\",\"number\":\"60\"}"},{"uuid":"","approvers":[{"uuid":"","type":"login_user_department_manager","value":""},{"uuid":"","type":"department_manager","value":"$csv{data.organization.organization_1.uuid}"},{"uuid":"","type":"employee","value":"$csv{data.Auth.user_1.employee_id}"}],"target_type":"duration","target_value":"!!String{\"symbol\":\"&gt;\",\"unit\":\"m\",\"number\":\"60\"}"},{"uuid":"","approvers":[{"uuid":"","type":"employee","value":"$csv{data.Auth.user_1.employee_id}"},{"uuid":"","type":"login_user_department_manager","value":""}],"target_type":"sponsor","target_value":"!!String{\"department\":[],\"employee\":[\"$csv{data.Auth.user_houlong.employee_id}\"]}"}]</t>
+  </si>
+  <si>
+    <t>[{"uuid":"$csv{data.AllTypes.resign_request.uuid}","approvers":[{"uuid":"","type":"reporting_to","value":"1"},{"uuid":"","type":"reporting_to","value":"2"},{"uuid":"","type":"reporting_to","value":"3"},{"uuid":"","type":"reporting_to","value":"4"},{"uuid":"","type":"login_user_department_manager","value":""},{"uuid":"","type":"department_manager","value":"$csv{data.organization.organization_2.uuid}"},{"uuid":"","type":"employee","value":"$csv{data.Auth.user_1.employee_id}"}],"target_type":"","target_value":"!!String{}"},{"uuid":"","approvers":[{"uuid":"","type":"login_user_department_manager","value":""},{"uuid":"","type":"department_manager","value":"$csv{data.organization.organization_2.uuid}"},{"uuid":"","type":"employee","value":"$csv{data.Auth.user_1.employee_id}"}],"target_type":"sponsor","target_value":"!!String{\"department\":[\"$csv{data.organization.organization_1.uuid}\"],\"employee\":[]}"},{"uuid":"","approvers":[{"uuid":"","type":"login_user_department_manager","value":""},{"uuid":"","type":"employee","value":"$csv{data.Auth.user_1.employee_id}"},{"uuid":"","type":"employee","value":"$csv{data.Auth.user_houlong.employee_id}"}],"target_type":"sponsor","target_value":"!!String{\"department\":[\"$csv{data.organization.organization_2.uuid}\"],\"employee\":[]}"},{"uuid":"","approvers":[{"uuid":"","type":"reporting_to","value":"4"},{"uuid":"","type":"login_user_department_manager","value":""},{"uuid":"","type":"employee","value":"$csv{data.Auth.user_1.employee_id}"},{"uuid":"","type":"employee","value":"$csv{data.Auth.user_houlong.employee_id}"}],"target_type":"sponsor","target_value":"!!String{\"department\":[],\"employee\":[\"$csv{data.Auth.user_houlong.employee_id}\"]}"}]</t>
+  </si>
+  <si>
+    <t>[{"target_value":"!!String{}","target_type":"","approvers":[{"type":"reporting_to","uuid":"","value":"1"},{"type":"reporting_to","uuid":"","value":"2"},{"type":"reporting_to","uuid":"","value":"3"},{"type":"reporting_to","uuid":"","value":"4"},{"type":"login_user_department_manager","uuid":"","value":""},{"type":"department_manager","uuid":"","value":"$csv{data.organization.organization_2.uuid}"},{"type":"employee","uuid":"","value":"$csv{data.Auth.user_1.employee_id}"}],"uuid":"$csv{data.AllTypes.out_request.uuid}"},{"target_value":"!!String{\"department\":[\"$csv{data.organization.organization_1.uuid}\"],\"employee\":[]}","target_type":"sponsor","approvers":[{"type":"login_user_department_manager","uuid":"","value":""},{"type":"department_manager","uuid":"","value":"$csv{data.organization.organization_2.uuid}"},{"type":"employee","uuid":"","value":"$csv{data.Auth.user_1.employee_id}"}],"uuid":""}]</t>
+  </si>
+  <si>
+    <t>[{"target_value":"!!String{}","target_type":"","approvers":[{"type":"reporting_to","uuid":"","value":"1"},{"type":"reporting_to","uuid":"","value":"2"},{"type":"reporting_to","uuid":"","value":"3"},{"type":"reporting_to","uuid":"","value":"4"},{"type":"login_user_department_manager","uuid":"","value":""},{"type":"department_manager","uuid":"","value":"$csv{data.organization.organization_2.uuid}"},{"type":"employee","uuid":"","value":"$csv{data.Auth.user_1.employee_id}"}],"uuid":"$csv{data.AllTypes.out_request.uuid}"},{"target_value":"!!String{\"department\":[\"$csv{data.organization.organization_1.uuid}\"],\"employee\":[]}","target_type":"sponsor","approvers":[{"type":"login_user_department_manager","uuid":"","value":""},{"type":"department_manager","uuid":"","value":"$csv{data.organization.organization_2.uuid}"},{"type":"employee","uuid":"","value":"$csv{data.Auth.user_1.employee_id}"}],"uuid":""},{"uuid":"","approvers":[{"uuid":"","type":"login_user_department_manager","value":""}],"target_type":"duration","target_value":"!!String{\"symbol\":\"&lt;\",\"unit\":\"h\",\"number\":\"4\"}"},{"uuid":"","approvers":[{"uuid":"","type":"login_user_department_manager","value":""},{"uuid":"","type":"department_manager","value":"$csv{data.organization.organization_1.uuid}"}],"target_type":"duration","target_value":"!!String{\"symbol\":\"==\",\"unit\":\"h\",\"number\":\"4\"}"},{"uuid":"","approvers":[{"uuid":"","type":"login_user_department_manager","value":""},{"uuid":"","type":"department_manager","value":"$csv{data.organization.organization_1.uuid}"},{"uuid":"","type":"employee","value":"$csv{data.Auth.user_1.employee_id}"}],"target_type":"duration","target_value":"!!String{\"symbol\":\"&gt;\",\"unit\":\"h\",\"number\":\"4\"}"}]</t>
+  </si>
+  <si>
+    <t>[{"target_value":"!!String{}","target_type":"","approvers":[{"type":"reporting_to","uuid":"","value":"1"},{"type":"reporting_to","uuid":"","value":"2"},{"type":"reporting_to","uuid":"","value":"3"},{"type":"reporting_to","uuid":"","value":"4"},{"type":"login_user_department_manager","uuid":"","value":""},{"type":"department_manager","uuid":"","value":"$csv{data.organization.organization_2.uuid}"},{"type":"employee","uuid":"","value":"$csv{data.Auth.user_1.employee_id}"}],"uuid":"$csv{data.AllTypes.overtime_request.uuid}"},{"target_value":"!!String{\"department\":[\"$csv{data.organization.organization_1.uuid}\"],\"employee\":[]}","target_type":"sponsor","approvers":[{"type":"login_user_department_manager","uuid":"","value":""},{"type":"department_manager","uuid":"","value":"$csv{data.organization.organization_2.uuid}"},{"type":"employee","uuid":"","value":"$csv{data.Auth.user_1.employee_id}"}],"uuid":""}]</t>
+  </si>
+  <si>
+    <t>[{"target_value":"!!String{}","target_type":"","approvers":[{"type":"reporting_to","uuid":"","value":"1"},{"type":"reporting_to","uuid":"","value":"2"},{"type":"reporting_to","uuid":"","value":"3"},{"type":"reporting_to","uuid":"","value":"4"},{"type":"login_user_department_manager","uuid":"","value":""},{"type":"department_manager","uuid":"","value":"$csv{data.organization.organization_2.uuid}"},{"type":"employee","uuid":"","value":"$csv{data.Auth.user_1.employee_id}"}],"uuid":"$csv{data.AllTypes.overtime_request.uuid}"},{"target_value":"!!String{\"department\":[\"$csv{data.organization.organization_1.uuid}\"],\"employee\":[]}","target_type":"sponsor","approvers":[{"type":"login_user_department_manager","uuid":"","value":""},{"type":"department_manager","uuid":"","value":"$csv{data.organization.organization_2.uuid}"},{"type":"employee","uuid":"","value":"$csv{data.Auth.user_1.employee_id}"}],"uuid":""},{"uuid":"","approvers":[{"uuid":"","type":"login_user_department_manager","value":""}],"target_type":"duration","target_value":"!!String{\"symbol\":\"&lt;\",\"unit\":\"m\",\"number\":\"60\"}"},{"uuid":"","approvers":[{"uuid":"","type":"login_user_department_manager","value":""},{"uuid":"","type":"department_manager","value":"$csv{data.organization.organization_1.uuid}"}],"target_type":"duration","target_value":"!!String{\"symbol\":\"==\",\"unit\":\"m\",\"number\":\"60\"}"},{"uuid":"","approvers":[{"uuid":"","type":"login_user_department_manager","value":""},{"uuid":"","type":"department_manager","value":"$csv{data.organization.organization_1.uuid}"}],"target_type":"duration","target_value":"!!String{\"symbol\":\"==\",\"unit\":\"d\",\"number\":\"5\"}"},{"uuid":"","approvers":[{"uuid":"","type":"login_user_department_manager","value":""},{"uuid":"","type":"department_manager","value":"$csv{data.organization.organization_1.uuid}"},{"uuid":"","type":"employee","value":"$csv{data.Auth.user_1.employee_id}"}],"target_type":"duration","target_value":"!!String{\"symbol\":\"&gt;\",\"unit\":\"d\",\"number\":\"5\"}"}]</t>
+  </si>
+  <si>
+    <t>[{"target_value":"!!String{}","target_type":"","approvers":[{"type":"reporting_to","uuid":"","value":"1"},{"type":"reporting_to","uuid":"","value":"2"},{"type":"reporting_to","uuid":"","value":"3"},{"type":"reporting_to","uuid":"","value":"4"},{"type":"login_user_department_manager","uuid":"","value":""},{"type":"department_manager","uuid":"","value":"$csv{data.organization.organization_2.uuid}"},{"type":"employee","uuid":"","value":"$csv{data.Auth.user_1.employee_id}"}],"uuid":"$csv{data.AllTypes.trip_request.uuid}"},{"target_value":"!!String{\"department\":[\"$csv{data.organization.organization_1.uuid}\"],\"employee\":[]}","target_type":"sponsor","approvers":[{"type":"login_user_department_manager","uuid":"","value":""},{"type":"department_manager","uuid":"","value":"$csv{data.organization.organization_2.uuid}"},{"type":"employee","uuid":"","value":"$csv{data.Auth.user_1.employee_id}"}],"uuid":""}]</t>
+  </si>
+  <si>
+    <t>[{"target_value":"!!String{}","target_type":"","approvers":[{"type":"reporting_to","uuid":"","value":"1"},{"type":"reporting_to","uuid":"","value":"2"},{"type":"reporting_to","uuid":"","value":"3"},{"type":"reporting_to","uuid":"","value":"4"},{"type":"login_user_department_manager","uuid":"","value":""},{"type":"department_manager","uuid":"","value":"$csv{data.organization.organization_2.uuid}"},{"type":"employee","uuid":"","value":"$csv{data.Auth.user_1.employee_id}"}],"uuid":"$csv{data.AllTypes.trip_request.uuid}"},{"target_value":"!!String{\"department\":[\"$csv{data.organization.organization_1.uuid}\"],\"employee\":[]}","target_type":"sponsor","approvers":[{"type":"login_user_department_manager","uuid":"","value":""},{"type":"department_manager","uuid":"","value":"$csv{data.organization.organization_2.uuid}"},{"type":"employee","uuid":"","value":"$csv{data.Auth.user_1.employee_id}"}],"uuid":""},{"uuid":"","approvers":[{"uuid":"","type":"login_user_department_manager","value":""}],"target_type":"duration","target_value":"!!String{\"symbol\":\"&lt;=\",\"unit\":\"d\",\"number\":\"4\"}"},{"uuid":"","approvers":[{"uuid":"","type":"login_user_department_manager","value":""},{"uuid":"","type":"department_manager","value":"$csv{data.organization.organization_1.uuid}"}],"target_type":"duration","target_value":"!!String{\"symbol\":\"==\",\"unit\":\"d\",\"number\":\"5\"}"},{"uuid":"","approvers":[{"uuid":"","type":"login_user_department_manager","value":""},{"uuid":"","type":"department_manager","value":"$csv{data.organization.organization_1.uuid}"},{"uuid":"","type":"employee","value":"$csv{data.Auth.user_1.employee_id}"}],"target_type":"duration","target_value":"!!String{\"symbol\":\"&gt;=\",\"unit\":\"d\",\"number\":\"6\"}"}]</t>
+  </si>
+  <si>
+    <t>[{"target_value":"!!String{}","target_type":"","approvers":[{"type":"reporting_to","uuid":"","value":"1"},{"type":"reporting_to","uuid":"","value":"2"},{"type":"reporting_to","uuid":"","value":"3"},{"type":"reporting_to","uuid":"","value":"4"},{"type":"login_user_department_manager","uuid":"","value":""},{"type":"department_manager","uuid":"","value":"$csv{data.organization.organization_2.uuid}"},{"type":"employee","uuid":"","value":"$csv{data.Auth.user_1.employee_id}"}],"uuid":"$csv{data.AllTypes.project_approval.uuid}"},{"target_value":"!!String{\"department\":[\"$csv{data.organization.organization_1.uuid}\"],\"employee\":[]}","target_type":"sponsor","approvers":[{"type":"login_user_department_manager","uuid":"","value":""},{"type":"department_manager","uuid":"","value":"$csv{data.organization.organization_2.uuid}"},{"type":"employee","uuid":"","value":"$csv{data.Auth.user_1.employee_id}"}],"uuid":""},{"uuid":"","approvers":[{"uuid":"","type":"employee","value":"$csv{data.Auth.user_1.employee_id}"},{"uuid":"","type":"login_user_department_manager","value":""}],"target_type":"sponsor","target_value":"!!String{\"department\":[],\"employee\":[\"$csv{data.Auth.user_houlong.employee_id}\"]}"}]</t>
+  </si>
+  <si>
+    <t>[{"target_value":"!!String{}","target_type":"","approvers":[{"type":"reporting_to","uuid":"","value":"1"},{"type":"reporting_to","uuid":"","value":"2"},{"type":"reporting_to","uuid":"","value":"3"},{"type":"reporting_to","uuid":"","value":"4"},{"type":"login_user_department_manager","uuid":"","value":""},{"type":"department_manager","uuid":"","value":"$csv{data.organization.organization_2.uuid}"},{"type":"employee","uuid":"","value":"$csv{data.Auth.user_1.employee_id}"}],"uuid":"$csv{data.AllTypes.general_approval.uuid}"},{"target_value":"!!String{\"department\":[\"$csv{data.organization.organization_1.uuid}\"],\"employee\":[]}","target_type":"sponsor","approvers":[{"type":"login_user_department_manager","uuid":"","value":""},{"type":"department_manager","uuid":"","value":"$csv{data.organization.organization_2.uuid}"},{"type":"employee","uuid":"","value":"$csv{data.Auth.user_1.employee_id}"}],"uuid":""},{"uuid":"","approvers":[{"uuid":"","type":"employee","value":"$csv{data.Auth.user_1.employee_id}"},{"uuid":"","type":"login_user_department_manager","value":""}],"target_type":"sponsor","target_value":"!!String{\"department\":[],\"employee\":[\"$csv{data.Auth.user_houlong.employee_id}\"]}"}]</t>
+  </si>
+  <si>
+    <t>[{"target_value":"!!String{}","target_type":"","approvers":[{"type":"reporting_to","uuid":"","value":"1"},{"type":"reporting_to","uuid":"","value":"2"},{"type":"reporting_to","uuid":"","value":"3"},{"type":"reporting_to","uuid":"","value":"4"},{"type":"login_user_department_manager","uuid":"","value":""},{"type":"department_manager","uuid":"","value":"$csv{data.organization.organization_2.uuid}"},{"type":"employee","uuid":"","value":"$csv{data.Auth.user_1.employee_id}"}],"uuid":"$csv{data.AllTypes.materialget.uuid}"},{"target_value":"!!String{\"department\":[\"$csv{data.organization.organization_1.uuid}\"],\"employee\":[]}","target_type":"sponsor","approvers":[{"type":"login_user_department_manager","uuid":"","value":""},{"type":"department_manager","uuid":"","value":"$csv{data.organization.organization_2.uuid}"},{"type":"employee","uuid":"","value":"$csv{data.Auth.user_1.employee_id}"}],"uuid":""},{"uuid":"","approvers":[{"uuid":"","type":"employee","value":"$csv{data.Auth.user_1.employee_id}"},{"uuid":"","type":"login_user_department_manager","value":""}],"target_type":"sponsor","target_value":"!!String{\"department\":[],\"employee\":[\"$csv{data.Auth.user_houlong.employee_id}\"]}"}]</t>
+  </si>
+  <si>
+    <t>[{"target_value":"!!String{}","target_type":"","approvers":[{"type":"reporting_to","uuid":"","value":"1"},{"type":"reporting_to","uuid":"","value":"2"},{"type":"reporting_to","uuid":"","value":"3"},{"type":"reporting_to","uuid":"","value":"4"},{"type":"login_user_department_manager","uuid":"","value":""},{"type":"department_manager","uuid":"","value":"$csv{data.organization.organization_2.uuid}"},{"type":"employee","uuid":"","value":"$csv{data.Auth.user_1.employee_id}"}],"uuid":"$csv{data.AllTypes.contract.uuid}"},{"target_value":"!!String{\"department\":[\"$csv{data.organization.organization_1.uuid}\"],\"employee\":[]}","target_type":"sponsor","approvers":[{"type":"login_user_department_manager","uuid":"","value":""},{"type":"department_manager","uuid":"","value":"$csv{data.organization.organization_2.uuid}"},{"type":"employee","uuid":"","value":"$csv{data.Auth.user_1.employee_id}"}],"uuid":""},{"uuid":"","approvers":[{"uuid":"","type":"employee","value":"$csv{data.Auth.user_1.employee_id}"},{"uuid":"","type":"login_user_department_manager","value":""}],"target_type":"sponsor","target_value":"!!String{\"department\":[],\"employee\":[\"$csv{data.Auth.user_houlong.employee_id}\"]}"}]</t>
+  </si>
+  <si>
+    <t>[{"uuid":"$csv{data.AllTypes.purchase.uuid}","approvers":[{"uuid":"","type":"reporting_to","value":"1"},{"uuid":"","type":"reporting_to","value":"2"},{"uuid":"","type":"reporting_to","value":"3"},{"uuid":"","type":"reporting_to","value":"4"},{"uuid":"","type":"login_user_department_manager","value":""},{"uuid":"","type":"department_manager","value":"$csv{data.organization.organization_2.uuid}"},{"uuid":"","type":"employee","value":"$csv{data.Auth.user_1.employee_id}"}],"target_type":"","target_value":"!!String{}"},{"uuid":"","approvers":[{"uuid":"","type":"login_user_department_manager","value":""},{"uuid":"","type":"department_manager","value":"$csv{data.organization.organization_2.uuid}"},{"uuid":"","type":"employee","value":"$csv{data.Auth.user_1.employee_id}"}],"target_type":"sponsor","target_value":"!!String{\"department\":[\"$csv{data.organization.organization_1.uuid}\"],\"employee\":[]}"},{"uuid":"","approvers":[{"uuid":"","type":"login_user_department_manager","value":""},{"uuid":"","type":"employee","value":"$csv{data.Auth.user_1.employee_id}"},{"uuid":"","type":"employee","value":"$csv{data.Auth.user_houlong.employee_id}"}],"target_type":"sponsor","target_value":"!!String{\"department\":[],\"employee\":[\"$csv{data.Auth.user_houlong.employee_id}\"]}"}]</t>
+  </si>
+  <si>
+    <t>[{"uuid":"$csv{data.AllTypes.reimbursement.uuid}","approvers":[{"uuid":"","type":"reporting_to","value":"1"},{"uuid":"","type":"reporting_to","value":"2"},{"uuid":"","type":"reporting_to","value":"3"},{"uuid":"","type":"reporting_to","value":"4"},{"uuid":"","type":"login_user_department_manager","value":""},{"uuid":"","type":"department_manager","value":"$csv{data.organization.organization_2.uuid}"},{"uuid":"","type":"employee","value":"$csv{data.Auth.user_1.employee_id}"}],"target_type":"","target_value":"!!String{}"},{"uuid":"","approvers":[{"uuid":"","type":"login_user_department_manager","value":""},{"uuid":"","type":"department_manager","value":"$csv{data.organization.organization_2.uuid}"},{"uuid":"","type":"employee","value":"$csv{data.Auth.user_1.employee_id}"}],"target_type":"sponsor","target_value":"!!String{\"department\":[\"$csv{data.organization.organization_1.uuid}\"],\"employee\":[]}"},{"uuid":"","approvers":[{"uuid":"","type":"login_user_department_manager","value":""},{"uuid":"","type":"employee","value":"$csv{data.Auth.user_1.employee_id}"},{"uuid":"","type":"employee","value":"$csv{data.Auth.user_houlong.employee_id}"}],"target_type":"sponsor","target_value":"!!String{\"department\":[],\"employee\":[\"$csv{data.Auth.user_houlong.employee_id}\"]}"}]</t>
+  </si>
+  <si>
+    <t>[{"uuid":"$csv{data.AllTypes.payment.uuid}","approvers":[{"uuid":"","type":"reporting_to","value":"1"},{"uuid":"","type":"reporting_to","value":"2"},{"uuid":"","type":"reporting_to","value":"3"},{"uuid":"","type":"reporting_to","value":"4"},{"uuid":"","type":"login_user_department_manager","value":""},{"uuid":"","type":"department_manager","value":"$csv{data.organization.organization_2.uuid}"},{"uuid":"","type":"employee","value":"$csv{data.Auth.user_1.employee_id}"}],"target_type":"","target_value":"!!String{}"},{"uuid":"","approvers":[{"uuid":"","type":"login_user_department_manager","value":""},{"uuid":"","type":"department_manager","value":"$csv{data.organization.organization_2.uuid}"},{"uuid":"","type":"employee","value":"$csv{data.Auth.user_1.employee_id}"}],"target_type":"sponsor","target_value":"!!String{\"department\":[\"$csv{data.organization.organization_1.uuid}\"],\"employee\":[]}"},{"uuid":"","approvers":[{"uuid":"","type":"login_user_department_manager","value":""},{"uuid":"","type":"employee","value":"$csv{data.Auth.user_1.employee_id}"},{"uuid":"","type":"employee","value":"$csv{data.Auth.user_houlong.employee_id}"}],"target_type":"sponsor","target_value":"!!String{\"department\":[],\"employee\":[\"$csv{data.Auth.user_houlong.employee_id}\"]}"}]</t>
+  </si>
+  <si>
+    <t>[{"uuid":"$csv{data.AllTypes.purchase.uuid}","approvers":[{"uuid":"","type":"reporting_to","value":"1"},{"uuid":"","type":"reporting_to","value":"2"},{"uuid":"","type":"reporting_to","value":"3"},{"uuid":"","type":"reporting_to","value":"4"},{"uuid":"","type":"login_user_department_manager","value":""},{"uuid":"","type":"department_manager","value":"$csv{data.organization.organization_2.uuid}"},{"uuid":"","type":"employee","value":"$csv{data.Auth.user_1.employee_id}"}],"target_type":"","target_value":"!!String{}"},{"uuid":"","approvers":[{"uuid":"","type":"login_user_department_manager","value":""},{"uuid":"","type":"department_manager","value":"$csv{data.organization.organization_2.uuid}"},{"uuid":"","type":"employee","value":"$csv{data.Auth.user_1.employee_id}"}],"target_type":"sponsor","target_value":"!!String{\"department\":[\"$csv{data.organization.organization_1.uuid}\"],\"employee\":[]}"},{"uuid":"","approvers":[{"uuid":"","type":"login_user_department_manager","value":""},{"uuid":"","type":"employee","value":"$csv{data.Auth.user_1.employee_id}"},{"uuid":"","type":"employee","value":"$csv{data.Auth.user_houlong.employee_id}"}],"target_type":"sponsor","target_value":"!!String{\"department\":[],\"employee\":[\"$csv{data.Auth.user_houlong.employee_id}\"]}"},{"uuid":"","approvers":[{"uuid":"","type":"login_user_department_manager","value":""},{"uuid":"","type":"department_manager","value":"$csv{data.organization.organization_3.uuid}"}],"target_type":"money","target_value":"!!String{\"symbol\":\"&lt;\",\"unit\":\"元\",\"number\":\"100.00\"}"},{"uuid":"","approvers":[{"uuid":"","type":"department_manager","value":"$csv{data.organization.organization_3.uuid}"},{"uuid":"","type":"employee","value":"$csv{data.Auth.user_1.employee_id}"}],"target_type":"money","target_value":"!!String{\"symbol\":\"==\",\"unit\":\"元\",\"number\":\"100.00\"}"},{"uuid":"","approvers":[{"uuid":"","type":"login_user_department_manager","value":""},{"uuid":"","type":"department_manager","value":"$csv{data.organization.organization_3.uuid}"},{"uuid":"","type":"employee","value":"$csv{data.Auth.user_1.employee_id}"}],"target_type":"money","target_value":"!!String{\"symbol\":\"&gt;\",\"unit\":\"元\",\"number\":\"100.00\"}"}]</t>
+  </si>
+  <si>
+    <t>[{"uuid":"$csv{data.AllTypes.reimbursement.uuid}","approvers":[{"uuid":"","type":"reporting_to","value":"1"},{"uuid":"","type":"reporting_to","value":"2"},{"uuid":"","type":"reporting_to","value":"3"},{"uuid":"","type":"reporting_to","value":"4"},{"uuid":"","type":"login_user_department_manager","value":""},{"uuid":"","type":"department_manager","value":"$csv{data.organization.organization_2.uuid}"},{"uuid":"","type":"employee","value":"$csv{data.Auth.user_1.employee_id}"}],"target_type":"","target_value":"!!String{}"},{"uuid":"","approvers":[{"uuid":"","type":"login_user_department_manager","value":""},{"uuid":"","type":"department_manager","value":"$csv{data.organization.organization_2.uuid}"},{"uuid":"","type":"employee","value":"$csv{data.Auth.user_1.employee_id}"}],"target_type":"sponsor","target_value":"!!String{\"department\":[\"$csv{data.organization.organization_1.uuid}\"],\"employee\":[]}"},{"uuid":"","approvers":[{"uuid":"","type":"login_user_department_manager","value":""},{"uuid":"","type":"employee","value":"$csv{data.Auth.user_1.employee_id}"},{"uuid":"","type":"employee","value":"$csv{data.Auth.user_houlong.employee_id}"}],"target_type":"sponsor","target_value":"!!String{\"department\":[],\"employee\":[\"$csv{data.Auth.user_houlong.employee_id}\"]}"},{"uuid":"","approvers":[{"uuid":"","type":"login_user_department_manager","value":""},{"uuid":"","type":"department_manager","value":"$csv{data.organization.organization_3.uuid}"}],"target_type":"money","target_value":"!!String{\"symbol\":\"&lt;=\",\"unit\":\"元\",\"number\":\"199.99\"}"},{"uuid":"","approvers":[{"uuid":"","type":"department_manager","value":"$csv{data.organization.organization_3.uuid}"},{"uuid":"","type":"employee","value":"$csv{data.Auth.user_1.employee_id}"}],"target_type":"money","target_value":"!!String{\"symbol\":\"==\",\"unit\":\"元\",\"number\":\"200.00\"}"},{"uuid":"","approvers":[{"uuid":"","type":"login_user_department_manager","value":""},{"uuid":"","type":"department_manager","value":"$csv{data.organization.organization_3.uuid}"},{"uuid":"","type":"employee","value":"$csv{data.Auth.user_1.employee_id}"}],"target_type":"money","target_value":"!!String{\"symbol\":\"&gt;=\",\"unit\":\"元\",\"number\":\"200.10\"}"}]</t>
+  </si>
+  <si>
+    <t>[{"uuid":"$csv{data.AllTypes.payment.uuid}","approvers":[{"uuid":"","type":"reporting_to","value":"1"},{"uuid":"","type":"reporting_to","value":"2"},{"uuid":"","type":"reporting_to","value":"3"},{"uuid":"","type":"reporting_to","value":"4"},{"uuid":"","type":"login_user_department_manager","value":""},{"uuid":"","type":"department_manager","value":"$csv{data.organization.organization_2.uuid}"},{"uuid":"","type":"employee","value":"$csv{data.Auth.user_1.employee_id}"}],"target_type":"","target_value":"!!String{}"},{"uuid":"","approvers":[{"uuid":"","type":"login_user_department_manager","value":""},{"uuid":"","type":"department_manager","value":"$csv{data.organization.organization_2.uuid}"},{"uuid":"","type":"employee","value":"$csv{data.Auth.user_1.employee_id}"}],"target_type":"sponsor","target_value":"!!String{\"department\":[\"$csv{data.organization.organization_1.uuid}\"],\"employee\":[]}"},{"uuid":"","approvers":[{"uuid":"","type":"login_user_department_manager","value":""},{"uuid":"","type":"employee","value":"$csv{data.Auth.user_1.employee_id}"},{"uuid":"","type":"employee","value":"$csv{data.Auth.user_houlong.employee_id}"}],"target_type":"sponsor","target_value":"!!String{\"department\":[],\"employee\":[\"$csv{data.Auth.user_houlong.employee_id}\"]}"},{"uuid":"","approvers":[{"uuid":"","type":"login_user_department_manager","value":""},{"uuid":"","type":"department_manager","value":"$csv{data.organization.organization_3.uuid}"}],"target_type":"money","target_value":"!!String{\"symbol\":\"&lt;=\",\"unit\":\"元\",\"number\":\"199.99\"}"},{"uuid":"","approvers":[{"uuid":"","type":"department_manager","value":"$csv{data.organization.organization_3.uuid}"},{"uuid":"","type":"employee","value":"$csv{data.Auth.user_1.employee_id}"}],"target_type":"money","target_value":"!!String{\"symbol\":\"==\",\"unit\":\"元\",\"number\":\"200.00\"}"},{"uuid":"","approvers":[{"uuid":"","type":"login_user_department_manager","value":""},{"uuid":"","type":"department_manager","value":"$csv{data.organization.organization_3.uuid}"},{"uuid":"","type":"employee","value":"$csv{data.Auth.user_1.employee_id}"}],"target_type":"money","target_value":"!!String{\"symbol\":\"&gt;=\",\"unit\":\"元\",\"number\":\"200.10\"}"}]</t>
   </si>
 </sst>
 </file>
@@ -1219,7 +1204,7 @@
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A2" s="4" t="s">
-        <v>212</v>
+        <v>175</v>
       </c>
       <c r="B2" s="1" t="s">
         <v>7</v>
@@ -1247,11 +1232,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G48"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="D9" sqref="D9"/>
+      <selection pane="bottomRight" activeCell="C18" sqref="C18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1293,13 +1278,13 @@
         <v>38</v>
       </c>
       <c r="B2" s="7" t="s">
-        <v>137</v>
+        <v>127</v>
       </c>
       <c r="C2" t="s">
         <v>41</v>
       </c>
       <c r="E2" t="s">
-        <v>136</v>
+        <v>181</v>
       </c>
       <c r="F2" t="s">
         <v>17</v>
@@ -1313,7 +1298,7 @@
         <v>39</v>
       </c>
       <c r="B3" s="7" t="s">
-        <v>137</v>
+        <v>127</v>
       </c>
       <c r="C3" t="s">
         <v>30</v>
@@ -1333,13 +1318,13 @@
         <v>36</v>
       </c>
       <c r="B4" s="7" t="s">
-        <v>139</v>
+        <v>128</v>
       </c>
       <c r="C4" t="s">
         <v>41</v>
       </c>
       <c r="E4" t="s">
-        <v>138</v>
+        <v>182</v>
       </c>
       <c r="F4" t="s">
         <v>17</v>
@@ -1353,13 +1338,13 @@
         <v>37</v>
       </c>
       <c r="B5" s="7" t="s">
-        <v>139</v>
+        <v>128</v>
       </c>
       <c r="C5" t="s">
         <v>40</v>
       </c>
       <c r="E5" t="s">
-        <v>122</v>
+        <v>199</v>
       </c>
       <c r="F5" t="s">
         <v>117</v>
@@ -1373,7 +1358,7 @@
         <v>48</v>
       </c>
       <c r="B6" s="7" t="s">
-        <v>213</v>
+        <v>176</v>
       </c>
       <c r="C6" t="s">
         <v>41</v>
@@ -1382,7 +1367,7 @@
         <v>47</v>
       </c>
       <c r="E6" t="s">
-        <v>214</v>
+        <v>183</v>
       </c>
       <c r="F6" t="s">
         <v>17</v>
@@ -1396,7 +1381,7 @@
         <v>49</v>
       </c>
       <c r="B7" s="7" t="s">
-        <v>213</v>
+        <v>176</v>
       </c>
       <c r="C7" t="s">
         <v>40</v>
@@ -1405,7 +1390,7 @@
         <v>43</v>
       </c>
       <c r="E7" t="s">
-        <v>215</v>
+        <v>200</v>
       </c>
       <c r="F7" t="s">
         <v>117</v>
@@ -1419,7 +1404,7 @@
         <v>121</v>
       </c>
       <c r="B8" s="7" t="s">
-        <v>213</v>
+        <v>176</v>
       </c>
       <c r="C8" s="7" t="s">
         <v>41</v>
@@ -1428,7 +1413,7 @@
         <v>47</v>
       </c>
       <c r="E8" t="s">
-        <v>216</v>
+        <v>177</v>
       </c>
       <c r="F8" s="7" t="s">
         <v>17</v>
@@ -1442,7 +1427,7 @@
         <v>45</v>
       </c>
       <c r="B9" s="7" t="s">
-        <v>218</v>
+        <v>179</v>
       </c>
       <c r="C9" t="s">
         <v>41</v>
@@ -1451,7 +1436,7 @@
         <v>44</v>
       </c>
       <c r="E9" t="s">
-        <v>219</v>
+        <v>184</v>
       </c>
       <c r="F9" t="s">
         <v>17</v>
@@ -1465,7 +1450,7 @@
         <v>46</v>
       </c>
       <c r="B10" s="7" t="s">
-        <v>218</v>
+        <v>179</v>
       </c>
       <c r="C10" t="s">
         <v>40</v>
@@ -1474,7 +1459,7 @@
         <v>44</v>
       </c>
       <c r="E10" t="s">
-        <v>220</v>
+        <v>201</v>
       </c>
       <c r="F10" t="s">
         <v>117</v>
@@ -1488,13 +1473,13 @@
         <v>50</v>
       </c>
       <c r="B11" s="7" t="s">
-        <v>141</v>
+        <v>129</v>
       </c>
       <c r="C11" t="s">
         <v>41</v>
       </c>
       <c r="E11" t="s">
-        <v>140</v>
+        <v>185</v>
       </c>
       <c r="F11" t="s">
         <v>17</v>
@@ -1508,13 +1493,13 @@
         <v>51</v>
       </c>
       <c r="B12" s="7" t="s">
-        <v>141</v>
+        <v>129</v>
       </c>
       <c r="C12" t="s">
         <v>40</v>
       </c>
       <c r="E12" t="s">
-        <v>123</v>
+        <v>202</v>
       </c>
       <c r="F12" t="s">
         <v>117</v>
@@ -1528,13 +1513,13 @@
         <v>52</v>
       </c>
       <c r="B13" s="7" t="s">
-        <v>143</v>
+        <v>130</v>
       </c>
       <c r="C13" t="s">
         <v>41</v>
       </c>
       <c r="E13" t="s">
-        <v>142</v>
+        <v>186</v>
       </c>
       <c r="F13" t="s">
         <v>17</v>
@@ -1548,13 +1533,13 @@
         <v>55</v>
       </c>
       <c r="B14" s="7" t="s">
-        <v>143</v>
+        <v>130</v>
       </c>
       <c r="C14" t="s">
         <v>40</v>
       </c>
       <c r="E14" t="s">
-        <v>199</v>
+        <v>203</v>
       </c>
       <c r="F14" t="s">
         <v>117</v>
@@ -1568,13 +1553,13 @@
         <v>56</v>
       </c>
       <c r="B15" s="7" t="s">
-        <v>143</v>
+        <v>130</v>
       </c>
       <c r="C15" t="s">
         <v>40</v>
       </c>
       <c r="E15" t="s">
-        <v>200</v>
+        <v>204</v>
       </c>
       <c r="F15" t="s">
         <v>117</v>
@@ -1588,13 +1573,13 @@
         <v>57</v>
       </c>
       <c r="B16" s="7" t="s">
-        <v>145</v>
+        <v>131</v>
       </c>
       <c r="C16" t="s">
         <v>41</v>
       </c>
       <c r="E16" t="s">
-        <v>144</v>
+        <v>187</v>
       </c>
       <c r="F16" t="s">
         <v>17</v>
@@ -1608,13 +1593,13 @@
         <v>58</v>
       </c>
       <c r="B17" s="7" t="s">
-        <v>145</v>
+        <v>131</v>
       </c>
       <c r="C17" t="s">
         <v>40</v>
       </c>
       <c r="E17" t="s">
-        <v>201</v>
+        <v>205</v>
       </c>
       <c r="F17" t="s">
         <v>117</v>
@@ -1628,13 +1613,13 @@
         <v>61</v>
       </c>
       <c r="B18" s="7" t="s">
-        <v>147</v>
+        <v>132</v>
       </c>
       <c r="C18" t="s">
         <v>41</v>
       </c>
       <c r="E18" t="s">
-        <v>146</v>
+        <v>188</v>
       </c>
       <c r="F18" t="s">
         <v>17</v>
@@ -1648,13 +1633,13 @@
         <v>62</v>
       </c>
       <c r="B19" s="7" t="s">
-        <v>147</v>
+        <v>132</v>
       </c>
       <c r="C19" t="s">
         <v>40</v>
       </c>
       <c r="E19" t="s">
-        <v>126</v>
+        <v>206</v>
       </c>
       <c r="F19" t="s">
         <v>117</v>
@@ -1668,13 +1653,13 @@
         <v>74</v>
       </c>
       <c r="B20" s="7" t="s">
-        <v>147</v>
+        <v>132</v>
       </c>
       <c r="C20" t="s">
         <v>40</v>
       </c>
       <c r="E20" t="s">
-        <v>127</v>
+        <v>207</v>
       </c>
       <c r="F20" t="s">
         <v>117</v>
@@ -1688,13 +1673,13 @@
         <v>67</v>
       </c>
       <c r="B21" s="7" t="s">
-        <v>149</v>
+        <v>133</v>
       </c>
       <c r="C21" t="s">
         <v>41</v>
       </c>
       <c r="E21" t="s">
-        <v>148</v>
+        <v>189</v>
       </c>
       <c r="F21" t="s">
         <v>17</v>
@@ -1708,13 +1693,13 @@
         <v>68</v>
       </c>
       <c r="B22" s="7" t="s">
-        <v>149</v>
+        <v>133</v>
       </c>
       <c r="C22" t="s">
         <v>40</v>
       </c>
       <c r="E22" t="s">
-        <v>129</v>
+        <v>208</v>
       </c>
       <c r="F22" t="s">
         <v>117</v>
@@ -1728,13 +1713,13 @@
         <v>75</v>
       </c>
       <c r="B23" s="7" t="s">
-        <v>149</v>
+        <v>133</v>
       </c>
       <c r="C23" t="s">
         <v>40</v>
       </c>
       <c r="E23" t="s">
-        <v>130</v>
+        <v>209</v>
       </c>
       <c r="F23" t="s">
         <v>117</v>
@@ -1748,13 +1733,13 @@
         <v>69</v>
       </c>
       <c r="B24" s="7" t="s">
-        <v>151</v>
+        <v>134</v>
       </c>
       <c r="C24" t="s">
         <v>41</v>
       </c>
       <c r="E24" t="s">
-        <v>150</v>
+        <v>190</v>
       </c>
       <c r="F24" t="s">
         <v>17</v>
@@ -1768,13 +1753,13 @@
         <v>70</v>
       </c>
       <c r="B25" s="7" t="s">
-        <v>151</v>
+        <v>134</v>
       </c>
       <c r="C25" t="s">
         <v>40</v>
       </c>
       <c r="E25" t="s">
-        <v>132</v>
+        <v>210</v>
       </c>
       <c r="F25" t="s">
         <v>117</v>
@@ -1788,13 +1773,13 @@
         <v>76</v>
       </c>
       <c r="B26" s="7" t="s">
-        <v>151</v>
+        <v>134</v>
       </c>
       <c r="C26" t="s">
         <v>40</v>
       </c>
       <c r="E26" t="s">
-        <v>133</v>
+        <v>211</v>
       </c>
       <c r="F26" t="s">
         <v>117</v>
@@ -1808,14 +1793,14 @@
         <v>78</v>
       </c>
       <c r="B27" s="7" t="s">
-        <v>153</v>
+        <v>135</v>
       </c>
       <c r="C27" s="6" t="s">
         <v>79</v>
       </c>
       <c r="D27" s="6"/>
       <c r="E27" s="6" t="s">
-        <v>152</v>
+        <v>191</v>
       </c>
       <c r="F27" s="6" t="s">
         <v>17</v>
@@ -1829,14 +1814,14 @@
         <v>80</v>
       </c>
       <c r="B28" s="7" t="s">
-        <v>153</v>
+        <v>135</v>
       </c>
       <c r="C28" s="6" t="s">
         <v>81</v>
       </c>
       <c r="D28" s="6"/>
       <c r="E28" s="6" t="s">
-        <v>202</v>
+        <v>212</v>
       </c>
       <c r="F28" s="6" t="s">
         <v>117</v>
@@ -1850,14 +1835,14 @@
         <v>82</v>
       </c>
       <c r="B29" s="7" t="s">
-        <v>155</v>
+        <v>136</v>
       </c>
       <c r="C29" s="6" t="s">
         <v>79</v>
       </c>
       <c r="D29" s="6"/>
       <c r="E29" s="6" t="s">
-        <v>154</v>
+        <v>192</v>
       </c>
       <c r="F29" s="6" t="s">
         <v>17</v>
@@ -1871,14 +1856,14 @@
         <v>83</v>
       </c>
       <c r="B30" s="7" t="s">
-        <v>155</v>
+        <v>136</v>
       </c>
       <c r="C30" s="6" t="s">
         <v>81</v>
       </c>
       <c r="D30" s="6"/>
       <c r="E30" s="6" t="s">
-        <v>203</v>
+        <v>213</v>
       </c>
       <c r="F30" s="6" t="s">
         <v>117</v>
@@ -1892,14 +1877,14 @@
         <v>84</v>
       </c>
       <c r="B31" s="7" t="s">
-        <v>157</v>
+        <v>137</v>
       </c>
       <c r="C31" s="6" t="s">
         <v>79</v>
       </c>
       <c r="D31" s="6"/>
       <c r="E31" s="6" t="s">
-        <v>156</v>
+        <v>193</v>
       </c>
       <c r="F31" s="6" t="s">
         <v>17</v>
@@ -1913,14 +1898,14 @@
         <v>85</v>
       </c>
       <c r="B32" s="7" t="s">
-        <v>157</v>
+        <v>137</v>
       </c>
       <c r="C32" s="6" t="s">
         <v>81</v>
       </c>
       <c r="D32" s="6"/>
       <c r="E32" s="6" t="s">
-        <v>204</v>
+        <v>214</v>
       </c>
       <c r="F32" s="6" t="s">
         <v>117</v>
@@ -1934,14 +1919,14 @@
         <v>86</v>
       </c>
       <c r="B33" s="7" t="s">
-        <v>159</v>
+        <v>138</v>
       </c>
       <c r="C33" s="6" t="s">
         <v>79</v>
       </c>
       <c r="D33" s="6"/>
       <c r="E33" s="6" t="s">
-        <v>158</v>
+        <v>194</v>
       </c>
       <c r="F33" s="6" t="s">
         <v>17</v>
@@ -1955,14 +1940,14 @@
         <v>87</v>
       </c>
       <c r="B34" s="7" t="s">
-        <v>159</v>
+        <v>138</v>
       </c>
       <c r="C34" s="6" t="s">
         <v>81</v>
       </c>
       <c r="D34" s="6"/>
       <c r="E34" s="6" t="s">
-        <v>205</v>
+        <v>215</v>
       </c>
       <c r="F34" s="6" t="s">
         <v>117</v>
@@ -1976,13 +1961,13 @@
         <v>93</v>
       </c>
       <c r="B35" s="7" t="s">
-        <v>161</v>
+        <v>139</v>
       </c>
       <c r="C35" s="7" t="s">
         <v>41</v>
       </c>
       <c r="E35" s="7" t="s">
-        <v>160</v>
+        <v>195</v>
       </c>
       <c r="F35" s="7" t="s">
         <v>17</v>
@@ -1996,13 +1981,13 @@
         <v>94</v>
       </c>
       <c r="B36" s="7" t="s">
-        <v>161</v>
+        <v>139</v>
       </c>
       <c r="C36" s="7" t="s">
         <v>30</v>
       </c>
       <c r="E36" s="7" t="s">
-        <v>206</v>
+        <v>216</v>
       </c>
       <c r="F36" s="7" t="s">
         <v>117</v>
@@ -2016,13 +2001,13 @@
         <v>98</v>
       </c>
       <c r="B37" s="7" t="s">
-        <v>161</v>
+        <v>139</v>
       </c>
       <c r="C37" s="7" t="s">
         <v>81</v>
       </c>
       <c r="E37" t="s">
-        <v>207</v>
+        <v>219</v>
       </c>
       <c r="F37" s="7" t="s">
         <v>117</v>
@@ -2036,13 +2021,13 @@
         <v>107</v>
       </c>
       <c r="B38" s="7" t="s">
-        <v>162</v>
+        <v>140</v>
       </c>
       <c r="C38" s="7" t="s">
         <v>41</v>
       </c>
       <c r="E38" s="7" t="s">
-        <v>135</v>
+        <v>196</v>
       </c>
       <c r="F38" s="7" t="s">
         <v>17</v>
@@ -2056,13 +2041,13 @@
         <v>100</v>
       </c>
       <c r="B39" s="7" t="s">
-        <v>162</v>
+        <v>140</v>
       </c>
       <c r="C39" s="7" t="s">
         <v>30</v>
       </c>
       <c r="E39" s="7" t="s">
-        <v>208</v>
+        <v>217</v>
       </c>
       <c r="F39" s="7" t="s">
         <v>117</v>
@@ -2076,13 +2061,13 @@
         <v>101</v>
       </c>
       <c r="B40" s="7" t="s">
-        <v>162</v>
+        <v>140</v>
       </c>
       <c r="C40" s="7" t="s">
         <v>81</v>
       </c>
       <c r="E40" s="7" t="s">
-        <v>209</v>
+        <v>220</v>
       </c>
       <c r="F40" s="7" t="s">
         <v>117</v>
@@ -2096,13 +2081,13 @@
         <v>103</v>
       </c>
       <c r="B41" s="7" t="s">
-        <v>164</v>
+        <v>141</v>
       </c>
       <c r="C41" s="7" t="s">
         <v>41</v>
       </c>
       <c r="E41" s="7" t="s">
-        <v>163</v>
+        <v>197</v>
       </c>
       <c r="F41" s="7" t="s">
         <v>17</v>
@@ -2116,13 +2101,13 @@
         <v>104</v>
       </c>
       <c r="B42" s="7" t="s">
-        <v>164</v>
+        <v>141</v>
       </c>
       <c r="C42" s="7" t="s">
         <v>30</v>
       </c>
       <c r="E42" s="7" t="s">
-        <v>210</v>
+        <v>218</v>
       </c>
       <c r="F42" s="7" t="s">
         <v>117</v>
@@ -2136,13 +2121,13 @@
         <v>105</v>
       </c>
       <c r="B43" s="7" t="s">
-        <v>164</v>
+        <v>141</v>
       </c>
       <c r="C43" s="7" t="s">
         <v>81</v>
       </c>
       <c r="E43" s="7" t="s">
-        <v>211</v>
+        <v>221</v>
       </c>
       <c r="F43" s="7" t="s">
         <v>117</v>
@@ -2156,13 +2141,13 @@
         <v>108</v>
       </c>
       <c r="B44" s="7" t="s">
-        <v>143</v>
+        <v>130</v>
       </c>
       <c r="C44" s="7" t="s">
         <v>113</v>
       </c>
       <c r="E44" s="7" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="F44" s="7" t="s">
         <v>17</v>
@@ -2176,13 +2161,13 @@
         <v>109</v>
       </c>
       <c r="B45" s="7" t="s">
-        <v>145</v>
+        <v>131</v>
       </c>
       <c r="C45" s="7" t="s">
         <v>114</v>
       </c>
       <c r="E45" s="7" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="F45" s="7" t="s">
         <v>17</v>
@@ -2196,13 +2181,13 @@
         <v>110</v>
       </c>
       <c r="B46" s="7" t="s">
-        <v>147</v>
+        <v>132</v>
       </c>
       <c r="C46" s="7" t="s">
         <v>115</v>
       </c>
       <c r="E46" s="7" t="s">
-        <v>128</v>
+        <v>124</v>
       </c>
       <c r="F46" s="7" t="s">
         <v>17</v>
@@ -2216,13 +2201,13 @@
         <v>111</v>
       </c>
       <c r="B47" s="7" t="s">
-        <v>149</v>
+        <v>133</v>
       </c>
       <c r="C47" s="7" t="s">
         <v>113</v>
       </c>
       <c r="E47" s="7" t="s">
-        <v>131</v>
+        <v>125</v>
       </c>
       <c r="F47" s="7" t="s">
         <v>17</v>
@@ -2236,13 +2221,13 @@
         <v>112</v>
       </c>
       <c r="B48" s="7" t="s">
-        <v>151</v>
+        <v>134</v>
       </c>
       <c r="C48" s="7" t="s">
         <v>113</v>
       </c>
       <c r="E48" s="7" t="s">
-        <v>134</v>
+        <v>126</v>
       </c>
       <c r="F48" s="7" t="s">
         <v>17</v>
@@ -2262,11 +2247,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:O48"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="D2" activePane="bottomRight" state="frozen"/>
+    <sheetView workbookViewId="0">
+      <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="G14" sqref="G14"/>
+      <selection pane="bottomRight" activeCell="G17" sqref="G17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -2308,7 +2293,7 @@
         <v>22</v>
       </c>
       <c r="H1" t="s">
-        <v>165</v>
+        <v>142</v>
       </c>
       <c r="I1" t="s">
         <v>15</v>
@@ -2352,10 +2337,10 @@
         <v>16</v>
       </c>
       <c r="G2" s="7" t="s">
-        <v>137</v>
+        <v>127</v>
       </c>
       <c r="H2" s="7" t="s">
-        <v>166</v>
+        <v>143</v>
       </c>
       <c r="I2" t="s">
         <v>29</v>
@@ -2367,7 +2352,7 @@
         <v>27</v>
       </c>
       <c r="L2" s="7" t="s">
-        <v>181</v>
+        <v>158</v>
       </c>
       <c r="M2" t="s">
         <v>31</v>
@@ -2399,10 +2384,10 @@
         <v>16</v>
       </c>
       <c r="G3" s="7" t="s">
-        <v>137</v>
+        <v>127</v>
       </c>
       <c r="H3" s="7" t="s">
-        <v>166</v>
+        <v>143</v>
       </c>
       <c r="I3" t="s">
         <v>29</v>
@@ -2414,7 +2399,7 @@
         <v>27</v>
       </c>
       <c r="L3" s="7" t="s">
-        <v>181</v>
+        <v>158</v>
       </c>
       <c r="M3" t="s">
         <v>31</v>
@@ -2446,10 +2431,10 @@
         <v>16</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>139</v>
+        <v>128</v>
       </c>
       <c r="H4" s="7" t="s">
-        <v>167</v>
+        <v>144</v>
       </c>
       <c r="I4" t="s">
         <v>29</v>
@@ -2461,7 +2446,7 @@
         <v>27</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>182</v>
+        <v>159</v>
       </c>
       <c r="M4" t="s">
         <v>31</v>
@@ -2493,10 +2478,10 @@
         <v>16</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>139</v>
+        <v>128</v>
       </c>
       <c r="H5" s="7" t="s">
-        <v>167</v>
+        <v>144</v>
       </c>
       <c r="I5" t="s">
         <v>29</v>
@@ -2508,7 +2493,7 @@
         <v>27</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>182</v>
+        <v>159</v>
       </c>
       <c r="M5" t="s">
         <v>31</v>
@@ -2540,10 +2525,10 @@
         <v>16</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>213</v>
+        <v>176</v>
       </c>
       <c r="H6" s="7" t="s">
-        <v>217</v>
+        <v>178</v>
       </c>
       <c r="I6" t="s">
         <v>29</v>
@@ -2555,13 +2540,13 @@
         <v>27</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>196</v>
+        <v>173</v>
       </c>
       <c r="M6" t="s">
         <v>31</v>
       </c>
       <c r="N6" s="7" t="s">
-        <v>197</v>
+        <v>174</v>
       </c>
       <c r="O6" t="s">
         <v>28</v>
@@ -2587,10 +2572,10 @@
         <v>16</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>213</v>
+        <v>176</v>
       </c>
       <c r="H7" s="7" t="s">
-        <v>217</v>
+        <v>178</v>
       </c>
       <c r="I7" t="s">
         <v>29</v>
@@ -2602,13 +2587,13 @@
         <v>27</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>196</v>
+        <v>173</v>
       </c>
       <c r="M7" t="s">
         <v>31</v>
       </c>
       <c r="N7" s="7" t="s">
-        <v>197</v>
+        <v>174</v>
       </c>
       <c r="O7" t="s">
         <v>28</v>
@@ -2634,10 +2619,10 @@
         <v>16</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>213</v>
+        <v>176</v>
       </c>
       <c r="H8" s="7" t="s">
-        <v>217</v>
+        <v>178</v>
       </c>
       <c r="I8" s="7" t="s">
         <v>29</v>
@@ -2649,13 +2634,13 @@
         <v>27</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>196</v>
+        <v>173</v>
       </c>
       <c r="M8" s="7" t="s">
         <v>31</v>
       </c>
       <c r="N8" s="7" t="s">
-        <v>197</v>
+        <v>174</v>
       </c>
       <c r="O8" s="7" t="s">
         <v>28</v>
@@ -2681,10 +2666,10 @@
         <v>16</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>218</v>
+        <v>179</v>
       </c>
       <c r="H9" s="7" t="s">
-        <v>221</v>
+        <v>180</v>
       </c>
       <c r="I9" t="s">
         <v>29</v>
@@ -2696,13 +2681,13 @@
         <v>27</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>196</v>
+        <v>173</v>
       </c>
       <c r="M9" t="s">
         <v>31</v>
       </c>
       <c r="N9" s="7" t="s">
-        <v>197</v>
+        <v>174</v>
       </c>
       <c r="O9" t="s">
         <v>28</v>
@@ -2728,10 +2713,10 @@
         <v>16</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>218</v>
+        <v>179</v>
       </c>
       <c r="H10" s="7" t="s">
-        <v>221</v>
+        <v>180</v>
       </c>
       <c r="I10" t="s">
         <v>29</v>
@@ -2743,13 +2728,13 @@
         <v>27</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>196</v>
+        <v>173</v>
       </c>
       <c r="M10" t="s">
         <v>31</v>
       </c>
       <c r="N10" s="7" t="s">
-        <v>197</v>
+        <v>174</v>
       </c>
       <c r="O10" t="s">
         <v>28</v>
@@ -2775,10 +2760,10 @@
         <v>16</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>141</v>
+        <v>129</v>
       </c>
       <c r="H11" s="7" t="s">
-        <v>168</v>
+        <v>145</v>
       </c>
       <c r="I11" t="s">
         <v>29</v>
@@ -2790,7 +2775,7 @@
         <v>27</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>183</v>
+        <v>160</v>
       </c>
       <c r="M11" t="s">
         <v>31</v>
@@ -2822,10 +2807,10 @@
         <v>16</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>141</v>
+        <v>129</v>
       </c>
       <c r="H12" s="7" t="s">
-        <v>168</v>
+        <v>145</v>
       </c>
       <c r="I12" t="s">
         <v>29</v>
@@ -2837,7 +2822,7 @@
         <v>27</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>183</v>
+        <v>160</v>
       </c>
       <c r="M12" t="s">
         <v>31</v>
@@ -2869,10 +2854,10 @@
         <v>16</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>143</v>
+        <v>130</v>
       </c>
       <c r="H13" s="7" t="s">
-        <v>169</v>
+        <v>146</v>
       </c>
       <c r="I13" t="s">
         <v>29</v>
@@ -2884,7 +2869,7 @@
         <v>27</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>184</v>
+        <v>161</v>
       </c>
       <c r="M13" t="s">
         <v>73</v>
@@ -2916,10 +2901,10 @@
         <v>16</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>143</v>
+        <v>130</v>
       </c>
       <c r="H14" s="7" t="s">
-        <v>169</v>
+        <v>146</v>
       </c>
       <c r="I14" t="s">
         <v>29</v>
@@ -2931,7 +2916,7 @@
         <v>27</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>184</v>
+        <v>161</v>
       </c>
       <c r="M14" t="s">
         <v>73</v>
@@ -2963,10 +2948,10 @@
         <v>16</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>143</v>
+        <v>130</v>
       </c>
       <c r="H15" s="7" t="s">
-        <v>169</v>
+        <v>146</v>
       </c>
       <c r="I15" t="s">
         <v>29</v>
@@ -2978,7 +2963,7 @@
         <v>27</v>
       </c>
       <c r="L15" s="7" t="s">
-        <v>184</v>
+        <v>161</v>
       </c>
       <c r="M15" t="s">
         <v>73</v>
@@ -3010,10 +2995,10 @@
         <v>16</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>145</v>
+        <v>131</v>
       </c>
       <c r="H16" s="7" t="s">
-        <v>170</v>
+        <v>147</v>
       </c>
       <c r="I16" t="s">
         <v>29</v>
@@ -3025,7 +3010,7 @@
         <v>27</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>185</v>
+        <v>162</v>
       </c>
       <c r="M16" t="s">
         <v>73</v>
@@ -3057,10 +3042,10 @@
         <v>16</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>145</v>
+        <v>131</v>
       </c>
       <c r="H17" s="7" t="s">
-        <v>170</v>
+        <v>147</v>
       </c>
       <c r="I17" t="s">
         <v>29</v>
@@ -3072,7 +3057,7 @@
         <v>27</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>185</v>
+        <v>162</v>
       </c>
       <c r="M17" t="s">
         <v>73</v>
@@ -3104,10 +3089,10 @@
         <v>16</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>147</v>
+        <v>132</v>
       </c>
       <c r="H18" s="7" t="s">
-        <v>171</v>
+        <v>148</v>
       </c>
       <c r="I18" t="s">
         <v>29</v>
@@ -3119,7 +3104,7 @@
         <v>27</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>186</v>
+        <v>163</v>
       </c>
       <c r="M18" t="s">
         <v>73</v>
@@ -3151,10 +3136,10 @@
         <v>16</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>147</v>
+        <v>132</v>
       </c>
       <c r="H19" s="7" t="s">
-        <v>171</v>
+        <v>148</v>
       </c>
       <c r="I19" t="s">
         <v>29</v>
@@ -3166,7 +3151,7 @@
         <v>27</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>186</v>
+        <v>163</v>
       </c>
       <c r="M19" t="s">
         <v>73</v>
@@ -3198,10 +3183,10 @@
         <v>16</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>147</v>
+        <v>132</v>
       </c>
       <c r="H20" s="7" t="s">
-        <v>171</v>
+        <v>148</v>
       </c>
       <c r="I20" t="s">
         <v>29</v>
@@ -3213,7 +3198,7 @@
         <v>27</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>186</v>
+        <v>163</v>
       </c>
       <c r="M20" t="s">
         <v>73</v>
@@ -3245,10 +3230,10 @@
         <v>16</v>
       </c>
       <c r="G21" s="7" t="s">
+        <v>133</v>
+      </c>
+      <c r="H21" s="7" t="s">
         <v>149</v>
-      </c>
-      <c r="H21" s="7" t="s">
-        <v>172</v>
       </c>
       <c r="I21" t="s">
         <v>29</v>
@@ -3260,7 +3245,7 @@
         <v>27</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>187</v>
+        <v>164</v>
       </c>
       <c r="M21" t="s">
         <v>73</v>
@@ -3292,10 +3277,10 @@
         <v>16</v>
       </c>
       <c r="G22" s="7" t="s">
+        <v>133</v>
+      </c>
+      <c r="H22" s="7" t="s">
         <v>149</v>
-      </c>
-      <c r="H22" s="7" t="s">
-        <v>172</v>
       </c>
       <c r="I22" t="s">
         <v>77</v>
@@ -3307,7 +3292,7 @@
         <v>27</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>187</v>
+        <v>164</v>
       </c>
       <c r="M22" t="s">
         <v>73</v>
@@ -3339,10 +3324,10 @@
         <v>16</v>
       </c>
       <c r="G23" s="7" t="s">
+        <v>133</v>
+      </c>
+      <c r="H23" s="7" t="s">
         <v>149</v>
-      </c>
-      <c r="H23" s="7" t="s">
-        <v>172</v>
       </c>
       <c r="I23" t="s">
         <v>77</v>
@@ -3354,7 +3339,7 @@
         <v>27</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>187</v>
+        <v>164</v>
       </c>
       <c r="M23" t="s">
         <v>73</v>
@@ -3386,10 +3371,10 @@
         <v>16</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>151</v>
+        <v>134</v>
       </c>
       <c r="H24" s="7" t="s">
-        <v>173</v>
+        <v>150</v>
       </c>
       <c r="I24" t="s">
         <v>29</v>
@@ -3401,7 +3386,7 @@
         <v>27</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>188</v>
+        <v>165</v>
       </c>
       <c r="M24" t="s">
         <v>73</v>
@@ -3433,10 +3418,10 @@
         <v>16</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>151</v>
+        <v>134</v>
       </c>
       <c r="H25" s="7" t="s">
-        <v>173</v>
+        <v>150</v>
       </c>
       <c r="I25" t="s">
         <v>77</v>
@@ -3448,7 +3433,7 @@
         <v>27</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>188</v>
+        <v>165</v>
       </c>
       <c r="M25" t="s">
         <v>73</v>
@@ -3480,10 +3465,10 @@
         <v>16</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>151</v>
+        <v>134</v>
       </c>
       <c r="H26" s="7" t="s">
-        <v>173</v>
+        <v>150</v>
       </c>
       <c r="I26" t="s">
         <v>77</v>
@@ -3495,7 +3480,7 @@
         <v>27</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>188</v>
+        <v>165</v>
       </c>
       <c r="M26" t="s">
         <v>73</v>
@@ -3519,10 +3504,10 @@
       <c r="E27" s="7"/>
       <c r="F27" s="7"/>
       <c r="G27" s="7" t="s">
-        <v>153</v>
+        <v>135</v>
       </c>
       <c r="H27" s="7" t="s">
-        <v>174</v>
+        <v>151</v>
       </c>
       <c r="I27" s="7" t="s">
         <v>29</v>
@@ -3534,7 +3519,7 @@
         <v>27</v>
       </c>
       <c r="L27" s="7" t="s">
-        <v>189</v>
+        <v>166</v>
       </c>
       <c r="M27" s="7" t="s">
         <v>88</v>
@@ -3558,10 +3543,10 @@
       <c r="E28" s="7"/>
       <c r="F28" s="7"/>
       <c r="G28" s="7" t="s">
-        <v>153</v>
+        <v>135</v>
       </c>
       <c r="H28" s="7" t="s">
-        <v>174</v>
+        <v>151</v>
       </c>
       <c r="I28" s="7" t="s">
         <v>29</v>
@@ -3573,7 +3558,7 @@
         <v>27</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>189</v>
+        <v>166</v>
       </c>
       <c r="M28" s="7" t="s">
         <v>88</v>
@@ -3597,10 +3582,10 @@
       <c r="E29" s="7"/>
       <c r="F29" s="7"/>
       <c r="G29" s="7" t="s">
-        <v>155</v>
+        <v>136</v>
       </c>
       <c r="H29" s="7" t="s">
-        <v>175</v>
+        <v>152</v>
       </c>
       <c r="I29" s="7" t="s">
         <v>29</v>
@@ -3612,7 +3597,7 @@
         <v>27</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>190</v>
+        <v>167</v>
       </c>
       <c r="M29" s="7" t="s">
         <v>88</v>
@@ -3636,10 +3621,10 @@
       <c r="E30" s="7"/>
       <c r="F30" s="7"/>
       <c r="G30" s="7" t="s">
-        <v>155</v>
+        <v>136</v>
       </c>
       <c r="H30" s="7" t="s">
-        <v>175</v>
+        <v>152</v>
       </c>
       <c r="I30" s="7" t="s">
         <v>29</v>
@@ -3651,7 +3636,7 @@
         <v>27</v>
       </c>
       <c r="L30" s="7" t="s">
-        <v>190</v>
+        <v>167</v>
       </c>
       <c r="M30" s="7" t="s">
         <v>88</v>
@@ -3675,10 +3660,10 @@
       <c r="E31" s="7"/>
       <c r="F31" s="7"/>
       <c r="G31" s="7" t="s">
-        <v>157</v>
+        <v>137</v>
       </c>
       <c r="H31" s="7" t="s">
-        <v>176</v>
+        <v>153</v>
       </c>
       <c r="I31" s="7" t="s">
         <v>29</v>
@@ -3690,7 +3675,7 @@
         <v>27</v>
       </c>
       <c r="L31" s="7" t="s">
-        <v>191</v>
+        <v>168</v>
       </c>
       <c r="M31" s="7" t="s">
         <v>88</v>
@@ -3714,10 +3699,10 @@
       <c r="E32" s="7"/>
       <c r="F32" s="7"/>
       <c r="G32" s="7" t="s">
-        <v>157</v>
+        <v>137</v>
       </c>
       <c r="H32" s="7" t="s">
-        <v>176</v>
+        <v>153</v>
       </c>
       <c r="I32" s="7" t="s">
         <v>29</v>
@@ -3729,7 +3714,7 @@
         <v>27</v>
       </c>
       <c r="L32" s="7" t="s">
-        <v>191</v>
+        <v>168</v>
       </c>
       <c r="M32" s="7" t="s">
         <v>88</v>
@@ -3753,10 +3738,10 @@
       <c r="E33" s="7"/>
       <c r="F33" s="7"/>
       <c r="G33" s="7" t="s">
-        <v>159</v>
+        <v>138</v>
       </c>
       <c r="H33" s="7" t="s">
-        <v>177</v>
+        <v>154</v>
       </c>
       <c r="I33" s="7" t="s">
         <v>29</v>
@@ -3768,7 +3753,7 @@
         <v>27</v>
       </c>
       <c r="L33" s="7" t="s">
-        <v>192</v>
+        <v>169</v>
       </c>
       <c r="M33" s="7" t="s">
         <v>88</v>
@@ -3792,10 +3777,10 @@
       <c r="E34" s="7"/>
       <c r="F34" s="7"/>
       <c r="G34" s="7" t="s">
-        <v>159</v>
+        <v>138</v>
       </c>
       <c r="H34" s="7" t="s">
-        <v>177</v>
+        <v>154</v>
       </c>
       <c r="I34" s="7" t="s">
         <v>29</v>
@@ -3807,7 +3792,7 @@
         <v>27</v>
       </c>
       <c r="L34" s="7" t="s">
-        <v>192</v>
+        <v>169</v>
       </c>
       <c r="M34" s="7" t="s">
         <v>88</v>
@@ -3839,10 +3824,10 @@
         <v>16</v>
       </c>
       <c r="G35" s="7" t="s">
-        <v>161</v>
+        <v>139</v>
       </c>
       <c r="H35" s="7" t="s">
-        <v>178</v>
+        <v>155</v>
       </c>
       <c r="I35" s="7" t="s">
         <v>29</v>
@@ -3854,7 +3839,7 @@
         <v>27</v>
       </c>
       <c r="L35" s="7" t="s">
-        <v>193</v>
+        <v>170</v>
       </c>
       <c r="M35" s="7" t="s">
         <v>96</v>
@@ -3886,10 +3871,10 @@
         <v>16</v>
       </c>
       <c r="G36" s="7" t="s">
-        <v>161</v>
+        <v>139</v>
       </c>
       <c r="H36" s="7" t="s">
-        <v>178</v>
+        <v>155</v>
       </c>
       <c r="I36" s="7" t="s">
         <v>29</v>
@@ -3901,7 +3886,7 @@
         <v>27</v>
       </c>
       <c r="L36" s="7" t="s">
-        <v>193</v>
+        <v>170</v>
       </c>
       <c r="M36" s="7" t="s">
         <v>96</v>
@@ -3933,10 +3918,10 @@
         <v>16</v>
       </c>
       <c r="G37" s="7" t="s">
-        <v>161</v>
+        <v>139</v>
       </c>
       <c r="H37" s="7" t="s">
-        <v>178</v>
+        <v>155</v>
       </c>
       <c r="I37" s="7" t="s">
         <v>97</v>
@@ -3948,7 +3933,7 @@
         <v>27</v>
       </c>
       <c r="L37" s="7" t="s">
-        <v>193</v>
+        <v>170</v>
       </c>
       <c r="M37" s="7" t="s">
         <v>96</v>
@@ -3980,10 +3965,10 @@
         <v>16</v>
       </c>
       <c r="G38" s="7" t="s">
-        <v>162</v>
+        <v>140</v>
       </c>
       <c r="H38" s="7" t="s">
-        <v>179</v>
+        <v>156</v>
       </c>
       <c r="I38" s="7" t="s">
         <v>29</v>
@@ -3995,7 +3980,7 @@
         <v>27</v>
       </c>
       <c r="L38" s="7" t="s">
-        <v>194</v>
+        <v>171</v>
       </c>
       <c r="M38" s="7" t="s">
         <v>96</v>
@@ -4027,10 +4012,10 @@
         <v>16</v>
       </c>
       <c r="G39" s="7" t="s">
-        <v>162</v>
+        <v>140</v>
       </c>
       <c r="H39" s="7" t="s">
-        <v>179</v>
+        <v>156</v>
       </c>
       <c r="I39" s="7" t="s">
         <v>29</v>
@@ -4042,7 +4027,7 @@
         <v>27</v>
       </c>
       <c r="L39" s="7" t="s">
-        <v>194</v>
+        <v>171</v>
       </c>
       <c r="M39" s="7" t="s">
         <v>96</v>
@@ -4074,10 +4059,10 @@
         <v>16</v>
       </c>
       <c r="G40" s="7" t="s">
-        <v>162</v>
+        <v>140</v>
       </c>
       <c r="H40" s="7" t="s">
-        <v>179</v>
+        <v>156</v>
       </c>
       <c r="I40" s="7" t="s">
         <v>97</v>
@@ -4089,7 +4074,7 @@
         <v>27</v>
       </c>
       <c r="L40" s="7" t="s">
-        <v>194</v>
+        <v>171</v>
       </c>
       <c r="M40" s="7" t="s">
         <v>96</v>
@@ -4121,10 +4106,10 @@
         <v>16</v>
       </c>
       <c r="G41" s="7" t="s">
-        <v>164</v>
+        <v>141</v>
       </c>
       <c r="H41" s="7" t="s">
-        <v>180</v>
+        <v>157</v>
       </c>
       <c r="I41" s="7" t="s">
         <v>29</v>
@@ -4136,7 +4121,7 @@
         <v>27</v>
       </c>
       <c r="L41" s="7" t="s">
-        <v>195</v>
+        <v>172</v>
       </c>
       <c r="M41" s="7" t="s">
         <v>96</v>
@@ -4168,10 +4153,10 @@
         <v>16</v>
       </c>
       <c r="G42" s="7" t="s">
-        <v>164</v>
+        <v>141</v>
       </c>
       <c r="H42" s="7" t="s">
-        <v>180</v>
+        <v>157</v>
       </c>
       <c r="I42" s="7" t="s">
         <v>29</v>
@@ -4183,7 +4168,7 @@
         <v>27</v>
       </c>
       <c r="L42" s="7" t="s">
-        <v>195</v>
+        <v>172</v>
       </c>
       <c r="M42" s="7" t="s">
         <v>96</v>
@@ -4215,10 +4200,10 @@
         <v>16</v>
       </c>
       <c r="G43" s="7" t="s">
-        <v>164</v>
+        <v>141</v>
       </c>
       <c r="H43" s="7" t="s">
-        <v>180</v>
+        <v>157</v>
       </c>
       <c r="I43" s="7" t="s">
         <v>97</v>
@@ -4230,7 +4215,7 @@
         <v>27</v>
       </c>
       <c r="L43" s="7" t="s">
-        <v>195</v>
+        <v>172</v>
       </c>
       <c r="M43" s="7" t="s">
         <v>96</v>
@@ -4250,10 +4235,10 @@
         <v>118</v>
       </c>
       <c r="G44" s="7" t="s">
-        <v>143</v>
+        <v>130</v>
       </c>
       <c r="H44" s="7" t="s">
-        <v>169</v>
+        <v>146</v>
       </c>
       <c r="I44" s="7" t="s">
         <v>29</v>
@@ -4265,7 +4250,7 @@
         <v>27</v>
       </c>
       <c r="L44" s="7" t="s">
-        <v>184</v>
+        <v>161</v>
       </c>
       <c r="M44" s="7" t="s">
         <v>73</v>
@@ -4285,10 +4270,10 @@
         <v>118</v>
       </c>
       <c r="G45" s="7" t="s">
-        <v>145</v>
+        <v>131</v>
       </c>
       <c r="H45" s="7" t="s">
-        <v>170</v>
+        <v>147</v>
       </c>
       <c r="I45" s="7" t="s">
         <v>29</v>
@@ -4300,7 +4285,7 @@
         <v>27</v>
       </c>
       <c r="L45" s="7" t="s">
-        <v>185</v>
+        <v>162</v>
       </c>
       <c r="M45" s="7" t="s">
         <v>73</v>
@@ -4320,10 +4305,10 @@
         <v>118</v>
       </c>
       <c r="G46" s="7" t="s">
-        <v>147</v>
+        <v>132</v>
       </c>
       <c r="H46" s="7" t="s">
-        <v>171</v>
+        <v>148</v>
       </c>
       <c r="I46" s="7" t="s">
         <v>29</v>
@@ -4355,10 +4340,10 @@
         <v>118</v>
       </c>
       <c r="G47" s="7" t="s">
+        <v>133</v>
+      </c>
+      <c r="H47" s="7" t="s">
         <v>149</v>
-      </c>
-      <c r="H47" s="7" t="s">
-        <v>172</v>
       </c>
       <c r="I47" s="7" t="s">
         <v>29</v>
@@ -4390,10 +4375,10 @@
         <v>118</v>
       </c>
       <c r="G48" s="7" t="s">
-        <v>151</v>
+        <v>134</v>
       </c>
       <c r="H48" s="7" t="s">
-        <v>173</v>
+        <v>150</v>
       </c>
       <c r="I48" s="7" t="s">
         <v>29</v>
